--- a/uni_craw_section_chapter_header/hsnote/vi_chapters_notes_2024.xlsx
+++ b/uni_craw_section_chapter_header/hsnote/vi_chapters_notes_2024.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_section_chapter_header/hsnote/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_4501A3FDEB238B2C872D4C2C7D291AF178741B34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B16EF73D-5B9E-4AD3-9869-7E427ED455AD}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27465" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1138,8 +1144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1202,13 +1208,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1246,7 +1260,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1280,6 +1294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1314,9 +1329,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1489,14 +1505,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1524,7 +1546,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1538,7 +1560,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1552,7 +1574,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1588,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1602,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1594,7 +1616,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1608,7 +1630,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1622,7 +1644,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1636,7 +1658,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1650,7 +1672,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1664,7 +1686,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1678,7 +1700,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1692,7 +1714,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1706,7 +1728,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1720,7 +1742,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +1756,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1748,7 +1770,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1762,7 +1784,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1776,7 +1798,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1790,7 +1812,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1804,7 +1826,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1818,7 +1840,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1832,7 +1854,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1846,7 +1868,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1860,7 +1882,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1874,7 +1896,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +1910,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1902,7 +1924,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1916,7 +1938,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1930,7 +1952,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1944,7 +1966,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1958,7 +1980,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1972,7 +1994,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1986,7 +2008,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2000,7 +2022,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2014,7 +2036,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2028,7 +2050,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2042,7 +2064,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2056,7 +2078,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2070,7 +2092,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2084,7 +2106,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2098,7 +2120,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2112,7 +2134,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2126,7 +2148,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2140,7 +2162,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2154,7 +2176,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2168,7 +2190,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2182,7 +2204,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2196,7 +2218,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2210,7 +2232,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2224,7 +2246,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2238,7 +2260,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2252,7 +2274,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2266,7 +2288,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2280,7 +2302,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2294,7 +2316,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2308,7 +2330,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2322,7 +2344,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2336,7 +2358,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2350,7 +2372,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2364,7 +2386,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2378,7 +2400,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2392,7 +2414,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2406,7 +2428,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2420,7 +2442,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2434,7 +2456,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2448,7 +2470,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2462,7 +2484,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -2476,7 +2498,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2490,7 +2512,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -2504,7 +2526,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2518,7 +2540,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -2532,7 +2554,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -2546,7 +2568,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -2560,7 +2582,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -2574,7 +2596,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -2588,7 +2610,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2602,7 +2624,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -2616,7 +2638,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2630,7 +2652,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2644,7 +2666,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2658,7 +2680,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -2672,7 +2694,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2686,7 +2708,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2700,7 +2722,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2714,7 +2736,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2728,7 +2750,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2742,7 +2764,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2756,7 +2778,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -2770,7 +2792,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2784,7 +2806,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2798,7 +2820,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2812,7 +2834,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -2826,7 +2848,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -2840,7 +2862,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>

--- a/uni_craw_section_chapter_header/hsnote/vi_chapters_notes_2024.xlsx
+++ b/uni_craw_section_chapter_header/hsnote/vi_chapters_notes_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_section_chapter_header/hsnote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4501A3FDEB238B2C872D4C2C7D291AF178741B34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B16EF73D-5B9E-4AD3-9869-7E427ED455AD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_3F4DE0E151AB8A058F2D4CA43DAF2347796D68C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27465" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="363">
   <si>
     <t>chapter_name</t>
   </si>
@@ -691,13 +691,13 @@
     <t>['Chú giải.', '1. Chương này không bao gồm:', '(a) Các hợp chất hữu cơ đã được xác định về mặt hoá học riêng biệt, trừ metan và propan tinh khiết đã được phân loại ở nhóm 27.11;', '(b) Dược phẩm thuộc nhóm 30.03 hoặc 30.04; hoặc', '(c) Hỗn hợp hydrocarbon chưa no thuộc nhóm 33.01, 33.02 hoặc 38.05.', '2. Trong nhóm 27.10, khái niệm "dầu có nguồn gốc từ dầu mỏ và các loại dầu thu được từ khoáng bi-tum" không chỉ bao gồm dầu có nguồn gốc từ dầu mỏ và dầu thu được từ khoáng bi-tum mà còn bao gồm các loại dầu tương tự, cũng như loại dầu khác chủ yếu chứa hỗn hợp hydrocarbon chưa no, thu được bằng quá trình bất kỳ, với điều kiện trọng lượng cấu tử không thơm cao hơn cấu tử thơm.', 'Tuy nhiên, khái niệm này không bao gồm các polyolefin tổng hợp lỏng, loại dưới 60% thể tích chưng cất ở 300°C, sau khi sử dụng phương pháp chưng cất giảm áp suất sẽ chuyển đổi sang 1.013 millibar (Chương 39).', '3. Theo mục đích của nhóm 27.10, "dầu thải" có nghĩa là các chất thải chứa chủ yếu là dầu có nguồn gốc từ dầu mỏ và các loại dầu thu từ khoáng bi-tum (theo mô tả Chú giải 2 của Chương này), có hoặc không có nước. Bao gồm:', '(a) Các loại dầu không còn dùng được như là sản phẩm ban đầu (ví dụ, dầu bôi trơn đã sử dụng, dầu thuỷ lực đã sử dụng và dầu dùng cho máy biến điện đã sử dụng);', '(b) Dầu cặn từ bể chứa dầu có nguồn gốc từ dầu mỏ, chứa chủ yếu là dầu này và nồng độ chất phụ gia cao (ví dụ, hoá chất) dùng để sản xuất các sản phẩm gốc; và', '(c) Các loại dầu này ở dạng nhũ tương trong nước hoặc hoà lẫn với nước, như dầu thu hồi từ dầu tràn, từ rửa bể chứa dầu, hoặc từ dầu cắt để chạy máy.', 'o', 'o    o', 'Chú giải phân nhóm.', '1. Theo mục đích của phân nhóm 2701.11 "anthracite" có nghĩa là loại than có giới hạn chất bốc (trong điều kiện khô, không có khoáng chất) không vượt quá 14%.', '2. Theo mục đích của phân nhóm 2701.12, "than bi-tum" là loại than có giới hạn chất bốc (trong điều kiện khô, không có khoáng chất) trên 14% và giới hạn nhiệt lượng từ 5.833 kcal/kg trở lên (trong điều kiện ẩm, không có khoáng chất).', '3. Theo mục đích của các phân nhóm 2707.10, 2707.20, 2707.30 và 2707.40 khái niệm “benzol (benzen)”, “toluol (toluen)”, “xylol (xylen)” và "naphthalen" áp dụng cho các sản phẩm chứa hơn 50% tính theo trọng lượng tương ứng là benzen, toluen, xylen hoặc naphthalen.', '4. Theo mục đích của phân nhóm 2710.12, "dầu nhẹ và các chế phẩm" là các loại dầu có thể tích thành phần cất từ 90% trở lên (kể cả hao hụt) ở nhiệt độ 210oC theo phương pháp ISO 3405 (tương đương với phương pháp ASTM D 86).', '5. Theo mục đích của các phân nhóm thuộc nhóm 27.10, thuật ngữ "diesel sinh học" có nghĩa là mono-alkyl este của các axít béo, loại sử dụng làm nhiên liệu, được làm từ chất béo và dầu động vật hoặc thực vật đã hoặc chưa qua sử dụng.', 'KHÁI QUÁT CHUNG', 'Chương này bao gồm các loại than và các nhiên liệu khoáng thiên nhiên khác, dầu mỏ và các loại dầu thu được từ các loại khoáng có chứa bitum, các sản phẩm chưng cất của chúng và các sản phẩm thuộc loại tương tự thu được bằng phương pháp khác. Nó cũng bao gồm các sáp khoáng và các chất có chứa bitum tự nhiên. Các sản phẩm trong chương này có thể ở dạng thô hoặc tinh chế; Tuy nhiên, loại trừ methane và propane, khi chúng là các hợp chất hữu cơ đã được xác định về mặt hóa học riêng biệt ở trạng thái tinh khiết hay tinh khiết cho mục đích thương mại, chúng được xếp vào Chương 29. Đối với một số hợp chất nhất định (ví dụ: ethane, benzene, phenol, pyridine) các tiêu chí về độ tinh khiết đặc trưng được chỉ dẫn ở phần chú giải 29.01, 29.07 và 29.33. Methane và propane được phân loại ở nhóm 27.11, kể cả dạng tinh khiết.', 'Khái niệm “các cấu tử thơm” được dùng trong chú giải 2 của chương này và trong nhóm 27.07 cần được hiểu là chú giải cho toàn bộ phân tử với phần thơm, bất kể số lượng và chiều dài mạch nhánh và không là chú giải cho các phần thơm của các phân tử này.', 'Chương này không bao gồm', '(a) Các dược phẩm của nhóm 30.03 hoặc 30.04', '(b) Nước hoa, mỹ phẩm và các chế phẩm vệ sinh (nhóm 33.03 đến 33.07)', '(c) Các nhiên liệu lỏng hoặc các nhiên liệu khí hóa lỏng trong các hộp chứa sử dụng để nạp đầy hoặc nạp lại bật lửa hút thuốc và các bật lửa tương tự và có dung tích không quá 300 cm3 (nhóm 36.06).']</t>
   </si>
   <si>
-    <t>['Chú giải.', '1.- Trừ khi có yêu cầu khác, các nhóm thuộc Chương này chỉ bao gồm:', '(a) Các nguyên tố hoá học riêng biệt và các hợp chất được xác định về mặt hóa học riêng biệt, có hoặc không chứa tạp chất:', '(b) Các sản phẩm được nêu ở mục (a) trên đây đã được hòa tan trong nước;', '(c) Các sản phẩm nêu ở mục (a) trên đây hòa tan trong các dung môi khác miễn là sự hòa tan chỉ là một phương pháp thông thường và cần thiết để đóng gói những sản phẩm nhằm mục đích duy nhất là bảo đảm an toàn hoặc để vận chuyển và dung môi ấy không làm cho sản phẩm có công dụng đặc biệt ngoài công dụng thông thường của nó;', '(d) Các sản phẩm được đề cập ở mục (a), (b) hoặc (c) trên đây có thêm một chất ổn định (kể cả chất chống đông cứng) cần thiết cho sự bảo quản hoặc vận chuyển;', '(e) Các sản phẩm được đề cập ở mục (a), (b), (c) hoặc (d) trên đây có thêm chất chống bụi hoặc chất màu để dễ nhận biết hoặc để đảm bảo an toàn miễn là sự pha thêm này không làm cho sản phẩm có công dụng đặc biệt ngoài công dụng thông thường của nó.', '2.- Ngoài các dithionit và sulphoxylat, đã được làm ổn định bằng các chất hữu cơ (nhóm 28.31), carbonat và peroxocarbonat của các bazơ vô cơ (nhóm 28.36), xyanua, oxit xyanua và xyanua phức của các bazơ vô cơ (nhóm 28.37), fulminat, xyanat và thioxyanat, của các bazơ vô cơ (nhóm 28.42), các sản phẩm hữu cơ thuộc các nhóm từ 28.43 đến 28.46 và 28.52 và carbua (nhóm 28.49), chỉ các hợp chất carbon sau đây là được xếp vào Chương này:', '(a) Oxit carbon, hydroxyanua và axit funminic, isoxyanic, thioxyanic và các axit xyanic đơn hoặc phức khác (nhóm 28.11);', '(b) Các oxit halogenua của carbon (nhóm 28.12);', '(c) Carbon disulphua (nhóm 28.13);', '(d) Thiocarbonat, selenocarbonat, tellurocarbonat, selenoxyanat, telluroxyanat, tetrathio-cyanatodiamminochromates (reineckates) và các xyanat phức khác, của các bazơ vô cơ (nhóm 28.42);', '(e) Hydro peoxit, được làm rắn bằng urê (nhóm 28.47), oxysulphua carbon, halogenua thiocarbonyl, xyanogen, halogenua xyanogen và xyanamit và các dẫn xuất kim loại của chúng (nhóm 28.53) trừ xyanamit canxi, dạng tinh khiết hoặc không tinh khiết (Chương 31).', '3.- Theo Chú giải 1 của Phần VI, Chương này không bao gồm:', '(a) Natri clorua hoặc magiê oxit, tinh khiết hoặc không tinh khiết, hoặc các sản phẩm khác của Phần V;', '(b) Các hợp chất hữu cơ - vô cơ trừ các hợp chất đã nêu tại Chú giải 2 trên đây;', '(c) Các sản phẩm nêu tại Chú giải 2, 3, 4 hoặc 5 của Chương 31;', '(d) Các sản phẩm vô cơ sử dụng như chất phát quang, thuộc nhóm 32.06; frit thủy tinh và thủy tinh khác ở dạng bột, hạt hoặc mảnh, thuộc nhóm 32.07;', '(e) Graphit nhân tạo (nhóm 38.01); các sản phẩm dùng như chất dập lửa, để nạp cho bình cứu hỏa hoặc lựu đạn dập lửa, thuộc nhóm 38.13; chất tẩy mực đóng gói để bán lẻ, thuộc nhóm 38.24; tinh thể nuôi cấy (trừ các bộ phận quang học) halogenua kim loại kiềm hoặc kiềm thổ được tạo ra nặng không dưới 2,5g mỗi tinh thể, thuộc nhóm 38.24;', '(f) Đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo) hoặc bụi hoặc bột của các loại đá đó (nhóm 71.02 đến 71.05), hoặc kim loại quý hoặc hợp kim kim loại quý thuộc Chương 71;', '(g) Kim loại, nguyên chất hoặc không nguyên chất, các hợp kim hoặc gốm kim loại, kể cả carbua kim loại được thiêu kết (carbua kim loại được thiêu kết với một kim loại), thuộc Phần XV; hoặc', '(h) Các bộ phận quang học, ví dụ, loại làm bằng halogenua kim loại kiềm hoặc kiềm thổ (nhóm 90.01).', '4.- Các axit phức đã được xác định về mặt hoá học bao gồm một axit phi kim loại thuộc phân Chương II và một axit kim loại thuộc phân Chương IV phải được xếp vào nhóm 28.11.', '5.- Các nhóm 28.26 đến 28.42 chỉ áp dụng cho muối kim loại hoặc muối anioni hoặc muối peroxy.', 'Loại trừ có yêu cầu khác, các muối kép hoặc phức được phân loại trong nhóm 28.42.', '6.- Nhóm 28.44 chỉ áp dụng cho:', '(a) Tecneti (nguyên tố số 43), prometi (nguyên tố số 61), poloni (nguyên tố số 84) và tất cả các nguyên tố có số thứ tự trong bảng tuần hoàn lớn hơn 84;', '(b) Các chất đồng vị phóng xạ tự nhiên hoặc nhân tạo (kể cả các chất đồng vị phóng xạ của kim loại quý hoặc kim loại cơ bản thuộc Phần XIV và XV), đã hoặc chưa pha trộn với nhau;', 'c) Hợp chất, vô cơ hoặc hữu cơ, của các nguyên tố hoặc các chất đồng vị của chúng, đã hoặc chưa xác định về mặt hóa học, đã hoặc chưa trộn với nhau;', '(d) Hợp kim, các chất phân tán (kể cả gốm kim loại), các sản phẩm gốm và hỗn hợp chứa các nguyên tố hoặc chất đồng vị hoặc các hợp chất vô cơ hoặc hữu cơ từ các chất đó, có nồng độ phóng xạ riêng (đặc trưng) trên 74 Bq/g (0,002 µCi/g);', '(e) Ống (cartridges) nhiên liệu đã bức xạ của lò phản ứng hạt nhân;', '(f) Chất thải phóng xạ còn sử dụng được hoặc không.', 'Theo mục đích của Chú giải này và cách diễn đạt của các nhóm 28.44 và 28.45, thuật ngữ “chất đồng vị”, đề cập tới:', '- các hạt nhân riêng lẻ, không kể những hạt nhân tồn tại trong thiên nhiên dưới dạng chất đồng vị đơn;', '- hỗn hợp các chất đồng vị của một nguyên tố và nguyên tố đó, đã được làm giàu bằng một hoặc vài chất đồng vị nói trên, nghĩa là các nguyên tố mà thành phần đồng vị tự nhiên đã được làm thay đổi một cách nhân tạo.', '7.- Nhóm 28.53 bao gồm đồng phosphua (phosphor copper) có chứa trên 15% tính theo trọng lượng của phospho.', '8.- Các nguyên tố hoá học (ví dụ, silic và selen) đã được kích tạp dùng trong ngành điện tử phải xếp vào Chương này, nhưng chúng phải ở dạng chưa gia công như kéo, hoặc ở dạng hình trụ hoặc dạng que. Khi được cắt thành hình đĩa, miếng hoặc hình dáng tương tự, chúng phải được xếp vào nhóm 38.18.', 'Chú giải phân nhóm.', '1. Theo mục đích của phân nhóm 2852.10, thuật ngữ “xác định về mặt hóa học” có nghĩa là tất cả các hợp chất vô cơ hoặc hữu cơ của thủy ngân đáp ứng yêu cầu của đoạn (a) tới (e) của Chú giải 1 Chương 28 hoặc đoạn (a) tới (h) của Chú giải 1 Chương 29.', 'KHÁI QUÁT CHUNG', 'Trừ khi có những yêu cầu khác, Chương 28 được giới hạn cho các nguyên tố hóa học riêng biệt và các hợp chất đã được xác định về mặt hóa học riêng biệt.', 'Một hợp chất đã được xác định về mặt hóa học riêng biệt gồm có một loại phân tử (ví dụ, cộng hóa trị hoặc ion) mà thành phần được xác định bởi một tỷ lệ không đổi của các nguyên tố và có thể được miêu tả bởi biểu đồ cấu trúc đã xác định. Trong một mạng tinh thể, loại phân tử tương ứng với các ô mạng cơ sở lặp lại.', 'Các nguyên tố của một hợp chất đã được xác định về mặt hóa học riêng biệt kết hợp theo một tỷ lệ cụ thể được xác định bởi hóa trị và liên kết của nguyên tử. Tỷ lệ của mỗi nguyên tố là không đổi và cụ thể cho từng hợp chất và cân bằng về mặt hóa học.', 'Sự chênh lệch nhỏ trong tỷ lệ cân bằng hóa học có thể xảy ra vì những khoảng trống hoặc chèn trong mạng tinh thể. Các hợp chất này được mô tả như cân bằng hóa học và được phép xác định như là các hợp chất đã được xác định về mặt hóa học riêng biệt với điều kiện là sự chênh lệch không được cố ý tạo ra.', '(A) Các nguyên tố và hợp chất đã được xác định về mặt hóa học', '(Chú giải 1)', 'Các nguyên tố hóa học riêng biệt và các hợp chất đã được xác định về mặt hóa học riêng biệt chứa các tạp chất, hoặc hòa tan trong nước, vẫn được phân loại ở Chương 28.', 'Thuật ngữ "không tinh khiết" áp dụng riêng cho các chất mà sự có mặt của chúng ở dạng hợp chất hóa học đơn, duy nhất và trực tiếp thu được từ quá trình sản xuất (kể cả việc tinh chế). Các chất này có thể là kết quả từ bất kỳ yếu tố nào liên quan đến quá trình sản xuất và chủ yếu các dạng sau:', '(a) Nguyên liệu ban đầu không chuyển hóa.', '(b) Các hợp chất có trong nguyên liệu ban đầu.', '(c) Các thuốc thử được sử dụng trong quá trình sản xuất (kể cả việc tinh chế).', '(d) Các sản phẩm phụ.', 'Tuy nhiên, cần lưu ý rằng, những chất như vậy không phải trong tất cả các trường hợp đều được xem là "tạp chất" theo Chú giải 1 (a). Khi các chất này được cố ý để lại trong sản phẩm nhằm làm cho nó đặc biệt thích hợp cho công dụng riêng hơn là công dụng chung, thì chúng không được xem như là các tạp chất cho phép.', 'Các nguyên tố và các hợp chất như thế bị loại trừ khỏi Chương 28 khi chúng hòa tan trong dung môi trừ nước, trừ khi sự hòa tan này là một phương pháp thông thường và cần thiết để đóng gói những sản phẩm nhằm mục đích duy nhất là đảm bảo an toàn hoặc vận chuyển (trong trường hợp này dung môi không làm cho sản phẩm có công dụng đặc biệt ngoài công dụng thông thường của nó).', 'Vì vậy, cacbon clorua oxit được hòa tan trong benzen, dung dịch rượu của amoniac và dung dịch keo của hydroxit nhóm bị loại trừ khỏi Chương này và được phân loại vào nhóm 38.24. Nói chung, keo phân tán được phân loại vào nhóm 38.24, trừ khi được phân loại vào một nhóm đặc trưng hơn.', 'Các nguyên tố và các hợp chất đã được xác định về mặt hóa học riêng biệt được mô tả ở trên, mà có thêm các chất ổn định cần thiết cho việc bảo quản hoặc vận chuyển của chúng, vẫn được phân loại vào Chương này. Ví dụ, hydro peroxit được ổn định bằng cách thêm axit boric thì vẫn được phân loại vào nhóm 28.47; nhưng natri peroxit trộn với chất xúc tác (cho sản xuất hydro peroxit) bị loại trừ Chương 28 và được phân loại vào nhóm 38.24).', 'Các sản phẩm được thêm vào một số hóa chất nhằm giữ những sản phẩm này ở trạng thái vật lý ban đầu của chúng cũng sẽ được coi như là các chất ổn định, với điều kiện lượng thêm vào trong trường hợp nào cũng không được vượt quá lượng cần thiết để đạt được kết quả mong muốn và chất thêm vào không làm thay đổi tính chất của sản phẩm gốc và không được sử dụng cho mục đích đặc biệt khác ngoài mục đích sử dụng thông thường đã quy định. Bằng cách áp dụng những quy định này, các tác nhân chống keo tụ có thể được thêm vào các sản phẩm của Chương này. Nói cách khác, những sản phẩm như vậy được thêm các tác nhân không thấm nước sẽ bị loại trừ, khi những tác nhân này làm biến đổi các đặc tính ban đầu của các sản phẩm.', 'Trong những điều kiện như vậy, phần thêm vào không làm cho chúng thích hợp cho công dụng riêng hơn là công dụng chung đã được quy định, các sản phẩm thuộc Chương này cũng có thể bao gồm:', '(a) Việc thêm vào các tác nhân chống bụi (ví dụ, dầu khoáng được thêm một số hóa chất có độc tố nhằm ngăn ngừa bụi trong quá trình xử lý).', '(b) Các chất màu được thêm vào nhằm dễ dàng phát hiện hoặc được thêm vào vì lý do độ an toàn đối với các hóa chất nguy hiểm hoặc độc (ví dụ, chì asenat của nhóm 28.42) như một “ký hiệu” hoặc dấu hiệu cảnh báo cho những người tiếp xúc với các sản phẩm này. Tuy nhiên, những sản phẩm mà các chất màu được thêm vào vì các lý do khác (ví dụ, gel silic dioxit được tẩm thêm chất màu là muối coban để sử dụng như một chất chỉ thị độ ẩm (nhóm 38.24)), cũng bị loại trừ.', '(B) Sự khác biệt giữa các hợp chất của Chương 28 và các hợp chất của Chương 29', '(Chú giải 2)', 'Sau đây là danh mục các hợp chất có chứa cacbon mà chúng đã được phân loại vào Chương 28, và các nhóm mà chúng sẽ được phân loại:tmai', 'Nhóm 28.11 - Các Oxit cacbon.', 'Hydro cyanua, Hydrohexaxyanoferate (II) và Hydro heaxyanoferate (III).Isoxyanic, Funninic, Thioxyanic, Xyanomolibdic và các axit xyanogen đơn và phức khác.', 'Nhóm 28.12 - Cacbon Halogenua oxit.', 'Nhóm 28.13 - Cacbon Disunfua.', 'Nhóm 28.31 - Dithionit và sulphoxylat, được ổn định bằng các chất hữu cơ.', 'Nhóm 28.36 - Các Cacbonat và peroxocacbonat, của các bazơ vô cơ.', 'Nhóm 28.37 - Xyanua, Xyanua oxit và Xyanua phức (Hexaxyanoferat (II), Hexaxyanoferat (III), Nitrosylpentacyanoferat (II), Nitrosylpentacyanoferat (III), Xyanomercurat, Xyanocadimat, Xyanochromat, Xyanocobalnat, Xyanonicollat, Xyanocuprat,...) của các bazơ vô cơ.', 'Nhóm 28.42 - Thiocacbonat, selennocacbonat, tellurocacbonat, selenoxyanat, telluro-cyanat, tetrathiocyanatodiamminochromat (reienckat) và xyanat kép hoặc phức khác, của các bazơ vô cơ.', 'Nhóm 28.43 đến 28.46 - Các hợp chất vô cơ và hữu cơ của:', '(i) Các kim loại quý.', '(ii) Các nguyên tố phóng xạ.', '(iii) Các đồng vị.', '(iv) Các kim loại đất hiếm, ytri hoặc scandi.', 'Nhóm 28.47 - Hydro peroxit, đã làm rắn bằng ure, đã hoặc chưa được ổn định.', 'Nhóm 28.49 - Các carbua (carbua có 2 nguyên tố hóa học, borocarbua, carbonitrua....) trừ hydro carbua (hydrocarbon)', 'Nhóm 28.52 - Các hợp chất vô cơ và hữu cơ của thủy ngân, đã hoặc chưa xác định về mặt hóa học, trừ hỗn hống.', 'Nhóm 28.53 - Carbon oxysulphua, thiocarbonyl halogenua.', 'Xyanogen và các hợp chất halogen của xyanogen.', 'Xyanamit và dẫn xuất kim loại của nó (trừ canxi xyanamit, tinh khiết hoặc không tinh khiết - xem Chương 31).', 'Tất cả các hợp chất cacbon khác bị loại khỏi Chương 28.', '(C) Những sản phẩm vẫn được phân loại vào Chương 28, ngay cả khi chúng không phải là các nguyên tố hóa học riêng biệt hoặc không là các hợp chất đã được xác định về mặt hóa học riêng biệt.', 'Đây là một số ngoại lệ đối với quy tắc là Chương này được giới hạn cho các nguyên tố hóa học riêng biệt và các hợp chất đã được xác định riêng biệt về mặt hóa học. Sự loại trừ bao gồm các sản phẩm sau:', 'Nhóm 28.02 - Lưu huỳnh dạng keo.', 'Nhóm 28.03 - Muội than.', 'Nhóm 28.07 - Oleum (axit sunfuric bốc khói).', 'Nhóm 28.08 - Axit sulphonitric.', 'Nhóm 28.09 - Axit Polyphosphoric.', 'Nhóm 28.13 - Phospho trisulphua.', 'Nhóm 28.18 - Corundum nhân tạo.', 'Nhóm 28.21 - Đất màu có chứa từ 70% trở lên tính theo trọng lượng các hợp chất của sắt được đánh giá như Fe2O3.', 'Nhóm 28.22 - Coban oxit thương phẩm.', 'Nhôm 28.24 - Chì đỏ và chì da cam.', 'Nhóm 28.28 - Canxi hypoclorit thương phẩm.', 'Nhóm 28.30 - Polysulphua.', 'Nhóm 28.31 - Dithionit và sulphoxylat, đã được ổn định với các chất hữu cơ.', 'Nhóm 28.35 - Polyphotphat.', 'Nhóm 28.36 - Amonicarbonat thương phẩm có chứa amoni carbamat.', 'Nhóm 28.39 - Silicat kim loại kiềm thương phẩm.', 'Nhóm 28.42 - Nhôm silicat.', 'Nhóm 28.43 - Kim loại quý dạng keo.', '- Hỗn hống của các kim loại quý.', '- Các hợp chất hữu cơ hoặc vô cơ của các kim loại quý.', 'Nhóm 28.44 - Các nguyên tố phóng xạ, đồng vị phóng xạ hoặc các hợp chất (vô cơ hoặc hữu cơ) và hỗn hợp có chứa các chất này.', 'Nhóm 28.45 - Các loại đồng vị khác và hợp chất của chúng (hữu cơ hoặc vô cơ).', 'Nhóm 28.46 - Các hợp chất, vô cơ hoặc hữu cơ, của các kim loại đất hiếm, của ytri hoặc scandi hoặc hỗn hợp của các kim loại này.', 'Nhóm 28.49 - Carbua.', 'Nhóm 28.50 - Các hydrua, nitrua, azit, silixic và borua.', 'Nhóm 28.52 - Các hợp chất hữu cơ và vô cơ của thủy ngân, trừ các hỗn hống.', 'Nhóm 28.53 - Phosphua, khí hóa lỏng và khí nén.', 'Các loại hỗn hống trừ các hỗn hống của kim loại quý xem nhóm 28.43 ở trên.', '(D) Loại trừ khỏi Chương 28 một số nguyên tố hóa học riêng biệt và một số hợp chất vô cơ đã được xác định về mặt hóa học riêng biệt.', '(Chú giải 3 và 8)', 'Một số nguyên tố hóa học riêng biệt và một số hợp chất vô cơ đã được xác định về mặt hóa học riêng biệt luôn bị loại trừ khỏi Chương 28, ngay cả khi chúng là dạng tinh khiết.', 'Ví dụ là:', '(1) Một số sản phẩm của Chương 25 (có nghĩa là natri clorua (NaCl) và oxit magic (MgO)).', '(2) Một số muối vô cơ của Chương 31 (có nghĩa là natri nitral (NaNO3, amoni nitral (NH4NO3), các muối kép của amoni sulphat và amoni nitrat, amoni sulphat, các muối kép của canxi nitrat (Ca(NO3)2) và amoni nitrat, các muối kép của canxi nitrat và magie nitrat, và amoni dihydroorthophosphat và diamoni hydroorthophosphat (monoamoni hoặc diamoni photsphat); ngoài ra còn kali clorua (KCl), mặc dù trong một số trường hợp nhất định có thể được phân loại vào nhóm 38.24 hoặc 90.01).', '(3) Graphit nhân tạo của nhóm 38.01.', '(4) Các loại đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo), và bụi hoặc bột của các loại đá như vậy thuộc Chương 71.', '(5) Kim loại quý và kim loại cơ bản, bao gồm cả hợp kim của các kim loại đó, thuộc Phần XIV hoặc XV.', 'Một số nguyên tố riêng biệt hoặc các hợp chất hóa học đã được xác định về mặt hóa học riêng biệt khác, mà trong trường hợp khác chúng được phân loại vào Chương 28, có thể bị loại trừ khi chúng được đóng gói ở dạng nhất định, hoặc nếu chúng đã qua một số quá trình xử lý mà thành phần hóa học của chúng không thay đổi (*).', '(*) Việc loại trừ này không ảnh hưởng đến các sản phẩm có thể phân loại vào các nhóm từ 28.43 đến 28.46 và 28.52 (xem Chú giải 1 và 2 của Phần VI).', 'Ví dụ là:', '(a) Các sản phẩm phù hợp dùng cho phòng hoặc chữa bệnh, được đóng gói thành liều hoặc ở dạng nhất định hoặc được đóng gói để bán lẻ (nhóm 30.04).', '(b) Các sản phẩm thuộc loại sử dụng làm chất phát quang (ví dụ: canxi tungstat) mà đã được xử lý để làm cho chúng phát quang (nhóm 32.06)', '(c) Nước hoa, mỹ phẩm hoặc các chế phẩm vệ sinh (ví dụ, phèn), được đóng gói để bán lẻ cho việc sử dụng như vậy (các nhóm từ 33.03 đến 33.07)', '(d) Các sản phẩm phù hợp sử dụng làm chất kết dính hoặc keo dán (ví dụ, natri silicat đã hòa tan trong nước), được đóng gói để bán lẻ làm chất kết dính hoặc keo dán mà trọng lượng tịnh không quá 1 kg (nhóm 35.06).', '(e) Các sản phẩm nhiếp ảnh (ví dụ, natri thiosulphat), được phân liều hoặc đóng gói để bán lẻ ở dạng sử dụng ngay cho nhiếp ảnh (nhóm 37.07).', '(f) Thuốc trừ sâu,... (ví dụ, natri tetraborat) đã đóng gói như mô tả ở nhóm 38.08.', '(g) Các sản phẩm (ví dụ, axit sulphuric) được sử dụng như chất liệu nạp cho bình dập lửa hoặc lựu đạn dập lửa (nhóm 38.13).', '(h) Các nguyên tố hóa học (ví dụ, silic và selen) được kích tạp để sử dụng trong điện tử, ở dạng đĩa, tấm mỏng hoặc các dạng tương tự (nhóm 38.18).', '(ij) Chất tẩy mực được đóng gói bán lẻ (nhóm 38.24).', '(k) Các halogenua của kim loại kiềm hoặc của các kim loại kiềm thổ (ví dụ, liti florua (LiF), canxi florua (CaF2), potassium bromoiodide,...), ở dạng của bộ phận quang học (nhóm 90.01) hoặc của các tinh thể cấy mà khối lượng không quá 2,5g cho mỗi tinh thể (nhóm 38.24).', '(E) Các sản phẩm có khả năng được phân loại ở hai hay nhiều nhóm của Chương 28.', 'Chú giải 1 Phần 6 đề cập đến vấn đề của các sản phẩm có khả năng phân loại:', '(a) Trong nhóm 28.44 hoặc 28.45, và cũng trong một vài nhóm khác của Chương 28.', '(b) Trong nhóm 28.43, 28.46 hoặc 28.52 và cũng trong một vài nhóm khác của Chương 28 (trừ nhóm 28.44 hoặc 28.45).', 'Các axit phức đã xác định về hóa học bao gồm một axit phi kim (của phân Chương II) và một axit kim loại (của phân Chương IV) được phân loại trong nhóm 28.11 (xem Chú giải 4 của Chương 28 và Chú giải Chi tiết nhóm 28.11)', 'Trừ khi có các yêu cầu khác, các muối vô cơ dạng phức hoặc kép được phân loại trong nhóm 28.42 (xem Chú giải 5 của Chương 28 và Chú giải Chi tiết nhóm 28.42)']</t>
+    <t>['Chú giải.', '1.- Trừ khi có yêu cầu khác, các nhóm thuộc Chương này chỉ bao gồm:', '(a) Các nguyên tố hoá học riêng biệt và các hợp chất được xác định về mặt hóa học riêng biệt, có hoặc không chứa tạp chất:', '(b) Các sản phẩm được nêu ở mục (a) trên đây đã được hòa tan trong nước;', '(c) Các sản phẩm nêu ở mục (a) trên đây hòa tan trong các dung môi khác miễn là sự hòa tan chỉ là một phương pháp thông thường và cần thiết để đóng gói những sản phẩm nhằm mục đích duy nhất là bảo đảm an toàn hoặc để vận chuyển và dung môi ấy không làm cho sản phẩm có công dụng đặc biệt ngoài công dụng thông thường của nó;', '(d) Các sản phẩm được đề cập ở mục (a), (b) hoặc (c) trên đây có thêm một chất ổn định (kể cả chất chống đông cứng) cần thiết cho sự bảo quản hoặc vận chuyển;', '(e) Các sản phẩm được đề cập ở mục (a), (b), (c) hoặc (d) trên đây có thêm chất chống bụi hoặc chất màu để dễ nhận biết hoặc để đảm bảo an toàn miễn là sự pha thêm này không làm cho sản phẩm có công dụng đặc biệt ngoài công dụng thông thường của nó.', '2.- Ngoài các dithionit và sulphoxylat, đã được làm ổn định bằng các chất hữu cơ (nhóm 28.31), carbonat và peroxocarbonat của các bazơ vô cơ (nhóm 28.36), xyanua, oxit xyanua và xyanua phức của các bazơ vô cơ (nhóm 28.37), fulminat, xyanat và thioxyanat, của các bazơ vô cơ (nhóm 28.42), các sản phẩm hữu cơ thuộc các nhóm từ 28.43 đến 28.46 và 28.52 và carbua (nhóm 28.49), chỉ các hợp chất carbon sau đây là được xếp vào Chương này:', '(a) Oxit carbon, hydroxyanua và axit funminic, isoxyanic, thioxyanic và các axit xyanic đơn hoặc phức khác (nhóm 28.11);', '(b) Các oxit halogenua của carbon (nhóm 28.12);', '(c) Carbon disulphua (nhóm 28.13);', '(d) Thiocarbonat, selenocarbonat, tellurocarbonat, selenoxyanat, telluroxyanat, tetrathio-cyanatodiamminochromates (reineckates) và các xyanat phức khác, của các bazơ vô cơ (nhóm 28.42);', '(e) Hydro peoxit, được làm rắn bằng urê (nhóm 28.47), oxysulphua carbon, halogenua thiocarbonyl, xyanogen, halogenua xyanogen và xyanamit và các dẫn xuất kim loại của chúng (nhóm 28.53) trừ xyanamit canxi, dạng tinh khiết hoặc không tinh khiết (Chương 31).', '3.- Theo Chú giải 1 của Phần VI, Chương này không bao gồm:', '(a) Natri clorua hoặc magiê oxit, tinh khiết hoặc không tinh khiết, hoặc các sản phẩm khác của Phần V;', '(b) Các hợp chất hữu cơ - vô cơ trừ các hợp chất đã nêu tại Chú giải 2 trên đây;', '(c) Các sản phẩm nêu tại Chú giải 2, 3, 4 hoặc 5 của Chương 31;', '(d) Các sản phẩm vô cơ sử dụng như chất phát quang, thuộc nhóm 32.06; frit thủy tinh và thủy tinh khác ở dạng bột, hạt hoặc mảnh, thuộc nhóm 32.07;', '(e) Graphit nhân tạo (nhóm 38.01); các sản phẩm dùng như chất dập lửa, để nạp cho bình cứu hỏa hoặc lựu đạn dập lửa, thuộc nhóm 38.13; chất tẩy mực đóng gói để bán lẻ, thuộc nhóm 38.24; tinh thể nuôi cấy (trừ các bộ phận quang học) halogenua kim loại kiềm hoặc kiềm thổ được tạo ra nặng không dưới 2,5g mỗi tinh thể, thuộc nhóm 38.24;', '(f) Đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo) hoặc bụi hoặc bột của các loại đá đó (nhóm 71.02 đến 71.05), hoặc kim loại quý hoặc hợp kim kim loại quý thuộc Chương 71;', '(g) Kim loại, nguyên chất hoặc không nguyên chất, các hợp kim hoặc gốm kim loại, kể cả carbua kim loại được thiêu kết (carbua kim loại được thiêu kết với một kim loại), thuộc Phần XV; hoặc', '(h) Các bộ phận quang học, ví dụ, loại làm bằng halogenua kim loại kiềm hoặc kiềm thổ (nhóm 90.01).', '4.- Các axit phức đã được xác định về mặt hoá học bao gồm một axit phi kim loại thuộc phân Chương II và một axit kim loại thuộc phân Chương IV phải được xếp vào nhóm 28.11.', '5.- Các nhóm 28.26 đến 28.42 chỉ áp dụng cho muối kim loại hoặc muối anioni hoặc muối peroxy.', 'Loại trừ có yêu cầu khác, các muối kép hoặc phức được phân loại trong nhóm 28.42.', '6.- Nhóm 28.44 chỉ áp dụng cho:', '(a) Tecneti (nguyên tố số 43), prometi (nguyên tố số 61), poloni (nguyên tố số 84) và tất cả các nguyên tố có số thứ tự trong bảng tuần hoàn lớn hơn 84;', '(b) Các chất đồng vị phóng xạ tự nhiên hoặc nhân tạo (kể cả các chất đồng vị phóng xạ của kim loại quý hoặc kim loại cơ bản thuộc Phần XIV và XV), đã hoặc chưa pha trộn với nhau;', 'c) Hợp chất, vô cơ hoặc hữu cơ, của các nguyên tố hoặc các chất đồng vị của chúng, đã hoặc chưa xác định về mặt hóa học, đã hoặc chưa trộn với nhau;', '(d) Hợp kim, các chất phân tán (kể cả gốm kim loại), các sản phẩm gốm và hỗn hợp chứa các nguyên tố hoặc chất đồng vị hoặc các hợp chất vô cơ hoặc hữu cơ từ các chất đó, có nồng độ phóng xạ riêng (đặc trưng) trên 74 Bq/g (0,002 µCi/g);', '(e) Ống (cartridges) nhiên liệu đã bức xạ của lò phản ứng hạt nhân;', '(f) Chất thải phóng xạ còn sử dụng được hoặc không.', 'Theo mục đích của Chú giải này và cách diễn đạt của các nhóm 28.44 và 28.45, thuật ngữ “chất đồng vị”, đề cập tới:', '- các hạt nhân riêng lẻ, không kể những hạt nhân tồn tại trong thiên nhiên dưới dạng chất đồng vị đơn;', '- hỗn hợp các chất đồng vị của một nguyên tố và nguyên tố đó, đã được làm giàu bằng một hoặc vài chất đồng vị nói trên, nghĩa là các nguyên tố mà thành phần đồng vị tự nhiên đã được làm thay đổi một cách nhân tạo.', '7.- Nhóm 28.53 bao gồm đồng phosphua (phosphor copper) có chứa trên 15% tính theo trọng lượng của phospho.', '8.- Các nguyên tố hoá học (ví dụ, silic và selen) đã được kích tạp dùng trong ngành điện tử phải xếp vào Chương này, nhưng chúng phải ở dạng chưa gia công như kéo, hoặc ở dạng hình trụ hoặc dạng que. Khi được cắt thành hình đĩa, miếng hoặc hình dáng tương tự, chúng phải được xếp vào nhóm 38.18.', 'Chú giải phân nhóm.', '1. Theo mục đích của phân nhóm 2852.10, thuật ngữ “xác định về mặt hóa học” có nghĩa là tất cả các hợp chất vô cơ hoặc hữu cơ của thủy ngân đáp ứng yêu cầu của đoạn (a) tới (e) của Chú giải 1 Chương 28 hoặc đoạn (a) tới (h) của Chú giải 1 Chương 29.', 'KHÁI QUÁT CHUNG', 'Trừ khi có những yêu cầu khác, Chương 28 được giới hạn cho các nguyên tố hóa học riêng biệt và các hợp chất đã được xác định về mặt hóa học riêng biệt.', 'Một hợp chất đã được xác định về mặt hóa học riêng biệt gồm có một loại phân tử (ví dụ, cộng hóa trị hoặc ion) mà thành phần được xác định bởi một tỷ lệ không đổi của các nguyên tố và có thể được miêu tả bởi biểu đồ cấu trúc đã xác định. Trong một mạng tinh thể, loại phân tử tương ứng với các ô mạng cơ sở lặp lại.', 'Các nguyên tố của một hợp chất đã được xác định về mặt hóa học riêng biệt kết hợp theo một tỷ lệ cụ thể được xác định bởi hóa trị và liên kết của nguyên tử. Tỷ lệ của mỗi nguyên tố là không đổi và cụ thể cho từng hợp chất và cân bằng về mặt hóa học.', 'Sự chênh lệch nhỏ trong tỷ lệ cân bằng hóa học có thể xảy ra vì những khoảng trống hoặc chèn trong mạng tinh thể. Các hợp chất này được mô tả như cân bằng hóa học và được phép xác định như là các hợp chất đã được xác định về mặt hóa học riêng biệt với điều kiện là sự chênh lệch không được cố ý tạo ra.', '(A) Các nguyên tố và hợp chất đã được xác định về mặt hóa học', '(Chú giải 1)', 'Các nguyên tố hóa học riêng biệt và các hợp chất đã được xác định về mặt hóa học riêng biệt chứa các tạp chất, hoặc hòa tan trong nước, vẫn được phân loại ở Chương 28.', 'Thuật ngữ "không tinh khiết" áp dụng riêng cho các chất mà sự có mặt của chúng ở dạng hợp chất hóa học đơn, duy nhất và trực tiếp thu được từ quá trình sản xuất (kể cả việc tinh chế). Các chất này có thể là kết quả từ bất kỳ yếu tố nào liên quan đến quá trình sản xuất và chủ yếu các dạng sau:', '(a) Nguyên liệu ban đầu không chuyển hóa.', '(b) Các hợp chất có trong nguyên liệu ban đầu.', '(c) Các thuốc thử được sử dụng trong quá trình sản xuất (kể cả việc tinh chế).', '(d) Các sản phẩm phụ.', 'Tuy nhiên, cần lưu ý rằng, những chất như vậy không phải trong tất cả các trường hợp đều được xem là "tạp chất" theo Chú giải 1 (a). Khi các chất này được cố ý để lại trong sản phẩm nhằm làm cho nó đặc biệt thích hợp cho công dụng riêng hơn là công dụng chung, thì chúng không được xem như là các tạp chất cho phép.', 'Các nguyên tố và các hợp chất như thế bị loại trừ khỏi Chương 28 khi chúng hòa tan trong dung môi trừ nước, trừ khi sự hòa tan này là một phương pháp thông thường và cần thiết để đóng gói những sản phẩm nhằm mục đích duy nhất là đảm bảo an toàn hoặc vận chuyển (trong trường hợp này dung môi không làm cho sản phẩm có công dụng đặc biệt ngoài công dụng thông thường của nó).', 'Vì vậy, cacbon clorua oxit được hòa tan trong benzen, dung dịch rượu của amoniac và dung dịch keo của hydroxit nhóm bị loại trừ khỏi Chương này và được phân loại vào nhóm 38.24. Nói chung, keo phân tán được phân loại vào nhóm 38.24, trừ khi được phân loại vào một nhóm đặc trưng hơn.', 'Các nguyên tố và các hợp chất đã được xác định về mặt hóa học riêng biệt được mô tả ở trên, mà có thêm các chất ổn định cần thiết cho việc bảo quản hoặc vận chuyển của chúng, vẫn được phân loại vào Chương này. Ví dụ, hydro peroxit được ổn định bằng cách thêm axit boric thì vẫn được phân loại vào nhóm 28.47; nhưng natri peroxit trộn với chất xúc tác (cho sản xuất hydro peroxit) bị loại trừ Chương 28 và được phân loại vào nhóm 38.24).', 'Các sản phẩm được thêm vào một số hóa chất nhằm giữ những sản phẩm này ở trạng thái vật lý ban đầu của chúng cũng sẽ được coi như là các chất ổn định, với điều kiện lượng thêm vào trong trường hợp nào cũng không được vượt quá lượng cần thiết để đạt được kết quả mong muốn và chất thêm vào không làm thay đổi tính chất của sản phẩm gốc và không được sử dụng cho mục đích đặc biệt khác ngoài mục đích sử dụng thông thường đã quy định. Bằng cách áp dụng những quy định này, các tác nhân chống keo tụ có thể được thêm vào các sản phẩm của Chương này. Nói cách khác, những sản phẩm như vậy được thêm các tác nhân không thấm nước sẽ bị loại trừ, khi những tác nhân này làm biến đổi các đặc tính ban đầu của các sản phẩm.', 'Trong những điều kiện như vậy, phần thêm vào không làm cho chúng thích hợp cho công dụng riêng hơn là công dụng chung đã được quy định, các sản phẩm thuộc Chương này cũng có thể bao gồm:', '(a) Việc thêm vào các tác nhân chống bụi (ví dụ, dầu khoáng được thêm một số hóa chất có độc tố nhằm ngăn ngừa bụi trong quá trình xử lý).', '(b) Các chất màu được thêm vào nhằm dễ dàng phát hiện hoặc được thêm vào vì lý do độ an toàn đối với các hóa chất nguy hiểm hoặc độc (ví dụ, chì asenat của nhóm 28.42) như một “ký hiệu” hoặc dấu hiệu cảnh báo cho những người tiếp xúc với các sản phẩm này. Tuy nhiên, những sản phẩm mà các chất màu được thêm vào vì các lý do khác (ví dụ, gel silic dioxit được tẩm thêm chất màu là muối coban để sử dụng như một chất chỉ thị độ ẩm (nhóm 38.24)), cũng bị loại trừ.', '(B) Sự khác biệt giữa các hợp chất của Chương 28 và các hợp chất của Chương 29', '(Chú giải 2)', 'Sau đây là danh mục các hợp chất có chứa cacbon mà chúng đã được phân loại vào Chương 28, và các nhóm mà chúng sẽ được phân loại:tmai', 'Nhóm 28.11 - Các Oxit cacbon.', 'Hydro cyanua, Hydrohexaxyanoferate (II) và Hydro heaxyanoferate (III).Isoxyanic, Funninic, Thioxyanic, Xyanomolibdic và các axit xyanogen đơn và phức khác.', 'Nhóm 28.12 - Cacbon Halogenua oxit.', 'Nhóm 28.13 - Cacbon Disunfua.', 'Nhóm 28.31 - Dithionit và sulphoxylat, được ổn định bằng các chất hữu cơ.', 'Nhóm 28.36 - Các Cacbonat và peroxocacbonat, của các bazơ vô cơ.', 'Nhóm 28.37 - Xyanua, Xyanua oxit và Xyanua phức (Hexaxyanoferat (II), Hexaxyanoferat (III), Nitrosylpentacyanoferat (II), Nitrosylpentacyanoferat (III), Xyanomercurat, Xyanocadimat, Xyanochromat, Xyanocobalnat, Xyanonicollat, Xyanocuprat,...) của các bazơ vô cơ.', 'Nhóm 28.42 - Thiocacbonat, selennocacbonat, tellurocacbonat, selenoxyanat, telluro-cyanat, tetrathiocyanatodiamminochromat (reienckat) và xyanat kép hoặc phức khác, của các bazơ vô cơ.', 'Nhóm 28.43 đến 28.46 - Các hợp chất vô cơ và hữu cơ của:', '(i) Các kim loại quý.', '(ii) Các nguyên tố phóng xạ.', '(iii) Các đồng vị.', '(iv) Các kim loại đất hiếm, ytri hoặc scandi.', 'Nhóm 28.47 - Hydro peroxit, đã làm rắn bằng ure, đã hoặc chưa được ổn định.', 'Nhóm 28.49 - Các carbua (carbua có 2 nguyên tố hóa học, borocarbua, carbonitrua....) trừ hydro carbua (hydrocarbon)', 'Nhóm 28.52 - Các hợp chất vô cơ và hữu cơ của thủy ngân, đã hoặc chưa xác định về mặt hóa học, trừ hỗn hống.', 'Nhóm 28.53 - Carbon oxysulphua, thiocarbonyl halogenua.', 'Xyanogen và các hợp chất halogen của xyanogen.', 'Xyanamit và dẫn xuất kim loại của nó (trừ canxi xyanamit, tinh khiết hoặc không tinh khiết - xem Chương 31).', 'Tất cả các hợp chất cacbon khác bị loại khỏi Chương 28.', '(C) Những sản phẩm vẫn được phân loại vào Chương 28, ngay cả khi chúng không phải là các nguyên tố hóa học riêng biệt hoặc không là các hợp chất đã được xác định về mặt hóa học riêng biệt.', 'Đây là một số ngoại lệ đối với quy tắc là Chương này được giới hạn cho các nguyên tố hóa học riêng biệt và các hợp chất đã được xác định riêng biệt về mặt hóa học. Sự loại trừ bao gồm các sản phẩm sau:', 'Nhóm 28.02 - Lưu huỳnh dạng keo.', 'Nhóm 28.03 - Muội than.', 'Nhóm 28.07 - Oleum (axit sunfuric bốc khói).', 'Nhóm 28.08 - Axit sulphonitric.', 'Nhóm 28.09 - Axit Polyphosphoric.', 'Nhóm 28.13 - Phospho trisulphua.', 'Nhóm 28.18 - Corundum nhân tạo.', 'Nhóm 28.21 - Đất màu có chứa từ 70% trở lên tính theo trọng lượng các hợp chất của sắt được đánh giá như Fe2O3.', 'Nhóm 28.22 - Coban oxit thương phẩm.', 'Nhôm 28.24 - Chì đỏ và chì da cam.', 'Nhóm 28.28 - Canxi hypoclorit thương phẩm.', 'Nhóm 28.30 - Polysulphua.', 'Nhóm 28.31 - Dithionit và sulphoxylat, đã được ổn định với các chất hữu cơ.', 'Nhóm 28.35 - Polyphotphat.', 'Nhóm 28.36 - Amonicarbonat thương phẩm có chứa amoni carbamat.', 'Nhóm 28.39 - Silicat kim loại kiềm thương phẩm.', 'Nhóm 28.42 - Nhôm silicat.', 'Nhóm 28.43 - Kim loại quý dạng keo.', '- Hỗn hống của các kim loại quý.', '- Các hợp chất hữu cơ hoặc vô cơ của các kim loại quý.', 'Nhóm 28.44 - Các nguyên tố phóng xạ, đồng vị phóng xạ hoặc các hợp chất (vô cơ hoặc hữu cơ) và hỗn hợp có chứa các chất này.', 'Nhóm 28.45 - Các loại đồng vị khác và hợp chất của chúng (hữu cơ hoặc vô cơ).', 'Nhóm 28.46 - Các hợp chất, vô cơ hoặc hữu cơ, của các kim loại đất hiếm, của ytri hoặc scandi hoặc hỗn hợp của các kim loại này.', 'Nhóm 28.49 - Carbua.', 'Nhóm 28.50 - Các hydrua, nitrua, azit, silixic và borua.', 'Nhóm 28.52 - Các hợp chất hữu cơ và vô cơ của thủy ngân, trừ các hỗn hống.', 'Nhóm 28.53 - Phosphua, khí hóa lỏng và khí nén.', 'Các loại hỗn hống trừ các hỗn hống của kim loại quý xem nhóm 28.43 ở trên.', '(D) Loại trừ khỏi Chương 28 một số nguyên tố hóa học riêng biệt và một số hợp chất vô cơ đã được xác định về mặt hóa học riêng biệt.', '(Chú giải 3 và 8)', 'Một số nguyên tố hóa học riêng biệt và một số hợp chất vô cơ đã được xác định về mặt hóa học riêng biệt luôn bị loại trừ khỏi Chương 28, ngay cả khi chúng là dạng tinh khiết.', 'Ví dụ là:', '(1) Một số sản phẩm của Chương 25 (có nghĩa là natri clorua (NaCl) và oxit magic (MgO)).', '(2) Một số muối vô cơ của Chương 31 (có nghĩa là natri nitral (NaNO3, amoni nitral (NH4NO3), các muối kép của amoni sulphat và amoni nitrat, amoni sulphat, các muối kép của canxi nitrat (Ca(NO3)2) và amoni nitrat, các muối kép của canxi nitrat và magie nitrat, và amoni dihydroorthophosphat và diamoni hydroorthophosphat (monoamoni hoặc diamoni photsphat); ngoài ra còn kali clorua (KCl), mặc dù trong một số trường hợp nhất định có thể được phân loại vào nhóm 38.24 hoặc 90.01).', '(3) Graphit nhân tạo của nhóm 38.01.', '(4) Các loại đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo), và bụi hoặc bột của các loại đá như vậy thuộc Chương 71.', '(5) Kim loại quý và kim loại cơ bản, bao gồm cả hợp kim của các kim loại đó, thuộc Phần XIV hoặc XV.', 'Một số nguyên tố riêng biệt hoặc các hợp chất hóa học đã được xác định về mặt hóa học riêng biệt khác, mà trong trường hợp khác chúng được phân loại vào Chương 28, có thể bị loại trừ khi chúng được đóng gói ở dạng nhất định, hoặc nếu chúng đã qua một số quá trình xử lý mà thành phần hóa học của chúng không thay đổi (*).', '(*) Việc loại trừ này không ảnh hưởng đến các sản phẩm có thể phân loại vào các nhóm từ 28.43 đến 28.46 và 28.52 (xem Chú giải 1 và 2 của Phần VI).', 'Ví dụ là:', '(a) Các sản phẩm phù hợp dùng cho phòng hoặc chữa bệnh, được đóng gói thành liều hoặc ở dạng nhất định hoặc được đóng gói để bán lẻ (nhóm 30.04).', '(b) Các sản phẩm thuộc loại sử dụng làm chất phát quang (ví dụ: canxi tungstat) mà đã được xử lý để làm cho chúng phát quang (nhóm 32.06)', '(c) Nước hoa, mỹ phẩm hoặc các chế phẩm vệ sinh (ví dụ, phèn), được đóng gói để bán lẻ cho việc sử dụng như vậy (các nhóm từ 33.03 đến 33.07)', '(d) Các sản phẩm phù hợp sử dụng làm chất kết dính hoặc keo dán (ví dụ, natri silicat đã hòa tan trong nước), được đóng gói để bán lẻ làm chất kết dính hoặc keo dán mà trọng lượng tịnh không quá 1 kg (nhóm 35.06).', '(e) Các sản phẩm nhiếp ảnh (ví dụ, natri thiosulphat), được phân liều hoặc đóng gói để bán lẻ ở dạng sử dụng ngay cho nhiếp ảnh (nhóm 37.07).', '(f) Thuốc trừ sâu,... (ví dụ, natri tetraborat) đã đóng gói như mô tả ở nhóm 38.08.', '(g) Các sản phẩm (ví dụ, axit sulphuric) được sử dụng như chất liệu nạp cho bình dập lửa hoặc lựu đạn dập lửa (nhóm 38.13).', '(h) Các nguyên tố hóa học (ví dụ, silic và selen) được kích tạp để sử dụng trong điện tử, ở dạng đĩa, tấm mỏng hoặc các dạng tương tự (nhóm 38.18).', '(ij) Chất tẩy mực được đóng gói bán lẻ (nhóm 38.24).', '(k) Các halogenua của kim loại kiềm hoặc của các kim loại kiềm thổ (ví dụ, liti florua (LiF), canxi florua (CaF2), potassium bromoiodide,...), ở dạng của bộ phận quang học (nhóm 90.01) hoặc của các tinh thể cấy mà khối lượng không quá 2,5g cho mỗi tinh thể (nhóm 38.24).', '(E) Các sản phẩm có khả năng được phân loại ở hai hay nhiều nhóm của Chương 28.', 'Chú giải 1 Phần 6 đề cập đến vấn đề của các sản phẩm có khả năng phân loại:', '(a) Trong nhóm 28.44 hoặc 28.45, và cũng trong một vài nhóm khác của Chương 28.', '(b) Trong nhóm 28.43, 28.46 hoặc 28.52 và cũng trong một vài nhóm khác của Chương 28 (trừ nhóm 28.44 hoặc 28.45).', 'Các axit phức đã xác định về hóa học bao gồm một axit phi kim (của phân Chương II) và một axit kim loại (của phân Chương IV) được phân loại trong nhóm 28.11 (xem Chú giải 4 của Chương 28 và Chú giải Chi tiết nhóm 28.11)', 'Trừ khi có các yêu cầu khác, các muối vô cơ dạng phức hoặc kép được phân loại trong nhóm 28.42 (xem Chú giải 5 của Chương 28 và Chú giải Chi tiết nhóm 28.42)', 'PHÂN CHƯƠNG I', 'CÁC NGUYÊN TỐ HÓA HỌC', 'KHÁI QUÁT CHUNG', 'Các nguyên tố hóa học có thể chia thành hai nhóm, các nguyên tố kim loại và phi kim. Nhìn chung, phân Chương này bao gồm tất cả các nguyên tố phi kim, ít nhất là ở một dạng của chúng, trong khi một số lớn các kim loại được phân loại ở nơi khác: - các kim loại quý (Chương 71 và nhóm 28.43), các kim loại cơ bản (các Chương từ 72 đến 76 và từ Chương 78 đến 81) và các nguyên tố hóa học phóng xạ và các đồng vị (nhóm 28.44) và các đồng vị bền vững (nhóm 28.45)', 'Dưới đây là bảng danh sách các nguyên tố được xếp theo thứ tự trong bảng chữ cái nêu rõ cách phân loại thích hợp của chúng. Một số nguyên tố, như antimon, có cả tính kim loại và phi kim; do đó cần chú ý khi phân loại chúng trong Danh mục', '28.01- Flo, clo, brom và iot.', '2801.10 - Clo', '2801.20 - Iot', '2801.30 - Flo; brom', 'Nhóm này bao gồm các phi kim như halogen, trừ nguyên tố phóng xạ nhân tạo (nhóm 28.44)', '(A) FLO', 'Flo là một chất khí màu vàng xanh nhạt, có vị cay; hít phải nó nguy hiểm vì nó gây tổn thương niêm mạc. Flo được bảo quản trong các bình thép chịu áp; là nguyên tố hoạt động rất mạnh, gây cháy các vật liệu hữu cơ – đặc biệt là gỗ, các loại chất béo và các loại vải.', 'Flo được sử dụng để pha chế một số dẫn xuất florua và flo-hữu cơ', '(B) CLO', 'Clo thường được tạo ra bởi quá trình điện phân các muối kiềm clorua, đặc biệt từ muối natri clorua (NaCl).', 'Clo là một chất khí màu vàng xanh nhạt, gây ngạt, ăn mòn, nặng hơn không khí 2,5 lần, hòa tàn yếu trong nước và dễ hóa lỏng. Clo thường được vận chuyển trong các bồn bằng thép, các xitec trên toa tàu hỏa hoặc sà lan.', 'Clo phá hủy các chất màu và các chất hữu cơ. Nó được sử dụng để tẩy trắng sợi có nguồn gốc thực vật (không loại phải nguồn gốc động vật), và trong chế biến bột giấy từ gỗ. Do có đặc tính khử trùng và kháng khuẩn, nó cũng được sử dụng để tiệt trùng nước (khử trùng bằng clo). Nó được sử dụng trong luyện kim vàng, thiếc, cadimi, trong sản xuất hypoclorit, clorua kim loại và Cacbonyl clorua, trong tổng hợp hữu cơ (ví dụ, thuốc nhuộm tổng hợp, sáp nhân tạo, cao su Clo hóa).', '(C) BROM', 'Brom có thể thu được nhờ phản ứng tác dụng của clo với muối kim loại kiềm của brom trong dung dịch muối ban đầu, hoặc điện phân dung dịch brom', 'Brom là chất lỏng rất nặng (tỷ trọng 3.18 ở 0°C), có tính ăn mòn, màu hơi đỏ hoặc nâu tối, thậm chí cả khi lạnh, nó cũng bốc hơi ngạt màu đỏ, gây cay mắt. Khi tiếp xúc với brom, da bị cháy chuyển thành màu vàng, và nó đốt cháy các chất hữu cơ như mùn cưa. Nó được đựng trong bình (container) thủy tinh hoặc bình gốm sành. Nó hòa tan yếu trong nước. Nhóm này loại trừ các dung dịch brom trong axit axetic (nhóm 38.24).', 'Brom được sử dụng trong sản xuất thuốc (ví dụ, thuốc giảm đau), thuốc nhuộm (ví dụ, eozin, các dẫn xuất muối brom của thuốc nhuộm chàm), hóa chất làm ảnh (bromua bạc (AgBr)), các sản phẩm gây chảy nước mắt (bromo-aceton), trong luyện kim,...', '(D) IOT', 'Iot được chiết xuất từ dung dịch gốc của natri nitrat tự nhiên bằng cách xử lý với dioxit lưu huỳnh (SO2) hoặc natri hydro sulphit, hoặc từ rong biển bằng cách phơi khô, đốt và xử lý hóa học các tro đó.', 'Iốt là chất rắn rất nặng (tỷ trọng 4.95 ở 0°C), có mùi vị hơi giống cả clo và brom, nguy hiểm khi hít phải. Nó bị thăng hoa ở nhiệt độ phòng và làm cho tinh bột chuyển thành màu xanh. Khi không tinh khiết, nó thường ở dạng hạt tinh thể hoặc bột thô. Khi tinh chế bằng phương pháp thăng hoa, sẽ thu được dạng phiến mỏng màu hơi xám lấp lánh, hoặc dạng tinh thể có ánh kim; nó thường được bảo quản trong vật dụng bằng thủy tinh.', 'Iôt được sử dụng trong y học, và cũng được sử dụng để sản xuất hóa chất làm ảnh (natri iodua), thuốc nhuộm (ví dụ, erythrosine) và thuốc tân dược, như một chất xúc tác trong tổng hợp hữu cơ, như một thuốc thử hóa học']</t>
   </si>
   <si>
     <t>['Chú giải.', '1.- Trừ khi có yêu cầu khác, các nhóm thuộc Chương này chỉ bao gồm:', '(a) Các hợp chất hữu cơ đã được xác định về mặt hoá học riêng biệt, có hoặc không chứa tạp chất;', '(b) Các hỗn hợp của hai hoặc nhiều chất đồng phân của cùng một hợp chất hữu cơ (có hoặc không chứa tạp chất), trừ hỗn hợp các chất đồng phân hydro carbon mạch hở (trừ các chất đồng phân lập thể), no hoặc chưa no (Chương 27);', '(c) Các sản phẩm thuộc các nhóm từ 29.36 đến 29.39 hoặc ete đường, axetal đường và este đường, và các muối của chúng, của nhóm 29.40, hoặc các sản phẩm của nhóm 29.41, đã hoặc chưa xác định về mặt hoá học;', '(d) Các sản phẩm được nêu ở mục (a), (b) hoặc (c) đã hòa tan trong nước;', '(e) Các sản phẩm được nêu ở (a), (b) hoặc (c) trên đây đã hoà tan trong các dung môi khác nhưng sự hoà tan chỉ là một phương pháp thông thường và cần thiết để đóng gói những sản phẩm nhằm mục đích duy nhất là bảo đảm an toàn hoặc để vận chuyển và dung môi này không tạo cho sản phẩm một công dụng đặc biệt nào khác ngoài công dụng thông thường của chúng;', '(f) Các sản phẩm đã nêu ở (a), (b), (c), (d) hoặc (e) trên đây đã pha thêm chất ổn định (kể cả chất chống đông cứng/chất chống đông vón) cần thiết để bảo quản hoặc vận chuyển;', '(g) Các sản phẩm được nêu ở (a), (b), (c), (d), (e) hoặc (f) trên đây đã pha thêm tác nhân chống bụi hoặc chất màu hoặc chất có mùi thơm hoặc chất gây nôn để dễ nhận biết hoặc vì lý do an toàn, với điều kiện là việc pha thêm đó không làm cho sản phẩm có công dụng đặc biệt ngoài công dụng thông thường của nó;', '(h) Các sản phẩm dưới đây, pha loãng theo nồng độ tiêu chuẩn, để sản xuất thuốc nhuộm azo: muối diazoni, các chất tiếp hợp dùng cho loại muối này và các chất amin có khả năng diazo hoá và các muối của chúng.', '2. Chương này không bao gồm:', '(a) Hàng hoá thuộc nhóm 15.04 hoặc glyxerol thô thuộc nhóm 15.20;', '(b) Cồn etylic (nhóm 22.07 hoặc 22.08);', '(c) Methan hoặc propan (nhóm 27.11 );', '(d) Hợp chất carbon được nêu ở Chú giải 2 của Chương 28;', '(e) Sản phẩm miễn dịch thuộc nhóm 30.02;', '(f) Urê (nhóm 31.02 hoặc 31.05);', '(g) Chất màu gốc động vật hoặc thực vật (nhóm 32.03), chất màu hữu cơ tổng hợp, các sản phẩm hữu cơ tổng hợp được sử dụng như tác nhân tăng sáng huỳnh quang hoặc chất phát quang (nhóm 32.04) hoặc thuốc nhuộm hoặc chất màu khác được làm thành một dạng nhất định hoặc đóng gói để bán lẻ (nhóm 32.12);', '(h) Enzyme (nhóm 35.07);', '(ij) Metaldehyt, hexamethylenetetramine hoặc chất tương tự, làm thành dạng nhất định (ví dụ, viên, que hoặc các dạng tương tự) để sử dụng như nhiên liệu, hoặc nhiên liệu lỏng hoặc khí hoá lỏng đựng trong đồ chứa có dung tích không quá 300 cm3 dùng để bơm hoặc bơm lại ga bật lửa hút thuốc hoặc các loại bật lửa tương tự (nhóm 36.06);', '(k) Các sản phẩm dùng như chất dập lửa để nạp cho các bình cứu hỏa hoặc các loại lựu đạn dập lửa, thuộc nhóm 38.13; các chất tẩy mực đóng gói để bán lẻ, thuộc nhóm 38.24; hoặc', '(l) Các bộ phận quang học, ví dụ, làm bằng ethylenediamine tartrate (nhóm 90.01 ).', '3. Các mặt hàng có thể xếp vào hai hoặc nhiều nhóm thuộc Chương này phải xếp vào nhóm có số thứ tự sau cùng.', '4. Đối với các nhóm từ 29.04 đến 29.06, từ 29.08 đến 29.11 và từ 29.13 đến 29.20, khi đề cập đến các dẫn xuất halogen hóa, sulphonat hoá, nitrat hoá hoặc nitroso hoá đều đề cập đến các dẫn xuất kết hợp, như các dẫn xuất sulpho-halogen hoá, nitro- halogen hóa, nitro-sulphonat hóa hoặc nitro-sulpho-halogen hoá.', 'Theo mục đích của nhóm 29.29, các nhóm nitro hoá hoặc nitroso hoá không được coi là có “chức nitơ”.', 'Theo mục đích của các nhóm 29.11, 29.12, 29.14. 29.18 và 29.22, "chức oxy", nhóm chứa oxy hữu cơ đặc trưng của các nhóm tương ứng trên, được giới hạn trong các chức oxy đề cập trong các nhóm từ 29.05 đến 29.20.', '5. (A) Este của hợp chất hữu cơ chức axit thuộc phần Chương I đến VII với các hợp chất hữu cơ của các phần Chương này phải xếp cùng nhóm với các hợp chất ấy có nghĩa là được xếp vào nhóm có số thứ tự sau cũng trong các phần Chương này.', '(B) Este của cồn etylic với các hợp chất hữu cơ có chức axit trong phần Chương từ I đến VII phải xếp vào cùng nhóm với các hợp chất có chức axit tương ứng.', '(C) Theo Chú giải 1 của Phần VI và Chú giải 2 của Chương 28 thì:', '(1) Muối vô cơ của các hợp chất hữu cơ như các hợp chất có chức axit-, phenol- hoặc enol - hoặc các bazơ hữu cơ, của các phân Chương từ I đến X hoặc nhóm 29.42, phải được xếp vào trong nhóm tương ứng với hợp chất hữu cơ;', '(2) Các muối được tạo nên giữa các hợp chất hữu cơ của các phân Chương I đến X hoặc nhóm 29.42 phải được xếp vào nhóm tương ứng với bazơ hoặc axit (kể cả các hợp chất có chức phenol hoặc enol) mà chính từ đó chúng được tạo thành, phải xếp vào nhóm có số thứ tự sau cùng trong Chương; và', '(3) Hợp chất phối trí, trừ các sản phẩm có thể được phân loại trong phân Chương XI hoặc nhóm 29.41, được phân loại trong nhóm có thứ tự sau cùng trong Chương 29, trong số những phân đoạn phù hợp được tạo bởi “quá trình bẻ gãy” của tất cả các liên kết kim loại, trừ liên kết carbon- kim loại.', '(D) Alcoholate kim loại phải xếp vào cùng nhóm với rượu tương ứng trừ rượu ethanol (nhóm 29.05).', '(E) Halogenua của axit carboxylic phải xếp vào cùng nhóm với axit tương đương.', '6. Các hợp chất của các nhóm 29.30 và 29.31 là các hợp chất hữu cơ mà trong đó các phân tử chứa, ngoài các nguyên tử hydro, oxy hoặc niter, còn có chứa các nguyên tử của các phi kim loại khác hoặc của kim loại (như lưu huỳnh, arson hoặc chì) liên kết trực tiếp với các nguyên tử carbon.', 'Nhóm 29.30 (hợp chất lưu huỳnh hữu cơ) và nhóm 29.31 (hợp chất vô cơ - hữu cơ khác) không bao gồm các dẫn xuất đã sulphonat hóa hoặc halogen hoá (kể cả các dẫn xuất kết hợp), ngoài hydro, oxy và nitơ, chỉ có nguyên tử của lưu huỳnh hoặc halogen trực tiếp liên kết với carbon, điều này làm cho các hợp chất trên mang tính chất của dẫn xuất halogen hóa hoặc sulphonat hóa (hoặc các dẫn xuất kết hợp).', '7. Nhóm 29.32, 29.33 và 29.34 không bao gồm epoxit có vòng 3 cạnh (có 3 nguyên tử ở trên vòng), xeton peroxides, polyme vòng của aldehyt hoặc của thioaldehyt, anhydrit của các axit carboxilic polybasic, este vòng của rượu đa chức hoặc phenols đa chức với axit polybasic, hoặc imide của axit polybasic.', 'Các quy định này chỉ áp dụng khi các dị tố loại ở trên vòng là kết quả duy nhất của chức năng đóng vòng hoặc các chức năng kể đến ở đây.', '8. Theo mục đích của nhóm 29.37:', '(a) thuật ngữ “hormon” bao gồm các yếu tố làm tiết hormon hoặc kích thích hormon, các chất ức chế và kháng hormon (anti- hormon);', '(b) khái niệm "được sử dụng chủ yếu như hormon" không chỉ bao gồm những dẫn xuất hormon và những chất có cấu trúc tương tự được sử dụng chủ yếu vì tác dụng hormon của chúng, mà còn bao gồm những dẫn xuất hormon và những chất có cấu trúc tương tự được sử dụng chủ yếu như chất trung gian trong quá trình tổng hợp các sản phẩm thuộc nhóm này.', 'o', 'o     o', 'Chú giải phân nhóm.', '1. Trong bất kỳ nhóm nào của Chương này, các dẫn xuất của một hợp chất hoá học (hoặc một nhóm các hợp chất hoá học) cần được xếp vào cùng một phân nhóm với hợp chất ấy (hoặc nhóm hợp chất) với điều kiện là không có sự miêu tả đặc trưng hơn trong các phân nhóm khác và không có phân nhóm nào mang tên “Loại khác” trong những phân nhóm có liên quan.', '2. Chú giải 3 Chương 29 không áp dụng cho các phân nhóm của Chương này.']</t>
   </si>
   <si>
-    <t>['Chú giải.', '1.- Chương này không bao gồm:', '(a) Đồ ăn hoặc đồ uống (như đồ ăn theo chế độ ăn kiêng, tiểu đường hoặc đồ ăn để bồi dưỡng sức khỏe, thực phẩm bảo vệ sức khỏe (food supplements), đồ uống tăng lực và nước khoáng), trừ các chế phẩm dinh dưỡng để truyền tĩnh mạch (Phần IV);', '(b) Các sản phẩm, như ở dạng viên (tablet), kẹo cao su hoặc dạng miếng (thẩm thấu qua da), chứa nicotin và nhằm hỗ trợ cai nghiện thuốc lá (nhóm 24.04);', '(c) Thạch cao đã nung hoặc nghiền mịn dùng trong nha khoa (nhóm 25.20);', '(d) Nước cất hoặc dung dịch nước của các loại tinh dầu, dùng cho y tế (nhóm 33.01);', '(e) Các chế phẩm thuộc các nhóm từ 33.03 đến 33.07, ngay cả khi các chế phẩm đó có tính năng phòng bệnh hoặc chữa bệnh;', '(f) Xà phòng hoặc các sản phẩm khác thuộc nhóm 34.01 có chứa thêm dược phẩm;', '(g) Các chế phẩm dùng trong nha khoa với thành phần cơ bản là thạch cao (nhóm 34.07);', '(h) Albumin máu không được điều chế cho mục đích phòng bệnh hoặc chữa bệnh (nhóm 35.02); hoặc', '(ij) Các chất thử chẩn đoán của nhóm 38.22.', '2.- Theo mục đích của nhóm 30.02, cụm từ "các sản phẩm miễn dịch" áp dụng cho peptit và protein (trừ hàng hóa của nhóm 29.37) mà liên quan trực tiếp đến sự điều chỉnh các quá trình miễn dịch, như kháng thể đơn dòng (MAB), mảng kháng thể, tiếp hợp kháng thể và tiếp hợp mảng kháng thể, interleukins, interferons (IFN), chemokines và các nhân tố tiêu diệt u bướu (TNF), nhân tố phát triển (GF), hematopoietins và các nhân tố kích thích khuẩn lạc (CSF).', '3.- Theo mục đích của nhóm 30.03 và 30.04 và Chú giải 4(d) của Chương này, những mục dưới đây cần hiểu như sau:', '(a) Những sản phẩm không pha trộn gồm:', '(1) Sản phẩm không pha trộn đã hòa tan trong nước;', '(2) Toàn bộ các mặt hàng thuộc Chương 28 hoặc 29; và', '(3) Các chiết xuất thực vật bằng phương pháp đơn giản thuộc nhóm 13.02, mới chỉ được chuẩn hóa hoặc hòa tan trong dung môi bất kỳ;', '(b) Những sản phẩm đã pha trộn:', '(1) Các dung dịch keo và huyền phù (trừ lưu huỳnh dạng keo);', '(2) Các chiết xuất thực vật thu được từ việc xử lý hỗn hợp các nguyên liệu thực vật; và', '(3) Muối và chất cô đặc thu được từ việc làm bay hơi nước khoáng tự nhiên.', '4.- Nhóm 30.06 chỉ áp dụng cho các chất sau đây, những chất này phải xếp vào nhóm này và không thể đưa vào nhóm nào khác của Danh mục:', '(a) Chỉ catgut phẫu thuật vô trùng, các vật liệu khâu (suture) vô trùng tương tự (kể cả chỉ tự tiêu vô trùng dùng cho nha khoa hoặc phẫu thuật) và keo tạo mảng vô trùng dùng khép miệng vết thương trong phẫu thuật;', '(b) Tảo nong và nút tảo nong vô trùng;', '(c) Các sản phẩm cầm máu tự tiêu vô trùng dùng cho phẫu thuật hoặc nha khoa; các miếng chắn dính vô trùng dùng trong phẫu thuật hoặc nha khoa, có hoặc không tự tiêu;', '(d) Chế phẩm cản quang dùng trong việc kiểm tra bằng tia X và các thuốc thử chẩn đoán bệnh cho bệnh nhân, là các sản phẩm không pha trộn đóng gói theo liều lượng hoặc các sản phẩm gồm hai thành phần trở lên đã pha trộn dùng cho mục đích trên;', '(e) Giả dược (placebos) và bộ dụng cụ thử nghiệm lâm sàng mù (hoặc mù đôi) để sử dụng trong các thử nghiệm lâm sàng đã công nhận, được đóng gói theo liều lượng, ngay cả khi chúng có thể chứa dược tính;', '(f) Xi măng hàn răng và các chất hàn răng khác; xi măng gắn xương;', '(g) Hộp và bộ dụng cụ cấp cứu;', '(h) Chế phẩm hóa học tránh thai dựa trên hormon, trên các sản phẩm khác thuộc nhóm 29.37 hoặc trên các chất diệt tinh trùng;', '(ij) Các chế phẩm gel được sản xuất để sử dụng cho người hoặc thú y như chất bôi trơn cho các bộ phận của cơ thể khi tiến hành phẫu thuật hoặc khám bệnh hoặc như một chất gắn kết giữa cơ thể và các thiết bị y tế;', '(k) Phế thải dược phẩm, đó là, các loại dược phẩm không thích hợp đối với mục đích dự kiến ban đầu của nó, ví dụ, hết hạn sử dụng; và', '(l) Dụng cụ chuyên dụng cho mổ tạo hậu môn giả, đã được cắt thành hình dạng nhất định và gắn với các viên nhện hoặc tấm mặt của chúng dùng cho thông ruột, hồi tràng và mở niệu đạo.', 'o', 'o   o', 'Chú giải phân nhóm.', '1.- Theo mục đích của phân nhóm 3002.13 và 3002.14, các mục dưới đây được xem xét:', '(a) Như các sản phẩm chưa được pha trộn, các sản phẩm tinh khiết, có hoặc không chứa tạp chất;', '(b) Như các sản phẩm đã được pha trộn:', '(1) Các sản phẩm được đề cập ở mục (a) nêu trên hòa tan trong nước hoặc trong dung môi khác;', '(2) Các sản phẩm được đề cập ở mục (a) và (b) (1) nêu trên với một chất ổn định được thêm vào cần thiết cho việc bảo quản hoặc vận chuyển; và', '(3) Các sản phẩm được đề cập ở mục (a), (b) (1) và (b) (2) nêu trên với phụ gia bất kỳ khác.', '2.- Các phân nhóm 3003.60 và 3004.60 bao gồm thuốc chứa artemisinin (INN) để uống được kết hợp với các thành phần có hoạt tính dược khác, hoặc chứa bất kỳ hoạt chất chính nào dưới đây, có hoặc không kết hợp với các thành phần hoạt tính dược khác: amodiaquine (INN); artelinic axit hoặc các muối của nó; artenimol (INN); artemotil (INN); artemcether (INN); artesunate (INN); chloroquine (INN); dihydroartemisinin (INN); lumefantrine (INN); mefloquine (INN); piperaquine (INN); pyrimethamine (INN) hoặc sulfadoxine (INN).']</t>
+    <t>['Chú giải.', '1.- Chương này không bao gồm:', '(a) Đồ ăn hoặc đồ uống (như đồ ăn theo chế độ ăn kiêng, tiểu đường hoặc đồ ăn để bồi dưỡng sức khỏe, thực phẩm bảo vệ sức khỏe (food supplements), đồ uống tăng lực và nước khoáng), trừ các chế phẩm dinh dưỡng để truyền tĩnh mạch (Phần IV);', '(b) Các sản phẩm, như ở dạng viên (tablet), kẹo cao su hoặc dạng miếng (thẩm thấu qua da), chứa nicotin và nhằm hỗ trợ cai nghiện thuốc lá (nhóm 24.04);', '(c) Thạch cao đã nung hoặc nghiền mịn dùng trong nha khoa (nhóm 25.20);', '(d) Nước cất hoặc dung dịch nước của các loại tinh dầu, dùng cho y tế (nhóm 33.01);', '(e) Các chế phẩm thuộc các nhóm từ 33.03 đến 33.07, ngay cả khi các chế phẩm đó có tính năng phòng bệnh hoặc chữa bệnh;', '(f) Xà phòng hoặc các sản phẩm khác thuộc nhóm 34.01 có chứa thêm dược phẩm;', '(g) Các chế phẩm dùng trong nha khoa với thành phần cơ bản là thạch cao (nhóm 34.07);', '(h) Albumin máu không được điều chế cho mục đích phòng bệnh hoặc chữa bệnh (nhóm 35.02); hoặc', '(ij) Các chất thử chẩn đoán của nhóm 38.22.', '2.- Theo mục đích của nhóm 30.02, cụm từ "các sản phẩm miễn dịch" áp dụng cho peptit và protein (trừ hàng hóa của nhóm 29.37) mà liên quan trực tiếp đến sự điều chỉnh các quá trình miễn dịch, như kháng thể đơn dòng (MAB), mảng kháng thể, tiếp hợp kháng thể và tiếp hợp mảng kháng thể, interleukins, interferons (IFN), chemokines và các nhân tố tiêu diệt u bướu (TNF), nhân tố phát triển (GF), hematopoietins và các nhân tố kích thích khuẩn lạc (CSF).', '3.- Theo mục đích của nhóm 30.03 và 30.04 và Chú giải 4(d) của Chương này, những mục dưới đây cần hiểu như sau:', '(a) Những sản phẩm không pha trộn gồm:', '(1) Sản phẩm không pha trộn đã hòa tan trong nước;', '(2) Toàn bộ các mặt hàng thuộc Chương 28 hoặc 29; và', '(3) Các chiết xuất thực vật bằng phương pháp đơn giản thuộc nhóm 13.02, mới chỉ được chuẩn hóa hoặc hòa tan trong dung môi bất kỳ;', '(b) Những sản phẩm đã pha trộn:', '(1) Các dung dịch keo và huyền phù (trừ lưu huỳnh dạng keo);', '(2) Các chiết xuất thực vật thu được từ việc xử lý hỗn hợp các nguyên liệu thực vật; và', '(3) Muối và chất cô đặc thu được từ việc làm bay hơi nước khoáng tự nhiên.', '4.- Nhóm 30.06 chỉ áp dụng cho các chất sau đây, những chất này phải xếp vào nhóm này và không thể đưa vào nhóm nào khác của Danh mục:', '(a) Chỉ catgut phẫu thuật vô trùng, các vật liệu khâu (suture) vô trùng tương tự (kể cả chỉ tự tiêu vô trùng dùng cho nha khoa hoặc phẫu thuật) và keo tạo mảng vô trùng dùng khép miệng vết thương trong phẫu thuật;', '(b) Tảo nong và nút tảo nong vô trùng;', '(c) Các sản phẩm cầm máu tự tiêu vô trùng dùng cho phẫu thuật hoặc nha khoa; các miếng chắn dính vô trùng dùng trong phẫu thuật hoặc nha khoa, có hoặc không tự tiêu;', '(d) Chế phẩm cản quang dùng trong việc kiểm tra bằng tia X và các thuốc thử chẩn đoán bệnh cho bệnh nhân, là các sản phẩm không pha trộn đóng gói theo liều lượng hoặc các sản phẩm gồm hai thành phần trở lên đã pha trộn dùng cho mục đích trên;', '(e) Giả dược (placebos) và bộ dụng cụ thử nghiệm lâm sàng mù (hoặc mù đôi) để sử dụng trong các thử nghiệm lâm sàng đã công nhận, được đóng gói theo liều lượng, ngay cả khi chúng có thể chứa dược tính;', '(f) Xi măng hàn răng và các chất hàn răng khác; xi măng gắn xương;', '(g) Hộp và bộ dụng cụ cấp cứu;', '(h) Chế phẩm hóa học tránh thai dựa trên hormon, trên các sản phẩm khác thuộc nhóm 29.37 hoặc trên các chất diệt tinh trùng;', '(ij) Các chế phẩm gel được sản xuất để sử dụng cho người hoặc thú y như chất bôi trơn cho các bộ phận của cơ thể khi tiến hành phẫu thuật hoặc khám bệnh hoặc như một chất gắn kết giữa cơ thể và các thiết bị y tế;', '(k) Phế thải dược phẩm, đó là, các loại dược phẩm không thích hợp đối với mục đích dự kiến ban đầu của nó, ví dụ, hết hạn sử dụng; và', '(l) Dụng cụ chuyên dụng cho mổ tạo hậu môn giả, đã được cắt thành hình dạng nhất định và gắn với các viên nhện hoặc tấm mặt của chúng dùng cho thông ruột, hồi tràng và mở niệu đạo.', 'o', 'o   o', 'Chú giải phân nhóm.', '1.- Theo mục đích của phân nhóm 3002.13 và 3002.14, các mục dưới đây được xem xét:', '(a) Như các sản phẩm chưa được pha trộn, các sản phẩm tinh khiết, có hoặc không chứa tạp chất;', '(b) Như các sản phẩm đã được pha trộn:', '(1) Các sản phẩm được đề cập ở mục (a) nêu trên hòa tan trong nước hoặc trong dung môi khác;', '(2) Các sản phẩm được đề cập ở mục (a) và (b) (1) nêu trên với một chất ổn định được thêm vào cần thiết cho việc bảo quản hoặc vận chuyển; và', '(3) Các sản phẩm được đề cập ở mục (a), (b) (1) và (b) (2) nêu trên với phụ gia bất kỳ khác.', '2.- Các phân nhóm 3003.60 và 3004.60 bao gồm thuốc chứa artemisinin (INN) để uống được kết hợp với các thành phần có hoạt tính dược khác, hoặc chứa bất kỳ hoạt chất chính nào dưới đây, có hoặc không kết hợp với các thành phần hoạt tính dược khác: amodiaquine (INN); artelinic axit hoặc các muối của nó; artenimol (INN); artemotil (INN); artemcether (INN); artesunate (INN); chloroquine (INN); dihydroartemisinin (INN); lumefantrine (INN); mefloquine (INN); piperaquine (INN); pyrimethamine (INN) hoặc sulfadoxine (INN).', 'TỔNG QUÁT', 'Chương này bao gồm các sản phẩm pegylat hóa là những sản phẩm chứa polyme polyetylen glycol (hoặc PEGs) gắn với dược phẩm của Chương 30 (như là, protein chức năng và peptit chức năng, phân đoạn kháng thể) nhằm cải thiện hiệu quả của chúng khi sử dụng như thuốc. Các sản phẩm pegylat hóa của các nhóm thuộc Chương này vẫn được phân loại cùng nhóm như dạng các sản phẩm không được pegylat hóa (ví dụ, Peginterferon (INN) thuộc nhóm 30.02).', '30.01- Các tuyến và các bộ phận cơ thể khác dùng để chữa bệnh, ở dạng khô, đã hoặc chưa làm thành dạng bột; chiết xuất từ các tuyến hoặc các bộ phận cơ thể khác hoặc từ các dịch tiết của chúng dùng để chữa bệnh; heparin và các muối của nó; các chất khác từ người hoặc động vật được điều chế dùng cho phòng bệnh hoặc chữa bệnh, chưa được chi tiết hoặc ghi ở nơi khác.', '3001.20 - Chiết xuất từ các tuyến hoặc các bộ phận cơ thể khác hoặc từ các dịch tiết của chúng', '3001.90 - Loại khác', 'Nhóm này bao gồm:', '(A) Các tuyến và các bộ phận khác có nguồn gốc động vật dùng để chữa bệnh (ví dụ, não, tủy sống, gan, thận, lá lách, tuyến tụy, tuyến vú, tinh hoàn, buồng trứng), khô, đã hoặc chưa làm thành dạng bột.', '(B) Chất chiết xuất từ các tuyến hoặc các bộ phận khác hoặc từ các chất tiết của chúng dùng để chữa bệnh, thu được bằng cách chiết dung môi, đông tụ hoặc bằng quá trình bất kỳ khác. Các chất chiết xuất này có thể ở dạng rắn, bán rắn hoặc dạng lỏng, hoặc trong dạng dung dịch hoặc dạng huyền phù trong bất kỳ môi trường nào cần thiết để bảo quản chúng.', 'Các chất chiết xuất để chữa bệnh từ các dịch tiết của các tuyến hoặc các bộ phận bao gồm cả chiết xuất mật.', '(C) Heparin và muối của nó. Heparin gồm một hỗn hợp các axít hữu cơ có cấu trúc phức tạp (muco- polysaccharides) thu được từ mô của động vật có vú. Thành phần của nó thay đổi tùy theo nguồn gốc của các mô này. Heparin và muối của nó được dùng chủ yếu trong y học, đặc biệt là làm chất chống đông máu. Chúng vẫn được phân loại trong phân nhóm này mà không phụ thuộc vào mức độ hoạt tính của chúng.', '(D) Các chất khác của người hoặc động vật đã được điều chế để phòng bệnh hay chữa bệnh và chưa được cụ thể hóa hoặc ghi ở nơi khác trong Danh mục, gồm có:', '(1) Chất tủy đỏ (sinh hồng cầu) được bảo quản trong glycerol.', '(2) Nọc độc của rắn hoặc ong ở dạng vảy mỏng được làm khô và những chất độc tàng ẩn không có vi sinh (non-microbial crypto-toxins) tạo thành từ các nọc độc này.', 'Những sản phẩm được ghi trong điểm (1) và điểm (2) ở trên, khi để làm thuốc được đóng gói theo liều lượng hoặc làm thành dạng nhất định hoặc đóng gói để bán lẻ, được phân loại vào nhóm 30.04.', '(3) Xương, các bộ phận hữu cơ và các mô khác của người hoặc động vật, còn sống hoặc được bảo quản, phù hợp cho việc ghép hay cấy mô lâu dài, được đóng gói vô trùng có thể kèm theo cả những chỉ định như cách sử dụng, v.v...', 'Nhóm này không bao gồm:', '(a) Các tuyến và các bộ phận khác của động vật ở dạng tươi, ướp lạnh, đông lạnh hoặc được bảo quản tạm thời bằng một phương pháp khác (Chương 2 hoặc 5).', '(b) Mật, đã hoặc chưa sấy khô (nhóm 05.10).', '(c) Các hợp chất được xác định về mặt hóa học riêng biệt và các sản phẩm khác của Chương 29 thu được bằng cách xử lý các chiết xuất của các tuyến hoặc bộ phận khác, như là, các amino axit (nhóm 29.22), các loại vitamin (nhóm 29.36), các loại hormon (nhóm 29.37).', '(d) Máu người, máu động vật đã điều chế dùng cho phòng bệnh, chữa bệnh hoặc chẩn đoán, và các kháng huyết thanh (kể cả các globulin miễn dịch đặc biệt) và các phần của máu khác (như là, các huyết thanh thông thường, chất globulin miễn dịch, huyết tương, fibrinogen, fibrin thông thường của người) (nhóm 30.02).', '(e) Tế bào nuôi cấy (nhóm 30.02).', '(f) Các sản phẩm có đặc tính của thuốc thuộc nhóm 30.03 hoặc 30.04 (xem các Chú giải Chi tiết tương ứng).', '(g) Các chất globulin và các phân đoạn globulin (trừ loại của máu hoặc huyết thanh của chúng) không được điều chế để chữa bệnh hoặc phòng bệnh (nhóm 35.04).', '(h) Các enzym (nhóm 35.07).', '30.02- Máu người; máu động vật đã điều chế dùng cho chữa bệnh, phòng bệnh hoặc chẩn đoán bệnh; kháng huyết thanh, các phần phân đoạn khác của máu và các sản phẩm miễn dịch, có hoặc không được cải biến hoặc thu được từ quy trình công nghệ sinh học; vắc xin, độc tố, vi sinh nuôi cấy (trừ các loại men) và các sản phẩm tương tự; tế bào nuôi cấy, có hoặc không cải biến (+).', '- Kháng huyết thanh, các phần phân đoạn khác của máu và các sản phẩm miễn dịch, có hoặc không cải biến hoặc thu được từ quy trình công nghệ sinh học:', '3002.12 - - Kháng huyết thanh và các phần phân đoạn khác của máu', '3002.13 - - Các sản phẩm miễn dịch, chưa được pha trộn, chưa đóng gói theo liều lượng hoặc làm thành dạng nhất định hoặc đóng gói để bán lẻ', '3002.14 - - Các sản phẩm miễn dịch, được pha trộn, chưa đóng gói theo liều lượng hoặc làm thành dạng nhất định hoặc đóng gói để bán lẻ', '3002.15 - - Các sản phẩm miễn dịch, đóng gói theo liều lượng hoặc làm thành dạng nhất định hoặc đóng gói để bán lẻ', '- Vắc xin, độc tố, vi sinh nuôi cấy (trừ các loại men) và các sản phẩm tương tự:', '3002.41 - - Vắc xin cho người', '3002.42 - - Vắc xin thú y', '3002.49 - - Loại khác', '- Tế bào nuôi cấy, có hoặc không cải biến:', '3002.51 - - Các sản phẩm liệu pháp tế bào', '3002.59 - - Loại khác', '3002.90 - Loại khác', 'Nhóm này bao gồm:', '(A) Máu người (ví dụ, máu người đựng trong ống thuốc gắn kín).', '(B) Máu động vật đã được điều chế dùng cho phòng bệnh, chữa bệnh hoặc chẩn đoán bệnh.', 'Máu động vật chưa được điều chế để sử dụng được phân loại vào nhóm 05.11.', '(C) Các kháng huyết thanh, các phần khác của máu và các sản phẩm miễn dịch, có hoặc không cải biến hoặc thu được bằng quy trình công nghệ sinh học.', 'Các sản phẩm này bao gồm:', '(1) Các kháng huyết thanh và các phần khác của máu, có hoặc không cải biến hoặc thu được bằng quy trình công nghệ sinh học.', 'Huyết thanh là phần phân đoạn lỏng được tách ra từ máu sau khi máu đông tụ.', 'Ngoài những đề cập khác, nhóm này bao gồm các sản phẩm được làm từ máu (kể cả tế bào nội mô mạch máu): Các loại huyết thanh "thông thường", các globulin miễn dịch thông thường của người, các phần phân đoạn của máu và các biến thể cắt ngắn (bộ phận) của chúng có tính chất/ hoạt tính enzym, huyết tương, thrombin, fibrinogen, fibrin và các nhân tố đông máu khác, huyết khối, globulin máu, globulin huyết thanh, và haemoglobin. Nhóm này cũng bao gồm các huyết khối cải biến và haemoglobin cải biến thu được từ quy trình công nghệ sinh học, ví dụ, sothrombomodulin alfa (INN) và thrombomodulin alfa (INN), cũng như heamoglobin đã được liên kết như hemoglobin crosfumaril (INN), hemoglobin glutamer (INN) và hemoglobin raffimer (INN).', 'Nhóm này cũng bao gồm các albumin máu (ví dụ, albumin của người thu được nhờ sự phân tách huyết tương từ máu người), được điều chế dùng cho phòng bệnh hoặc chữa bệnh.', 'Các kháng huyết thanh thu từ máu người hoặc động vật có tính miễn dịch hoặc đã miễn dịch đối với các bệnh ở động vật hay người, cho dù chúng được gây ra bởi các vi khuẩn gây bệnh và vi rút, chất độc hoặc các hiện tượng dị ứng,…. Kháng huyết thanh được dùng để trị bệnh bạch hầu, bệnh lỵ, hoại tử, viêm màng não, viêm phổi, uốn ván, nhiễm tụ cầu khuẩn hoặc liên cầu, rắn cắn, ngộ độc thực vật, các bệnh dị ứng,.… Các kháng huyết thanh cũng thường được sử dụng cho mục đích chẩn đoán bệnh, bao gồm cả các thử nghiệm nuôi cấy. Các globulin miễn dịch đặc biệt là những chế phẩm đã được tinh chế của các kháng huyết thanh.', 'Nhóm này không bao gồm albumin máu chưa điều chế dùng cho phòng bệnh hoặc chữa bệnh (nhóm 35.02) hoặc các globulin (trừ globulin máu và globulin huyết thanh) (nhóm 35.04). Nhóm này cũng không bao gồm các thuốc không được tách ra từ máu nhưng được một số quốc gia mô tả như “huyết thanh” hoặc “huyết thanh nhân tạo”; chúng bao gồm những dung dịch đẳng trương trên nền clorua natri hoặc hóa chất khác và các dịch huyền phù của phấn hoa được sử dụng để trị các bệnh dị ứng.', '(2) Những sản phẩm miễn dịch, có hoặc không cải biến hoặc thu được bởi quy trình công nghệ sinh học.', 'Sản phẩm sử dụng cho mục đích chẩn đoán hoặc điều trị và xét nghiệm miễn dịch phải được coi là thuộc nhóm sản phẩm này. Chúng có thể được định rõ như sau:', '(a) Các loại kháng thể đơn dòng (MAB) - các globulin miễn dịch đặc biệt có nguồn gốc từ tế bào lai đã chọn lọc và vô tính trong môi trường nuôi cấy hoặc cổ trướng (ascites).', '(b) Các đoạn kháng thể- các phần hoạt động của một loại protein kháng thể thu được bằng phương pháp tách các enzyme đặc biệt. Nhóm này bao gồm, không kể những đề cập khác, kháng thể chuỗi đơn (scFv).', '(c) Kết hợp kháng thể và kết hợp đoạn kháng thể - các kết hợp có chứa ít nhất một kháng thể hoặc một đoạn kháng thể. Loại đơn giản nhất là kết hợp sau đây:', '(i) kháng thể - kháng thể;', '(ii) đoạn kháng thể - đoạn kháng thể;', '(iii) kháng thể - đoạn kháng thể;', '(iv) kháng thể - chất khác;', '(v) đoạn kháng thể - chất khác.', 'Kết hợp của các loại (iv) và (v) bao gồm, ví dụ, các enzym (như là, phosphatase, peroxydase hoặc betagalactosidase của kiềm) hoặc thuốc nhuộm (fluorescin) liên kết hóa trị với cấu trúc protein, được sử dụng cho các phản ứng thăm dò đơn giản.', 'Nhóm này cũng bao gồm interleukin, interferon(IFN), chemokine và một số nhân tố hoại tử khối u(TNF), nhân tố tăng trưởng(GF), hematopoietins và các nhân tố kích thích cụm(CSF).', '(D) Các loại vacxin, chất độc, các vi sinh nuôi cấy (trừ các loại men) và các sản phẩm tương tự.', 'Nhóm này bao gồm:', '(1) Vacxin.', 'Các loại vacxin tiêu biểu nhất là chế phẩm dự phòng có nguồn gốc vi sinh vật có chứa hoặc virus hoặc vi khuẩn dạng nhũ tương trong dung dịch muối, dầu (lipovaccines) hoặc các môi trường khác. Các chế phẩm này thường được xử lý để làm giảm độc tính của chúng mà không huỷ hoại đặc tính miễn dịch của chúng.', 'Các vắc xin khác bao gồm loại vắc xin tái tổ hợp, vắc xin peptit và vắc xin carbohydrat. Các loại vắc xin này thường chứa một kháng nguyên, một phần được nhận biết của một kháng nguyên hay một gen mã hóa cho một phần được nhận biết của một kháng nguyên (peptit, tái tổ hợp hoặc liên hợp của protein và những thành phần khác). "Phần được nhận biết của một kháng nguyên" là phần của một kháng nguyên mà gây nên các phản ứng miễn dịch trong cơ thể. Mục tiêu của nhiều vắc xin loại này là virus hoặc vi khuẩn đặc biệt. Các loại vắc xin này được sử dụng cho mục đích phòng hoặc điều trị bệnh.', 'Ngoài ra, nhóm này còn bao gồm các vắc xin axit nucleic. Một số ví dụ bao gồm vắc xin DNA plasmid và vắc xin RNA thông tin (mRNA). Vắc xin DNA plasmid mang gen mã hóa protein từ mầm bệnh trong khi mRNA mã hóa cho một loại protein cụ thể của mầm bệnh. Cả DNA plasmid và mRNA đều sao chép trong cơ thể hoặc báo hiệu cho cơ thể sao chép các kháng nguyên mong muốn dẫn đến phản ứng miễn dịch.', 'Nhóm này cũng bao gồm các hỗn hợp chứa các vắc xin hoặc biến độc tố (như vắc xin chủng ngừa bệnh bạch hầu, uốn ván và ho gà (DPT)).', 'Nhóm này không bao gồm các loại vắc xin được đóng gói trong các bộ dụng cụ dành cho các thử nghiệm lâm sàng được công nhận (nhóm 30.06), dù là vắc xin được thử nghiệm hay như dưới dạng chất đối chứng (đôi khi được gọi là “giả dược”) mà một loại vắc xin khác đang được kiểm tra trong thử nghiệm.', '(2) Các độc tố (các loại thuốc độc), biến độc tố, độc tố tàng ẩn, tiền độc tố (ví dụ, topsalysin (INN)) và kháng độc tố. Các chất độc thuộc nhóm này là các peptit hoặc protein. Những chất độc này không bao gồm các alkaloid (nhóm 29.39).', '(3) Các vi sinh nuôi cấy (trừ các loại men). Các vi sinh nuôi cấy này bao gồm các chất lên men như lên men lactic được dùng để điều chế ra các dẫn xuất từ sữa (kephir, sữa chua, axít lactic) và các chất lên men axetic để làm dấm; mốc để sản xuất penicillin và các kháng sinh khác; và các vi sinh nuôi cấy dùng cho mục đích kỹ thuật (như là, để hỗ trợ sự tăng trưởng của cây).', 'Sữa hoặc whey có chứa một lượng nhỏ men lactic được phân loại trong Chương 4.', '(4) Virus, con người, động vật và thực vật và kháng vi rút', '(5) Các thể thực khuẩn.', 'Nhóm này cũng gồm các chất thử dùng trong chẩn đoán bệnh có nguồn gốc vi sinh, trừ các chất đã được ghi trong Chú giải 4(d) của Chương này - xem nhóm 30.06. Nhóm này không bao gồm các enzym (rennet, amylase, v.v...) ngay cả khi chúng có nguồn gốc vi sinh (streptokinase, streptodonase, v.v.) (nhóm 35.07) hoặc các vi sinh đơn bào đã chết (trừ các vắc xin) (nhóm 21.02).', '(E) Tế bào nuôi cấy, có hoặc không cải biến', 'Tế bào nuôi cấy là các tế bào được nuôi cấy trong điều kiện được kiểm soát, thường là bên ngoài môi trường tự nhiên của chúng. Trong bối cảnh này, nuôi cấy tế bào đề cập đến tế bào nuôi cấy có nguồn gốc từ các sinh vật đa bào, đặc biệt là tế bào người hoặc động vật. Các vi sinh vật nuôi cây (trừ các loại nấm men) được phân loại tại phân nhóm 3002.49.', 'Các sản phẩm liệu pháp tế bào là vật liệu tế bào đã được cải biến bằng thao tác trên tế bào và được dùng để tiêm, ghép hoặc cấy vào bệnh nhân.', 'Liệu pháp tế bào ứng dụng trong rất nhiều các bệnh về rối loạn. Quan trọng nhất là các bệnh về hệ thần kinh và ung thư. Các ứng dụng khác bao gồm, không kể những đề cập khác: rối loạn tim (nhồi máu cơ tim và suy tim), đái tháo đường, các bệnh về xương và khớp, rối loạn di truyền và vết thương ở da và mô mềm.', 'Các sản phẩm liệu pháp tế bào bao gồm tế bào gốc và các sản phẩm có nguồn gốc từ tế bào gốc, chẳng hạn như các sản phẩm từ máu dây rốn, phôi, trung mô và chất sinh huyết, vắc-xin ung thư và liệu pháp miễn dịch, như vắc-xin tế bào đuôi gai, tế bào lympho T hoặc B hoạt hóa, bạch cầu đơn nhân, và các tế bào ung thư đã cải biến hoặc chưa cải biến, tế bào đảo tụy dị sinh, tế bào sụn để sửa chữa sụn, tế bào sừng, nguyên bào sợi và tế bào gan.', 'Các sản phẩm của nhóm này vẫn được phân loại ở đây dù đã hoặc không theo liều lượng hoặc đóng gói để bán lẻ và ở dạng khối hoặc đóng gói nhỏ.', 'o', 'o   o', 'Chú giải phân nhóm.', 'Phân nhóm 3002.13', 'Các sản phẩm miễn dịch không pha trộn của phân nhóm 3002.13 có thể chứa các tạp chất. Khái niệm tạp chất chỉ áp dụng cho các chất mà sự có mặt của chúng là kết quả duy nhất và trực tiếp từ quá trình sản xuất (kể cả quá trình tinh chế). Các chất này có thể là kết quả từ bất kỳ yếu tố nào liên quan đến quá trình sản xuất và chủ yếu ở các dạng sau:', '(a) Các nguyên liệu ban đầu không chuyển hóa.', '(b) Các tạp chất có trong nguyên liệu ban đầu.', '(c) Các thuốc thử được sử dụng trong quá trình sản xuất (kể cả quá trình tinh chế).', '(d) Các sản phẩm phụ.', 'Phân nhóm 3002.51', 'Theo mục đích của phân nhóm 3002.51, “các sản phẩm liệu pháp tế bào” là các tế bào sống có các đặc tính sinh học bị thay đổi đáng kể thông qua thao tác (trong (các) quy trình “ex vivo” nhằm loại bỏ có chọn lọc, làm phong phú, mở rộng hoặc thay đổi chức năng của tế bào) và nhằm mục đích để sử dụng trong cơ thể để đạt được kết quả điều trị hoặc phòng bệnh cho người nhận. Các sản phẩm liệu pháp tế bào có thể bao gồm các tế bào có nguồn gốc từ người hoặc động vật.', 'Phân nhóm 3002.51 không bao gồm các tế bào chưa được xử lý hoặc đã trải qua thao tác tối thiểu mà không làm thay đổi các đặc tính sinh học liên quan của tế bào.', '30.03- Thuốc (trừ các mặt hàng thuộc nhóm 30.02, 30.05 hoặc 30.06) gồm từ hai hay nhiều thành phần trở lên đã pha trộn với nhau dùng cho phòng bệnh hoặc chữa bệnh, chưa được đóng gói theo liều lượng hoặc làm thành hình dạng nhất định hoặc đóng gói để bán lẻ.', '3003.10 - Chứa penicillins hoặc dẫn xuất của chúng, có cấu trúc axit penicillanic, hoặc streptomycins hoặc các dẫn xuất của chúng', '3003.20 - Loại khác, chứa kháng sinh', '- Loại khác, chứa hormon hoặc các sản phẩm khác thuộc nhóm 29.37:', '3003.31 - - Chứa insulin', '3003.39 - - Loại khác', '- Loại khác, chứa alkaloit hoặc các dẫn xuất của chúng:', '3003.41 - - Chứa ephedrine hoặc muối của nó', '3003.42 - - Chứa pseudoephedrine (INN) hoặc muối của nó', '3003.43 - - Chứa norephedrine hoặc muối của nó', '3003.49 - - Loại khác', '3003.60 - Loại khác, chứa hoạt chất chống sốt rét mô tả ở Chú giải Phân nhóm 2 của Chương này', '3003.90 - Loại khác', 'Nhóm này bao gồm các loại chế phẩm thuốc dùng xử lý bên trong hoặc bên ngoài hoặc để phòng cho người hoặc động vật. Các chế phẩm này đã được điều chế bằng cách pha trộn hai hoặc nhiều thành phần với nhau. Tuy nhiên, nếu các chế phẩm này đã được đóng gói theo liều lượng, hoặc làm thành dạng nhất định hoặc đóng gói để bán lẻ thì tất cả những chế phẩm đó phải thuộc nhóm 30.04.', 'Nhóm này bao gồm:', '(1) Các loại chế phẩm thuốc đã pha trộn như là những loại được ghi trong các dược điển chính thức, các biệt dược, v.v..., kể cả thuốc xúc miệng, thuốc tra mắt, thuốc mỡ, thuốc xoa, các thuốc tiêm, thuốc chống dị ứng và các chế phẩm hỗn hợp khác không phân loại trong nhóm 30.02, 30.05 hoặc 30.06.', 'Tuy nhiên, không nên hiểu là những chế phẩm có trong dược điển, các loại thuốc biệt dược, v.v.... thì luôn được phân loại vào nhóm 30.03. Ví dụ, các chế phẩm dùng để trị mụn trứng cá được dùng chủ yếu để tẩy sạch da và không chứa đủ mức hoạt chất để được coi như có tác dụng cơ bản để phòng hoặc chữa mụn trứng cá thì được phân loại vào nhóm 33.04.', '(2) Các chế phẩm chứa một dược chất đi kèm với một tá dược, chất làm ngọt, chất kết tụ, hỗ trợ, v.v...', '(3) Các chế phẩm dinh dưỡng chỉ dùng đường tiêm truyền, nghĩa là bằng đường tiêm hoặc truyền vào tĩnh mạch.', '(4) Các loại dung dịch keo và huyền phù (ví dụ, keo selen) được dùng làm thuốc, nhưng không bao gồm keo lưu huỳnh hoặc keo kim loại quý dạng đơn. Keo lưu huỳnh được phân loại vào nhóm 30.04 nếu như đã được đóng gói theo liều lượng hoặc đóng gói để bán lẻ với mục đích sử dụng để phòng bệnh hoặc chữa bệnh, còn trong tất cả các trường hợp khác nó sẽ được phân vào nhóm 28.02. Keo kim loại quý dạng đơn được phân loại vào nhóm 28.43 cho dù có dùng làm thuốc hay không. Tuy nhiên, hỗn hợp keo các kim loại quý hoặc hỗn hợp keo kim loại quý với các chất khác, với mục đích dùng để phòng bệnh hay chữa bệnh vẫn được phân vào nhóm này.', '(5) Các chất chiết xuất thực vật phức hợp dùng làm thuốc, bao gồm cả những chất đã thu được bằng việc xử lý một hỗn hợp các cây.', '(6) Hỗn hợp dùng làm thuốc của các cây hoặc các bộ phận của cây thuộc nhóm 12.11.', '(7) Các loại muối y học thu được nhờ làm bay hơi các loại nước khoáng tự nhiên và những sản phẩm tương tự được điều chế bằng phương pháp nhân tạo.', '(8) Các nước cô đặc từ các nguồn muối (như nước Kreuznach) được sử dụng để chữa bệnh; những hỗn hợp của muối được điều chế để làm các loại nước tắm y học (nước tắm có sulfua, iốt, v.v..), có hoặc không được tạo hương.', '(9) Muối y tế (ví dụ, hỗn hợp của natri hydrocarbonat, axit tartaric, sulphat magie và đường) và các hỗn hợp muối sủi bọt tương tự dùng cho mục đích y học.', '(10) Dầu long não, dầu phenolat,…', '(11) Các sản phẩm trị hen suyễn, như giấy và bột chữa hen.', '(12) “Các thuốc có tác dụng chậm” như các thuốc có chứa một thành phần dược chất được gắn với một nhân tố trao đổi ion polyme.', '(13) Các loại thuốc gây mê, thuốc gây tê được dùng trong y tế và phẫu thuật đối với người và thú y.', '*', '*   *', 'Các điều khoản của phần mô tả nội dung nhóm không áp dụng đối với các loại thực phẩm hoặc các loại đồ uống như là các loại thực phẩm dùng cho ăn kiêng, dùng cho người mắc tiểu đường hoặc các loại thức ăn giàu chất đạm, hoặc đồ uống bổ hoặc các loại nước khoáng (tự nhiên hay nhân tạo), được phân vào nhóm thích hợp riêng của chúng. Điều này chủ yếu là trường hợp các loại chế phẩm thực phẩm chỉ chứa các loại chất dinh dưỡng. Các chất dinh dưỡng chủ yếu nhất trong thực phẩm là các protein, carbohydrat và chất béo. Các loại vitamin và các loại muối khoáng cũng đóng vai trò là một thành phần dinh dưỡng.', 'Tương tự như vậy các thực phẩm và đồ uống có thành phần thuốc không nằm trong nhóm này nếu chúng được cho vào thực phẩm hay đồ uống chỉ với mục đích tạo ra sự cân bằng dinh dưỡng tốt hơn, để làm tăng giá trị dinh dưỡng hoặc năng lượng của sản phẩm hay cải thiện vị của chúng, với điều kiện là sản phẩm vẫn giữ được đặc tính của thực phẩm hay đồ uống.', 'Hơn nữa, các sản phẩm gồm hỗn hợp của các loại cây hoặc các phần của cây hoặc gồm các loại cây hoặc các phần của cây đã pha trộn với các chất khác, dùng để tạo nước thảo dược hoặc chè thảo dược (ví dụ, các chế phẩm có đặc tính nhuận tràng, xổ, lợi tiểu hay giảm đầy hơi chướng bụng...) và được ghi nhãn là giúp giảm bệnh tật hoặc góp phần tăng cường sức khỏe của con người thì cũng bị loại trừ khỏi nhóm này (nhóm 21.06).', 'Hơn nữa, nhóm này không bao gồm gồm các chế phẩm thường được đề cập đến như là các thực phẩm bảo vệ sức khỏe có chứa các vitamin hoặc các loại khoáng, thường được dùng để duy trì sức khỏe hoặc tinh thần thoải mái, hoặc để cải thiện thành tích thể thao, hoặc để ngăn ngừa sự thiếu hụt dinh dưỡng có thể xảy ra hoặc điều chỉnh mức độ dưới mức tối ưu của dinh dưỡng. Các sản phẩm này có thể dưới dạng lỏng, bột hoặc các dạng tương tự, thường được phân vào nhóm 21.06 hoặc Chương 22.', 'Mặt khác, nhóm này bao gồm các chế phẩm trong đó thực phẩm hoặc đồ uống chỉ đóng vai trò như là tác nhân bổ trợ, làm chất vận chuyển hoặc chất tạo ngọt hoặc hỗ trợ kỹ thuật hoặc chế biến cho dược chất (ví dụ, để hỗ trợ sự tiêu hóa).', 'Ngoài các loại thực phẩm và đồ uống, nhóm này không bao gồm:', '(a) Các sản phẩm thuộc nhóm 30.02, 30.05 hoặc 30.06.', '(b) Nước cất tinh dầu hoặc dung dịch nước của tinh dầu và các chế phẩm thuộc các nhóm 33.03 đến 33.07 ngay cả khi chúng có đặc tính phòng bệnh hay chữa bệnh (Chương 33).', '(c) Các loại xà phòng dược phẩm (nhóm 34.01).', '(d) Thuốc diệt côn trùng, thuốc tẩy uế, v.v..., thuộc nhóm 38.08.', '30.04- Thuốc (trừ các mặt hàng thuộc nhóm 30.02, 30.05 hoặc 30.06) gồm các sản phẩm đã hoặc chưa pha trộn dùng cho phòng bệnh hoặc chữa bệnh, đã được đóng gói theo liều lượng (kể cả các sản phẩm thuộc loại dùng để hấp thụ qua da) hoặc làm thành dạng nhất định hoặc đóng gói để bán lẻ.', '3004.10 - Chứa penicillins hoặc các dẫn xuất của chúng, có cấu trúc axit penicillanic, hoặc các streptomycin hoặc các dẫn xuất của chúng', '3004.20 - Loại khác, chứa kháng sinh', '- Loại khác, chứa hormon hoặc các sản phẩm khác của nhóm 29.37:', '3004.31 - - Chứa insulin', '3004.32 - - Chứa hormon tuyến thượng thận, các dẫn xuất của chúng hoặc cấu trúc tương tự', '3004.39 - - Loại khác', '- Loại khác, chứa alkaloit hoặc các dẫn xuất của chúng:', '3004.41 - - Chứa ephedrine hoặc muối của nó', '3004.42 - - Chứa pseudoephedrine (INN) hoặc muối của nó', '3004.43 - - Chứa norephedrine hoặc muối của nó', '3004.49 - - Loại khác', '3004.50 - Loại khác, chứa các vitamin hoặc các sản phẩm khác của nhóm 29.36', '3004.60 - Loại khác, chứa hoạt chất chống sốt rét được mô tả ở Chú giải Phân nhóm 2 của Chương này', '3004.90 - Loại khác.', 'Nhóm này bao gồm các loại thuốc có chứa các sản phẩm đã pha trộn hoặc chưa pha trộn, với điều kiện chúng là:', '(a) Được đóng gói theo liều lượng hay ở dạng thuốc viên, ống (ví dụ, nước cất đóng trong ống 1,25 đến 10 cm3, để sử dụng trực tiếp cho việc điều trị một số chứng bệnh nhất định, ví dụ, các chứng nghiện rượu, hôn mê tiểu đường hoặc được dùng như dung môi để pha thuốc tiêm), viên nang, gói bột, thuốc nhỏ giọt hay viên ngậm, thuốc ở dạng hệ sản phẩm thẩm thấu qua da (transdermal administration systems), hay lượng nhỏ thuốc bột đóng sẵn, sẵn sàng để dùng như liều đơn để phòng hay chữa bệnh.', 'Nhóm này cũng bao gồm các liều đóng sẵn dưới dạng hệ sản phẩm thẩm thấu qua da, thường dưới dạng các miếng dán (thường hình tròn hoặc tam giác) và được dùng trực tiếp lên da bệnh nhân. Hoạt chất được chứa trong một bộ phận chứa được đóng kín bằng một màng có lỗ ở mặt tiếp xúc với da. Hoạt chất được giải phóng khỏi bộ phận chứa sẽ được hấp thu bằng cơ chế khuyếch tán phân tử thụ động và đi trực tiếp vào các mao mạch. Hệ sản phẩm này không được lẫn với các miếng cao dán y khoa ở nhóm 30.05', 'Nhóm này áp dụng cho các dạng liều đơn dù chúng với số lượng lớn, đóng gói bán lẻ,...; hoặc', '(b) Được đóng gói để bán lẻ dùng để phòng bệnh hoặc chữa bệnh. Để được coi như vậy phải là những sản phẩm (ví dụ, natri bicarbonat và bột quả me), do kiểu đóng gói và, đặc biệt là do có những chỉ định điều trị (nêu rõ các chứng bệnh hay thể trạng được chỉ định sử dụng sản phẩm đó, cách dùng, liều lượng,v.v..) cho thấy rõ ràng là để bán lẻ trực tiếp cho người sử dụng (cá nhân, bệnh viện, v.v.) mà không phải đóng gói lại, để sử dụng cho những mục đích nói ở trên.', 'Những chỉ định này (bằng bất kỳ thứ ngôn ngữ nào) có thể được ghi trên nhãn sản phẩm, trong các hướng dẫn sử dụng hay bằng cách khác. Tuy nhiên, chỉ các chỉ định dược phẩm hoặc tiêu chuẩn về độ tinh khiết thôi thì không đủ để thuyết phục việc phân loại sản phẩm vào nhóm này.', 'Mặt khác, kể cả khi không có các chỉ định thì các sản phẩm không pha trộn phải được coi là được đóng gói bán lẻ cho mục đích phòng bệnh hoặc chữa bệnh nếu chúng được đóng gói ở dạng rõ ràng cho thấy là để phục vụ cho mục đích đó.', 'Các loại thuốc gồm các sản phẩm hỗn hợp dùng cho mục đích phòng bệnh hoặc chữa bệnh, nhưng không được đóng gói theo liều lượng hoặc được làm thành dạng nhất định hoặc đóng gói để bán lẻ được phân loại vào nhóm 30.03 (xem Chú giải Chi tiết tương ứng).', 'Căn cứ các điều khoản tại Chú giải 3 của Chương này, những sản phẩm sau đây được coi là sản phẩm không pha trộn:', '(1) Các sản phẩm không pha trộn hòa tan trong nước.', '(2) Toàn bộ các sản phẩm thuộc Chương 28 hoặc 29. Trong số những sản phẩm này có cả keo lưu huỳnh và các loại dung dịch bền vững của hydro peroxit.', '(3) Các chiết xuất thực vật đơn chất thuộc nhóm 13.02, chỉ đơn thuần được tiêu chuẩn hóa hoặc hòa tan trong dung môi bất kỳ (xem Chú giải Chi tiết nhóm 13.02).', 'Tuy nhiên cần lưu ý rằng, các sản phẩm không pha trộn thuộc các nhóm từ 28.43 đến 28.46 và 28.52 luôn luôn bị loại trừ khỏi nhóm 30.04, ngay cả khi chúng đáp ứng đầy đủ những điều kiện nêu ở phần (a) hoặc (b) trên đây. Ví dụ, keo bạc vẫn được phân loại trong nhóm 28.43 ngay cả khi đóng gói theo liều lượng hoặc đã được đóng gói và trình bày như thuốc.', '*', '*   *', 'Nhóm này bao gồm các dạng viên ngậm, viên nén, thuốc nhỏ giọt,.. loại chỉ phù hợp sử dụng cho mục đích làm thuốc, như là những thuốc dựa trên lưu huỳnh, than củi, natri tetraborat, natri benzoat, clorat kali hoặc magiê.', 'Tuy nhiên, các chế phẩm được đóng gói dưới dạng viên ngậm hoặc dưới dạng thuốc nhỏ để trị ho, chứa thành phần chủ yếu là đường (có hoặc không có các thực phẩm khác như gelatin, tinh bột hoặc bột) và các chất tạo mùi (kể cả các chất có đặc tính thuốc như các loại cồn benzyl, tinh dầu bạc hà, dầu bạch đàn và nhựa thơm tolu) được phân loại vào nhóm 17.04. Các loại viên ngậm hoặc thuốc nhỏ giọt trị ho có chứa các chất mang đặc tính thuốc, trừ các chất tạo mùi, vẫn được phân loại vào trong nhóm này khi chúng được đóng gói theo liều lượng hoặc làm thành dạng nhất định, hoặc đóng gói để bán lẻ, với điều kiện là tỷ lệ của các chất này trong mỗi viên ngậm hoặc giọt thuốc nhỏ đủ để chúng cho tác dụng phòng bệnh hoặc chữa bệnh.', 'Nhóm này cũng gồm có các sản phẩm dưới đây, với điều kiện chúng được đóng gói dưới các dạng đã mô tả ở các phần (a) hoặc (b) trên đây:', '(1) Các sản phẩm và các chế phẩm hữu cơ hoạt động bề mặt, có chứa cation hoạt tính (ví dụ, các loại muối amoni bậc bốn), mang các đặc tính sát khuẩn, khử trùng, diệt vi khuẩn hoặc diệt vi sinh.', '(2) Poly(vinyl pyrrolidone) - iodine, là sản phẩm phản ứng của iốt và poly(vinyl pyrrolidone).', '(3) Chất thay thế ghép xương, chẳng hạn như sự thay thế từ sulphat canxi loại dùng trong phẫu thuật, được tiêm vào một khoang của xương bị gãy và được hấp thụ và thay thế một cách tự nhiên bằng các mô xương; các sản phẩm này cung cấp một khối tinh thể mà xương mới có thể phát triển khi khối này được hấp thụ.', 'Tuy nhiên, nhóm này không bao gồm xi măng gắn xương, thường chứa ch</t>
   </si>
   <si>
     <t>['Chú giải.', '1.- Chương này không bao gồm:', '(a) Máu động vật thuộc nhóm 05.11;', '(b) Các hợp chất đã được xác định về mặt hóa học riêng biệt (trừ những mặt hàng đã ghi trong các Chú giải 2(a), 3(a), 4(a) hoặc 5 dưới đây); hoặc', '(c) Các tinh thể kali clorua nuôi cấy (trừ các bộ phận quang học) mỗi tinh thể nặng từ 2,5g trở lên, thuộc nhóm 38.24; các bộ phận quang học bằng kali clorua (nhóm 90.01).', '2.- Nhóm 31.02 chỉ áp dụng cho các mặt hàng sau đây, với điều kiện không được tạo thành các hình dạng hoặc đóng gói theo cách thức đã được mô tả trong nhóm 31.05:', '(a) Mặt hàng đáp ứng một trong các mô tả sau:', '(i) Natri nitrat, tinh khiết hoặc không tinh khiết;', '(ii) Amoni nitrat, tinh khiết hoặc không tinh khiết;', '(iii) Muối kép, tinh khiết hoặc không tinh khiết, của amoni sulphat và amoni nitrat;', '(iv) Amoni sulphat, tinh khiết hoặc không tinh khiết;', '(v) Muối kép (tinh khiết hoặc không tinh khiết) hoặc hỗn hợp canxi nitrat và amoni nitrat;', '(vi) Muối kép (tinh khiết hoặc không tinh khiết) hoặc hỗn hợp canxi nitrat và magie nitrat;', '(vii) Canxi xyanamit, tinh khiết hoặc không tinh khiết hoặc được xử lý với dầu;', '(viii) Urê, tinh khiết hoặc không tinh khiết.', '(b) Phân bón gồm bất kỳ các loại nào đã mô tả trong mục (a) trên được pha trộn với nhau.', '(c) Phân bón chứa amoni clorua hoặc các loại bất kỳ đã mô tả trong mục (a) hoặc (b) trên đây được pha trộn với đá phấn, thạch cao hoặc các chất vô cơ không phải là phân bón.', '(d) Phân bón dạng lỏng gồm những mặt hàng ghi trong mục (a)(ii) hoặc (viii) kể trên, hoặc hỗn hợp của những mặt hàng này, ở dạng dung dịch nước hoặc dạng dung dịch amoniac.', '3.- Nhóm 31.03 chỉ áp dụng cho các mặt hàng dưới đây, với điều kiện không được tạo thành các hình dạng hoặc đóng gói theo cách thức đã được mô tả trong nhóm 31.05:', '(a) Mặt hàng đáp ứng một trong các mô tả sau:', '(i) Xỉ bazơ;', '(ii) Phosphat tự nhiên thuộc nhóm 25.10, đã nung hoặc xử lý thêm bằng nhiệt để loại bỏ tạp chất;', '(iii) Supephosphat (đơn, kép hoặc ba);', '(iv) Canxi hydro orthophosphat có hàm lượng flo từ 0,2% trở lên tính trên trọng lượng sản phẩm khô khan nước.', '(b) Phân bón gồm bất kỳ các loại được mô tả ở mục (a) trên đây đã pha trộn với nhau, nhưng không xem xét đến giới hạn về hàm lượng flo.', '(c) Phân bón chứa bất kỳ các loại được mô tả trong mục (a) hoặc (b) trên đây, nhưng không xem xét đến giới hạn về hàm lượng flo, được trộn với đá phấn, thạch cao hoặc các chất vô cơ khác không phải là phân bón.', '4.- Nhóm 31.04 chỉ áp dụng cho các loại mặt hàng dưới đây, với điều kiện là chúng không được tạo thành các hình dạng hoặc đóng gói theo cách thức được mô tả ở nhóm 31.05:', '(a) Mặt hàng đáp ứng một trong các mô tả sau:', '(i) Muối kali tự nhiên dạng thô (ví dụ, carnallite, kainite và sylvite);', '(ii) Kali clorua, tinh khiết hoặc không tinh khiết, trừ loại ghi trong Chú giải 1(c) ở trên;', '(iii) Kali sulphat, tinh khiết hoặc không tinh khiết;', '(iv) Magiê kali sulphat, tinh khiết hoặc không tinh khiết.', '(b) Phân bón gồm bất kỳ các loại nào đã mô tả trong mục (a) trên được pha trộn với nhau.', '5. Amoni dihydroorthophosphat (monoamoni phosphat) và diamoni hydroorthophosphat (diamoni phosphat), tinh khiết hoặc không tinh khiết, và hỗn hợp của 2 loại đó, được xếp vào nhóm 31.05.', '6. Theo mục đích của nhóm 31.05, khái niệm "phân bón khác" chỉ áp dụng cho các sản phẩm được sử dụng như phân bón và chứa ít nhất một trong các nguyên tố cấu thành cơ bản của phân bón như nitơ, phospho hoặc kali.']</t>
@@ -706,13 +706,13 @@
     <t>['Chú giải.', '1.- Chương này không bao gồm:', '(a) Các nguyên tố hoặc hợp chất đã được xác định về mặt hóa học riêng biệt, (trừ những chất hay hợp chất thuộc nhóm 32.03 hoặc 32.04, các sản phẩm vô cơ của loại được sử dụng như chất phát quang (nhóm 32.06), thuỷ tinh thu được từ thạch anh nấu chảy hoặc silica nấu chảy khác ở các dạng đã nêu trong nhóm 32.07, và kể cả thuốc nhuộm và các loại chất màu khác đã đã làm thành dạng nhất định hay đóng gói để bán lẻ thuộc nhóm 32.12);', '(b) Tanat hoặc các chất dẫn xuất tananh khác của các sản phẩm thuộc các nhóm từ 29.36 đến 29.39, 29.41 hoặc 35.01 đến 35.04; hoặc', '(c) Matit của asphalt hoặc matit có chứa bi-tum khác (nhóm 27.15)', '2.- Nhóm 32.04 kể cả các hỗn hợp của muối diazoni ổn định và các chất tiếp hợp để sản xuất các thuốc nhuộm azo.', '3.- Các nhóm 32.03, 32.04, 32.05 và 32.06 cũng áp dụng cho các chế phẩm dựa trên các chất màu (kể cả trường hợp thuộc nhóm 32.06, các chất màu thuộc nhóm 25.30 hoặc Chương 28, vảy và bột kim loại), loại sử dụng để tạo màu mọi chất liệu hoặc dùng như là nguyên liệu trong việc sản xuất các chế phẩm màu. Tuy nhiên các nhóm này không áp dụng cho các thuốc màu phân tán trong môi trường không chứa nước, ở dạng lỏng hoặc dạng nhão, loại dùng để sản xuất sơn, kể cả men tráng (nhóm 32.12), hoặc cho các chế phẩm khác thuộc nhóm 32.07, 32.08, 32.09, 32.10, 32.12, 32.13 hoặc 32.15.', '4.- Nhóm 32.08 kể cả các dung dịch (trừ collodions) gồm có sản phẩm bất kỳ đã mô tả trong các nhóm từ 39.01 đến 39.13 trong các dung môi hữu cơ dễ bay hơi khi trọng lượng dung môi vượt trên 50% tính theo trọng lượng dung dịch.', '5.- Khái niệm "chất màu" trong Chương này không bao gồm các sản phẩm dùng như chất phụ trợ (extenders) trong các loại sơn dầu, mặc dù có hoặc không phù hợp cho các chất keo màu.', '6.- Khái niệm "lá phôi dập" trong nhóm 32.12 chỉ áp dụng cho các tấm mỏng thuộc loại dùng để in, ví dụ, bìa sách hoặc dải băng mũ, và làm bằng:', '(a) Bột kim loại (kể cả bột của các kim loại quý) hoặc thuốc màu, đông kết bằng keo, gelatin hoặc chất kết dính khác; hoặc', '(b) Kim loại (kể cả kim loại quý) hoặc thuốc màu, kết tủa trên một tấm làm nền bằng vật liệu bất kỳ.']</t>
   </si>
   <si>
-    <t>['Chú giải.', '1.- Chương này không bao gồm:', '(a) Nhựa dầu tự nhiên hoặc chiết xuất thực vật thuộc nhóm 13.01 hoặc 13.02;', '(b) Xà phòng hoặc các sản phẩm khác thuộc nhóm 34.01; hoặc', '(c) Dầu turpentine gôm, dầu turpentine gỗ hoặc dầu sunphat turpentine hoặc các sản phẩm khác thuộc nhóm 38.05.', '2.- Khái niệm "chất thơm" trong nhóm 33.02 chỉ liên quan tới các chất thuộc nhóm 33.01, các thành phần thơm tách từ các chất đó hoặc chất thơm tổng hợp.', '3.- Các nhóm từ 33.03 đến 33.07 áp dụng, không kể những đề cập khác, cho các sản phẩm, đã hoặc chưa pha trộn (trừ nước cất tinh dầu và dung dịch nước của tinh dầu), phù hợp dùng cho các hàng hoá đã ghi trong các nhóm này và được đóng gói để bán lẻ.', '4.- Khái niệm “nước hoa, mỹ phẩm hoặc các chế phẩm dùng cho vệ sinh” của nhóm 33.07 áp dụng, không kể những đề cập khác, cho các sản phẩm sau đây: các túi nhỏ đựng chất thơm; các chế phẩm có hương thơm khi đốt; giấy thơm và các loại giấy đã thấm tẩm hoặc tráng phủ mỹ phẩm; dung dịch dùng cho kính áp tròng hoặc mắt nhân tạo; mền xơ, phớt và các sản phẩm không dệt, đã thấm tẩm, tráng hoặc phủ nước hoa hoặc mỹ phẩm; các chế phẩm vệ sinh dùng cho động vật.', 'KHÁI QUÁT CHUNG', 'Tinh dầu và các chiết xuất từ nhựa dầu thuộc nhóm 33.01 thu được bằng cách chiết xuất từ thực vật. Phương pháp chiết xuất được dùng để xác định loại sản phẩm thu được. Ví dụ tùy theo cách chưng cất bằng hơi nước hoặc bằng quá trình xử lý với các dung môi hữu cơ được thực hiện, một số cây nhất định (như quế chẳng hạn) có thể cho tinh dầu hoặc nhựa dầu chiết xuất.', 'Các nhóm từ 33.03 đến 33.07 bao gồm các sản phẩm, đã hoặc chưa pha trộn (trừ nước cất tinh dầu và dung dịch nước của tinh dầu), phù hợp để sử dụng như những sản phẩm thuộc các nhóm này và được đóng gói để bán lẻ (xem Chú giải 3 của Chương này).', 'Các sản phẩm thuộc các nhóm từ 33.03 đến 33.07 vẫn được xếp trong các nhóm này kể cả khi chúng có hoặc không chứa dược phẩm phụ trợ hoặc các chất khử trùng, hoặc các chế phẩm đó có thêm giá trị về phòng bệnh hoặc chữa bệnh (xem Chú giải 1(e) của Chương 30). Tuy nhiên, các chất khử mùi phòng đã điều chế vẫn được phân loại vào nhóm 33.07 ngay cả khi chúng có những tính năng khử trùng nhiều hơn tính chất phụ trợ.', 'Các chế phẩm (như là, vécni) và các sản phẩm không pha trộn (ví dụ, bột talc không thơm, đất tẩy màu, acetone, phèn) phù hợp cho các công dụng khác ngoài những công dụng ở trên, chỉ được phân loại vào các nhóm này khi:', '(a) Chúng được đóng gói để bán cho người tiêu dùng và dán nhãn, tài liệu hướng dẫn hay chỉ định cho thấy chúng được sử dụng như các chế phẩm nước hoa, mỹ phẩm hoặc chế phẩm vệ sinh; hoặc như chất khử mùi phòng; hoặc là', '(b) Khi chúng được đóng gói dưới các hình thức đặc biệt cho mục đích sử dụng đó (ví dụ, sơn móng tay đựng trong lọ nhỏ gắn sẵn kèm một cái chổi để sử dụng loại sơn đó).', 'Chương này không bao gồm:', '(a) Mỡ, trừ loại dùng để chăm sóc da được đóng gói để bán lẻ cho mục đích này (nhóm 27.12).', '(b) Các chế phẩm dược phẩm có tác dụng phụ trợ sử dụng như nước hoa, mỹ phẩm hoặc các chế phẩm vệ sinh (nhóm 30.03 hoặc 30.04).', '(c) Chế phẩm dạng Gel được thiết kế dùng cho người hoặc thuốc thú y như một chất bôi trơn dùng cho các bộ phận của cơ thể khi phẫu thuật hoặc xét nghiệm thể chất hoặc như một tác nhân liên kết giữa cơ thể và các thiết bị y khoa (nhóm 30.06).', '(d) Xà phòng và giấy, mền xơ, phớt và các sản phẩm không dệt, được thấm tẩm, tráng hoặc phủ với xà phòng hoặc chất tẩy (nhóm 34.01).', '33.01- Tinh dầu (đã hoặc chưa khử terpen), kể cả tinh dầu sáp và tinh dầu nguyên chất; chất tựa nhựa; nhựa dầu đã chiết; tinh dầu cô đặc trong chất béo, trong các loại dầu không bay hơi, trong các loại sáp hay các chất tương tự, thu được bằng phương pháp tách hương liệu hoặc ngâm tẩm; sản phẩm phụ terpen từ quá trình khử terpen các loại tinh dầu; nước cất tinh dầu và dung dịch nước của các loại tinh dầu.', '- Tinh dầu của các loại quả cam quít:']</t>
+    <t>['Chú giải.', '1.- Chương này không bao gồm:', '(a) Nhựa dầu tự nhiên hoặc chiết xuất thực vật thuộc nhóm 13.01 hoặc 13.02;', '(b) Xà phòng hoặc các sản phẩm khác thuộc nhóm 34.01; hoặc', '(c) Dầu turpentine gôm, dầu turpentine gỗ hoặc dầu sunphat turpentine hoặc các sản phẩm khác thuộc nhóm 38.05.', '2.- Khái niệm "chất thơm" trong nhóm 33.02 chỉ liên quan tới các chất thuộc nhóm 33.01, các thành phần thơm tách từ các chất đó hoặc chất thơm tổng hợp.', '3.- Các nhóm từ 33.03 đến 33.07 áp dụng, không kể những đề cập khác, cho các sản phẩm, đã hoặc chưa pha trộn (trừ nước cất tinh dầu và dung dịch nước của tinh dầu), phù hợp dùng cho các hàng hoá đã ghi trong các nhóm này và được đóng gói để bán lẻ.', '4.- Khái niệm “nước hoa, mỹ phẩm hoặc các chế phẩm dùng cho vệ sinh” của nhóm 33.07 áp dụng, không kể những đề cập khác, cho các sản phẩm sau đây: các túi nhỏ đựng chất thơm; các chế phẩm có hương thơm khi đốt; giấy thơm và các loại giấy đã thấm tẩm hoặc tráng phủ mỹ phẩm; dung dịch dùng cho kính áp tròng hoặc mắt nhân tạo; mền xơ, phớt và các sản phẩm không dệt, đã thấm tẩm, tráng hoặc phủ nước hoa hoặc mỹ phẩm; các chế phẩm vệ sinh dùng cho động vật.', 'KHÁI QUÁT CHUNG', 'Tinh dầu và các chiết xuất từ nhựa dầu thuộc nhóm 33.01 thu được bằng cách chiết xuất từ thực vật. Phương pháp chiết xuất được dùng để xác định loại sản phẩm thu được. Ví dụ tùy theo cách chưng cất bằng hơi nước hoặc bằng quá trình xử lý với các dung môi hữu cơ được thực hiện, một số cây nhất định (như quế chẳng hạn) có thể cho tinh dầu hoặc nhựa dầu chiết xuất.', 'Các nhóm từ 33.03 đến 33.07 bao gồm các sản phẩm, đã hoặc chưa pha trộn (trừ nước cất tinh dầu và dung dịch nước của tinh dầu), phù hợp để sử dụng như những sản phẩm thuộc các nhóm này và được đóng gói để bán lẻ (xem Chú giải 3 của Chương này).', 'Các sản phẩm thuộc các nhóm từ 33.03 đến 33.07 vẫn được xếp trong các nhóm này kể cả khi chúng có hoặc không chứa dược phẩm phụ trợ hoặc các chất khử trùng, hoặc các chế phẩm đó có thêm giá trị về phòng bệnh hoặc chữa bệnh (xem Chú giải 1(e) của Chương 30). Tuy nhiên, các chất khử mùi phòng đã điều chế vẫn được phân loại vào nhóm 33.07 ngay cả khi chúng có những tính năng khử trùng nhiều hơn tính chất phụ trợ.', 'Các chế phẩm (như là, vécni) và các sản phẩm không pha trộn (ví dụ, bột talc không thơm, đất tẩy màu, acetone, phèn) phù hợp cho các công dụng khác ngoài những công dụng ở trên, chỉ được phân loại vào các nhóm này khi:', '(a) Chúng được đóng gói để bán cho người tiêu dùng và dán nhãn, tài liệu hướng dẫn hay chỉ định cho thấy chúng được sử dụng như các chế phẩm nước hoa, mỹ phẩm hoặc chế phẩm vệ sinh; hoặc như chất khử mùi phòng; hoặc là', '(b) Khi chúng được đóng gói dưới các hình thức đặc biệt cho mục đích sử dụng đó (ví dụ, sơn móng tay đựng trong lọ nhỏ gắn sẵn kèm một cái chổi để sử dụng loại sơn đó).', 'Chương này không bao gồm:', '(a) Mỡ, trừ loại dùng để chăm sóc da được đóng gói để bán lẻ cho mục đích này (nhóm 27.12).', '(b) Các chế phẩm dược phẩm có tác dụng phụ trợ sử dụng như nước hoa, mỹ phẩm hoặc các chế phẩm vệ sinh (nhóm 30.03 hoặc 30.04).', '(c) Chế phẩm dạng Gel được thiết kế dùng cho người hoặc thuốc thú y như một chất bôi trơn dùng cho các bộ phận của cơ thể khi phẫu thuật hoặc xét nghiệm thể chất hoặc như một tác nhân liên kết giữa cơ thể và các thiết bị y khoa (nhóm 30.06).', '(d) Xà phòng và giấy, mền xơ, phớt và các sản phẩm không dệt, được thấm tẩm, tráng hoặc phủ với xà phòng hoặc chất tẩy (nhóm 34.01).', '33.01- Tinh dầu (đã hoặc chưa khử terpen), kể cả tinh dầu sáp và tinh dầu nguyên chất; chất tựa nhựa; nhựa dầu đã chiết; tinh dầu cô đặc trong chất béo, trong các loại dầu không bay hơi, trong các loại sáp hay các chất tương tự, thu được bằng phương pháp tách hương liệu hoặc ngâm tẩm; sản phẩm phụ terpen từ quá trình khử terpen các loại tinh dầu; nước cất tinh dầu và dung dịch nước của các loại tinh dầu.', '- Tinh dầu của các loại quả cam quít:', '3301.12 - - Của quả cam', '3301.13 - - Của quả chanh', '3301.19 - - Loại khác', '- Tinh dầu khác trừ tinh dầu của các loại quả chi cam quít:', '3301.24 - - Của cây bạc hà cay (mantha piperita)', '3301.25 - - Của các cây bạc hà khác', '3301.29 - - Loại khác', '3301.30 - Chất tựa nhựa', '3301.90 - Loại khác', '(A) Tinh dầu, kể cả tinh dầu sáp và tinh dầu nguyên chất; chất tựa nhựa; nhựa dầu đã chiết.', 'Tinh dầu, loại được dùng như những nguyên liệu thô trong ngành công nghiệp nước hoa, thực phẩm và các ngành công nghiệp khác, có nguồn gốc từ thực vật. Nói chung, thành phần của chúng rất phức tạp và thường có chứa cồn, aldehyt, xêtôn, phenol, este, ete và terpen với tỷ lệ khác nhau. Tinh dầu được xếp vào đây kể cả khi mùi hương của chúng đã hoặc chưa bị biến đổi bằng cách tách thành phần terpen. Phần lớn các tinh dầu đó dễ bay hơi, và dấu vết của nó lưu trên giấy thường biến mất rất nhanh.', 'Tinh dầu thu được bằng các phương pháp khác nhau, như là:', '(1) Ép (như là, tinh dầu chanh từ vỏ chanh).', '(2) Chưng cất hơi nước.', '(3) Chiết xuất từ các nguyên liệu tươi có nguồn gốc thực vật với các dung môi hữu cơ (như ete từ dầu mỏ, benzen, acetone hoặc toluen) hoặc chất lỏng siêu tới hạn (như khí dioxit carbon nén).', '(4) Chiết xuất các nguyên liệu cô đặc thu được bằng phương pháp tách hương liệu của hoa hoặc phương pháp ngâm (xem phần (B) dưới đây).', 'Nhóm này cũng bao gồm chất cô đặc thu được bằng quá trình được đề cập tại đoạn thứ (3) ở trên. Chất cô đặc ở dạng rắn hoặc nửa rắn vì có mặt của phần sáp thực vật. Khi loại bỏ những sáp này, ta thu được tinh dầu nguyên chất; chúng cũng được xếp vào nhóm này.', 'Chất tựa nhựa là những sản phẩm chủ yếu được dùng như chất cố định trong công nghiệp sản xuất nước hoa, mỹ phẩm, xà phòng hay các chất hoạt động bề mặt. Chúng chủ yếu bao gồm các thành phần không bay hơi và thu được bằng cách chiết xuất các dung môi hữu cơ hoặc chất lỏng siêu tới hạn từ các chất sau:', '(i) nguyên liệu nhựa có nguồn gốc thực vật tự nhiên không cellular ở dạng khô (như là, nhựa dầu tự nhiên hoặc nhựa gôm dầu tự nhiên);', '(ii) các nguyên liệu nhựa có nguồn gốc động vật tự nhiên ở dạng khô (như là, hương hải ly, chất xạ hương hoặc xạ hương).', 'Nhựa dầu đã được chiết xuất, trong thương mại có tên gọi là "nhựa dầu đã điều chế" hoặc "nhựa dầu spice", thu được từ các nguyên liệu thực vật thô cellular tự nhiên (thông thường là các cây gia vị hoặc các loại thực vật có chất thơm), hoặc được chiết xuất bằng dung môi hữu cơ hoặc được chiết xuất bằng chất lỏng siêu tới hạn. Các chất chiết xuất này có chứa các chất bay hơi tỏa mùi hương (như là, các loại tinh dầu) và các chất thơm không bay hơi (như là, nhựa, dầu béo, các cấu tử có mùi hắc), chúng được xác định qua mùi thơm đặc trưng hoặc mùi trong gia vị hoặc các loại thực vật có chất thơm. Hàm lượng tinh dầu của các chất chiết xuất từ nhựa dầu này khác nhau đáng kể tùy thuộc vào loại cây gia vị hoặc các loại thực vật có chất thơm. Những sản phẩm này chủ yếu được sử dụng như các chất thơm trong công nghiệp thực phẩm.', 'Nhóm này không bao gồm:', '(a) Các loại nhựa dầu tự nhiên (nhóm 13.01).', '(b) Các chất chiết xuất từ thực vật, chưa nêu hoặc chưa chi tiết ở nơi khác (như là, nhựa dầu đã được chiết xuất bằng nước), có chứa các thành phần dễ bay hơi và thông thường (không kể đến các chất tỏa mùi hương) có tỷ lệ cao hơn của các chất có nguồn gốc thực vật khác (nhóm 13.02).', '(c) Chất màu có nguồn gốc từ động vật hoặc thực vật (nhóm 32.03).', 'Đôi khi các loại tinh dầu, chất tựa nhựa và nhựa dầu đã được chiết xuất chứa hàm lượng nhỏ dung môi từ việc chiết xuất chúng (như là, cồn etyl), nhưng điều đó không loại bỏ chúng khỏi phạm vi nhóm này.', 'Các loại tinh dầu, chất tựa nhựa và nhựa dầu đã được chiết xuất được chuẩn hóa đơn thuần bằng cách bớt đi hoặc thêm vào tỷ lệ của một số thành phần chủ yếu vẫn được phân loại trong nhóm này nhưng với điều kiện là sự cấu thành của sản phẩm đã chuẩn hóa vẫn nằm trong giới hạn thông thường dựa trên loại sản phẩm đó ở dạng tự nhiên. Tuy nhiên, một loại tinh dầu, chất tựa nhựa hoặc nhựa dầu đã được chiết xuất được cắt phân đoạn hoặc biến đổi khác (trừ quá trình khử terpenic hydrocarbon), đến mức thành phần của sản phẩm được tạo ra cho thấy rõ sự khác biệt so với sản phẩm gốc, thì bị loại trừ (thường thuộc nhóm 32.02). Nhóm này cũng loại trừ các chế phẩm được đóng gói với chất pha loãng hoặc các chất mang như là dầu thực vật, dextroza hoặc tinh bột (thường thuộc nhóm 33.02).', 'Các loại tinh dầu, các chất tựa nhựa và các nhựa dầu đã được chiết xuất chủ yếu được liệt kê trong Phụ lục Chú giải Chi tiết của chương này.', '(B) Tinh dầu đậm đặc trong chất béo, trong các loại dầu không bay hơi, hoặc trong các loại sáp hoặc các loại tương tự.', 'Các sản phẩm cô đặc này thu được khi tinh dầu được chiết xuất từ cây hoặc hoa bằng chất béo, dầu không bay hơi, mỡ, sáp parafin,..., áp dụng cả trong quy trình lạnh hoặc nóng (bằng phương pháp tách hương liệu của hoa, ngâm hoặc hầm). Chúng được làm thành dạng tinh dầu cô đặc trong chất béo, dầu không bay hơi, v.v.... Các sản phẩm cô đặc trong chất béo có tên thương mại là “sáp thơm bôi tóc từ hoa”. Những chế phẩm dùng cho tóc cũng được biết đến với tên gọi là “sáp thơm bôi tóc” bị loại trừ (nhóm 33.05).', '(C) Sản phẩm phụ của terpen.', 'Nhóm này áp dụng cho các sản phẩm phụ của terpen được tách từ các loại tinh dầu bằng quá trình cất phân đoạn hoặc quá trình khác. Các sản phẩm phụ này thường được dùng để tạo hương cho một số loại xà phòng vệ sinh hoặc hương liệu cho một số loại thực phẩm.', '(D) Các phần cất có nước và dung dịch nước của tinh dầu.', 'Các phần cất nước có tinh dầu thu được như là các phân đoạn có nước của phần cất, nó được tạo ra khi chiết tinh dầu từ thực vật bằng phương pháp cất hơi nước. Sau khi tinh dầu được chắt lọc, phần cất có nước vẫn giữ lại được mùi thơm vì sự có mặt của một lượng nhỏ tinh dầu. Một số phần cất thu được trong quá trình chưng cất các sản phẩm thực vật đã được bảo quản trong cồn vẫn còn chứa một lượng nhỏ cồn; các phần cất khác có thể chứa một lượng cồn cần thiết để bảo đảm việc bảo quản chúng (như là, phần cất của cây kim mai).', 'Nhóm này cũng bao gồm các dung dịch của tinh dầu trong nước.', 'Các sản phẩm này vẫn thuộc nhóm này khi chúng đã được pha trộn vào nhau nhưng không thêm nguyên liệu nào khác, hoặc trong trường hợp chúng được đóng gói như nước hoa hoặc như dược phẩm.', 'Phổ biến hơn là các phần cất có nước và các dung dịch của tinh dầu từ hoa cam, hoa hồng, cây xả, cây bạc hà, cây thì là, cây nguyệt quế màu đỏ anh đào, hoa chanh, cây kim mai…', 'Ngoài những điều đã đề cập ở trên, nhóm này cũng không bao gồm:', '(a) Nhựa dầu vani (đôi khi bị nhầm lẫn là “chất tựa nhựa vani” hoặc “chất chiết vani”) (nhóm 13.02).', '(b) Các hợp chất đã được xác định về mặt hóa học riêng biệt được tách từ tinh dầu (như là, terpen phân lập) hoặc từ các chất tựa nhựa (phân lập tự nhiên), hoặc điều chế tổng hợp (Chương 29).', '(c) Các hỗn hợp tinh dầu, hỗn hợp chất tựa nhựa, hỗn hợp các nhựa dầu đã được chiết xuất, hỗn hợp tinh dầu với chất tựa nhựa hoặc nhựa dầu được chiết xuất hoặc bất kỳ sự kết hợp nào của chúng, và hỗn hợp chủ yếu làm từ tinh dầu, chất tựa nhựa hoặc nhựa dầu đã được chiết xuất (xem Chú giải Chi tiết nhóm 33.02)', '(d) Gôm, dầu gỗ thông hoặc sulphat turpentine và dầu terpen khác được điều chế bằng cách chưng cất hoặc xử lý các loại gỗ tùng bách (nhóm 38.05).', 'o', 'o    o', 'Chú giải phân nhóm.', 'Phân nhóm 3301.12', 'Theo mục đích của phân nhóm 3301.12 thuật ngữ "quả cam" không áp dụng đối với các loại quả quít (kể cả các loại quít và các loại satsuma) loại cam nhỏ, wilking hoặc các quả lai cam quít tương tự.', '33.02- Hỗn hợp các chất thơm và các hỗn hợp (kể cả dung dịch có cồn) với thành phần chủ yếu gồm một hoặc nhiều các chất thơm này, dùng làm nguyên liệu thô trong công nghiệp; các chế phẩm khác làm từ các chất thơm, dùng cho sản xuất đồ uống.', '3302.10 - Loại dùng trong công nghiệp thực phẩm hoặc đồ uống', '3302.90 - Loại khác', 'Nhóm này bao gồm các hỗn hợp dưới đây với điều kiện chúng được dùng như nguyên liệu thô trong ngành công nghiệp sản xuất nước hoa, thực phẩm hoặc đồ uống (như là, trong sản xuất mứt kẹo, thực phẩm hoặc các chất tạo hương cho đồ uống) hoặc trong các ngành công nghiệp khác (như là, sản xuất xà phòng):', '(1) Các hỗn hợp của các tinh dầu', '(2) Các hỗn hợp của các chất tựa nhựa.', '(3) Các hỗn hợp của các nhựa dầu đã được chiết xuất.', '(4) Các hỗn hợp của các chất thơm tổng hợp.', '(5) Các hỗn hợp của hai hoặc nhiều chất thơm (tinh dầu, chất tựa nhựa, nhựa dầu đã được chiết xuất hoặc các chất thơm tổng hợp).', '(6) Các hỗn hợp của hai hoặc nhiều chất thơm (tinh dầu, chất tựa nhựa, nhựa dầu đã được chiết xuất hoặc các chất thơm tổng hợp) kết hợp với chất pha loãng hoặc chất mang như là dầu thực vật, dextroza hoặc tinh bột.', '(7) Các hỗn hợp có hoặc không kết hợp với một chất pha loãng hoặc một chất mang hoặc chất có chứa cồn, của các sản phẩm của các Chương khác (như là, gia vị) với một hoặc nhiều chất thơm (tinh dầu, chất tựa nhựa, nhựa dầu đã được chiết xuất hoặc các chất thơm tổng hợp) với điều kiện các chất này tạo nên thành phần cơ bản của các hỗn hợp này.', 'Các sản phẩm thu được nhờ loại bỏ đi một hoặc nhiều thành phần của tinh dầu, chất tựa nhựa hoặc nhựa dầu đã được chiết xuất làm sao để sản phẩm thu được có sự khác biệt rõ rệt so với sản phẩm gốc, cũng thuộc nhóm này. Ví dụ như là dầu bạc hà (thu được từ việc làm đông dầu của cây bạc hà cay, rồi xử lý bằng axít boric, loại bỏ phần lớn menthol và chứa trong đó menthone chiếm 63% và menthol chiếm 16%), dầu long não trắng (thu được từ dầu long não được làm đông lại và được chưng cất để loại bỏ long não và safrole, trong đó còn lại 30% đến 40% cineole thêm dipentene, pinene, camphene, v.v...) và geraniol (thu được bằng cách cất phân đoạn dầu sả và trong đó còn lại 50% đến 77% geraniol với một lượng thay đổi của dầu sả và nerol).', 'Đặc biệt, nhóm này còn bao gồm các thành phần cơ bản của nước hoa tạo thành từ các hỗn hợp giữa tinh dầu và các chất hãm mùi, chưa sẵn sàng để sử dụng cho đến khi đã pha thêm cồn. Nhóm này còn bao gồm các dung dịch trong cồn (như là, cồn etyl, cồn isopropyl) của một hoặc nhiều chất thơm với điều kiện các dung dịch này là loại được dùng như nguyên liệu thô trong công nghiệp sản xuất nước hoa, thực phẩm, đồ uống hoặc các ngành công nghiệp khác.', 'Nhóm này cũng bao gồm các chế phẩm khác có thành phần cơ bản là các chất thơm, loại dùng trong sản xuất đồ uống. Các chế phẩm này có thể có hoặc không có cồn và có thể được dùng để sản xuất đồ uống có hoặc không có cồn. Chúng phải có thành phần chủ yếu là một hoặc nhiều các chất thơm, như mô tả trong phần Chú giải 2 của Chương này, được sử dụng trước hết mang lại mùi thơm và thứ hai là mang lại mùi vị ngon cho đồ uống. Thông thường các chế phẩm này chứa một lượng nhỏ các chất thơm mà đem lại đặc tính cho từng đồ uống riêng biệt; chúng cũng có thể chứa nước ép, chất màu, chất làm chua, chất làm ngọt, ... với điều kiện chúng lưu giữ được đặc tính của các chất thơm. Như hiện nay, các chế phẩm này không nhằm mục đích sử dụng như đồ uống và vì thế chúng có thể được phân biệt với đồ uống của Chương 22.', 'Nhóm này không bao gồm các chế phẩm có hoặc không có cồn được dùng trong sản xuất đồ uống, với thành phần cơ bản là các chất trừ các chất thơm đã được mô tả trong Chú giải 2 của Chương này (nhóm 21.06, trừ khi chúng chưa được chi tiết hoặc ghi ở nơi khác trong Danh mục).']</t>
   </si>
   <si>
     <t>['Chú giải.', '1. Chương này không bao gồm:', '(a) Hỗn hợp hoặc chế phẩm ăn được từ chất béo hoặc dầu của động vật, thực vật  hoặc vi sinh vật được dùng như chế phẩm tách khuôn (nhóm 15.17);', '(b) Các hợp chất đã xác định về mặt hóa học riêng biệt; hoặc', '(c) Dầu gội đầu, sản phẩm đánh răng, kem cạo và bọt cạo, hoặc các chế phẩm dùng để tắm, chứa xà phòng hay chất hữu cơ hoạt động bề mặt khác (nhóm 33.05, 33.06 hoặc 33.07).', '2. Theo mục đích của nhóm 34.01, khái niệm "xà phòng" chỉ áp dụng cho loại xà phòng hòa tan trong nước. Xà phòng và các sản phẩm khác thuộc nhóm 34.01 có thể chứa các chất phụ trợ (ví dụ chất khử trùng, bột mài mòn, chất độn hoặc dược phẩm). Các sản phẩm có chứa bột mài mòn phải xếp vào nhóm 34.01 nếu ở dạng thanh, bánh hoặc được nén thành miếng hoặc hình dạng nhất định. Các dạng khác sẽ được xếp vào nhóm 34.05 như "bột cọ rửa và các chế phẩm tương tự".', '3. Theo mục đích của nhóm 34.02, "các chất hữu cơ hoạt động bề mặt" là các sản phẩm khi trộn với nước với nồng độ 0,5% ở nhiệt độ 20oC, để trong một giờ ở nhiệt độ như trên:', '(a) Cho một chất lỏng trong suốt hay trắng mờ hoặc thể sữa mà không bị phân tách các chất không hòa tan; và', '(b) Giảm sức căng bề mặt nước xuống 4,5 x 10-2 N/m (45 dyne/cm) hoặc thấp hơn.', '4. Trong nhóm 34.03 khái niệm "dầu có nguồn gốc từ dầu mỏ và dầu thu được từ khoáng bi-tum" áp dụng với các sản phẩm như đã định nghĩa tại Chú giải 2 Chương 27.', '5. Trong nhóm 34.04, căn cứ vào giới hạn quy định dưới đây, khái niệm “sáp nhân tạo và sáp chế biến” chỉ áp dụng cho:', '(a) Các sản phẩm hữu cơ có tính chất sáp được sản xuất bằng phương pháp hóa học, có hoặc không hòa tan trong nước;', '(b) Các sản phẩm thu được bằng phương pháp pha trộn các loại sáp khác nhau;', '(c) Các sản phẩm có tính chất sáp với thành phần cơ bản là một hay nhiều loại sáp và chứa chất béo, nhựa, khoáng chất hoặc nguyên liệu khác.', 'Nhóm này không áp dụng với:', '(a) Các sản phẩm thuộc nhóm 15.16, 34.02 hoặc 38.23 ngay cả khi các sản phẩm đó có tính chất sáp;', '(b) Sáp động vật hoặc thực vật không pha trộn, đã hoặc chưa tinh chế hoặc pha màu của nhóm 15.21;', '(c) Sáp khoáng chất hay sản phẩm tương tự thuộc nhóm 27.12, đã hoặc chưa trộn lẫn hay mới chỉ pha màu; hoặc', '(d) Sáp pha trộn, phân tán hoặc hòa tan trong dung môi lỏng (nhóm 34.05, 38.09...).']</t>
   </si>
   <si>
-    <t>['Chú giải.', '1.- Chương này không bao gồm:', '(a) Men (nhóm 21.02);', '(b) Các phần phân đoạn của máu (trừ albumin máu chưa điều chế dùng cho phòng bệnh hoặc chữa bệnh), thuốc hoặc các sản phẩm khác thuộc Chương 30;', '(c) Các chế phẩm chứa enzym dùng trong quá trình tiền thuộc da (nhóm 32.02);', '(d) Các chế phẩm dùng để ngâm hoặc rửa có chứa enzym hoặc các sản phẩm khác thuộc Chương 34;', '(e) Các loại protein đã làm cứng (nhóm 39.13); hoặc', '(f) Các sản phẩm gelatin thuộc ngành công nghiệp in (Chương 49).', '2.- Theo mục đích của nhóm 35.05, khái niệm "dextrin" chỉ các sản phẩm tinh bột đã phân giải với hàm lượng đường khử, tính theo hàm lượng chất khô dextroza, không quá 10%.', 'Các sản phẩm như vậy có hàm lượng đường khử trên 10% sẽ thuộc nhóm 17.02.', '35.01- Casein, các muối của casein và các dẫn xuất casein khác; keo casein.']</t>
+    <t>['Chú giải.', '1.- Chương này không bao gồm:', '(a) Men (nhóm 21.02);', '(b) Các phần phân đoạn của máu (trừ albumin máu chưa điều chế dùng cho phòng bệnh hoặc chữa bệnh), thuốc hoặc các sản phẩm khác thuộc Chương 30;', '(c) Các chế phẩm chứa enzym dùng trong quá trình tiền thuộc da (nhóm 32.02);', '(d) Các chế phẩm dùng để ngâm hoặc rửa có chứa enzym hoặc các sản phẩm khác thuộc Chương 34;', '(e) Các loại protein đã làm cứng (nhóm 39.13); hoặc', '(f) Các sản phẩm gelatin thuộc ngành công nghiệp in (Chương 49).', '2.- Theo mục đích của nhóm 35.05, khái niệm "dextrin" chỉ các sản phẩm tinh bột đã phân giải với hàm lượng đường khử, tính theo hàm lượng chất khô dextroza, không quá 10%.', 'Các sản phẩm như vậy có hàm lượng đường khử trên 10% sẽ thuộc nhóm 17.02.', '35.01- Casein, các muối của casein và các dẫn xuất casein khác; keo casein.', '3501.10 - Casein', '3501.90 - Loại khác', '(A) Casein và các dẫn xuất casein.', '(1) Casein là thành phần protein chính có trong sữa. Chất này lấy từ sữa gầy bằng sự kết tủa (đóng cục), thường cùng với axit hoặc men dịch vị (rennet). Nhóm này bao gồm nhiều loại casein khác nhau mà khác nhau theo phương pháp đóng cục, như axit casein, caseinogen và casein rennet (paracasein).', 'Casein thường là bột thô màu trắng vàng nhạt, tan trong kiềm nhưng không tan trong nước. Chất này thường được dùng chủ yếu trong việc chế biến keo hồ, sơn hoặc màu keo, dùng để tráng giấy, và trong việc sản xuất plastic casein (casein được làm cứng), sợi nhân tạo, các sản phẩm dược phẩm hoặc ăn kiêng.', '(2) Caseinate (muối của casein) bao gồm natri và muối amoni được coi như "casein hòa tan"; các loại muối này thường được sử dụng để tạo ra các sản phẩm thực phẩm cô đặc và dược phẩm. Canxi caseinate được dùng trong việc chế biến thực phẩm hoặc như là chất keo hồ, theo như đặc tính của nó', '(3) Các dẫn xuất khác của casein bao gồm, đặc biệt là casein được clo hóa, casein đã được brôm hóa, casein được iôt hóa và casein tannate. Chúng được dùng trong ngành dược.', '(B) Keo hồ casein.', 'Những loại keo này bao gồm calcium caseinate (xem Chú giải về caseinate ở trên), hoặc bao gồm hỗn hợp casein và đá phấn thêm vào, ví dụ, một lượng nhỏ borac hoặc amoni clorua. Các chất này thường ở dạng bột.', 'Nhóm này không bao gồm:', '(a) Muối casein của kim loại quý (nhóm 28.43) hoặc muối casein của các nhóm 28.44 đến 28.46 và 28.52.', '(b) Các chất mô tả không chính xác như "casein thực vật" (nhóm 35.04).', '(c) Keo hồ casein đóng gói để bán lẻ, có trọng lượng tịnh không quá 1 kg (nhóm 35.06).', '(d) Casein đã làm cứng (nhóm 39.13).', '35.02- Albumin (kể cả các chất cô đặc của hai hoặc nhiều whey protein, chứa trên 80% whey protein tính theo trọng lượng khô), các muối của albumin và các dẫn xuất albumin khác.', '- Albumin trứng:', '3502.11 - - Đã làm khô', '3502.19 - - Loại khác', '3502.20 - Albumin sữa, kể cả các chất cô đặc của hai hoặc nhiều whey protein', '3502.90 - Loại khác', '(1) Albumin là protein động vật hoặc thực vật. Protein động vật thì quan trọng hơn và bao gồm lòng trắng trứng (ovalbumin), albumin máu (albumin huyết thanh), albumin sữa (lactalbumin) và albumin cá. Không giống như casein, chúng có thể tan trong nước cũng như tan trong kiềm và các dung dịch này đông lại dưới sự tác động của nhiệt độ.', 'Nhóm này cũng bao gồm whey protein cô đặc có chứa hai hay nhiều whey protein và có thành phần whey protein trên 80% tính theo trọng lượng ở thể khô. Thành phần whey protein được tính bằng cách nhân hàm lượng nitơ với hệ số chuyển đổi 6,38. Những whey protein cô đặc chứa whey protein từ 80% trở xuống tính theo trọng lượng ở thể khô, được phân loại vào nhóm 04.04.', 'Albumin thường ở dạng dung dịch sánh, vảy màu vàng trong suốt hoặc bột vô định hình màu trắng, hơi đỏ hoặc hơi vàng.', 'Chúng thường được dùng để làm các sản phẩm keo hồ, thực phẩm, dược phẩm, để hoàn thiện da thuộc, để xử lý vải dệt hoặc giấy (đặc biệt là giấy ảnh), để lọc trong rượu hoặc các đồ uống khác, vv...', '(2) Albuminate (muối của albumin) và các dẫn xuất albumin khác, đặc biệt albuminat sắt, albumin đã brôm hóa, albumin đã iốt hóa và albumin tannate.', 'Nhóm này cũng loại trừ:', '(a) Máu khô, đôi khi mô tả không chính xác như "albumin máu" (nhóm 05.11).', '(b) Các muối albumin kim loại quý (nhóm 28.43) hoặc các muối albumin của các nhóm từ 28.44 đến 28.46 và 28.52.', '(c) Albumin máu đã điều chế dùng cho việc phòng bệnh và chữa bệnh và huyết thanh cho người (Chương 30).', '35.03- Gelatin (kể cả gelatin ở dạng tấm hình chữ nhật (kể cả hình vuông), đã hoặc chưa gia công bề mặt hoặc tạo màu) và các dẫn xuất gelatin; keo điều chế từ bong bóng cá; các loại keo khác có nguồn gốc động vật, trừ keo casein thuộc nhóm 35.01.', 'Gelatin và các keo của nhóm này là các chất protein hòa tan trong nước thu được từ quá trình xử lý da sống, xương sụn, xương, gân hoặc các nguyên liệu tương tự từ động vật, thường với nước ấm có hoặc không có thêm a xít.', '(A) Gelatin kém dính hơn và được lọc kỹ hơn keo, tạo ra một nước thạch trong với nước. Chất này được dùng để chế biến các sản phẩm thực phẩm, dược phẩm và chất bắt sáng trên giấy ảnh, dùng để nuôi vi khuẩn và để lọc bia hoặc rượu. Chất này cũng được dùng hồ giấy hoặc vải dệt, dùng trong công nghiệp in, dùng để chế tạo plastic (gelatin được làm cứng) và dùng để sản xuất ra hàng hóa.', 'Gelatin thường ở dạng tấm mỏng, trong suốt, hầu như không màu và không mùi, nhìn có cảm giác có dạng của lưới đã được làm khô, nhưng trong thương mại nó cũng ở dạng tấm, phiến, màng, mảnh, bột, vv...', 'Tấm gelatin được phân vào nhóm này với điều kiện chúng ở dạng hình chữ nhật (kể cả hình vuông), và đã hoặc chưa gia công bề mặt hoặc nhuộm màu (ví dụ, được rập nổi, tráng kim loại, được in - loại trừ bưu thiếp có gelatin và các sản phẩm được in khác được mô tả trong Chương 49). Nếu được cắt ngoài hình chữ nhật hoặc hình vuông (ví dụ, hình tròn đĩa) chúng được phân loại vào nhóm 96.02. Gelatin không được làm cứng, đã được tạc hoặc đúc khuôn cũng được phân loại vào nhóm 96.02.', '(B) Các dẫn xuất gelatin bao gồm tannat gelatin và bromotannat gelatin.', '(C) Keo bong bóng cá thu được từ quá trình xử lý cơ học của bong bóng của một số loại cá, đặc biệt là cá tầm. Loại này tồn tại ở thể rắn, thường ở dạng màng mỏng nửa trong suốt. Phần lớn chất này được dùng như chất lọc bia, rượu hoặc đồ uống có cồn khác, và dùng trong ngành dược.', '(D) Các keo khác có nguồn gốc từ động vật bao gồm trong nhóm này là các dạng gelatin không tinh khiết được dùng như keo. Chúng có thể chứa những chất phụ gia như chất bảo quản, thuốc mầu hoặc chất điều chỉnh độ nhớt.', 'Các loại keo chủ yếu là:', '(1) Keo xương, keo da sống, keo dây thần kinh, keo gân. Những loại keo này có màu từ vàng tới nâu nặng mùi và thường là các tấm dầy hơn, cứng hơn, giòn hơn gelatin thô. Chúng cũng có ở dạng chuỗi hạt, mảnh, vv....', '(2) Các loại keo cá (trừ keo bong bóng cá). Các loại keo này thu được từ tác động của nước nóng lên phế liệu của cá (da, xương sụn, xương, vây cá, vv...), và thường ở thể lỏng của gelatin.', 'Nhóm này không bao gồm:', '(a) Keo casein (nhóm 35.01).', '(b) Keo đóng gói để bán lẻ, với trọng lượng tịnh không quá 1 kg (nhóm 35.06).', '(c) Bột nhão để sao in (thạch sao in) với thành phần cơ bản là gelatin (nhóm 38.24).', '(d) Gelatin đã làm cứng (nhóm 39.13).', '35.04- Pepton và các dẫn xuất của chúng; protein khác và các dẫn xuất của chúng, chưa được chi tiết hoặc ghi ở nơi khác; bột da sống, đã hoặc chưa crom hóa.', 'Nhóm này bao gồm:', '(A) Peptones và các dẫn xuất của chúng.', '(1) Peptones là các chất hòa tan thu được khi các protein được hyđro hóa hoặc chịu phản ứng của một số loại enzyme nhất định (pepsin, papain, pancreatin, vv...). Chúng thường ở dạng bột trắng hoặc vàng nhạt và, hút ẩm tốt, chúng thường được đóng trong bao bì kín khí. Các Peptone cũng có thể ở dạng hòa tan. Những loại chính là peptones thịt, peptones men, peptones máu và peptones casein.', 'Chúng được sử dụng trong dược phẩm, trong chế phẩm thực phẩm, dùng để nuôi cấy vi khuẩn, vv...', '(2) Peptonate là các dẫn xuất của peptones. Chúng được sử dụng chủ yếu trong dược phẩm; quan trọng nhất là peptonate sắt và peptonate măng gan.', '(B) Các chất protein khác và các dẫn xuất của chúng, không được chi tiết ở nhóm cụ thể hơn trong Danh mục hàng hóa, bao gồm đặc biệt là:', '(1) Glutelin và prolamin (ví dụ, gliadin được chiết xuất từ lúa mỳ hoặc lúa mạch đen, và zein chiết xuất từ ngô), bản chất là protein ngũ cốc.', '(2) Globulin, ví dụ như lactoglobulin và ovoglobulin (nhưng phải xem lại phần loại trừ (d) ở phần cuối của Chú giải Chi tiết).', '(3) Glycinin, protein từ đậu tương.', '(4) Keratin thu được từ tóc, móng, sừng, móng guốc, lông vũ, vv....', '(5) Nucleoproteid, bản chất là protein kết hợp với axit nucleic, và các chất dẫn xuất của chúng. Các nucleoproteid được tách ra, ví dụ, từ men ủ rượu, bia, và các muối của chúng (của sắt, đồng, vv...) được dùng chủ yếu trong ngành dược.', 'Tuy nhiên, các nucleoproteid của thủy ngân đúng như mô tả trong nhóm 28.52 thì bị loại trừ.', '(6) Protein tách biệt thu được từ quá trình chiết xuất các chất thực vật (ví dụ, bột đậu nành đã rút chất béo) và bao gồm hỗn hợp protein chứa trong đó. Hàm lượng protein của những chất tách biệt này thường từ 90% trở lên.', '(C) Bột da sống, đã hoặc chưa crôm hóa. Bột da sống được sử dụng để xác định tanin trong nguyên liệu tanin tự nhiên và trong chiết xuất tanin thực vật. Nó gần như là collagen nguyên chất và thu được từ quá trình chế biến cẩn thận từ da sống. Chất bột có thể chứa một lượng nhỏ thêm vào là phèn crôm (bột da sống được crôm hóa), hoặc nó có thể được thể hiện dưới dạng chưa được chrom hóa cần bổ sung phèn crôm ngay trước khi sử dụng. Bột da sống đã được xử lý không được nhầm lẫn với bụi, bột da thuộc crôm thuộc nhóm 41.15 không thích hợp để xác định tanin và ít giá trị hơn.', 'Nhóm này không bao gồm:', '(a) Protein hydrolysate chủ yếu bao gồm hỗn hợp của axit amino và natri clorua, và chất cô đặc thu được từ quá trình loại bỏ một số thành phần nào đó của bột đậu nành đã rút chất béo, được dùng như các phụ gia trong chế biến thực phẩm (nhóm 21.06).', '(b) Các muối protein của kim loại quý (nhóm 28.43) hoặc các muối protein của các nhóm từ 28.44 đến 28.46 và 28.52.', '(c) Axit nucleic và các muối của nó (muối nucleate) (nhóm 29.34).', '(d) Fibrinogen, fibrin, globulin máu và globulin huyết thanh, immunoglobulin và antisera thường của người (immunoglobulin đặc trưng) và các phân đoạn khác của máu (nhóm 30.02).', '(e) Các sản phẩm được mô tả trong nhóm này khi đóng gói như thuốc (nhóm 30.03 hoặc 30.04).', '(f) Enzyme (nhóm 35.07).', '(g) Protein đã được làm cứng (nhóm 39.13).', '35.05- Dextrin và các dạng tinh bột biến tính khác (ví dụ, tinh bột đã tiền gelatin hóa hoặc este hóa); các loại keo dựa trên tinh bột, hoặc dextrin hoặc các dạng tinh bột biến tính khác.', '3505.10 - Dextrin và các dạng tinh bột biến tính khác', '3505.20 - Keo', 'Nhóm này bao gồm:', '(A) Dextrin và các dạng tinh bột biến tính khác, như các sản phẩm thu được từ quá trình chuyển đổi của tinh bột qua phản ứng nhiệt, hóa học (ví dụ, axit, kiềm) hoặc diastasa, và tinh bột đã được biến tính, ví dụ, bằng quá trình oxy hóa, este hóa hoặc ete hóa. Tinh bột có liên kết ngang (ví dụ, distarch photphat) là một nhóm quan trọng của tinh bột biến tính.', '(1) Dextrin, thu được:', '- hoặc từ quá trình làm thoái hóa tinh bột bằng cách thủy phân với axit hoặc enzyme, sản phẩm thu được thực chất là maltodextrin. Tuy nhiên các sản phẩm thuộc loại này được phân loại vào đây như dextrin chỉ khi hàm lượng đường khử của chúng, thể hiện ở dextrose ở dạng chất khô, không quá 10%;', '- hoặc từ quá trình rang tinh bột, có hoặc không có một lượng nhỏ thuốc thử hóa học. Nếu không sử dụng thuốc thử hóa học thì sản phẩm thu được được coi là tinh bột đã rang.', 'Dextrin là loại bột trắng, hơi vàng hoặc mầu nâu, phụ thuộc vào quá trình sản xuất và loại tinh bột được sử dụng. Chúng tan trong nước (được làm nóng một cách thích hợp, nếu cần thiết) nhưng không tan trong cồn.', '(2) Tinh bột tan (amylogen): là một sản phẩm trung gian thu được trong quá trình chuyển hóa của tinh bột thành dextrin, được chế biến bằng cách đun sôi tinh bột trong nước, hoặc giữ tinh bột lâu trong khi kết hợp với axit loãng lạnh. Nhóm này cũng bao gồm tinh bột hòa tan có chứa một lượng rất nhỏ cao lanh, dùng chủ yếu thêm vào bột giấy xenlulô trong quá trình sản xuất giấy.', '(3) Tinh bột đã được tiền gelatin hóa hoặc "nở ra", thu được bằng cách nhào tinh bột với nước và xử lý nhiệt để thu được một khối giống như gelatin, sau đó chúng được làm khô và được nghiền thành bột. Sản phẩm này cũng có thể thu được bằng cách ép, sau đó nghiền thành bột. Nó được sử dụng trong việc sản xuất giấy, trong công nghiệp dệt, trong luyện kim (dùng để sản xuất khuôn đúc lõi cáp điện), trong công nghiệp thực phẩm và thức ăn gia súc, vv...', '(4) Tinh bột đã được ete hóa hoặc este hóa (tinh bột đã biến tính bằng quá trình ete hóa hoặc este hóa). Tinh bột đã được ete hóa bao gồm tinh bột có chứa các nhóm hydroxyethyl, hydroxypropyl hoặc carboxymethyl. Tinh bột đã được este hóa bao gồm tinh bột axetat được sử dụng chủ yếu trong công nghiệp giấy hoặc công nghiệp dệt, và tinh bột nitrat (nitrostarch) được sử dụng trong việc sản xuất chất nổ.', '(5) Các tinh bột biến tính khác, ví dụ:', '(i) Tinh bột dialdehyde, và', '(ii) Tinh bột được xử lý bằng formaldehyde hoặc epichlorohydrin, ví dụ, được dùng làm bột bao tay phẫu thuật.', 'Nói chung, tinh bột biến tính của nhóm này có thể được phân biệt với tinh bột chưa biến tính thuộc Chương 11 trên cơ sở những thay đổi đặc tính của chúng, ví dụ, độ trong của dung dịch và gel, xu hướng thành gel hoặc tinh thể, khả năng kết hợp với nước, sự ổn định kết đông-xả đông, nhiệt độ gelatin hóa hoặc độ nhớt tối đa.', '(B) Các loại keo với thành phần chính là tinh bột, hoặc dextrin hoặc các tinh bột biến tính khác.', '(1) Keo dextrin bao gồm dextrin trong dung dịch có chứa nước hoặc trộn với các chất khác (ví dụ, magiê clorua).', '(2) Keo tinh bột, thu được bằng việc xử lý tinh bột với kiềm (ví dụ, natri hydroxit).', '(3) Keo bao gồm tinh bột chưa xử lý, borax và các dẫn xuất xellulô tan trong nước hoặc bao gồm tinh bột chưa xử lý, borax và ete tinh bột.', 'Các sản phẩm đề cập ở trên thường ở dạng bột vô định hình màu trắng, vàng hoặc hơi nâu hoặc dạng khối như gôm, vì thế gọi tên các sản phẩm đó là "gôm British" và "gôm tinh bột". Chúng được sử dụng chủ yếu như keo, trong công nghiệp màu, trong công nghiệp giấy hoặc dệt, và trong luyện kim.', 'Nhóm này không bao gồm:', '(a) Tinh bột, chưa chế biến (nhóm 11.08).', '(b) Sản phẩm tinh bột biến chất với hàm lượng đường khử, thể hiện như dextrose ở dạng chất khô, trên 10% (nhóm 17.02).', '(c) Keo đóng gói để bán lẻ, với trọng lượng tịnh không quá 1kg (nhóm 35.06).', '(d) Chất làm bóng và chất hoàn tất vải đã điều chế (thành phần cơ bản là tinh bột hoặc dextrin) loại dùng cho giấy, dệt, da thuộc hoặc các ngành công nghiệp tương tự (nhóm 38.09).', '35.06- Keo đã điều chế và các chất dính đã điều chế khác, chưa được chi tiết hoặc ghi ở nơi khác; các sản phẩm phù hợp dùng như keo hoặc các chất kết dính, đã đóng gói để bán lẻ như keo hoặc như các chất kết dính, trọng lượng tịnh không quá 1 kg.', '3506.10 - Các sản phẩm phù hợp dùng như keo hoặc như các chất kết dính, đã đóng gói để bán lẻ như keo hoặc như các chất kết dính, trọng lượng tịnh không quá 1kg', '- Loại khác:', '3506.91 - - Chất kết dính làm từ các polyme thuộc các nhóm từ 39.01 đến 39.13 hoặc từ cao su', '3506.99 - - Loại khác', 'Nhóm này bao gồm:', '(A) Các sản phẩm phù hợp dùng như keo hoặc chất kết dính và đã đóng gói để bán lẻ như keo hoặc chất kết dính, trọng lượng tịnh không quá 1kg.', 'Nhóm này bao gồm keo và chất kết dính đã điều chế của phần (B) dưới đây và các sản phẩm khác thích hợp dùng như keo hoặc chất kết dính, với điều kiện các sản phẩm này đã được đóng gói để bán lẻ như keo hoặc chất kết dính, với trọng lượng không quá 1 kg.', 'Những bao bì để đóng gói để bán lẻ keo hoặc chất kết dính gồm chai hoặc lọ thủy tinh, hộp kim loại, ống kim loại gấp gọn, carton, túi giấy, ...; Đôi khi “việc đóng gói” chỉ đơn thuần là bọc giấy gói xung quanh, ví dụ, một thanh keo xương. Đôi khi một bàn chải nhỏ loại thích hợp được đóng gói với keo hoặc chất kết dính (ví dụ, những loại được đóng trong lọ hoặc hộp để dùng trực tiếp). Những bàn chải này được phân loại cùng với keo hoặc chất kết dính nếu được đóng gói cùng.', 'Các sản phẩm có các công dụng khác ngoài công dụng là keo hoặc chất kết dính (ví dụ, dextrin, methyl cellulose ở dạng hạt nhỏ) được phân loại vào nhóm này chỉ khi có một vài chỉ dẫn trên bao bì là chúng được dùng để bán như keo hoặc chất kết dính.', '(B) Keo thành phẩm và chất kết dính thành phẩm khác, không nằm trong một nhóm cụ thể hơn trong Danh mục hàng hóa, ví dụ:', '(1) Keo gluten ("keo Vienna") thường thu được từ gluten hòa tan bằng quá trình lên men từng phần. Những loại keo này thường ở dạng mảnh hoặc bột và đa dạng màu từ màu hơi vàng đến màu nâu.', '(2) Keo hoặc chất kết dính khác thu được từ quá trình xử lý hóa học gôm tự nhiên.', '(3) Chất kết dính có thành phần cơ bản là silicat, vv...', '(4) Các chế phẩm được pha chế đặc biệt dùng như chất dính, bao gồm các polyme hoặc các hỗn hợp của chúng thuộc các nhóm từ 39.01 đến 39.13, ngoài các chất được cho phép thêm vào các sản phẩm thuộc Chương 39 (chất độn, chất hóa dẻo plastic, dung môi, thuốc mầu, vv...), có chứa chất phụ gia được thêm vào khác thì không thuộc Chương đó (ví dụ, các loại sáp, este nhựa thông, sơn cánh kiến (shellac) tự nhiên chưa biến tính).', '(5) Chất kết dính bao gồm hỗn hợp của cao su, dung môi hữu cơ, chất độn, các chất lưu hóa và nhựa.', 'Trừ khi chúng phù hợp với điều khoản của phần (A) ở trên, nhóm này loại trừ các sản phẩm thuộc một nhóm cụ thể hơn trong Danh mục hàng hóa, ví dụ:', '(a) Keo casein (nhóm 35.01), keo có nguồn gốc động vật (nhóm 35.03) và các keo có thành phần cơ bản là tinh bột, hoặc dextrin hoặc các tinh bột biến tính khác (nhóm 35.05).', '(b) Các sản phẩm khác, có thể được dùng như keo hoặc các chất kết dính khác hoặc trực tiếp hoặc sau khi xử lý, ví dụ, nhựa bẫy chim (nhóm 13.02), silicate, không trộn (nhóm 28.39), caseinat canxi (nhóm 35.01), dextrin (nhóm 35.05), chất phân tán hay hòa tan của polyme thuộc các nhóm từ 39.01 đến 39.13 (Chương 39 hoặc nhóm 32.08) và chất phân tán hay hòa tan của cao su (Chương 40).', 'Lưu ý rằng một số các sản phẩm thuộc nhóm này có thể được dùng như keo hoặc các chất kết dính ở dạng đem bán, trong khi các chất khác phải được hòa tan hoặc phân tán trong nước trước khi dùng.', 'Nhóm này không bao gồm chất làm bóng và chất xử lý hoàn tất vải đã được điều chế dùng cho ngành dệt, vv...(nhóm 38.09) hoặc chất đúc lõi cáp điện (nhóm 38.24); ở một số nước, những chất này đôi lúc được gọi là "keo", nhưng chúng không được dùng để kết dính.', 'Nhóm này cũng không bao gồm các sản phẩm có đặc tính của ma tít, chất bồi, vv... thuộc nhóm 32.14.', '35.07- Enzym; enzym đã chế biến chưa được chi tiết hoặc ghi ở nơi khác.', '3507.10 - Rennet và dạng cô đặc của nó', '3507.90 - Loại khác', 'Enzyme là các chất hữu cơ được tạo ra bởi các tế bào sống; chúng có đặc tính gây ra và điều chỉnh các phản ứng hóa học cụ thể bên trong hoặc bên ngoài tế bào sống, mà không có bất cứ thay đổi nào trong cấu trúc hóa học của chúng.', 'Enzyme có thể được coi như những chất sau đây:', '(I) Theo thành phần hóa học của chúng, ví dụ:', '(a) Enzyme trong đó phân tử chứa duy nhất một loại protein (ví dụ, pepsin, trypsin, urease).', '(b) Enzyme trong đó phân tử chứa một loại protein kết hợp với một hợp chất không phải protein có trọng lượng phân tử thấp, đóng vai trò như một nhân tố kết hợp. Nhân tố kết hợp này có thể hoặc là ion kim loại (ví dụ, đồng trong ascorbate oxidase, kẽm trong phosphatase kiềm ở nhau người) hoặc một phân tử hữu cơ phức hợp được gọi là coenzyme (ví dụ, diphosphate thiamine trong decarboxylase pyruvate, phosphate pyridoxal trong aminotrasferase axit oxo-glutamine). Đôi khi yêu cầu cả hai loại này.', '(II) Theo:', '(a) hoạt động hóa học của chúng như oxidoreductases (chất oxi hóa khử), transferases (chất chuyển hóa), hydrolases (chất thuỷ phân), lyases, isomerases, ligases; hoặc', '(b) hoạt động sinh học của chúng như amylases, lipases, proteases, vv...', '*', '*    *', 'Nhóm này bao gồm:', '(A) Các enzyme "tinh khiết" (biệt lập).', 'Những chất này thường ở dạng kết tinh, và chủ yếu dùng trong y tế hoặc nghiên cứu khoa học. Chúng không quan trọng trong thương mại quốc tế như chất enzyme cô đặc và enzyme đã điều chế.', '(B) Enzyme cô đặc.', 'Các chất cô đặc này thường thu được hoặc từ nước hoặc chiết xuất dung môi của các bộ phận của động vật, của thực vật, của vi sinh vật hoặc của nước cấy (culture – broth)(nước cấy này thu được từ vi khuẩn, nấm mốc, vv..). Những sản phẩm này, có thể chứa một số enzyme với tỷ lệ khác nhau, có thể được chuẩn hóa hoặc ổn định.', 'Lưu ý rằng các chất tiêu chuẩn hoặc ổn định có thể tồn tại ở dạng cô đặc với một lượng thay đổi, thu được hoặc từ quá trình lên men rượu hoặc từ quá trình gạn lọc hoặc kết tủa.', 'Chất cô đặc có thể thu được, ví dụ ở dạng bột bằng sự kết tủa hoặc bằng quá trình đông lạnh sau đó sấy khô hoặc ở dạng hạt bằng việc dùng chất làm nổi hạt hoặc chất trợ trơ hoặc chất mang.', '(C) Enzyme đã điều chế chưa được chi tiết hoặc ghi ở nơi khác.', 'Enzyme đã điều chế thu được bằng việc pha loãng các chất cô đặc đề cập ở Phần (B) ở trên hoặc bằng việc trộn lẫn các enzyme tách biệt hoặc enzyme cô đặc. Các chế phẩm được thêm vào các chất, nhằm làm cho chúng thích hợp với các mục đích cụ thể, cũng bao gồm trong nhóm này, với điều kiện là chúng chưa được chi tiết ở một nhóm cụ thể hơn trong Danh mục hàng hóa.', 'Ngoài những đề cập khác, nhóm này bao gồm:', '(i) Các chế phẩm enzyme dùng để làm mềm thịt, như các chất chứa enzyme proteolytic (ví dụ, papain) với dextrose hoặc các thực phẩm khác được thêm vào.', '(ii) Các chế phẩm enzyme dùng để lọc bia, rượu hoặc nước hoa quả (ví dụ, enzyme pectic có chứa gelatin, bentonite, vv..).', '(iii) Các chế phẩm enzyme dùng để tẩy lớp hồ vải như những chế phẩm enzyme với thành phần cơ bản là vi khuẩnα-amylases hoặc proteases.', 'Nhóm này không bao gồm, ngoài các trường hợp khác, những chế phẩm sau:', '(a) Dược phẩm (nhóm 30.03 hoặc 30.04).', '(b) Các chế phẩm enzyme dùng quá trình tiền thuộc da (nhóm 32.02).', '(c) Các chế phẩm enzyme dùng để ngâm hoặc giặt và các sản phẩm khác thuộc Chương 34.', '*', '*    *', 'Các chất sau đây là quan trọng nhất trong số các loại enzyme xuất hiện trong thương mại:', '(1) Rennet (chất lên men trong phòng thí nghiệm, chymosin, enzyme đông sữa - rennin).', 'Rennet thu được hoặc từ dạ dày tươi hoặc khô của bê con hoặc bằng cách nuôi cấy vi sinh vật nào đó. Đó là enzyme proteolytic làm đóng cục sữa bằng cách làm đông casein của nó. Nó thường ở dạng lỏng, bột hoặc viên. Nó có thể chứa muối (ví dụ, clorua natri, clorua canxi, sulphate natri), các chất còn lại từ quá trình sản xuất hoặc chất được thêm vào cho chuẩn hóa, và chất bảo quản (ví dụ, glycerol).', 'Rennet dùng chủ yếu cho công nghiệp làm pho mát.', '(2) Enzyme tụy (enzyme pancreatic).', 'Các enzyme quan trọng nhất được tạo ra từ tuyến tụy là trypsin và chymotrypsin (chất phân tách protein), α-amylase (chất phân tách tinh bột) và lipase (chất phân tách chất béo). Các chất này được dùng chủ yếu trong y tế và ngành dược để chữa rối loạn tiêu hóa.', 'Enzyme cô đặc của tuyến tụy thường thu được từ tuyến tụy tươi hoặc khô. Những chất này có thể chứa muối có độ hút nước cao (được bổ sung để hút một phần nước của quá trình kết tinh) và một ít các chất keo bảo quản (để làm dễ dàng việc bảo quản hoặc vận chuyển). Các chất này được sử dụng trong quá trình sản xuất các chế phẩm để tẩy lớp hồ vải, giặt, loại bỏ lông hoặc thuộc da.', 'Các chế phẩm enzyme của tuyến tụy được phân loại vào nhóm này kể cả các chất đó được dùng để tẩy lớp hồ vải.', '(3) Pepsin.', 'Pepsin thu được từ niêm mạc dạ dầy của lợn thịt và gia cầm. Để nhằm mục đích ổn định, đôi khi nó được bảo quản trong dung dịch sulphate magiê bão hoà hoặc được trộn với sucrose hoặc lactose (pepsin được nghiền thành bột).', 'Pepsin được dùng chủ yếu cho mục đích y tế, kết hợp với axit hydrocloric hoặc betain hydrocloride, hoặc như rượu pepsin.', '(4) Enzyme mạch nha.', 'Nhóm này chỉ bao gồm các amilaza mạch nha.', 'Chiết xuất từ malt được phân loại vào nhóm 19.01.', '(5) Papain, bromelains, ficin.', 'Thuật ngữ papain được dùng để miêu tả cả nhựa đã được làm khô của cây đu đủ (Carica papaya) và 2 loại phân đoạn thu được từ sản phẩm này, đó là papain (trong ngữ cảnh hạn chế của thuật ngữ này) và chymopapain.', 'Ví dụ, papain được dùng để sản xuất bia lạnh (chillproof beer), trong chế biến chế phẩm làm mềm thịt (xem phần (C) (i) ở trên) và trong y tế.', 'Papain là nhựa đã được làm khô chỉ hòa tan một phần trong nước, được xếp vào nhóm 13.02.', 'Bromelains thu được từ cây dứa', 'Ficin thu được từ nhựa của một số loại cây vả.', '(6) Amylases và proteases thu được từ vi sinh vật.', 'Một vài vi sinh vật, khi lớn lên trong môi trường nuôi cấy thích hợp, tiết ra một lượng amylases và proteases đáng kể.', 'Sau khi loại bỏ các tế bào và các tạp chất khác, các dung dịch này hoặc là được cô đặc bằng quá trình bốc hơi chân không ở nhiệt độ thấp hoặc các enzyme được kết tủa bằng việc thêm muối vô cơ (ví dụ, sulphate natri) hoặc các dung môi hữu cơ, có thể trộn lẫn với nước (ví dụ, aceton).', 'Một số ví dụ về amylases và proteases vi khuẩn là:', '(a) Vi khuẩn α-amylases.', 'Vi khuẩn α-amylases (ví dụ, thu được bằng việc dùng Bacillus subtilis) là enzyme tinh bột hóa lỏng, dùng để sản xuất chất kết dính và lớp phủ giấy có thành phần cơ bản là tinh bột, trong lò bánh mỳ và công nghiệp thực phẩm khác và dùng để khử hồ vải dệt.', '(b) Nấm amylases.', 'Nấm amylases là α-amylases thu được chủ yếu từ việc nuôi cấy mốc, phần lớn thuộc giống Rhizopus hoặc giống Aspergillus.', 'Mặc dù khả năng hóa lỏng của chúng rất rõ ràng, nó nhỏ hơn nhiều so với khả năng hóa lỏng của vi khuẩn amylases.', 'Nấm amylases có nhiều công dụng trong công nghiệp thực phẩm.', 'Lưu ý rằng nấm amylases đôi khi có chứa proteases, glucose oxidase và invertase.', '(c) Amyloglucosidases.', 'Những loại enzyme này thu được, ví dụ, từ mốc (moulds) thuộc giống Rhizopus hoặc giống Aspergillus là những chất đường hóa mạnh nhưng không có đặc tính hóa lỏng. Chúng được dùng để lấy được một lượng lớn dextrose từ nguyên liệu có chứa tinh bột.', 'Những ứng dụng chính của chúng là sản xuất xi-rôglucose và dextrose, và như các tác nhân đường hóa cho quá trình lên men hạt ngũ cốc.', '(d) Proteases.', 'Proteases vi khuẩn (thu được từ việc dùng, ví dụ, Bacillus subtilis) là enzyme proteolytic dùng để chế biến chất khử hồ vải dệt, như những thành phần trong một số chế phẩm giặt rửa và trong làm bia. Proteases, sản xuất từ nấm mốc được dùng cho mục đích y tế và dược phẩm.', '(7) β-Amylases.', 'Những loại enzyme này lấy từ các nguyên liệu thực vật, như lúa mạch đã malt hóa, lúa mỳ và đậu tương. Chúng tạo ra maltose từ tinh bột và các dextrin.', '(8) Enzyme pectin.', 'Những loại enzyme này được sản xuất bằng cách nuôi cấy nhiều loại mốc khác nhau, chủ yếu là giống Rhizopus hoặc giống Aspergillus. Chúng được dùng trong việc sản xuất (để tăng cường quá trình ép và tăng lượng nước quả) và chế biến nước ép quả và nước thực vật.', '(9) Invertase (β-fructofruanosidase).', 'Invertase thường có nguồn gốc từ quá trình lên men chậm của men bia.', 'Enzyme này tách sucrose thành glucose và fructose. Loại này được dùng trong sản xuất siro golden, sôcôla và bột hạnh nhân.', '(10) Isomerase glucose.', 'Loại enzyme này được sản xuất bằng việc nuôi cấy một vài vi sinh vật, chủ yếu là giống Streptomyces hoặc giống Bacillus. Chúng được dùng để chuyển đổi một phần glucose thành fructose trong việc tạo ra siro với độ ngọt cao.', 'Ngoài các loại trừ khác được đề cập ở trên, nhóm này không bao gồm:', '(a) Men (nhóm 21.02).', '(b) Coenzymes như cocarboxylase (aneurine pyrophosphate) và cozymase (nicotinamide - adenine dinucleotide) (Chương 29).', '(c) Các tuyến ở dạng khô và các sản phẩm khác thuộc nhóm 30.01.', '(d) Các chất nuôi cấy vi sinh vật, enzyme máu (ví dụ, thrombin), các phân đoạn của máu và các biến thể bị cắt ngắn (các bộ phận) của chúng với thuộc tính/hoạt động enzyme và các sản phẩm khác thuộc nhóm 30.02.', 'Chương 36:', 'Chất nổ; các sản phẩm pháo; diêm; các hợp kim tự cháy; các chế phẩm dễ cháy khác', 'Chú giải.', '1. Chương này không bao gồm các hợp chất đã được xác định về mặt hóa học riêng biệt trừ những loại được mô tả ở Chú giải 2(a) hoặc 2(b) dưới đây.', '2. Khái niệm “các sản phẩm làm từ vật liệu dễ cháy” thuộc nhóm 36.06 chỉ áp dụng cho:', '(a) Metaldehyde, hexamethylenetetramine và các chất tương tự, đã làm thành dạng nhất định (ví dụ, viên, que hoặc các dạng tương tự) dùng làm nhiên liệu; nhiên liệu có thành phần chủ yếu là cồn, và nhiên liệu đã điều chế tương tự, ở dạng rắn hoặc bán rắn;', '(b) Nhiên liệu lỏng hoặc nhiên liệu khí hóa lỏng đựng trong các vật chứa loại sử dụng để nạp hoặc nạp lại ga bật lửa châm thuốc hoặc các bật lửa tương tự và có dung tích không quá 300 cm3; và', '(c) Đuốc nhựa cây, các chất nhóm lửa và loại tương tự.']</t>
   </si>
   <si>
     <t>['Chú giải.', '1. Chương này không bao gồm các hợp chất đã được xác định về mặt hóa học riêng biệt trừ những loại được mô tả ở Chú giải 2(a) hoặc 2(b) dưới đây.', '2. Khái niệm “các sản phẩm làm từ vật liệu dễ cháy” thuộc nhóm 36.06 chỉ áp dụng cho:', '(a) Metaldehyde, hexamethylenetetramine và các chất tương tự, đã làm thành dạng nhất định (ví dụ, viên, que hoặc các dạng tương tự) dùng làm nhiên liệu; nhiên liệu có thành phần chủ yếu là cồn, và nhiên liệu đã điều chế tương tự, ở dạng rắn hoặc bán rắn;', '(b) Nhiên liệu lỏng hoặc nhiên liệu khí hóa lỏng đựng trong các vật chứa loại sử dụng để nạp hoặc nạp lại ga bật lửa châm thuốc hoặc các bật lửa tương tự và có dung tích không quá 300 cm3; và', '(c) Đuốc nhựa cây, các chất nhóm lửa và loại tương tự.']</t>
@@ -742,10 +742,10 @@
     <t>['Chú giải.', '1.- Chương này không bao gồm:', '(a) Gỗ, dưới dạng mảnh, mẩu vụn, vỏ bào, được nghiền hoặc tán nhỏ thành bột, dùng chủ yếu trong công nghệ làm nước hoa, dược phẩm, hoặc thuốc diệt côn trùng, diệt nấm hay các mục đích tương tự (nhóm 12.11);', '(b) Tre hoặc các vật liệu khác có tính chất như gỗ loại chủ yếu dùng để tết bện, dạng thô, đã hoặc chưa chẻ, xẻ theo chiều dài hoặc cắt thành từng đoạn (nhóm 14.01);', '(c) Gỗ, dưới dạng mảnh, mẩu vụn, vỏ bào, đã được nghiền thành bột, dùng chủ yếu cho công nghệ nhuộm hoặc thuộc da (nhóm 14.04);', '(d) Than hoạt tính (nhóm 38.02);', '(e) Các sản phẩm thuộc nhóm 42.02;', '(f) Các mặt hàng thuộc Chương 46;', '(g) Giầy dép hoặc các bộ phận của chúng thuộc Chương 64;', '(h) Các mặt hàng thuộc Chương 66 (ví dụ, ô dù và batoong và các bộ phận của chúng);', '(ij) Các mặt hàng thuộc nhóm 68.08;', '(k) Đồ trang sức làm bằng chất liệu khác thuộc nhóm 71.17;', '(l) Các mặt hàng thuộc Phần XVI hoặc Phần XVII (ví dụ, các bộ phận của máy móc, hòm, vỏ, hộp dùng cho máy móc và thiết bị và đồ dùng của thợ đóng xe);', '(m) Các mặt hàng thuộc Phần XVIII (ví dụ, vỏ đồng hồ và nhạc cụ và các bộ phận của chúng);', '(n) Các bộ phận của súng (nhóm 93.05);', '(o) Các mặt hàng thuộc Chương 94 (ví dụ, đồ nội thất, đèn và bộ đèn, nhà lắp ghép);', '(p) Các mặt hàng thuộc Chương 95 (ví dụ, đồ chơi, thiết bị trò chơi, dụng cụ thể thao);', '(q) Các mặt hàng thuộc Chương 96 (ví dụ, tẩu hút thuốc và bộ phận của chúng, khuy, bút chì, và chân đế loại một chân (monopod), hai chân (bipod), ba chân (tripod) và các sản phẩm tương tự) trừ thân và tay cầm, bằng gỗ, dùng cho các sản phẩm thuộc nhóm 96.03; hoặc', '(r) Các mặt hàng thuộc Chương 97 (ví dụ, các tác phẩm nghệ thuật).', '2.- Trong Chương này, khái niệm "gỗ đã được làm tăng độ rắn" chỉ loại gỗ đã qua xử lý về mặt hoá học hoặc lý học (trong trường hợp loại gỗ này, được cấu tạo bằng các lớp được liên kết với nhau, việc xử lý thêm chỉ để đảm bảo sự liên kết tốt giữa các lớp), và do đó đã tăng tỷ trọng (mật độ) hoặc độ cứng cũng như tăng sức bền cơ học hoặc độ bền khi có tác động hoá học hoặc điện.', '3.- Các nhóm từ 44.14 đến 44.21 áp dụng đối với các sản phẩm có mô tả tương ứng từ các loại ván dăm hoặc ván tương tự, ván sợi ép, ván ghép hoặc gỗ đã được làm tăng độ rắn, áp dụng tương tự đối với các sản phẩm này từ gỗ.', '4. Các mặt hàng thuộc nhóm 44.10, 44.11 hoặc 44.12 có thể được gia công tạo hình như đã đưa ra trong nhóm 44.09, đã được uốn cong, làm sóng, đục lỗ, được cắt hoặc tạo dáng thành các hình dạng khác nhau trừ hình chữ nhật hoặc hình vuông hoặc trải qua bất kỳ thao tác nào khác với điều kiện là không tạo cho chúng những đặc trưng của các mặt hàng thuộc các nhóm khác.', '5. Nhóm 44.17 không bao gồm các dụng cụ có lưỡi, gờ, bề mặt hoặc bộ phận làm việc khác được tạo ra từ vật liệu bất kỳ được chi tiết ở Chú giải 1 của Chương 82.', '6. Theo Chú giải 1 ở trên và trừ khi có yêu cầu khác, khái niệm "gỗ" trong một nhóm của Chương này cũng áp dụng đối với các loại tre và các vật liệu khác có tính chất gỗ.', 'Chú giải phân nhóm.', '1. Theo mục đích của phân nhóm 4401.31, thuật ngữ "viên gỗ" có nghĩa là các sản phẩm phụ như vỏ bào, mùn cưa, của công nghiệp chế biến gỗ cơ học, công nghiệp làm đồ nội thất hoặc các quá trình chế biến gỗ khác, đã được đóng thành khối bằng cách ép trực tiếp hoặc thêm chất kết dính với hàm lượng không quá 3% tính theo trọng lượng. Những viên gỗ như vậy có hình trụ, với đường kính không vượt quá 25 mm và chiều dài không quá 100 mm.', '2. Theo mục đích của phân nhóm 4401.32, thuật ngữ “gỗ đóng bánh” (wood briquettes) có nghĩa là các sản phẩm phụ như vỏ bào, mùn cưa (cutter shavings, sawdust hoặc chips) của công nghiệp chế biến gỗ cơ học, sản xuất đồ nội thất hoặc các quá trình chế biến gỗ khác, đã được đóng thành khối bằng cách ép trực tiếp hoặc thêm chất kết dính với hàm lượng không quá 3% tính theo khối lượng. Những bánh gỗ này (wood briquettes) có dạng khối lập phương, khối đa diện hoặc hình trụ với kích thước mặt cắt ngang tối thiểu lớn hơn 25 mm.', '3. Theo mục đích của phân nhóm 4407.13, “S-P-F” dùng để chỉ gỗ có nguồn gốc hỗn hợp từ vân sam, thông và linh sam, trong đó tỷ lệ của mỗi loài khác nhau và chưa được xác định.', '4. Theo mục đích của phân nhóm 4407.14, “Hem-fir” dùng để chỉ gỗ có nguồn gốc từ hỗn hợp của Western hemlock và linh sam (fir), nơi tỷ lệ của mỗi loài khác nhau và chưa được xác định.']</t>
   </si>
   <si>
-    <t>['Chú giải.', '1.- Chương này không bao gồm:', '(a) Giày dép hoặc các bộ phận của giày dép thuộc Chương 64;', '(b) Mũ và các vật đội đầu khác hay các bộ phận của chúng thuộc Chương 65; hoặc', '(c) Các mặt hàng thuộc Chương 95 (ví dụ, đồ chơi, thiết bị trò chơi, dụng cụ, thiết bị thể thao).']</t>
-  </si>
-  <si>
-    <t>['Chú giải.', '1.- Trong Chương này khái niệm "vật liệu tết bện" dùng để chỉ các loại vật liệu ở trạng thái hoặc hình dạng thích hợp cho việc tết bện hoặc gia công tương tự; kể cả rơm, liễu gai hoặc liễu, tre, song, mây, bấc, sậy, dải gỗ mỏng, dải từ vật liệu gốc thực vật khác (ví dụ, dải vỏ cây, các lá dài hẹp chiều ngang và cây cọ sợi hoặc các dải khác thu được từ các lá to), sợi dệt tự nhiên chưa xe, sợi monofilamen và dải và dạng tương tự bằng plastic và dải giấy, nhưng không bao gồm dải bằng da thuộc hoặc da thuộc tổng hợp hoặc dải bằng nỉ hay sản phẩm không dệt, tóc người, lông đuôi hoặc bờm ngựa, sợi dệt thô hoặc sợi dệt, hoặc sợi monofilament và dải và dạng tương tự thuộc Chương 54.', '2.- Chương này không bao gồm:', '(a) Tấm phủ tường thuộc nhóm 48.14;', '(b) Dây xe, chão bện (cordage), thừng hoặc cáp, đã hoặc chưa tết bện (nhóm 56.07);', '(c) Giầy, dép hoặc mũ và các vật đội đầu khác hoặc các bộ phận của chúng thuộc Chương 64 hoặc 65;', '(d) Xe hoặc thân xe bằng song mây (thuộc Chương 87); hoặc', '(e) Các mặt hàng thuộc Chương 94 (ví dụ, đồ nội thất, các loại đèn (luminaires) và bộ đèn).', '3.- Theo mục đích của nhóm 46.01, khái niệm "vật liệu tết bện, dây bện và các sản phẩm tương tự bằng vật liệu tết bện, đã kết lại với nhau thành các tao dây song song" dùng để chỉ các vật liệu tết bện, các dây bện và các sản phẩm tương tự bằng vật liệu tết bện, đã được xếp kề cạnh và liên kết với nhau, thành dạng tấm, có hoặc không có vật liệu kết nối là vật liệu dệt đã xe.']</t>
+    <t>['Chú giải.', '1.- Chương này không bao gồm:', '(a) Giày dép hoặc các bộ phận của giày dép thuộc Chương 64;', '(b) Mũ và các vật đội đầu khác hay các bộ phận của chúng thuộc Chương 65; hoặc', '(c) Các mặt hàng thuộc Chương 95 (ví dụ, đồ chơi, thiết bị trò chơi, dụng cụ, thiết bị thể thao).', 'TỔNG QUÁT', 'Lie thu được hầu như chỉ từ vỏ ngoài của cây sồi- lie (sồi bần) (Quercus suber), là loại mọc ở Nam Âu và Bắc Phi.', 'Lần bóc vỏ đầu tiên được gọi là lie “nguyên thủy” (virgin) và nó rắn, dễ vỡ gẫy, ít đàn hồi, chất lượng thấp và giá trị thấp. Nó có mặt ngoài phồng rộp và nứt rạn, trong khi mặt trong có màu vàng nhạt điểm các chấm đỏ.', 'Các lần thu hoạch tiếp theo quan trọng hơn về phương diện thương mại. Chúng rắn chắc và đồng nhất, và bề mặt ngoài, mặc dù trong chừng mực nào đó nứt rạn, nhưng ít xù xì hơn bề mặt ngoài của lie nguyên thủy.', 'Lie nhẹ, đàn hồi, có thể nén được, mềm, không thấm nước, không mục rữa, và là chất kém dẫn nhiệt và kém dẫn truyền âm.', 'Chương này bao gồm lie tự nhiên và lie kết dính ở mọi dạng (kể cả các mặt hàng từ lie và lie kết dính), trừ các loại đã bị loại trừ ở phần cuối Chú giải chi tiết nhóm 45.03.', '45.01- Lie tự nhiên, thô hoặc đã sơ chế; lie phế liệu; lie đã ép, nghiền thành hạt hoặc thành bột.', '4501.10- Lie tự nhiên, thô hoặc đã sơ chế', '4501.90- Loại khác', 'Nhóm này bao gồm:', '(1) Lie tự nhiên, thô hoặc đã sơ chế. Lie thô có trong vỏ bóc hình vòng cung khi được bóc từ cây lie. Lie tự nhiên, sơ chế, gồm lie được bỏ bề mặt hoặc làm sạch cách khác (ví dụ, bằng việc đốt bề mặt ngoài), lớp ngoài bị gẫy nứt vẫn còn lại, hoặc các bờ rìa được làm sạch để loại bỏ những phần không thích hợp sử dụng (lie đã tỉa). Lie đã được xử lý bằng thuốc diệt nấm hoặc được làm phẳng bằng cách ép sau khi xử lý trong nước sôi hoặc hơi nước nóng cũng vẫn ở nhóm này; tuy nhiên, lie được bóc vỏ (lấy đi lớp vỏ ngoài cùng), hoặc đẽo thô thành hình vuông bị loại trừ (nhóm 45.02).', '(2) Các phế liệu của lie tự nhiên hoặc lie kết dính (ví dụ, vỏ bào, mảnh phế liệu và các mảnh vụn) thường được dùng trong sản xuất lie đã ép, nghiền thành hạt hoặc thành bột. Nó bao gồm phôi tiện phế liệu,.., từ lie ở dạng “sợi lie” (“cork wool”), đôi khi được dùng như vật liệu chèn hoặc lót.', '(3) Lie đã ép, nghiền thành hạt hoặc thành bột, thông thường là sản phẩm được làm từ lie nguyên thủy hoặc lie phế liệu, và được sử dụng chủ yếu cho việc sản xuất lie kết dính, vải sơn lót sàn hoặc sản xuất lincrusta. Lie dạng hạt cũng được sử dụng như vật liệu cách nhiệt hoặc cách âm và trong mức cho phép dùng để đóng gói trái cây. Lie đã ép, nghiền thành hạt hoặc thành bột cũng được phân loại nhóm này nếu được tạo màu, ngâm tẩm, hun nóng hoặc làm giãn nở bằng cách xử lý nhiệt; tuy vậy, lie kết kính bị loại trừ (nhóm 45.04).', '45.02- Lie tự nhiên, đã bóc vỏ hoặc đã đẽo thô thành hình vuông, hoặc ở dạng khối, tấm, lá, hình chữ nhật (kể cả hình vuông) hoặc dải (kể cả dạng phôi lie đã cắt cạnh dùng làm nút hoặc nắp đậy).', 'Nhóm này bao gồm vỏ bóc của lie tự nhiên:', '(1) Với toàn bộ vỏ ngoài được cưa hoặc được lấy ra theo cách khác từ bề mặt bên ngoài (lie bị bóc vỏ); hoặc', '(2) Với các bề mặt bên ngoài (vỏ) và bên trong (cây) đã cưa hoặc cắt theo cách khác để tạo thành các cạnh tương đối song song (lie đã đẽo thô thành hình vuông).', 'Nhóm này cũng bao gồm các sản phẩm đã được gia công thêm thành khối, tấm, phiến hình chữ nhật (kể cả hình vuông) hoặc dải lie thu được từ các loại lie của nhóm 45.01, bằng cách lạng cả hai mặt và cắt các cạnh vuông góc. Các sản phẩm này vẫn được xếp vào nhóm này dù chúng có hay không gồm các lớp lie được xếp chồng lên nhau và dán dính vào nhau.', 'Các khối, phiến, tấm và các dải được cắt thành hình trừ hình chữ nhật (kể cả hình vuông) được coi như các mặt hàng lie (nhóm 45.03).', 'Những tấm lie được gia cố bằng giấy hoặc vải, kể cả những dải lie rất mỏng dạng cuộn để làm đầu thuốc lá, cũng phân loại ở nhóm này. (Thuật ngữ “giấy lie” đôi khi được áp dụng đối với tấm và dải lie rất mỏng thậm chí không được bồi giấy).', 'Nhóm này cũng bao gồm phôi để làm nút bần hoặc nắp đậy, ở dạng khối hoặc miếng vuông đã cắt cạnh, kể cả những sản phẩm được cắt từ các miếng có từ hai hoặc nhiều lớp dán dính vào nhau. Tuy nhiên, những sản phẩm tương tự có các cạnh đã cắt gọt tròn bị loại trừ (nhóm 45.03).', '45.03- Các sản phẩm bằng lie tự nhiên (+).', '4503.10 - Nút và nắp đậy', '4503.90 - Loại khác', 'Ngoài các loại khác, nhóm này bao gồm:', '(1) Nút và nắp đậy các loại, bằng lie tự nhiên, kể cả phôi có các cạnh đã cắt gọt tròn. Các nút đậy bằng lie đôi khi có thể được lắp với nắp mũ bằng kim loại, bằng plastic,... Tuy nhiên, các nút kiêm chức năng rót, nút kiêm chức năng đo liều lượng và các sản phẩm khác trong đó nút chai lie chỉ là một thành phần thứ yếu thì được phân loại ở nơi khác tùy theo loại mặt hàng hoặc vật liệu cho nó đặc trưng cơ bản.', '(2) Các đĩa, miếng đệm và vòng đệm bằng lie tự nhiên, dùng để lót nút lie hình vương miện và các nắp khác cho chai, lọ...; lớp lót hoặc vỏ lie cho phần bên trong của cổ chai.', '(3) Các khối, phiến, tấm và dải bằng lie tự nhiên, được cắt thành hình trừ hình chữ nhật (kể cả hình vuông); phao cấp cứu, phao cho lưới đánh cá, thảm lót nhà tắm, tấm lót cho đồ để bàn ăn, tấm lót máy chữ hoặc tấm lót các vật khác.', '(4) Cán cầm tay các loại (chuôi dao,...), vòng đệm và miếng đệm (trừ các sản phẩm nằm trong một bộ hỗn hợp thuộc nhóm 84.84).', 'Tuy nhiên, các mặt hàng sau bị loại trừ khỏi nhóm này:', '(a) Giày dép và các bộ phận của chúng, kể cả miếng lót bên trong có thể tháo rời ra (vớ), thuộc Chương 64.', '(b) Đồ đội đầu và các bộ phận của chúng thuộc Chương 65.', '(c) Nút đậy hình vương miện bằng kim loại cơ bản có vòng đệm bằng lie ở bên trong (nhóm 83.09)', '(d) Nùi đạn cát tút (cartridge) bằng lie (nhóm 93.06).', '(e) Đồ chơi, thiết bị trò chơi và dụng cụ, thiết bị thể thao, kể cả phao nổi cho dây câu cá, và các bộ phận của chúng (Chương 95).', 'º', 'º      º', 'Chú giải chi tiết phân nhóm.', 'Phân nhóm 4503.10', 'Các nút và nắp đậy của phân nhóm 4503.10 là các miếng lie tự nhiên được tạo hình như hình trụ hoặc hình hộp chữ nhật được vót thon hoặc làm cạnh thẳng với các gờ bên đã được làm tròn. Chúng có thể được nhuộm màu, đánh bóng, tẩm paraffine, đục lỗ, có dấu hiệu qua lửa hoặc quét màu. Một số nút lie cứng có phần đầu được làm rộng ra hoặc được bịt kim loại, plastic... Các nút và nắp được dùng như nút đậy cho các đồ chứa đựng kín. Các nút rỗng (hay lie vỏ (shell corks)) được dùng để phủ, ví dụ, các nút bằng thuỷ tinh cho các chai, lọ bằng thuỷ tinh hoặc gốm.', 'Phân nhóm này cũng bao gồm các phôi có thể nhận dạng được cho các nút và nắp đậy, với điều kiện là các gờ của chúng được gọt tròn.', 'Phân nhóm này không bao gồm các đệm tròn bằng lie mỏng được sử dụng như đệm kín trong nắp hình vương miện (phân nhóm 4503.90).', '45.04- Lie kết dính (có hoặc không có chất gắn) và các sản phẩm bằng lie kết dính.', '4504.10 - Dạng khối, tấm, lá và dải; tấm lát ở mọi hình dạng; dạng hình trụ đặc, kể cả dạng đĩa', '4504.90 - Loại khác', 'Lie kết dính được sản xuất bằng cách kết dính lie đã ép, nghiền thành hạt hoặc thành bột thường dưới nhiệt độ và áp suất:', '(1) Với một chất kết dính được thêm vào (ví dụ, cao su không lưu hoá, keo, plastic, hắc ín, gelatin), hoặc', '(2) Không có chất dính được thêm vào ở nhiệt độ khoảng 300°C. Trong trường hợp này, chất gôm tự nhiên chứa trong lie đóng vai trò như chất dính.', 'Lie kết dính của nhóm này có thể được ngâm tẩm (ví dụ, trong dầu), hoặc được gia cố bằng cách bồi thêm giấy hoặc vải với điều kiện nó không mang tính chất của vải sơn lót nhà hoặc vật liệu tương tự được phân loại trong nhóm 59.04.', 'Lie kết dính giữ lại phần lớn các tính chất của lie tự nhiên, và đặc biệt là một vật liệu cách nhiệt hoặc chất cách âm tốt. Nhưng trong nhiều trường hợp, việc thêm các chất kết dính cần thiết sẽ làm biến đổi một số đặc điểm đặc trưng của lie, đặc biệt là tỷ trọng riêng và sức căng hoặc độ bền nén. Hơn nữa, lie kết dính có ưu thế là thích hợp để rập khuôn trực tiếp thành bất cứ kích thước hoặc hình dạng nào.', 'Lie kết dính được sử dụng để làm ra các sản phẩm cùng loại như các sản phẩm đã nêu trong nhóm 45.03 nhưng, trong khi nó hiếm khi được sử dụng để làm nút, nắp đậy, nó được dùng thường xuyên hơn lie tự nhiên để làm đệm tròn lót dưới các nắp chai hình vương miện.', 'Lie kết dính cũng được sử dụng rộng rãi, và hơn so với lie tự nhiên, để sản xuất các vật liệu xây dựng như các panel, khối và gạch, tấm lát và các hình dạng được đúc (hình trụ, vỏ...), để cách ly hoặc bảo vệ các ống dẫn nước nóng hoặc ống dẫn hơi nước nóng, để lót bên trong các ống dẫn xăng dầu, như ống gioăng nối dãn nở trong công nghiệp xây dựng và để sản xuất bộ lọc.', 'Về các sản phẩm bị loại trừ khỏi nhóm này, xem Chú giải chi tiết của nhóm 45.03.', 'Chương 46:', 'Sản phẩm làm từ rơm, cỏ giấy hoặc từ các loại vật liệu tết bện khác; các sản phẩm bằng liễu gai và song mây', 'Chú giải.', '1.- Trong Chương này khái niệm "vật liệu tết bện" dùng để chỉ các loại vật liệu ở trạng thái hoặc hình dạng thích hợp cho việc tết bện hoặc gia công tương tự; kể cả rơm, liễu gai hoặc liễu, tre, song, mây, bấc, sậy, dải gỗ mỏng, dải từ vật liệu gốc thực vật khác (ví dụ, dải vỏ cây, các lá dài hẹp chiều ngang và cây cọ sợi hoặc các dải khác thu được từ các lá to), sợi dệt tự nhiên chưa xe, sợi monofilamen và dải và dạng tương tự bằng plastic và dải giấy, nhưng không bao gồm dải bằng da thuộc hoặc da thuộc tổng hợp hoặc dải bằng nỉ hay sản phẩm không dệt, tóc người, lông đuôi hoặc bờm ngựa, sợi dệt thô hoặc sợi dệt, hoặc sợi monofilament và dải và dạng tương tự thuộc Chương 54.', '2.- Chương này không bao gồm:', '(a) Tấm phủ tường thuộc nhóm 48.14;', '(b) Dây xe, chão bện (cordage), thừng hoặc cáp, đã hoặc chưa tết bện (nhóm 56.07);', '(c) Giầy, dép hoặc mũ và các vật đội đầu khác hoặc các bộ phận của chúng thuộc Chương 64 hoặc 65;', '(d) Xe hoặc thân xe bằng song mây (thuộc Chương 87); hoặc', '(e) Các mặt hàng thuộc Chương 94 (ví dụ, đồ nội thất, các loại đèn (luminaires) và bộ đèn).', '3.- Theo mục đích của nhóm 46.01, khái niệm "vật liệu tết bện, dây bện và các sản phẩm tương tự bằng vật liệu tết bện, đã kết lại với nhau thành các tao dây song song" dùng để chỉ các vật liệu tết bện, các dây bện và các sản phẩm tương tự bằng vật liệu tết bện, đã được xếp kề cạnh và liên kết với nhau, thành dạng tấm, có hoặc không có vật liệu kết nối là vật liệu dệt đã xe.', 'TỔNG QUÁT', 'Ngoài các sản phẩm từ cây mướp (loofah), Chương này bao gồm các mặt hàng bán thành phẩm (nhóm 46.01) và một số mặt hàng (các nhóm 46.01 và 46.02) thu được từ việc bện, dệt hoặc bằng các phương pháp lắp ghép các vật liệu không se tương tự, cụ thể là:', '(1) Rơm, liễu gai, tre, sậy, song mây, bấc, nan gỗ (tức là, gỗ ở dạng dải mỏng), sợi dây gỗ, các dải bằng vật liệu thực vật khác (ví dụ, dải vỏ gỗ, lá hẹp và cọ sợi hoặc các dải khác từ lá to chẳng hạn như của lá cây chuối hoặc của cây cọ), với điều kiện chúng ở trạng thái hoặc hình thức phù hợp để tết, bện, hoặc quá trình tương tự.', '(2) Các sợi dệt tự nhiên không se.', '(3) Sợi monofilament và dải và các dạng tương tự bằng plastic thuộc Chương 39 (nhưng không phải sợi monofilament mà có kích thước mặt cắt ngang nhỏ hơn hoặc bằng 1mm và cũng không phải là dải hoặc các dạng tương tự có độ rộng biểu kiến nhỏ hơn hoặc bằng 5mm, bằng vật liệu dệt nhân tạo, thuộc Chương 54).', '(4) Các dải giấy (kể cả giấy được bọc bằng plastic).', '(5) Một số vật liệu bao gồm một lõi bằng chất liệu dệt (sợi không se, dải bện...) được bọc hoặc phủ bằng dải plastic, hoặc được tráng dày bằng plastic để sản phẩm không còn mang đặc tính của sợi, của dải bện... tạo thành lõi.', 'Một số các sản phẩm từ các nguyên liệu này, đặc biệt là các sản phẩm từ thực vật, có thể được chế biến (ví dụ, bằng cách chẻ, kéo dài ra, bóc vỏ v.v... hoặc đã được ngâm tẩm bằng sáp, glycerol v.v...) để phù hợp hơn cho việc tết, bện hoặc quá trình tương tự.', 'Theo mục đích của Chương này, các vật liệu sau đây không được xem như các chất liệu để tết bện và các mặt hàng hoặc sản phẩm được làm từ các vật liệu này bị loại trừ khỏi Chương này:', '(i) Lông bờm ngựa, lông đuôi ngựa (nhóm 05.11 hoặc phần XI).', '(ii) Sợi monofilament mà không có kích thước mặt cắt ngang trên 1mm, hoặc dải hoặc ống dẹt (kể cả dải và ống dẹt được gấp dọc theo chiều dài), đã hoặc chưa được ép, nén hoặc xoắn (rơm nhân tạo và các loại tương tự), bằng vật liệu dệt nhân tạo, với điều kiện là chiều rộng biểu kiến (tức là, ở dạng gấp nếp, làm dẹt, ép hoặc xoắn) không vượt quá 5mm (phần XI).', '(iii) Sợi dệt thô (ngoại trừ khi được bao bọc hoàn toàn bằng plastic như được mô tả ở đoạn (5) nêu trên) (Phần XI).', '(iv) Sợi dệt được ngâm tẩm, tráng, bao phủ hoặc viền quanh bằng plastic (Phần XI).', '(v) Dải bằng da thuộc hoặc da thuộc tổng hợp (thường thuộc Chương 41 hoặc 42) hoặc bằng nỉ hoặc vải không dệt (Phần XI) hoặc tóc người (Chương 5, 59, 65 hoặc 67).', 'Ngoài ra, Chương này không bao gồm:', '(a) Yên cương và bộ yên cương (nhóm 42.01).', '(b) Các sản phẩm hoặc mặt hàng bằng tre, thuộc Chương 44.', '(c) Giấy dán tường thuộc nhóm 48.14.', '(d) Dây xe, chão bện (cordage), thừng hoặc cáp, ngay cả khi đã tết bện hoặc bằng sợi chưa se (nhóm 56.07).', '(e) Vải khổ hẹp chỉ có sợi dọc không có sợi ngang liên kết với nhau bằng chất kết dính (bolduc) (nhóm 58.06).', '(f) Giày dép và các bộ phận của chúng thuộc Chương 64.', '(g) Đồ đội đầu và các bộ phận của chúng, kể cả các dạng hình mũ, thuộc Chương 65.', '(h) Roi (nhóm 66.02)', '(ij) Hoa nhân tạo (nhóm 67.02)', '(k) Xe hoặc thân xe bằng song mây (Chương 87)', '(l) Các mặt hàng của Chương 94 (ví dụ, đồ nội thất, đèn và bộ đèn).', '(m) Các mặt hàng của Chương 95 (chẳng hạn đồ chơi, thiết bị trò chơi, dụng cụ, thiết bị thể thao).', '(n) Chổi quét và bàn chải (nhóm 96.03) hoặc manacanh dùng trong ngành may, ...(nhóm 96.18).', '46.01- Dây tết bện và các sản phẩm tương tự làm bằng vật liệu tết bện, đã hoặc chưa ghép thành dải; các vật liệu tết bện, các dây bện và các sản phẩm tương tự bằng vật liệu tết bện, đã kết lại với nhau trong các tao dây song song hoặc đã được dệt, ở dạng tấm, có hay không ở dạng thành phẩm (ví dụ, chiếu, thảm, mành).', '- Chiếu, thảm và mành bằng vật liệu thực vật:', '4601.21 - - Từ tre', '4601.22 - - Từ song mây', '4601.29 - - Loại khác', '- Loại khác:', '4601.92 - - Từ tre', '4601.93 - - Từ song mây', '4601.94 - - Từ vật liệu thực vật khác', '4601.99 - - Loại khác', '(A) Dây tết bện và các sản phẩm tương tự làm bằng các vật liệu tết bện, đã hoặc chưa kết lại thành dải.', 'Nhóm này bao gồm:', '(1) Dây tết bện. Loại này bao gồm các tao dây bằng vật liệu tết bện, không có sợi dọc hoặc sợi ngang, được kết lại hoặc bằng tay hoặc bằng máy theo chiều dài chung. Bằng cách thay đổi tính chất, màu sắc, độ dày và số lượng tao dây, và cách tết bện, người ta có thể thu được các hiệu quả trang trí khác nhau.', 'Các dây tết bện thuộc loại này có thể được nối sát bên nhau và được kết lại thành các dải rộng hơn bằng cách khâu may...', '(2) Các sản phẩm tương tự dây tết bện tức là chúng có cùng cách sử dụng hoặc cách sử dụng tương tự như dây tết bện, và mặc dù chúng thu được từ cách khác với cách tết bện, chúng cũng được tạo ra ở dạng giống dây da theo chiều dài, dạng dải... từ vật liệu tết bện. Chúng bao gồm:', '(a) Các sản phẩm được làm từ hai hoặc nhiều tao dây bằng cách xoắn lại với nhau, nối với nhau hoặc kết lại cách khác (trừ các họa tiết trang trí thuộc nhóm 46.02).', '(b) Các sản phẩm (ví dụ, chúng được biết với tên thương mại là “thừng Trung Hoa”) bao gồm một loại thừng làm từ nguyên liệu thực vật không tước xơ, được kết lại đơn giản bằng cách xoắn.', 'Các sản phẩm ở trên được sử dụng chủ yếu vào việc sản xuất trang phục nữ, nhưng cũng được sử dụng trong sản xuất đồ nội thất, giày dép, thảm, giỏ hoặc các đồ đựng khác.', 'Các sản phẩm của nhóm này có thể chứa các sợi dệt se phục vụ chủ yếu để kết nối hoặc để tăng cường, dù có hoặc không có tác dụng trang trí bổ sung.', '(B) Các vật liệu tết bện, dây tết bện và các sản phẩm tương tự bằng vật liệu tết bện, đã kết lại với nhau thành các tao dây song song hoặc đã được dệt, thành tấm, ở dạng thành phẩm hoặc chưa (ví dụ, chiếu, thảm, mành).', 'Các sản phẩm của nhóm này thu được hoặc trực tiếp từ các vật liệu tết bện đã được xác định trong Chú giải tổng quát của Chương này hoặc từ các dây tết bện hoặc các sản phẩm tương tự bằng vật liệu tết bện được mô tả ở Phần (A) trên đây.', 'Những sản phẩm thu được trực tiếp từ các vật liệu tết bện, hoặc được hình thành từ các tao dây được dệt với nhau, thường theo cách sử dụng sợi ngang và sợi dọc, hoặc được sản xuất từ các tao dây song song đặt sát nhau và được giữ ở vị trí thành tấm nhờ các sợi dây vắt ngang qua hoặc chúng được cố định nhờ các tao dây song song liên tiếp.', 'Các mặt hàng dệt có thể chứa toàn bộ vật liệu tết bện, hoặc có thể gồm một sợi dọc của vật liệu tết bện và một sợi ngang của sợi dệt, hoặc ngược lại, với điều kiện là chức năng duy nhất của sợi dệt (ngoài việc tạo màu sắc một cách ngẫu nhiên) là để gắn kết các vật tết bện.', 'Tương tự, trong trường hợp các mặt hàng được sản xuất bởi sự gắn kết các tao dây song song của vật liệu dệt, thì chất gắn kết có thể là vật liệu tết bện, chỉ dệt hoặc một vài vật liệu khác.', 'Các quá trình tương tự của việc gắn kết hoặc của việc dệt cũng được sử dụng để sản xuất các mặt hàng ở dạng tấm từ những dây tết, bện hoặc các sản phẩm tương tự từ vật liệu tết bện như đã mô tả ở Phần (A) ở trên.', 'Các sản phẩm của nhóm này, có thể được gia cố hoặc được bồi hoặc được lót bằng vải dệt hoặc bằng giấy, gồm có:', '(1) Các mặt hàng bán thành phẩm như là vải sợi cọ, hàng mây và các loại vải tương tự; và các sản phẩm mịn hơn được làm thành miếng nhỏ ở dạng ghép chồng hoặc dải dùng cho đồ trang phục nữ, vải bọc ghế...', '(2) Một số sản phẩm hoàn chỉnh, ví dụ:', '(a) Chiếu và thảm (phủ sàn,...), bao gồm cụ thể cả chiếu và thảm kiểu Trung Quốc (hoặc Ấn Độ) (có hình chữ nhật hoặc hình khác), làm bằng cách dệt hoặc bằng cách ghép lại các tao dây song song bằng vật liệu tết bện (hoặc các sợi tết bện hoặc các sản phẩm tương tự bằng vật liệu tết bện) với các vật liệu tết bện khác, sợi xe, dây thừng...', '(b) Thảm thô chẳng hạn như thảm rơm được dùng cho trồng trọt.', '(c) Mành hoặc panel như là loại bằng liễu gai; panel xây dựng bằng vật liệu tết bện hoặc bằng các dây bện hoặc các sản phẩm tương tự bằng vật liệu tết bện (rơm rạ, sậy...) đặt song song, ép lại hoặc kết nối với nhau theo một khoảng đều nhau bằng dây kim loại cơ bản. Các panel hoặc tấm xây dựng này có thể được phủ toàn bộ bề mặt hoặc các cạnh bằng bìa kraft.', 'Nhóm này loại trừ thảm và chiếu bằng xơ dừa hoặc bằng sợi sisal hoặc các loại thảm tương tự có thành phần cơ bản là chão bện (cordage) hoặc vải dệt thoi (Chương 57).', '46.02- Hàng mây tre, liễu gai và các mặt hàng khác, làm trực tiếp từ vật liệu tết bện hoặc làm từ các mặt hàng thuộc nhóm 46.01; các sản phẩm từ cây họ mướp.', '- Bằng vật liệu thực vật:', '4602.11 - - Từ tre', '4602.12 - - Từ song mây', '4602.19 - - Loại khác', '4602.90 - Loại khác', 'Căn cứ vào giới hạn quy định được nêu trong Chú giải tổng quát của Chương này, nhóm này bao gồm:', '(i) các sản phẩm được làm trực tiếp thành hình dạng từ vật liệu tết bện;', '(ii) các mặt hàng được làm từ các sản phẩm đã được ráp lại của nhóm 46.01, tức là, từ các sợi tết bện hoặc các mặt hàng tương tự, hoặc từ các sản phẩm được liên kết với nhau bởi các tao dây song song hoặc được dệt thành dạng tấm.', 'Tuy nhiên, nhóm này không bao gồm các sản phẩm hoàn chỉnh của nhóm 46.01, tức là, các vật liệu tết bện, các sợi tết bện và các mặt hàng tương tự bằng vật liệu tết bện, chúng có đặc tính của các mặt hàng hoàn chỉnh bởi vì chúng được kết lại với nhau thành các tao dây song song hoặc được dệt, ở dạng tấm (ví dụ, chiếu, thảm hoặc mành): xem Chú giải chi tiết nhóm 46.01, đoạn (B) (2); và', '(iii) Các mặt hàng từ cây mướp (găng tay, tấm lót...) được lót hoặc không.', 'Những mặt hàng như vậy bao gồm:', '(1) Rổ, thúng, sọt, giỏ, hòm mây và các đồ chứa đựng bằng liễu gai của tất cả các loại, có hoặc không lắp con lăn hoặc bánh xe, kể cả rổ cá, giỏ đựng cá và rổ đựng trái cây.', '(2) Rổ hoặc hộp tương tự bằng nan gỗ đã được bện lại. Nhưng rổ, thúng từ nan gỗ chưa được bện thì bị loại trừ (nhóm 44.15).', '(3) Va-li và hòm, túi du lịch.', '(4) Túi xách tay, túi mua hàng và các sản phẩm tương tự.', '(5) Giỏ bắt tôm hùm và các sản phẩm tương tự; lồng chim và tổ ong.', '(6) Khay, giá để rượu, cái đập thảm, bộ đồ ăn, bộ đồ bếp và các mặt hàng gia dụng khác.', '(7) Một số họa tiết cho trang phục nữ và các mặt hàng thị hiếu khác, trừ các mặt hàng của nhóm 67.02.', '(8) Bọc ngoài bằng rơm dùng cho chai. Các sản phẩm này hầu hết ở dạng hình nón rỗng bằng rơm thô hoặc bằng các vật liệu tương tự xếp song song không bằng phẳng và được buộc với nhau bằng dây sợi hoặc dây thừng.', '(9) Thảm được sản xuất bằng cách tập hợp các sợi bện dài kết thành hình vuông, hình tròn... và nối lại với nhau bằng sợi xe.', 'PHẦN X:', 'BỘT GIẤY TỪ GỖ HOẶC TỪ NGUYÊN LIỆU XƠ SỢI XENLULO KHÁC; GIẤY LOẠI HOẶC BÌA LOẠI THU HỒI (PHẾ LIỆU VÀ VỤN THỪA); GIẤY VÀ BÌA VÀ CÁC SẢN PHẨM CỦA CHÚNG', 'Chương 47:', 'Bột giấy từ gỗ hoặc từ nguyên liệu xơ xenlulo khác; giấy loại hoặc bìa loại thu hồi (phế liệu và vụn thừa)', 'Chú giải.', '1.- Theo mục đích của nhóm 47.02, khái niệm "bột giấy hoá học từ gỗ, loại hoà tan" có nghĩa là bột giấy hoá học từ gỗ có hàm lượng phần không hoà tan từ 92% trở lên đối với bột giấy sản xuất bằng phương pháp sulphat hoặc kiềm hoặc 88% trở lên đối với bột giấy sản xuất bằng phương pháp sulphit sau khi ngâm một giờ trong dung dịch natri hydroxit (NaOH) nồng độ 18% ở nhiệt độ 20°C, và đối với bột giấy sản xuất bằng phương pháp sulphit hàm lượng tro không được lớn hơn 0,15% tính theo khối lượng.']</t>
+  </si>
+  <si>
+    <t>['Chú giải.', '1.- Trong Chương này khái niệm "vật liệu tết bện" dùng để chỉ các loại vật liệu ở trạng thái hoặc hình dạng thích hợp cho việc tết bện hoặc gia công tương tự; kể cả rơm, liễu gai hoặc liễu, tre, song, mây, bấc, sậy, dải gỗ mỏng, dải từ vật liệu gốc thực vật khác (ví dụ, dải vỏ cây, các lá dài hẹp chiều ngang và cây cọ sợi hoặc các dải khác thu được từ các lá to), sợi dệt tự nhiên chưa xe, sợi monofilamen và dải và dạng tương tự bằng plastic và dải giấy, nhưng không bao gồm dải bằng da thuộc hoặc da thuộc tổng hợp hoặc dải bằng nỉ hay sản phẩm không dệt, tóc người, lông đuôi hoặc bờm ngựa, sợi dệt thô hoặc sợi dệt, hoặc sợi monofilament và dải và dạng tương tự thuộc Chương 54.', '2.- Chương này không bao gồm:', '(a) Tấm phủ tường thuộc nhóm 48.14;', '(b) Dây xe, chão bện (cordage), thừng hoặc cáp, đã hoặc chưa tết bện (nhóm 56.07);', '(c) Giầy, dép hoặc mũ và các vật đội đầu khác hoặc các bộ phận của chúng thuộc Chương 64 hoặc 65;', '(d) Xe hoặc thân xe bằng song mây (thuộc Chương 87); hoặc', '(e) Các mặt hàng thuộc Chương 94 (ví dụ, đồ nội thất, các loại đèn (luminaires) và bộ đèn).', '3.- Theo mục đích của nhóm 46.01, khái niệm "vật liệu tết bện, dây bện và các sản phẩm tương tự bằng vật liệu tết bện, đã kết lại với nhau thành các tao dây song song" dùng để chỉ các vật liệu tết bện, các dây bện và các sản phẩm tương tự bằng vật liệu tết bện, đã được xếp kề cạnh và liên kết với nhau, thành dạng tấm, có hoặc không có vật liệu kết nối là vật liệu dệt đã xe.', 'TỔNG QUÁT', 'Ngoài các sản phẩm từ cây mướp (loofah), Chương này bao gồm các mặt hàng bán thành phẩm (nhóm 46.01) và một số mặt hàng (các nhóm 46.01 và 46.02) thu được từ việc bện, dệt hoặc bằng các phương pháp lắp ghép các vật liệu không se tương tự, cụ thể là:', '(1) Rơm, liễu gai, tre, sậy, song mây, bấc, nan gỗ (tức là, gỗ ở dạng dải mỏng), sợi dây gỗ, các dải bằng vật liệu thực vật khác (ví dụ, dải vỏ gỗ, lá hẹp và cọ sợi hoặc các dải khác từ lá to chẳng hạn như của lá cây chuối hoặc của cây cọ), với điều kiện chúng ở trạng thái hoặc hình thức phù hợp để tết, bện, hoặc quá trình tương tự.', '(2) Các sợi dệt tự nhiên không se.', '(3) Sợi monofilament và dải và các dạng tương tự bằng plastic thuộc Chương 39 (nhưng không phải sợi monofilament mà có kích thước mặt cắt ngang nhỏ hơn hoặc bằng 1mm và cũng không phải là dải hoặc các dạng tương tự có độ rộng biểu kiến nhỏ hơn hoặc bằng 5mm, bằng vật liệu dệt nhân tạo, thuộc Chương 54).', '(4) Các dải giấy (kể cả giấy được bọc bằng plastic).', '(5) Một số vật liệu bao gồm một lõi bằng chất liệu dệt (sợi không se, dải bện...) được bọc hoặc phủ bằng dải plastic, hoặc được tráng dày bằng plastic để sản phẩm không còn mang đặc tính của sợi, của dải bện... tạo thành lõi.', 'Một số các sản phẩm từ các nguyên liệu này, đặc biệt là các sản phẩm từ thực vật, có thể được chế biến (ví dụ, bằng cách chẻ, kéo dài ra, bóc vỏ v.v... hoặc đã được ngâm tẩm bằng sáp, glycerol v.v...) để phù hợp hơn cho việc tết, bện hoặc quá trình tương tự.', 'Theo mục đích của Chương này, các vật liệu sau đây không được xem như các chất liệu để tết bện và các mặt hàng hoặc sản phẩm được làm từ các vật liệu này bị loại trừ khỏi Chương này:', '(i) Lông bờm ngựa, lông đuôi ngựa (nhóm 05.11 hoặc phần XI).', '(ii) Sợi monofilament mà không có kích thước mặt cắt ngang trên 1mm, hoặc dải hoặc ống dẹt (kể cả dải và ống dẹt được gấp dọc theo chiều dài), đã hoặc chưa được ép, nén hoặc xoắn (rơm nhân tạo và các loại tương tự), bằng vật liệu dệt nhân tạo, với điều kiện là chiều rộng biểu kiến (tức là, ở dạng gấp nếp, làm dẹt, ép hoặc xoắn) không vượt quá 5mm (phần XI).', '(iii) Sợi dệt thô (ngoại trừ khi được bao bọc hoàn toàn bằng plastic như được mô tả ở đoạn (5) nêu trên) (Phần XI).', '(iv) Sợi dệt được ngâm tẩm, tráng, bao phủ hoặc viền quanh bằng plastic (Phần XI).', '(v) Dải bằng da thuộc hoặc da thuộc tổng hợp (thường thuộc Chương 41 hoặc 42) hoặc bằng nỉ hoặc vải không dệt (Phần XI) hoặc tóc người (Chương 5, 59, 65 hoặc 67).', 'Ngoài ra, Chương này không bao gồm:', '(a) Yên cương và bộ yên cương (nhóm 42.01).', '(b) Các sản phẩm hoặc mặt hàng bằng tre, thuộc Chương 44.', '(c) Giấy dán tường thuộc nhóm 48.14.', '(d) Dây xe, chão bện (cordage), thừng hoặc cáp, ngay cả khi đã tết bện hoặc bằng sợi chưa se (nhóm 56.07).', '(e) Vải khổ hẹp chỉ có sợi dọc không có sợi ngang liên kết với nhau bằng chất kết dính (bolduc) (nhóm 58.06).', '(f) Giày dép và các bộ phận của chúng thuộc Chương 64.', '(g) Đồ đội đầu và các bộ phận của chúng, kể cả các dạng hình mũ, thuộc Chương 65.', '(h) Roi (nhóm 66.02)', '(ij) Hoa nhân tạo (nhóm 67.02)', '(k) Xe hoặc thân xe bằng song mây (Chương 87)', '(l) Các mặt hàng của Chương 94 (ví dụ, đồ nội thất, đèn và bộ đèn).', '(m) Các mặt hàng của Chương 95 (chẳng hạn đồ chơi, thiết bị trò chơi, dụng cụ, thiết bị thể thao).', '(n) Chổi quét và bàn chải (nhóm 96.03) hoặc manacanh dùng trong ngành may, ...(nhóm 96.18).', '46.01- Dây tết bện và các sản phẩm tương tự làm bằng vật liệu tết bện, đã hoặc chưa ghép thành dải; các vật liệu tết bện, các dây bện và các sản phẩm tương tự bằng vật liệu tết bện, đã kết lại với nhau trong các tao dây song song hoặc đã được dệt, ở dạng tấm, có hay không ở dạng thành phẩm (ví dụ, chiếu, thảm, mành).', '- Chiếu, thảm và mành bằng vật liệu thực vật:', '4601.21 - - Từ tre', '4601.22 - - Từ song mây', '4601.29 - - Loại khác', '- Loại khác:', '4601.92 - - Từ tre', '4601.93 - - Từ song mây', '4601.94 - - Từ vật liệu thực vật khác', '4601.99 - - Loại khác', '(A) Dây tết bện và các sản phẩm tương tự làm bằng các vật liệu tết bện, đã hoặc chưa kết lại thành dải.', 'Nhóm này bao gồm:', '(1) Dây tết bện. Loại này bao gồm các tao dây bằng vật liệu tết bện, không có sợi dọc hoặc sợi ngang, được kết lại hoặc bằng tay hoặc bằng máy theo chiều dài chung. Bằng cách thay đổi tính chất, màu sắc, độ dày và số lượng tao dây, và cách tết bện, người ta có thể thu được các hiệu quả trang trí khác nhau.', 'Các dây tết bện thuộc loại này có thể được nối sát bên nhau và được kết lại thành các dải rộng hơn bằng cách khâu may...', '(2) Các sản phẩm tương tự dây tết bện tức là chúng có cùng cách sử dụng hoặc cách sử dụng tương tự như dây tết bện, và mặc dù chúng thu được từ cách khác với cách tết bện, chúng cũng được tạo ra ở dạng giống dây da theo chiều dài, dạng dải... từ vật liệu tết bện. Chúng bao gồm:', '(a) Các sản phẩm được làm từ hai hoặc nhiều tao dây bằng cách xoắn lại với nhau, nối với nhau hoặc kết lại cách khác (trừ các họa tiết trang trí thuộc nhóm 46.02).', '(b) Các sản phẩm (ví dụ, chúng được biết với tên thương mại là “thừng Trung Hoa”) bao gồm một loại thừng làm từ nguyên liệu thực vật không tước xơ, được kết lại đơn giản bằng cách xoắn.', 'Các sản phẩm ở trên được sử dụng chủ yếu vào việc sản xuất trang phục nữ, nhưng cũng được sử dụng trong sản xuất đồ nội thất, giày dép, thảm, giỏ hoặc các đồ đựng khác.', 'Các sản phẩm của nhóm này có thể chứa các sợi dệt se phục vụ chủ yếu để kết nối hoặc để tăng cường, dù có hoặc không có tác dụng trang trí bổ sung.', '(B) Các vật liệu tết bện, dây tết bện và các sản phẩm tương tự bằng vật liệu tết bện, đã kết lại với nhau thành các tao dây song song hoặc đã được dệt, thành tấm, ở dạng thành phẩm hoặc chưa (ví dụ, chiếu, thảm, mành).', 'Các sản phẩm của nhóm này thu được hoặc trực tiếp từ các vật liệu tết bện đã được xác định trong Chú giải tổng quát của Chương này hoặc từ các dây tết bện hoặc các sản phẩm tương tự bằng vật liệu tết bện được mô tả ở Phần (A) trên đây.', 'Những sản phẩm thu được trực tiếp từ các vật liệu tết bện, hoặc được hình thành từ các tao dây được dệt với nhau, thường theo cách sử dụng sợi ngang và sợi dọc, hoặc được sản xuất từ các tao dây song song đặt sát nhau và được giữ ở vị trí thành tấm nhờ các sợi dây vắt ngang qua hoặc chúng được cố định nhờ các tao dây song song liên tiếp.', 'Các mặt hàng dệt có thể chứa toàn bộ vật liệu tết bện, hoặc có thể gồm một sợi dọc của vật liệu tết bện và một sợi ngang của sợi dệt, hoặc ngược lại, với điều kiện là chức năng duy nhất của sợi dệt (ngoài việc tạo màu sắc một cách ngẫu nhiên) là để gắn kết các vật tết bện.', 'Tương tự, trong trường hợp các mặt hàng được sản xuất bởi sự gắn kết các tao dây song song của vật liệu dệt, thì chất gắn kết có thể là vật liệu tết bện, chỉ dệt hoặc một vài vật liệu khác.', 'Các quá trình tương tự của việc gắn kết hoặc của việc dệt cũng được sử dụng để sản xuất các mặt hàng ở dạng tấm từ những dây tết, bện hoặc các sản phẩm tương tự từ vật liệu tết bện như đã mô tả ở Phần (A) ở trên.', 'Các sản phẩm của nhóm này, có thể được gia cố hoặc được bồi hoặc được lót bằng vải dệt hoặc bằng giấy, gồm có:', '(1) Các mặt hàng bán thành phẩm như là vải sợi cọ, hàng mây và các loại vải tương tự; và các sản phẩm mịn hơn được làm thành miếng nhỏ ở dạng ghép chồng hoặc dải dùng cho đồ trang phục nữ, vải bọc ghế...', '(2) Một số sản phẩm hoàn chỉnh, ví dụ:', '(a) Chiếu và thảm (phủ sàn,...), bao gồm cụ thể cả chiếu và thảm kiểu Trung Quốc (hoặc Ấn Độ) (có hình chữ nhật hoặc hình khác), làm bằng cách dệt hoặc bằng cách ghép lại các tao dây song song bằng vật liệu tết bện (hoặc các sợi tết bện hoặc các sản phẩm tương tự bằng vật liệu tết bện) với các vật liệu tết bện khác, sợi xe, dây thừng...', '(b) Thảm thô chẳng hạn như thảm rơm được dùng cho trồng trọt.', '(c) Mành hoặc panel như là loại bằng liễu gai; panel xây dựng bằng vật liệu tết bện hoặc bằng các dây bện hoặc các sản phẩm tương tự bằng vật liệu tết bện (rơm rạ, sậy...) đặt song song, ép lại hoặc kết nối với nhau theo một khoảng đều nhau bằng dây kim loại cơ bản. Các panel hoặc tấm xây dựng này có thể được phủ toàn bộ bề mặt hoặc các cạnh bằng bìa kraft.', 'Nhóm này loại trừ thảm và chiếu bằng xơ dừa hoặc bằng sợi sisal hoặc các loại thảm tương tự có thành phần cơ bản là chão bện (cordage) hoặc vải dệt thoi (Chương 57).', '46.02- Hàng mây tre, liễu gai và các mặt hàng khác, làm trực tiếp từ vật liệu tết bện hoặc làm từ các mặt hàng thuộc nhóm 46.01; các sản phẩm từ cây họ mướp.', '- Bằng vật liệu thực vật:', '4602.11 - - Từ tre', '4602.12 - - Từ song mây', '4602.19 - - Loại khác', '4602.90 - Loại khác', 'Căn cứ vào giới hạn quy định được nêu trong Chú giải tổng quát của Chương này, nhóm này bao gồm:', '(i) các sản phẩm được làm trực tiếp thành hình dạng từ vật liệu tết bện;', '(ii) các mặt hàng được làm từ các sản phẩm đã được ráp lại của nhóm 46.01, tức là, từ các sợi tết bện hoặc các mặt hàng tương tự, hoặc từ các sản phẩm được liên kết với nhau bởi các tao dây song song hoặc được dệt thành dạng tấm.', 'Tuy nhiên, nhóm này không bao gồm các sản phẩm hoàn chỉnh của nhóm 46.01, tức là, các vật liệu tết bện, các sợi tết bện và các mặt hàng tương tự bằng vật liệu tết bện, chúng có đặc tính của các mặt hàng hoàn chỉnh bởi vì chúng được kết lại với nhau thành các tao dây song song hoặc được dệt, ở dạng tấm (ví dụ, chiếu, thảm hoặc mành): xem Chú giải chi tiết nhóm 46.01, đoạn (B) (2); và', '(iii) Các mặt hàng từ cây mướp (găng tay, tấm lót...) được lót hoặc không.', 'Những mặt hàng như vậy bao gồm:', '(1) Rổ, thúng, sọt, giỏ, hòm mây và các đồ chứa đựng bằng liễu gai của tất cả các loại, có hoặc không lắp con lăn hoặc bánh xe, kể cả rổ cá, giỏ đựng cá và rổ đựng trái cây.', '(2) Rổ hoặc hộp tương tự bằng nan gỗ đã được bện lại. Nhưng rổ, thúng từ nan gỗ chưa được bện thì bị loại trừ (nhóm 44.15).', '(3) Va-li và hòm, túi du lịch.', '(4) Túi xách tay, túi mua hàng và các sản phẩm tương tự.', '(5) Giỏ bắt tôm hùm và các sản phẩm tương tự; lồng chim và tổ ong.', '(6) Khay, giá để rượu, cái đập thảm, bộ đồ ăn, bộ đồ bếp và các mặt hàng gia dụng khác.', '(7) Một số họa tiết cho trang phục nữ và các mặt hàng thị hiếu khác, trừ các mặt hàng của nhóm 67.02.', '(8) Bọc ngoài bằng rơm dùng cho chai. Các sản phẩm này hầu hết ở dạng hình nón rỗng bằng rơm thô hoặc bằng các vật liệu tương tự xếp song song không bằng phẳng và được buộc với nhau bằng dây sợi hoặc dây thừng.', '(9) Thảm được sản xuất bằng cách tập hợp các sợi bện dài kết thành hình vuông, hình tròn... và nối lại với nhau bằng sợi xe.', 'PHẦN X:', 'BỘT GIẤY TỪ GỖ HOẶC TỪ NGUYÊN LIỆU XƠ SỢI XENLULO KHÁC; GIẤY LOẠI HOẶC BÌA LOẠI THU HỒI (PHẾ LIỆU VÀ VỤN THỪA); GIẤY VÀ BÌA VÀ CÁC SẢN PHẨM CỦA CHÚNG', 'Chương 47:', 'Bột giấy từ gỗ hoặc từ nguyên liệu xơ xenlulo khác; giấy loại hoặc bìa loại thu hồi (phế liệu và vụn thừa)', 'Chú giải.', '1.- Theo mục đích của nhóm 47.02, khái niệm "bột giấy hoá học từ gỗ, loại hoà tan" có nghĩa là bột giấy hoá học từ gỗ có hàm lượng phần không hoà tan từ 92% trở lên đối với bột giấy sản xuất bằng phương pháp sulphat hoặc kiềm hoặc 88% trở lên đối với bột giấy sản xuất bằng phương pháp sulphit sau khi ngâm một giờ trong dung dịch natri hydroxit (NaOH) nồng độ 18% ở nhiệt độ 20°C, và đối với bột giấy sản xuất bằng phương pháp sulphit hàm lượng tro không được lớn hơn 0,15% tính theo khối lượng.']</t>
   </si>
   <si>
     <t>['Chú giải.', '1.- Theo mục đích của nhóm 47.02, khái niệm "bột giấy hoá học từ gỗ, loại hoà tan" có nghĩa là bột giấy hoá học từ gỗ có hàm lượng phần không hoà tan từ 92% trở lên đối với bột giấy sản xuất bằng phương pháp sulphat hoặc kiềm hoặc 88% trở lên đối với bột giấy sản xuất bằng phương pháp sulphit sau khi ngâm một giờ trong dung dịch natri hydroxit (NaOH) nồng độ 18% ở nhiệt độ 20°C, và đối với bột giấy sản xuất bằng phương pháp sulphit hàm lượng tro không được lớn hơn 0,15% tính theo khối lượng.']</t>
@@ -781,7 +781,7 @@
     <t>['Chú giải.', '1.- Chương này không áp dụng cho các loại vải dệt nêu trong Chú giải 1 của Chương 59, đã ngâm tẩm, tráng, phủ hoặc ép lớp, hoặc những mặt hàng khác thuộc Chương 59.', '2.- Nhóm 58.01 cũng bao gồm các loại vải dệt thoi có sợi ngang nổi vòng, chưa được cắt phần nổi, ở trạng thái này chúng không có vòng lông dựng.', '3.- Theo mục đích của nhóm 58.03, vải “dệt quấn” (gauze) là loại vải có sợi dọc gồm toàn bộ hoặc một phần của sợi dựng hoặc sợi nền và sợi cuốn cả vòng hoặc nửa vòng đi bắt chéo qua sợi dựng hoặc sợi nền tạo thành nửa vòng, một vòng hoàn chỉnh hoặc nhiều hơn để tạo thành các vòng sợi cho sợi ngang đi qua.', '4.- Nhóm 58.04 không áp dụng cho vải lưới thắt nút từ dây xe, chão bện (cordage) hoặc thừng, thuộc nhóm 56.08.', '5.- Theo mục đích của nhóm 58.06, khái niệm “vải dệt thoi khổ hẹp” là:', '(a) Vải dệt thoi có khổ rộng không quá 30 cm, hoặc được dệt sẵn như thế hoặc được cắt từ những tấm rộng hơn, với điều kiện đã tạo biên ở hai mép (dệt thoi, gắn keo hoặc bằng cách khác);', '(b) Vải dệt thoi dạng ống có chiều rộng khi trải phẳng không quá 30 cm; và', '(c) Vải cắt xiên với các mép gấp, có chiều rộng khi chưa gấp mép không quá 30 cm.', 'Vải dệt thoi khổ hẹp có tua viền được phân loại vào nhóm 58.08.', '6.- Trong nhóm 58.10, không kể những đề cập khác, khái niệm “hàng thêu” là hàng thêu bằng chỉ kim loại hoặc chỉ thủy tinh trên vải lộ nền, và hàng được khâu đính trang trí sequin, hạt hoặc các mẫu trang trí bằng vật liệu dệt hoặc vật liệu khác. Nhóm này không bao gồm loại thảm trang trí thêu tay (nhóm 58.05).', '7.- Ngoài các sản phẩm của nhóm 58.09, Chương này cũng bao gồm các mặt hàng làm từ sợi kim loại và loại làm trang trí như các loại vải dùng cho nội thất hoặc dùng cho các mục đích tương tự.']</t>
   </si>
   <si>
-    <t>['Chú giải.', '1. Trừ khi có yêu cầu khác, theo mục đích của Chương này khái niệm "vải dệt" chỉ áp dụng đối với vải dệt thoi thuộc các Chương từ 50 đến 55 và các nhóm 58.03 và 58.06, dải bện và dải, mảnh trang trí dạng chiếc thuộc nhóm 58.08 và vải dệt kim hoặc móc thuộc nhóm 60.02 đến 60.06.', '2. Nhóm 59.03 áp dụng đối với:', '(a) Các loại vải dệt, đã ngâm tẩm, tráng, phủ hoặc ép với plastic, bất kể khối lượng tính trên 1m2 và bất kể tính chất của vật liệu plastic (đặc hoặc xốp), trừ:', '(1) Vải trong đó chất ngâm tẩm, tráng hoặc phủ không thể nhìn được bằng mắt thường (thường ở các Chương từ 50 đến 55, 58 hoặc 60); theo mục đích của phần này, không cần quan tâm đến sự thay đổi về màu sắc;', '(2) Các sản phẩm không thể được quấn bằng tay quanh một trục tròn có đường kính 7mm, ở nhiệt độ từ 15°C đến 30°C mà không bị nứt vỡ (thường thuộc Chương 39);', '(3) Các sản phẩm trong đó vải dệt hoặc được bọc hoàn toàn bằng plastic hoặc được tráng hoặc phủ cả hai mặt bằng vật liệu đó, miễn là việc tráng hoặc phủ có thể nhìn được bằng mắt thường mà không cần quan tâm đến sự thay đổi về màu sắc (Chương 39);', '(4) Vải được tráng hoặc phủ từng phần bằng plastic và có họa tiết do việc xử lí đó tạo nên (thường gặp ở các Chương từ 50 đến 55, 58 hoặc 60);', '(5) Tấm, lá hoặc dải bằng plastic xốp, kết hợp với vải dệt, mà trong đó vải dệt chỉ đơn thuần nhằm mục đích gia cố (Chương 39); hoặc', '(6) Các sản phẩm dệt thuộc nhóm 58.11;', '(b) Vải dệt từ sợi, dải hoặc từ các dạng tương tự, đã ngâm tẩm, tráng, phủ hoặc bao ngoài bằng plastic, thuộc nhóm 56.04.', '3. Theo mục đích của nhóm 59.03, khái niệm "vải dệt được ép với plastic" nghĩa là các sản phẩm được tạo ra bằng cách ghép một hoặc nhiều lớp vải với một hoặc nhiều tấm hoặc màng plastic và liên kết các lớp với nhau bằng bất kỳ phương pháp nào, cho dù các tấm hoặc màng plastic có hoặc không thể nhìn bằng mắt thường ở tiết diện cắt ngang.', '4. Theo mục đích của nhóm 59.05, khái niệm "các loại hàng dệt phủ tường" áp dụng đối với các sản phẩm ở dạng cuộn, chiều rộng không dưới 45 cm, phù hợp để trang trí trần nhà hoặc tường, có bề mặt dệt được gắn chặt trên lớp bồi hoặc được xử lý mặt sau (ngâm tẩm hoặc tráng để có thể phết hồ).', 'Tuy nhiên, nhóm này không áp dụng cho các mặt hàng phủ tường có xơ vụn hoặc bụi xơ dệt gắn trực tiếp trên lớp bồi giấy (nhóm 48.14) hoặc trên lớp bồi vật liệu dệt (thường thuộc nhóm 59.07).', '5. Theo mục đích của nhóm 59.06, khái niệm "vải dệt đã được cao su hóa" có nghĩa là', '(a) Vải dệt đã ngâm tẩm, tráng, phủ hoặc ép với cao su,', '(i) Định lượng không quá 1.500 g/m2; hoặc', '(ii) Định lượng trên 1.500 g/m2 và có hàm lượng vật liệu dệt chiếm trên 50% tính theo khối lượng;', '(b) Các loại vải làm từ sợi, dải hoặc các dạng tương tự, đã được ngâm tẩm, tráng, phủ hoặc bao ngoài bằng cao su, thuộc nhóm 56.04; và', '(c) Các loại vải gồm sợi dệt đặt song song được liên kết với cao su, bất kể khối lượng tính trên 1m2 của chúng.', 'Tuy nhiên, nhóm này không áp dụng cho các tấm, tờ hoặc dải bằng cao su xốp, kết hợp với vải dệt, mà trong đó vải dệt chỉ đơn thuần phục vụ cho mục đích gia cố (Chương 40), hoặc các sản phẩm dệt thuộc nhóm 58.11.', '6. Nhóm 59.07 không áp dụng cho:', '(a) Các loại vải trong đó việc ngâm tẩm, tráng hoặc phủ không thể nhìn thấy được bằng mắt thường (thông thường thuộc các Chương từ 50 đến 55, 58 hoặc 60); theo mục đích của phần này, không tính đến sự thay đổi về màu sắc;', '(b) Vải được vẽ các họa tiết (trừ vải canvas đã sơn vẽ để làm phông cảnh cho rạp hát, phông trường quay hoặc các loại tương tự);', '(c) Vải được phủ từng phần bằng xơ vụn, bụi xơ, bột cây bần hoặc các loại tương tự và mang họa tiết do việc xử lý đó tạo nên; tuy nhiên, các loại vải giả nổi vòng cũng được phân loại trong nhóm này;', '(d) Vải được hoàn thiện bằng cách hồ thông thường có thành phần cơ bản là tinh bột hoặc các chất tương tự;', '(e) Gỗ lớp mặt trên lớp vải nền (nhóm 44.08);', '(f) Hạt mài hoặc bột mài tự nhiên hoặc nhân tạo, trên lớp vải nền (nhóm 68.05);', '(g) Mica liên kết khối hoặc tái chế, trên lớp vải nền (nhóm 68.14); hoặc', '(h) Lá kim loại trên lớp vải nền (thường thuộc Phần XIV hoặc XV).', '7. Nhóm 59.10 không áp dụng đối với:', '(a) Băng truyền hoặc băng tải, bằng vật liệu dệt, có độ dày dưới 3 mm; hoặc', '(b) Băng truyền hoặc băng tải hoặc dây cuaroa bằng vải dệt đã ngâm tẩm, tráng, phủ hoặc ép với cao su hoặc làm từ sợi dệt hoặc sợi bện (cord) đã ngâm tẩm, tráng, phủ hoặc bao ngoài bằng cao su (nhóm 40.10).', '8. Nhóm 59.11 áp dụng đối với các loại hàng hóa dưới đây, những loại hàng hóa này không xếp vào bất kỳ nhóm nào khác của Phần XI:', '(a) Sản phẩm dệt dạng tấm, được cắt thành từng đoạn hoặc đơn giản là cắt thành hình chữ nhật (kể cả hình vuông) (trừ các loại sản phẩm có đặc tính của các sản phẩm thuộc các nhóm từ 59.08 đến 59.10), chỉ có các loại sau:', '(i) Vải dệt, phớt và vải dệt thoi lót phớt, đã được tráng, phủ, bọc hoặc ép với cao su, da thuộc hoặc vật liệu khác, dùng để làm vải nền kim chải, và các loại vải tương tự sử dụng cho các mục đích kỹ thuật khác, kể cả vải nhung khổ hẹp được ngâm tẩm bằng cao su, dùng để bọc các trục dệt (trục cuộn vải dệt);', '(ii) Vải dùng để rây sàng;', '(iii) Vải lọc dùng trong công nghệ ép dầu hoặc các mục đích tương tự, làm từ vật liệu dệt hoặc làm từ tóc người;', '(iv) Vải dệt thoi dạng tấm với nhiều lớp sợi dọc hoặc sợi ngang, có hoặc không tạo phớt, ngâm tẩm hoặc tráng, dùng cho máy móc hoặc cho các mục đích kỹ thuật khác;', '(v) Vải dệt được gia cố bằng kim loại, dùng cho các mục đích kỹ thuật;', '(vi) Sợi bện (cord), dây tết hoặc loại tương tự, có hoặc không ngâm tẩm, tráng hoặc gia cố bằng kim loại, dùng trong công nghiệp như vật liệu để đóng gói hoặc vật liệu bôi trơn;', '(b) Các mặt hàng dệt (trừ các sản phẩm thuộc các nhóm từ 59.08 đến 59.10) loại sử dụng cho các mục đích kỹ thuật (ví dụ, vải dệt và phớt, được dệt vòng liền hoặc kèm theo cơ cấu nối ráp, dùng trong máy sản xuất giấy hoặc các máy tương tự (ví dụ, để chế biến bột giấy hoặc ximăng amiăng), các miếng đệm, gioăng, đĩa đánh bóng hoặc các chi tiết máy khác).', '59.01- Vải dệt được tráng gôm hoặc hồ tinh bột, dùng để bọc ngoài bìa sách hoặc loại tương tự; vải can; vải canvas đã xử lý để vẽ; vải hồ cứng và các loại vải dệt đã được làm cứng tương tự để làm cốt mũ.']</t>
+    <t>['Chú giải.', '1. Trừ khi có yêu cầu khác, theo mục đích của Chương này khái niệm "vải dệt" chỉ áp dụng đối với vải dệt thoi thuộc các Chương từ 50 đến 55 và các nhóm 58.03 và 58.06, dải bện và dải, mảnh trang trí dạng chiếc thuộc nhóm 58.08 và vải dệt kim hoặc móc thuộc nhóm 60.02 đến 60.06.', '2. Nhóm 59.03 áp dụng đối với:', '(a) Các loại vải dệt, đã ngâm tẩm, tráng, phủ hoặc ép với plastic, bất kể khối lượng tính trên 1m2 và bất kể tính chất của vật liệu plastic (đặc hoặc xốp), trừ:', '(1) Vải trong đó chất ngâm tẩm, tráng hoặc phủ không thể nhìn được bằng mắt thường (thường ở các Chương từ 50 đến 55, 58 hoặc 60); theo mục đích của phần này, không cần quan tâm đến sự thay đổi về màu sắc;', '(2) Các sản phẩm không thể được quấn bằng tay quanh một trục tròn có đường kính 7mm, ở nhiệt độ từ 15°C đến 30°C mà không bị nứt vỡ (thường thuộc Chương 39);', '(3) Các sản phẩm trong đó vải dệt hoặc được bọc hoàn toàn bằng plastic hoặc được tráng hoặc phủ cả hai mặt bằng vật liệu đó, miễn là việc tráng hoặc phủ có thể nhìn được bằng mắt thường mà không cần quan tâm đến sự thay đổi về màu sắc (Chương 39);', '(4) Vải được tráng hoặc phủ từng phần bằng plastic và có họa tiết do việc xử lí đó tạo nên (thường gặp ở các Chương từ 50 đến 55, 58 hoặc 60);', '(5) Tấm, lá hoặc dải bằng plastic xốp, kết hợp với vải dệt, mà trong đó vải dệt chỉ đơn thuần nhằm mục đích gia cố (Chương 39); hoặc', '(6) Các sản phẩm dệt thuộc nhóm 58.11;', '(b) Vải dệt từ sợi, dải hoặc từ các dạng tương tự, đã ngâm tẩm, tráng, phủ hoặc bao ngoài bằng plastic, thuộc nhóm 56.04.', '3. Theo mục đích của nhóm 59.03, khái niệm "vải dệt được ép với plastic" nghĩa là các sản phẩm được tạo ra bằng cách ghép một hoặc nhiều lớp vải với một hoặc nhiều tấm hoặc màng plastic và liên kết các lớp với nhau bằng bất kỳ phương pháp nào, cho dù các tấm hoặc màng plastic có hoặc không thể nhìn bằng mắt thường ở tiết diện cắt ngang.', '4. Theo mục đích của nhóm 59.05, khái niệm "các loại hàng dệt phủ tường" áp dụng đối với các sản phẩm ở dạng cuộn, chiều rộng không dưới 45 cm, phù hợp để trang trí trần nhà hoặc tường, có bề mặt dệt được gắn chặt trên lớp bồi hoặc được xử lý mặt sau (ngâm tẩm hoặc tráng để có thể phết hồ).', 'Tuy nhiên, nhóm này không áp dụng cho các mặt hàng phủ tường có xơ vụn hoặc bụi xơ dệt gắn trực tiếp trên lớp bồi giấy (nhóm 48.14) hoặc trên lớp bồi vật liệu dệt (thường thuộc nhóm 59.07).', '5. Theo mục đích của nhóm 59.06, khái niệm "vải dệt đã được cao su hóa" có nghĩa là', '(a) Vải dệt đã ngâm tẩm, tráng, phủ hoặc ép với cao su,', '(i) Định lượng không quá 1.500 g/m2; hoặc', '(ii) Định lượng trên 1.500 g/m2 và có hàm lượng vật liệu dệt chiếm trên 50% tính theo khối lượng;', '(b) Các loại vải làm từ sợi, dải hoặc các dạng tương tự, đã được ngâm tẩm, tráng, phủ hoặc bao ngoài bằng cao su, thuộc nhóm 56.04; và', '(c) Các loại vải gồm sợi dệt đặt song song được liên kết với cao su, bất kể khối lượng tính trên 1m2 của chúng.', 'Tuy nhiên, nhóm này không áp dụng cho các tấm, tờ hoặc dải bằng cao su xốp, kết hợp với vải dệt, mà trong đó vải dệt chỉ đơn thuần phục vụ cho mục đích gia cố (Chương 40), hoặc các sản phẩm dệt thuộc nhóm 58.11.', '6. Nhóm 59.07 không áp dụng cho:', '(a) Các loại vải trong đó việc ngâm tẩm, tráng hoặc phủ không thể nhìn thấy được bằng mắt thường (thông thường thuộc các Chương từ 50 đến 55, 58 hoặc 60); theo mục đích của phần này, không tính đến sự thay đổi về màu sắc;', '(b) Vải được vẽ các họa tiết (trừ vải canvas đã sơn vẽ để làm phông cảnh cho rạp hát, phông trường quay hoặc các loại tương tự);', '(c) Vải được phủ từng phần bằng xơ vụn, bụi xơ, bột cây bần hoặc các loại tương tự và mang họa tiết do việc xử lý đó tạo nên; tuy nhiên, các loại vải giả nổi vòng cũng được phân loại trong nhóm này;', '(d) Vải được hoàn thiện bằng cách hồ thông thường có thành phần cơ bản là tinh bột hoặc các chất tương tự;', '(e) Gỗ lớp mặt trên lớp vải nền (nhóm 44.08);', '(f) Hạt mài hoặc bột mài tự nhiên hoặc nhân tạo, trên lớp vải nền (nhóm 68.05);', '(g) Mica liên kết khối hoặc tái chế, trên lớp vải nền (nhóm 68.14); hoặc', '(h) Lá kim loại trên lớp vải nền (thường thuộc Phần XIV hoặc XV).', '7. Nhóm 59.10 không áp dụng đối với:', '(a) Băng truyền hoặc băng tải, bằng vật liệu dệt, có độ dày dưới 3 mm; hoặc', '(b) Băng truyền hoặc băng tải hoặc dây cuaroa bằng vải dệt đã ngâm tẩm, tráng, phủ hoặc ép với cao su hoặc làm từ sợi dệt hoặc sợi bện (cord) đã ngâm tẩm, tráng, phủ hoặc bao ngoài bằng cao su (nhóm 40.10).', '8. Nhóm 59.11 áp dụng đối với các loại hàng hóa dưới đây, những loại hàng hóa này không xếp vào bất kỳ nhóm nào khác của Phần XI:', '(a) Sản phẩm dệt dạng tấm, được cắt thành từng đoạn hoặc đơn giản là cắt thành hình chữ nhật (kể cả hình vuông) (trừ các loại sản phẩm có đặc tính của các sản phẩm thuộc các nhóm từ 59.08 đến 59.10), chỉ có các loại sau:', '(i) Vải dệt, phớt và vải dệt thoi lót phớt, đã được tráng, phủ, bọc hoặc ép với cao su, da thuộc hoặc vật liệu khác, dùng để làm vải nền kim chải, và các loại vải tương tự sử dụng cho các mục đích kỹ thuật khác, kể cả vải nhung khổ hẹp được ngâm tẩm bằng cao su, dùng để bọc các trục dệt (trục cuộn vải dệt);', '(ii) Vải dùng để rây sàng;', '(iii) Vải lọc dùng trong công nghệ ép dầu hoặc các mục đích tương tự, làm từ vật liệu dệt hoặc làm từ tóc người;', '(iv) Vải dệt thoi dạng tấm với nhiều lớp sợi dọc hoặc sợi ngang, có hoặc không tạo phớt, ngâm tẩm hoặc tráng, dùng cho máy móc hoặc cho các mục đích kỹ thuật khác;', '(v) Vải dệt được gia cố bằng kim loại, dùng cho các mục đích kỹ thuật;', '(vi) Sợi bện (cord), dây tết hoặc loại tương tự, có hoặc không ngâm tẩm, tráng hoặc gia cố bằng kim loại, dùng trong công nghiệp như vật liệu để đóng gói hoặc vật liệu bôi trơn;', '(b) Các mặt hàng dệt (trừ các sản phẩm thuộc các nhóm từ 59.08 đến 59.10) loại sử dụng cho các mục đích kỹ thuật (ví dụ, vải dệt và phớt, được dệt vòng liền hoặc kèm theo cơ cấu nối ráp, dùng trong máy sản xuất giấy hoặc các máy tương tự (ví dụ, để chế biến bột giấy hoặc ximăng amiăng), các miếng đệm, gioăng, đĩa đánh bóng hoặc các chi tiết máy khác).', '59.01- Vải dệt được tráng gôm hoặc hồ tinh bột, dùng để bọc ngoài bìa sách hoặc loại tương tự; vải can; vải canvas đã xử lý để vẽ; vải hồ cứng và các loại vải dệt đã được làm cứng tương tự để làm cốt mũ.', '5901.10 - Vải dệt được tráng gôm hoặc hồ tinh bột, dùng để bọc ngoài bìa sách hoặc các loại tương tự', '5901.90 - Loại khác', '(1) Vải dệt đã được tráng gôm hoặc hồ tinh bột dùng để bọc ngoài bìa sách hoặc các loại tương tự.', 'Loại vải này thường là vải dệt vân điểm, thường làm từ bông, lanh hoặc sợi nhân tạo, đã được tráng nhiều gôm hoặc hồ tinh bột (ví dụ như: tinh bột), loại được sử dụng trong sản xuất tấm bọc ngoài bìa của sách, hộp, tranh ảnh hoặc hộp đựng dao kéo, vỏ dao,...', 'Những sản phẩm này có thể không được tẩy trắng, tẩy trắng, nhuộm, hoặc in và bề mặt thường được xếp nếp, gấp nếp, bọc da sargin (có bề mặt thô), chạm nổi hoặc gia công bằng cách khác.', 'Các loại vải sử dụng cho các mục đích tương tự, được ngâm tẩm, hoặc tráng bằng plastic (ví dụ: giả da) bị loại trừ khỏi nhóm này (nhóm 59.03).', '(2) Vải can.', 'Vải can là loại vải được dệt dày và kỹ, thường chúng làm bằng bông hoặc lanh, đã được xử lý (ví dụ, như được xử lý bằng nhựa cây tự nhiên) vì thế có bề mặt trơn mịn và hầu như trong suốt vì thế thích hợp cho việc đồ lại bức vẽ của các kiến trúc sư, những người phác họa thiết kế,...', '(3) Vải bạt đã được xử lý để vẽ.', 'Vải bạt đã được xử lý để vẽ, thường làm bằng lanh, sợi gai dầu hoặc bông, được cắt theo kích thước và sau đó được phủ một mặt với một hỗn hợp dầu hạt lanh với các chất khác (chẳng hạn như: ôxit kẽm). Vải bạt được xử lý để vẽ thường ở dạng tấm có kích thước phù hợp cho việc kéo căng trên khung, nhưng vẫn phải được phân loại ở nhóm này dù là nó có được gia cố bằng gỗ hoặc bìa cứng.', '(4) Vải hồ cứng và các loại vải dệt tương tự đã được làm cứng làm để làm cốt mũ.', 'Các loại vải dệt cứng này thường được tạo ra bằng cách ngâm tẩm 1 lớp vải dệt thưa, nhẹ với chất kết dính và các chất làm đầy (chẳng hạn như: keo hồ hoặc hồ tinh bột trộn với bột cao lanh). Một số loại vải hồ cứng hoặc các loại vải tương tự được tạo nên bằng cách dán 2 loại vải cứng này với nhau. Loại vải này chủ yếu được sử dụng cho việc sản xuất cốt mũ thuộc nhóm 65.07.', 'Vải sử dụng cho các mục đích tương tự, được ngâm tẩm hoặc tráng plastic thì bị loại trừ (nhóm 59.03)', 'Nhóm này không bao gồm các sản phẩm được mô tả ở đoạn (1), (2) và (4) nói trên khi đã hoàn thiện như đã mô tả trong Phần (II) của Chú giải tổng quát Phần XI.']</t>
   </si>
   <si>
     <t>['Chú giải.', '1. Chương này không bao gồm:', '(a) Hàng ren, móc thuộc nhóm 58.04;', '(b) Các loại nhãn, phù hiệu hoặc các sản phẩm tương tự, dệt kim hoặc móc, thuộc nhóm 58.07; hoặc', '(c) Vải dệt kim hoặc móc, đã ngâm tẩm, tráng, phủ hoặc ép lớp, thuộc Chương 59. Tuy nhiên, các loại vải nổi vòng dệt kim hoặc móc, được ngâm tẩm, tráng, phủ hoặc ép lớp, vẫn được phân loại vào nhóm 60.01.', '2. Chương này cũng kể cả các loại vải làm từ sợi kim loại và được sử dụng trong trong trang trí, như vải trang trí nội thất hoặc dùng cho các mục đích tương tự.', '3. Trong toàn bộ Danh mục, bất kỳ sự liên quan nào đến hàng "dệt kim" kể cả hàng khâu đính trong đó các mũi khâu móc xích đều được tạo thành bằng sợi dệt.', 'Chú giải Phân nhóm.', '1 - Phân nhóm 6005.35 bao gồm vải từ monofilament polyetylen hoặc từ multifilament polyeste, có định lượng từ 30g/m2 đến 55g/m2, có kích cỡ lưới từ 20 lỗ/cm2 đến 100 lỗ/cm2, và được tẩm hoặc phủ alpha- cypermethrin (ISO), chlorfenapyr (ISO), deltamethrin (INN, ISO), lambda-cyhalothrin (ISO), permethrin (ISO) hoặc pirimiphos- methyl (ISO).']</t>
@@ -805,13 +805,13 @@
     <t>['Chú giải:', '1.- Chương này không bao gồm:', '(a) Gậy chống dùng để đo hoặc loại tương tự (nhóm 90.17);', '(b) Báng súng, chuôi kiếm, gậy chống chịu lực hoặc loại tương tự (Chương 93); hoặc', '(c) Hàng hóa thuộc Chương 95 (ví dụ: ô, dù che, loại dùng làm đồ chơi).', '2.- Nhóm 66.03 không bao gồm các bộ phận, đồ trang trí hoặc đồ phụ kiện bằng vật liệu dệt, hoặc bao bì, tua rua, dây đa, hộp đựng ô hoặc các loại tương tự, bằng vật liệu bất kỳ. Những hàng hóa này đi kèm, nhưng không gắn vào các sản phẩm của nhóm 66.01 hoặc 66.02, được phân loại riêng và không được xem như là bộ phận tạo thành của các sản phẩm đó.']</t>
   </si>
   <si>
-    <t>['Chú giải', '1- Chương này không bao gồm:', '(a) Vải lọc (filtering hoặc straining) loại làm bằng tóc người (nhóm 59.11);', '(b) Các hoa văn trang trí bằng ren, đồ thêu hoặc vải dệt khác (Phần XI);', '(c) Giày, dép (Chương 64);', '(d) Mũ và các vật đội đầu khác hoặc lưới bao tóc (Chương 65);', '(e) Đồ chơi, dụng cụ, thiết bị thể thao hoặc các mặt hàng dùng trong lễ hội carnival (Chương 95); hoặc', '(f) Chổi phất trần, nùi bông thoa phấn hoặc mạng lọc bằng lông (Chương 96).', '2- Nhóm 67.01 không bao gồm:', '(a) Các sản phẩm mà trong đó lông vũ hoặc lông tơ chỉ dùng làm đệm, lót, nhồi (ví dụ: đệm giường thuộc nhóm 94.04);', '(b) Các sản phẩm may mặc hoặc đồ phụ trợ của quần áo mà trong đó lông vũ hoặc lông tơ chỉ dùng như vật trang trí hoặc đệm, lót; hoặc', '(c) Hoa hoặc cành, lá nhân tạo hoặc các phần của chúng hoặc các sản phẩm làm sẵn thuộc nhóm 67.02.', '3- Nhóm 67.02 không bao gồm:', '(a) Các sản phẩm bằng thủy tinh (Chương 70); hoặc', '(b) Hoa, cành, lá, quả nhân tạo bằng gốm, đá, kim loại, gỗ hoặc các vật liệu khác, được làm thành một khối bằng cách đúc, luyện, khắc, dập hoặc cách khác, hoặc gồm các bộ phận được lắp ráp lại với nhau trừ việc ghép, gắn bằng keo, lắp với một vật khác hoặc các phương pháp tương tự.', '67.01- Da và các bộ phận khác của loài chim có lông vũ hoặc lông tơ, lông vũ, các phần của lông vũ, lông tơ và các sản phẩm làm từ chúng (trừ các mặt hàng thuộc nhóm 05.05 và các ông, lông cánh, lông đuôi đã chế biến).', 'Trừ một số hàng hóa nhất định được đề cập cụ thể hoặc được xếp trong nhóm khác và được nêu trong những trường hợp loại trừ dưới đây, nhóm này bao gồm:', '(A) Các loại da và các phần khác của chim có lông vũ hoặc lông tơ, lông vũ và lông tơ, các phần của lông vũ, nhưng chưa tạo thành những sản phẩm hoàn chỉnh, đã trải qua quá trình xử lý trừ các biện pháp xử lý đơn giản-như làm sạch, khử trùng hoặc xử lý để bảo quản chúng (xem Chú giải chi tiết của nhóm 05.05); ví dụ, hàng hóa của nhóm này có thể được tẩy trắng, nhuộm, uốn quăn hoặc cuộn lại.', '(B) Các mặt hàng chế biến từ da hoặc từ các phần khác của chim có lông vũ và lông tơ, các sản phẩm làm từ lông vũ, lông tơ hoặc những phần của lông vũ, ngay cả khi lông vũ hoặc lông tơ ... chưa được xử lý hoặc mới chỉ được làm sạch, nhưng không bao gồm các sản phẩm được làm từ các ống, lông cánh hoặc lông đuôi chim. Do đó, nhóm bao gồm:', '(1) Các loại lông vũ đơn phần ống đã được bọc hoặc buộc lại để sử dụng ví dụ như lông chim trên mũ phụ nữ, và lông vũ hỗn hợp đơn được lắp ghép từ nhiều thành phần khác nhau.', '(2) Các loại lông vũ được ghép lại để tạo thành chùm, và các loại lông vũ và lông tơ được ghép lại bằng keo hoặc được đính chặt vào tấm vải dệt hoặc được gắn vào một đế khác.', '(3) Các đồ dùng để trang trí được làm từ chim, các bộ phận của chim, từ lông vũ hoặc lông tơ, được đính trên mũ, khăn quàng lông, cổ áo, áo măng tô hoặc những loại quần áo khác hoặc các phụ kiện của quần áo.', '(4) Các loại quạt được làm bằng lông vũ trang trí, có khung được làm bằng mọi chất liệu. Tuy nhiên, quạt có khung được làm bằng kim loại quý được xếp vào nhóm 71.13.', 'Tuy nhiên, nhóm này không bao gồm những sản phẩm là quần áo và phụ kiện của quần áo trong đó lông vũ, hoặc lông tơ chỉ tạo thành những phần trang trí hoặc lớp lót đệm.', 'Nhóm này cũng không bao gồm:', '(a) Giày, dép làm từ lông vũ hoặc lông tơ (Chương 64).', '(b) Mũ và các vật đội đầu khác làm từ lông vũ hoặc lông tơ (Chương 65).', '(c) Các sản phẩm thuộc nhóm 67.02.', 'd) Các mặt hàng thuộc bộ đồ giường...vv, trong trường hợp lông vũ chỉ được đưa vào sử dụng như chất liệu để nhồi hoặc lót ở trong (thuộc nhóm 94.04).', '(e) Các sản phẩm thuộc Chương 95 (ví dụ, quả cầu lông, đồ chơi ném phi tiêu bằng lông vũ hoặc phao của cần câu cá).', '(f) Các ống, lông cánh, lông đuôi đã gia công (ví dụ, tăm xỉa răng thuộc nhóm 96.01), chổi lông (nhóm 96.03), và nùi bông thoa phấn và đệm bằng lông tơ được sử dụng trong ngành chế tạo mỹ phẩm hoặc các chế phẩm vệ sinh (nhóm 96.16).', '(g) Các vật phẩm sưu tập (nhóm 97.05).', '67.02 Hoa, cành, lá, quả nhân tạo và các phần của chúng; các sản phẩm làm bằng hoa, cành, lá hoặc quả nhân tạo.']</t>
+    <t>['Chú giải', '1- Chương này không bao gồm:', '(a) Vải lọc (filtering hoặc straining) loại làm bằng tóc người (nhóm 59.11);', '(b) Các hoa văn trang trí bằng ren, đồ thêu hoặc vải dệt khác (Phần XI);', '(c) Giày, dép (Chương 64);', '(d) Mũ và các vật đội đầu khác hoặc lưới bao tóc (Chương 65);', '(e) Đồ chơi, dụng cụ, thiết bị thể thao hoặc các mặt hàng dùng trong lễ hội carnival (Chương 95); hoặc', '(f) Chổi phất trần, nùi bông thoa phấn hoặc mạng lọc bằng lông (Chương 96).', '2- Nhóm 67.01 không bao gồm:', '(a) Các sản phẩm mà trong đó lông vũ hoặc lông tơ chỉ dùng làm đệm, lót, nhồi (ví dụ: đệm giường thuộc nhóm 94.04);', '(b) Các sản phẩm may mặc hoặc đồ phụ trợ của quần áo mà trong đó lông vũ hoặc lông tơ chỉ dùng như vật trang trí hoặc đệm, lót; hoặc', '(c) Hoa hoặc cành, lá nhân tạo hoặc các phần của chúng hoặc các sản phẩm làm sẵn thuộc nhóm 67.02.', '3- Nhóm 67.02 không bao gồm:', '(a) Các sản phẩm bằng thủy tinh (Chương 70); hoặc', '(b) Hoa, cành, lá, quả nhân tạo bằng gốm, đá, kim loại, gỗ hoặc các vật liệu khác, được làm thành một khối bằng cách đúc, luyện, khắc, dập hoặc cách khác, hoặc gồm các bộ phận được lắp ráp lại với nhau trừ việc ghép, gắn bằng keo, lắp với một vật khác hoặc các phương pháp tương tự.', '67.01- Da và các bộ phận khác của loài chim có lông vũ hoặc lông tơ, lông vũ, các phần của lông vũ, lông tơ và các sản phẩm làm từ chúng (trừ các mặt hàng thuộc nhóm 05.05 và các ông, lông cánh, lông đuôi đã chế biến).', 'Trừ một số hàng hóa nhất định được đề cập cụ thể hoặc được xếp trong nhóm khác và được nêu trong những trường hợp loại trừ dưới đây, nhóm này bao gồm:', '(A) Các loại da và các phần khác của chim có lông vũ hoặc lông tơ, lông vũ và lông tơ, các phần của lông vũ, nhưng chưa tạo thành những sản phẩm hoàn chỉnh, đã trải qua quá trình xử lý trừ các biện pháp xử lý đơn giản-như làm sạch, khử trùng hoặc xử lý để bảo quản chúng (xem Chú giải chi tiết của nhóm 05.05); ví dụ, hàng hóa của nhóm này có thể được tẩy trắng, nhuộm, uốn quăn hoặc cuộn lại.', '(B) Các mặt hàng chế biến từ da hoặc từ các phần khác của chim có lông vũ và lông tơ, các sản phẩm làm từ lông vũ, lông tơ hoặc những phần của lông vũ, ngay cả khi lông vũ hoặc lông tơ ... chưa được xử lý hoặc mới chỉ được làm sạch, nhưng không bao gồm các sản phẩm được làm từ các ống, lông cánh hoặc lông đuôi chim. Do đó, nhóm bao gồm:', '(1) Các loại lông vũ đơn phần ống đã được bọc hoặc buộc lại để sử dụng ví dụ như lông chim trên mũ phụ nữ, và lông vũ hỗn hợp đơn được lắp ghép từ nhiều thành phần khác nhau.', '(2) Các loại lông vũ được ghép lại để tạo thành chùm, và các loại lông vũ và lông tơ được ghép lại bằng keo hoặc được đính chặt vào tấm vải dệt hoặc được gắn vào một đế khác.', '(3) Các đồ dùng để trang trí được làm từ chim, các bộ phận của chim, từ lông vũ hoặc lông tơ, được đính trên mũ, khăn quàng lông, cổ áo, áo măng tô hoặc những loại quần áo khác hoặc các phụ kiện của quần áo.', '(4) Các loại quạt được làm bằng lông vũ trang trí, có khung được làm bằng mọi chất liệu. Tuy nhiên, quạt có khung được làm bằng kim loại quý được xếp vào nhóm 71.13.', 'Tuy nhiên, nhóm này không bao gồm những sản phẩm là quần áo và phụ kiện của quần áo trong đó lông vũ, hoặc lông tơ chỉ tạo thành những phần trang trí hoặc lớp lót đệm.', 'Nhóm này cũng không bao gồm:', '(a) Giày, dép làm từ lông vũ hoặc lông tơ (Chương 64).', '(b) Mũ và các vật đội đầu khác làm từ lông vũ hoặc lông tơ (Chương 65).', '(c) Các sản phẩm thuộc nhóm 67.02.', 'd) Các mặt hàng thuộc bộ đồ giường...vv, trong trường hợp lông vũ chỉ được đưa vào sử dụng như chất liệu để nhồi hoặc lót ở trong (thuộc nhóm 94.04).', '(e) Các sản phẩm thuộc Chương 95 (ví dụ, quả cầu lông, đồ chơi ném phi tiêu bằng lông vũ hoặc phao của cần câu cá).', '(f) Các ống, lông cánh, lông đuôi đã gia công (ví dụ, tăm xỉa răng thuộc nhóm 96.01), chổi lông (nhóm 96.03), và nùi bông thoa phấn và đệm bằng lông tơ được sử dụng trong ngành chế tạo mỹ phẩm hoặc các chế phẩm vệ sinh (nhóm 96.16).', '(g) Các vật phẩm sưu tập (nhóm 97.05).', '67.02 Hoa, cành, lá, quả nhân tạo và các phần của chúng; các sản phẩm làm bằng hoa, cành, lá hoặc quả nhân tạo.', '6702.10 - Bằng plastic', '6702.90 - Bằng vật liệu khác.', 'Nhóm này bao gồm:', '(1) Hoa, lá và quả nhân tạo ở dạng giống với những sản phẩm tự nhiên, được tạo ra bởi việc ghép các phần khác nhau (bằng cách chằng buộc, dán bằng keo gắn, hoặc lắp với một vật khác hoặc bằng các phương pháp tương tự). Loại này cũng bao gồm các loại tượng trưng cho hoa, lá hoặc quả thông thường được làm sẵn theo kiểu hoa nhân tạo ...', '(2) Các phần của hoa, lá hoặc quả nhân tạo, (ví dụ, nhị hoa, nhụy hoa, bầu hoa, cánh hoa, đài hoa, lá, và cuống hoa).', '(3) Những sản phẩm được làm từ hoa, lá hay quả nhân tạo (ví dụ, các bó hoa, tràng hoa, vòng hoa, các loại cây) và các sản phẩm khác, để sử dụng làm trang trí hoặc phụ kiện trang sức, được làm bằng cách lắp ghép hoa, lá hoặc quả nhân tạo.', 'Nhóm bao gồm hoa, lá hoặc quả nhân tạo gắn với ghim hoặc các thiết bị cài chặt nhỏ khác.', 'Các sản phẩm thuộc nhóm này chủ yếu được sử dụng để trang trí (ví dụ, trang trí trong nhà hoặc tại nhà thờ), hoặc trang trí trên mũ, quần áo... Nằm trong những trường hợp bị loại trừ được nêu dưới đây, những hàng hóa này có thể được làm bằng nguyên liệu dệt, nỉ, giấy, nhựa, cao su, da, lá kim loại, lông vũ, vỏ sò ốc hoặc các nguyên liệu khác có nguồn gốc từ động vật (ví dụ: cành lá nhân tạo có được làm nguồn gốc sinh vật biển, đã được nhuộm và chế biến, gồm có những phần mềm dẻo của thủy tức hoặc động vật hình rêu) v.v... Với điều kiện chúng có những đặc tính đã được quy định trong những đoạn trước đây, tất cả những sản phẩm này được xếp trong nhóm này và không phụ thuộc mức độ hoàn chỉnh của chúng.', 'Nhóm này không bao gồm:', '(a) Hoa và cành, lá tự nhiên thuộc nhóm 06.03 hoặc 06.04 (ví dụ: được nhuộm, tráng bạc, mạ vàng).', '(b) Mẫu ren rời hình hoa, vải thêu hoặc vải dệt khác, nhìn chung chúng có thể được sử dụng như vật trang trí cho quần áo, nhưng chúng không được chế tạo theo cách làm hoa nhân tạo (ví dụ: bằng cách lắp ráp nhiều phần khác nhau (cánh hoa, nhị hoa, cuống hoa v.v...) và được gắn chặt với dây kim loại, nguyên liệu dệt, giấy, cao su bằng dán keo hoặc bằng những phương pháp khác) (Phần XI).', '(c) Mũ và các vật đội đầu khác làm từ hoa hoặc cành lá nhân tạo (Chương 65).', '(d) Các sản phẩm bằng thủy tinh (Chương 70).', '(e) Hoa, lá, cành hoặc quả nhân tạo bằng gốm, đá, kim loại, gỗ hoặc vật liệu khác, được làm trên một tấm lá bằng cách đúc, luyện, khắc, dập, hoặc các cách khác, hoặc gồm các bộ phận được lắp ráp lại với nhau trừ việc ghép, gắn bằng keo, lắp với một sản phẩm khác hoặc các phương pháp tương tự.', '(f) Dây kim loại cắt thành đoạn được bọc ngoài bằng chất liệu dệt, bằng giấy, v.v... để cuống của hoa nhân tạo (Phần XV).', '(g) Những mặt hàng có thể rõ ràng nhận dạng là được dùng làm đồ chơi hoặc những mặt hàng dùng trong lễ hội (Chương 95).']</t>
   </si>
   <si>
     <t>['Chú giải', '1. Chương này không bao gồm:', '(a) Hàng hóa thuộc Chương 25;', '(b) Giấy và bìa đã được tráng, ngâm tẩm hoặc phủ thuộc nhóm 48.10 hoặc 48.11 (ví dụ, giấy và bìa đã được tráng graphit hoặc bột mica, giấy và bìa đã được bi-tum hóa hoặc asphalt hóa);', '(c) Vải dệt đã được tráng, ngâm tẩm hoặc phủ thuộc Chương 56 hoặc 59 (ví dụ, vải đã được tráng hoặc phủ bột mica, vải đã được asphalt hóa hoặc bi-tum hóa);', '(d) Các sản phẩm của Chương 71;', '(e) Dụng cụ hoặc các bộ phận của dụng cụ, thuộc Chương 82;', '(f) Đá in litô thuộc nhóm 84.42;', '(g) Vật liệu cách điện (nhóm 85.46) hoặc các phụ kiện làm bằng vật liệu cách điện thuộc nhóm 85.47;', '(h) Đầu mũi khoan, mài dùng trong nha khoa (nhóm 90.18);', '(ij) Các sản phẩm thuộc Chương 91 (ví dụ, đồng hồ thời gian và vỏ đồng hồ thời gian);', '(k) Các sản phẩm thuộc Chương 94 (ví dụ, đồ nội thất, đèn (luminaires) và bộ đèn, nhà lắp ghép);', '(l) Các sản phẩm của Chương 95 (ví dụ, đồ chơi, thiết bị trò chơi và dụng cụ, thiết bị thể thao);', '(m) Các sản phẩm của nhóm 96.02, nếu làm bằng các vật liệu đã được ghi trong Chú giải 2(b) của Chương 96, hoặc của nhóm 96.06 (ví dụ, khuy), của nhóm 96.09 (ví dụ, bút chì bằng đá phiến) hoặc nhóm 96.10 (ví dụ, bảng đá phiến dùng để vẽ) hoặc của nhóm 96.20 (chân đế loại một chân (monopod), hai chân (bipod), ba chân (tripod) và các sản phẩm tương tự); hoặc', '(n) Các sản phẩm thuộc Chương 97 (ví dụ, các tác phẩm nghệ thuật).', '2. Trong nhóm 68.02, khái niệm “đá xây dựng hoặc đá làm tượng đài đã được gia công” được áp dụng không chỉ đối với nhiều loại đá đã được nêu ra trong nhóm 25.15 hoặc 25.16 mà còn đối với tất cả các loại đá tự nhiên khác (ví dụ, đá thạch anh, đá lửa, dolomit và steatit) đã được gia công tương tự; tuy nhiên, không áp dụng đối với đá phiến.']</t>
   </si>
   <si>
-    <t>['Chú giải.', '1.- Chương này chỉ áp dụng đối với những sản phẩm gốm, sứ đã được nung sau khi tạo hình:', '(a) Các nhóm từ 69.04 đến 69.14 chỉ áp dụng đối với những sản phẩm như vậy trừ những sản phẩm được phân loại trong các nhóm từ 69.01 đến 69.03;', '(b) Các sản phẩm được gia nhiệt ở nhiệt độ dưới 800°C cho các mục đích như đóng rắn nhựa, tăng tốc phản ứng hydrat hóa, hoặc để loại bỏ nước hoặc các thành phần dễ bay hơi khác, không được coi là nung. Các sản phẩm như vậy bị loại trừ khỏi Chương 69; và', '(c) Các sản phẩm gốm, sứ thu được bằng cách nung các vật liệu phi kim loại, vô cơ đã được chuẩn bị và tạo hình trước đó ở nhiệt độ phòng nói chung. Các nguyên liệu thô bao gồm, không kể những đề cập khác, đất sét, vật liệu silic kể cả silica nung chảy, các vật liệu có nhiệt độ nóng chảy cao, như oxit, carbua, nitrua, graphit hoặc carbon khác, và trong một số trường hợp là chất kết dính như phốt phát hoặc đất sét chịu lửa.', '2. Chương này không bao gồm:', '(a) Các sản phẩm thuộc nhóm 28.44;', '(b) Các sản phẩm thuộc nhóm 68.04;', '(c) Các sản phẩm thuộc Chương 71 (ví dụ, đồ trang sức làm bằng chất liệu khác);', '(d) Gốm kim loại thuộc nhóm 81.13;', '(e) Các sản phẩm thuộc Chương 82;', '(f) Vật cách điện (nhóm 85.46) hoặc các phụ kiện làm bằng vật liệu cách điện thuộc nhóm 85.47;', '(g) Răng giả (nhóm 90.21);', '(h) Các sản phẩm thuộc Chương 91 (ví dụ, đồng hồ thời gian và vỏ đồng hồ thời gian);', '(ij) Các sản phẩm thuộc Chương 94 (ví dụ, đồ nội thất, đèn (luminaires) và bộ đèn, nhà lắp ghép);', '(k) Các sản phẩm của Chương 95 (ví dụ, đồ chơi, thiết bị trò chơi và dụng cụ, thiết bị thể thao);', '(l) Các sản phẩm thuộc nhóm 96.06 (ví dụ, khuy) hoặc thuộc nhóm 96.14 (ví dụ, tẩu hút thuốc); hoặc', '(m) Các sản phẩm thuộc Chương 97 (ví dụ, các tác phẩm nghệ thuật).']</t>
+    <t>['Chú giải.', '1.- Chương này chỉ áp dụng đối với những sản phẩm gốm, sứ đã được nung sau khi tạo hình:', '(a) Các nhóm từ 69.04 đến 69.14 chỉ áp dụng đối với những sản phẩm như vậy trừ những sản phẩm được phân loại trong các nhóm từ 69.01 đến 69.03;', '(b) Các sản phẩm được gia nhiệt ở nhiệt độ dưới 800°C cho các mục đích như đóng rắn nhựa, tăng tốc phản ứng hydrat hóa, hoặc để loại bỏ nước hoặc các thành phần dễ bay hơi khác, không được coi là nung. Các sản phẩm như vậy bị loại trừ khỏi Chương 69; và', '(c) Các sản phẩm gốm, sứ thu được bằng cách nung các vật liệu phi kim loại, vô cơ đã được chuẩn bị và tạo hình trước đó ở nhiệt độ phòng nói chung. Các nguyên liệu thô bao gồm, không kể những đề cập khác, đất sét, vật liệu silic kể cả silica nung chảy, các vật liệu có nhiệt độ nóng chảy cao, như oxit, carbua, nitrua, graphit hoặc carbon khác, và trong một số trường hợp là chất kết dính như phốt phát hoặc đất sét chịu lửa.', '2. Chương này không bao gồm:', '(a) Các sản phẩm thuộc nhóm 28.44;', '(b) Các sản phẩm thuộc nhóm 68.04;', '(c) Các sản phẩm thuộc Chương 71 (ví dụ, đồ trang sức làm bằng chất liệu khác);', '(d) Gốm kim loại thuộc nhóm 81.13;', '(e) Các sản phẩm thuộc Chương 82;', '(f) Vật cách điện (nhóm 85.46) hoặc các phụ kiện làm bằng vật liệu cách điện thuộc nhóm 85.47;', '(g) Răng giả (nhóm 90.21);', '(h) Các sản phẩm thuộc Chương 91 (ví dụ, đồng hồ thời gian và vỏ đồng hồ thời gian);', '(ij) Các sản phẩm thuộc Chương 94 (ví dụ, đồ nội thất, đèn (luminaires) và bộ đèn, nhà lắp ghép);', '(k) Các sản phẩm của Chương 95 (ví dụ, đồ chơi, thiết bị trò chơi và dụng cụ, thiết bị thể thao);', '(l) Các sản phẩm thuộc nhóm 96.06 (ví dụ, khuy) hoặc thuộc nhóm 96.14 (ví dụ, tẩu hút thuốc); hoặc', '(m) Các sản phẩm thuộc Chương 97 (ví dụ, các tác phẩm nghệ thuật).', 'TỔNG QUÁT', 'Thuật ngữ “các sản phẩm gốm” áp dụng cho các sản phẩm thu được:', '(A) Bằng cách nung các vật liệu phi kim loại, vô cơ đã được chuẩn bị và tạo hình trước đó, thường ở mức nhiệt độ trong phòng. Các nguyên liệu thô bao gồm đất sét, vật liệu silic kể cả silica nung chảy, các vật liệu có điểm nóng chẩy cao như ô xít, cacbua, nitrua, graphit hoặc cacbon khác và trong một số trường hợp, các chất kết dính như đất sét chịu lửa hoặc phốt phát.', '(B) Từ đá (ví dụ, steatit), được nung sau khi tạo hình.', 'Quá trình sản xuất các sản phẩm gốm được đề cập ở phần (A) - nêu trên (mọi vật liệu cấu thành của chúng) đều bao gồm các công đoạn chính sau:', '(i) Chuẩn bị bột nhão (hay phần xương).', 'Trong một số trường hợp (ví dụ, sản xuất các sản phẩm nhôm được thiêu kết), vật liệu cấu thành được sử dụng trực tiếp ở dạng bột có thêm một lượng nhỏ chất bôi trơn. Tuy nhiên, trong hầu hết các trường hợp, nguyên liệu trước tiên phải được làm thành bột nhão. Điều này liên quan đến việc định lượng và trộn các thành phần khác nhau và, nếu cần, phải nghiền, sàng, ép-lọc, nhào, đánh nhuyễn và khử không khí. Một số sản phẩm chịu lửa cũng được làm từ hỗn hợp các cốt liệu mịn đã được phân loại, có bổ sung thêm một lượng nhỏ chất kết dính lỏng, mà có thể ở dạng nước (ví dụ, hắc ín, vật liệu nhựa, axít phôtphoric, dung dịch chất gỗ (linh-in)).', '(ii) Tạo hình.', 'Bột hoặc bột nhão đã chuẩn bị sau đó được tạo hình gần giống với hình mong muốn.', 'Công đoạn này được thực hiện bằng cách đùn (thông qua khuôn đùn), ép, đổ khuôn, đúc hoặc tạo hình bằng tay, trong một số trường hợp được thực hiện theo mức độ của máy.', '(iii) Sấy khô sản phẩm thu được.', '(iv) Nung.', 'Ở công đoạn này, “sản phẩm màu lục” được nung ở mức nhiệt độ 800 °C hoặc cao hơn tùy thuộc vào bản chất của sản phẩm. Sau khi nung, các hạt kết dính chặt lại với nhau như là kết quả của sự khuếch tán, sự chuyển đổi hoá học hoặc sự nóng chảy từng phần.', 'Các sản phẩm được nung ở mức nhiệt độ dưới 800 °C cho các mục đích như đóng rắn nhựa, làm tăng nhanh phản ứng hydrat hoá, hoặc dùng để loại bỏ nước hoặc các thành phần dễ bay hơi khác, sẽ không được coi là được nung cho các mục đích sử dụng của Chú giải 1 của Chương này. Các sản phẩm này bị loại trừ khỏi Chương 69.', '(v) Hoàn thiện.', 'Các công đoạn hoàn thiện phụ thuộc vào mục đích sử dụng của sản phẩm gốm. Đôi khi cần phải có máy hoàn thiện có độ chính xác cao. Công đoạn hoàn thiện cũng có thể bao gồm việc đánh dấu hàng, mạ kim loại hoặc thấm tẩm.', 'Các sản phẩm gốm cũng thường được nhuộm màu (ở phần xương hoặc bề mặt), được trang trí hoặc tráng men bằng cách sử dụng thích hợp các chất màu hoặc chất ở cản quang được pha chế đặc biệt, men kính hoặc men sứ, men sành, chất láng bóng, v.v.', 'Sau khi tạo hình, công đoạn nung là cơ sở phân biệt chủ yếu giữa các sản phẩm của chương này với các sản phẩm khoáng hoặc đá được phân loại ở Chương 68 mà nhìn chung không được nung, và các sản phẩm thủy tinh của Chương 70 trong đó hỗn hợp có thể thủy tinh hoá đã được nấu chảy hoàn toàn.', 'Tùy theo thành phần và qui trình nung được áp dụng, có thể thu được các sản phẩm sau:', 'I. Hàng hóa bằng bột hóa thạch silic hoặc bằng đất silic tương tự và các sản phẩm chịu lửa thuộc phân Chương I (từ nhóm 69.01 đến nhóm 69.03)', 'II. Các sản phẩm gốm khác, chủ yếu gồm đồ gốm, đồ đá, đồ đất, đồ sứ thông thường, v.v, thuộc phân Chương II (từ nhóm 69.04 đến 69.14).', 'Chương này không bao gồm:', '(a) Gốm vỡ và các mảnh gạch xây vỡ (nhóm 25.30)', '(b) Các sản phẩm thuộc nhóm 28.44', '(c) Các khối, tấm, thanh và bán sản phẩm tương tự bằng graphít hoặc bằng các loại cac-bon khác, hoặc hợp chất graphit-kim loại hoặc bằng hợp chất khác được dùng, ví dụ, để cắt thành chổi điện (nhóm 38.01) (xem Chú giải chi tiết tương ứng).', '(d) Các phần cắt rời, chưa được lắp ráp, bằng vật liệu gốm áp điện từ, ví dụ bằng titanat bari hoặc bằng zircotitanat chì (nhóm 38.24)', '(e) Các sản phẩm thuộc nhóm 68.04.', '(f) Các sản phẩm gốm - thủy tinh (Chương 70)', '(g) Các hỗn hợp thiêu kết bằng bột kim loại cơ bản và hỗn hợp kim loại dị thể trộn kỹ cơ bản thu được bằng cách nấu chảy (Phần XV).', '(h) Gốm kim loại thuộc nhóm 81.13', '(ij) Chi tiết hình đĩa, thanh cỡ nhỏ, mũi chóp và các chi tiết tương tự cho dụng cụ, chưa được gắn vào dụng cụ, làm bằng gốm kim loại (nhóm 82.09) và sản phẩm khác của Chương 82.', 'Phân chương I', 'CÁC LOẠI HÀNG HÓA BẰNG BỘT HOÁ THẠCH SILIC HOẶC BẰNG CÁC LOẠI ĐẤT SILIC TƯƠNG TỰ, VÀ CÁC SẢN PHẨM CHỊU LỬA']</t>
   </si>
   <si>
     <t>['Chú giải.', '1. - Chương này không bao gồm :', '(a) Hàng hóa thuộc nhóm 32.07 (ví dụ, men kính và men sứ, frit thủy tinh, thủy tinh khác ở dạng bột, hạt hoặc vẩy);', '(b) Các sản phẩm thuộc Chương 71 (ví dụ, đồ trang sức làm bằng chất liệu khác);', '(c) Cáp sợi quang thuộc nhóm 85.44, vật cách điện (nhóm 85.46) hoặc các phụ kiện bằng vật liệu cách điện thuộc nhóm 85.47;', '(d) Kính chắn gió phía trước (kính chắn gió), cửa sổ phía sau và các của sổ khác, có khung, dùng cho các loại phương tiện thuộc Chương 86 đến Chương 88;', '(e) Kính chắn gió phía trước (kính chắn gió), cửa sổ phía sau và các cửa sổ khác, có hoặc không có khung, có gắn thiết bị sưởi hoặc các thiết bị điện hoặc điện tử khác, dùng cho các loại phương tiện thuộc Chương 86 đến Chương 88;', '(f) Sợi quang học, các bộ phận quang học đã được gia công quang học, ống tiêm dưới da, mắt giả, nhiệt kế, dụng cụ đo khí áp, máy đo tỷ trọng chất lỏng hoặc các sản phẩm khác của Chương 90;', '(g) Đèn (luminaires) hoặc bộ đèn, các biển hộp được chiếu sáng, các biển đề tên được chiếu sáng hoặc các loại tương tự, có nguồn sáng cố định thường xuyên, hoặc các bộ phận của chúng thuộc nhóm 94.05;', '(h) Đồ chơi, thiết bị trò chơi, dụng cụ, thiết bị thể thao, các đồ trang trí cây thông Nô-en hoặc các sản phẩm khác thuộc Chương 95 (trừ mắt thủy tinh không có bộ phận điều khiển, dùng cho búp bê hoặc cho các sản phẩm khác thuộc Chương 95); hoặc', '(ij) Khuy, bình chân không, bình xịt dầu thơm hoặc các bình xịt tương tự hoặc các sản phẩm khác thuộc Chương 96.', '2. - Theo mục đích của các nhóm 70.03, 70.04 và 70.05:', '(a) Thủy tinh không được coi là "đã gia công" bởi bất cứ một quá trình nào trước khi tôi luyện;', '(b) Việc cắt thành hình không ảnh hưởng đến phân loại thủy tinh dạng tấm;', '(c) Khái niệm "lớp hấp thụ, lớp phản chiếu hoặc không phản chiếu" có nghĩa là lớp phủ cực mỏng bằng kim loại hoặc bằng hợp chất hoá học (ví dụ oxit kim loại) mà lớp đó có tác dụng hấp thụ, ví dụ, hấp thụ tia hồng ngoại hoặc để tăng tính phản chiếu của kính trong khi vẫn giữ được độ trong suốt hoặc mờ; hoặc không cho ánh sáng phản chiếu từ bề mặt của kính', '3. - Những sản phẩm được kể đến trong nhóm 70.06 vẫn được phân loại trong nhóm đó cho dù có hoặc không có đặc trưng của hàng hóa.', '4. - Theo mục đích của nhóm 70.19, khái niệm "len thủy tinh" có nghĩa là:', '(a) Len khoáng vật với hàm lượng dioxit silic (SiO2) không dưới 60% tính theo trọng lượng;', '(b) Len khoáng vật với hàm lượng dioxit silic (SiO2) dưới 60% tính theo trọng lượng nhưng với một hàm lượng oxit kiềm (K2O hoặc Na2O) trên 5% tính theo trọng lượng hoặc hàm lượng oxit boric (B2O3) trên 2% tính theo trọng lượng.', 'Len khoáng vật không có những đặc điểm kỹ thuật ở trên được phân loại trong nhóm 68.06.', '5. - Trong bảng Danh mục này, khái niệm "thủy tinh" kể cả thạch anh nấu chảy và dioxit silic nấu chảy khác', 'Chú giải phân nhóm.', '1. Theo mục đích của các phân nhóm 7013.22, 7013.33, 7013.41 và 7013.91, khái niệm "pha lê chì" có nghĩa là chỉ loại thủy tinh có hàm lượng chì monoxit (PbO) tối thiểu là 24% theo khối lượng.']</t>
@@ -820,31 +820,34 @@
     <t>['Chú giải', '1.- Theo Chú giải 1 (A) của Phần VI và loại trừ những sản phẩm được liệt kê ở các mục dưới đây, thì tất cả các sản phẩm gồm toàn bộ hoặc từng phần bằng:', '(a) Ngọc trai tự nhiên hoặc nuôi cấy hoặc bằng đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo), hoặc', '(b) Kim loại quý hoặc kim loại dát phủ kim loại quý, được phân loại trong Chương này.', '2.- (A) Nhóm 71.13, 71.14 và 71.15 không bao gồm các sản phẩm mà trong đó kim loại quý hoặc kim loại được dát phủ kim loại quý chỉ đóng vai trò như là thành phần phụ, chẳng hạn như các đồ đính kèm hoặc đồ trang trí phụ (ví dụ, chữ lồng, đai và viền), và mục (b) của Chú giải trên không áp dụng cho các sản phẩm này.', '(B) Nhóm 71.16 không bao gồm các sản phẩm có chứa kim loại quý hoặc kim loại dát phủ kim loại quý (trừ khi chúng được coi như là thành phần phụ).', '3.- Chương này không bao gồm:', '(a) Hỗn hống của kim loại quý, hoặc kim loại quý dạng keo (nhóm 28.43);', '(b) Vật liệu khâu vô trùng trong phẫu thuật, các chất hàn răng hoặc các hàng hóa khác thuộc Chương 30;', '(c) Các sản phẩm thuộc Chương 32 (ví dụ, các chất bóng);', '(d) Các chất xúc tác có nền (nhóm 38.15);', '(e) Các sản phẩm thuộc nhóm 42.02 hoặc 42.03 ghi trong Chú giải 3 (B) của Chương 42;', '(f) Các sản phẩm thuộc nhóm 43.03 hoặc 43.04;', '(g) Hàng hóa thuộc Phần XI (nguyên liệu dệt và các sản phẩm dệt);', '(h) Giày dép, mũ và các vật đội đầu khác hoặc các sản phẩm khác thuộc Chương 64 hoặc 65;', '(ij) Ô dù, batoong, gậy chống hoặc các sản phẩm khác thuộc Chương 66;', '(k) Những sản phẩm dùng để mài mòn thuộc nhóm 68.04 hoặc 68.05 hoặc Chương 82, có chứa bụi hoặc bột đá quý hoặc đá bán quý (tự nhiên hoặc tổng hợp); các sản phẩm thuộc Chương 82 có bộ phận làm việc bằng đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo); máy móc, các thiết bị cơ khí hoặc hàng điện tử, hoặc các bộ phận của chúng, thuộc Phần XVI. Tuy nhiên, các sản phẩm và các bộ phận của chúng, toàn bộ bằng đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo) vẫn được phân loại trong Chương này, trừ đá saphia và kim cương đã được gia công nhưng chưa được gắn dùng cho đầu kim máy hát (nhóm 85.22);', '(l) Các sản phẩm thuộc Chương 90, 91 hoặc 92 (dụng cụ khoa học, đồng hồ thời gian và đồng hồ cá nhân, nhạc cụ);', '(m) Vũ khí hoặc các bộ phận của chúng (thuộc Chương 93);', '(n) Các sản phẩm ghi trong Chú giải 2 của Chương 95;', '(o) Các sản phẩm được phân loại trong Chương 96 theo Chú giải 4 của Chương đó; hoặc', '(p) Các tác phẩm điêu khắc hoặc tượng tạc nguyên bản (nhóm 97.03), đồ sưu tập (nhóm 97.05) hoặc đồ cổ trên 100 năm tuổi (nhóm 97.06), trừ ngọc trai tự nhiên hoặc nuôi cấy hoặc đá quý hoặc đá bán quý.', '4.- (A) Khái niệm "kim loại quý" nghĩa là bạc, vàng và bạch kim.', '(B) Khái niệm "bạch kim" nghĩa là platin, iridi, osmi, palladi, rodi và rutheni.', '(C) Khái niệm "đá quý hoặc đá bán quý" không bao gồm bất cứ một loại nào đã được ghi trong Chú giải 2(b) của Chương 96.', '5.- Theo mục đích của Chương này, hợp kim bất kỳ (kể cả hỗn hợp thiêu kết và hợp chất liên kết kim loại) có chứa kim loại quý được xem như là một hợp kim của kim loại quý nếu kim loại quý đó cấu thành bằng 2% tính theo khối lượng của hợp kim. Các hợp kim của kim loại quý được phân loại theo các quy tắc sau:', '(a) Một hợp kim có chứa 2% trở lên, tính theo khối lượng, là bạch kim thì được coi là một hợp kim của bạch kim;', '(b) Một hợp kim có chứa 2% trở lên, tính theo khối lượng, là vàng, nhưng không có bạch kim, hoặc có dưới 2% tính theo khối lượng, là bạch kim, thì được coi là hợp kim vàng;', '(c) Các hợp kim khác chứa 2% trở lên, tính theo khối lượng, là bạc thì được coi là hợp kim bạc.', '6.- Trong Danh mục này, trừ khi có yêu cầu khác, khi đề cập đến kim loại quý hoặc bất kỳ một kim loại quý cụ thể cần đề cập đến cả các hợp kim đã được coi như hợp kim của kim loại quý hoặc của kim loại quý cụ thể đó theo quy định đã nêu trong Chú giải 5 trên đây, nhưng không áp dụng với kim loại được dát phủ kim loại quý hoặc kim loại cơ bản hoặc phi kim loại dát phủ kim loại quý.', '7.- Trong toàn bộ Danh mục này khái niệm "kim loại được dát phủ kim loại quý" có nghĩa là vật liệu có nền là kim loại mà trên một mặt hoặc nhiều mặt của kim loại đó được phủ kim loại quý bằng cách hàn thiếc, hàn hơi, hàn điện, cán nóng hoặc các phương pháp bọc phủ cơ khí tương tự. Trừ khi có yêu cầu khác, thuật ngữ này cũng bao gồm kim loại cơ bản được khảm dát kim loại quý.', '8.- Theo Chú giải 1(A) Phần VI, các hàng hóa giống như mô tả của nhóm 71.12 được phân loại vào nhóm đó và không được xếp vào nhóm nào khác của Danh mục.', '9.- Theo mục đích của nhóm 71.13, khái niệm "đồ trang sức" có nghĩa là:', '(a) Các đồ vật nhỏ để trang sức cá nhân (ví dụ, nhẫn, vòng đeo tay, dây chuyền, trâm cài, hoa tai, dây đồng hồ, dây đeo đồng hồ bỏ túi, mặt dây chuyền, ghim cài cà vạt, khuy cài cổ tay áo, khuy cúc khác, huy chương và phù hiệu tôn giáo hoặc huy chương và phù hiệu khác); và', '(b) Các sản phẩm sử dụng cho mục đích cá nhân loại thường bỏ túi, để trong túi xách tay hoặc mang trên người (ví dụ, hộp đựng thuốc lá điếu hoặc hộp đựng xì-gà, hộp đựng thuốc lá bột, hộp đựng kẹo cao su hoặc hộp đựng thuốc viên, hộp phấn, ví tay có dây hoặc chuỗi tràng hạt).', 'Các sản phẩm này có thể được kết hợp hoặc là một bộ, ví dụ, với ngọc trai tự nhiên hoặc ngọc trai nuôi cấy, đá quý hoặc đá bán quý, đá quý hoặc đá bán quý tổng hợp hoặc tái tạo, mai rùa, xà cừ, ngà, hổ phách tự nhiên hoặc tái tạo, hạt huyền hoặc san hô.', '10.- Theo mục đích của nhóm 71.14, khái niệm "đồ kỹ nghệ vàng hoặc bạc" kể cả các sản phẩm như các đồ vật trang trí, bộ đồ ăn, đồ vệ sinh, đồ dùng của người hút thuốc và các sản phẩm khác sử dụng trong gia đình, văn phòng hoặc tôn giáo.', '11.- Theo mục đích của nhóm 71.17, khái niệm "đồ trang sức làm bằng chất liệu khác" có nghĩa là các sản phẩm trang sức như đã mô tả trong nội dung của mục (a) Chú giải 9 ở trên (nhưng không kể các loại khuy cài hoặc các sản phẩm khác thuộc nhóm 96.06, hoặc lược chải, trâm cài tóc hoặc các loại tương tự, hoặc ghim cài tóc, thuộc nhóm 96.15), không gắn ngọc trai tự nhiên hoặc nuôi cấy, đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo) cũng không gắn kim loại quý hoặc kim loại dát phủ kim loại quý (trừ trường hợp tráng mạ hoặc chỉ là thành phần phụ).', 'Chú giải phân nhóm', '1.- Theo mục đích của các phân nhóm 7106.10, 7108.11, 7110.11, 7110.21, 7110.31 và 7110.41, khái niệm "bột" và "dạng bột" có nghĩa là các sản phẩm có 90% trở lên tính theo khối lượng lọt qua rây (sàng) có đường kính mắt rây (sàng) 0,5 mm.', '2.- Mặc dù đã quy định trong Chú giải 4 (B) của Chương này, nhưng theo các phân nhóm 7110.11 và 7110.19, khái niệm "bạch kim" không bao gồm iridi, osmi, paladi, rodi hoặc rutheni.', '3.- Theo phân loại các hợp kim trong các phân nhóm của nhóm 71.10, mỗi hợp kim được phân loại theo kim loại, bạch kim, paladi, rodi, iridi, osmi hoặc rutheni có hàm lượng trội hơn so với mỗi kim loại khác.']</t>
   </si>
   <si>
-    <t>['Chú giải', '1. Trong Chương này và, trong các Chú giải (d), (e) và (f) của Danh mục, các khái niệm sau có nghĩa:', '(a) Gang thỏi', 'Là loại hợp kim sắt-carbon không có tính rèn, có hàm lượng carbon trên 2% tính theo khối lượng và có thể chứa một hoặc nhiều nguyên tố khác trong giới hạn dưới đây:', '- Crôm không quá 10%', '- Mangan không quá 6%', '- Phospho không quá 3%', '- Silic không quá 8%', '- Tổng các nguyên tố khác không quá 10%.', '(b) Gang kính (gang thỏi giàu mangan)', 'Là loại hợp kim sắt-carbon chứa trên 6% nhưng không quá 30% mangan tính theo khối lượng và các thành phần khác theo giới hạn đã nêu ở điểm (a) nêu trên.', '(c) Hợp kim fero', 'Là các hợp kim có dạng thỏi, khối, cục hoặc dạng thô tương tự, các dạng thu được bằng phương pháp đúc liên tục và cũng như dạng hạt hoặc dạng bột, đã hoặc chưa kết tụ, thường được sử dụng như một chất phụ gia cho quá trình sản xuất các hợp kim khác hoặc như tác nhân khử ôxy, khử lưu huỳnh hoặc cho mục đích tương tự trong ngành luyện kim đen và thông thường hợp kim này không có tính rèn, có hàm lượng sắt từ 4% trở lên tính theo khối lượng và một hoặc nhiều nguyên tố khác dưới đây:', '- Crômtrên 10%', '- Mangan trên 30%', '- Phospho trên 3%', '- Silic trên 8%', '- Tổng các nguyên tố khác trên 10%, trừ carbon, riêng hàm lượng của đồng tối đa là 10%.', '(d) Thép', 'Là các vật liệu dễ uốn có chứa sắt trừ các vật liệu thuộc nhóm 72.03 (không kể loại được sản xuất bằng phương pháp đúc) và có hàm lượng carbon không quá 2% tính theo khối lượng. Tuy nhiên, riêng thép crôm có thể có hàm lượng carbon cao hơn.', '(e) Thép không gỉ', 'Là loại thép hợp kim có hàm lượng carbon không quá 1,2% tính theo khối lượng và crôm từ 10,5% trở lên tính theo khối lượng, có thể chứa hoặc không chứa các nguyên tố khác.', '(f) Thép hợp kim khác', 'Là những loại thép có thành phần không tuân theo định nghĩa của "thép không gỉ" và chứa ít nhất một trong các nguyên tố với hàm lượng sau:', '- Nhôm từ 0,3% trở lên', '- Bo từ 0,0008% trở lên', '- Crôm từ 0,3% trở lên', '- Coban từ 0,3% trở lên', '- Đồng từ 0,4% trở lên', '- Chì từ 0,4% trở lên', '- Mangan từ 1,65% trở lên', '- Molybđen từ 0,08% trở lên', '- Nikel từ 0,3% trở lên', '- Niobi từ 0,06% trở lên', '- Silic từ 0,6% trở lên', '- Titan từ 0,05% trở lên', '- Vonfram từ 0,3% trở lên', '- Vanadi từ 0,1 % trở lên', '- Zircon từ 0,05% trở lên', '- Các nguyên tố khác tính cho mỗi nguyên tố từ 0,1% trở lên (trừ lưu huỳnh, phostpho, carbon và nitơ).', '(g) Các thỏi sắt hoặc thép từ phế liệu nấu lại', 'Các sản phẩm đúc thô dạng thỏi không có đậu rót hoặc đậu ngót, có những khuyết tật bề mặt rõ ràng và thành phần hoá học của chúng không giống với gang thỏi, gang kính hoặc hợp kim fero.', '(h) Hạt', 'Là những sản phẩm có dưới 90% tính theo khối lượng lọt qua mắt sàng 1 mm và 90% trở lên tính theo khối lượng lọt qua mắt sàng 5 mm.', '(ij) Bán thành phẩm', 'Các sản phẩm đúc liên tục có mặt cắt đông đặc, đã hoặc chưa qua cán nóng thô; và', 'Các sản phẩm khác có mặt cắt đông đặc, chưa được gia công quá mức cán nóng thô hoặc được tạo hình thô bằng phương pháp rèn, kể cả phôi để tạo các sản phẩm dạng góc, khuôn hoặc hình.', 'Các sản phẩm này không ở dạng cuộn.', '(k) Các sản phẩm được cán phẳng', 'Các sản phẩm cán có mặt cắt ngang đông đặc hình chữ nhật (trừ hình vuông), không thích hợp như định nghĩa tại mục (ij) nêu trên ở dạng sau:', '- cuộn từ các lớp được chồng lên nhau liên tiếp, hoặc', '- đoạn thẳng, nếu chiều dày của nó dưới 4,75 mm thì chiều rộng tối thiểu phải gấp 10 lần chiều dày hoặc nếu chiều dày từ 4,75 mm trở lên thì chiều rộng phải trên 150 mm và tối thiểu phải gấp 2 lần chiều dày.', 'Các sản phẩm cán phẳng kể cả các sản phẩm đó với các hình nổi được tạo ra trực tiếp từ quá trình cán (ví dụ, rãnh, gân, kẻ carô, hình giọt nước, hình núm, hình thoi) và các sản phẩm được khoan, gấp nếp hoặc đánh bóng, với điều kiện là bằng cách đó chúng không mang đặc tính của các mặt hàng hoặc sản phẩm của các nhóm khác.', 'Các sản phẩm cán phẳng có hình dạng khác với dạng hình chữ nhật hoặc hình vuông, với mọi kích thước, được phân loại như các sản phẩm có chiều rộng từ 600 mm trở lên, với điều kiện là chúng không mang đặc tính của các mặt hàng hoặc các sản phẩm thuộc nhóm khác.', '(l) Thanh và que, cán nóng, ở dạng cuộn cuốn không đều', 'Các sản phẩm cán nóng dạng cuộn cuốn không đều, có mặt cắt ngang đông đặc hình tròn, hình dẻ quạt, bầu dục, chữ nhật (kể cả hình vuông), tam giác hoặc đa giác lồi (kể cả “hình tròn phẳng” và "hình chữ nhật biến dạng", có 2 cạnh đối diện là vòng cung lồi, 2 cạnh kia thẳng, chiều dài bằng nhau và song song). Các sản phẩm này có thể được khía răng cưa, gân, rãnh hoặc các dạng khác được tạo ra trong quá trình cán (thanh và que gia cố).', '(m) Thanh và que khác', 'Các sản phẩm không phù hợp với các định nghĩa tại mục (ij), (k) hoặc (l) ở trên hoặc định nghĩa về dây, có mặt cắt ngang đông đặc đều nhau dọc theo chiều dài hình dạng mặt cắt là hình tròn, hình rẻ quạt, bầu dục, chữ nhật (kể cả hình vuông), tam giác hoặc đa giác lồi (kể cả "hình tròn phẳng" và "hình chữ nhật biến dạng", có 2 cạnh đối diện là vòng cung lồi, 2 cạnh kia thẳng, chiều dài bằng nhau và song song). Các sản phẩm này có thể:', '- có khía răng cưa, rãnh, gân hoặc các dạng khác được tạo ra trong quá trình cán (thanh và que gia cố);', '- được xoắn sau khi cán.', '(n) Góc, khuôn và hình', 'Các sản phẩm có mặt cắt ngang đông đặc đều nhau dọc chiều dài và không thích hợp với mọi định nghĩa về sản phẩm tại mục (ij), (k), (l) hoặc (m) ở trên hoặc định nghĩa về dây.', 'Chương 72 không kể đến các sản phẩm của nhóm 73.01 hoặc 73.02.', '(o) Dây', 'Các sản phẩm được tạo hình nguội, ở dạng cuộn, có mặt cắt ngang đông đặc đều nhau dọc chiều dài, khác với định nghĩa về sản phẩm được cán phẳng.', '(p) Thanh và que rỗng', 'Thanh và que rỗng với mặt cắt ngang bất kỳ, thích hợp cho các mũi khoan, kích thước bên ngoài lớn nhất của mặt cắt ngang trên 15 mm nhưng không quá 52 mm, và kích thước bên trong lớn nhất của mặt cắt không quá 1/2 kích thước bên ngoài lớn nhất. Thanh và que rỗng bằng sắt hoặc thép không đúng như định nghĩa này được phân loại vào nhóm 73.04.', '2. Kim loại đen được phủ bằng một kim loại đen khác được phân loại như những sản phẩm từ kim loại đen có khối lượng trội hơn.', '3. Các sản phẩm sắt hoặc thép thu được bằng phương pháp điện phân, bằng đúc áp lực hoặc thiêu kết được phân loại vào các nhóm của Chương này như các sản phẩm được cán nóng tương tự, theo hình dạng, thành phần và mô tả bề ngoài của chúng.', '*', '*     *', 'Chú giải phân nhóm.', '1. Trong Chương này các khái niệm sau có nghĩa:', '(a) Gang thỏi hợp kim', 'Gang thỏi chứa 1 hoặc nhiều nguyên tố có phần trăm tính theo khối lượng như sau:', '- Crôm trên 0,2%', '- Đồng trên 0,3%', '- Niken trên 0,3%', '- Trên 0,1% của một trong các nguyên tố bất kỳ sau: nhôm, molypden, titan, vonfram, vanadi.', '(b) Thép không hợp kim dễ cắt gọt', 'Thép không hợp kim chứa 1 hoặc nhiều nguyên tố sau có phần trăm tính theo khối lượng như sau:', '- Lưu huỳnh từ 0,08% trở lên', '- Chì từ 0,1% trở lên', '- Selen trên 0,05%', '- Telu trên 0,01%', '- Bismut trên 0,05%.', '(c) Thép silic kỹ thuật điện', 'Thép hợp kim có hàm lượng silic tối thiểu là 0,6% nhưng không quá 6% và chứa hàm lượng carbon không quá 0,08% tính theo khối lượng. Trong thành phần của chúng có thể chứa nhôm không quá 1% tính theo khối lượng và không chứa nguyên tố khác theo một tỷ lệ mà khiển chúng mang đặc tính của thép hợp kim khác.', '(d) Thép gió', 'Thép hợp kim chứa ít nhất 2 trong 3 nguyên tố molybden, vonfram và vanadi với hàm lượng tổng cộng từ 7% trở lên tính theo khối lượng, carbon từ 0,6% trở lên tính theo khối lượng và crôm từ 3% đến 6% tính theo khối lượng, có hoặc không có các nguyên tố khác.', '(e) Thép silic-mangan', 'Thép hợp kim có hàm lượng các nguyên tố sau tính theo khối lượng:', '- Carbon không quá 0,7%,', '- Mangan từ 0,5% đến 1,9%, và', '- Silic từ 0,6% đến 2,3%, nhưng không chứa nguyên tố khác theo một tỷ lệ mà khiến chúng mang đặc tính của thép hợp kim khác.', '2. Khi phân loại các hợp kim fero trong các phân nhóm của nhóm 72.02 cần lưu ý nguyên tắc sau:', 'Một hợp kim fero được coi như 2 nguyên tố và được phân loại vào phân nhóm thích hợp (nếu có) nếu chỉ 1 trong các nguyên tố của hợp kim vượt quá tỷ lệ phần trăm tối thiểu được nêu ở Chú giải 1 (c) của Chương này; tương tự, nó sẽ được coi như 3 hoặc 4 nguyên tố nếu 2 hoặc 3 nguyên tố của hợp kim vượt quá phần trăm tối thiểu trên.', 'Để áp dụng nguyên tắc này hàm lượng "mỗi nguyên tố khác" không được nói rõ trong Chú giải 1 (c) của Chương này phải trên 10% tính theo khối lượng.']</t>
-  </si>
-  <si>
-    <t>['Chú giải.', '1. Trong Chương này khái niệm “gang đúc” áp dụng cho các sản phẩm thu được từ quá trình đúc trong đó hàm lượng sắt tính theo khối lượng lớn hơn hàm lượng của từng nguyên tố khác và thành phần hoá học của nó khác với thành phần hóa học của thép theo định nghĩa của Chú giải 1(d) Chương 72.', '2. Trong chương này từ "dây" là các loại sản phẩm được tạo hình nóng hoặc nguội, có hình dạng mặt cắt ngang bất kỳ với kích thước không vượt quá 16 mm.']</t>
+    <t>['Chú giải', '1. Trong Chương này và, trong các Chú giải (d), (e) và (f) của Danh mục, các khái niệm sau có nghĩa:', '(a) Gang thỏi', 'Là loại hợp kim sắt-carbon không có tính rèn, có hàm lượng carbon trên 2% tính theo khối lượng và có thể chứa một hoặc nhiều nguyên tố khác trong giới hạn dưới đây:', '- Crôm không quá 10%', '- Mangan không quá 6%', '- Phospho không quá 3%', '- Silic không quá 8%', '- Tổng các nguyên tố khác không quá 10%.', '(b) Gang kính (gang thỏi giàu mangan)', 'Là loại hợp kim sắt-carbon chứa trên 6% nhưng không quá 30% mangan tính theo khối lượng và các thành phần khác theo giới hạn đã nêu ở điểm (a) nêu trên.', '(c) Hợp kim fero', 'Là các hợp kim có dạng thỏi, khối, cục hoặc dạng thô tương tự, các dạng thu được bằng phương pháp đúc liên tục và cũng như dạng hạt hoặc dạng bột, đã hoặc chưa kết tụ, thường được sử dụng như một chất phụ gia cho quá trình sản xuất các hợp kim khác hoặc như tác nhân khử ôxy, khử lưu huỳnh hoặc cho mục đích tương tự trong ngành luyện kim đen và thông thường hợp kim này không có tính rèn, có hàm lượng sắt từ 4% trở lên tính theo khối lượng và một hoặc nhiều nguyên tố khác dưới đây:', '- Crômtrên 10%', '- Mangan trên 30%', '- Phospho trên 3%', '- Silic trên 8%', '- Tổng các nguyên tố khác trên 10%, trừ carbon, riêng hàm lượng của đồng tối đa là 10%.', '(d) Thép', 'Là các vật liệu dễ uốn có chứa sắt trừ các vật liệu thuộc nhóm 72.03 (không kể loại được sản xuất bằng phương pháp đúc) và có hàm lượng carbon không quá 2% tính theo khối lượng. Tuy nhiên, riêng thép crôm có thể có hàm lượng carbon cao hơn.', '(e) Thép không gỉ', 'Là loại thép hợp kim có hàm lượng carbon không quá 1,2% tính theo khối lượng và crôm từ 10,5% trở lên tính theo khối lượng, có thể chứa hoặc không chứa các nguyên tố khác.', '(f) Thép hợp kim khác', 'Là những loại thép có thành phần không tuân theo định nghĩa của "thép không gỉ" và chứa ít nhất một trong các nguyên tố với hàm lượng sau:', '- Nhôm từ 0,3% trở lên', '- Bo từ 0,0008% trở lên', '- Crôm từ 0,3% trở lên', '- Coban từ 0,3% trở lên', '- Đồng từ 0,4% trở lên', '- Chì từ 0,4% trở lên', '- Mangan từ 1,65% trở lên', '- Molybđen từ 0,08% trở lên', '- Nikel từ 0,3% trở lên', '- Niobi từ 0,06% trở lên', '- Silic từ 0,6% trở lên', '- Titan từ 0,05% trở lên', '- Vonfram từ 0,3% trở lên', '- Vanadi từ 0,1 % trở lên', '- Zircon từ 0,05% trở lên', '- Các nguyên tố khác tính cho mỗi nguyên tố từ 0,1% trở lên (trừ lưu huỳnh, phostpho, carbon và nitơ).', '(g) Các thỏi sắt hoặc thép từ phế liệu nấu lại', 'Các sản phẩm đúc thô dạng thỏi không có đậu rót hoặc đậu ngót, có những khuyết tật bề mặt rõ ràng và thành phần hoá học của chúng không giống với gang thỏi, gang kính hoặc hợp kim fero.', '(h) Hạt', 'Là những sản phẩm có dưới 90% tính theo khối lượng lọt qua mắt sàng 1 mm và 90% trở lên tính theo khối lượng lọt qua mắt sàng 5 mm.', '(ij) Bán thành phẩm', 'Các sản phẩm đúc liên tục có mặt cắt đông đặc, đã hoặc chưa qua cán nóng thô; và', 'Các sản phẩm khác có mặt cắt đông đặc, chưa được gia công quá mức cán nóng thô hoặc được tạo hình thô bằng phương pháp rèn, kể cả phôi để tạo các sản phẩm dạng góc, khuôn hoặc hình.', 'Các sản phẩm này không ở dạng cuộn.', '(k) Các sản phẩm được cán phẳng', 'Các sản phẩm cán có mặt cắt ngang đông đặc hình chữ nhật (trừ hình vuông), không thích hợp như định nghĩa tại mục (ij) nêu trên ở dạng sau:', '- cuộn từ các lớp được chồng lên nhau liên tiếp, hoặc', '- đoạn thẳng, nếu chiều dày của nó dưới 4,75 mm thì chiều rộng tối thiểu phải gấp 10 lần chiều dày hoặc nếu chiều dày từ 4,75 mm trở lên thì chiều rộng phải trên 150 mm và tối thiểu phải gấp 2 lần chiều dày.', 'Các sản phẩm cán phẳng kể cả các sản phẩm đó với các hình nổi được tạo ra trực tiếp từ quá trình cán (ví dụ, rãnh, gân, kẻ carô, hình giọt nước, hình núm, hình thoi) và các sản phẩm được khoan, gấp nếp hoặc đánh bóng, với điều kiện là bằng cách đó chúng không mang đặc tính của các mặt hàng hoặc sản phẩm của các nhóm khác.', 'Các sản phẩm cán phẳng có hình dạng khác với dạng hình chữ nhật hoặc hình vuông, với mọi kích thước, được phân loại như các sản phẩm có chiều rộng từ 600 mm trở lên, với điều kiện là chúng không mang đặc tính của các mặt hàng hoặc các sản phẩm thuộc nhóm khác.', '(l) Thanh và que, cán nóng, ở dạng cuộn cuốn không đều', 'Các sản phẩm cán nóng dạng cuộn cuốn không đều, có mặt cắt ngang đông đặc hình tròn, hình dẻ quạt, bầu dục, chữ nhật (kể cả hình vuông), tam giác hoặc đa giác lồi (kể cả “hình tròn phẳng” và "hình chữ nhật biến dạng", có 2 cạnh đối diện là vòng cung lồi, 2 cạnh kia thẳng, chiều dài bằng nhau và song song). Các sản phẩm này có thể được khía răng cưa, gân, rãnh hoặc các dạng khác được tạo ra trong quá trình cán (thanh và que gia cố).', '(m) Thanh và que khác', 'Các sản phẩm không phù hợp với các định nghĩa tại mục (ij), (k) hoặc (l) ở trên hoặc định nghĩa về dây, có mặt cắt ngang đông đặc đều nhau dọc theo chiều dài hình dạng mặt cắt là hình tròn, hình rẻ quạt, bầu dục, chữ nhật (kể cả hình vuông), tam giác hoặc đa giác lồi (kể cả "hình tròn phẳng" và "hình chữ nhật biến dạng", có 2 cạnh đối diện là vòng cung lồi, 2 cạnh kia thẳng, chiều dài bằng nhau và song song). Các sản phẩm này có thể:', '- có khía răng cưa, rãnh, gân hoặc các dạng khác được tạo ra trong quá trình cán (thanh và que gia cố);', '- được xoắn sau khi cán.', '(n) Góc, khuôn và hình', 'Các sản phẩm có mặt cắt ngang đông đặc đều nhau dọc chiều dài và không thích hợp với mọi định nghĩa về sản phẩm tại mục (ij), (k), (l) hoặc (m) ở trên hoặc định nghĩa về dây.', 'Chương 72 không kể đến các sản phẩm của nhóm 73.01 hoặc 73.02.', '(o) Dây', 'Các sản phẩm được tạo hình nguội, ở dạng cuộn, có mặt cắt ngang đông đặc đều nhau dọc chiều dài, khác với định nghĩa về sản phẩm được cán phẳng.', '(p) Thanh và que rỗng', 'Thanh và que rỗng với mặt cắt ngang bất kỳ, thích hợp cho các mũi khoan, kích thước bên ngoài lớn nhất của mặt cắt ngang trên 15 mm nhưng không quá 52 mm, và kích thước bên trong lớn nhất của mặt cắt không quá 1/2 kích thước bên ngoài lớn nhất. Thanh và que rỗng bằng sắt hoặc thép không đúng như định nghĩa này được phân loại vào nhóm 73.04.', '2. Kim loại đen được phủ bằng một kim loại đen khác được phân loại như những sản phẩm từ kim loại đen có khối lượng trội hơn.', '3. Các sản phẩm sắt hoặc thép thu được bằng phương pháp điện phân, bằng đúc áp lực hoặc thiêu kết được phân loại vào các nhóm của Chương này như các sản phẩm được cán nóng tương tự, theo hình dạng, thành phần và mô tả bề ngoài của chúng.', '*', '*     *', 'Chú giải phân nhóm.', '1. Trong Chương này các khái niệm sau có nghĩa:', '(a) Gang thỏi hợp kim', 'Gang thỏi chứa 1 hoặc nhiều nguyên tố có phần trăm tính theo khối lượng như sau:', '- Crôm trên 0,2%', '- Đồng trên 0,3%', '- Niken trên 0,3%', '- Trên 0,1% của một trong các nguyên tố bất kỳ sau: nhôm, molypden, titan, vonfram, vanadi.', '(b) Thép không hợp kim dễ cắt gọt', 'Thép không hợp kim chứa 1 hoặc nhiều nguyên tố sau có phần trăm tính theo khối lượng như sau:', '- Lưu huỳnh từ 0,08% trở lên', '- Chì từ 0,1% trở lên', '- Selen trên 0,05%', '- Telu trên 0,01%', '- Bismut trên 0,05%.', '(c) Thép silic kỹ thuật điện', 'Thép hợp kim có hàm lượng silic tối thiểu là 0,6% nhưng không quá 6% và chứa hàm lượng carbon không quá 0,08% tính theo khối lượng. Trong thành phần của chúng có thể chứa nhôm không quá 1% tính theo khối lượng và không chứa nguyên tố khác theo một tỷ lệ mà khiển chúng mang đặc tính của thép hợp kim khác.', '(d) Thép gió', 'Thép hợp kim chứa ít nhất 2 trong 3 nguyên tố molybden, vonfram và vanadi với hàm lượng tổng cộng từ 7% trở lên tính theo khối lượng, carbon từ 0,6% trở lên tính theo khối lượng và crôm từ 3% đến 6% tính theo khối lượng, có hoặc không có các nguyên tố khác.', '(e) Thép silic-mangan', 'Thép hợp kim có hàm lượng các nguyên tố sau tính theo khối lượng:', '- Carbon không quá 0,7%,', '- Mangan từ 0,5% đến 1,9%, và', '- Silic từ 0,6% đến 2,3%, nhưng không chứa nguyên tố khác theo một tỷ lệ mà khiến chúng mang đặc tính của thép hợp kim khác.', '2. Khi phân loại các hợp kim fero trong các phân nhóm của nhóm 72.02 cần lưu ý nguyên tắc sau:', 'Một hợp kim fero được coi như 2 nguyên tố và được phân loại vào phân nhóm thích hợp (nếu có) nếu chỉ 1 trong các nguyên tố của hợp kim vượt quá tỷ lệ phần trăm tối thiểu được nêu ở Chú giải 1 (c) của Chương này; tương tự, nó sẽ được coi như 3 hoặc 4 nguyên tố nếu 2 hoặc 3 nguyên tố của hợp kim vượt quá phần trăm tối thiểu trên.', 'Để áp dụng nguyên tắc này hàm lượng "mỗi nguyên tố khác" không được nói rõ trong Chú giải 1 (c) của Chương này phải trên 10% tính theo khối lượng.', 'TỔNG QUÁT', 'Chương này bao gồm các kim loại đen, có nghĩa là gang thỏi, gang kính, hợp kim fero và các vật liệu thô khác (phân Chương I), cũng như một số các sản phẩm của ngành công nghiệp sắt và thép (dạng thỏi và các dạng thô khác, bán thành phẩm và các sản phẩm chính thu được trực tiếp từ đó) bằng sắt hoặc thép không hợp kim (phân Chương II), bằng thép không gỉ (phân Chương III) và bằng thép hợp kim khác (phân Chương IV).', 'Các sản phẩm được gia công tiếp theo, như đúc, rèn, ... và cọc cừ, thép góc, khuôn và hình được hàn, các đường ống và nguyên vật liệu xây dựng đường ray xe lửa và đường tàu điện được phân loại ở Chương 73 hoặc, trong một số trường hợp được phân loại trong các chương khác.', 'Công nghiệp sắt và thép sử dụng nhiều quặng sắt tự nhiên khác nhau làm nguyên liệu thô (quặng ôxít sắt, hydroxit, cacbonat sắt) được liệt kê trong Chú giải cho nhóm 26.01, bã pirit thiêu (ôxit sắt được thiêu kết còn lại sau khi thiêu hết lưu huỳnh từ pyrit, mackazit, pyrôtit, ..., ) và phế thải và phế liệu sắt hoặc thép.', '(I) Sự biến đổi (sự khử) quặng sắt', 'Quặng sắt được biến đổi bằng sự khử hoặc là thành gang thỏi, trong các lò cao hoặc lò điện, hoặc là thành dạng xốp (sắt xốp) hoặc thành nhiều cục bằng nhiều quá trình khử oxi trực tiếp khác nhau; chỉ khi cần sắt có độ nguyên chất ngoại lệ được đòi hỏi cho công dụng đặc biệt (ví dụ, trong công nghiệp hoá chất) thì nó thu được bằng sự điện phân hoặc bằng các quá trình hoá học khác.', '(A) Sự biến đổi quặng sắt bằng công nghệ lò cao', 'Đa số sắt thu được từ quặng sắt là được nấu luyện theo phương pháp lò cao. Quá trình này chủ yếu sử dụng quặng như nguyên vật liệu thô, nhưng kim loại phế thải và các mảnh nhỏ, quặng sắt được biến đổi sơ bộ và phế thải có chứa sắt khác có thể cũng được sử dụng.', 'Chất khử oxi trong lò cao cần chủ yếu là than cốc cứng, đôi khi được kết hợp với những lượng nhỏ than hoặc Hydrocacbon ở dạng lỏng hoặc khí.', 'Sắt được thu như vậy là ở dạng gang thỏi nóng chảy. Sản phẩm phụ là xỉ, khí lò cao và bụi lò cao.', 'Phần lớn gang thỏi nóng chảy sản xuất theo cách này được biến đổi trực tiếp thành thép trong nhà máy luyện thép.', 'Một số có thể được sử dụng trong các xưởng đúc (các nhà máy sắt thép), cho sản xuất các khuôn đúc thép thỏi, đúc các đường ống và ống gang đúc ....', 'Phần còn lại có thể được đúc thành dạng thỏi hoặc khối, trong các máy đúc hoặc trong các khuôn cát; hoặc nó có thể được sản xuất ở dạng các cục được tạo dáng không đều, đôi khi được biết như "gang tấm", hoặc được kết tinh bằng cách rót vào nước.', 'Gang thỏi đặc hoặc được nấu luyện lại trong các nhà máy luyện thép với phế liệu chứa sắt, để sản xuất ra thép, hoặc được nấu luyện trong các xưởng đúc gang, trong các lò đứng hoặc lò điện, cũng với phế liệu chứa sắt, và biến đổi thành sản phẩm đúc.', '(B) Hoàn nguyên quặng sắt trong các thiết bị khử trực tiếp', 'Trái ngược với quá trình công nghệ đã được mô tả ở trên, ở đây các chất khử thường là Hydrocacbon ở dạng khí hoặc lỏng hoặc là than đá, như vậy loại trừ được sự cần thiết về than cốc cứng.', 'Trong các quá trình này, nhiệt độ khử thấp hơn cho nên sản phẩm thu được (thường được biết như là sắt xốp) ở dạng các viên quặng hoặc các cục được biến đổi sơ bộ, xốp mà không cần phải qua trạng thái lỏng. Vì nguyên nhân này, mà hàm lượng Cacbon của chúng thường thấp hơn so với gang thỏi thu được từ lò cao (nơi mà kim loại nấu chảy được tiếp xúc chặt chẽ với Cacbon). Phần lớn các sản phẩm thô này được nấu chảy trong các nhà máy luyện thép và biến đổi thành thép.', '(II) Sản xuất thép.', 'Gang thỏi hoặc gang đúc ở dạng nóng chảy hoặc rắn và các sản phẩm chứa sắt thu được bằng việc khử trực tiếp (sắt xốp) tạo thành, với thép phế thải và mảnh vụn thép là các vật liệu ban đầu của luyện thép. Một số các chất được thêm vào những vật liệu này là các chất tạo xỉ như vôi sống, Canxi - Florua, chất khử ôxy (ví dụ như Feromangan, Ferosilic, Nhôm) và một số các nguyên tố hợp kim khác nhau.', 'Có hai loại phương pháp nấu thép chính, tức là: phương pháp "thổi khí" trong đó gang thỏi nóng chảy được tinh luyện trong lò thổi hoặc bằng khí thổi, và phương pháp lò nung, như lò Martin hoặc lò điện.', 'Phương pháp thổi khí không đòi hỏi nguồn nhiệt bên ngoài. Các phương pháp này được sử dụng khi mẻ liệu chủ yếu gồm gang thỏi nóng chảy. Sự ôxy hoá một số các thành phần có mặt trong gang thỏi (ví dụ như Cacbon, Phốt pho, Silic và Mangan) sẽ sinh đủ nhiệt để giữ thép ở thể lỏng và thậm chí còn nấu chảy bất kỳ thép phế liệu thêm nào. Những phương pháp này gồm cả phương pháp thổi ôxy nguyên chất vào kim loại nóng chảy (phương pháp Linz - Donawitz: phương pháp LD hoặc LDAC, OBM, OLP, Kaldo và các phương pháp khác) và cả những phương pháp, mà nay đã trở nên lỗi thời, trong đó có sử dụng không khí, đôi khi đã được làm giàu ôxy (phương pháp Thomas và Bessemer).', 'Tuy nhiên các phương pháp tinh luyện lò Martin đòi hỏi một nguồn nhiệt bên ngoài. Những phương pháp này được sử dụng khi vật liệu thô nạp vào lò ở trạng thái đặc (ví dụ sắt phế thải và phế liệu, sắt xốp và gang thỏi đặc).', 'Hai phương pháp chính trong loại này là phương pháp lò Martin, trong đó nhiệt được cung cấp bởi dầu nặng hoặc khí đốt, và phương pháp lò hồ quang hoặc lò cảm ứng, nhiệt được cung cấp bằng điện.', 'Để sản xuất một số loại thép, hai phương pháp khác nhau có thể được ứng dụng liên tiếp (phương pháp kép). Ví dụ, sự tinh luyện có thể bắt đầu ở một lò Martin và kết thúc ở một lò điện; hoặc thép được nấu chảy trong lò điện có thể được chuyển sang một lò thổi đặc biệt nơi mà sự khử Cacbon được hoàn thành bằng việc thổi ôxy và Argon vào mẻ liệu (ví dụ phương pháp được sử dụng trong việc sản xuất thép không gỉ).', 'Nhiều phương pháp mới đã được sử dụng để sản xuất thép có thành phần đặc biệt hoặc với các đặc tính đặc biệt. Những phương pháp này gồm nấu luyện bằng lò điện hồ quang trong chân không, nấu chảy bởi sự bắn phá bằng điện tử và phương pháp xỉ điện phân. Trong tất cả các phương pháp này thép được sản xuất từ một điện cực tự tiêu thụ, điện cực mà trong khi nấu chảy nó chảy nhỏ giọt vào trong một khuôn đúc thép thỏi được làm lạnh bằng nước. Khuôn này được làm trong một chi tiết, hoặc đáy có thể tháo mở được để vật đúc đông đặc có thể được kéo ra ở phía dưới.', 'Thép lỏng thu được bằng các phương pháp đề cập ở trên, có hoặc không được tinh luyện tiếp theo, thường được rót vào một nồi chứa. Ở giai đoạn này các thành phần hợp kim hoặc các chất khử ôxy, ở dạng rắn hoặc lỏng, có thể được thêm vào. Quá trình này có thể được thực hiện trong chân không để đảm bảo tránh khỏi các tạp chất khí.', 'Thép thu được bằng tất cả các phương pháp này tùy theo hàm lượng các thành phần hợp kim của chúng mà được phân chia thành "thép không hợp kim" và "thép hợp kim" (không gỉ hoặc các loại khác). Tùy theo các tính chất đặc biệt của chúng mà chúng được phân chia tiếp, ví dụ thành thép dễ cắt gọt, thép Silic kỹ thuật điện, thép gió hoặc thép Silic - Mangan.', '(III) Sản xuất thép ở dạng thỏi hoặc các dạng thô khác, và các bán (III) thành phẩm.', 'Mặc dầu thép nóng chảy có thể được đúc (ở các xưởng đúc) thành hình dạng cuối cùng của nó trong các khuôn (các vật đúc thép), hầu hết thép được đúc thành các thỏi trong các khuôn đúc thép thỏi.', 'Ở giai đoạn đúc hoặc rót và ở giai đoạn trạng thái đông đặc, thép được chia thành ba nhóm chính: thép sôi (sủi bọt mạnh), thép lặng (hoặc không sủi bọt mạnh) và thép nửa lặng (hoặc thép được cân bằng). Thép được đúc hoặc được rót trong trạng thái sôi được gọi như vậy vì trong và sau quá trình rót có một phản ứng giữa ôxit sắt và Cacbon hoà tan dẫn đến tách khí mạnh (sủi bọt). Trong giai đoạn làm nguội, các tạp chất tập trung trong lối trung tâm và nửa trên của các thỏi. Lớp ngoài cùng, lớp mà không bị nhiễm các tạp chất này sẽ tiếp tục cung cấp một hình dạng bề mặt tốt hơn cho những sản phẩm cán thu được từ những thỏi này. Dạng thép kinh tế hơn này cũng được sử dụng cho việc dập lòng đĩa nguội.', 'Trong nhiều trường hợp, thép không thỏa mãn được đúc trong trạng thái “sủi bọt mạnh”. Áp dụng điều này, trong thực tế, cho các thép hợp kim và thép cacbon hàm lượng cao. Trong những trường hợp này, thép phải ở trạng thái lặng, có nghĩa là được khử ôxy. Sự khử ôxy có thể được thực hiện một phần bằng việc xử lý trong chân không, nhưng phổ biến hơn bằng việc thêm các nguyên tố như silic, nhôm, canxi hoặc mangan. Bằng cách này, những tạp chất còn lại sẽ được phân bố đều hơn khắp thỏi, đưa đến một đảm bảo tốt hơn, cho những mục đích sử dụng nhất định, mà các đặc tính của thép sẽ như nhau trong khắp khối lượng của nó.', 'Một số thép có thể được khử ôxy từng phần và thép này được biết đến như thép nửa lặng (hoặc thép cân bằng).', 'Sau khi thỏi được đông đặc và nhiệt độ của chúng được cân bằng, các thỏi sẽ được cán thành các bán thành phẩm (thép cán thô, phôi thanh, thép tròn, tấm, phôi tấm) trong máy cán thô hoặc máy cán phá (máy cán phôi, máy cán phôi tấm ...) hoặc được biến dạng bằng bứa thả hoặc trong máy rèn dập tạo thành bán thành phẩm rèn.', 'Số lượng thép được đúc trực tiếp thành dạng bán thành phẩm trong các máy đúc liên tục ngày càng tăng. Hình dạng mặt cắt ngang của chúng trong một số trường hợp có thể tương tự như hình dạng mặt cắt ngang của các thành phẩm. Các bán thành phẩm thu được bằng quá trình đúc liên tục được đặc trưng bởi hình dạng bề mặt bên ngoài của chúng, hình dạng mà thường cho thấy các vành chông ngang có các màu khác nhau tại các khoảng cách đều hơn hay ít đều hơn, cũng như được đặc trưng bởi bề mặt cắt ngang của chúng thường với sự kết tinh hướng tâm do kết quả của sự làm nguội nhanh; Thép đúc liên tục là loại thép lắng,', '(IV) Sản xuất thành phẩm', 'Các bán thành phẩm và, trong một số trường hợp, là các thỏi được biến đổi tiếp theo thành thành phẩm.', 'Những sản phẩm này thường được chia nhỏ thêm thành các sản phẩm cán phẳng ("mặt phẳng rộng", gồm cả "thép tấm phổ dụng", "cuộn rộng", tấm mỏng, tấm và dải) và các sản phẩm dài (thanh và que, được cán nóng, ở dạng cuộn không đều, các thanh và que khác, góc, khuôn, hình và dây).', 'Các sản phẩm này thu được bằng sự biến dạng dẻo, hoặc nóng trực tiếp từ các thỏi hoặc bán thành phẩm (bằng việc cán nóng, rèn hoặc kéo nóng), hoặc nguội - không trực tiếp từ các thành phẩm nóng (bằng cán nguội, đúc ép, kéo dây, chuốt dây), một số trường hợp bằng gia công hoàn thiện tiếp (ví dụ như các thanh hoàn thiện nguội thu được băng mài không tâm hoặc bằng sự tiện chính xác).', 'Theo Chú giải 3 của Chương này, các sản phẩm sắt và thép thu được bằng sự kết tủa điện phân, bằng quá trình đúc dưới áp lực hoặc bằng sự thiêu kết sẽ được phân loại theo hình dạng, thành phần và dạng ngoài của chúng, trong các nhóm của Chương này thích hợp với các sản phẩm cán nóng tương tự.', 'Đối với mục đích của Chú giải này, có quy định một số định nghĩa sau:', '(1) Đúc dưới áp lực (đúc bằng khuôn kim loại):', 'Phương pháp này gồm việc phun một hợp kim ở dạng lỏng hoặc nhão vào một khuôn dưới một áp lực cao mức độ nào đó. Đó là một phương pháp để sản xuất số lượng lớn được dễ dàng và đảm bảo sự chính xác về kích thước.', '(2) Sự thiêu kết', 'Đây là một quy trình thao tác của ngành luyện kim bột, nhờ vào quy trình này tạo sản phẩm bột đặc sít chặt, thu được theo hình dạng khuôn và thường đi kèm với ép dập, sau đó được tiếp tục gia nhiệt trong một lò nung đặc biệt.', 'Quy trình hoạt động tạo nên những tính chất cuối cùng cho các vật liệu thiêu kết, sẽ được thực hiện dưới các điều kiện đặc biệt về nhiệt độ, thời gian và áp suất. Quy trình này tạo ra một sự kết tụ ở dạng rắn ở dạng rắn. Sự thiêu kết cũng có thể được thực hiện trong chân không.', '(A) Sự biến dạng dẻo nóng', '(1) Cán nóng có nghĩa là cán ở một nhiệt độ nằm giữa khoảng từ điểm tái kết tinh nhanh và điểm bắt đầu nóng chảy. Khoảng nhiệt độ phụ thuộc vào các yếu tố khác nhau như thành phần của thép. Như một nguyên tắc, nhiệt độ cuối cùng của phôi gia công trong cán nóng là khoảng 900°C.', '(2) Rèn có nghĩa là sự biến dạng nóng của kim loại chủ yếu nhờ búa thả hoặc trên các máy rèn, để thu được các phôi theo hình dạng bất kỳ.', '(3) Trong quá trình kéo nóng, thép được nung nóng và cho lọt qua một khuôn kéo dây để sản xuất các thanh, ống hoặc các mặt cắt có các hình dạng khác nhau.', '(4) Sự rèn khuôn và dập khuôn nóng có nghĩa là tạo ra các phôi hình và các đoạn cắt (thường trên đường băng chuyền) bằng cách tạo hình nóng các phôi cắt trong các khuôn dập (đóng kín hoặc với các mối nối rìa) nhờ các dụng cụ đặc biệt. Quá trình gia công, được thực hiện giai đoạn liên tục bằng sự va đập hoặc áp lực, thường được thực hiện trong các giai đoạn trình tự tiếp theo các quy trình cán thô, rèn dập, rèn tay hoặc uốn cong.', '(B) Sự biến dạng dẻo nguội', '(1) Cán nguội được thực hiện trong nhiệt độ môi trường, có nghĩa là thấp hơn nhiệt độ kết tinh lại.', '(2) Sự rèn khuôn và sự dập khuôn nguội có nghĩa là tạo ra các hình dạng và mặt cắt bằng các phương pháp nguội tương tự với những phương pháp được mô tả ở Mục A(4) ở trên.', '(3) Sự ép đùn là một quá trình công nghệ, thường là nguội, nhằm làm biến dạng thép đa số dưới áp lực cao giữa một khuôn kim loại và một dụng cụ ép, các khoảng trống bị bịt kín từ mọi phía ngoại trừ phía mà qua đó vật ép đi qua, để tạo ra hình dạng mong muốn.', '(4) Kéo dây là một quá trình gia công nguội mà trong đó các thanh hoặc que trong các cuộn dây được cuốn không đều được kéo qua một hoặc nhiều khuôn kéo dây ở tốc độ cao nhằm thu được đây có đường kính nhỏ hơn ở dạng cuộn.', '(5) Chuốt dây là một quá trình gia công nguội mà trong đó các thanh hoặc các que có hoặc không ở dạng cuộn không đều, được kéo (với tốc độ tương đối thấp), qua một hoặc nhiều khuôn nhằm thu được các sản phẩm có mặt cắt được tạo hình khác nhau hoặc nhỏ hơn.', 'Các sản phẩm gia công nguội có thể được phân biệt với số sản phẩm cán nóng hoặc kéo nóng bởi các tiêu chuẩn sau:', '- bề mặt của các sản phẩm gia công nguội có một hình dạng ngoài tốt hơn so với hình dạng ngoài của các sản phẩm thu được bởi một quá trình nóng và không bao giờ có lớp vảy bong;', '- đối với các sản phẩm gia công nguội, dung sai về kích thước nhỏ hơn;', '- các sản phẩm phẳng mỏng ("cuộn rộng" mỏng, tấm mỏng, tấm bản và dải) thường được sản xuất bởi sự biến dạng nguội;', '- sự kiểm tra bằng kính hiển vi các sản phẩm gia công nguội cho thấy một sự biến dạng đáng kể của các hạt tinh thể và sự định hướng các hạt tinh thể song song với phương gia công. Ngược lại, các sản phẩm thu được bằng các quá trình nóng biểu hiện hầu như các hạt tinh thể đều là nhờ sự kết tinh lại.', 'Ngoài ra, các sản phẩm gia công nguội có các đặc tính có thể giống một số sản phẩm cán nóng hoặc kéo nóng:', '(a) vì có sự biến dạng hoặc biến cứng khi gia công nguội mà chúng đã chịu, các sản phẩm gia công nguội rất cứng và có độ bền kéo lớn, mặc dù những đặc tính này có thể giảm đáng kể nhờ sự nhiệt luyện;', '(b) Độ giãn dài ở mặt gãy rất thấp trong các sản phẩm gia công nguội; độ giãn này sẽ cao hơn trong các sản phẩm đã qua nhiệt luyện thích hợp.', 'Quá trình cán nguội rất nhẹ (được biết như quá trình gia công là lớp bề mặt hoặc gia công ép) được áp dụng cho một số sản phẩm cán nóng phẳng không làm giảm đáng kể độ dày của chứng, sẽ không làm thay đổi tính chất của các thành phẩm cán nóng đã hoàn chỉnh. Quá trình gia công nguội dưới áp lực thấp thực chất sẽ chỉ tác động lên bề mặt của các sản phẩm, nhưng trái lại quá trình cán nguội (được biết như sự biến dạng nguội) theo ý nghĩa chính xác sẽ làm thay đổi cấu trúc tinh thể của các phôi gia công bởi sự giảm đáng kể mặt cắt ngang của nó.', '(C) Sự gia công tiếp theo và sự gia công hoàn thiện', 'Các thành phẩm có thể chịu thêm các xử lý hoàn thiện hoặc biến đổi thành các mặt hàng khác bởi một loạt các quá trình như:', '(1) Gia công cơ khí, có nghĩa là tiện, phay, mài, đục lỗ hoặc dập, tạo nếp, định cỡ, bóc vỏ,...; tuy nhiên cũng cần phải chú ý răng quá trình tiện thô đơn thuần để loại bỏ lớp vảy ôxy hoá và vảy cứng, và sự sửa ba vía thô không được coi như là các quy trình gia công tinh (gia công hoàn thiện) dẫn đến một sự thay đổi trong phân loại.', '(2) Sự xử lý bề mặt hoặc các quy trình khác, gồm cả sự mạ, nhằm cải thiện các đặc tính hoặc hình dạng bề ngoài của kim loại, bảo vệ nó chống lại sự gỉ và sự ăn mòn, .... Trừ những yêu cầu khác được quy định trong một số nhóm, việc xử lý không làm ảnh hưởng đến nhóm mà trong đó hàng hóa được phân loại. Chúng bao gồm:', '(a) Sự ủ, sự tôi cứng, sự ram, sự tôi cứng bề mặt, nitrua hoá và các sự nhiệt luyện tương tự nhằm cải thiện các đặc tính của kim loại.', '(b) Sự làm sạch gỉ, tẩy gỉ bằng axít, cạo và các quá trình khác nhằm bóc vẩy ôxít và vẩy cứng hình thành trong quá trình nung kim loại.', '(c) Sự tráng thô chỉ để nhằm bảo vệ sản phẩm khỏi gỉ hoặc sự ôxy hoá khác, ngăn ngừa sự trượt trong quá trình vận chuyển và làm cho thuận lợi quá trình xử lý ..., sơn có chứa một chất màu hoạt tính chống gỉ (bột chì đỏ, bột kẽm, ôxít kẽm, kẽm cromat, ôxít sắt, sắt minium, bột đỏ của hiệu kim hoàn), và các lớp phủ ngoài không nhuộm màu với nền bằng dầu, mỡ bôi trơn, sáp, sáp parafin, graphit, hắc ín hoặc bitum.', '(d) Xử lý hoàn thiện (gia công tinh) bề mặt, bao gồm:', '(i) đánh bóng và miết bóng hoặc sự xử lý tương tự;', '(ii) sự ôxy hoá nhân tạo (bằng các quá trình hoá học khác nhau, ví dụ, như sự nhúng chìm trong một dung dịch ôxy hoá), tráng nước bóng, nhuộm xanh (sự ủ xanh), nhuộm nâu hoặc tạo màu xám đồng (bằng các kỹ thuật khác nhau), những quá trình mà cũng tạo thành một màng mỏng ôxít trên bề mặt của sản phẩm, nhằm làm tốt hơn hình dạng bề ngoài của nó. Những quy trình này sẽ làm tăng tính chống gỉ;', '(iii) xử lý bề mặt bằng phương pháp hoá học, như là:', '- sự phốt phát hoá, quá trình này gồm sự nhúng chìm sản phẩm trong một dung dịch các phốt phát axít kim loại, đặc biệt là những phốt phát axít của mangan, sắt và kẽm; quá trình này được biết như là sự tráng phốt phát chống gỉ hoặc sự phốt phát hoá, phụ thuộc vào khoảng thời gian của quy trình và nhiệt độ dung dịch của bể nhúng;', '- oxalat hoá, borat hoá,... sử dụng như các phương pháp tương tự các phương pháp đối với sự phốt phát hoá, với các muối hoặc axít thích hợp;', '- cromat hoá là quá trình bao gồm sự nhúng chìm sản phẩm trong một dung dịch mà thành phần chính của dung dịch là axit cromic hoặc các cromat; quá trình này để xử lý bề mặt, ví dụ như tấm thép được mạ hoặc bọc kẽm.', 'Những phương pháp xử lý bề mặt bằng phương pháp hoá học có lợi thế là bảo vệ được bề mặt của kim loại, làm thuận lợi hơn cho bất kỳ sự biến dạng nguội tiếp theo nào của sản phẩm được xử lý và sử dụng các loại sơn hoặc các lớp phủ phi kim loại bảo vệ khác.', '(iv) lớp phủ với kim loại (sự mạ kim loại), các quá trình chính là:', '- nhúng trong một bể của kim loại hoặc hợp kim nóng chảy, ví dụ như mạ kẽm nhúng nóng, mạ thiếc, phủ nóng bằng chì và lớp phủ nhôm;', '- mạ điện (sự kết tủa ở catốt của một kim loại phủ trên sản phẩm được phủ, bằng điện phân một dung dịch các muối kim loại thích hợp) ví dụ như kẽm, cađimi, thiếc, chi, crôm, crôm/cromat, đồng, niken, vàng hoặc bạc;', '- sự tẩm hoặc khuếch tán (bằng cách nung sản phẩm sẽ được phủ với kim loại phủ yêu cầu ở dạng bột, ví dụ như tráng kẽm (sự xementit hoá với kẽm) và sự thấm nhôm (xementit hoá với nhôm) và sự thấm crôm (với sự khuếch tán crôm);', '- sự phun (sự phun mù kim loại nóng chảy và hướng bụi nước phun vào phía sản phẩm sẽ được phủ) ví dụ như quá trình Schoop (phun bột kim loại qua lửa) và súng bắn khí, hồ quang, plasma và các quá trình phun tĩnh điện;', '- sự mạ kim loại bằng việc làm bay hơi kim loại dùng để mạ trong chân không,..;', '- sự mạ kim loại bằng cách bắn phá kim loại dùng để mạ với các ion trong sự phóng điện phát sáng (mạ ion);', '- phủ bằng sự bay hơi ở catốt (sự sôi lên);', '(v) phủ bằng các chất không kim loại, ví dụ sự tráng men, sự sơn bóng (đánh véc ni), sơn mài, quét sơn, sơn in bề mặt, phủ gốm hoặc chất dẻo, bao gồm cả các quá trình đặc biệt như phóng điện phát sáng, hiện tượng điện chuyển, phóng tĩnh điện và nhúng chìm trong một dung dịch hoá lỏng tĩnh điện sau đó đốt bằng bức xạ,…', '(e) mạ (cladding), có nghĩa là sự liên kết các lớp kim loại có màu hoặc bản chất khác nhau bằng sự thâm nhập phân tử vào nhau của các bề mặt tiếp xúc. Sự khuếch tán có giới hạn này là đặc trưng của các sản phẩm mạ và cũng để phân biệt chúng với những sản phẩm được tráng kim loại theo cách được nêu ở trước (ví dụ bằng sự mạ điện thông thường).', 'Nhiều quá trình mạ (cladding) còn bao gồm cả việc rót kim loại mạ nóng chảy vào kim loại nền, tiếp theo là cán, việc cán nóng đơn giản kim loại mạ để đảm bảo việc hàn có hiệu quả vào kim loại nền, bất kỳ phương pháp kết tủa nào khác hoặc sự chông kim loại mạ tiếp theo bất kỳ quá trình cơ khí hoặc nhiệt nào nhằm đảm bảo cho sự hàn (ví dụ mạ điện), mà trong đó kim loại mạ (niken, crôm, ...) được đặt vào kim loại nền bằng phương pháp mạ điện, sự thâm nhập phân tử vào nhau của các bề mặt tiếp xúc sau đó sẽ nhiệt luyện ở nhiệt độ thích hợp và cán nguội tiếp theo.', 'Các sản phẩm có chứa sắt mạ kim loại màu vẫn trong các nhóm tương ứng của chúng trong Chương 72 với điều kiện rằng sắt hoặc thép là kim loại trội về trọng lượng (xem Chú giải 5 của Phần XV). Các sản phẩm sắt và thép mạ kim loại đen khác, tùy theo thành phần của sản phẩm gốc hoặc của kim loại mạ có thể thuộc phân Chương (II, III hoặc IV), tương tự phải được phân loại phù hợp với kim loại trội về trọng lượng (Xem Chú giải 2 của Chương này); ví dụ, một thanh thép không hợp kim thông thường mạ thép không gỉ được phân loại trong phân Chương II nếu kim loại nói trên trội hơn về mặt trọng lượng, hoặc nếu không thì sẽ được phân loại trong phân Chương III.', '(f) Sự lấy đi những phần nhỏ của kim loại nhằm mục đích thử nghiệm.', '(g) Sự cán dát mỏng, ví dụ, để chồng các lớp kim loại lên một lớp ở giữa của vật liệu vitcô đàn hồi, lớp này sẽ tạo âm thanh.v.v.., chất cách điện.', '*', '*   *', 'Sự phân loại các hợp kim của kim loại đen và của các sản phẩm hợp chất được nêu trong Chú giải chung của phần XV.', 'PHÂN CHƯƠNG I', 'NGUYÊN LIỆU THÔ, CÁC SẢN PHẨM Ở DẠNG HẠT HOẶC DẠNG BỘT']</t>
+  </si>
+  <si>
+    <t>['Chú giải.', '1. Trong Chương này khái niệm “gang đúc” áp dụng cho các sản phẩm thu được từ quá trình đúc trong đó hàm lượng sắt tính theo khối lượng lớn hơn hàm lượng của từng nguyên tố khác và thành phần hoá học của nó khác với thành phần hóa học của thép theo định nghĩa của Chú giải 1(d) Chương 72.', '2. Trong chương này từ "dây" là các loại sản phẩm được tạo hình nóng hoặc nguội, có hình dạng mặt cắt ngang bất kỳ với kích thước không vượt quá 16 mm.', 'TỔNG QUÁT', 'Chương này bao gồm số lượng nhất định các sản phẩm đặc trưng trong các nhóm 73.01 đến 73.24 và trong các nhóm 73.25 và 73.26 một nhóm các sản phẩm không được định rõ hoặc không thuộc Chương 82 hoặc 83 và không thuộc các Chương khác của Danh mục, bằng sắt (gồm cả gang đúc như được định nghĩa trong Chú giải 1 cho Chương này) hoặc bằng thép.', 'Với các mục đích của Chương này, các định nghĩa "ống và ống dẫn" và "thanh dạng rỗng" có các nghĩa sau:', '(1) Ống và ống dẫn', 'Là những sản phẩm rỗng đồng tâm, có mặt cắt ngang đồng nhất với chỉ một khoảng trống chứa đựng dọc theo toàn bộ chiều dài của chúng, có các bề mặt ở trong và ở phía ngoài có cùng dạng. Các ống thép chủ yếu có các mặt cắt ngang hình tròn, ôvan, chữ nhật (kể cả hình vuông) nhưng ngoài ra có thể bao gồm cả các mặt cắt ngang hình tam giác đều và các hình đa giác lồi đều khác. Các sản phẩm có mặt cắt ngang trừ hình tròn, với các góc lượn tròn dọc theo cả chiều dài của nó, và các ống với các đầu chồn cũng sẽ được xem như là các ống. Chúng có thể được đánh bóng, phủ, uốn cong (gồm cả ống cuộn), có ren và được nối hoặc không có ren hoặc không được nối, được khoan lỗ, thắt hẹp, mở rộng, có hình nón hoặc được gắn với các mặt bích, vòng đai hoặc vành ống.', '(2) Thanh hình rỗng', 'Là những sản phẩm rỗng không theo định nghĩa ở trên và chủ yếu những sản phẩm này không có bề mặt ở phía trong và phía ngoài cùng dạng.', 'Chú giải Tổng quát Chương 72, với những sửa đổi thích hợp, áp dụng cho Chương này.', '73.01 – Cọc cừ (sheet pilling) bằng sắt hoặc thép, đã hoặc chưa khoan lỗ, đục lỗ hoặc ghép từ các bộ phận lắp ráp; sắt hoặc thép, ở dạng góc, khuôn và dạng hình, đã được hàn.', '7301.10 - Cọc cừ', '7301.20 - Dạng góc, khuôn và hình', 'Cọc cừ bao gồm các thép hình thu được bằng cách cán, kéo, nén, gấp nếp - dập hoặc được tạo hình dáng trong các máy cán, hoặc bằng cách lắp ráp các bộ phận đã được cán (ví dụ như bằng sự tán đinh, hàn, hoặc gấp nếp). Những thép hình này có thể được gắn với nhau bằng cách được khoá liên động một cách đơn giản hoặc thậm chí bằng cách mang các cạnh dọc được đặt cạnh nhau. Với mục đích này, ít nhất trên các cạnh dọc, đều có các bộ phận nối (ví dụ như rãnh, mặt bích, khoá liên động).', 'Nhóm này bao gồm:', '(1) Góc cọc cừ hoặc các mẩu góc, là những mặt cắt dùng để tạo các góc; với mục đích này thì sử dụng hoặc là các mặt cắt đã được gấp, hoặc những mặt cắt đã được cắt dọc theo chiều dài của chúng, những bộ phận thu được bằng cách đó sau đó được hàn hoặc tán đinh để tạo thành một góc.', '(2) Các mặt cắt cọc cừ lắp ráp với ba hoặc bốn cạnh để làm các vách ngăn.', '(3) Các mặt cắt cọc cừ mắc nối mà hình dạng của chúng cho phép chúng sẽ được sử dụng để nối các loại cọc cừ khác nhau.', '(4) Các cột và đường ống cọc cừ mà được dẫn tiếp đất theo cách cho chúng lắp ráp với nhau mà cần được khoá liên động chặt. Các đường ống cọc cừ được làm gọn sóng (tạo nếp) trên hình dạng. Các cột cọc cừ được làm từ hai mặt cắt được hàn với nhau.', 'Cọc cừ thường được sử dụng để làm tường trên đất có cát, úng nước hoặc bị ngập nước cho các công trình xây dựng như đập, đê hoặc mương.', 'Nhóm này còn bao gồm các góc, khuôn, hình đã hàn. Chú giải cho nhóm 72.16 với những sửa đổi thích hợp, áp dụng cho các thanh dạng thu được bằng cách hàn.', 'Nhóm này không bao gồm:', '(a) Thanh dạng rỗng đã được hàn (nhóm 73.06).', '(b) Cọc cừ được lắp ráp thành những cọc mà không có khoá liên động để có thể sử dụng cho việc lắp ráp bên ngoài (nhóm 73.08).', '37.02- Vật liệu xây dựng đường ray đường sắt hoặc đường ray tàu điện bằng sắt hoặc thép, như: ray, ray dẫn hướng và ray có răng, lưỡi ghi, ghi chéo, cần bẻ ghi và các đoạn nối chéo khác, tà vẹt (dầm ngang), thanh nối ray, gối ray, tấm đệm ray, tấm đế (đế ray), thanh chống xô, bệ đỡ (bedplate), tà vẹt và vật liệu chuyên dùng khác cho việc ghép hoặc định vị đường ray.', '7302.10 - Ray', '7302.30 - Lưỡi ghi, ghi chéo, cần bẻ ghi và các đoạn nối chéo khác', '7302.40 - Thanh nối ray và tấm đế', '7302.90 - Loại khác', 'Nhóm này bao gồm vật liệu xây dựng đường ray xe lửa và xe điện bằng sắt hoặc thép, hoặc có khổ đường bình thường hoặc có khổ hẹp.', '(1) Ray cho đường xe lửa hay đường xe điện là những sản phẩm cán nóng. Nhóm này bao gồm tất cả các chiều dài của những loại ray kể cả ray đầu tròn, ray có rãnh trượt (hoặc thanh đáy phẳng), ray xe điện lòng máng, ray có rãnh cho các đường xe điện, và các ray dẫn,...', 'Nhóm này bao gồm tất cả các ray loại thường được sử dụng cho các đường ray đường xe lửa hoặc đường xe điện, bất chấp công dụng ban đầu của chúng (tàu điện treo, cần trục lưu động, ...). Tuy nhiên nhóm này không bao gồm những ray không có dạng kiểu của đường xe điện hoặc xe hoả (ví dụ như các ray cửa trượt và ray thang máy).', 'Ray dẫn hướng, còn được biết như thanh chắn hoặc thanh ray an toàn, được cố định vào các ray của đường ray nhằm ngăn ngừa sự trật bánh ở các ngã tư và các đường cong.', 'Ray có răng được dùng cho các đường sắt dốc đứng. Một kiểu gồm hai thanh dài song song được nối bởi các thanh ngang được chia cách gần nhau, các khoảng giữa những thanh này được thiết kế để ăn khớp với răng của bánh răng ở dưới đầu máy xe lửa. Kiểu thứ hai gồm một ray có răng tương tự cũng ăn khớp với bánh răng.', 'Tất cả những loại ray trên có thể thẳng, cong hoặc được khoan các lỗ lắp bu lông.', '(2) Lưỡi ghi, ghi chéo, cần bẻ ghi và các đoạn nối chéo khác, những sản phẩm này có thể được đúc hoặc thu được bằng cách khác, được sử dụng tại những nút đường hoặc chỗ giao nhau của đường cố định.', '(3) Tà vẹt (dầm ngang) bằng sắt hoặc thép được sử dụng để đỡ các ray và giữ chúng song song.', 'Chúng thường được nén thành hình dạng cuối cùng sau khi cán, nhưng chúng còn có thể được lắp ráp bằng cách hàn hoặc tán đinh vài chi tiết với nhau. Chúng thường có một mặt cắt ngang ở dạng chữ " U " hoặc chữ Ômêga hoa có chân rất ngắn, và chúng vẫn trong nhóm này dù có hoặc không được khoan, đục lỗ, xọc rãnh, hoặc được gắn với các gối ray hoặc tấm đế, hoặc gắn với ray được tạo dáng nguyên gắn chặt với các thân rãnh.', '(4) Thanh nối ray là những sản phẩm được cán nóng, rèn hoặc đúc với những hình dạng khác nhau (phẳng, có gờ, có góc,...) được sử dụng để nối một ray với ray tiếp theo. Chúng được xếp vào nhóm này dù có hoặc không được khoan lỗ hoặc đục lỗ.', '(5) Gối ray (thường bằng gang đúc) được sử dụng để cố định ray đầu tròn vào tà vẹt; chúng được làm kiên cố bởi các vít đầu vuông hoặc bu lông.', 'Tấm đệm ray được sử dụng để giữ chặt các ray trong các gối ray.', 'Tấm đế (đế ray, tấm tà vẹt) được sử dụng trong việc cố định các thanh đáy phẳng vào tà vẹt. Chúng bảo vệ các tà vẹt và được cố định vào các tà vẹt bằng các vòng kẹp, bu lông, vít đầu vuông, đinh ray hoặc trong trường hợp bằng thép thì được cố định bằng cách hàn.', 'Thanh chống xô tương tự được sử dụng để cố định các thanh đáy phẳng vào các tà vẹt. Chúng được bắt vít vào tà vẹt và kẹp xiết đáy phẳng của ray vào chúng.', 'Nhóm này còn bao gồm các khí cụ định vị ray khiến đường ray cứng vững khác, ví dụ như những khí cụ thu được bằng cách uốn cong một thanh thép thành một hình gần như chữ L, cạnh ngắn nhất dập tiếp xúc với gờ ray và cạnh dài nhất, với đầu của nó được cán phẳng mảnh nhưng không mài nhọn, được cố định trong một lỗ được khoan trước tiên trong rầm ngang.', 'Hơn nữa, các khí cụ kẹp chặt ray co giãn cũng thuộc nhóm này. Những khí cụ này được sản xuất từ thép lò xo và kẹp xiết ray với dầm ngang hoặc tấm đế. Lực xiết thu được bởi sự uốn cong hình học chi tiết kẹp chặt từ điều kiện “như được sản xuất”. Một bộ phận giảm sóc hoặc cách điện, thường bằng cao su hoặc chất dẻo, được đặt xen vào giữa chi tiết kẹp chặt và ray hoặc giữa chi tiết kẹp chặt và dầm ngang.', '(6) Bệ đỡ và tà vẹt (ties) được sử dụng để cố định các ray ở vị trí song song của chúng.', 'Các tà vẹt đặt cách thưa nhau riêng biệt và các thanh thép góc được thiết kế để được bắt vít vào một số các tà vẹt liên tiếp bằng gỗ; như vậy khi mà được cố định ở các góc vuông vào các tà vẹt thì thực hiện phận sự ngăn ngừa sự biến dạng (hoặc "rão") của đường ray tại một số điểm.', '(7) Các cóc đường ray đặc trưng khác là những thiết bị được gắn hoặc xiết vào ray nơi mà xuất hiện sự rão theo chiều dọc. Những thiết bị này chịu tải chống lại tà vẹt hoặc tấm đế có khả năng ngăn ngừa sự dịch chuyển theo chiều dọc.', 'Nhóm này không bao gồm:', '(a) Đinh vít, bu lông, đai ốc, đinh tán và đinh ray được sử dụng để cố định các vật liệu xây dựng đường ray (nhóm 73.17 và 73.18).', '(b) Đường ray đã lắp ráp, vòng quay đường ray, bộ giảm chấn nền bệ và thước đo kích thước chất hàng (nhóm 86.08).', '73.03 – Các loại ống, ốn dẫn và thanh hình rỗng, bằng ngang đúc.', 'Nhóm này áp dụng cho các ống, ống dẫn và thanh hình rỗng được sản xuất bằng gang đúc như được định rõ trong Chú giải 1 của Chương này.', 'Chúng có thể được sản xuất bằng cách đúc trong khuôn hoặc bằng cách đúc ly tâm; trong trường hợp sau, gang nóng chảy được rót vào một trụ nằm ngang được quay nhanh để kim loại bị lực ly tâm bắn vào thành khuôn noi mà gang nóng chảy đông đặc.', 'Những ống, ống dẫn và các thanh hình rỗng có thể thẳng hoặc uốn cong, tron, có bavia hoặc có phiến. Chúng có thể có đầu nối, có mặt bích hoặc có bích do sự hàn hoặc cắt ren. Để lắp ráp được thuận tiện, các ống dẫn có đầu nối có một đầu mở rộng để chứa được đầu của ống dẫn thứ hai. Các ống dẫn có mặt bích có thể được lắp ráp nhờ các vòng đai, đai ốc, bu lông, vòng kẹp, ..., trong khi các ống dẫn đầu có ren hoặc tron được lắp ráp nhờ những khớp nối, vành ống hoặc vòng đai.', 'Nhóm này còn bao gồm các ống, ống dẫn và thanh hình rỗng với những lỗ nhiều nhánh hoặc lỗ nối chạc ba, và bao gồm cả các ống, ống dẫn và thanh hình rỗng được bao phủ ví dụ như bao phủ bằng kẽm, chất dẻo, bitum.', 'Các ống và ống dẫn thuộc nhóm này chủ yếu được sử dụng cho các đường ống nước, rút tháo nước bằng áp lực hoặc lực hút, cho sự phân phối khí bằng áp lực thấp, cũng như ống máng hay ống tháo nước, hoặc cho các hệ thống thoát nước.', 'Nhóm này không bao gồm:', '(a) Các phụ kiện ghép nối cho ống và ống dẫn (nhóm 73.07).', '(b) Các ống, ống dẫn và các thanh dạng rỗng được làm thành các bộ phận có thể nhận dạng của các sản phẩm, được phân loại trong các nhóm tương ứng, ví dụ như các bộ phận của lò sưởi trung tâm (nhóm 73.22) và các chi tiết máy (Phần XVI).', '73.04- Các loại ống, ống dẫn và thanh hình rỗng, không nối, bằng sắt (trừ gang đúc) hoặc thép (+)', '- Ống dẫn sử dụng cho đường ống dẫn dầu hoặc khí:', '7304.11.00 - - Bằng thép không gỉ', '7304.19.00 - - Loại khác', '- Ống chống, ống và ống khoan, sử dụng cho khoan dầu hoặc khí:', '7304.22 - - Ống khoan bằng thép không gỉ', '7304.23 - - Ống khoan khác', '7304.24 - - Loại khác, bằng thép không gỉ', '7304.29 - - Loại khác', '- Loại khác, có mặt cắt ngang hình tròn, bằng sắt hoặc thép không hợp kim:', '7304.31 - - Được kéo nguội hoặc cán nguội (ép nguội)', '7304.39 - - Loại khác', '- Loại khác, có mặt cắt ngang hình tròn, bằng thép không gỉ:', '7304.41 - - Được kéo nguội hoặc cán nguội (ép nguội)', '7304.49 - - Loại khác', '- Loại khác, có mặt cắt ngang hình tròn, bằng thép hợp kim khác:', '7304.51 - - Được kéo nguội hoặc cán nguội (ép nguội)', '7304.59 - - Loại khác', '7304.90 - Loại khác', 'Các ống, ống dẫn và các thanh dạng rỗng thuộc nhóm này có thể được sản xuất bằng các phương pháp sau:', '(A) Cán nóng một sản phẩm trung gian, sản phẩm có thể là một thỏi, được cán và bóc vỏ, một phôi vuông hoặc tròn thu được bằng cách cán hoặc đúc liên tục. Quá trình sản xuất này bao gồm:', '(1) Khoan lỗ trong máy cán ngang (quá trình Mannesmann), trong máy nghiền kiểu đĩa hoặc trong mũi khoan dạng nón để thu được một phôi rỗng có độ dày thành và đường kính ngoài lớn hơn và có chiều dài nhỏ hơn so với sản phẩm cuối cùng.', '(2) Cán nóng trên một trục gá hoặc một đầu ống:', '- trong một máy cán duỗi ba trục nghiêng (quá trình Assel hoặc Transval) sử dụng phần lớn để sản xuất các ống ổ trục hoặc trong một máy cán duỗi hai trục nghiêng với các đĩa dẫn (quá trình Diescher) hoặc trong một máy kéo dài, hoặc', '- trong một "máy cán ống liên tục" có các bộ trục khác nhau trên một trục gá "di động tự do" hoặc trục gá hạn chế nửa di động (quá trình Neuval hoặc Dalmine), hoặc', '- trong một máy cán bước răng cưa, hoặc', '- trong một máy cán Stiefel, hoặc', '- trong một bàn ép bằng cách ép phôi cán thô trong một dãy trục, hoặc', '- trong một máy tóp vuốt dài. Trong trường hợp này sản phẩm thu được là một ống hoàn thiện', '(B) Đúc ép nóng trong một máy dập có sử dụng thuỷ tinh (quá trình Ugine - Sejoumet) hoặc chất bôi trơn khác, có hình tròn. Phương pháp này trong thực tế bao gồm các qui trình sau: khoan lỗ, mở rộng hoặc không, và đúc ép.', 'Các qui trình được mô tả ở trên được gia công tiếp theo bằng các qui trình hoàn thiện khác:', '- hoàn thiện nóng: trong trường hợp này, các phôi cán thô sau khi nung lại sẽ đi qua một máy cán định cỡ hoặc một máy cán giãn dài và cuối cùng trong một máy cán nắn thẳng, hoặc', '- hoàn thiện nguội trên một trục gá, bằng cách kéo nguội trên một giá kéo hoặc cán nguội (ép nguội) trên một máy cán bước răng cưa (quá trình Mannesmann hoặc Megaval). Từ các ống đã cán nóng hoặc đúc ép nóng, được sử dụng như phôi cán thô, những qui trình này cho khả năng nhận được các ống có độ dày thành (cần chú ý rằng quá trình Transval cho phép sản xuất trực tiếp các ống có chiều dầy thành giảm) hoặc đường kính nhỏ hon, ngoài ra còn cho phép thu được các ống có sai số kích thước cho phép của đường kính hoặc độ dày thành chặt chẽ hon. Các phương pháp gia công nguội còn bao gồm cả sự mài khôn và miết, làm bóng bằng con lăn nhằm thu được các bề mặt được đánh bóng theo yêu cầu (các ống với mức độ nhám thấp), ví dụ như đối với các kích khí nén hoặc xy lanh thuỷ lực.', '(C) Đúc hoặc đúc ly tâm.', '(D) Sự kéo sâu một đĩa được đặt trên một khuôn tạo hình, phôi cán thô được làm ra bằng cách được kéo nóng liên tiếp.', '(E) Rèn.', '(F) Gia công cơ khí các thanh tiếp theo các quy trình kéo nguội hoặc cán nguội (ép nguội) (loại trừ các thanh khoan rỗng thuộc nhóm 72.28).', 'Xem Chú giải tổng quát cho chương này có liên quan đến sự khác biệt giữa các ống với các ống dẫn và mặt khác với các thanh dạng rỗng.', '*', '*     *', 'Các sản phẩm thuộc nhóm này có thể phủ, ví dụ như phủ chất dẻo (nhựa) hoặc phủ bông thuỷ tinh kết hợp với bitum.', 'Nhóm này còn bao gồm các ống hoặc ống dẫn và các thanh dạng rỗng có bavia hoặc có phiến ví dụ như những ống có bavia hay có phiến toàn bộ với các bavia dọc hoặc ngang.', 'Các sản phẩm thuộc nhóm này đặc biệt bao gồm các ống dẫn thuộc loại sử dụng cho dầu hoặc khí, ống chống, đường ống và các ống khoan sử dụng trong việc khoan dầu và khí, các ống và ống dẫn thích hợp để sử dụng trong các nồi hơi, thiết bị tăng nhiệt, bộ trao đổi nhiệt, bộ ngưng tụ, lò tinh luyện, thiết bị đun nước cho các trạm điện năng, các ống hoá đen và mạ điện (được gọi là ống dẫn khí đốt) để dẫn hơi nước áp suất cao hoặc trung bình, hoặc sử dụng trong phân phối nước hoặc khí đốt ở các nhà cao tầng, cũng như các ống cho đường trục phân phối nước và chất đốt trên đường phố. Ngoài ra các ống và ống dẫn được sử dụng để sản xuất các bộ phận cho ô tô hoặc máy móc, các vành cho ổ bi, ổ hình trụ, ổ có ống lót côn hoặc ổ kim hoặc cho các sử dụng cơ khí khác, cho các vật liệu làm giàn giáo, các kết cấu dạng ống hoặc kết cấu nhà cao tầng.', 'Nhóm này không bao gồm:', '(a) Ống và ống dẫn bằng gang đúc (nhóm 73.03) và các ống và ống dẫn bằng sắt hoặc thép thuộc nhóm 73.05 hay 73.06.', '(b) Các thanh dạng rỗng bằng gang đúc (nhóm 73.03) và các thanh dạng rỗng bằng sắt hoặc thép thuộc nhóm 73.06.', '(c) Ống hoặc phụ kiện ống dẫn bằng sắt hoặc thép (nhóm 73.07).', '(d) Ông dễ uốn bằng sắt hoặc bằng thép có hay không có các phụ kiện (gồm cả ống của bộ điều chỉnh nhiệt và mối nối bù) (nhóm 83.07).', '(e) Ống dẫn được cách điện (nhóm 85.47).', '(f) Các ống, ống dẫn và các thanh dạng rỗng được làm thành những sản phẩm đặc thù có thể nhận dạng, ví dụ như những sản phẩm được làm để sử dụng trong các kết cấu (nhóm 73.08), những thanh dạng ống của lò sưởi cho thiết bị sưởi ấm trung tâm (nhóm 73.22), các ống xả cho động cơ đốt trong kiểu pit tông (nhóm 84.09), các bộ phận máy móc khác (Phần XVI), bình xả (hộp giảm thanh) và ống xả của xe cộ thuộc chương 87 (ví dụ, nhóm 87.08 hoặc 87.14), trục bàn đạp và khung xe đạp (nhóm 87.14).', '°', '°    °', 'Chú giải phân nhóm.', 'Các phân nhóm 7304.11, 7304.19, 7304.22, 7304.23, 7304.24 và 7304.29', 'Các phân nhóm này bao gồm tất cả các mặt hàng không kể đến các tiêu chuẩn hoặc các thông số kỹ thuật mà chúng đáp ứng (ví dụ các tiêu chuẩn API 5L hay 5LU cho ống dẫn và các tiêu chuẩn 5A, 5AC hay 5AX cho các ống chống, ống và ống khoan của viện Dầu lửa Mỹ (API)).', 'Các phân nhóm 7304.31, 7304.39, 7304.41, 7304.49, 7304.51 và 7304.59', 'Với mục đích phân biệt giữa các sản phẩm gia công nguội và các sản phẩm khác thuộc các phân nhóm này, xem Chú giải chung của chương 72, Phần IV (b) , đoạn thứ hai.', '73.05 – Các loại ống và ống dẫn khác bằng sắt hoặc thép (ví dụ, được hàn, tán bằng đinh hoặc ghép với nhau bằng cách tương tự), có mặt cắt ngang hình tròn, đường kính ngoài trên trời 406,4 mm (+)', '- Ống dẫn được sử dụng cho đường ống dẫn dầu hoặc khí:', '7305.11 - - Hàn chìm theo chiều dọc bằng hồ quang', '7305.12 - - Loại khác, hàn theo chiều dọc', '7305.19 - - Loại khác', '7305.20 - Ống chống sử dụng trong khoan dầu hoặc khí', '- Loại khác, được hàn:', '7305.31 - - Hàn theo chiều dọc', '7305.39 - - Loại khác', '7305.90 - Loại khác', 'Các ống và ống dẫn thuộc nhóm này thu được, ví dụ bằng cách hàn hoặc tán đinh các dạng được tạo hình truớc (được tạo hình truớc bằng cách hàn hoặc tán đinh), có hình ống, hở được làm từ các sản phẩm cán phẳng.', 'Các dạng hình ống có thể được sản xuất:', '- theo chiều dọc hoặc theo đường xoắn ốc trong một qui trình liên tục nhờ một bộ trục cán, đối với các sản phẩm cán dẹt ở dạng cuộn; hoặc', '- theo chiều dọc trong một qui trình không liên tục nhờ một máy dập hoặc máy cán, đối với các sản phẩm cán phẳng không ở dạng cuộn.', 'Trong trường hợp các sản phẩm hàn, các cạnh mép tiếp xúc được hàn không có phụ gia kim loại bằng cách hàn chảy giáp mối, hàn bằng điện trở hay hàn bằng cảm ứng điện, hoặc bằng cách hàn hồ quang dưới lớp trợ dung với kim loại phụ gia và chất trợ dung hoặc lớp bảo vệ khí nhằm ngăn ngừa sự ô xi hoá. Về các sản phẩm thu được bằng cách tán đinh, các cạnh mép tiếp xúc được phủ chồng và ghép nối bằng các đinh tán.', 'Các sản phẩm thuộc nhóm này có thể được phủ, ví dụ như phủ plastic hoặc len thuỷ tinh kết hợp với bitum.', 'Chúng bao gồm cả các ống dẫn thuộc loại sử dụng cho khí hoặc dầu, các ống chống cho các giếng dầu mỏ hoặc giếng khí, ống cho các đường ống nuớc khoảng cách xa hoặc các đường ống dẫn than hoặc các vật liệu rắn khác, các ống để đóng cọc hoặc cho các cột kết cấu, cũng như các đường ống dẫn trong thuỷ điện, thường được gia cố với các vành đai ống.', '*', '*     *', 'Nhóm này không bao gồm:', '(a) Ống, ống dẫn và thanh dạng rỗng, thuộc nhóm 73.03, 73.04 hoặc 73.06.', '(b) Phụ kiện của ống hoặc ống dẫn bằng sắt hoặc thép (nhóm 73.07).', '(c) Ống hoặc ống dẫn làm thành các sản phẩm đặc thù dễ nhận dạng.', '°', '°     °', 'Chú giải phân nhóm.', 'Các phân nhóm 7305.11, 7305.12,7305.19 và 7305.20', 'Các qui định của Chú giải cho các phân nhóm 7304.11, 7304.19, 7304.22, 7304.23, 7304.24 và 7304.29, với những sửa đổi thích hợp sẽ áp dụng cho các phân nhóm này.', 'Phân nhóm 7305.11', 'Phân nhóm này bao gồm các ống được sản xuất từ tấm thép bằng cách gia công định hình trong một máy dập hoặc bằng cách cán, và bằng cách hàn hồ quang điện với bổ sung kim loại và chất trợ dung nhằm ngăn ngừa sự ôxi hoá kim loại tại thời điểm nóng chảy.', 'Sau khi hàn có một mối hàn do kim loại đắp lên, "mối hàn" có thể nhìn thấy rõ ràng trên bề mặt ngoài của ống đã hoàn thiện.', 'Phân nhóm 7305.12', 'Phân nhóm này bao gồm chủ yếu là các ống được sản xuất từ các cuộn dây thép bằng cách tạo hình dạng liên tục thông qua một dãy các trục cán định hình và bằng cách hàn điện điện trở hoặc cảm ứng điện mà không thêm kim loại. Sau khi hàn không có mối hàn kim loại đắp lên trên bề mặt ngoài của ống hoàn thiện.', '73.06 – Các loại ống, ống dẫn và thanh hình rỗng khác, bằng sắt hoặc thép (ví dụ, nối hở hoặc hàn, tán đinh hoặc ghép bằng cách tương tự) (+).', '- Ống dẫn sử dụng cho đường ống dẫn dầu hoặc khí:', '7306.11 - - Hàn, bằng thép không gỉ', '7306.19 - - Loại khác', '- Ống chống và ống sử dụng cho khoan dầu hoặc khí :', '7306.21 - - Hàn, bằng thép không gỉ', '7306.29 - - Loại khác', '7306.30 - Loại khác, được hàn, có mặt cắt ngang hình tròn, bằng sắt hoặc thép không hợp kim', '7306.40 - Loại khác, được hàn, có mặt cắt ngang hình tròn, bằng thép không gỉ', '7306.50 - Loại khác, được hàn, có mặt cắt ngang hình tròn, bằng thép hợp kim khác', '- Loại khác, được hàn, có mặt cắt ngang không phải hình tròn:', '7306.61 - - Mặt cắt ngang hình vuông hoặc hình chữ nhật', '7306.69 - - Loại khác, có mặt cắt ngang không phải là hình tròn', '7306.90 - Loại khác', 'Những qui định của Chú giải cho nhóm 73.05 với những sửa đổi thích hợp, sẽ được áp dụng cho các sản phẩm thuộc nhóm này.', 'Nhóm này cũng bao gồm:', '(1) Các ống và ống dẫn được hàn bằng cách rèn, được biết như là những ống và ống dẫn được hàn giáp mối.', '(2) Các ống và ống dẫn với các cạnh mép kín, có nghĩa là các ống và ống dẫn mà trong đó các cạnh mép tiếp xúc hoặc bao bọc lẫn nhau và chúng được biết như những ống nối hở. Tuy nhiên các sản phẩm có một khe hở dọc theo cả chiều dài sẽ được phân loại như các loại hình trong nhóm 72.16, 72.22 hay 72.28.', '(3) Các ống và ống dẫn mà trong đó các cạnh mép tiếp xúc được nối bằng cách kẹp.', 'Một số các ống và ống dẫn hàn theo chiều dọc thuộc nhóm này trải qua các quá trình kéo nóng hoặc nguội hoặc cán nhằm thu được các sản phẩm có đường kính ngoài hoặc độ dày thành giảm hon và có các sai số kích thước cho phép chặt chẽ hon. Những phương pháp gia công nguội này còn cho phép gia công tinh bề mặt khác nhau bao gồm cả bề mặt đã được đánh bóng như được đề cập trong Chú giải cho nhóm 73.04.', 'Xem Chú giải tổng quát cho chương này liên quan đến sự khác biệt giữa các ống, các ống dẫn và các thanh dạng rỗng.', '*', '*    *', 'Nhóm này đặc biệt bao gồm các ống dẫn thuộc loại sử dụng cho dầu và khí, ống chống và ống thuộc loại sử dụng trong việc khoan dầu và khí, những ống và ống dẫn thích hợp để sử dụng trong các nồi hơi, thiết bị tăng nhiệt, bộ trao đổi nhiệt, bộ ngưng tụ, ống cấp nước của bộ gia nhiệt cho các trạm điện năng, các ống hoá đen hoặc mạ điện (được gọi là ống dẫn khí đốt) để phân phối hơi nước và nước áp suất cao hay trung bình trong các toà nhà cao tầng, cũng như các ống làm đường trục phân phối nước hoặc chất đốt trên đường phố. Các ống, ống dẫn và các thanh dạng rỗng được sử dụng để sản xuất các bộ phận, chi tiết cho ô tô hoặc cho máy móc, khung xe đạp, xe đẩy trẻ con, hoặc sử dụng cho kết cấu khác, vật liệu làm giàn giáo, các kết cấu dạng ống hoặc kết cấu nhà cao tầng. Các “ống nối mở” được sử dụng ví dụ như các khung của các đồ nội thất kim loại.', 'Nhóm này còn bao gồm cả các ống, ống dẫn và các thanh dạng rỗng được phủ plastic hoặc phủ len thuỷ tinh kết hợp với bibum, cũng như các ống có bavia hoặc có phiến với các bavia dọc hoặc ngang.', 'Nhóm này không bao gồm:', '(a) Các ống và ống dẫn bằng gang đúc (nhóm 73.03) và ống và ống dẫn bằng sắt hoặc thép thuộc nhóm 73.04 hoặc 73.05.', '(b) Các thanh dạng rỗng bằng gang đúc (nhóm 73.03) và các thanh dạng rỗng bằng sắt hoặc thép thuộc nhóm 73.04.', '(c) Các phụ kiện ghép nối cho ống hoặc ống dẫn bằng sắt hoặc thép (nhóm 73.07).', '(d) Ống dễ uốn bằng sắt hoặc thép, có hay không có các phụ kiện ghép nối (gồm cả các ống của bộ điều chỉnh nhiệt và các mối nối bù) (nhóm 83.07).', '(e) Ông dẫn được cách điện (nhóm 85.47).', '(f) Các ống, ống dẫn và các thanh dạng rỗng được làm thành các sản phẩm đặc thù để nhận dạng, ví như những sản phẩm được làm để sử dụng trong các kết cấu (nhóm 73.08), những mặt cắt dạng ống của lò sưởi cho thiết bị sưởi ấm trung tâm (nhóm 73.22), các ống xả cho động cơ đốt trong kiểu pittông (nhóm 84.09), các bộ phận máy móc khác (Phần XVI), bình xả (hộp giảm thanh) và ống xả của xe cộ thuộc Chương 87 (ví dụ: nhóm 87.08 hoặc 87.14) trục bàn đạp và khung xe đạp (nhóm 87.14).', '°', '°     °', 'Chú giải phân nhóm.', 'Các phân nhóm 7306.11, 7306.19 7306.21 và 7306.29', 'Các qui định của Chú giải cho các phân nhóm 7304.11, 7304.19, 7304.22, 7304.23, 7304.24 và 7304.29, với những sửa đổi thích hợp, sẽ áp dụng cho các phân nhóm này.', '73.07 – Phụ kiện ghép nối cho ống hoặc ống dẫn (ví dụ, khớp nối đôi, khuỷu, măng sông), bằng sắt hoặc thép.', '- Phụ kiện dạng đúc:', '7307.11 - - Bằng gang đúc không dẻo', '7307.19 - - Loại khác', '- Loại khác, bằng thép không gỉ :', '7307.21 - - Mặt bích', '7307.22 - - Ông khuỷu, khuỷu nối ống và măng sông, loại có ren để ghép nối', '7307.23 - - Loại hàn giáp mối', '7307.29 - - Loại khác', '- Loại khác:', '7307.91 - -Mặt bích', '7307.92 - - Ống khuỷu, khuỷu nối ống và măng sông, loại có ren để ghép nối', '7307.93 - - Loại hàn giáp mối', '7307.99 - - Loại khác', 'Nhóm này bao gồm các phụ kiện bằng sắt hoặc thép, chủ yếu được sử dụng để nối các đầu lỗ của hai ống với nhau, hoặc để nối một ống với thiết bị khác nào đó, hoặc để đóng lỗ ống. Nhóm này tuy nhiên không bao gồm các sản phẩm tuy dùng để lắp đặt các ống dẫn và ống nhưng lại không tạo thành một bộ phận của đầu lỗ (ví dụ như các vòng treo, thanh chống và các trụ đỡ tuông tự, những sản phẩm mà chỉ dùng để cố định hay chống đỡ các ống và ống dẫn trên tường, kẹp hoặc xiết chặt các đai hay vòng đai (vòng kẹp ống mềm) được sử dụng để kẹp chặt đường ống dễ uốn hay ống mềm vào hệ thống đường ống cứng vững, vòi, các chi tiết nối, ...) (nhóm 73.25 hoặc 73.26).', 'Chi tiết nối thu được bằng cách:', '- vặn vít, khi sử dụng các phụ kiện có ren bằng thép hoặc gang đúc;', '- hoặc hàn, khi sử dụng các phụ kiện hàn giáp mối hoặc hàn ống nối bằng thép. Trong trường hợp hàn giáp mối, các đầu phụ kiện và đầu ống được cắt góc vuông hoặc vát góc;', '- hoặc tiếp xúc, khi sử dụng các phụ kiện bằng thép tháo mở được.', 'Nhóm này vì vậy mà bao gồm cả các bích dẹt và bích với các chi tiết vòng đai rèn, ống khuỷu và khuỷu nối ống và các đầu nối hình chữ U, ống nối chuyển tiếp, ống chữ T (ống ba nhánh), khóp nối chữ thập, nắp và đầu ống, đầu nhánh cụt của mối nối chồng, các phụ tùng của tay vịn hình ống và các cấu kiện, nhánh bên, các chi tiết nhiều nhánh, các khớp nối, hoặc măng sông, bộ gom làm sạch, đai ốc nối, đầu nối, vòng kẹp và vòng đai.', 'Nhóm này không bao gồm:', '(a) Vòng kẹp và các khí cụ khác được đặc biệt thiết kế để lắp ráp các bộ phận cấu kiện (nhóm 73.08).', '(b) Bulông, đai ốc, đinh vít, ... sử dụng trong lắp ráp phụ kiện của ống hoặc ống dẫn (nhóm 73.18).', '(c) Bộ điều chỉnh nhiệt và các mối nối bù (nhóm 83.07).', '(d) Vòng treo, thanh chống và các sản phẩm tương tự, như được mô tả ở trên; và các đầu ống, có ren hoặc không có ren, được gắn với một vành ống, móc,... (ví dụ những loại sử dụng để cố định đường ống rửa (nhóm 73.26).', '(e) Các phụ tùng được trang bị với vòi, van, van phân phối, ... (nhóm 84.81).', '(f) Mối nối được cách điện cho đường dẫn điện (nhóm 85.47).', '(g) Các chi tiết nối để lắp ráp khung xe đạp hoặc khung mô tô (nhóm 87.14).', '73.08 – Các kết cấu (trừ nhà lắp ghép thuộc nhóm 94.06) và các bộ phận rời của các kết cấu (ví dụ cầu và nhịp cầu, cửa cống, tháp, cột lướt, mái nhà, khung mái, cửa ra vào, cửa sổ, và các loại khung cửa, ngưỡng cửa ra vào, cửa sổ, và các loại khung cửa, ngưỡng cửa ra vào, cửa chớp, lan can, cột trụ và các loại cột khác), bằng sắt hoặc thép; tấm, thanh, góc, khuôn, hình, ống và các loại tương tự, đã được gia công để dùng làm kết cấu, bằng sắt hoặc thép (+).', '7308.10 - Cầu và nhịp cầu', '7308.20 - Tháp và cột lưới (kết cấu giàn)', '7308.30 - Cửa ra vào, cửa sổ và các loại khung cửa và ngưỡng cửa ra vào', '7308.40 - Thiết bị dùng cho giàn giáo, ván khuôn, vật chống hoặc cột trụ chống hầm lò', '7308.90 - Loại khác', 'Nhóm này bao gồm các kết cấu kim loại hoàn chỉnh hoặc không hoàn chỉnh, cũng như các bộ phận kết cấu rời. Để phù hợp với mục đích của nhóm này, những kết cấu này được đặc trưng bởi thực tế là một khi chúng được đặt đúng vị trí nào thì chúng thường vẫn ở đúng vị trí đó. Chúng thường được làm thành từ các thanh, que, ống, góc, hình, mặt cắt, thép lá, tấm bản rộng kể cả những thứ được gọi là thép tấm phổ dụng, vành, dải, vật rèn hoặc vật đúc, bằng cách tán đinh, bắt bulông, hàn,... Các kết cấu như vậy đôi khi lắp vào các sản phẩm thuộc các nhóm khác ví dụ như các tấm dây kim loại đan hoặc sản phẩm dạng lưới được tạo hình bằng phương pháp đột dập và kéo giãn thành lưới thuộc nhóm 73.14. Các bộ phận rời của cấu kiện bao gồm cả vòng kẹp và các khí cụ khác được thiết kế đặc biệt để lắp ráp những kết cấu xây dựng kim loại có mặt cắt ngang hình tròn (có dạng ống hoặc các dạng khác). Những khí cụ này thường có những mấu lồi với các lỗ được ren nơi mà các đinh vít được gắn vào, tại thời điểm lắp ráp, nhằm cố định các vòng kẹp vào đường ống.', 'Không kể đến các kết cấu và các bộ phận rời được đề cập trong nhóm, thì nhóm này còn bao gồm các sản phẩm như:', 'Các khung nhà tháp liên hợp trên miệng giếng và các kết cấu bên trên, các trụ điều chỉnh được hay trụ ống lồng (kính viễn vọng), các trụ dạng ống, các dầm chống thành giếng có thể kéo dài, vật liệu giàn giáo hình ống, các thiết bị tương tự; cửa cống, ke, đê chắn sóng và đập chắn sóng biển; kết cấu phần trên của hải đăng; cột buồm, cầu tàu, ray, vách khoang tàu,... đối với tàu biển; ban công và mái hiên; cửa chớp, cổng, cửa ra vào trượt, lan can và hàng rào đã lắp ráp; cửa rào chắn và các loại hàng rào tương tự; bộ khung cho nhà kính và khung nhà kính; vật liệu đóng kệ (giá) cỡ lớn để lắp ráp và lắp đặt cố định trong các cửa hàng, phân xưởng, nhà kho, ... quầy hàng và giá đỡ; một số hàng rào bảo vệ cho đường ô tô cao tốc, được làm từ kim loại tấm hoặc từ các góc, khuôn và hình.', 'Nhóm này còn bao gồm các bộ phận như các sản phẩm cán phẳng, "tấm rộng" kể cả những loại được gọi là thép tấm phổ dụng, dải, que, góc, hình, mặt cắt và ống, mà đã được gia công (ví dụ như khoan, uốn cong hoặc cắt rãnh) để sử dụng trong các cấu kiện.', 'Nhóm này còn bao gồm những sản phẩm gồm có các thanh cán riêng biệt được xoắn với nhau, được sử dụng cho công việc gia cường cốt thép hoặc cốt thép bê tông đã chịu tác dụng của ứng suất trước (cốt thép bê tông dự ứng lực).', 'Nhóm này không bao gồm:', '(a) Cọc cừ đã lắp ráp (nhóm 73.01)', '(b) Panen chống thành giếng dùng để đổ bê tông, có tính chất của khuôn (nhóm 84.80)', '(c) Các kết cấu dễ nhận dạng như các bộ phận máy móc (Phần XVI)', '(d) Các kết cấu thuộc Phần XVII, ví dụ như các chi tiết cố định và các phụ kiện của đường ray xe lửa và xe điện, và thiết bị truyền tín hiệu co học, thuộc nhóm 86.08; khung gầm cho đầu máy xe lửa, ... hoặc ô tô (Chương 86 hoặc 87), và kết cấu nổi thuộc Chương 89.', '(e) Đồ nội thất đã được đóng thành kệ có thể di chuyển (nhóm 94.03).', '°', '°    °', 'Chú giải chi tiết phân nhóm.', 'Phân nhóm 7308.30', 'Phân nhóm này cũng bao gồm loại cửa bảo vệ bằng thép, cho mọi loại nhà ở.', '73.09 – Các loại bể chứa, két, bình chứa và các thùng chứa tương tự dùng để chứa mọi loại vật liệu (trừ khí nén hoặc khí hỏa lỏng), bằng sắt hoặc thép, có dung tích trên 300 lít, đã hoặc chưa được lót hoặc được cách nhiệt, nhưng chưa lắp ráp với thiết bị cơ khí hoặc thiết bị nhiệt.', 'Những thùng chứa này thường được lắp đặt như những thiết bị cố định để sử dụng trong bảo quản hoặc sản xuất, ví dụ như trong nhà máy, nhà máy hoá chất, xưởng nhuộm, nhà máy sản xuất khí đốt, nhà máy bia, nhà máy rượu và nhà máy lọc dầu và theo một kích thước nhỏ hơn trong các nhà, cửa hiệu,... Nhóm này bao gồm các đồ chứa cho bất kỳ vật liệu nào trừ khí nén và khí hoá lỏng. Những đồ chứa cho những chất khí như vậy được phân loại trong nhóm 73.11 không kể đến dung tích của chúng. Các đồ chứa được lắp với thiết bị cơ khí hoặc thiết bị nhiệt ví dụ như bộ phận khuấy, ống xoắn gia nhiệt hay ống xoắn làm lạnh hoặc các thành phần điện sẽ thuộc Chương 84 hoặc 85.', 'Mặt khác những đồ chứa đã được lắp đơn giản với các vòi nước, van, máy cao đạc, van an toàn, áp kế, ..., vẫn thuộc nhóm này.', 'Các đồ chứa có thể hở hoặc kín, được lót ebônit, plastic hoặc các kim loại màu, hoặc gắn lớp phủ cách nhiệt (ví dụ: amian, sợi xỉ hoặc len thuỷ tinh), chất liệu cách nhiệt này được ho</t>
   </si>
   <si>
     <t>['Chú giải.', '1.- Trong Chương này các khái niệm sau có nghĩa:', '(a) Đồng tinh luyện', 'Kim loại có ít nhất 99,85% tính theo khối lượng là đồng; hoặc Kim loại có ít nhất 97,5% tính theo khối lượng là đồng, với điều kiện hàm lượng các tạp chất không vượt quá giới hạn ghi trong bảng sau:', 'BẢNG – Các nguyên tố khác', 'Nguyên tố', 'Hàm lượng giới hạn (% khối lượng)', 'Ag', 'Bạc', '0,25', 'As', 'Asen', '0,5', 'Cd', 'Catmi', '1,3', 'Cr', 'Crom', '1,4', 'Mg', 'Magie', '0,8', 'Pb', 'Chì', '1,5', 'S', 'Lưu huỳnh', '0,7', 'Sn', 'Thiếc', '0,8', 'Te', 'Telua', '0,8', 'Zn', 'Kẽm', '1,0', 'Zr', 'Ziriconi', '0,3', 'Các nguyên tố khác (*), tính cho mỗi nguyên tố', '0,3', '* Các nguyên tố khác, ví dụ: Al (Nhôm), Be (Berili), Co (Cobal), Fe (sắt), Mn (Mangan), Ni (Niken), Si (Silic)', '(b) Hợp kim đồng', 'Vật liệu kim loại trừ đồng chưa tinh luyện trong đó hàm lượng đồng tính theo khối lượng lớn hơn so với từng nguyên tố khác, với điều kiện:', '(i) hàm lượng của ít nhất một trong các nguyên tố khác phải lớn hơn giới hạn đã nêu trong bảng trên; hoặc', '(ii) Tổng hàm lượng của các nguyên tố khác lớn hơn 2,5%', '(c) Các hợp kim đồng chủ', 'Hợp kim chứa các nguyên tố khác với hàm lượng lớn hơn 10% tính theo khối lượng của đồng, không có tính rèn và thường sử dụng như chất phụ gia trong sản xuất Các hợp kim khác hoặc như tác nhân khử ô-xi, khử lưu huỳnh hoặc tác dụng tương tự trong ngành luyện kim màu. Tuy nhiên, đồng photphua (phosphor copper) có hàm lượng phospho trên 15% tính theo khối lượng phải xếp vào nhóm 28.53.', 'Chú giải phân nhóm.', '1. Trong Chương này, các khái niệm sau có nghĩa:', '(a) Hợp kim đồng-kẽm (đồng thau)', 'Hợp kim đồng và kẽm, có hoặc không có các nguyên tố khác.', 'Khi có các nguyên tố khác:', '- hàm lượng kẽm trội hơn so với hàm lượng của mỗi nguyên tố khác;', '- hàm lượng niken dưới 5% tính theo khối lượng (xem phần hợp kim đồng-niken- kẽm (bạc niken)); và', '- hàm lượng thiếc dưới 3% tính theo khối lượng (xem phần hợp kim đồng-thiếc (đồng thanh)).', '(b) Hợp kim đồng-thiếc (đồng thanh)', 'Hợp kim đồng và thiếc, có hoặc không có các nguyên tố khác. Trường hợp có nguyên tố khác, hàm lượng thiếc phải trội hơn so với hàm lượng của từng nguyên tố khác, trừ trường hợp khi thành phần thiếc từ 3% trở lên thì hàm lượng kẽm có thể cao hơn thiếc nhưng phải dưới 10% tính theo khối lượng.', '(c) Hợp kim đồng-niken-kẽm (bạc niken)', 'Hợp kim đồng, niken và kẽm, có hoặc không có các nguyên tố khác. Hàm lượng niken từ 5% tính theo khối lượng trở lên (xem phần hợp kim đồng kẽm (đồng thau)).', '(d) Hợp kim đồng-niken', 'Hợp kim đồng và niken, có hoặc không có các nguyên tố khác nhưng trong mọi trường hợp, hàm lượng kẽm chứa trong đó không quá 1% tính theo khối lượng. Trong trường hợp có nguyên tố khác, hàm lượng của niken phải trội hơn so với hàm lượng của từng nguyên tố khác.']</t>
   </si>
   <si>
-    <t>['Chú giải phân nhóm.', '1.- Trong Chương này, các khái niệm sau có nghĩa:', '(a) Niken không hợp kim', 'Là kim loại có tổng hàm lượng niken và coban tối thiểu 99% tính theo khối lượng, với điều kiện:', '(i) hàm lượng coban không quá 1,5% tính theo khối lượng, và', '(ii) hàm lượng của bất kỳ nguyên tố nào khác không vượt quá giới hạn nêu trong bảng sau:', 'BẢNG CÁC NGUYÊN TỐ KHÁC', 'Element', 'Limiting content % by weight', 'Fe       Iron', '0.5', 'O        Oxygen', '0.4', 'Other elements, each', '0.3', '(b) Niken hợp kim', 'Vật liệu kim loại mà trong đó hàm lượng của niken trội hơn so với hàm lượng của mỗi nguyên tố nào khác với điều kiện:', '(i) hàm lượng của coban trên 1,5% tính theo khối lượng,', '(ii) hàm lượng tính theo khối lượng của ít nhất 1 trong các nguyên tố khác trong thành phần vượt quá giới hạn nêu ở bảng trên, hoặc', '(iii) tổng hàm lượng của các nguyên tố khác trừ niken và coban lớn hơn 1% tính theo khối lượng.', '2. Mặc dù đã quy định tại Chú giải 9 (c) Phần XV, theo mục đích của phân nhóm 7508.10 khái niệm “dây" chỉ áp dụng cho các sản phẩm, dù ở dạng cuộn hoặc không ở dạng cuộn, có hình dạng mặt cắt ngang bất kỳ, nhưng kích thước mặt cắt ngang không vượt quá 6 mm.']</t>
-  </si>
-  <si>
-    <t>['Chú giải phân nhóm.', '1. Trong chương này các khái niệm sau có nghĩa:', '(a) Nhôm, không hợp kim', 'Là kim loại có hàm lượng nhôm chiếm ít nhất 99% tính theo khối lượng, với điều kiện hàm lượng của bất kỳ nguyên tố nào khác không vượt quá giới hạn nêu trong bảng sau:', 'BẢNG - Các nguyên tố khác', 'Nguyên tố', 'Giới hạn hàm lượng % theo khối lượng', 'Fe+ Si (Sẳt + Silic)', 'Các nguyên tố khác (1) , tính cho mỗi nguyên tố', '1', '0.1(2)', '(1) Các nguyên tố khác, ví dụ Cr, Cu, Mg, Mn, Ni, Zn.', '(2) Tỷ lệ đồng cho phép lớn hơn 0,1%, nhưng không quá 0,2%, với điều kiện hàm lượng crôm cũng như hàm lượng mangan đều không quá 0,05%.', '(b) Hợp kim nhôm', 'Vật liệu kim loại mà trong đó hàm lượng nhôm lớn hơn so với hàm lượng của mỗi nguyên tố khác tính theo khối lượng, với điều kiện:', '(i) hàm lượng của ít nhất 1 trong các nguyên tố khác hoặc tổng hàm lượng của sắt với silic phải lớn hơn giới hạn nêu ở bảng trên; hoặc', '(ii) tổng hàm lượng của các nguyên tố khác trong thành phần vượt quá 1% tính theo khối lượng.', '2. Mặc dù đã quy định tại Chú giải 9 (c) của Phần XV, theo mục đích của phân nhóm 7616.91, khái niệm “dây" chỉ áp dụng cho các sản phẩm ở dạng cuộn hoặc không ở dạng cuộn, mặt cắt ngang ở hình dạng bất kỳ, kích thước mặt cắt ngang không quá 6 mm.']</t>
-  </si>
-  <si>
-    <t>['Chú giải phân nhóm.', '1. Trong Chương này khái niệm “chì tinh luyện" có nghĩa:', 'Là kim loại có hàm lượng chì chiếm ít nhất 99,9% tính theo khối lượng, với điều kiện hàm lượng của mỗi nguyên tố khác trong thành phần không vượt quá giới hạn nêu trong bảng sau:', 'BẢNG - Các nguyên tố khác', 'Nguyên tố', 'Giới hạn tỷ lệ TL%', 'Ag', 'Bạc', '0,02', 'As', 'Arsen', '0,005', 'Bi', 'Bismut', '0,05', 'Ca', 'Canxi', '0,002', 'Cd', 'Catmi', '0,002', 'Cu', 'Đồng', '0,08', 'Fe', 'Sắt', '0,002', 'S', 'Lưu huỳnh', '0,002', 'Sb', 'Antimon', '0,005', 'Sn', 'Thiếc', '0,005', 'Zn', 'Kẽm', '0,002', 'Nguyên tố khác', '(ví dụ Telua) , mỗi nguyên tố', '0,001']</t>
-  </si>
-  <si>
-    <t>['Chú giải phân nhóm.', '1.- Trong Chương này các khái niệm sau có nghĩa:', '(a) Kẽm, không hợp kim', 'Là kim loại có hàm lượng kẽm ít nhất 97,5% tính theo khối lượng.', '(b) Hợp kim kẽm', 'Vật liệu kim loại mà trong đó hàm lượng của kẽm lớn hơn so với hàm lượng lượng của mỗi nguyên tố khác, với điều kiện tổng hàm lượng tính theo khối lượng của các nguyên tố khác trên 2,5%.', '(c) Bụi kẽm', 'Bụi thu được từ quá trình ngưng tụ hơi kẽm, bao gồm những hạt hình cầu nhỏ hơn bột kẽm. Có tối thiểu 80% tính theo khối lượng các hạt lọt qua mắt sàng 63 micromét (microns). Hàm lượng của kẽm ít nhất là 85% tính theo khối lượng.']</t>
-  </si>
-  <si>
-    <t>['Chú giải phân nhóm.', '1. Trong Chương này các khái niệm sau có nghĩa:', '(a) Thiếc, không hợp kim', 'Là kim loại có hàm lượng thiếc chiếm ít nhất 99% tính theo khối lượng, với điều kiện hàm lượng của bismut hoặc đồng phải thấp hơn giới hạn ở bảng sau:', 'BẢNG - Các nguyên tố khác', 'Nguyên tố', 'Hàm lượng giới hạn tính theo khối lượng (%)', 'Bi', 'Bismut', '0.1', 'Cu', 'Đồng', '0.4', '(b) Hợp kim thiếc', 'Vật liệu kim loại mà trong đó hàm lượng thiếc lớn hơn so với hàm lượng của mỗi nguyên tố khác tính theo khối lượng, với điều kiện:', '(i) tổng hàm lượng các nguyên tố khác trên 1% tính theo khối lượng; hoặc', '(ii) hàm lượng của bismut hoặc đồng phải bằng hoặc lớn hơn giới hạn nêu ở bảng trên.']</t>
-  </si>
-  <si>
-    <t>['Chú giải.', '1. - Ngoài các mặt hàng như đèn khò, bộ bệ rèn di động, các loại đá mài có lắp gá đỡ, bộ sửa móng tay hoặc móng chân, và các mặt hàng thuộc nhóm 82.09, Chương này chỉ bao gồm các sản phẩm lưỡi dao, lưỡi cắt, bề mặt làm việc hoặc bộ phận làm việc khác bằng:', '(a) Kim loại cơ bản;', '(b) Cacbua kim loại hoặc gốm kim loại;', '(c) Đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo) gắn với nền kim loại cơ bản, cacbua kim loại hoặc gốm kim loại; hoặc', '(d) Vật liệu mài gắn với nền kim loại cơ bản, với điều kiện các sản phẩm đó có răng cắt, đường máng, đường rãnh soi hoặc tương tự, bằng kim loại cơ bản, các sản phẩm đó vẫn giữ được đặc tính và chức năng sau khi được gắn với vật liệu mài.', '2 - Các bộ phận bằng kim loại cơ bản của các sản phẩm thuộc Chương này được phân loại theo các sản phẩm đó, trừ các bộ phận được chi tiết riêng và tay cầm cho các loại dụng cụ cầm tay (nhóm 84.66).', 'Tuy nhiên, các bộ phận có công dụng chung nêu trong Chú giải 2 Phần XV được loại trừ khỏi Chương này trong mọi trường hợp.', 'Đầu, lưỡi dao và lưỡi cắt của máy cạo râu dùng điện hoặc tông đo cắt tóc dùng điện được xếp vào nhóm 85.10.', '3. - Bộ gồm 1 hoặc nhiều dao thuộc nhóm 82.11 và ít nhất là một số lượng tương đương các sản phẩm thuộc nhóm 82.15 được phân loại trong nhóm 82.15.']</t>
+    <t>['Chú giải phân nhóm.', '1.- Trong Chương này, các khái niệm sau có nghĩa:', '(a) Niken không hợp kim', 'Là kim loại có tổng hàm lượng niken và coban tối thiểu 99% tính theo khối lượng, với điều kiện:', '(i) hàm lượng coban không quá 1,5% tính theo khối lượng, và', '(ii) hàm lượng của bất kỳ nguyên tố nào khác không vượt quá giới hạn nêu trong bảng sau:', 'BẢNG CÁC NGUYÊN TỐ KHÁC', 'Element', 'Limiting content % by weight', 'Fe       Iron', '0.5', 'O        Oxygen', '0.4', 'Other elements, each', '0.3', '(b) Niken hợp kim', 'Vật liệu kim loại mà trong đó hàm lượng của niken trội hơn so với hàm lượng của mỗi nguyên tố nào khác với điều kiện:', '(i) hàm lượng của coban trên 1,5% tính theo khối lượng,', '(ii) hàm lượng tính theo khối lượng của ít nhất 1 trong các nguyên tố khác trong thành phần vượt quá giới hạn nêu ở bảng trên, hoặc', '(iii) tổng hàm lượng của các nguyên tố khác trừ niken và coban lớn hơn 1% tính theo khối lượng.', '2. Mặc dù đã quy định tại Chú giải 9 (c) Phần XV, theo mục đích của phân nhóm 7508.10 khái niệm “dây" chỉ áp dụng cho các sản phẩm, dù ở dạng cuộn hoặc không ở dạng cuộn, có hình dạng mặt cắt ngang bất kỳ, nhưng kích thước mặt cắt ngang không vượt quá 6 mm.', 'TỔNG QUÁT', 'Chương này gồm niken, Các hợp kim của niken và các hàng hóa từ niken.', 'Niken là một kim loại tương đối cứng, màu trắng xám (nóng chảy ở 1453°C). Nó có tính sắt từ, dễ uốn dẻo, dễ kéo sợi, bền và chống được ăn mòn và ô xy hoá.', '*', '*    *', 'Niken được sử dụng chủ yếu trong sản xuất một số hợp kim đặc biệt là thép hợp kim, dùng để phủ lên kim loại khác bằng mạ điện âm cực và làm chất xúc tác trong nhiều phản ứng hoá học. Niken không hợp kim cũng được sử dụng để chế tạo các thiết bị hoá học. Mặt khác niken và Các hợp kim của niken được sử dụng cho đúc tiền.', '*', '*    *', 'Các hợp kim niken cơ bản thuộc chương này tuân thủ quy định của chú giải 5 phần XV bao gồm như sau:', '(1)  Hợp kim niken-sắt. Gồm vật liệu sử dụng trong cáp ngầm dưới biển, lõi cuộn cảm, do độ nhiễm từ lớn và độ từ trễ thấp.', '(2) Hợp kim niken-crom hoặc hợp kim niken-crom-sắt. Chúng gồm các loại vật liệu có giá trị thương mại có độ bền tốt, chống ô xy hoá rất tốt ở nhiệt độ cao và một số môi trường gây ăn mòn. Các vật liệu này được dùng để sản xuất bộ phận đốt nóng trong các thiết bị đốt nóng bằng điện trở và cũng được sử dụng làm bộ phận cấu thành như lò múp (lò nhiệt luyện) và lò buồng để nhiệt luyện thép hoặc kim loại khác, hoặc làm ống dẫn và ống cho xử lý hoá chất hoặc hoá dầu ở nhiệt độ cao. Cũng thuộc vào nhóm này là các hợp kim đặc biệt được gọi là “siêu hợp kim” có độ bền cao nhằm để chịu ở nhiệt độ cao, chúng được dùng phổ biến trong việc chế tạo tuốc bin máy bay như ở bộ phận cánh tuốc bin, đường dẫn chất đốt, các bộ phận chuyển tiếp... Các hợp kim này thường chứa molyđen, vonfram, niobi, nhôm, titan... chúng làm tăng đáng kể độ bền của hợp kim có cơ sở là niken.', '(3) Các hợp kim niken-đồng. Các hợp kim này, ngoài khả năng chống ăn mòn còn có độ bền tốt, chúng được sử dụng trong một số ứng dụng như trục cánh quạt hoặc các thiết bị kẹp và chúng cũng được sử dụng trong các máy bơm, van, hệ thống ống hoặc các thiết bị khác tiếp xúc với môi trường axit vô cơ hoặc hữu cơ, các chất kiềm và muối.', '*', '*     *', 'Chương này bao gồm:', '(A) Sten Niken, niken oxit thiêu kết và các sản phẩm trung gian khác của luyện niken và niken chưa gia công, niken phế liệu và mảnh vụn (nhóm 75.01 đến 75.03).', '(B) Niken bột và vảy (nhóm 75.04).', '(C) Các sản phẩm thông thường thu được bằng cán, rèn, kéo dãn, ép đùn phôi niken chưa gia công của nhóm 75.02 (nhóm 75.05 và 75.06).', '(D) Ống, ống dẫn và ống nối (nhóm 75.07), các bản cực anod mạ điện và hàng hóa khác thuộc nhóm 75.08, trừ các loại này được nêu ở Chú giải 1 Phần XV hoặc thuộc Chương 82 hoặc 83 hoặc được mô tả chi tiết hơn ở các phần khác trong danh mục.', '*', '*     *', 'Các sản phẩm và hàng hoá bằng niken thường được xử lý khác nhau để cải thiện đặc tính riêng hoặc bề mặt của kim loại... Các cách xử lý này được nêu trong phần cuối chú giải tổng quát Chương 72 và không ảnh hưởng tới việc phân loại của các hàng hoá này. (Tuy nhiên, xem trường hợp đặc biệt của bản cực anod mạ điện (nhóm 75.08)).', '*', '*    *', 'Việc phân loại của các hàng hoá phức hợp được giải thích tại chú giải tổng quát ở Phần XV.', '75.01 – Sten niken, oxit niken thiêu kết và các sản phẩm trung gian khác của quá trình luyện niken.', '7501.10 - Sten niken', '7501.20 - Oxít niken thiêu kết và các sản phẩm trung gian khác của quá trình luyện niken', '(1) Sten Niken.', 'Các sten này thu được bởi các công đoạn (nung, nấu chảy...) quặng niken và thành phần, tuỳ theo loại quặng và quá trình được sử dụng, niken-sắt sunphua, niken-sắt-đồng sunphua, niken sunphua hoặc niken-đồng sunphua.', 'Sten thường ở dạng khối đúc hoặc tấm đúc (thường được đập vỏ thành mẩu nhỏ để thuận tiện đóng gói và vận chuyển), dạng hạt hoặc bột (đặc biệt ở trường hợp của một số sten niken sunphua).', 'Dạng sten này được sử dụng trong sản xuất niken chưa gia công.', '(2) Các sản phẩm trung gian khác của quá trình luyện niken.', 'Nhóm này bao gồm:', '(i) Oxit niken không tinh khiết, ví dụ oxit niken thiêu kết, oxit niken ở dạng bột (“ôxit niken xanh”), thu được bởi quá trình xử lý quặng sunphua hoặc quặng oxit có chứa niken. Các loại oxit không tinh khiết này phần lớn được sử dụng trong sản xuất thép hợp kim.', 'Oxit niken thiêu kết thường có dạng bột hoặc mẩu nhỏ kích thước có thể đạt đến 50 mm.', '(ii) Fero-niken không tinh khiết, do có hàm lượng lớn lưu huỳnh (0,5% hoặc hon), phospho và các tạp chất khác nên không thể được sử dụng như sản phẩm hợp kim trong công nghiệp luyện thép mà không có sự tinh luyện ban đầu. Fero-niken đã tinh luyện được sử dụng gần như duy nhất trong công nghiệp luyện thép để cung cấp niken cần thiết cho sản xuất một số thép đặc biệt. Do vậy Niken được phân loại như hợp kim fero ở nhóm 72.02 theo các quy định Chú giải 1 (c) Chương 72.', '(iii) Xỉ niken, có nghĩa là hỗn hợp asenua dạng cục; hiện nay xỉ Niken không còn quan trọng lắm về thương mại.', '75.02 – Niken chưa gia công', '7502.10 - Niken, không hợp kim', '7502.20 - Hợp kim niken', 'Niken chưa gia công thường ở dạng thỏi, dạng cục, viên, tấm, hình khối, vành, viên gạch, hạt, cathod hoặc dạng thanh mạ điện âm cực khác. Những dạng ban đầu này thường được sử dụng như phụ gia trong sản xuất thép hợp kim và hợp kim không chứa sắt và trong sản xuất một số hoá chất. Một số dạng được sử dụng làm giỏ titan trong mạ Niken hoặc để sản xuất bột niken.', 'Niken chưa được tinh luyện thường được đúc thành anod để sau đó tinh luyện bằng điện phân. Anod của nhóm này thường ở dạng tấm phiến đúc với hai quai nhằm treo chúng vào trong bể tinh chế điện phân. Không được nhầm lẫn với anod mạ Niken được nêu trong chú giải nhóm 75.08.', 'Các cathod dạng tấm thu được bởi kết tủa điện phân trên tấm ban đầu của niken tinh luyện có hai móc niken được bắt chặt để treo chúng vào bể điện phân tinh luyện. Khi Lớp lắng đọng niken tinh chế được hình thành, các “tấm ban đầu” trở thành một khối đồng nhất và không thể tách rời của cathod.', 'Các loại cathod chưa được gọt rũa thường được vận chuyển mà không loại bỏ móc nên thường có vết phồng của niken kết tủa ở mối hàn và không được nhầm lẫn với quai móc treo anod để mạNiken. Các cathod chưa được gọt rũa thường có kích cỡ lớn hơn (khoảng 96 x71  x 1,25cm) so với anot để mạ Niken ở dạng tấm (hiếm khi có chiều rộng lớn hơn 30,5cm).', 'Những cathod đã được đẽo gọt một cách đơn giản hoặc được cắt thành dải hoặc các miếng hình chữ nhật nhỏ vẫn được xếp ở nhóm này mà không kể đến kích thước của chúng hay mục đích sử dụng của chúng. Chúng có thể phân biệt với anod điện phân của nhóm 75.08 bởi chúng không có móc nhúng hoặc đã gia công (ví dụ: đục lỗ, tạo ren) để làm móc treo.', 'Nhóm này cũng không bao gồm bột và vảy niken (nhóm 75.04).', '75.03 – Phế liệu và mảnh vụn niken', 'Các quy định liên quan đến phế liệu và mảnh vụn ở chú giải nhóm 72.04 được áp dụng, với những điều chỉnh phù hợp, cho nhóm này.', 'Nhóm này không bao gồm:', '(a) Xỉ, tro và cặn bã từ việc sản xuất niken (nhóm 26.20).', '(b) Thỏi và các dạng đúc chưa gia công tương tự từ phế liệu và mảnh vụn của niken được tái nấu chảy (nhóm 75.02).', '75.04 – Bột và vảy niken', 'Nhóm này bao gồm tất cả các dạng bột và vảy niken bất kể mục đích sử dụng của chúng. Bột được định nghĩa ở chú giải 8 (b) Phần XV.', 'Tùy thuộc tính chất vật lý, dạng bột và vảy được sử dụng ở tấm không hợp kim trong ắc quy Niken - cadmi, trong sản xuất niken sunphat, niken clorua và các muối Niken khác với vai trò là tác nhân liên kết cho cacbit kim loại, cho sản xuất hợp kim niken (ví dụ: thép hợp kim) hoặc làm chất xúc tác.', 'Chúng cũng được sử dụng cả ở trạng thái tinh khiết lẫn hợp kim hoặc hỗn hợp với bột kim loại khác (ví dụ bột sắt) để ép và thiêu kết thành hàng hoá kỹ thuật như nam châm hoặc để trực tiếp dát thành tấm, dải và lá mỏng.', 'Nhóm này loại trừ oxit niken thiêu kết (nhóm 75.01).', '75.05 – Niken ở dạng thanh, que, hình và dây.', '- Thanh, que và hình :', '7505.11 - - Bằng niken không hợp kim', '7505.12 - - Bằng hợp kim niken', '- Dây :', '7505.21 - - Bằng niken không hợp kim', '7505.22 - - Bằng hợp kim niken', 'Những sản phẩm này, được định nghĩa ở ghi chú Chương 9 (a) , 9 (b) và 9 (c) Phần XV, tương tự với các mặt hàng bằng đồng, trừ qui định đặc biệt cho anod mạ điện (xem chú giải nhóm 75.08). Liên quan đến loại trừ này, qui định ở chú giải nhóm 74.07 và 74.08 được áp dụng, với các sửa đổi phù hợp, cho nhóm này.', 'Nhóm này không bao gồm:', '(a) Sợi trộn kim loại (nhóm 56.05).', '(b) Thanh, que hoặc các dạng hình, đã được gia công để sử dụng làm kết cấu (nhóm 75.08).', '(c) Thanh đã bọc cách điện (được hiểu chung là “thanh góp”) và dây (bao gồm cả dây tráng men) (nhóm 85.44).', '75.06 – Niken ở dạng tấm, lá, dải và lá mỏng.', '7506.10 - Bằng niken không hợp kim', '7506.20 - Bằng hợp kim niken', 'Nhóm này bao gồm tấm, lá, dải và lá mỏng quy định tại chú giải 9 (d) Phần XV; những sản phẩm này tương tự với sản phẩm bằng đồng đã miêu tả trong chú giải nhóm 74.09 và 74.10.', 'Dạng tấm và lá có thể được sử dụng để tráng sắt hoặc thép bằng cách hàn, cán... và sử dụng cho kết cấu của các thiết bị, đặc biệt là trong công nghiệp hoá chất.', 'Nhóm này loại trừ sản phẩm dạng lưới được tạo hình bằng phương pháp đột dập và kéo dãn thành lưới (nhóm 75.08).', '75.07- Các loại ống, ống dẫn và các phụ kiện để ghép nối của ống hoặc ống bằng niken (ví dụ, khớp nối đôi, khuỷu, măng sông).', '- Ống và ống dẫn:', '7507.11 - - Bằng niken, không hợp kim', '7507.12 - - Bằng niken hợp kim', '7507.20 - Phụ kiện để ghép nối của ống hoặc ống dẫn', 'Chú giải 9 (e) Phần XV định nghĩa ống và ống dẫn.', 'Các quy định của chú giải các nhóm 73.04 đến 73.07 được áp dụng, với những sửa đổi phù hợp, cho nhóm này.', 'Do đặc tính chống ăn mòn (với axit, hơi nước...) các loại ống, ống dẫn và phụ kiện bằng niken hoặc hợp kim niken được sử dụng trong kết cấu của các thiết bị cho công nghiệp hoá chất, thực phẩm, sản xuất giấy..., trong sản xuất bộ ngưng tụ, của kim tiêm dưới da...', 'Nhóm này không bao gồm:', '(a) Các dạng hình rỗng (nhóm 75.05).', '(b) Bulông và đai ốc niken dùng để lắp ráp và gắn ống (nhóm 75.08).', '(c) Phụ kiện để ghép nối với vòi, van (nhóm 84.81).', '(d) Ống, ống dẫn và phụ kiện để ghép nối của ống hoặc ống dẫn được chế tạo thành hàng hóa dễ nhận biết, ví dụ bộ phận máy móc (Phần XVI).', '75.08 – Sản phẩm khác bằng niken', '7508.10 - Tấm đan, phên và lưới, bằng dây niken', '7508.90 - Loại khác.', '(A) CÁC SẢN PHẨM MẠ ĐIỆN CỰC DƯƠNG, BAO GỒM CẢ CÁC SẢN PHẨM SẢN XUẤT BẰNG PHƯƠNG PHÁP ĐIỆN PHÂN', 'Nhóm này bao gồm anod niken tinh luyện dùng cho mạ điện Anod bằng phương pháp điện phân kết tủa. Chúng có thể là dạng đúc, cán, kéo, ép đùn hoặc có thể tạo từ cathod, hoặc dạng lắng động điện phân của nhóm 75.02. Các anod này được thể hiện bao gồm:', '(1) hình dạng đặc biệt (hình sao, vòng, hình đặc thù) để tạo ra bề mặt lớn nhất phù hợp với hàng hoá được mạ và trường hợp của anod dạng thanh (chúng thường có dạng ô van, e lip, hình thoi hoặc hình bình hành) có chiều dài thích hợp để sử dụng làm điện cực anod; hoặc', '(2) hoặc là dạng tấm (phẳng hoặc cong), dải, tấm mỏng, đĩa (phẳng hoặc cuộn làn sóng), hình bán cầu hoặc hình cầu. Để được phân loại trong nhóm này thì các sản phẩm phải có các đặc tính chỉ ra sản phẩm là tấm anod điện phân, có nghĩa là chúng phải được gắn các móc để treo chúng trong bể điện phân hoặc đã được gia công để làm móc treo (ví dụ: đục lỗ, tạo ren).', 'Các loại anod này thường có độ tinh khiết cao. Tuy nhiên lượng nhỏ các tạp chất có thể còn lại sau quá trình sản xuất hoặc được chủ ý thêm vào ví dụ, để khử cực anod để đảm bảo điện phân được thực hiện đều trên toàn bộ bề mặt và tránh sự mất mát niken do tạo thành cặn. Các đặc tính này, cùng với các đặc điểm đã nêu ở trên, phân biệt các anod mạ điện với các anod dành cho tinh chế bằng phương pháp điện phân được nêu trong đoạn 2 của Chú giải Chi tiết nhóm 75.02 bị loại trừ khỏi nhóm này.', 'Các anod điện phân thông thường dùng cho mạ Niken thường được thay thế bằng anod dạng giỏ, ví dụ các dạng chưa gia công như vòng khuyên niken trong các giỏ titan (xem chú giải nhóm 75.02).', 'Nhóm này cũng loại trừ các loại sau đây, dù được sử dụng trong mạ kền hoặc để chuyển đổi thành anod điện phân hay không:', '(a) Các tấm (cathod) thu được đơn giản bằng phương pháp điện phân, chưa gọt dũa hoặc đã gọt dũa hoặc được cắt thành các dải hoặc các miếng nhỏ hình chữ nhật nhưng chưa được gia công thêm (nhóm 75.02).', '(b) Các thỏi chưa gia công (nhóm 75.02)', '(c) Các thanh đúc đơn giản, được cán hoặc ép đùn mà chưa đáp ứng được các yêu cầu về hình dáng, chiều dài hoặc cách thức gia công được chỉ ra ở trên (nhóm 75.02 hoặc 75.05).', '(d) Các tấm được cán đơn giản (nhóm 75.06).', '(B) LOẠI KHÁC', 'Nhóm này bao gồm tất cả các mặt hàng bằng niken trừ các loại thuộc các mục hoặc nhóm trước của Chương này hoặc được định nghĩa tại Chú giải 1 Phần XV hoặc hàng hóa đã được chi tiết hoặc nằm trong Chương 82 hoặc 83 hoặc được mô tả chi tiết hơn trong các phần khác của danh mục.', 'Ngoài những đề cập khác, nhóm này bao gồm:', '(1) Các kết cấu như khung cửa sổ và các bộ phận được gia công của chúng.', '(2) Bể chứa, thùng chứa và các đồ chứa tương tự, bất kỳ dung tích nào, không lắp với thiết bị cơ khí hoặc thiết bị nhiệt.', '(3) Tấm đan, phên, lưới và sản phẩm dạng lưới bằng niken được tạo hình bằng phương pháp đột dập và kéo dãn thành lưới bằng dây niken.', '(4) Đinh, đinh mũ, đai ốc, bu lông, ốc vít và các sản phẩm khác của các loại đã miêu tả ở chú giải nhóm 73.17 và 73.18.', '(5) Lò xo, trừ lò xo đồng hồ thời gian và đồng hồ cá nhân của nhóm 91.14.', '(6) Các dụng cụ gia đình và dụng cụ vệ sinh và các bộ phận của chúng.', '(7) Phôi cho đúc tiền ở dạng đĩa với phần mép nhô lên.', '(8) Các sản phẩm bằng niken tương ứng với các sản phẩm sắt hoặc thép đề cập tại chú giải nhóm 73.25 và 73.26.', 'Chương 76', 'Nhóm và các sản phẩm bằng nhôm', 'Chú giải phân nhóm.', '1. Trong chương này các khái niệm sau có nghĩa:', '(a) Nhôm, không hợp kim', 'Là kim loại có hàm lượng nhôm chiếm ít nhất 99% tính theo khối lượng, với điều kiện hàm lượng của bất kỳ nguyên tố nào khác không vượt quá giới hạn nêu trong bảng sau:', 'BẢNG - Các nguyên tố khác', 'Nguyên tố', 'Giới hạn hàm lượng % theo khối lượng', 'Fe+ Si (Sẳt + Silic)', 'Các nguyên tố khác (1) , tính cho mỗi nguyên tố', '1', '0.1(2)', '(1) Các nguyên tố khác, ví dụ Cr, Cu, Mg, Mn, Ni, Zn.', '(2) Tỷ lệ đồng cho phép lớn hơn 0,1%, nhưng không quá 0,2%, với điều kiện hàm lượng crôm cũng như hàm lượng mangan đều không quá 0,05%.', '(b) Hợp kim nhôm', 'Vật liệu kim loại mà trong đó hàm lượng nhôm lớn hơn so với hàm lượng của mỗi nguyên tố khác tính theo khối lượng, với điều kiện:', '(i) hàm lượng của ít nhất 1 trong các nguyên tố khác hoặc tổng hàm lượng của sắt với silic phải lớn hơn giới hạn nêu ở bảng trên; hoặc', '(ii) tổng hàm lượng của các nguyên tố khác trong thành phần vượt quá 1% tính theo khối lượng.', '2. Mặc dù đã quy định tại Chú giải 9 (c) của Phần XV, theo mục đích của phân nhóm 7616.91, khái niệm “dây" chỉ áp dụng cho các sản phẩm ở dạng cuộn hoặc không ở dạng cuộn, mặt cắt ngang ở hình dạng bất kỳ, kích thước mặt cắt ngang không quá 6 mm.', 'TỔNG QUÁT', 'Chương này bao gồm nhôm và hợp kim nhôm và các sản phẩm bằng nhôm. Nhôm được điều chế chủ yếu từ Bô-xít, một loại nhôm Hydrat thô (xem chú giải nhóm 26.06). Giai đoạn chiết xuất đầu tiên là nhằm chuyển Bô-xít sang oxit nhôm tinh khiết. Để làm được điều này, quặng thô được nung và sau đó được xử lý bằng Natri Hydroxit để tạo ra một dung dịch Natri nhôm. Sau đó nó được lọc để loại bỏ các tạp chất không có khả năng hoà tan (Oxit sắt, Silicat...). Nhôm sau đó được làm kết tủa thành hydroxit nhôm. Hydroxit nhôm được nung để tạo ra loại nhôm tinh khiết dưới dạng bột màu trắng. Tuy nhiên hydroxit nhôm và oxit nhôm được phân loại vào Chương 28.', 'Ở giai đoạn thứ hai, kim loại được tách bằng phương pháp điện phân oxit nhôm đã được hoà tan trong Criolit nấu chảy (chất sau này là florua natri nhôm, nhưng nó chỉ đóng vai trò như một chất dung môi). Phương pháp điện phân này được tiến hành trong các bể lót than chì có tác dụng như một cực âm Catôt, những thanh than được sử dụng như anôt. Nhôm được kết tủa ở đáy bể từ đó nhôm được hút đi bằng xifông. Thông thường sau khi tinh chế, nhôm được đúc thành dạng khối, thỏi, phôi, tấm, thanh phôi để kéo dây.... Bằng cách điện phân lặp lại, nhôm thu được gần như hoàn toàn tinh khiết', 'Nhôm cũng có thể được điều chế từ một số loại quặng khác như quặng leuxit (là muối kép của silicat nhôm và kali), bằng cách nấu chảy lại các phế liệu và mảnh vụn của nhôm hoặc bằng quá trình xử lý các chất cặn còn sót lại (xỉ, cặn, bã).', '*', '*     *', 'Nhôm là một loại kim loại có màu trắng hơi xanh được nhận dạng bởi màu sáng của nó. Nhôm rất dẻo và dễ cán, kéo, rèn, dập và có thể đúc. Giống như các loại kim loại mềm khác, nhôm cũng là chất rất phù hợp cho việc đúc ép và đúc áp lực (đúc trong khuôn kim loại). Trong ứng dụng hiện đại nó có thể được làm hợp kim hàn. Nhôm là một chất dẫn nhiệt và điện rất tốt và là một chất phản quang tốt. Lớp mỏng của oxit nhôm trên bề mặt bảo vệ nhôm kim loại hình thành một cách tự nhiên, người ta đã chế tạo ra lớp màng bảo vệ dày hơn bằng cách anot hóa hoặc bằng phản ứng hóa học; đôi khi cũng nhuộm màu bề mặt kim loại trong các quá trình phản ứng này.', '*', '*    *', 'Độ cứng, độ bền ... của nhôm có thể được cải thiện rất đáng kể bởi việc hợp kim hoá với các nguyên tố khác như: Đồng, magiê, silicon, kẽm hoặc mangan. Khi được gia công cơ - nhiệt, các hợp kim nhôm này có các thuộc tính cơ học tăng lên đáng kể.', 'Các hợp kim nhôm chính có thể được phân loại trong chương này theo nội dung chú giải 5 của phần XV (chú giải chung của phần) là:', '(1) Các hợp kim nhôm đồng. Là hợp kim nhôm cơ bản với hàm lượng đồng thấp.', '(2) Các hợp kim nhôm-đồng-kẽm', '(3) Các hợp kim nhôm- silicon (ví dụ “Alpax”, “silumin”)', '(4) Các hợp kim nhôm- magie - mangan', '(5) Các hợp kim nhôm-silicon - magie (ví dụ “Almelec”, “Aldrey”)', '(6) Các hợp kim nhôm mangan - magie - đồng (ví dụ “Duralumin”)', '(7) Các hợp kim nhôm - magie (ví dụ “magnalium”)', '(8) Các hợp kim nhôm - mangan', '(9) Các hợp kim nhôm - magiê - thiếc.', 'Hầu hết các hợp kim này cũng có thể chứa các hàm lượng nhỏ của sắt, niken, crom... chúng thường được mua bán dưới các tên thương mại khác nhau tuỳ theo nước xuất xứ.', '*', '*    *', 'Do các thuộc tính đặc biệt của nhôm và các hợp kim của nhôm, nó được sử dụng rộng rãi: trong công nghiệp chế tạo máy bay, ô tô hoặc công nghiệp đóng tàu; trong công nghiệp xây dựng, trong việc đóng toa xe lửa hoặc xe điện, trong công nghiệp điện (ví dụ: như dây cáp), cho tất cả các loại thùng chứa (bể chứa và chum vại các cỡ, thùng vận chuyển, thùng trống...), cho đồ dùng gia đình hoặc nhà bếp, cho việc sản xuất lá nhôm mỏng v.v...', '*', '*    *', 'Chương này bao gồm:', '(A) Nhôm chưa gia công, nhôm phế liệu và nhôm mảnh vụn (nhóm 76.01 và 76.02).', '(B) Bột nhôm và vảy nhôm (nhóm 76.03).', '(C) Các sản phẩm nhìn chung thu được bởi việc cán, ép đùn, kéo, rèn nhôm chưa gia công thuộc nhóm 76.01 (các nhóm 76.04 tới 76.07)', '(D) Các hàng hóa khác nhau được liệt kê nhóm 76.08 đến 76.15 và các hàng hóa khác thuộc phần còn lại của nhóm 76.16, bao gồm tất cả các mặt hàng nhôm khác ngoại trừ các mặt hàng được xếp trong chương 82 hoặc 83, hoặc được đề cập cụ thể hơn ở phần nào khác trong danh mục.', 'Các sản phẩm thu được bằng việc thiêu kết nhôm và oxit nhôm hay còn gọi là gốm kim loại và được loại trừ khỏi chương này (nhóm 81.13).', '*', '*    *', 'Các sản phẩm và hàng hóa làm bằng nhôm thường được xử lý bằng cách khác nhau nhằm cải thiện thuộc tính hoặc vẻ ngoài của kim loại, để tăng khả năng chống ăn mòn... Những quá trình xử lý này thông thường được đề cập ở phần cuối của chú giải chung tại chương 72 và không làm ảnh hưởng tới việc phân loại hàng hoá.', '*', '*     *', 'Việc phân loại các hàng hoá phức hợp, đặc biệt các sản phẩm hoàn thiện, được giải thích trong Chú giải Tổng quát của Phần XV.', '76.01 – Nhôm chưa gia công', '7601.10 - Nhôm, không hợp kim', '7601.20 - Hợp kim nhôm', 'Nhóm này bao gồm nhôm chưa gia công ở trạng thái lỏng, khối, thỏi, phiến, tấm dày, thanh phôi kéo dây, hoặc các dạng tương tự thu được bằng việc đúc nhôm đã được điện phân hoặc hoặc bằng việc nấu chảy phế liệu hoặc mảnh vụn kim loại. Những sản phẩm này thường được dùng để cán mỏng, rèn, kéo, ép, dập... hoặc dùng để nấu chảy và đúc tạo thành các sản phẩm đã được tạo hình.', 'Nhóm này bao gồm các viên nhôm, chủ yếu được dùng trong ngành luyện kim (đóng vai trò như tác nhân khử ôxy hóa, đặc biệt trong sản xuất sắt hoặc thép).', 'Nhóm này cũng bao gồm các thanh đúc hoặc các thanh đã được thiêu kết... (áp dụng chú giải nhóm 74.03 cho nhóm này với những sửa đổi phù hợp).', 'Nhóm này không bao gồm bột và vảy nhôm (nhóm 76.03).', '76.02 – Phế liệu và mảnh vụn nhôm', 'Các mục liên quan đến chất phế liệu và mảnh vụn trong chú giải nhóm 72.04 cũng áp dụng cho nhóm này với những sửa đổi phù hợp.', 'Phế liệu và mảnh vụn nhôm là một nguồn nguyên liệu thô quan trọng trong công nghiệp nhôm. Nó cũng được sử dụng như một tác nhân khử ôxy và khử cacbon trong luyện kim.', 'Nhóm này không bao gồm:', '(a) Cặn bã, xỉ,...thu được từ sản xuất sắt hoặc thép có chứa nhôm có khả năng thu hồi lại ở dạng Silicat (nhóm 26.18 hoặc 26.19)', '(b) Xỉ, tro và cặn từ quá trình sản xuất nhôm (nhóm 26.20).', '(c) Các thỏi và các dạng tương tự chưa gia công, được đúc từ phế liệu và mảnh vụn nhôm được nấu chảy lại (nhóm 76.01).', '76.03 – Bột và vảy nhôm', '7603.10 - Bột không có cấu trúc lớp', '7603.20 - Bột có cấu trúc vảy; vảy nhôm', 'Nhóm này bao gồm bột nhôm được định nghĩa ở Chú giải 8(b), phần XV và vảy nhôm. Nhìn chung, các sản phẩm này tương ứng với các sản phẩm bằng đồng, bởi vậy chú giải nhóm 74.06 cũng áp dụng cho nhóm này với những sửa đổi phù hợp. Tuy nhiên, bột và vảy nhôm cũng được sử dụng trong kỹ thuật làm pháo hoa như chất sinh nhiệt (ví dụ: trong quá trình xử lý nhiệt), để bảo vệ các kim loại khác khỏi bị ăn mòn (ví dụ: nhiệt hoá, hàn kim loại...), trong chất nổ đẩy tên lửa và trong việc điều chế các vật liệu hàn đặc biệt.', 'Nhóm này không bao gồm:', '(a) Bột hoặc vảy, được dùng như là chất tạo màu, sơn hoặc các chất tương tự khác (ví dụ, được tạo thành cùng với chất màu khác hoặc đóng gói như là các chất keo tụ, chất phân tán, hoặc bột nhão với một chất gắn hoặc dung môi (Chương 32).', '(b) Các viên nhôm (nhóm 76.01)', '(c) Các vân hoa cắt từ nhôm lá mỏng (nhóm 83.08).', '76.04- Nhôm ở dạng thanh, que và hình', '7604.10 - Bằng nhôm, không hợp kim', '- Bằng hợp kim nhôm:', '7604.21 - - Dạng hình rỗng', '7604.29 - - Loại khác', 'Các sản phẩm này được định nghĩa trong chú giải 9 (a) và 9 (b) Phần XV, giống như các mặt hàng tương tự được chế tạo từ đồng. Vì vậy, các mục của chú giải nhóm 74.07 áp dụng cho nhóm này với những sửa đổi cho phù hợp.', 'Nhóm này không bao gồm:', '(a) Các thanh và các dạng hình, dùng cho trong các kết cấu (nhóm 76.10).', '(b) Các điện cực hàn đã được bọc phủ,.... (nhóm 83.11)', '76.05 – Dây nhôm', '- Bằng nhôm, không hợp kim:', '7605.11 - - Kích thước mặt cắt ngang lớn nhất trên 7mm', '7605.19 - - Loại khác', '- Bằng hợp kim nhôm:', '7605.21 - - Kích thước mặt cắt ngang lớn nhất trên 7mm', '7605.29 - - Loại khác', 'Dây được định nghĩa trong Chú giải 9 (c) Phần XV.', 'Nhóm này không bao gồm:', '(a) Sợi kim loại (nhóm 56.05)', '(b) Dây bện và dây thừng được gia cố với dây nhôm (nhóm 56.07)', '(c) Dây bện tao, cáp và các hàng hoá khác của nhóm 76.14', '(d) Các điện cực hàn đã được bọc phủ (nhóm 83.11)', '(e) Dây điện và cáp điện cách điện (kể cả loại đã tráng men cách điện hoặc mạ lớp cách điện) (nhóm 85.44)', '(f) Dây nhạc cụ (nhóm 92.09).', '76.06- Nhôm ở dạng tấm, lá và dải, chiều dày trên 0,2 mm', '- Hình chữ nhật (kể cả hình vuông):', '7606.11 - - Bằng nhôm, không hợp kim', '7606.12 - - Bằng hợp kim nhôm', '- Loại khác:', '7606.91 - - Bằng nhôm, không hợp kim', '7606.92 - - Bằng hợp kim nhôm', 'Các sản phẩm này được định nghĩa trong chú giải 9 (d) Phần XV, giống như các mặt hàng tương tự được chế tạo từ đồng. Vì vậy, nội dung của chú giải nhóm 74.09 cũng áp dụng cho nhóm này với những sửa đổi phù hợp.', 'Nhóm này không bao gồm :', '(a) Lá mỏng có độ dày không quá 0,2mm (nhóm 76.07).', '(b) Sản phẩm dạng lưới được tạo hình bằng phương pháp đột dập và kéo giãn thành lưới (nhóm 76.16)', '76.07– Nhôm lá mỏng (đã hoặc chưa in hoặc bồi trên giấy, bìa plastic hoặc vật liệu bồi tương tự) có chiều dày (trừ phần bồi không quá 0,2 mm(+).', '- Chưa được bồi:', '7607.11 - - Đã được cán nhưng chưa gia công thêm', '7607.19 - - Loại khác', '7607.20 - Đã được bồi', 'Nhóm này bao gồm các sản phẩm định nghĩa trong chú giải 9 (d) Phần XV khi bề dày không vượt quá 0,2 mm.', 'Nội dung của chú giải nhóm 74.10 liên quan tới các đồng lá mỏng cũng áp dụng cho nhóm này với những sửa đổi phù hợp.', 'Nhôm lá mỏng được sử dụng trong sản xuất nắp chai và bao bọc nút chai, trong đóng gói thực phẩm, xì gà, thuốc lá điếu, thuốc lá sợi,... Nhôm lá mỏng cũng được sử dụng để sản xuất các loại bột mịn thuộc nhóm 76.03, trong sản xuất các tấm uốn để cách nhiệt, để mạ bạc nhân tạo, và như là một tấm phủ lên vết thương trong phẫu thuật thú y.', 'Nhóm này không bao gồm:', '(a) Các lá nhôm mỏng dập ép (cũng được gọi là lá phôi dập) bao gồm bột nhôm được làm kết dính bằng Gelatin, keo hoặc chất gắn kết khác, hoặc bằng nhôm được phủ trên giấy, nhựa hoặc các chất hỗ trợ khác, và được sử dụng cho việc in bìa sách, các băng dải trên mũ... (nhóm 32.12)', '(b) Giấy và bìa dùng để sản xuất bao bì đựng sữa, nước ép hoa quả, các sản phẩm thực phẩm khác và được lót với lá nhôm (ví dụ, ở mặt lớp lót trong của bao bì) với điều kiện vật liệu này vẫn giữ lại thuộc tính cơ bản của giấy và bìa (nhóm 48.11).', '(c) Lá nhôm đã được in để ghi nhãn các hàng hóa riêng biệt nhờ công dụng của việc in ấn (nhóm 49.11)', '(d) Đĩa, tấm và dải, chiều dày vượt quá 0,2mm (nhóm 76.06)', '(e) Nhôm lá mỏng ở dạng trang trí cây nôen (nhóm 95.05).', '°', '°     °', 'Chú giải phân nhóm.', 'Phân nhóm 7607 11', 'Ngoài việc xử lý bằng cán nóng hoặc cán nguội, các sản phẩm thuộc phân nhóm này có thể được gia công hoặc xử lý bề mặt:', '(1) Xử lý nhiệt, như việc giảm ứng suất hoặc ủ. Quá trình xử lý này cũng loại bỏ các dầu cặn bôi trơn máy cán.', '(2) Cắt mép, xẻ rãnh hoặc cắt thành hình chữ nhật (kể cả hình vuông)... tức là chia tách dải rộng thành dải hẹp hơn.', '(3) Tách (tháo giãn) các tấm mỏng nhiều lớp. Công việc này là cần thiết khi hai hoặc nhiều cuộn lá mỏng được cán cùng một lúc trong suốt hành trình làm việc cuối cùng của máy cán.', '(4) Làm sạch hoặc rửa hoá học. Đây là cách thông thường được thực hiện để loại bỏ dầu cặn khi không xử lý nhiệt.', '76.08 – Các loại ống và ống dẫn bằng nhôm.', '7608.10 - Bằng nhôm, không hợp kim', '7608.20 - Bằng hợp kim nhôm', 'Chú giải 9 (e) Phần XV của Chương đã định nghĩa các loại ống và ống dẫn', 'Các loại ống và ống dẫn của nhóm này có thể được sản xuất bởi các quá trình như sau:', '(a) bằng việc ép đùn qua khuôn đúc rỗng hoặc thỏi tròn có lỗ.', '(b) bằng việc hàn nối theo chiều dọc hoặc xoắn ốc khuôn hoặc bán thành phẩm đã cán phẳng, dạng cuộn (dải hoặc tấm).', '(c) bằng việc ép đùn.', '(d) bằng việc đúc.', 'Các loại ống được đùn hoặc được hàn có thể được xử lý kéo nguội để thu được các ống có thành mỏng hơn, kích thước chính xác và hoàn chỉnh hơn.', 'Các loại ống và ống dẫn của nhóm này được sử dụng cho nhiều mục đích ví dụ như làm đường ống dẫn dầu hoặc dẫn nuớc, làm ống dẫn dây điện, trong việc sản xuất đồ nội thất, bộ trao đổi nhiệt, các kết cấu.', 'Nhóm này bao gồm các ống và ống dẫn có thể có hoặc không có ren ở hai đầu, lắp với ống nối, các mặt bích, các đầu mối, các vòng đai...', 'Nhóm này không bao gồm:', '(a) Dạng hình rỗng (nhóm 76.04)', '(b) Các phụ kiện để ghép nối của ống hoặc ống dẫn (nhóm 76.09)', '(c) Ống dễ uốn nhóm 83.07)', '(d) Các ống và ống nối làm thành các sản phẩm đặc trưng, như các sản phẩm được dùng trong các kết cấu (nhóm 76.10) các bộ phận của máy móc hoặc của phương tiện giao thông (các Phần XVI và XVII),', '76.09 – Các phụ kiện để ghép nối của ống hoặc ống dẫn (ví dụ, khớp nối đôi, nối khuỷu, măng sông) bằng nhôm.', 'Nội dung chú giải các nhóm 73.07 và 74.12 được áp dụng cho nhóm này với những sửa đổi phù hợp.', 'Nhóm này không bao gồm:', '(a) Kẹp và các dụng cụ khác được thiết kế chuyên dùng cho các bộ phận lắp ráp của các kết cấu (nhóm 76.10).', '(b) Các giá treo và móc treo để đỡ đường ống, các bulông và đai ốc nhôm sử dụng cho việc lắp ráp hoặc cố định ống hoặc ống dẫn (nhóm 76.16).', '(c) Các khớp nối với vòi, van... (nhóm 84.81).', '76.10 – Các kết cấu bằng nhôm (trừ nhà lắp ghép thuộc nhóm 94.06) và các bộ phận của các kết cấu bằng nhôm (ví dụ, cầu và nhịp cầu, tháp, cột lưới, mái nhà, khung mái, cửa ra vào và cửa sổ và các loại khung cửa và ngưỡng cửa ra vào, cửa chớp, lan can, cột trụ và các loại cột); tấm, thanh, dạng hình, ống và các loại tương tự bằng nhôm, đã được gia công để sử dụng làm kết cấu.', '7610.10 - Cửa ra vào, cửa sổ và các loại khung cửa và ngưỡng cửa ra vào', '7610.90 - Loại khác', 'Nội dung của chú giải nhóm 73.08 được áp dụng, với những sửa đổi phù hợp cho nhóm này.', 'Trong trường hợp nhôm, các bộ phận kết cấu đôi khi được gắn kết với nhau bằng nhựa tổng hợp hoặc các hợp chất cao su thay cho việc cố định bởi các phương pháp thông thường như tán đinh, ghép bằng bulông....', 'Vì đặc tính nhẹ nên nhôm và các hợp kim của nhôm đôi khi được sử dụng thay cho sắt hoặc thép trong sản xuất các khung kết cấu, các siêu kết cấu của tàu thuỷ, cầu cống, các cửa ra vào dạng trượt, các mạng điện hoặc các tháp phát thanh, dàn chống cho kính thiên văn, khuôn cửa ra vào hoặc cửa sổ, tay vịn...', 'Nhóm này không bao gồm:', '(a) Các bộ phận lắp ráp được xác định như các bộ phận của sản phẩm của Chương 84 tới 88.', '(b) Các kết cấu nổi của Chương 89.', '(c) Nhà lắp ghép (nhóm 94.06).', '76.11 – Các loại bể chứa, két, bình chứa và các loại tương tự, dùng để chứa các loại vật liệu (trừ khí nén hoặc khí hóa lỏng), có dung tích trên 300 lít, bằng nhôm, đã hoặc chưa lót hoặc cách nhiệt, nhưng chưa lắp ghép với thiết bị cơ khí hoặc thiết bị nhiệt.', 'Chú giải Chi tiết nhóm 73.09 cũng áp dụng cho nhóm này, với những sửa đổi phù hợp.', 'Vì đặc tính nhẹ và chống ăn mòn nên nhôm có khuynh hướng thay thế sắt và thép trong việc sản xuất ra các loại bể chứa nước, két chứa... đặc biệt là trong các ngành công nghiệp hoá chất, các nhà máy bia, các nhà máy bơ sữa, các nhà máy sản xuất pho mát', 'Tuy nhiên, nhóm này không bao gồm các thùng đựng hàng được thiết kế đặc biệt và trang bị để chuyên chở bởi một hoặc nhiều phương thức vận chuyển (nhóm 86.09)', '76.12 – Thùng phuy, thùng hình trống, lon, hộp và các loại đồ chứa tương tự (kể cả các loại thùng chứa hình ống cứng hoặc có thể xếp lại được), dung tích không quá 300 lít, đã hoặc chưa lót hoặc cách nhiệt, nhưng chưa lắp ghép với thiết bị cơ khí hoặc thiết bị nhiệt.', '7612.10 - Thùng chứa hình ống có thể xếp lại được', '7612.90 - Loại khác', 'Nội dung Chú giải Chi tiết nhóm 73.10 được áp dụng cho nhóm này với những sửa đổi phù hợp.', 'Thùng phuy, thùng hình trống bằng nhôm chủ yếu được sử dụng cho việc vận chuyển sữa, bia, rượu vang... Các lon và hộp nhôm thường sử dụng trong đóng gói thực phẩm. Nhóm này cũng bao gồm các đồ chứa cứng hình ống (ví dụ: dùng cho các sản phẩm tân dược như các vỉ, viên nén...) và các đồ chứa hình ống có thể xếp lại được để đựng kem, thuốc đánh răng...', 'Nhóm này không bao gồm:', '(a) Hàng hóa thuộc nhóm 42.02', '(b) Các thùng bánh qui, hộp đựng trà, hộp đường và các đồ dùng gia dụng tương tự khác hoặc các thùng chứa và các hộp nhỏ bằng kim loại dùng trong nhà bếp (nhóm 76.15).', '(c) Hộp đựng thuốc lá, hộp đựng bột, hộp dụng cụ và các đồ ch</t>
+  </si>
+  <si>
+    <t>['Chú giải phân nhóm.', '1. Trong chương này các khái niệm sau có nghĩa:', '(a) Nhôm, không hợp kim', 'Là kim loại có hàm lượng nhôm chiếm ít nhất 99% tính theo khối lượng, với điều kiện hàm lượng của bất kỳ nguyên tố nào khác không vượt quá giới hạn nêu trong bảng sau:', 'BẢNG - Các nguyên tố khác', 'Nguyên tố', 'Giới hạn hàm lượng % theo khối lượng', 'Fe+ Si (Sẳt + Silic)', 'Các nguyên tố khác (1) , tính cho mỗi nguyên tố', '1', '0.1(2)', '(1) Các nguyên tố khác, ví dụ Cr, Cu, Mg, Mn, Ni, Zn.', '(2) Tỷ lệ đồng cho phép lớn hơn 0,1%, nhưng không quá 0,2%, với điều kiện hàm lượng crôm cũng như hàm lượng mangan đều không quá 0,05%.', '(b) Hợp kim nhôm', 'Vật liệu kim loại mà trong đó hàm lượng nhôm lớn hơn so với hàm lượng của mỗi nguyên tố khác tính theo khối lượng, với điều kiện:', '(i) hàm lượng của ít nhất 1 trong các nguyên tố khác hoặc tổng hàm lượng của sắt với silic phải lớn hơn giới hạn nêu ở bảng trên; hoặc', '(ii) tổng hàm lượng của các nguyên tố khác trong thành phần vượt quá 1% tính theo khối lượng.', '2. Mặc dù đã quy định tại Chú giải 9 (c) của Phần XV, theo mục đích của phân nhóm 7616.91, khái niệm “dây" chỉ áp dụng cho các sản phẩm ở dạng cuộn hoặc không ở dạng cuộn, mặt cắt ngang ở hình dạng bất kỳ, kích thước mặt cắt ngang không quá 6 mm.', 'TỔNG QUÁT', 'Chương này bao gồm nhôm và hợp kim nhôm và các sản phẩm bằng nhôm. Nhôm được điều chế chủ yếu từ Bô-xít, một loại nhôm Hydrat thô (xem chú giải nhóm 26.06). Giai đoạn chiết xuất đầu tiên là nhằm chuyển Bô-xít sang oxit nhôm tinh khiết. Để làm được điều này, quặng thô được nung và sau đó được xử lý bằng Natri Hydroxit để tạo ra một dung dịch Natri nhôm. Sau đó nó được lọc để loại bỏ các tạp chất không có khả năng hoà tan (Oxit sắt, Silicat...). Nhôm sau đó được làm kết tủa thành hydroxit nhôm. Hydroxit nhôm được nung để tạo ra loại nhôm tinh khiết dưới dạng bột màu trắng. Tuy nhiên hydroxit nhôm và oxit nhôm được phân loại vào Chương 28.', 'Ở giai đoạn thứ hai, kim loại được tách bằng phương pháp điện phân oxit nhôm đã được hoà tan trong Criolit nấu chảy (chất sau này là florua natri nhôm, nhưng nó chỉ đóng vai trò như một chất dung môi). Phương pháp điện phân này được tiến hành trong các bể lót than chì có tác dụng như một cực âm Catôt, những thanh than được sử dụng như anôt. Nhôm được kết tủa ở đáy bể từ đó nhôm được hút đi bằng xifông. Thông thường sau khi tinh chế, nhôm được đúc thành dạng khối, thỏi, phôi, tấm, thanh phôi để kéo dây.... Bằng cách điện phân lặp lại, nhôm thu được gần như hoàn toàn tinh khiết', 'Nhôm cũng có thể được điều chế từ một số loại quặng khác như quặng leuxit (là muối kép của silicat nhôm và kali), bằng cách nấu chảy lại các phế liệu và mảnh vụn của nhôm hoặc bằng quá trình xử lý các chất cặn còn sót lại (xỉ, cặn, bã).', '*', '*     *', 'Nhôm là một loại kim loại có màu trắng hơi xanh được nhận dạng bởi màu sáng của nó. Nhôm rất dẻo và dễ cán, kéo, rèn, dập và có thể đúc. Giống như các loại kim loại mềm khác, nhôm cũng là chất rất phù hợp cho việc đúc ép và đúc áp lực (đúc trong khuôn kim loại). Trong ứng dụng hiện đại nó có thể được làm hợp kim hàn. Nhôm là một chất dẫn nhiệt và điện rất tốt và là một chất phản quang tốt. Lớp mỏng của oxit nhôm trên bề mặt bảo vệ nhôm kim loại hình thành một cách tự nhiên, người ta đã chế tạo ra lớp màng bảo vệ dày hơn bằng cách anot hóa hoặc bằng phản ứng hóa học; đôi khi cũng nhuộm màu bề mặt kim loại trong các quá trình phản ứng này.', '*', '*    *', 'Độ cứng, độ bền ... của nhôm có thể được cải thiện rất đáng kể bởi việc hợp kim hoá với các nguyên tố khác như: Đồng, magiê, silicon, kẽm hoặc mangan. Khi được gia công cơ - nhiệt, các hợp kim nhôm này có các thuộc tính cơ học tăng lên đáng kể.', 'Các hợp kim nhôm chính có thể được phân loại trong chương này theo nội dung chú giải 5 của phần XV (chú giải chung của phần) là:', '(1) Các hợp kim nhôm đồng. Là hợp kim nhôm cơ bản với hàm lượng đồng thấp.', '(2) Các hợp kim nhôm-đồng-kẽm', '(3) Các hợp kim nhôm- silicon (ví dụ “Alpax”, “silumin”)', '(4) Các hợp kim nhôm- magie - mangan', '(5) Các hợp kim nhôm-silicon - magie (ví dụ “Almelec”, “Aldrey”)', '(6) Các hợp kim nhôm mangan - magie - đồng (ví dụ “Duralumin”)', '(7) Các hợp kim nhôm - magie (ví dụ “magnalium”)', '(8) Các hợp kim nhôm - mangan', '(9) Các hợp kim nhôm - magiê - thiếc.', 'Hầu hết các hợp kim này cũng có thể chứa các hàm lượng nhỏ của sắt, niken, crom... chúng thường được mua bán dưới các tên thương mại khác nhau tuỳ theo nước xuất xứ.', '*', '*    *', 'Do các thuộc tính đặc biệt của nhôm và các hợp kim của nhôm, nó được sử dụng rộng rãi: trong công nghiệp chế tạo máy bay, ô tô hoặc công nghiệp đóng tàu; trong công nghiệp xây dựng, trong việc đóng toa xe lửa hoặc xe điện, trong công nghiệp điện (ví dụ: như dây cáp), cho tất cả các loại thùng chứa (bể chứa và chum vại các cỡ, thùng vận chuyển, thùng trống...), cho đồ dùng gia đình hoặc nhà bếp, cho việc sản xuất lá nhôm mỏng v.v...', '*', '*    *', 'Chương này bao gồm:', '(A) Nhôm chưa gia công, nhôm phế liệu và nhôm mảnh vụn (nhóm 76.01 và 76.02).', '(B) Bột nhôm và vảy nhôm (nhóm 76.03).', '(C) Các sản phẩm nhìn chung thu được bởi việc cán, ép đùn, kéo, rèn nhôm chưa gia công thuộc nhóm 76.01 (các nhóm 76.04 tới 76.07)', '(D) Các hàng hóa khác nhau được liệt kê nhóm 76.08 đến 76.15 và các hàng hóa khác thuộc phần còn lại của nhóm 76.16, bao gồm tất cả các mặt hàng nhôm khác ngoại trừ các mặt hàng được xếp trong chương 82 hoặc 83, hoặc được đề cập cụ thể hơn ở phần nào khác trong danh mục.', 'Các sản phẩm thu được bằng việc thiêu kết nhôm và oxit nhôm hay còn gọi là gốm kim loại và được loại trừ khỏi chương này (nhóm 81.13).', '*', '*    *', 'Các sản phẩm và hàng hóa làm bằng nhôm thường được xử lý bằng cách khác nhau nhằm cải thiện thuộc tính hoặc vẻ ngoài của kim loại, để tăng khả năng chống ăn mòn... Những quá trình xử lý này thông thường được đề cập ở phần cuối của chú giải chung tại chương 72 và không làm ảnh hưởng tới việc phân loại hàng hoá.', '*', '*     *', 'Việc phân loại các hàng hoá phức hợp, đặc biệt các sản phẩm hoàn thiện, được giải thích trong Chú giải Tổng quát của Phần XV.', '76.01 – Nhôm chưa gia công', '7601.10 - Nhôm, không hợp kim', '7601.20 - Hợp kim nhôm', 'Nhóm này bao gồm nhôm chưa gia công ở trạng thái lỏng, khối, thỏi, phiến, tấm dày, thanh phôi kéo dây, hoặc các dạng tương tự thu được bằng việc đúc nhôm đã được điện phân hoặc hoặc bằng việc nấu chảy phế liệu hoặc mảnh vụn kim loại. Những sản phẩm này thường được dùng để cán mỏng, rèn, kéo, ép, dập... hoặc dùng để nấu chảy và đúc tạo thành các sản phẩm đã được tạo hình.', 'Nhóm này bao gồm các viên nhôm, chủ yếu được dùng trong ngành luyện kim (đóng vai trò như tác nhân khử ôxy hóa, đặc biệt trong sản xuất sắt hoặc thép).', 'Nhóm này cũng bao gồm các thanh đúc hoặc các thanh đã được thiêu kết... (áp dụng chú giải nhóm 74.03 cho nhóm này với những sửa đổi phù hợp).', 'Nhóm này không bao gồm bột và vảy nhôm (nhóm 76.03).', '76.02 – Phế liệu và mảnh vụn nhôm', 'Các mục liên quan đến chất phế liệu và mảnh vụn trong chú giải nhóm 72.04 cũng áp dụng cho nhóm này với những sửa đổi phù hợp.', 'Phế liệu và mảnh vụn nhôm là một nguồn nguyên liệu thô quan trọng trong công nghiệp nhôm. Nó cũng được sử dụng như một tác nhân khử ôxy và khử cacbon trong luyện kim.', 'Nhóm này không bao gồm:', '(a) Cặn bã, xỉ,...thu được từ sản xuất sắt hoặc thép có chứa nhôm có khả năng thu hồi lại ở dạng Silicat (nhóm 26.18 hoặc 26.19)', '(b) Xỉ, tro và cặn từ quá trình sản xuất nhôm (nhóm 26.20).', '(c) Các thỏi và các dạng tương tự chưa gia công, được đúc từ phế liệu và mảnh vụn nhôm được nấu chảy lại (nhóm 76.01).', '76.03 – Bột và vảy nhôm', '7603.10 - Bột không có cấu trúc lớp', '7603.20 - Bột có cấu trúc vảy; vảy nhôm', 'Nhóm này bao gồm bột nhôm được định nghĩa ở Chú giải 8(b), phần XV và vảy nhôm. Nhìn chung, các sản phẩm này tương ứng với các sản phẩm bằng đồng, bởi vậy chú giải nhóm 74.06 cũng áp dụng cho nhóm này với những sửa đổi phù hợp. Tuy nhiên, bột và vảy nhôm cũng được sử dụng trong kỹ thuật làm pháo hoa như chất sinh nhiệt (ví dụ: trong quá trình xử lý nhiệt), để bảo vệ các kim loại khác khỏi bị ăn mòn (ví dụ: nhiệt hoá, hàn kim loại...), trong chất nổ đẩy tên lửa và trong việc điều chế các vật liệu hàn đặc biệt.', 'Nhóm này không bao gồm:', '(a) Bột hoặc vảy, được dùng như là chất tạo màu, sơn hoặc các chất tương tự khác (ví dụ, được tạo thành cùng với chất màu khác hoặc đóng gói như là các chất keo tụ, chất phân tán, hoặc bột nhão với một chất gắn hoặc dung môi (Chương 32).', '(b) Các viên nhôm (nhóm 76.01)', '(c) Các vân hoa cắt từ nhôm lá mỏng (nhóm 83.08).', '76.04- Nhôm ở dạng thanh, que và hình', '7604.10 - Bằng nhôm, không hợp kim', '- Bằng hợp kim nhôm:', '7604.21 - - Dạng hình rỗng', '7604.29 - - Loại khác', 'Các sản phẩm này được định nghĩa trong chú giải 9 (a) và 9 (b) Phần XV, giống như các mặt hàng tương tự được chế tạo từ đồng. Vì vậy, các mục của chú giải nhóm 74.07 áp dụng cho nhóm này với những sửa đổi cho phù hợp.', 'Nhóm này không bao gồm:', '(a) Các thanh và các dạng hình, dùng cho trong các kết cấu (nhóm 76.10).', '(b) Các điện cực hàn đã được bọc phủ,.... (nhóm 83.11)', '76.05 – Dây nhôm', '- Bằng nhôm, không hợp kim:', '7605.11 - - Kích thước mặt cắt ngang lớn nhất trên 7mm', '7605.19 - - Loại khác', '- Bằng hợp kim nhôm:', '7605.21 - - Kích thước mặt cắt ngang lớn nhất trên 7mm', '7605.29 - - Loại khác', 'Dây được định nghĩa trong Chú giải 9 (c) Phần XV.', 'Nhóm này không bao gồm:', '(a) Sợi kim loại (nhóm 56.05)', '(b) Dây bện và dây thừng được gia cố với dây nhôm (nhóm 56.07)', '(c) Dây bện tao, cáp và các hàng hoá khác của nhóm 76.14', '(d) Các điện cực hàn đã được bọc phủ (nhóm 83.11)', '(e) Dây điện và cáp điện cách điện (kể cả loại đã tráng men cách điện hoặc mạ lớp cách điện) (nhóm 85.44)', '(f) Dây nhạc cụ (nhóm 92.09).', '76.06- Nhôm ở dạng tấm, lá và dải, chiều dày trên 0,2 mm', '- Hình chữ nhật (kể cả hình vuông):', '7606.11 - - Bằng nhôm, không hợp kim', '7606.12 - - Bằng hợp kim nhôm', '- Loại khác:', '7606.91 - - Bằng nhôm, không hợp kim', '7606.92 - - Bằng hợp kim nhôm', 'Các sản phẩm này được định nghĩa trong chú giải 9 (d) Phần XV, giống như các mặt hàng tương tự được chế tạo từ đồng. Vì vậy, nội dung của chú giải nhóm 74.09 cũng áp dụng cho nhóm này với những sửa đổi phù hợp.', 'Nhóm này không bao gồm :', '(a) Lá mỏng có độ dày không quá 0,2mm (nhóm 76.07).', '(b) Sản phẩm dạng lưới được tạo hình bằng phương pháp đột dập và kéo giãn thành lưới (nhóm 76.16)', '76.07– Nhôm lá mỏng (đã hoặc chưa in hoặc bồi trên giấy, bìa plastic hoặc vật liệu bồi tương tự) có chiều dày (trừ phần bồi không quá 0,2 mm(+).', '- Chưa được bồi:', '7607.11 - - Đã được cán nhưng chưa gia công thêm', '7607.19 - - Loại khác', '7607.20 - Đã được bồi', 'Nhóm này bao gồm các sản phẩm định nghĩa trong chú giải 9 (d) Phần XV khi bề dày không vượt quá 0,2 mm.', 'Nội dung của chú giải nhóm 74.10 liên quan tới các đồng lá mỏng cũng áp dụng cho nhóm này với những sửa đổi phù hợp.', 'Nhôm lá mỏng được sử dụng trong sản xuất nắp chai và bao bọc nút chai, trong đóng gói thực phẩm, xì gà, thuốc lá điếu, thuốc lá sợi,... Nhôm lá mỏng cũng được sử dụng để sản xuất các loại bột mịn thuộc nhóm 76.03, trong sản xuất các tấm uốn để cách nhiệt, để mạ bạc nhân tạo, và như là một tấm phủ lên vết thương trong phẫu thuật thú y.', 'Nhóm này không bao gồm:', '(a) Các lá nhôm mỏng dập ép (cũng được gọi là lá phôi dập) bao gồm bột nhôm được làm kết dính bằng Gelatin, keo hoặc chất gắn kết khác, hoặc bằng nhôm được phủ trên giấy, nhựa hoặc các chất hỗ trợ khác, và được sử dụng cho việc in bìa sách, các băng dải trên mũ... (nhóm 32.12)', '(b) Giấy và bìa dùng để sản xuất bao bì đựng sữa, nước ép hoa quả, các sản phẩm thực phẩm khác và được lót với lá nhôm (ví dụ, ở mặt lớp lót trong của bao bì) với điều kiện vật liệu này vẫn giữ lại thuộc tính cơ bản của giấy và bìa (nhóm 48.11).', '(c) Lá nhôm đã được in để ghi nhãn các hàng hóa riêng biệt nhờ công dụng của việc in ấn (nhóm 49.11)', '(d) Đĩa, tấm và dải, chiều dày vượt quá 0,2mm (nhóm 76.06)', '(e) Nhôm lá mỏng ở dạng trang trí cây nôen (nhóm 95.05).', '°', '°     °', 'Chú giải phân nhóm.', 'Phân nhóm 7607 11', 'Ngoài việc xử lý bằng cán nóng hoặc cán nguội, các sản phẩm thuộc phân nhóm này có thể được gia công hoặc xử lý bề mặt:', '(1) Xử lý nhiệt, như việc giảm ứng suất hoặc ủ. Quá trình xử lý này cũng loại bỏ các dầu cặn bôi trơn máy cán.', '(2) Cắt mép, xẻ rãnh hoặc cắt thành hình chữ nhật (kể cả hình vuông)... tức là chia tách dải rộng thành dải hẹp hơn.', '(3) Tách (tháo giãn) các tấm mỏng nhiều lớp. Công việc này là cần thiết khi hai hoặc nhiều cuộn lá mỏng được cán cùng một lúc trong suốt hành trình làm việc cuối cùng của máy cán.', '(4) Làm sạch hoặc rửa hoá học. Đây là cách thông thường được thực hiện để loại bỏ dầu cặn khi không xử lý nhiệt.', '76.08 – Các loại ống và ống dẫn bằng nhôm.', '7608.10 - Bằng nhôm, không hợp kim', '7608.20 - Bằng hợp kim nhôm', 'Chú giải 9 (e) Phần XV của Chương đã định nghĩa các loại ống và ống dẫn', 'Các loại ống và ống dẫn của nhóm này có thể được sản xuất bởi các quá trình như sau:', '(a) bằng việc ép đùn qua khuôn đúc rỗng hoặc thỏi tròn có lỗ.', '(b) bằng việc hàn nối theo chiều dọc hoặc xoắn ốc khuôn hoặc bán thành phẩm đã cán phẳng, dạng cuộn (dải hoặc tấm).', '(c) bằng việc ép đùn.', '(d) bằng việc đúc.', 'Các loại ống được đùn hoặc được hàn có thể được xử lý kéo nguội để thu được các ống có thành mỏng hơn, kích thước chính xác và hoàn chỉnh hơn.', 'Các loại ống và ống dẫn của nhóm này được sử dụng cho nhiều mục đích ví dụ như làm đường ống dẫn dầu hoặc dẫn nuớc, làm ống dẫn dây điện, trong việc sản xuất đồ nội thất, bộ trao đổi nhiệt, các kết cấu.', 'Nhóm này bao gồm các ống và ống dẫn có thể có hoặc không có ren ở hai đầu, lắp với ống nối, các mặt bích, các đầu mối, các vòng đai...', 'Nhóm này không bao gồm:', '(a) Dạng hình rỗng (nhóm 76.04)', '(b) Các phụ kiện để ghép nối của ống hoặc ống dẫn (nhóm 76.09)', '(c) Ống dễ uốn nhóm 83.07)', '(d) Các ống và ống nối làm thành các sản phẩm đặc trưng, như các sản phẩm được dùng trong các kết cấu (nhóm 76.10) các bộ phận của máy móc hoặc của phương tiện giao thông (các Phần XVI và XVII),', '76.09 – Các phụ kiện để ghép nối của ống hoặc ống dẫn (ví dụ, khớp nối đôi, nối khuỷu, măng sông) bằng nhôm.', 'Nội dung chú giải các nhóm 73.07 và 74.12 được áp dụng cho nhóm này với những sửa đổi phù hợp.', 'Nhóm này không bao gồm:', '(a) Kẹp và các dụng cụ khác được thiết kế chuyên dùng cho các bộ phận lắp ráp của các kết cấu (nhóm 76.10).', '(b) Các giá treo và móc treo để đỡ đường ống, các bulông và đai ốc nhôm sử dụng cho việc lắp ráp hoặc cố định ống hoặc ống dẫn (nhóm 76.16).', '(c) Các khớp nối với vòi, van... (nhóm 84.81).', '76.10 – Các kết cấu bằng nhôm (trừ nhà lắp ghép thuộc nhóm 94.06) và các bộ phận của các kết cấu bằng nhôm (ví dụ, cầu và nhịp cầu, tháp, cột lưới, mái nhà, khung mái, cửa ra vào và cửa sổ và các loại khung cửa và ngưỡng cửa ra vào, cửa chớp, lan can, cột trụ và các loại cột); tấm, thanh, dạng hình, ống và các loại tương tự bằng nhôm, đã được gia công để sử dụng làm kết cấu.', '7610.10 - Cửa ra vào, cửa sổ và các loại khung cửa và ngưỡng cửa ra vào', '7610.90 - Loại khác', 'Nội dung của chú giải nhóm 73.08 được áp dụng, với những sửa đổi phù hợp cho nhóm này.', 'Trong trường hợp nhôm, các bộ phận kết cấu đôi khi được gắn kết với nhau bằng nhựa tổng hợp hoặc các hợp chất cao su thay cho việc cố định bởi các phương pháp thông thường như tán đinh, ghép bằng bulông....', 'Vì đặc tính nhẹ nên nhôm và các hợp kim của nhôm đôi khi được sử dụng thay cho sắt hoặc thép trong sản xuất các khung kết cấu, các siêu kết cấu của tàu thuỷ, cầu cống, các cửa ra vào dạng trượt, các mạng điện hoặc các tháp phát thanh, dàn chống cho kính thiên văn, khuôn cửa ra vào hoặc cửa sổ, tay vịn...', 'Nhóm này không bao gồm:', '(a) Các bộ phận lắp ráp được xác định như các bộ phận của sản phẩm của Chương 84 tới 88.', '(b) Các kết cấu nổi của Chương 89.', '(c) Nhà lắp ghép (nhóm 94.06).', '76.11 – Các loại bể chứa, két, bình chứa và các loại tương tự, dùng để chứa các loại vật liệu (trừ khí nén hoặc khí hóa lỏng), có dung tích trên 300 lít, bằng nhôm, đã hoặc chưa lót hoặc cách nhiệt, nhưng chưa lắp ghép với thiết bị cơ khí hoặc thiết bị nhiệt.', 'Chú giải Chi tiết nhóm 73.09 cũng áp dụng cho nhóm này, với những sửa đổi phù hợp.', 'Vì đặc tính nhẹ và chống ăn mòn nên nhôm có khuynh hướng thay thế sắt và thép trong việc sản xuất ra các loại bể chứa nước, két chứa... đặc biệt là trong các ngành công nghiệp hoá chất, các nhà máy bia, các nhà máy bơ sữa, các nhà máy sản xuất pho mát', 'Tuy nhiên, nhóm này không bao gồm các thùng đựng hàng được thiết kế đặc biệt và trang bị để chuyên chở bởi một hoặc nhiều phương thức vận chuyển (nhóm 86.09)', '76.12 – Thùng phuy, thùng hình trống, lon, hộp và các loại đồ chứa tương tự (kể cả các loại thùng chứa hình ống cứng hoặc có thể xếp lại được), dung tích không quá 300 lít, đã hoặc chưa lót hoặc cách nhiệt, nhưng chưa lắp ghép với thiết bị cơ khí hoặc thiết bị nhiệt.', '7612.10 - Thùng chứa hình ống có thể xếp lại được', '7612.90 - Loại khác', 'Nội dung Chú giải Chi tiết nhóm 73.10 được áp dụng cho nhóm này với những sửa đổi phù hợp.', 'Thùng phuy, thùng hình trống bằng nhôm chủ yếu được sử dụng cho việc vận chuyển sữa, bia, rượu vang... Các lon và hộp nhôm thường sử dụng trong đóng gói thực phẩm. Nhóm này cũng bao gồm các đồ chứa cứng hình ống (ví dụ: dùng cho các sản phẩm tân dược như các vỉ, viên nén...) và các đồ chứa hình ống có thể xếp lại được để đựng kem, thuốc đánh răng...', 'Nhóm này không bao gồm:', '(a) Hàng hóa thuộc nhóm 42.02', '(b) Các thùng bánh qui, hộp đựng trà, hộp đường và các đồ dùng gia dụng tương tự khác hoặc các thùng chứa và các hộp nhỏ bằng kim loại dùng trong nhà bếp (nhóm 76.15).', '(c) Hộp đựng thuốc lá, hộp đựng bột, hộp dụng cụ và các đồ chứa tương tự dùng cho cá nhân hoặc chuyên dụng (nhóm 76.16).', '(d) Các sản phẩm thuộc nhóm 83.04.', '(e) Các hộp trang trí (nhóm 83.06).', '(f) Các đồ chứa được thiết kế đặc biệt và được làm thiết bị để vận chuyển bởi một hoặc nhiều hình thức vận chuyển (nhóm 86.09).', '(g) Phích chân không và các loại bình chân không hoàn chỉnh có kèm vỏ, thuộc nhóm 96.17.', '76.13 – Các loại thùng chứa khí nén hoặc khí hóa lỏng bằng nhôm.', 'Xem chú giải nhóm 73.11', '76.14 – Dây bện tao, cáp, băng tết và các loại tương tự, bằng nhôm, chưa cách điện', '7614.10 - Có lõi thép', '7614.90 - Loại khác', 'Chú giải Chi tiết liên quan tới nhóm 73.12 áp dụng cho nhóm này với những sưa đổi phù hợp.', 'Vì là vật liệu dẫn điện nhẹ và tốt, nhôm và Các hợp kim nhôm - mangiê - silic như "hợp kim Almelec" và “hợp kim aldrey" thường được sử dụng thay cho đồng trong việc xây dựng các đường dây và cáp điện.', 'Cáp nhôm có lõi bằng thép hoặc các kim loại khác với điều kiện là nhôm phải lớn hơn về tỷ trọng (xem chú giải 7 phần XV).', 'Tuy nhiên, nhóm này không bao gồm dây và cáp đã bọc cách điện (nhóm 85.44).', '76.15 – Bộ đồ ăn, đồ nhà bếp hoặc các loại đồ gia dụng khác và các bộ phận của chúng, bằng nhôm; miếng dùng để cọ nồi và cọ rửa hoặc đánh bóng, găng tay và các loại tương tự bằng nhôm; đồ trang bị trong nhà vệ sinh và các bộ phận của chúng, bằng nhôm.', '7615.10 - Bộ đồ ăn, đồ nhà bếp hoặc các đồ gia dụng khác và các bộ phận của chúng; miếng cọ nồi và cọ rửa hoặc đánh bóng, bao tay và các loại tương tự:', '7615.20 - Đồ trang bị trong nhà vệ sinh và bộ phận của chúng:', 'Nhóm này bao gồm các sản phẩm cùng loại như đã được mô tả trong các chú giải nhóm 73.23 và 73.24, đặc biệt là các đồ dùng nhà bếp, các sản phẩm sử dụng trong vệ sinh và toilet được mô tả trong các nhóm đó. Nhóm này cũng bao gồm đồ thiết bị nấu hoặc đun nóng bằng nhôm hoặc các thiết bị nhiệt tương tự được mô tả trong chú giải nhóm 74.18.', 'Tuy nhiên, nhóm này không bao gồm:', '(a) Can, hộp và các đồ chứa tương tự thuộc nhóm 76.12', '(b) Đồ gia dụng mang đặc tính của dụng cụ (Chương 82) (Xem chú giải nhóm 73.23).', '(c) Dao kéo, thìa, muôi, dĩa và các sản phẩm khác thuộc nhóm 82.11 đến 82.15.', '(d) Đồ trang trí (nhóm 83.06).', '(e) Thiết bị đun nước nóng nhanh hoặc thiết bị đun chứa nước nóng và các thiết bị khác của nhóm 84.19', '(f) Các thiết bị điện gia dụng của Chương 85 (Cụ thể là đối với các thiết bị và máy móc thuộc nhóm 85.09 và 85.16)', '(g) Hàng hóa thuộc Chương 94.', '(h) Bật lửa châm thuốc lá và các loại bật lửa khác (nhóm 96.13).', '(ij) Các loại phích và các loại bình chân không khác thuộc nhóm 96.17.', '76.16 – Các sản phẩm khác bằng nhôm', '7616.10 - Đinh, đinh bấm, ghim dập (trừ các loại thuộc nhóm 83.05), đinh vít, bu lông, đai ốc, đinh móc, đinh tán, chốt hãm, chốt định vị, vòng đệm và các sản phẩm tương tự', '- Loại khác :', '7616.91 - - Tấm đan, phên, lưới và rào, bằng dây nhôm', '7616.99 - - Loại khác', 'Nhóm này bao gồm tất cả các sản phẩm bằng nhôm trừ các hàng hóa nằm trong các nhóm trước của chương này, hoặc Chú giải 1 phần XV, hoặc các hàng hóa được chi tiết hoặc thuộc chương 82 hoặc 83 hoặc được mô tả cụ thể hơn ở bất cứ phần nào trong danh mục.', 'Cụ thể nhóm này bao gồm:', '(1) Đinh, đinh bấm, ghim dập (trừ các loại thuộc nhóm 83.05), vít, bu lông, đai ốc, vít treo, đinh tán, chốt hãm, chốt định vị, vòng đệm và các sản phẩm tương tự được mô tả trong các chú giải các nhóm 73.17 và 73.18.', '(2) Các loại kim đan, cái xỏ dây, kim móc, kim thêu, kim băng và các loại kim khác thuộc loại đã được mô tả trong chú giải nhóm 73.19.', '(3) Xích và các bộ phận của xích làm bằng nhôm', '(4) Tấm đan, phên và lưới làm bằng dây nhôm và sản phẩm dạng lưới được tạo hình bằng phương pháp đột dập và kéo giãn thành lưới (xem chú giải nhóm 73.14). Sản phẩm dạng lưới được tạo hình bằng phương pháp đột dập và kéo giãn thành lưới được sử dụng để trưng bày bán hàng, lưới màng loa, với múc đích phòng chống nổ được dùng trong vận chuyển và chứa các chất lỏng dễ bay hơi và khí...', '(5) Các mặt hàng bằng nhôm tương ứng với các mặt hàng bằng sắt và bằng thép được đề cập tới trong các chú giải nhóm 73.25 và 73.26', 'Nhóm này không bao gồm:', '(a) Vải dệt thoi từ sợi kim loại sử dụng để trang trí như các loại vải trang trí nội thất hoặc các mục đích tương tự (nhóm 58.09).', '(b) Vải kim loại,..., đã được tạo dáng thành các bộ phận của máy (ví dụ: bằng việc lắp ráp với các vật liệu khác) Chương 84 hoặc 85).', '(c) Vải kim loại,..., cấu thành nên các loại sàng thô và sàng tay. (nhóm 96.04).', 'Chương 78', 'Chì và các sản phẩm bằng chì', 'Chú giải phân nhóm.', '1. Trong Chương này khái niệm “chì tinh luyện" có nghĩa:', 'Là kim loại có hàm lượng chì chiếm ít nhất 99,9% tính theo khối lượng, với điều kiện hàm lượng của mỗi nguyên tố khác trong thành phần không vượt quá giới hạn nêu trong bảng sau:', 'BẢNG - Các nguyên tố khác', 'Nguyên tố', 'Giới hạn tỷ lệ TL%', 'Ag', 'Bạc', '0,02', 'As', 'Arsen', '0,005', 'Bi', 'Bismut', '0,05', 'Ca', 'Canxi', '0,002', 'Cd', 'Catmi', '0,002', 'Cu', 'Đồng', '0,08', 'Fe', 'Sắt', '0,002', 'S', 'Lưu huỳnh', '0,002', 'Sb', 'Antimon', '0,005', 'Sn', 'Thiếc', '0,005', 'Zn', 'Kẽm', '0,002', 'Nguyên tố khác', '(ví dụ Telua) , mỗi nguyên tố', '0,001', 'TỔNG QUÁT', 'Chương này gồm chì, Các hợp kim của chì và các hàng hóa từ chì.', 'Chì chủ yếu thu được từ Galena, là một loại quặng chì sunfua tự nhiên thường có chứa bạc. Sau khi làm giàu bằng phương pháp tuyển nổi, quặng nghiền vụn thường được nung hoặc thiêu kết và sau đó được khử bằng nấu chảy. Trong quá trình nung hoặc thiêu kết, muối sunphua phần lớn được chuyển thành dạng ôxit; trong quá trình nấu chảy, ôxit được khử thành chì bằng than cốc và một chất trợ dung. Theo cách này thu được "chì dạng thỏi" hoặc "chì gia công"; loại này có chứa một số tạp chất, thường bao gồm bạc. Bởi vậy nhìn chung chì phải được tinh luyện thêm để tạo ra chì hoàn toàn tinh khiết.', 'Chì cũng thu được bởi việc nấu lại phế thải và các mảnh chì vụn.', '*', '*     *', 'Chì là kim loại nặng có màu xanh xám, nó rất dễ dát mỏng, dễ nấu chảy và rất mềm (có thể dễ dàng dùng móng tay vạch nét trên mặt kim loại này). Chì chống lại tác dụng của hầu hết các axit (ví dụ: axit sunfuaric hoặc axit clohydric) và bởi vì vậy nó được sử dụng trong việc xây dựng nhà máy hoá chất.', '*', '*     *', 'Do điểm nóng chảy của chì thấp nên nó dễ dàng tạo thành hợp kim với các nguyên tố khác. Các hợp kim chì chủ yếu có thể nằm trong chương này theo qui định của chú giải 5 Phần XV (xem chú giải chi tiết tổng quát của phần đó), bao gồm:', '(1) Hợp kim chì-thiếc được dùng, ví dụ vật liệu hàn trên cơ sở chì, trong các tấm mỏng tráng chì và trong giấy bạc để gói chè.', '(2) Hợp kim chì-antimon-thiếc được dùng trong các loại máy in và trong các vòng bi chống ma sát.', '(3) Hợp kim chì-asen sử dụng làm đạn chì.', '(4) Hợp kim chì-antimoan (chì cứng) được sử dụng trong sản xuất đạn, các bản cực ắc quy...', '(5) Hợp kim chì-can xi, chì-canxi-antimon, chì-telu:', '*', '*     *', 'Chương này bao gồm:', '(A) Chì chưa gia công, phế liệu và các mảnh chì vụn (các nhóm 78.01 và 78.02).', '(B) Các sản phẩm thu được bởi việc cán hoặc ép đùn chì chưa gia công của nhóm 78.01 (nhóm 78.04 và 78.06), bột và vảy chì (nhóm 78.04)', '(C) Các ống, ống dẫn và phụ kiện và các sản phẩm còn lại của nhóm 78.06 mà nó bao gồm tất cả các sản phẩm chì khác trừ các sản phẩm được mô tả trong Chú giải 1 Phần XV hoặc nằm trong Chương 82 hoặc Chương 83 hoặc được mô tả chi tiết hơn ở các phần khác trong danh mục.', '*', '*     *', 'Các sản phẩm và hàng hóa bằng chì có thể được đưa qua nhiều quá trình xử lý để nâng cao thuộc tính và hình dáng bên ngoài của kim loại... Nhìn chung những quá trình gia công đó được đề cập tại phần cuối chú giải tổng quát của Chương 72 và không ảnh hưởng tới việc phân loại hàng hoá.', '*', '*     *', 'Việc phân loại các sản phẩm phức hợp được giải thích trong Chú giải Tổng quát Phần XV.', '78.01 – Chì chưa gia công', '7801.10 - Chì tinh luyện', '- Loại khác:', '7801.91 - - Có hàm lượng antimon tính theo khối lượng là lớn nhất so với hàm lượng của các nguyên tố khác ngoài chì', '7801.99 - - Loại khác', 'Nhóm này bao gồm chì chưa gia công ở mức độ tinh khiết khác nhau, từ các thỏi chì không tinh khiết hoặc chì có chứa bạc đến chì tinh khiết bằng phương pháp điện phân. Nó có thể ở dạng khối, thỏi, bánh, tấm, hoặc các dạng tương tự, hoặc ở dạng thanh đúc. Hầu hết các dạng đó là để đưa vào cán hoặc ép đùn, để chế tạo các loại hợp kim, hoặc cho việc đúc thành các sản phẩm dạng hình. Nhóm này cũng bao gồm các thanh anôt đúc sử dụng trong tinh chế bằng phương pháp điện phân, que đúc, ví dụ cho cán hoặc kéo hoặc đúc lại thành những sản phẩm dạng hình', 'Nhóm này loại trừ bột hoặc vảy chì (nhóm 78.04).', '78.02 – Phế liệu và mảnh vụn chì.', 'Các nội dung liên quan tới phế liệu và mảnh vụn trong chú giải nhóm 72.04 áp dụng, với những sửa đổi phù hợp, cho nhóm này.', 'Nhóm này không bao gồm:', '(a) Xỉ, tro và các chất cặn còn lại từ việc sản xuất chì (ví dụ: Sten chì) (nhóm 26.20).', '(b) Các thỏi thô và các dạng chì chưa gia công tương tự đúc từ nấu lại chì phế liệu và mảnh vụn chì (nhóm 78.01).', '[78.03]', '78.04 – Chì ở dạng tấm, lá, dải và lá mỏng; bột và vảy chì.', '- Chì ở dạng tấm, lá, dải và lá mỏng:', '7804.11 - - Lá, dải và lá mỏng có chiều dày (trừ phần bồi) không quá 0,2mm', '7804.19 - - Loại khác', '7804.20 - Bột và vảy chì', 'Chì ở dạng tấm, lá, dải và lá mỏng được định nghĩa trong Chú giải 9 (d) Phần XV.', 'Các điều khoản của chú giải nhóm 74.09 và 74.10 áp dụng, với những sửa đổi phù hợp, cho nhóm này.', 'Dạng tấm, lá và dải của chì được sử dụng chủ yếu là cho mục đích lợp mái, mạ kim loại, trong các bể chứa, các bình chứa và trong xưởng hoá chất khác, cho việc sản xuất tấm chắn tia X....', 'Chì ở dạng lá mỏng được sử dụng chủ yếu trong việc đóng gói (đặc biệt cho hộp chè có lớp tráng trong hoặc các hòm đựng tơ lụa). Trong một số trường hợp các lá mỏng được mạ hoặc được bao bọc bởi thiếc hoặc các kim loại khác.', 'Nhóm này cũng bao gồm bột chì như định nghĩa ở chú giải 8 (b) phần XV và vảy chì. Các điều khoản của chú giải chi tiết nhóm 74.06 áp dụng, với những sửa đổi phù hợp, cho nhóm này....', 'Nhóm này không bao gồm bột và vảy chì, được điều chế thành chất màu, sơn hoặc các loại tương tự (ví dụ: phối hợp với chất màu khác hoặc được đóng dưới dạng nhũ tương, dạng phân tán hoặc dạng bột nhão với chất kết dính hoặc dung môi) (Chương 32).', '[78.05]', '78.06 – Các sản phẩm khác bằng chì.', 'Nhóm này bao gồm tất cả các sản phẩm của chì ngoại trừ các sản phẩm thuộc các nhóm trước của Chương này, hoặc thuộc Chương 82 hoặc Chương 83, hoặc được mô tả chi tiết hơn ở các phần khác trong danh mục (xem Chú giải 1 phần XV) dù các sản phẩm này đã được đúc khuôn, ép và dập....', 'Trong trường hợp đặc biệt, nó áp dụng, đối với các loại ống có thể bóp để chứa chất màu hoặc sản phẩm khác, các thùng chứa, bể chứa, thùng hình trống và các thùng chứa tương tự (sử dụng để chứa axit, các sản phẩm phóng xạ hoặc các hoá chất khác), không gắn với các thiết bị máy và thiết bị nhiệt; quả dọi chì cho lưới đánh cá, các quả dọi cho quần áo, rèm,... quả lắc đồng hồ, và các đối trọng thông dụng, các cuộn chỉ lỏng, con sợi (len, dây thừng) và các loại dây thừng (chão, cáp) bằng sợi chì hoặc các dây được dùng cho bao gói hoặc cho việc trám các mối nối ống, các bộ phận của cấu trúc nhà, sống thuyền buồm, các tấm che ngực của thợ lặn, các Anốt mạ điện (xem phần (a) thuộc chú giải nhóm 75.08); thanh, que, hình và dây chì được định nghĩa trong chú giải 9 (a) , 9 (b) và 9 (c) của Phần XV (trừ các que đúc dự định, ví dụ, để cán hoặc kéo hoặc để đúc lại thành các sản phẩm dạng hình (nhóm 78.01), dạng que đã được phủ (nhóm 83.11))', 'Nhóm này cũng bao gồm các ống và ống dẫn được định nghĩa trong Chú giải 9 (e) Phần XV và phụ kiện kết nối bằng chì cho ống và ống dẫn (ví dụ, khớp nối đôi, khuỷu, măng sông), (trừ các phụ kiện để ghép nối với vòi, van v.v. (nhóm 84.81), ống và ống dẫn làm thành những sản phẩm có thể nhận dạng đặc biệt, chẳng hạn như các bộ phận máy móc (Phần XVI) và cáp có vỏ bọc ngoài bằng chì để cách điện (nhóm 85.44)). Những mặt hàng này tương ứng với các mặt hàng sắt hoặc thép được đề cập trong chú giải nhóm 73.04 tới 73.07.', 'Chương 79', 'Kẽm và các sản phẩm bằng kẽm', 'Chú giải phân nhóm.', '1.- Trong Chương này các khái niệm sau có nghĩa:', '(a) Kẽm, không hợp kim', 'Là kim loại có hàm lượng kẽm ít nhất 97,5% tính theo khối lượng.', '(b) Hợp kim kẽm', 'Vật liệu kim loại mà trong đó hàm lượng của kẽm lớn hơn so với hàm lượng lượng của mỗi nguyên tố khác, với điều kiện tổng hàm lượng tính theo khối lượng của các nguyên tố khác trên 2,5%.', '(c) Bụi kẽm', 'Bụi thu được từ quá trình ngưng tụ hơi kẽm, bao gồm những hạt hình cầu nhỏ hơn bột kẽm. Có tối thiểu 80% tính theo khối lượng các hạt lọt qua mắt sàng 63 micromét (microns). Hàm lượng của kẽm ít nhất là 85% tính theo khối lượng.', 'TỔNG QUÁT', 'Chương này bao gồm kẽm và các hợp kim của kẽm, và một số sản phẩm của nó.', 'Kẽm chủ yếu thu được từ quặng sunfua (hỗn hợp kẽm hoặc các Sphalerit) mặc dù nó cũng được chiết xuất từ quặng Cacbonat và Silicat (Smithsonite, Hemimorphite...) (xem chú giải giải thích nhóm 26.08).', 'Trong cả hai trường hợp, đầu tiên quặng được tuyển và sau đó được nung hoặc nung khô để tạo ra oxit kẽm (trong trường hợp của quặng Sulphat và cacbonat) hoặc Silicat Kẽm đã được khử nuớc (trong trường hợp là quặng Silicate). Kẽm thu được từ quá trình này bằng phương pháp khử nhiệt hoặc bằng phương pháp điện phân (trừ trong trường hợp là quặng Silicat).', '(I) Phương pháp khử nhiệt: được tiến hành bằng cách nung nóng ôxit hoặc Silicate với than cốc trong nồi chưng cất kín. Kẽm tại nhiệt độ đủ cao sẽ bốc hơi sau đó được chưng cất qua máy ngưng tụ. Phần lớn kim loại được thu lại là "Kẽm tạp chất". Kẽm không tinh khiết này có thể được sử dụng trực tiếp cho công nghệ mạ kẽm, hoặc có thể được tinh chế bằng các phương pháp khác.', 'Một số kim loại không tinh khiết cũng được kết tủa (trầm tích) trong những phần nối của nồi chưng cất dưới dạng bột mịn được biết như là bụi kẽm hoặc bột xanh.', 'Sự cải tiến của quá trình này dựa trên cơ sở liên tục khử ôxit kẽm và chưng cất kẽm trong các lò thẳng đứng. Quá trình này tạo ra kim loại rất tinh khiết phù hợp với việc tạo ra Các hợp kim đúc áp lực.', '(II) Phương pháp điện phân: Ôxit kẽm được hoà tan trong dung dịch Axit Sunphuric pha loãng. Dung dịch Sunphat kẽm này được tinh lọc cẩn thận để loại ra Cadi, sắt, Đồng... và sau đó nó được điện phân để tạo ra một loại kẽm rất tinh khiết.', 'Kẽm cũng thu được từ việc nấu luyện lại chất phế liệu và mảnh vụn của kẽm.', '*', '*     *', 'Kẽm là một kim loại có màu trắng xanh có thể được cán, kéo, dập, ép... ở những nhiệt độ thích hợp, và nó có thể dùng trong công nghệ đúc. Kẽm là chất có khả năng chống lại sự ăn mòn trong bầu khí quyển và bởi vậy nó được sử dụng trong công trình xây dựng (ví dụ: sử dụng cho việc lợp mái) và để tạo nên các lớp vỏ bọc bảo vệ những kim loại khác, đặc b</t>
+  </si>
+  <si>
+    <t>['Chú giải phân nhóm.', '1. Trong Chương này khái niệm “chì tinh luyện" có nghĩa:', 'Là kim loại có hàm lượng chì chiếm ít nhất 99,9% tính theo khối lượng, với điều kiện hàm lượng của mỗi nguyên tố khác trong thành phần không vượt quá giới hạn nêu trong bảng sau:', 'BẢNG - Các nguyên tố khác', 'Nguyên tố', 'Giới hạn tỷ lệ TL%', 'Ag', 'Bạc', '0,02', 'As', 'Arsen', '0,005', 'Bi', 'Bismut', '0,05', 'Ca', 'Canxi', '0,002', 'Cd', 'Catmi', '0,002', 'Cu', 'Đồng', '0,08', 'Fe', 'Sắt', '0,002', 'S', 'Lưu huỳnh', '0,002', 'Sb', 'Antimon', '0,005', 'Sn', 'Thiếc', '0,005', 'Zn', 'Kẽm', '0,002', 'Nguyên tố khác', '(ví dụ Telua) , mỗi nguyên tố', '0,001', 'TỔNG QUÁT', 'Chương này gồm chì, Các hợp kim của chì và các hàng hóa từ chì.', 'Chì chủ yếu thu được từ Galena, là một loại quặng chì sunfua tự nhiên thường có chứa bạc. Sau khi làm giàu bằng phương pháp tuyển nổi, quặng nghiền vụn thường được nung hoặc thiêu kết và sau đó được khử bằng nấu chảy. Trong quá trình nung hoặc thiêu kết, muối sunphua phần lớn được chuyển thành dạng ôxit; trong quá trình nấu chảy, ôxit được khử thành chì bằng than cốc và một chất trợ dung. Theo cách này thu được "chì dạng thỏi" hoặc "chì gia công"; loại này có chứa một số tạp chất, thường bao gồm bạc. Bởi vậy nhìn chung chì phải được tinh luyện thêm để tạo ra chì hoàn toàn tinh khiết.', 'Chì cũng thu được bởi việc nấu lại phế thải và các mảnh chì vụn.', '*', '*     *', 'Chì là kim loại nặng có màu xanh xám, nó rất dễ dát mỏng, dễ nấu chảy và rất mềm (có thể dễ dàng dùng móng tay vạch nét trên mặt kim loại này). Chì chống lại tác dụng của hầu hết các axit (ví dụ: axit sunfuaric hoặc axit clohydric) và bởi vì vậy nó được sử dụng trong việc xây dựng nhà máy hoá chất.', '*', '*     *', 'Do điểm nóng chảy của chì thấp nên nó dễ dàng tạo thành hợp kim với các nguyên tố khác. Các hợp kim chì chủ yếu có thể nằm trong chương này theo qui định của chú giải 5 Phần XV (xem chú giải chi tiết tổng quát của phần đó), bao gồm:', '(1) Hợp kim chì-thiếc được dùng, ví dụ vật liệu hàn trên cơ sở chì, trong các tấm mỏng tráng chì và trong giấy bạc để gói chè.', '(2) Hợp kim chì-antimon-thiếc được dùng trong các loại máy in và trong các vòng bi chống ma sát.', '(3) Hợp kim chì-asen sử dụng làm đạn chì.', '(4) Hợp kim chì-antimoan (chì cứng) được sử dụng trong sản xuất đạn, các bản cực ắc quy...', '(5) Hợp kim chì-can xi, chì-canxi-antimon, chì-telu:', '*', '*     *', 'Chương này bao gồm:', '(A) Chì chưa gia công, phế liệu và các mảnh chì vụn (các nhóm 78.01 và 78.02).', '(B) Các sản phẩm thu được bởi việc cán hoặc ép đùn chì chưa gia công của nhóm 78.01 (nhóm 78.04 và 78.06), bột và vảy chì (nhóm 78.04)', '(C) Các ống, ống dẫn và phụ kiện và các sản phẩm còn lại của nhóm 78.06 mà nó bao gồm tất cả các sản phẩm chì khác trừ các sản phẩm được mô tả trong Chú giải 1 Phần XV hoặc nằm trong Chương 82 hoặc Chương 83 hoặc được mô tả chi tiết hơn ở các phần khác trong danh mục.', '*', '*     *', 'Các sản phẩm và hàng hóa bằng chì có thể được đưa qua nhiều quá trình xử lý để nâng cao thuộc tính và hình dáng bên ngoài của kim loại... Nhìn chung những quá trình gia công đó được đề cập tại phần cuối chú giải tổng quát của Chương 72 và không ảnh hưởng tới việc phân loại hàng hoá.', '*', '*     *', 'Việc phân loại các sản phẩm phức hợp được giải thích trong Chú giải Tổng quát Phần XV.', '78.01 – Chì chưa gia công', '7801.10 - Chì tinh luyện', '- Loại khác:', '7801.91 - - Có hàm lượng antimon tính theo khối lượng là lớn nhất so với hàm lượng của các nguyên tố khác ngoài chì', '7801.99 - - Loại khác', 'Nhóm này bao gồm chì chưa gia công ở mức độ tinh khiết khác nhau, từ các thỏi chì không tinh khiết hoặc chì có chứa bạc đến chì tinh khiết bằng phương pháp điện phân. Nó có thể ở dạng khối, thỏi, bánh, tấm, hoặc các dạng tương tự, hoặc ở dạng thanh đúc. Hầu hết các dạng đó là để đưa vào cán hoặc ép đùn, để chế tạo các loại hợp kim, hoặc cho việc đúc thành các sản phẩm dạng hình. Nhóm này cũng bao gồm các thanh anôt đúc sử dụng trong tinh chế bằng phương pháp điện phân, que đúc, ví dụ cho cán hoặc kéo hoặc đúc lại thành những sản phẩm dạng hình', 'Nhóm này loại trừ bột hoặc vảy chì (nhóm 78.04).', '78.02 – Phế liệu và mảnh vụn chì.', 'Các nội dung liên quan tới phế liệu và mảnh vụn trong chú giải nhóm 72.04 áp dụng, với những sửa đổi phù hợp, cho nhóm này.', 'Nhóm này không bao gồm:', '(a) Xỉ, tro và các chất cặn còn lại từ việc sản xuất chì (ví dụ: Sten chì) (nhóm 26.20).', '(b) Các thỏi thô và các dạng chì chưa gia công tương tự đúc từ nấu lại chì phế liệu và mảnh vụn chì (nhóm 78.01).', '[78.03]', '78.04 – Chì ở dạng tấm, lá, dải và lá mỏng; bột và vảy chì.', '- Chì ở dạng tấm, lá, dải và lá mỏng:', '7804.11 - - Lá, dải và lá mỏng có chiều dày (trừ phần bồi) không quá 0,2mm', '7804.19 - - Loại khác', '7804.20 - Bột và vảy chì', 'Chì ở dạng tấm, lá, dải và lá mỏng được định nghĩa trong Chú giải 9 (d) Phần XV.', 'Các điều khoản của chú giải nhóm 74.09 và 74.10 áp dụng, với những sửa đổi phù hợp, cho nhóm này.', 'Dạng tấm, lá và dải của chì được sử dụng chủ yếu là cho mục đích lợp mái, mạ kim loại, trong các bể chứa, các bình chứa và trong xưởng hoá chất khác, cho việc sản xuất tấm chắn tia X....', 'Chì ở dạng lá mỏng được sử dụng chủ yếu trong việc đóng gói (đặc biệt cho hộp chè có lớp tráng trong hoặc các hòm đựng tơ lụa). Trong một số trường hợp các lá mỏng được mạ hoặc được bao bọc bởi thiếc hoặc các kim loại khác.', 'Nhóm này cũng bao gồm bột chì như định nghĩa ở chú giải 8 (b) phần XV và vảy chì. Các điều khoản của chú giải chi tiết nhóm 74.06 áp dụng, với những sửa đổi phù hợp, cho nhóm này....', 'Nhóm này không bao gồm bột và vảy chì, được điều chế thành chất màu, sơn hoặc các loại tương tự (ví dụ: phối hợp với chất màu khác hoặc được đóng dưới dạng nhũ tương, dạng phân tán hoặc dạng bột nhão với chất kết dính hoặc dung môi) (Chương 32).', '[78.05]', '78.06 – Các sản phẩm khác bằng chì.', 'Nhóm này bao gồm tất cả các sản phẩm của chì ngoại trừ các sản phẩm thuộc các nhóm trước của Chương này, hoặc thuộc Chương 82 hoặc Chương 83, hoặc được mô tả chi tiết hơn ở các phần khác trong danh mục (xem Chú giải 1 phần XV) dù các sản phẩm này đã được đúc khuôn, ép và dập....', 'Trong trường hợp đặc biệt, nó áp dụng, đối với các loại ống có thể bóp để chứa chất màu hoặc sản phẩm khác, các thùng chứa, bể chứa, thùng hình trống và các thùng chứa tương tự (sử dụng để chứa axit, các sản phẩm phóng xạ hoặc các hoá chất khác), không gắn với các thiết bị máy và thiết bị nhiệt; quả dọi chì cho lưới đánh cá, các quả dọi cho quần áo, rèm,... quả lắc đồng hồ, và các đối trọng thông dụng, các cuộn chỉ lỏng, con sợi (len, dây thừng) và các loại dây thừng (chão, cáp) bằng sợi chì hoặc các dây được dùng cho bao gói hoặc cho việc trám các mối nối ống, các bộ phận của cấu trúc nhà, sống thuyền buồm, các tấm che ngực của thợ lặn, các Anốt mạ điện (xem phần (a) thuộc chú giải nhóm 75.08); thanh, que, hình và dây chì được định nghĩa trong chú giải 9 (a) , 9 (b) và 9 (c) của Phần XV (trừ các que đúc dự định, ví dụ, để cán hoặc kéo hoặc để đúc lại thành các sản phẩm dạng hình (nhóm 78.01), dạng que đã được phủ (nhóm 83.11))', 'Nhóm này cũng bao gồm các ống và ống dẫn được định nghĩa trong Chú giải 9 (e) Phần XV và phụ kiện kết nối bằng chì cho ống và ống dẫn (ví dụ, khớp nối đôi, khuỷu, măng sông), (trừ các phụ kiện để ghép nối với vòi, van v.v. (nhóm 84.81), ống và ống dẫn làm thành những sản phẩm có thể nhận dạng đặc biệt, chẳng hạn như các bộ phận máy móc (Phần XVI) và cáp có vỏ bọc ngoài bằng chì để cách điện (nhóm 85.44)). Những mặt hàng này tương ứng với các mặt hàng sắt hoặc thép được đề cập trong chú giải nhóm 73.04 tới 73.07.', 'Chương 79', 'Kẽm và các sản phẩm bằng kẽm', 'Chú giải phân nhóm.', '1.- Trong Chương này các khái niệm sau có nghĩa:', '(a) Kẽm, không hợp kim', 'Là kim loại có hàm lượng kẽm ít nhất 97,5% tính theo khối lượng.', '(b) Hợp kim kẽm', 'Vật liệu kim loại mà trong đó hàm lượng của kẽm lớn hơn so với hàm lượng lượng của mỗi nguyên tố khác, với điều kiện tổng hàm lượng tính theo khối lượng của các nguyên tố khác trên 2,5%.', '(c) Bụi kẽm', 'Bụi thu được từ quá trình ngưng tụ hơi kẽm, bao gồm những hạt hình cầu nhỏ hơn bột kẽm. Có tối thiểu 80% tính theo khối lượng các hạt lọt qua mắt sàng 63 micromét (microns). Hàm lượng của kẽm ít nhất là 85% tính theo khối lượng.', 'TỔNG QUÁT', 'Chương này bao gồm kẽm và các hợp kim của kẽm, và một số sản phẩm của nó.', 'Kẽm chủ yếu thu được từ quặng sunfua (hỗn hợp kẽm hoặc các Sphalerit) mặc dù nó cũng được chiết xuất từ quặng Cacbonat và Silicat (Smithsonite, Hemimorphite...) (xem chú giải giải thích nhóm 26.08).', 'Trong cả hai trường hợp, đầu tiên quặng được tuyển và sau đó được nung hoặc nung khô để tạo ra oxit kẽm (trong trường hợp của quặng Sulphat và cacbonat) hoặc Silicat Kẽm đã được khử nuớc (trong trường hợp là quặng Silicate). Kẽm thu được từ quá trình này bằng phương pháp khử nhiệt hoặc bằng phương pháp điện phân (trừ trong trường hợp là quặng Silicat).', '(I) Phương pháp khử nhiệt: được tiến hành bằng cách nung nóng ôxit hoặc Silicate với than cốc trong nồi chưng cất kín. Kẽm tại nhiệt độ đủ cao sẽ bốc hơi sau đó được chưng cất qua máy ngưng tụ. Phần lớn kim loại được thu lại là "Kẽm tạp chất". Kẽm không tinh khiết này có thể được sử dụng trực tiếp cho công nghệ mạ kẽm, hoặc có thể được tinh chế bằng các phương pháp khác.', 'Một số kim loại không tinh khiết cũng được kết tủa (trầm tích) trong những phần nối của nồi chưng cất dưới dạng bột mịn được biết như là bụi kẽm hoặc bột xanh.', 'Sự cải tiến của quá trình này dựa trên cơ sở liên tục khử ôxit kẽm và chưng cất kẽm trong các lò thẳng đứng. Quá trình này tạo ra kim loại rất tinh khiết phù hợp với việc tạo ra Các hợp kim đúc áp lực.', '(II) Phương pháp điện phân: Ôxit kẽm được hoà tan trong dung dịch Axit Sunphuric pha loãng. Dung dịch Sunphat kẽm này được tinh lọc cẩn thận để loại ra Cadi, sắt, Đồng... và sau đó nó được điện phân để tạo ra một loại kẽm rất tinh khiết.', 'Kẽm cũng thu được từ việc nấu luyện lại chất phế liệu và mảnh vụn của kẽm.', '*', '*     *', 'Kẽm là một kim loại có màu trắng xanh có thể được cán, kéo, dập, ép... ở những nhiệt độ thích hợp, và nó có thể dùng trong công nghệ đúc. Kẽm là chất có khả năng chống lại sự ăn mòn trong bầu khí quyển và bởi vậy nó được sử dụng trong công trình xây dựng (ví dụ: sử dụng cho việc lợp mái) và để tạo nên các lớp vỏ bọc bảo vệ những kim loại khác, đặc biệt là sắt và thép (ví dụ: bằng việc mạ nhúng nóng, mạ điện âm cực, mạ kẽm, sơn hoặc phun).', '*', '*    *', 'Kẽm cũng được áp dụng trong việc sản xuất các loại hợp kim, nhiều loại (ví dụ: đồng thau) chứa một lượng nhiều hơn của các kim loại khác, nhưng dưới đây là Các hợp kim kẽm chính mà có thể nằm trong chương này theo các điều khoản của Chú giải 5 Phần XV.', '(1) Hợp kim kẽm-nhôm, thông thường có bổ sung đồng hoặc magiê dùng cho quá trình đúc áp lực, đặc biệt dùng cho các bộ phận ô tô (thân của bộ chế hoà khí, lưới của bộ tản nhiệt, bảng đồng hồ...) các bộ phận của xe đạp (bàn đạp, các hộp Dynamo...) các bộ phận của Radio, các bộ phận của tủ lạnh... Các hợp kim của các kim loại cùng loại được dùng để sản xuất, các tấm cứng hơn kẽm bình thường, các dụng cụ ép, và như là Anốt bảo vệ Ca- tôt (A-nôt tự tiêu) để bảo vệ các đường ống, các tụ điện... chống lại ăn mòn kim loại.', '(2) Hợp kim kẽm- đồng (hợp kim kim loại núm) sử dụng để đúc dập... Xem chú giải phân nhóm 1 (a) và 1 (b) liên quan đến việc phân biệt giữa kẽm và hợp kim của kẽm.', '*', '*     *', 'Chương này bao gồm:', '(A) Kẽm thương phẩm và kẽm chưa qua gia công, phế liệu và các mảnh vụn (nhóm 79.01 và 79.02).', '(B) Bụi, bột và vẩy kẽm (nhóm 79.03).', '(C) Các sản phẩm nói chung thu được, bởi các phương pháp cán, kéo, ép. Kẽm chưa qua gia công thuộc nhóm 79.01 (các nhóm 79.04 và 79.05).', '(D) Các ống, ống dẫn và các phụ kiện, các sản phẩm khác của nhóm 79.07, bao gồm tất cả các sản phẩm kẽm khác trừ các sản phẩm nằm trong Chú giải 1 của Phần XV hoặc thuộc Chương 82 hoặc Chương 83 hoặc các sản phẩm được mô tả chi tiết hơn thuộc nơi khác của Danh mục..', '*', '*     *', 'Các sản phẩm và mặt hàng bằng kẽm có thể qua nhiều quá trình xử lý để nâng cao thuộc tính hoặc hình dáng bên ngoài của kim loại... Các phương pháp xử lý đó nói chung được đề cập tại phần cuối của chú giải chi tiết Chương 72 và không ảnh hưởng đến việc phân loại hàng hoá.', '*', '*     *', 'Việc phân loại các sản phẩm phức hợp được giải thích trong chú giải Tổng quát phần XV.', '79.01 – Kẽm chưa gia công', '- Kẽm, không hợp kim:', '7901.11 - - Có hàm lượng kẽm từ 99,99% trở lên tính theo khối lượng', '7901.12 - - Có hàm lượng kẽm dưới 99,99% tính theo khối lượng', '7901.20 - Hợp kim kẽm', 'Nhóm này bao gồm kẽm chưa gia công ở các mức độ khác nhau về độ tinh khiết từ kẽm thương phẩm (Xem chú giải chung ở trên) đến kẽm đã được tinh chế, nó có thể ở dạng khối, tấm, thỏi, phiến hoặc các dạng tương tự hoặc có dạng viên. Các sản phẩm của nhóm này thường được dự định sử dụng trong mạ kẽm (bởi phương pháp nhúng nóng hoặc quá trình (kết tủa điện phân) mạ âm cực, tạo ra các hợp kim, cán, kéo, hoặc ép đùn, hoặc đúc thành các sản phẩm định hình.', 'Nhóm này loại trừ bụi, bột, vẩy kẽm (nhóm 79.03).', '79.02 – Phế liệu và mảnh vụn kẽm.', 'Các điều khoản liên quan đến phế liệu và mảnh vụn trong chú giải nhóm 72.04, với những bồ sung thích hợp, cũng được áp dụng cho nhóm này.', 'Nhóm này không bao gồm:', '(a) Xỉ, tro và chất thải từ quá trình sản xuất kẽm, từ quá trình mạ kẽm (ví dụ: Cặn kết tủa trong quá trình mạ kẽm và chất thải kim loại từ các thùng nhúng (nhóm 26.20).', '(b) Kẽm ở dạng thỏi và các dạng tương tự chưa qua gia công được đúc từ kẽm phế liệu và mảnh vụn được nấu lại (nhóm 79.01).', '79.03 – Bột, bụi và vảy kẽm.', '7903.10 – Bụi kẽm', '7903.90 - Loại khác', 'Nhóm này bao gồm:', '(1) Bụi kẽm như định nghĩa bởi chú giải phân nhóm 1(c) Chương này thu được từ quá trình ngưng tụ hoi kẽm mà nó được sản xuất hoặc trực tiếp từ quá trình khử quặng kẽm hoặc phương pháp xử lý nhiệt của các vật liệu chứa kẽm bằng việc đun nóng. Các sản phẩm đó nhất thiết không được nhầm lẫn với bụi ống khói, nó được biết dưới nhiều tên như "Bụi lò kẽm", "bụi lò ôxit kẽm" hoặc "bụi ống khói nhà lọc túi kẽm" mà chúng được phân loại trong nhóm 26.20.', '(2) Kẽm dạng bột như đã định nghĩa trong chú giải 8b Phần XV và kẽm ở dạng vảy. Các điều khoản của chú giải nhóm 74.06 với sự sửa đổi thích hợp cũng được áp dụng cho nhóm này.', '*', '*     *', 'Kẽm ở dạng bụi, bột và vảy chủ yếu được sử dụng để phủ các kim loại khác bằng quá trình gắn kết kim loại (sự mạ kẽm), dùng trong việc sản xuất các loại sơn với vai trò là tác nhân khử hoá chất...', 'Nhóm này cũng không bao gồm:', '(a) Kẽm ở dạng bụi, bột hoặc vẩy, được pha chế làm thuốc màu, các loại son phủ hoặc các sản phẩm tương tự (ví dụ: được tạo với chất màu khác hoặc được đưa vào như thể huyền phù, phân tán hoặc bột nhão, với một chất liên kết hoặc dung môi (Chương 32).', '(b) Kẽm ở dạng viên (nhóm 79.01).', '79.04 – Kẽm ở dạng thanh, que, hình và dây.', 'Các sản phẩm này được định nghĩa trong các chú giải chương 9 (a) , 9 (b) và 9(c) , tương ứng với những hàng hoá làm từ đồng. Các điều khoản của chú giải 74.07 và 74.08, với sự sửa đổi thích hợp, cũng được áp dụng cho nhóm này.', 'Kẽm dạng que, dạng hình thường được dùng để tạo ra cấu kiện xây dựng (nhóm 79.07), kẽm dạng dây sử dụng chủ yếu như một nguồn kẽm để phun lên kim loại bằng mỏ hàn ôxi - Axetylen.', 'Nhóm này bao gồm các que hàn hơi hoặc hàn điện bằng hợp kim mà phần chủ yếu là kẽm (thường làm từ phương pháp ép đùn) dù có cắt thành độ dài hay không, với điều kiện là chúng không bị bọc phủ bởi chất trợ dung. Các que được bọc phủ được loại trừ (nhóm 83.11)', 'Nhóm này cũng không bao gồm các que dạng đúc được dự định, ví dụ, cho việc cán, kéo hoặc đúc lại thành các sản phẩm được tạo hình (nhóm 79.01).', '79.05 – Kẽm ở dạng tấm, lá, dải và lá mỏng.', 'Nhóm này bao gồm các tấm, lá, dải và lá mỏng được định nghĩa trong Chú giải 9 (d) Phần XV ; các sản phẩm này tương ứng với các sản phẩm bằng đồng được mô tả trong chú giải nhóm 74.09 và 74.10.', 'Kẽm ở dạng tấm và lá được sử dụng để sản xuất mái lợp, các hộp chứa pin khô, các tấm kẽm chụp ảnh, các tấm in litô hoặc các tấm in ấn khác, v.v.', 'Nhóm này không bao gồm:', '(a) Sản phẩm dạng lưới được tạo hình bằng phương pháp đột dập và kéo giãn thành lưới (nhóm 79.07)', '(b) Các tấm in đã được làm sẵn thuộc nhóm 84.42.', '[79.06]', '79.07 – Các sản phẩm khác bằng kẽm.', 'Nhóm này bao gồm tất cả các sản phẩm bằng kẽm trừ các sản phẩm được bao hàm bởi các nhóm đứng trước của chương này, hoặc bởi Chú giải 1 phần XV, hoặc các sản phẩm được chi tiết hoặc thuộc Chương 82 hoặc 83 hoặc được chỉ định rõ ràng hơn ở bất cứ phần nào trong Danh mục.', 'Ngoài những mặt hàng khác, nhóm này bao gồm:', '(1) Các bể chứa, thùng chứa, thùng hình trống và các thùng chứa tương tự không gắn thiết bị cơ khí hoặc thiết bị nhiệt.', '(2) Các đồ chứa hình ống để đóng gói các sản phẩm dược.', '(3) Vải lưới và các loại lưới làm bằng dây kẽm, và các sản phẩm dạng lưới được tạo hình bằng phương pháp đột dập và kéo giãn thành lưới.', '(4) Đinh, đinh bấm, đai ốc, bulông, đinh vit bằng kẽm và các mặt hàng khác thuộc loại đã được mô tả trong chú giải các nhóm 73.17 và 73.18.', '(5) Các mặt hàng gia dụng hoặc sản phẩm vệ sinh như các loại xô, thùng, bồn rửa, bồn tắm, chậu, các thùng tưới nước, vòi hoa sen, bàn cọ và các loại bình (Tuy nhiên những mặt hàng như vậy được làm bằng sắt hoặc thép đã mạ và bị loại trừ khỏi nhóm này (nhóm 73.23 và 73.24)).', '(6) "Các nhãn hiệu" bằng kẽm (dùng gắn cho các cây, hoặc các nhánh cây...) không mang chữ, số hoặc các phác hoạ, hoặc chỉ mang những chi tiết cá biệt đối với thông tin quan trọng mà nó sẽ được thêm vào sau. "Các nhãn hiệu" đầy đủ tất cả thông tin quan trọng sẽ nằm trong nhóm 83.10.', '(7) Khuôn tô', '(8) Các giá treo gạch lát và các sản phẩm linh tinh bằng kẽm tương ứng với các sản phẩm bằng sắt hoặc thép được đề cập đến trong các chú giải các nhóm 73.25 và 73.26.', '(9) Các cực dương mạ điện (xem phần A của chú giải nhóm 75.08).', '(10) Cực dương bảo vệ cực âm (anôt tự tiêu) được dùng cho việc bảo vệ các ống dẫn, các bể chứa trên tàu thuỷ... khỏi ăn mòn kim loại.', '(11) Ông máng, mái nhà, khung cửa sổ của mái nhà, các chóp chống nước mưa, các khung cửa sổ, cửa ra vào lan can, tay vịn, các khung của nhà kính và các bộ phận dùng trong xây dựng nhà cửa tương ứng với các mặt hàng bằng sắt và thép được đề cập tới trong chú giải của nhóm 73.08.', '(12) Nhóm này cũng bao gồm các loại ống và ống dẫn đã nêu trong Chú giải 9(e) của Phần XV và các phụ kiện của ống, ống dẫn (ví dụ như khớp nối, khuỷu, măng sông), bằng kẽm (trừ các sản phẩm dạng hình rỗng (nhóm 79.04), các phụ kiện đã lắp với vòi, khóa, van,... (nhóm 84.81) và các loại ống, ống dẫn được chế tạo thành các chi tiết của những sản phẩm xác định, như những bộ phận của máy móc (Phần XVI)). Các sản phẩm này giống như các hàng hóa bằng sắt hoặc thép được nêu trong chú giải chi tiết của các nhóm từ 73.04 đến 73.07.', 'Chương 80', 'Thiếc và các sản phẩm bằng thiếc', 'Chú giải phân nhóm.', '1. Trong Chương này các khái niệm sau có nghĩa:', '(a) Thiếc, không hợp kim', 'Là kim loại có hàm lượng thiếc chiếm ít nhất 99% tính theo khối lượng, với điều kiện hàm lượng của bismut hoặc đồng phải thấp hơn giới hạn ở bảng sau:', 'BẢNG - Các nguyên tố khác', 'Nguyên tố', 'Hàm lượng giới hạn tính theo khối lượng (%)', 'Bi', 'Bismut', '0.1', 'Cu', 'Đồng', '0.4', '(b) Hợp kim thiếc', 'Vật liệu kim loại mà trong đó hàm lượng thiếc lớn hơn so với hàm lượng của mỗi nguyên tố khác tính theo khối lượng, với điều kiện:', '(i) tổng hàm lượng các nguyên tố khác trên 1% tính theo khối lượng; hoặc', '(ii) hàm lượng của bismut hoặc đồng phải bằng hoặc lớn hơn giới hạn nêu ở bảng trên.', 'TỔNG QUÁT', 'Chương này bao gồm thiếc và các hợp kim của thiếc, và một số sản phẩm làm bằng thiếc.', 'Về mặt thương mại, thiếc chiết xuất từ các quặng ôxit Cassiterite (hoặc đá thiếc) được phân loại trong nhóm 26.09, quặng này có thể xuất hiện hoặc trong mạch quặng hoặc trong những lớp lắng của đất bồi.', 'Các giai đoạn chính trong quá trình chiết xuất diễn ra như sau:', '(I) Quá trình tuyển quặng bằng phương pháp rửa, nghiền và tuyển nổi', '(II) Quá trình xử lý ôxit bằng việc nung, tách bằng từ tính, hoặc với các loại axit hoặc các dung môi khác để loại bỏ các tạp chất như Sulphur Asen, đồng, chì, sắt và tungsten.', '(III) Quá trình khử của các ôxit tinh khiết bằng than cốc để sản xuất thiếc thô.', '(IV) Tinh luyện thiếc thô bằng nhiều phương pháp có thể tạo ra được kim loại trong trạng thái hầu như hoàn toàn tinh khiết.', 'Thiếc cũng được thu hồi từ các mảnh vụn tráng thiếc bằng phương pháp xử lý Clo hoá hoặc điện phân, hoặc bằng phương pháp nấu chảy lại phế liệu và mảnh vụn thiếc. Quá trình thu hồi lại đó cũng có thể tạo ra thiếc rất tinh khiết.', '*', '*    *', 'Thiếc tinh khiết có màu trắng bạc và rất bóng, nó không thật dẻo, nhưng có thể rèn được, dễ dàng bị nấu chảy và mềm (mặc dù cứng hơn chì). Thiếc có thể dễ dàng được tạo hình qua đúc khuôn dập, cán hoặc ép đùn.', 'Thiếc là chất chống lại được sự ăn mòn khí quyển nhưng lại bị ăn mòn bởi các loại axit đậm đặc.', '*', '*    *', 'Thiếc chủ yếu được dùng trong quá trình mạ thiếc cho các kim loại cơ bản khác đặc biệt là sắt và thép (ví dụ: quá trình sản xuất tôn tráng thiếc, đặc biệt cho ngành công nghiệp đồ hộp) và trong việc tạo ra các hợp kim (đồng thanh...). Ở trạng thái tinh khiết hoặc hợp kim, thiếc cũng được sử dụng trong sản xuất các thiết bị, đường ống và hệ thống ống dẫn cho ngành công nghiệp thực phẩm, phần vòi của các thùng cất, các bộ phận của tủ lạnh, các bể chứa công nghiệp, các bình chứa... Hợp kim thành hình que, dây..., các sản phẩm trang trí và bộ đồ ăn (ví dụ: trong đồ dùng bằng thiếc), đồ chơi, các ống của đàn hộp... Nó cũng được dùng dạng lá mỏng hoặc các ống có thể bóp được.', '*', '*    *', 'Các hợp kim chính của thiếc có thể được phân loại trong chương này theo các điều khoản của chú giải 5 phần XV (Xem chú giải tổng quát phần đó) bao gồm:', '(1) Các hợp kim thiếc - chì được sử dụng, ví dụ: thiếc được sử dụng như các kim loại hàn mềm, nền chủ yếu là thiếc, trong các vật dụng làm bằng thiếc, trong sản xuất đồ chơi, cho một số thước đo dung lượng.', '(2) Các hợp kim thiếc-antimon, thường có đồng (ví dụ: kim loại Britannia) được sử dụng cho các bộ đồ ăn, sản xuất các vòng bạc đỡ...', '(3) Các hợp kim thiếc-chì-antimon, đôi khi có đồng (ví dụ: các kim loại chống ma sát thành phần cơ bản là thiếc) sử dụng để làm khuôn đúc (đặc biệt là bạc đỡ) sử dụng làm bao bì.', '(4) Các hợp kim thiếc-Cadimi, đôi khi cũng có kẽm, được dùng như các kim loại chống ma sát.', '*', '*    *', 'Chương này bao gồm:', '(A) Thiếc chưa qua gia công và thiếc phế liệu và mảnh vụn (nhóm 80.01 và 80.02).', '(B) Các sản phẩm thường thu được từ phương pháp cán hoặc ép thiếc chưa gia công thuộc nhóm 80.01 (nhóm 80.03 và nhóm 80.07), thiếc ở dạng bột và vảy (nhóm 80.07).', '(C) Các ống, ống dẫn và các phụ kiện, các sản phẩm khác thuộc nhóm 80.07 bao gồm tất cả các sản phẩm bằng thiếc khác trừ các sản phẩm đã nêu trong Chú giải 1 phần XV hoặc thuộc Chương 82 hoặc 83, hoặc các sản phẩm được mô tả chi tiết hơn thuộc nơi khác của danh mục.', '*', '*    *', 'Các sản phẩm và mặt hàng bằng thiếc có thể được đưa qua các phương pháp xử lý đa dạng để nâng cao tính chất hoặc hình dạng của kim loại. Các phương pháp xử lý đó nói chung được đề cập tới tại phần cuối của chú giải chi tiết Chương 72 và không ảnh hưởng tới việc phân loại hàng hoá.', '*', '*    *', 'Việc phân loại hàng hoá các sản phẩm phức hợp được giải thích chung trong Chú giải Tổng quát Phần XV.', '80.01 – Thiếc chưa gia công', '8001.10 - Thiếc, không hợp kim', '8001.20 - Hợp kim thiếc', 'Nhóm này bao gồm thiếc chưa gia công ở dạng hình khối, thỏi, thanh, que, cục, phiến hoặc các dạng tương tự, và các mảnh, các hạt và các sản phẩm tương tự bằng thiếc. Hầu hết các sản phẩm thuộc nhóm này được dự định đưa vào sử dụng trong việc mạ thiếc, cho quá trình cán hoặc đúc ép, cho sản xuất các loại hợp kim đúc thành các sản phẩm có hình dạng.', 'Nhóm này loại trừ thiếc ở dạng bột và vảy (nhóm 80.07).', '80.02 – Phế liệu và mảnh vụn thiếc.', 'Các khoản liên quan tới phế liệu và mảnh vụn trong chú giải chi tiết nhóm 72.07 với sửa đổi phù hợp cũng áp dụng cho nhóm này.', 'Nhóm này loại trừ:', '(a) Xỉ, tro và các chất thải từ việc sản xuất thiếc (nhóm 26.20).', '(b) Thiếc ở dạng thỏi và các dạng chưa gia công tương tự đúc từ phế liệu và mảnh vụn thiếc được nấu lại (nhóm 80.01)', '80.03 – Thiếc ở dạng thanh, que, dạng hình và dây.', 'Các sản phẩm này được định nghĩa trong Chú giải tương ứng với 9 (a) , 9 (b) và 9 (c) Phần XV, tương ứng đối với các sản phẩm làm bằng đồng. Bởi vậy các điều khoản của Chú giải Chi tiết nhóm 74.07 hoặc 74.08 với các sửa đổi thích hợp cũng áp dụng cho nhóm này.', 'Nhóm cũng bao gồm các thanh của kim loại hàn cơ bản là thiếc (nhìn chung được chế tạo từ phương pháp ép đùn) có thể có hoặc không bị cắt thành từng đoạn, với điều kiện là chúng không bị tẩm phủ các chất trợ dung, các thanh được bọc phủ bị loại trừ khỏi nhóm này (nhóm 83.11)', 'Nhóm này cũng loại trừ các thanh đúc, ví dụ, để cán hoặc kéo hoặc để đúc lại thành các sản phẩm có hình dạng ((nhóm 80.01).', '[80.04]', '[80.05]', '[80.06]', '80.07 – Các sản phẩm khác bằng thiếc.', 'Nhóm này bao gồm tất cả các sản phẩm bằng thiếc, trừ các sản phẩm được bao hàm bởi các nhóm đứng trước của chương này hoặc bởi Chú giải 1 phần XV, hoặc các sản phẩm đã được chi tiết hoặc được bao hàm trong Chương 82 hoặc 83, hoặc được mô tả cụ thể hơn ở một phần khác trong Danh mục.', 'Trong trường hợp đặc biệt, nó áp dụng cho:', '(1) Các thùng chứa, bề chứa, thùng hình trống và các thùng chứa khác (không phù gắn với các thiết bị cơ khí hoặc nhiệt).', '(2) Các ống có thể bóp được sử dụng để làm hộp đựng kem đánh răng, các chất màu hoặc các sản phẩm khác.', '(3) Các đồ gia dụng và các bộ đồ ăn (luôn làm bằng thiếc) như các bình, khay, đĩa, chén, ống xi phông và nắp đậy cốc ống bia...', '(4) Các thước đo dung lượng.', '(5) Các anốt mạ điện (xem phần A của chú giải chi tiết nhóm 75.08).', '(6) Bột thiếc (xem Chú giải 8(b) của Phần XV) và vảy thiếc.', '(7) Tấm, lá và dải thiếc; lá thiếc mỏng (có hoặc không được in, lót bằng giấy, giấy bìa, nhựa hoặc vật liệu lót tương tự). Các sản phẩm này được mô tả trong Chú giải 9 (d) phần XV.', '(8) Các loại ống và ống dẫn nêu trong Chú giải 9 (e) của Phần XV và các loại phụ kiện của ống, ống dẫn (ví dụ như nối đôi, nối khuỷu, măng sông) bằng thiếc (trừ các sản phẩm dạng hình rỗng (nhóm 80.03), phụ kiện của ống, ống dẫn đã lắp vòi, khóa, van,... (nhóm 84.81), và các loại ống, ống dẫn được chế tạo thành các chi tiết của những sản phẩm xác định, như những bộ phận của máy móc (Phần XVI)). Các sản phẩm này giống như các hàng hóa bằng sắt hoặc thép được nêu trong Chú giải Chi tiết của các nhóm từ 73.04 đến 73.07.', 'Chương 81', 'Kim loại cơ bản khác; gốm kim loại; các sản phẩm của chúng.', 'TỔNG QUÁT', 'Chương này chỉ giới hạn bao gồm sau đây: các kim loại cơ bản, các hợp kim của chúng, và các sản phẩm của chúng mà không được đề cập riêng ở bất cứ phần nào trong Danh mục.', '(A) Vôn-fram (wolfram) (nhóm 81.01), Molybden (Mo) (nhóm 81.02), Tantan(Ta) nhóm 81.03), Magie(Mg) (nhóm 81.04), Coban(Co), bao gồm các phụ phẩm và các sản phẩm trung gian khác của Coban thu được trong quá trình luyện kim Coban (nhóm 81.05), Bitmut(Bi) (nhóm 81.06) Cađimi(Cd) (nhóm 81.07), Titan(Ti) (nhóm 81.08), Zirconi(Zr) (nhóm 81.09), Antimon(Sb) (nhóm 81.10) và Mangan(Mn) (nhóm 81.11).', '(B) Berili(Be), crôm(Cr), hafini (Hf), reni (Re), Tali(TI), cađimi (Cd), gecmani(Ge), vanadi(V), gali(Ga), indi(In) và niobi (Nb) (columbi) (nhóm 81.12)', 'Chương này cũng bao gồm gốm kim loại (nhóm 81.13).', 'Các kim loại cơ bản không được mô tả trong chương này hoặc trong các chương trước thuộc phần XV thì được phân loại vào Chương 28.', 'Hầu hết các kim loại được phân loại trong chương này được sử dụng chủ yếu dưới dạng hợp kim hoặc dạng carbid (cacbua hoá) hơn là ở dạng tinh khiết. Việc phân loại những hợp kim như vậy tuân theo các quy tắc được trình bày trong chú giải 5 phần XV, các hợp chất cacbua kim loại bị loại trừ khỏi chương này.', '*', '*     *', 'Việc phân loại các hàng hoá phức hợp, đặc biệt là các mặt hàng đã hoàn thiện, được giải thích trong Chú giải Tổng quát của Phần XV.', 'Chú giải 8 Phần XV đã định nghĩa "Chất phế liệu và mảnh vụn" và "bột".', '81.01 – Vonfram và các sản phẩm làm từ vonfram, kể cả phế liệu và mảnh vụn.', '8101.10 - Bột', '- Loại khác:', '8101.94 - - Vonfram chưa gia công, kể cả thanh và que thu được từ quá trình thiêu kết', '8101.96 - - Dây', '8101.97 - - Phế liệu và mảnh vụn', '8101.99 - - Loại khác', 'Volfram chủ yếu thu được từ các quặng Volframit (wonframat sắt-mangan) và Sêêlit (khoáng vật chứa Canxi Volfram). Các quặng được chuyển đổi thành dạng ôxit, sau đó khử bởi Hydro trong lò điện hoặc bằng nhôm hoặc cacbon trong nồi nấu kim loại ở nhiệt độ cao. Bột kim loại thu được sau đó được ép thành các dạng khối hoặc thanh, chúng được thiêu kết trong môi trường Hydro trong lò điện. Những thanh đã thiêu kết ở dạng bánh ép sau đó được đập rèn cơ học, và cuối cùng được cán hoặc kéo thành lá kim loại, thanh có tiết diện nhỏ hơn hoặc dây.', 'Volfram là một kim loại nặng (tỷ trọng lớn) có màu xám của thép, có điểm nóng chảy cao. Nó dễ gẫy, cứng và có tính chống lại sự ăn mòn kim loại cao (tính chịu mòn cao).', 'Volfram được sử dụng làm sợi dây tóc của các bóng đèn và các đèn điện tử; các thành phần dùng cho lò điện, đối Catôt cho các ống dẫn tia X, các công tắc điện, các lò xo không từ tính cho các thiết bị đo điện hoặc đồng hồ hiển thị, các thước ngắm cho thấu kính của kính viễn vọng, nó cũng được sử dụng làm điện cực cho việc hàn hồ quang Hydro...', 'Công dụng quan trọng nhất của volfram (thường sử dụng ở dạng ferro - volfram, xem Chương 72), là trong quá trình chế luyện các loại thép đặc biệt. Nó cũng được sử dụng trong việc điều chế cacbua volfram.', '*', '*     *', 'Các hợp kim chủ yếu của Volfram có thể được phân loại trong chương này nếu phù hợp với Chú giải 5 Phần XV, thì đều được chế luyện bởi phương pháp thiêu kết. Chúng bao gồm:', '(1) Các hợp kim Volfram-đồng (ví dụ, dùng cho các tiếp điểm điện).', '(2) Các hợp kim Volfram-Niken-đồng sử dụng trong sản xuất màn hình của tia X, một số bộ phận của máy bay...', '*', '*    *', 'Volfram nằm trong nhóm này có thể có ở các dạng sau:', '(A) Dạng bột;', '(B) Kim loại chưa gia công, ví dụ ở dạng khối, thỏi, các thanh và que được thiêu kết, hoặc như phế liệu và mảnh vụn (với loại tương tự xin xem ở chú giải giải thích nhóm 72.04);', '(C) Kim loại đã gia công, ví dụ các thanh đã được cán hoặc kéo, dạng hình, tấm và lá, dải hoặc dây.', '(D) Các sản phẩm công nghiệp không được bao hàm trong Chú giải 1 Phần XVII hoặc thuộc Chương 82 hoặc 83 hoặc được mô tả riêng ở bất cứ phần nào trong Danh mục. Hầu hết các sản phẩm Volfram, trừ lò xo, thực tế được phân loại trong Phần XVI hoặc XVII. Ví dụ, công tắc điện nằm trong Chương 85, trong khi đó một tấm Tungsten được sử dụng để chế tạo một tiếp điểm như vậy được xếp vào nhóm này.', 'Nhóm này không bao gồm cacbua Volfram, ví dụ được sử dụng trong việc sản xuất các đầu kim loại vận hành, lưỡi dao của các dụng cụ cắt hoặc khuôn dập. Cacbua này được phân loại như sau:', '(a) Bột chưa pha trộn trong nhóm 28.49.', '(b) Các hỗn hợp đã chuẩn bị nhưng chưa được thiêu kết (ví dụ: Pha trộn với cacbua của Molipden hoặc tantan, với hoặc không có tác nhân liên kết) trong nhóm 38.24.', '(c) Tấm, que, đầu (mũi) mút và những thứ tương tự cho các dụng cụ, đã thiêu kết nhưng chưa lắp ráp, trong nhóm 82.09 (Xem Chú giải chi tiết tương ứng).', '81.02 – Molypđen và các sản phẩm làm từ molypđen, kể cả phế liệu và mảnh vụn.', '8102.10 - Bột', '- Loại khác:', '8102.94 - - Molypđen chưa gia công, kể cả thanh và que thu được từ quá trình thiêu kết', '8102.95 - - Thanh và que, trừ các loại thu được từ quá trình thiêu kết, dạng hình, tấm, lá, dải và lá mỏng', '8102.96 - - Dây', '81.02.97 - - Phế liệu và mảnh vụn', '8102.99 - -  Loại khác', 'Molipden chủ yếu thu được từ quặng Molipden (Sunphít Molipden) và wulfenite (Molipdat chì) chúng được thu gom bởi quá trình thu gom nổi, được chuyển thành dạng oxit và sau đó được khử với kim loại', 'Kim loại thu được hoặc ở dạng bánh ép phù hợp cho quá trình cán kéo...hoặc ở dạng bột mà nó có thể được thiêu kết như Volfram (xem Chú giải Chi tiết nhóm 81.01).', 'Molipden ở dạng ép giống như chì về bề ngoài nhưng cực kỳ rắn và nóng chảy ở nhiệt độ cao. Nó có thể dát mỏng và chống lại sự ăn mòn ở nhiệt độ thường.', 'Molipđen được sử dụng (hoặc như kim loại hoặc dạng ferro-molipden, thuộc Chương 72) cho việc sản xuất thép hợp kim. Kim loại Molipđen cũng được sử dụng trong các cọc đỡ dây tóc bóng đèn điện, mạng lưới của đèn điện tử, nguyên tố hóa học d</t>
+  </si>
+  <si>
+    <t>['Chú giải phân nhóm.', '1.- Trong Chương này các khái niệm sau có nghĩa:', '(a) Kẽm, không hợp kim', 'Là kim loại có hàm lượng kẽm ít nhất 97,5% tính theo khối lượng.', '(b) Hợp kim kẽm', 'Vật liệu kim loại mà trong đó hàm lượng của kẽm lớn hơn so với hàm lượng lượng của mỗi nguyên tố khác, với điều kiện tổng hàm lượng tính theo khối lượng của các nguyên tố khác trên 2,5%.', '(c) Bụi kẽm', 'Bụi thu được từ quá trình ngưng tụ hơi kẽm, bao gồm những hạt hình cầu nhỏ hơn bột kẽm. Có tối thiểu 80% tính theo khối lượng các hạt lọt qua mắt sàng 63 micromét (microns). Hàm lượng của kẽm ít nhất là 85% tính theo khối lượng.', 'TỔNG QUÁT', 'Chương này bao gồm kẽm và các hợp kim của kẽm, và một số sản phẩm của nó.', 'Kẽm chủ yếu thu được từ quặng sunfua (hỗn hợp kẽm hoặc các Sphalerit) mặc dù nó cũng được chiết xuất từ quặng Cacbonat và Silicat (Smithsonite, Hemimorphite...) (xem chú giải giải thích nhóm 26.08).', 'Trong cả hai trường hợp, đầu tiên quặng được tuyển và sau đó được nung hoặc nung khô để tạo ra oxit kẽm (trong trường hợp của quặng Sulphat và cacbonat) hoặc Silicat Kẽm đã được khử nuớc (trong trường hợp là quặng Silicate). Kẽm thu được từ quá trình này bằng phương pháp khử nhiệt hoặc bằng phương pháp điện phân (trừ trong trường hợp là quặng Silicat).', '(I) Phương pháp khử nhiệt: được tiến hành bằng cách nung nóng ôxit hoặc Silicate với than cốc trong nồi chưng cất kín. Kẽm tại nhiệt độ đủ cao sẽ bốc hơi sau đó được chưng cất qua máy ngưng tụ. Phần lớn kim loại được thu lại là "Kẽm tạp chất". Kẽm không tinh khiết này có thể được sử dụng trực tiếp cho công nghệ mạ kẽm, hoặc có thể được tinh chế bằng các phương pháp khác.', 'Một số kim loại không tinh khiết cũng được kết tủa (trầm tích) trong những phần nối của nồi chưng cất dưới dạng bột mịn được biết như là bụi kẽm hoặc bột xanh.', 'Sự cải tiến của quá trình này dựa trên cơ sở liên tục khử ôxit kẽm và chưng cất kẽm trong các lò thẳng đứng. Quá trình này tạo ra kim loại rất tinh khiết phù hợp với việc tạo ra Các hợp kim đúc áp lực.', '(II) Phương pháp điện phân: Ôxit kẽm được hoà tan trong dung dịch Axit Sunphuric pha loãng. Dung dịch Sunphat kẽm này được tinh lọc cẩn thận để loại ra Cadi, sắt, Đồng... và sau đó nó được điện phân để tạo ra một loại kẽm rất tinh khiết.', 'Kẽm cũng thu được từ việc nấu luyện lại chất phế liệu và mảnh vụn của kẽm.', '*', '*     *', 'Kẽm là một kim loại có màu trắng xanh có thể được cán, kéo, dập, ép... ở những nhiệt độ thích hợp, và nó có thể dùng trong công nghệ đúc. Kẽm là chất có khả năng chống lại sự ăn mòn trong bầu khí quyển và bởi vậy nó được sử dụng trong công trình xây dựng (ví dụ: sử dụng cho việc lợp mái) và để tạo nên các lớp vỏ bọc bảo vệ những kim loại khác, đặc biệt là sắt và thép (ví dụ: bằng việc mạ nhúng nóng, mạ điện âm cực, mạ kẽm, sơn hoặc phun).', '*', '*    *', 'Kẽm cũng được áp dụng trong việc sản xuất các loại hợp kim, nhiều loại (ví dụ: đồng thau) chứa một lượng nhiều hơn của các kim loại khác, nhưng dưới đây là Các hợp kim kẽm chính mà có thể nằm trong chương này theo các điều khoản của Chú giải 5 Phần XV.', '(1) Hợp kim kẽm-nhôm, thông thường có bổ sung đồng hoặc magiê dùng cho quá trình đúc áp lực, đặc biệt dùng cho các bộ phận ô tô (thân của bộ chế hoà khí, lưới của bộ tản nhiệt, bảng đồng hồ...) các bộ phận của xe đạp (bàn đạp, các hộp Dynamo...) các bộ phận của Radio, các bộ phận của tủ lạnh... Các hợp kim của các kim loại cùng loại được dùng để sản xuất, các tấm cứng hơn kẽm bình thường, các dụng cụ ép, và như là Anốt bảo vệ Ca- tôt (A-nôt tự tiêu) để bảo vệ các đường ống, các tụ điện... chống lại ăn mòn kim loại.', '(2) Hợp kim kẽm- đồng (hợp kim kim loại núm) sử dụng để đúc dập... Xem chú giải phân nhóm 1 (a) và 1 (b) liên quan đến việc phân biệt giữa kẽm và hợp kim của kẽm.', '*', '*     *', 'Chương này bao gồm:', '(A) Kẽm thương phẩm và kẽm chưa qua gia công, phế liệu và các mảnh vụn (nhóm 79.01 và 79.02).', '(B) Bụi, bột và vẩy kẽm (nhóm 79.03).', '(C) Các sản phẩm nói chung thu được, bởi các phương pháp cán, kéo, ép. Kẽm chưa qua gia công thuộc nhóm 79.01 (các nhóm 79.04 và 79.05).', '(D) Các ống, ống dẫn và các phụ kiện, các sản phẩm khác của nhóm 79.07, bao gồm tất cả các sản phẩm kẽm khác trừ các sản phẩm nằm trong Chú giải 1 của Phần XV hoặc thuộc Chương 82 hoặc Chương 83 hoặc các sản phẩm được mô tả chi tiết hơn thuộc nơi khác của Danh mục..', '*', '*     *', 'Các sản phẩm và mặt hàng bằng kẽm có thể qua nhiều quá trình xử lý để nâng cao thuộc tính hoặc hình dáng bên ngoài của kim loại... Các phương pháp xử lý đó nói chung được đề cập tại phần cuối của chú giải chi tiết Chương 72 và không ảnh hưởng đến việc phân loại hàng hoá.', '*', '*     *', 'Việc phân loại các sản phẩm phức hợp được giải thích trong chú giải Tổng quát phần XV.', '79.01 – Kẽm chưa gia công', '- Kẽm, không hợp kim:', '7901.11 - - Có hàm lượng kẽm từ 99,99% trở lên tính theo khối lượng', '7901.12 - - Có hàm lượng kẽm dưới 99,99% tính theo khối lượng', '7901.20 - Hợp kim kẽm', 'Nhóm này bao gồm kẽm chưa gia công ở các mức độ khác nhau về độ tinh khiết từ kẽm thương phẩm (Xem chú giải chung ở trên) đến kẽm đã được tinh chế, nó có thể ở dạng khối, tấm, thỏi, phiến hoặc các dạng tương tự hoặc có dạng viên. Các sản phẩm của nhóm này thường được dự định sử dụng trong mạ kẽm (bởi phương pháp nhúng nóng hoặc quá trình (kết tủa điện phân) mạ âm cực, tạo ra các hợp kim, cán, kéo, hoặc ép đùn, hoặc đúc thành các sản phẩm định hình.', 'Nhóm này loại trừ bụi, bột, vẩy kẽm (nhóm 79.03).', '79.02 – Phế liệu và mảnh vụn kẽm.', 'Các điều khoản liên quan đến phế liệu và mảnh vụn trong chú giải nhóm 72.04, với những bồ sung thích hợp, cũng được áp dụng cho nhóm này.', 'Nhóm này không bao gồm:', '(a) Xỉ, tro và chất thải từ quá trình sản xuất kẽm, từ quá trình mạ kẽm (ví dụ: Cặn kết tủa trong quá trình mạ kẽm và chất thải kim loại từ các thùng nhúng (nhóm 26.20).', '(b) Kẽm ở dạng thỏi và các dạng tương tự chưa qua gia công được đúc từ kẽm phế liệu và mảnh vụn được nấu lại (nhóm 79.01).', '79.03 – Bột, bụi và vảy kẽm.', '7903.10 – Bụi kẽm', '7903.90 - Loại khác', 'Nhóm này bao gồm:', '(1) Bụi kẽm như định nghĩa bởi chú giải phân nhóm 1(c) Chương này thu được từ quá trình ngưng tụ hoi kẽm mà nó được sản xuất hoặc trực tiếp từ quá trình khử quặng kẽm hoặc phương pháp xử lý nhiệt của các vật liệu chứa kẽm bằng việc đun nóng. Các sản phẩm đó nhất thiết không được nhầm lẫn với bụi ống khói, nó được biết dưới nhiều tên như "Bụi lò kẽm", "bụi lò ôxit kẽm" hoặc "bụi ống khói nhà lọc túi kẽm" mà chúng được phân loại trong nhóm 26.20.', '(2) Kẽm dạng bột như đã định nghĩa trong chú giải 8b Phần XV và kẽm ở dạng vảy. Các điều khoản của chú giải nhóm 74.06 với sự sửa đổi thích hợp cũng được áp dụng cho nhóm này.', '*', '*     *', 'Kẽm ở dạng bụi, bột và vảy chủ yếu được sử dụng để phủ các kim loại khác bằng quá trình gắn kết kim loại (sự mạ kẽm), dùng trong việc sản xuất các loại sơn với vai trò là tác nhân khử hoá chất...', 'Nhóm này cũng không bao gồm:', '(a) Kẽm ở dạng bụi, bột hoặc vẩy, được pha chế làm thuốc màu, các loại son phủ hoặc các sản phẩm tương tự (ví dụ: được tạo với chất màu khác hoặc được đưa vào như thể huyền phù, phân tán hoặc bột nhão, với một chất liên kết hoặc dung môi (Chương 32).', '(b) Kẽm ở dạng viên (nhóm 79.01).', '79.04 – Kẽm ở dạng thanh, que, hình và dây.', 'Các sản phẩm này được định nghĩa trong các chú giải chương 9 (a) , 9 (b) và 9(c) , tương ứng với những hàng hoá làm từ đồng. Các điều khoản của chú giải 74.07 và 74.08, với sự sửa đổi thích hợp, cũng được áp dụng cho nhóm này.', 'Kẽm dạng que, dạng hình thường được dùng để tạo ra cấu kiện xây dựng (nhóm 79.07), kẽm dạng dây sử dụng chủ yếu như một nguồn kẽm để phun lên kim loại bằng mỏ hàn ôxi - Axetylen.', 'Nhóm này bao gồm các que hàn hơi hoặc hàn điện bằng hợp kim mà phần chủ yếu là kẽm (thường làm từ phương pháp ép đùn) dù có cắt thành độ dài hay không, với điều kiện là chúng không bị bọc phủ bởi chất trợ dung. Các que được bọc phủ được loại trừ (nhóm 83.11)', 'Nhóm này cũng không bao gồm các que dạng đúc được dự định, ví dụ, cho việc cán, kéo hoặc đúc lại thành các sản phẩm được tạo hình (nhóm 79.01).', '79.05 – Kẽm ở dạng tấm, lá, dải và lá mỏng.', 'Nhóm này bao gồm các tấm, lá, dải và lá mỏng được định nghĩa trong Chú giải 9 (d) Phần XV ; các sản phẩm này tương ứng với các sản phẩm bằng đồng được mô tả trong chú giải nhóm 74.09 và 74.10.', 'Kẽm ở dạng tấm và lá được sử dụng để sản xuất mái lợp, các hộp chứa pin khô, các tấm kẽm chụp ảnh, các tấm in litô hoặc các tấm in ấn khác, v.v.', 'Nhóm này không bao gồm:', '(a) Sản phẩm dạng lưới được tạo hình bằng phương pháp đột dập và kéo giãn thành lưới (nhóm 79.07)', '(b) Các tấm in đã được làm sẵn thuộc nhóm 84.42.', '[79.06]', '79.07 – Các sản phẩm khác bằng kẽm.', 'Nhóm này bao gồm tất cả các sản phẩm bằng kẽm trừ các sản phẩm được bao hàm bởi các nhóm đứng trước của chương này, hoặc bởi Chú giải 1 phần XV, hoặc các sản phẩm được chi tiết hoặc thuộc Chương 82 hoặc 83 hoặc được chỉ định rõ ràng hơn ở bất cứ phần nào trong Danh mục.', 'Ngoài những mặt hàng khác, nhóm này bao gồm:', '(1) Các bể chứa, thùng chứa, thùng hình trống và các thùng chứa tương tự không gắn thiết bị cơ khí hoặc thiết bị nhiệt.', '(2) Các đồ chứa hình ống để đóng gói các sản phẩm dược.', '(3) Vải lưới và các loại lưới làm bằng dây kẽm, và các sản phẩm dạng lưới được tạo hình bằng phương pháp đột dập và kéo giãn thành lưới.', '(4) Đinh, đinh bấm, đai ốc, bulông, đinh vit bằng kẽm và các mặt hàng khác thuộc loại đã được mô tả trong chú giải các nhóm 73.17 và 73.18.', '(5) Các mặt hàng gia dụng hoặc sản phẩm vệ sinh như các loại xô, thùng, bồn rửa, bồn tắm, chậu, các thùng tưới nước, vòi hoa sen, bàn cọ và các loại bình (Tuy nhiên những mặt hàng như vậy được làm bằng sắt hoặc thép đã mạ và bị loại trừ khỏi nhóm này (nhóm 73.23 và 73.24)).', '(6) "Các nhãn hiệu" bằng kẽm (dùng gắn cho các cây, hoặc các nhánh cây...) không mang chữ, số hoặc các phác hoạ, hoặc chỉ mang những chi tiết cá biệt đối với thông tin quan trọng mà nó sẽ được thêm vào sau. "Các nhãn hiệu" đầy đủ tất cả thông tin quan trọng sẽ nằm trong nhóm 83.10.', '(7) Khuôn tô', '(8) Các giá treo gạch lát và các sản phẩm linh tinh bằng kẽm tương ứng với các sản phẩm bằng sắt hoặc thép được đề cập đến trong các chú giải các nhóm 73.25 và 73.26.', '(9) Các cực dương mạ điện (xem phần A của chú giải nhóm 75.08).', '(10) Cực dương bảo vệ cực âm (anôt tự tiêu) được dùng cho việc bảo vệ các ống dẫn, các bể chứa trên tàu thuỷ... khỏi ăn mòn kim loại.', '(11) Ông máng, mái nhà, khung cửa sổ của mái nhà, các chóp chống nước mưa, các khung cửa sổ, cửa ra vào lan can, tay vịn, các khung của nhà kính và các bộ phận dùng trong xây dựng nhà cửa tương ứng với các mặt hàng bằng sắt và thép được đề cập tới trong chú giải của nhóm 73.08.', '(12) Nhóm này cũng bao gồm các loại ống và ống dẫn đã nêu trong Chú giải 9(e) của Phần XV và các phụ kiện của ống, ống dẫn (ví dụ như khớp nối, khuỷu, măng sông), bằng kẽm (trừ các sản phẩm dạng hình rỗng (nhóm 79.04), các phụ kiện đã lắp với vòi, khóa, van,... (nhóm 84.81) và các loại ống, ống dẫn được chế tạo thành các chi tiết của những sản phẩm xác định, như những bộ phận của máy móc (Phần XVI)). Các sản phẩm này giống như các hàng hóa bằng sắt hoặc thép được nêu trong chú giải chi tiết của các nhóm từ 73.04 đến 73.07.', 'Chương 80', 'Thiếc và các sản phẩm bằng thiếc', 'Chú giải phân nhóm.', '1. Trong Chương này các khái niệm sau có nghĩa:', '(a) Thiếc, không hợp kim', 'Là kim loại có hàm lượng thiếc chiếm ít nhất 99% tính theo khối lượng, với điều kiện hàm lượng của bismut hoặc đồng phải thấp hơn giới hạn ở bảng sau:', 'BẢNG - Các nguyên tố khác', 'Nguyên tố', 'Hàm lượng giới hạn tính theo khối lượng (%)', 'Bi', 'Bismut', '0.1', 'Cu', 'Đồng', '0.4', '(b) Hợp kim thiếc', 'Vật liệu kim loại mà trong đó hàm lượng thiếc lớn hơn so với hàm lượng của mỗi nguyên tố khác tính theo khối lượng, với điều kiện:', '(i) tổng hàm lượng các nguyên tố khác trên 1% tính theo khối lượng; hoặc', '(ii) hàm lượng của bismut hoặc đồng phải bằng hoặc lớn hơn giới hạn nêu ở bảng trên.', 'TỔNG QUÁT', 'Chương này bao gồm thiếc và các hợp kim của thiếc, và một số sản phẩm làm bằng thiếc.', 'Về mặt thương mại, thiếc chiết xuất từ các quặng ôxit Cassiterite (hoặc đá thiếc) được phân loại trong nhóm 26.09, quặng này có thể xuất hiện hoặc trong mạch quặng hoặc trong những lớp lắng của đất bồi.', 'Các giai đoạn chính trong quá trình chiết xuất diễn ra như sau:', '(I) Quá trình tuyển quặng bằng phương pháp rửa, nghiền và tuyển nổi', '(II) Quá trình xử lý ôxit bằng việc nung, tách bằng từ tính, hoặc với các loại axit hoặc các dung môi khác để loại bỏ các tạp chất như Sulphur Asen, đồng, chì, sắt và tungsten.', '(III) Quá trình khử của các ôxit tinh khiết bằng than cốc để sản xuất thiếc thô.', '(IV) Tinh luyện thiếc thô bằng nhiều phương pháp có thể tạo ra được kim loại trong trạng thái hầu như hoàn toàn tinh khiết.', 'Thiếc cũng được thu hồi từ các mảnh vụn tráng thiếc bằng phương pháp xử lý Clo hoá hoặc điện phân, hoặc bằng phương pháp nấu chảy lại phế liệu và mảnh vụn thiếc. Quá trình thu hồi lại đó cũng có thể tạo ra thiếc rất tinh khiết.', '*', '*    *', 'Thiếc tinh khiết có màu trắng bạc và rất bóng, nó không thật dẻo, nhưng có thể rèn được, dễ dàng bị nấu chảy và mềm (mặc dù cứng hơn chì). Thiếc có thể dễ dàng được tạo hình qua đúc khuôn dập, cán hoặc ép đùn.', 'Thiếc là chất chống lại được sự ăn mòn khí quyển nhưng lại bị ăn mòn bởi các loại axit đậm đặc.', '*', '*    *', 'Thiếc chủ yếu được dùng trong quá trình mạ thiếc cho các kim loại cơ bản khác đặc biệt là sắt và thép (ví dụ: quá trình sản xuất tôn tráng thiếc, đặc biệt cho ngành công nghiệp đồ hộp) và trong việc tạo ra các hợp kim (đồng thanh...). Ở trạng thái tinh khiết hoặc hợp kim, thiếc cũng được sử dụng trong sản xuất các thiết bị, đường ống và hệ thống ống dẫn cho ngành công nghiệp thực phẩm, phần vòi của các thùng cất, các bộ phận của tủ lạnh, các bể chứa công nghiệp, các bình chứa... Hợp kim thành hình que, dây..., các sản phẩm trang trí và bộ đồ ăn (ví dụ: trong đồ dùng bằng thiếc), đồ chơi, các ống của đàn hộp... Nó cũng được dùng dạng lá mỏng hoặc các ống có thể bóp được.', '*', '*    *', 'Các hợp kim chính của thiếc có thể được phân loại trong chương này theo các điều khoản của chú giải 5 phần XV (Xem chú giải tổng quát phần đó) bao gồm:', '(1) Các hợp kim thiếc - chì được sử dụng, ví dụ: thiếc được sử dụng như các kim loại hàn mềm, nền chủ yếu là thiếc, trong các vật dụng làm bằng thiếc, trong sản xuất đồ chơi, cho một số thước đo dung lượng.', '(2) Các hợp kim thiếc-antimon, thường có đồng (ví dụ: kim loại Britannia) được sử dụng cho các bộ đồ ăn, sản xuất các vòng bạc đỡ...', '(3) Các hợp kim thiếc-chì-antimon, đôi khi có đồng (ví dụ: các kim loại chống ma sát thành phần cơ bản là thiếc) sử dụng để làm khuôn đúc (đặc biệt là bạc đỡ) sử dụng làm bao bì.', '(4) Các hợp kim thiếc-Cadimi, đôi khi cũng có kẽm, được dùng như các kim loại chống ma sát.', '*', '*    *', 'Chương này bao gồm:', '(A) Thiếc chưa qua gia công và thiếc phế liệu và mảnh vụn (nhóm 80.01 và 80.02).', '(B) Các sản phẩm thường thu được từ phương pháp cán hoặc ép thiếc chưa gia công thuộc nhóm 80.01 (nhóm 80.03 và nhóm 80.07), thiếc ở dạng bột và vảy (nhóm 80.07).', '(C) Các ống, ống dẫn và các phụ kiện, các sản phẩm khác thuộc nhóm 80.07 bao gồm tất cả các sản phẩm bằng thiếc khác trừ các sản phẩm đã nêu trong Chú giải 1 phần XV hoặc thuộc Chương 82 hoặc 83, hoặc các sản phẩm được mô tả chi tiết hơn thuộc nơi khác của danh mục.', '*', '*    *', 'Các sản phẩm và mặt hàng bằng thiếc có thể được đưa qua các phương pháp xử lý đa dạng để nâng cao tính chất hoặc hình dạng của kim loại. Các phương pháp xử lý đó nói chung được đề cập tới tại phần cuối của chú giải chi tiết Chương 72 và không ảnh hưởng tới việc phân loại hàng hoá.', '*', '*    *', 'Việc phân loại hàng hoá các sản phẩm phức hợp được giải thích chung trong Chú giải Tổng quát Phần XV.', '80.01 – Thiếc chưa gia công', '8001.10 - Thiếc, không hợp kim', '8001.20 - Hợp kim thiếc', 'Nhóm này bao gồm thiếc chưa gia công ở dạng hình khối, thỏi, thanh, que, cục, phiến hoặc các dạng tương tự, và các mảnh, các hạt và các sản phẩm tương tự bằng thiếc. Hầu hết các sản phẩm thuộc nhóm này được dự định đưa vào sử dụng trong việc mạ thiếc, cho quá trình cán hoặc đúc ép, cho sản xuất các loại hợp kim đúc thành các sản phẩm có hình dạng.', 'Nhóm này loại trừ thiếc ở dạng bột và vảy (nhóm 80.07).', '80.02 – Phế liệu và mảnh vụn thiếc.', 'Các khoản liên quan tới phế liệu và mảnh vụn trong chú giải chi tiết nhóm 72.07 với sửa đổi phù hợp cũng áp dụng cho nhóm này.', 'Nhóm này loại trừ:', '(a) Xỉ, tro và các chất thải từ việc sản xuất thiếc (nhóm 26.20).', '(b) Thiếc ở dạng thỏi và các dạng chưa gia công tương tự đúc từ phế liệu và mảnh vụn thiếc được nấu lại (nhóm 80.01)', '80.03 – Thiếc ở dạng thanh, que, dạng hình và dây.', 'Các sản phẩm này được định nghĩa trong Chú giải tương ứng với 9 (a) , 9 (b) và 9 (c) Phần XV, tương ứng đối với các sản phẩm làm bằng đồng. Bởi vậy các điều khoản của Chú giải Chi tiết nhóm 74.07 hoặc 74.08 với các sửa đổi thích hợp cũng áp dụng cho nhóm này.', 'Nhóm cũng bao gồm các thanh của kim loại hàn cơ bản là thiếc (nhìn chung được chế tạo từ phương pháp ép đùn) có thể có hoặc không bị cắt thành từng đoạn, với điều kiện là chúng không bị tẩm phủ các chất trợ dung, các thanh được bọc phủ bị loại trừ khỏi nhóm này (nhóm 83.11)', 'Nhóm này cũng loại trừ các thanh đúc, ví dụ, để cán hoặc kéo hoặc để đúc lại thành các sản phẩm có hình dạng ((nhóm 80.01).', '[80.04]', '[80.05]', '[80.06]', '80.07 – Các sản phẩm khác bằng thiếc.', 'Nhóm này bao gồm tất cả các sản phẩm bằng thiếc, trừ các sản phẩm được bao hàm bởi các nhóm đứng trước của chương này hoặc bởi Chú giải 1 phần XV, hoặc các sản phẩm đã được chi tiết hoặc được bao hàm trong Chương 82 hoặc 83, hoặc được mô tả cụ thể hơn ở một phần khác trong Danh mục.', 'Trong trường hợp đặc biệt, nó áp dụng cho:', '(1) Các thùng chứa, bề chứa, thùng hình trống và các thùng chứa khác (không phù gắn với các thiết bị cơ khí hoặc nhiệt).', '(2) Các ống có thể bóp được sử dụng để làm hộp đựng kem đánh răng, các chất màu hoặc các sản phẩm khác.', '(3) Các đồ gia dụng và các bộ đồ ăn (luôn làm bằng thiếc) như các bình, khay, đĩa, chén, ống xi phông và nắp đậy cốc ống bia...', '(4) Các thước đo dung lượng.', '(5) Các anốt mạ điện (xem phần A của chú giải chi tiết nhóm 75.08).', '(6) Bột thiếc (xem Chú giải 8(b) của Phần XV) và vảy thiếc.', '(7) Tấm, lá và dải thiếc; lá thiếc mỏng (có hoặc không được in, lót bằng giấy, giấy bìa, nhựa hoặc vật liệu lót tương tự). Các sản phẩm này được mô tả trong Chú giải 9 (d) phần XV.', '(8) Các loại ống và ống dẫn nêu trong Chú giải 9 (e) của Phần XV và các loại phụ kiện của ống, ống dẫn (ví dụ như nối đôi, nối khuỷu, măng sông) bằng thiếc (trừ các sản phẩm dạng hình rỗng (nhóm 80.03), phụ kiện của ống, ống dẫn đã lắp vòi, khóa, van,... (nhóm 84.81), và các loại ống, ống dẫn được chế tạo thành các chi tiết của những sản phẩm xác định, như những bộ phận của máy móc (Phần XVI)). Các sản phẩm này giống như các hàng hóa bằng sắt hoặc thép được nêu trong Chú giải Chi tiết của các nhóm từ 73.04 đến 73.07.', 'Chương 81', 'Kim loại cơ bản khác; gốm kim loại; các sản phẩm của chúng.', 'TỔNG QUÁT', 'Chương này chỉ giới hạn bao gồm sau đây: các kim loại cơ bản, các hợp kim của chúng, và các sản phẩm của chúng mà không được đề cập riêng ở bất cứ phần nào trong Danh mục.', '(A) Vôn-fram (wolfram) (nhóm 81.01), Molybden (Mo) (nhóm 81.02), Tantan(Ta) nhóm 81.03), Magie(Mg) (nhóm 81.04), Coban(Co), bao gồm các phụ phẩm và các sản phẩm trung gian khác của Coban thu được trong quá trình luyện kim Coban (nhóm 81.05), Bitmut(Bi) (nhóm 81.06) Cađimi(Cd) (nhóm 81.07), Titan(Ti) (nhóm 81.08), Zirconi(Zr) (nhóm 81.09), Antimon(Sb) (nhóm 81.10) và Mangan(Mn) (nhóm 81.11).', '(B) Berili(Be), crôm(Cr), hafini (Hf), reni (Re), Tali(TI), cađimi (Cd), gecmani(Ge), vanadi(V), gali(Ga), indi(In) và niobi (Nb) (columbi) (nhóm 81.12)', 'Chương này cũng bao gồm gốm kim loại (nhóm 81.13).', 'Các kim loại cơ bản không được mô tả trong chương này hoặc trong các chương trước thuộc phần XV thì được phân loại vào Chương 28.', 'Hầu hết các kim loại được phân loại trong chương này được sử dụng chủ yếu dưới dạng hợp kim hoặc dạng carbid (cacbua hoá) hơn là ở dạng tinh khiết. Việc phân loại những hợp kim như vậy tuân theo các quy tắc được trình bày trong chú giải 5 phần XV, các hợp chất cacbua kim loại bị loại trừ khỏi chương này.', '*', '*     *', 'Việc phân loại các hàng hoá phức hợp, đặc biệt là các mặt hàng đã hoàn thiện, được giải thích trong Chú giải Tổng quát của Phần XV.', 'Chú giải 8 Phần XV đã định nghĩa "Chất phế liệu và mảnh vụn" và "bột".', '81.01 – Vonfram và các sản phẩm làm từ vonfram, kể cả phế liệu và mảnh vụn.', '8101.10 - Bột', '- Loại khác:', '8101.94 - - Vonfram chưa gia công, kể cả thanh và que thu được từ quá trình thiêu kết', '8101.96 - - Dây', '8101.97 - - Phế liệu và mảnh vụn', '8101.99 - - Loại khác', 'Volfram chủ yếu thu được từ các quặng Volframit (wonframat sắt-mangan) và Sêêlit (khoáng vật chứa Canxi Volfram). Các quặng được chuyển đổi thành dạng ôxit, sau đó khử bởi Hydro trong lò điện hoặc bằng nhôm hoặc cacbon trong nồi nấu kim loại ở nhiệt độ cao. Bột kim loại thu được sau đó được ép thành các dạng khối hoặc thanh, chúng được thiêu kết trong môi trường Hydro trong lò điện. Những thanh đã thiêu kết ở dạng bánh ép sau đó được đập rèn cơ học, và cuối cùng được cán hoặc kéo thành lá kim loại, thanh có tiết diện nhỏ hơn hoặc dây.', 'Volfram là một kim loại nặng (tỷ trọng lớn) có màu xám của thép, có điểm nóng chảy cao. Nó dễ gẫy, cứng và có tính chống lại sự ăn mòn kim loại cao (tính chịu mòn cao).', 'Volfram được sử dụng làm sợi dây tóc của các bóng đèn và các đèn điện tử; các thành phần dùng cho lò điện, đối Catôt cho các ống dẫn tia X, các công tắc điện, các lò xo không từ tính cho các thiết bị đo điện hoặc đồng hồ hiển thị, các thước ngắm cho thấu kính của kính viễn vọng, nó cũng được sử dụng làm điện cực cho việc hàn hồ quang Hydro...', 'Công dụng quan trọng nhất của volfram (thường sử dụng ở dạng ferro - volfram, xem Chương 72), là trong quá trình chế luyện các loại thép đặc biệt. Nó cũng được sử dụng trong việc điều chế cacbua volfram.', '*', '*     *', 'Các hợp kim chủ yếu của Volfram có thể được phân loại trong chương này nếu phù hợp với Chú giải 5 Phần XV, thì đều được chế luyện bởi phương pháp thiêu kết. Chúng bao gồm:', '(1) Các hợp kim Volfram-đồng (ví dụ, dùng cho các tiếp điểm điện).', '(2) Các hợp kim Volfram-Niken-đồng sử dụng trong sản xuất màn hình của tia X, một số bộ phận của máy bay...', '*', '*    *', 'Volfram nằm trong nhóm này có thể có ở các dạng sau:', '(A) Dạng bột;', '(B) Kim loại chưa gia công, ví dụ ở dạng khối, thỏi, các thanh và que được thiêu kết, hoặc như phế liệu và mảnh vụn (với loại tương tự xin xem ở chú giải giải thích nhóm 72.04);', '(C) Kim loại đã gia công, ví dụ các thanh đã được cán hoặc kéo, dạng hình, tấm và lá, dải hoặc dây.', '(D) Các sản phẩm công nghiệp không được bao hàm trong Chú giải 1 Phần XVII hoặc thuộc Chương 82 hoặc 83 hoặc được mô tả riêng ở bất cứ phần nào trong Danh mục. Hầu hết các sản phẩm Volfram, trừ lò xo, thực tế được phân loại trong Phần XVI hoặc XVII. Ví dụ, công tắc điện nằm trong Chương 85, trong khi đó một tấm Tungsten được sử dụng để chế tạo một tiếp điểm như vậy được xếp vào nhóm này.', 'Nhóm này không bao gồm cacbua Volfram, ví dụ được sử dụng trong việc sản xuất các đầu kim loại vận hành, lưỡi dao của các dụng cụ cắt hoặc khuôn dập. Cacbua này được phân loại như sau:', '(a) Bột chưa pha trộn trong nhóm 28.49.', '(b) Các hỗn hợp đã chuẩn bị nhưng chưa được thiêu kết (ví dụ: Pha trộn với cacbua của Molipden hoặc tantan, với hoặc không có tác nhân liên kết) trong nhóm 38.24.', '(c) Tấm, que, đầu (mũi) mút và những thứ tương tự cho các dụng cụ, đã thiêu kết nhưng chưa lắp ráp, trong nhóm 82.09 (Xem Chú giải chi tiết tương ứng).', '81.02 – Molypđen và các sản phẩm làm từ molypđen, kể cả phế liệu và mảnh vụn.', '8102.10 - Bột', '- Loại khác:', '8102.94 - - Molypđen chưa gia công, kể cả thanh và que thu được từ quá trình thiêu kết', '8102.95 - - Thanh và que, trừ các loại thu được từ quá trình thiêu kết, dạng hình, tấm, lá, dải và lá mỏng', '8102.96 - - Dây', '81.02.97 - - Phế liệu và mảnh vụn', '8102.99 - -  Loại khác', 'Molipden chủ yếu thu được từ quặng Molipden (Sunphít Molipden) và wulfenite (Molipdat chì) chúng được thu gom bởi quá trình thu gom nổi, được chuyển thành dạng oxit và sau đó được khử với kim loại', 'Kim loại thu được hoặc ở dạng bánh ép phù hợp cho quá trình cán kéo...hoặc ở dạng bột mà nó có thể được thiêu kết như Volfram (xem Chú giải Chi tiết nhóm 81.01).', 'Molipden ở dạng ép giống như chì về bề ngoài nhưng cực kỳ rắn và nóng chảy ở nhiệt độ cao. Nó có thể dát mỏng và chống lại sự ăn mòn ở nhiệt độ thường.', 'Molipđen được sử dụng (hoặc như kim loại hoặc dạng ferro-molipden, thuộc Chương 72) cho việc sản xuất thép hợp kim. Kim loại Molipđen cũng được sử dụng trong các cọc đỡ dây tóc bóng đèn điện, mạng lưới của đèn điện tử, nguyên tố hóa học dùng trong lò điện, các bộ nắn dòng điện và các công tắc điện. Nó cũng được sử dụng trong nha khoa, và như là một chất thay thế cho Platinum trong đồ trang sức bởi nó không bị xỉn.', 'Các hợp kim Molipđen trong sử dụng thông thường không chứa một hàm lượng vượt trội đối với Molipden và bởi vậy nó cũng bị loại trừ khỏi nhóm này theo Chú giải 5 Phần XV.', 'Do việc luyện kim của Molipden giống như của Volfram, phần thứ hai của chú giải chi tiết nhóm 81.01 (liên quan tới các dạng mà kim loại được bán trên thị trường, và việc phân loại của cacbua) với sửa đổi chi tiết phù hợp cũng được áp dụng cho nhóm này.', '81.03 – Tantan và các sản phẩm làm từ tantan, kể cả phế liệu và mảnh vụn.', '8103.20 - Tantan chưa gia công, kể cả thanh và que thu được từ quá trình thiêu kết; bột', '8103.30 - Phế liệu và mảnh vụn', '- Loại khác:', '8103.91 - - Chén nung (crucible)', '8103.99 - Loại khác', 'Tantan chủ yếu được tách từ các loại quặng Tantan và Niobite (columbite) (nhóm 26.15) bằng phương pháp khử oxit hoặc điện phân Fluoride Tantan-Potassium đã nóng chảy.', 'Nó có thể thu được dưới dạng kim loại bánh (ép), hoặc dạng bột dùng cho việc thiêu kết như Volfram hoặc Molupdenum.', 'Bột Tantan có màu đen, ở dạng khác nó có màu trắng khi được đánh bóng và có màu xanh thép khi không bị đánh bóng. Nó rất dẻo và dễ kéo sợi khi ở dạng tinh khiết. Nó đặc biệt chịu được sự ăn mòn kim loại, bao gồm cả tác động của hầu hết các axit.', 'Tantan được dùng trong việc sản xuất cacbua và (như ferro - tantan chứa sắt, xem Chương 72) trong việc điều chế các loại thép hợp kim. Nó cũng được sử dụng để chế tạo các cực lưới và Anôt cho các đèn điện tử, các bộ nắn dòng, các nồi nấu kim loại, bộ trao đổi nhiệt và các thiết bị hoá chất khác, các máy kéo sợi nhân tạo, các thiết bị nha khoa và các dụng cụ phẫu thuật. Nó cũng được sử dụng cho việc cố định xuong (nẹp xuong)... trong phẫu thuật, và trong quá trình sản xuất các bộ thu hút khí (hút hết không khí trong sản xuất các đèn điện tử).', 'Các hợp kim Tantan có thể được phân loại ở đây phù hợp với chú giải 5 phần XV bao gồm Các hợp kim Tantan-Volfram với hàm lượng Tantan cao được dùng, ví dụ: trong sản xuất đèn điện tử.', 'Nhóm này bao gồm Tantan ở tất cả các dạng của nó: dạng bột, khối, phế liệu và mảnh vụn, các thanh, dây, sợi, lá, dải, lá mỏng, dạng hình, các loại ống và các sản phẩm khác (ví dụ: các lò xo và vải kim loại (luới thép)) không được đề cập riêng biệt hơn ở bất cứ nơi nào khác.', 'Việc phân loại cacbua Tantan cũng theo sự phân loại cacbua Volfram (xem Chú giải Chi tiết nhóm 81.01).', '81.04- Magie và các sản phẩm của magie, kể cả phế liệu và mảnh vụn(+).', '- Magie chưa gia công:', '8104.11 - - Có chứa hàm lượng magie ít nhất 99,8% tính theo khối lượng', '8104.19 - - Loại khác', '8104.20 - Phế liệu và mảnh vụn', '8104.30 - Mạt giũa, phoi tiện và hạt, đã được phân loại theo kích cỡ; bột', '8104.90 - Loại khác', 'Magie được tách từ một số các nguyên liệu thô mà hầu như tất cả chúng không nằm ở trong chương 26 (các loại quặng), mà ở trong chương 25 hoặc 31, ví dụ Dolomite (nhóm 25.18), magiesite (hoặc Grobertite) nhóm 25.19 và Carmallite (nhóm 31.04). Nó cũng được tách từ nước biển hoặc nước mặn tự nhiên (nhóm 25.01) và từ dung dịch kiềm có chứa Clorua magie.', 'Ở giai đoạn đầu của công nghiệp sản xuất kim loại này, Clorua magie hoặc oxit Magie (Magiesia) được sản xuất bằng các phương pháp khác nhau tuỳ thuộc nguồn magie được sử dụng, việc chế luyện kim loại đó thường dựa trên cơ sở một trong 2 loại phản ứng sau:', '(A) Điện phân Clorua magie hoà tan được pha trộn với các chất trợ dụng như muối Clorua kim loại kiềm hoặc muối Florua magie đã được tách sẽ thu được trên bề mặt của catốt và clorine bị rút ra tại anôt.', '(B) Phương pháp khử nhiệt của oxit magie bằng cacbon, fero silic, cacbua silic cacbua calci, nhôm... Khi phản ứng trong nhiệt độ cao sẽ làm bốc hơi kim loại này rồi ngưng tụ ở dạng rất tinh khiết ngay khi nguội lạnh.', 'Kim loại thu được bằng phương pháp điện phân thông thường đòi hỏi phải tinh chế sâu, magie thu được bằng phương pháp khử nhiệt thường có độ tinh khiết đến mức mà nó có thể được nấu chảy và đúc thỏi mà không cần tinh chế hơn nữa.', '*', '*     *', 'Magie là kim loại có màu sáng bạc như nhôm nhưng nó thậm chí còn nhẹ hơn nhôm. Nó có thể đạt được mức độ bóng rất cao nhưng độ bóng đó mất đi khá nhanh khi để lộ ra ngoài không khí vì hình thành lớp oxit mỏng để bảo vệ kim loại chống lại ăn mòn. Magie ở dạng dây, dải, lá mỏng, và bột cháy dữ dội với ánh sáng chói loà và phải cẩn thận khi xử lý. Có khả năng gây nổ bột magie mịn nguyên chất khi hòa với không khí.', '*', '*    *', 'Magie không hợp kim được sử dụng trong điều chế các hợp chất hoá học, như tác nhân khử ôxi và sunfua trong quá trình luyện kim (Ví dụ: trong sản xuất sắt, đồng, niken và các hợp kim của chúng) trong sản xuất pháo hoa...', 'Kim loại tinh khiết có thuộc tính cơ học kém, nhưng khi kết hợp với các nguyên tố hoá học khác nó tạo nên hợp kim rất bền, nó có thể được cán, kéo đùn ép và đúc, và bởi vậy chúng có nhiều ứng dụng công nghiệp trong ngành công nghiệp kim loại nhẹ.', '*', '*    *', 'Các hợp kim Magie chủ yếu, có thể được phân loại trong chương này theo các điều khoản của Chú giải 5 Phần XV (Xem chú giải tổng quát của phần) gồm:', '(1) Các hợp kim Magie - Nhôm hoặc Magie-Nhôm-Kẽm thường thường chứa Mangan. Có một số hợp kim cơ bản là Magie thuộc thể loại "elektron" hoặc "Dow".', '(2) Các hợp kim Magie-Zicronium, thường có chứa thêm kẽm.', '(3) Hợp kim Magie-Mangan hoặc Magie-Cerium.', 'Tính nhẹ, bền và chống ăn mòn kim loại của các hợp kim tạo cho chúng phù hợp khi sử dụng trong công nghiệp máy bay. Ví dụ: Sản xuất vỏ động cơ, bánh xe, bộ phận chế hoà khí, các bệ đỡ Manhetô, các thùng chứa xăng hoặc dầu), trong công nghiệp ôtô, trong xây dựng nhà, trong sản xuất các bộ phận máy và các phụ tùng, đặc biệt là các máy dệt (thoi, suốt chỉ, máy cuốn chỉ) các máy công cụ, máy chữ, máy khâu, cưa xích, máy cắt cỏ, thang hoặc thiết bị gia công nguyên vật liệu hoặc như các loại khuôn in Litô...', '*', '*    *', 'Việc phân loại các sản phẩm Magie không bị ảnh hưởng bởi các phương pháp xử lý như đã được mô tả trong Chú giải chi tiết Phần tổng quát chung Chương 72, nhằm cải tiến thuộc tính, hình dáng... của kim loại.', 'Nhóm này bao gồm :', '(1) Magie chưa gia công ở dạng thỏi, các thanh có khía rãnh, phiến, que, bánh, khối lập phương và các dạng tương tự. Những hàng hoá đó nhìn chung dùng cho việc cán, kéo, đùn ép hoặc rèn, hoặc đúc thành sản phẩm đã định dạng.', '(2) Magie ở dạng phế liệu và mảnh vụn. Chú giải Chi tiết nhóm 72.04 với sửa đổi phù hợp cũng được áp dụng cho nhóm này.', 'Nhóm này bao gồm mạt giũa, phoi tiện và dạng hạt khi chúng chưa được phân loại hoặc lựa chọn theo kích thước. Mạt giũa, phoi tiện và hạt đã được phân loại hoặc lựa chọn theo kích cỡ được mô tả trong nhóm (3) phía dưới.', '(3) Các thanh, que, dạng hình, tấm, lá và dải, lá mỏng, dây các loại ống và ống dẫn, dạng hình rỗng, dạng bột và vảy, mạt giũa, phoi tiện và dạng hạt có kích cỡ đồng dạng.', 'Nhóm này bao gồm các loại Magie ở dạng thương mại như sau:', '(a) Các sản phẩm (các thanh đã gia công, que, dạng hình, dây, tấm, lá, dải và lá mỏng) thu được bởi việc cán kéo, đùn, ép, rèn... các sản phẩm của nhóm (1) ở trên, các loại ống và ống dẫn và dạng hình rỗng (Xem chú giải giải thích tương ứng các nhóm cho sản phẩm tương tự của các kim loại cơ bản khác).', 'Những hàng hoá này được tính đến khi nguyên tố kim loại cấu thành đòi hỏi phải vừa nhẹ vừa bền (Xem phía trên).', '(b) Mạt giũa, phoi tiện và hạt cùng kích cỡ và tất cả các loại ở dạng bột và vảy.', 'Các sản phẩm này được sử dụng trong sản xuất pháo hoa (các sản phẩm cháy, tín hiệu...) các tác nhân khử</t>
+  </si>
+  <si>
+    <t>['Chú giải phân nhóm.', '1. Trong Chương này các khái niệm sau có nghĩa:', '(a) Thiếc, không hợp kim', 'Là kim loại có hàm lượng thiếc chiếm ít nhất 99% tính theo khối lượng, với điều kiện hàm lượng của bismut hoặc đồng phải thấp hơn giới hạn ở bảng sau:', 'BẢNG - Các nguyên tố khác', 'Nguyên tố', 'Hàm lượng giới hạn tính theo khối lượng (%)', 'Bi', 'Bismut', '0.1', 'Cu', 'Đồng', '0.4', '(b) Hợp kim thiếc', 'Vật liệu kim loại mà trong đó hàm lượng thiếc lớn hơn so với hàm lượng của mỗi nguyên tố khác tính theo khối lượng, với điều kiện:', '(i) tổng hàm lượng các nguyên tố khác trên 1% tính theo khối lượng; hoặc', '(ii) hàm lượng của bismut hoặc đồng phải bằng hoặc lớn hơn giới hạn nêu ở bảng trên.', 'TỔNG QUÁT', 'Chương này bao gồm thiếc và các hợp kim của thiếc, và một số sản phẩm làm bằng thiếc.', 'Về mặt thương mại, thiếc chiết xuất từ các quặng ôxit Cassiterite (hoặc đá thiếc) được phân loại trong nhóm 26.09, quặng này có thể xuất hiện hoặc trong mạch quặng hoặc trong những lớp lắng của đất bồi.', 'Các giai đoạn chính trong quá trình chiết xuất diễn ra như sau:', '(I) Quá trình tuyển quặng bằng phương pháp rửa, nghiền và tuyển nổi', '(II) Quá trình xử lý ôxit bằng việc nung, tách bằng từ tính, hoặc với các loại axit hoặc các dung môi khác để loại bỏ các tạp chất như Sulphur Asen, đồng, chì, sắt và tungsten.', '(III) Quá trình khử của các ôxit tinh khiết bằng than cốc để sản xuất thiếc thô.', '(IV) Tinh luyện thiếc thô bằng nhiều phương pháp có thể tạo ra được kim loại trong trạng thái hầu như hoàn toàn tinh khiết.', 'Thiếc cũng được thu hồi từ các mảnh vụn tráng thiếc bằng phương pháp xử lý Clo hoá hoặc điện phân, hoặc bằng phương pháp nấu chảy lại phế liệu và mảnh vụn thiếc. Quá trình thu hồi lại đó cũng có thể tạo ra thiếc rất tinh khiết.', '*', '*    *', 'Thiếc tinh khiết có màu trắng bạc và rất bóng, nó không thật dẻo, nhưng có thể rèn được, dễ dàng bị nấu chảy và mềm (mặc dù cứng hơn chì). Thiếc có thể dễ dàng được tạo hình qua đúc khuôn dập, cán hoặc ép đùn.', 'Thiếc là chất chống lại được sự ăn mòn khí quyển nhưng lại bị ăn mòn bởi các loại axit đậm đặc.', '*', '*    *', 'Thiếc chủ yếu được dùng trong quá trình mạ thiếc cho các kim loại cơ bản khác đặc biệt là sắt và thép (ví dụ: quá trình sản xuất tôn tráng thiếc, đặc biệt cho ngành công nghiệp đồ hộp) và trong việc tạo ra các hợp kim (đồng thanh...). Ở trạng thái tinh khiết hoặc hợp kim, thiếc cũng được sử dụng trong sản xuất các thiết bị, đường ống và hệ thống ống dẫn cho ngành công nghiệp thực phẩm, phần vòi của các thùng cất, các bộ phận của tủ lạnh, các bể chứa công nghiệp, các bình chứa... Hợp kim thành hình que, dây..., các sản phẩm trang trí và bộ đồ ăn (ví dụ: trong đồ dùng bằng thiếc), đồ chơi, các ống của đàn hộp... Nó cũng được dùng dạng lá mỏng hoặc các ống có thể bóp được.', '*', '*    *', 'Các hợp kim chính của thiếc có thể được phân loại trong chương này theo các điều khoản của chú giải 5 phần XV (Xem chú giải tổng quát phần đó) bao gồm:', '(1) Các hợp kim thiếc - chì được sử dụng, ví dụ: thiếc được sử dụng như các kim loại hàn mềm, nền chủ yếu là thiếc, trong các vật dụng làm bằng thiếc, trong sản xuất đồ chơi, cho một số thước đo dung lượng.', '(2) Các hợp kim thiếc-antimon, thường có đồng (ví dụ: kim loại Britannia) được sử dụng cho các bộ đồ ăn, sản xuất các vòng bạc đỡ...', '(3) Các hợp kim thiếc-chì-antimon, đôi khi có đồng (ví dụ: các kim loại chống ma sát thành phần cơ bản là thiếc) sử dụng để làm khuôn đúc (đặc biệt là bạc đỡ) sử dụng làm bao bì.', '(4) Các hợp kim thiếc-Cadimi, đôi khi cũng có kẽm, được dùng như các kim loại chống ma sát.', '*', '*    *', 'Chương này bao gồm:', '(A) Thiếc chưa qua gia công và thiếc phế liệu và mảnh vụn (nhóm 80.01 và 80.02).', '(B) Các sản phẩm thường thu được từ phương pháp cán hoặc ép thiếc chưa gia công thuộc nhóm 80.01 (nhóm 80.03 và nhóm 80.07), thiếc ở dạng bột và vảy (nhóm 80.07).', '(C) Các ống, ống dẫn và các phụ kiện, các sản phẩm khác thuộc nhóm 80.07 bao gồm tất cả các sản phẩm bằng thiếc khác trừ các sản phẩm đã nêu trong Chú giải 1 phần XV hoặc thuộc Chương 82 hoặc 83, hoặc các sản phẩm được mô tả chi tiết hơn thuộc nơi khác của danh mục.', '*', '*    *', 'Các sản phẩm và mặt hàng bằng thiếc có thể được đưa qua các phương pháp xử lý đa dạng để nâng cao tính chất hoặc hình dạng của kim loại. Các phương pháp xử lý đó nói chung được đề cập tới tại phần cuối của chú giải chi tiết Chương 72 và không ảnh hưởng tới việc phân loại hàng hoá.', '*', '*    *', 'Việc phân loại hàng hoá các sản phẩm phức hợp được giải thích chung trong Chú giải Tổng quát Phần XV.', '80.01 – Thiếc chưa gia công', '8001.10 - Thiếc, không hợp kim', '8001.20 - Hợp kim thiếc', 'Nhóm này bao gồm thiếc chưa gia công ở dạng hình khối, thỏi, thanh, que, cục, phiến hoặc các dạng tương tự, và các mảnh, các hạt và các sản phẩm tương tự bằng thiếc. Hầu hết các sản phẩm thuộc nhóm này được dự định đưa vào sử dụng trong việc mạ thiếc, cho quá trình cán hoặc đúc ép, cho sản xuất các loại hợp kim đúc thành các sản phẩm có hình dạng.', 'Nhóm này loại trừ thiếc ở dạng bột và vảy (nhóm 80.07).', '80.02 – Phế liệu và mảnh vụn thiếc.', 'Các khoản liên quan tới phế liệu và mảnh vụn trong chú giải chi tiết nhóm 72.07 với sửa đổi phù hợp cũng áp dụng cho nhóm này.', 'Nhóm này loại trừ:', '(a) Xỉ, tro và các chất thải từ việc sản xuất thiếc (nhóm 26.20).', '(b) Thiếc ở dạng thỏi và các dạng chưa gia công tương tự đúc từ phế liệu và mảnh vụn thiếc được nấu lại (nhóm 80.01)', '80.03 – Thiếc ở dạng thanh, que, dạng hình và dây.', 'Các sản phẩm này được định nghĩa trong Chú giải tương ứng với 9 (a) , 9 (b) và 9 (c) Phần XV, tương ứng đối với các sản phẩm làm bằng đồng. Bởi vậy các điều khoản của Chú giải Chi tiết nhóm 74.07 hoặc 74.08 với các sửa đổi thích hợp cũng áp dụng cho nhóm này.', 'Nhóm cũng bao gồm các thanh của kim loại hàn cơ bản là thiếc (nhìn chung được chế tạo từ phương pháp ép đùn) có thể có hoặc không bị cắt thành từng đoạn, với điều kiện là chúng không bị tẩm phủ các chất trợ dung, các thanh được bọc phủ bị loại trừ khỏi nhóm này (nhóm 83.11)', 'Nhóm này cũng loại trừ các thanh đúc, ví dụ, để cán hoặc kéo hoặc để đúc lại thành các sản phẩm có hình dạng ((nhóm 80.01).', '[80.04]', '[80.05]', '[80.06]', '80.07 – Các sản phẩm khác bằng thiếc.', 'Nhóm này bao gồm tất cả các sản phẩm bằng thiếc, trừ các sản phẩm được bao hàm bởi các nhóm đứng trước của chương này hoặc bởi Chú giải 1 phần XV, hoặc các sản phẩm đã được chi tiết hoặc được bao hàm trong Chương 82 hoặc 83, hoặc được mô tả cụ thể hơn ở một phần khác trong Danh mục.', 'Trong trường hợp đặc biệt, nó áp dụng cho:', '(1) Các thùng chứa, bề chứa, thùng hình trống và các thùng chứa khác (không phù gắn với các thiết bị cơ khí hoặc nhiệt).', '(2) Các ống có thể bóp được sử dụng để làm hộp đựng kem đánh răng, các chất màu hoặc các sản phẩm khác.', '(3) Các đồ gia dụng và các bộ đồ ăn (luôn làm bằng thiếc) như các bình, khay, đĩa, chén, ống xi phông và nắp đậy cốc ống bia...', '(4) Các thước đo dung lượng.', '(5) Các anốt mạ điện (xem phần A của chú giải chi tiết nhóm 75.08).', '(6) Bột thiếc (xem Chú giải 8(b) của Phần XV) và vảy thiếc.', '(7) Tấm, lá và dải thiếc; lá thiếc mỏng (có hoặc không được in, lót bằng giấy, giấy bìa, nhựa hoặc vật liệu lót tương tự). Các sản phẩm này được mô tả trong Chú giải 9 (d) phần XV.', '(8) Các loại ống và ống dẫn nêu trong Chú giải 9 (e) của Phần XV và các loại phụ kiện của ống, ống dẫn (ví dụ như nối đôi, nối khuỷu, măng sông) bằng thiếc (trừ các sản phẩm dạng hình rỗng (nhóm 80.03), phụ kiện của ống, ống dẫn đã lắp vòi, khóa, van,... (nhóm 84.81), và các loại ống, ống dẫn được chế tạo thành các chi tiết của những sản phẩm xác định, như những bộ phận của máy móc (Phần XVI)). Các sản phẩm này giống như các hàng hóa bằng sắt hoặc thép được nêu trong Chú giải Chi tiết của các nhóm từ 73.04 đến 73.07.', 'Chương 81', 'Kim loại cơ bản khác; gốm kim loại; các sản phẩm của chúng.', 'TỔNG QUÁT', 'Chương này chỉ giới hạn bao gồm sau đây: các kim loại cơ bản, các hợp kim của chúng, và các sản phẩm của chúng mà không được đề cập riêng ở bất cứ phần nào trong Danh mục.', '(A) Vôn-fram (wolfram) (nhóm 81.01), Molybden (Mo) (nhóm 81.02), Tantan(Ta) nhóm 81.03), Magie(Mg) (nhóm 81.04), Coban(Co), bao gồm các phụ phẩm và các sản phẩm trung gian khác của Coban thu được trong quá trình luyện kim Coban (nhóm 81.05), Bitmut(Bi) (nhóm 81.06) Cađimi(Cd) (nhóm 81.07), Titan(Ti) (nhóm 81.08), Zirconi(Zr) (nhóm 81.09), Antimon(Sb) (nhóm 81.10) và Mangan(Mn) (nhóm 81.11).', '(B) Berili(Be), crôm(Cr), hafini (Hf), reni (Re), Tali(TI), cađimi (Cd), gecmani(Ge), vanadi(V), gali(Ga), indi(In) và niobi (Nb) (columbi) (nhóm 81.12)', 'Chương này cũng bao gồm gốm kim loại (nhóm 81.13).', 'Các kim loại cơ bản không được mô tả trong chương này hoặc trong các chương trước thuộc phần XV thì được phân loại vào Chương 28.', 'Hầu hết các kim loại được phân loại trong chương này được sử dụng chủ yếu dưới dạng hợp kim hoặc dạng carbid (cacbua hoá) hơn là ở dạng tinh khiết. Việc phân loại những hợp kim như vậy tuân theo các quy tắc được trình bày trong chú giải 5 phần XV, các hợp chất cacbua kim loại bị loại trừ khỏi chương này.', '*', '*     *', 'Việc phân loại các hàng hoá phức hợp, đặc biệt là các mặt hàng đã hoàn thiện, được giải thích trong Chú giải Tổng quát của Phần XV.', 'Chú giải 8 Phần XV đã định nghĩa "Chất phế liệu và mảnh vụn" và "bột".', '81.01 – Vonfram và các sản phẩm làm từ vonfram, kể cả phế liệu và mảnh vụn.', '8101.10 - Bột', '- Loại khác:', '8101.94 - - Vonfram chưa gia công, kể cả thanh và que thu được từ quá trình thiêu kết', '8101.96 - - Dây', '8101.97 - - Phế liệu và mảnh vụn', '8101.99 - - Loại khác', 'Volfram chủ yếu thu được từ các quặng Volframit (wonframat sắt-mangan) và Sêêlit (khoáng vật chứa Canxi Volfram). Các quặng được chuyển đổi thành dạng ôxit, sau đó khử bởi Hydro trong lò điện hoặc bằng nhôm hoặc cacbon trong nồi nấu kim loại ở nhiệt độ cao. Bột kim loại thu được sau đó được ép thành các dạng khối hoặc thanh, chúng được thiêu kết trong môi trường Hydro trong lò điện. Những thanh đã thiêu kết ở dạng bánh ép sau đó được đập rèn cơ học, và cuối cùng được cán hoặc kéo thành lá kim loại, thanh có tiết diện nhỏ hơn hoặc dây.', 'Volfram là một kim loại nặng (tỷ trọng lớn) có màu xám của thép, có điểm nóng chảy cao. Nó dễ gẫy, cứng và có tính chống lại sự ăn mòn kim loại cao (tính chịu mòn cao).', 'Volfram được sử dụng làm sợi dây tóc của các bóng đèn và các đèn điện tử; các thành phần dùng cho lò điện, đối Catôt cho các ống dẫn tia X, các công tắc điện, các lò xo không từ tính cho các thiết bị đo điện hoặc đồng hồ hiển thị, các thước ngắm cho thấu kính của kính viễn vọng, nó cũng được sử dụng làm điện cực cho việc hàn hồ quang Hydro...', 'Công dụng quan trọng nhất của volfram (thường sử dụng ở dạng ferro - volfram, xem Chương 72), là trong quá trình chế luyện các loại thép đặc biệt. Nó cũng được sử dụng trong việc điều chế cacbua volfram.', '*', '*     *', 'Các hợp kim chủ yếu của Volfram có thể được phân loại trong chương này nếu phù hợp với Chú giải 5 Phần XV, thì đều được chế luyện bởi phương pháp thiêu kết. Chúng bao gồm:', '(1) Các hợp kim Volfram-đồng (ví dụ, dùng cho các tiếp điểm điện).', '(2) Các hợp kim Volfram-Niken-đồng sử dụng trong sản xuất màn hình của tia X, một số bộ phận của máy bay...', '*', '*    *', 'Volfram nằm trong nhóm này có thể có ở các dạng sau:', '(A) Dạng bột;', '(B) Kim loại chưa gia công, ví dụ ở dạng khối, thỏi, các thanh và que được thiêu kết, hoặc như phế liệu và mảnh vụn (với loại tương tự xin xem ở chú giải giải thích nhóm 72.04);', '(C) Kim loại đã gia công, ví dụ các thanh đã được cán hoặc kéo, dạng hình, tấm và lá, dải hoặc dây.', '(D) Các sản phẩm công nghiệp không được bao hàm trong Chú giải 1 Phần XVII hoặc thuộc Chương 82 hoặc 83 hoặc được mô tả riêng ở bất cứ phần nào trong Danh mục. Hầu hết các sản phẩm Volfram, trừ lò xo, thực tế được phân loại trong Phần XVI hoặc XVII. Ví dụ, công tắc điện nằm trong Chương 85, trong khi đó một tấm Tungsten được sử dụng để chế tạo một tiếp điểm như vậy được xếp vào nhóm này.', 'Nhóm này không bao gồm cacbua Volfram, ví dụ được sử dụng trong việc sản xuất các đầu kim loại vận hành, lưỡi dao của các dụng cụ cắt hoặc khuôn dập. Cacbua này được phân loại như sau:', '(a) Bột chưa pha trộn trong nhóm 28.49.', '(b) Các hỗn hợp đã chuẩn bị nhưng chưa được thiêu kết (ví dụ: Pha trộn với cacbua của Molipden hoặc tantan, với hoặc không có tác nhân liên kết) trong nhóm 38.24.', '(c) Tấm, que, đầu (mũi) mút và những thứ tương tự cho các dụng cụ, đã thiêu kết nhưng chưa lắp ráp, trong nhóm 82.09 (Xem Chú giải chi tiết tương ứng).', '81.02 – Molypđen và các sản phẩm làm từ molypđen, kể cả phế liệu và mảnh vụn.', '8102.10 - Bột', '- Loại khác:', '8102.94 - - Molypđen chưa gia công, kể cả thanh và que thu được từ quá trình thiêu kết', '8102.95 - - Thanh và que, trừ các loại thu được từ quá trình thiêu kết, dạng hình, tấm, lá, dải và lá mỏng', '8102.96 - - Dây', '81.02.97 - - Phế liệu và mảnh vụn', '8102.99 - -  Loại khác', 'Molipden chủ yếu thu được từ quặng Molipden (Sunphít Molipden) và wulfenite (Molipdat chì) chúng được thu gom bởi quá trình thu gom nổi, được chuyển thành dạng oxit và sau đó được khử với kim loại', 'Kim loại thu được hoặc ở dạng bánh ép phù hợp cho quá trình cán kéo...hoặc ở dạng bột mà nó có thể được thiêu kết như Volfram (xem Chú giải Chi tiết nhóm 81.01).', 'Molipden ở dạng ép giống như chì về bề ngoài nhưng cực kỳ rắn và nóng chảy ở nhiệt độ cao. Nó có thể dát mỏng và chống lại sự ăn mòn ở nhiệt độ thường.', 'Molipđen được sử dụng (hoặc như kim loại hoặc dạng ferro-molipden, thuộc Chương 72) cho việc sản xuất thép hợp kim. Kim loại Molipđen cũng được sử dụng trong các cọc đỡ dây tóc bóng đèn điện, mạng lưới của đèn điện tử, nguyên tố hóa học dùng trong lò điện, các bộ nắn dòng điện và các công tắc điện. Nó cũng được sử dụng trong nha khoa, và như là một chất thay thế cho Platinum trong đồ trang sức bởi nó không bị xỉn.', 'Các hợp kim Molipđen trong sử dụng thông thường không chứa một hàm lượng vượt trội đối với Molipden và bởi vậy nó cũng bị loại trừ khỏi nhóm này theo Chú giải 5 Phần XV.', 'Do việc luyện kim của Molipden giống như của Volfram, phần thứ hai của chú giải chi tiết nhóm 81.01 (liên quan tới các dạng mà kim loại được bán trên thị trường, và việc phân loại của cacbua) với sửa đổi chi tiết phù hợp cũng được áp dụng cho nhóm này.', '81.03 – Tantan và các sản phẩm làm từ tantan, kể cả phế liệu và mảnh vụn.', '8103.20 - Tantan chưa gia công, kể cả thanh và que thu được từ quá trình thiêu kết; bột', '8103.30 - Phế liệu và mảnh vụn', '- Loại khác:', '8103.91 - - Chén nung (crucible)', '8103.99 - Loại khác', 'Tantan chủ yếu được tách từ các loại quặng Tantan và Niobite (columbite) (nhóm 26.15) bằng phương pháp khử oxit hoặc điện phân Fluoride Tantan-Potassium đã nóng chảy.', 'Nó có thể thu được dưới dạng kim loại bánh (ép), hoặc dạng bột dùng cho việc thiêu kết như Volfram hoặc Molupdenum.', 'Bột Tantan có màu đen, ở dạng khác nó có màu trắng khi được đánh bóng và có màu xanh thép khi không bị đánh bóng. Nó rất dẻo và dễ kéo sợi khi ở dạng tinh khiết. Nó đặc biệt chịu được sự ăn mòn kim loại, bao gồm cả tác động của hầu hết các axit.', 'Tantan được dùng trong việc sản xuất cacbua và (như ferro - tantan chứa sắt, xem Chương 72) trong việc điều chế các loại thép hợp kim. Nó cũng được sử dụng để chế tạo các cực lưới và Anôt cho các đèn điện tử, các bộ nắn dòng, các nồi nấu kim loại, bộ trao đổi nhiệt và các thiết bị hoá chất khác, các máy kéo sợi nhân tạo, các thiết bị nha khoa và các dụng cụ phẫu thuật. Nó cũng được sử dụng cho việc cố định xuong (nẹp xuong)... trong phẫu thuật, và trong quá trình sản xuất các bộ thu hút khí (hút hết không khí trong sản xuất các đèn điện tử).', 'Các hợp kim Tantan có thể được phân loại ở đây phù hợp với chú giải 5 phần XV bao gồm Các hợp kim Tantan-Volfram với hàm lượng Tantan cao được dùng, ví dụ: trong sản xuất đèn điện tử.', 'Nhóm này bao gồm Tantan ở tất cả các dạng của nó: dạng bột, khối, phế liệu và mảnh vụn, các thanh, dây, sợi, lá, dải, lá mỏng, dạng hình, các loại ống và các sản phẩm khác (ví dụ: các lò xo và vải kim loại (luới thép)) không được đề cập riêng biệt hơn ở bất cứ nơi nào khác.', 'Việc phân loại cacbua Tantan cũng theo sự phân loại cacbua Volfram (xem Chú giải Chi tiết nhóm 81.01).', '81.04- Magie và các sản phẩm của magie, kể cả phế liệu và mảnh vụn(+).', '- Magie chưa gia công:', '8104.11 - - Có chứa hàm lượng magie ít nhất 99,8% tính theo khối lượng', '8104.19 - - Loại khác', '8104.20 - Phế liệu và mảnh vụn', '8104.30 - Mạt giũa, phoi tiện và hạt, đã được phân loại theo kích cỡ; bột', '8104.90 - Loại khác', 'Magie được tách từ một số các nguyên liệu thô mà hầu như tất cả chúng không nằm ở trong chương 26 (các loại quặng), mà ở trong chương 25 hoặc 31, ví dụ Dolomite (nhóm 25.18), magiesite (hoặc Grobertite) nhóm 25.19 và Carmallite (nhóm 31.04). Nó cũng được tách từ nước biển hoặc nước mặn tự nhiên (nhóm 25.01) và từ dung dịch kiềm có chứa Clorua magie.', 'Ở giai đoạn đầu của công nghiệp sản xuất kim loại này, Clorua magie hoặc oxit Magie (Magiesia) được sản xuất bằng các phương pháp khác nhau tuỳ thuộc nguồn magie được sử dụng, việc chế luyện kim loại đó thường dựa trên cơ sở một trong 2 loại phản ứng sau:', '(A) Điện phân Clorua magie hoà tan được pha trộn với các chất trợ dụng như muối Clorua kim loại kiềm hoặc muối Florua magie đã được tách sẽ thu được trên bề mặt của catốt và clorine bị rút ra tại anôt.', '(B) Phương pháp khử nhiệt của oxit magie bằng cacbon, fero silic, cacbua silic cacbua calci, nhôm... Khi phản ứng trong nhiệt độ cao sẽ làm bốc hơi kim loại này rồi ngưng tụ ở dạng rất tinh khiết ngay khi nguội lạnh.', 'Kim loại thu được bằng phương pháp điện phân thông thường đòi hỏi phải tinh chế sâu, magie thu được bằng phương pháp khử nhiệt thường có độ tinh khiết đến mức mà nó có thể được nấu chảy và đúc thỏi mà không cần tinh chế hơn nữa.', '*', '*     *', 'Magie là kim loại có màu sáng bạc như nhôm nhưng nó thậm chí còn nhẹ hơn nhôm. Nó có thể đạt được mức độ bóng rất cao nhưng độ bóng đó mất đi khá nhanh khi để lộ ra ngoài không khí vì hình thành lớp oxit mỏng để bảo vệ kim loại chống lại ăn mòn. Magie ở dạng dây, dải, lá mỏng, và bột cháy dữ dội với ánh sáng chói loà và phải cẩn thận khi xử lý. Có khả năng gây nổ bột magie mịn nguyên chất khi hòa với không khí.', '*', '*    *', 'Magie không hợp kim được sử dụng trong điều chế các hợp chất hoá học, như tác nhân khử ôxi và sunfua trong quá trình luyện kim (Ví dụ: trong sản xuất sắt, đồng, niken và các hợp kim của chúng) trong sản xuất pháo hoa...', 'Kim loại tinh khiết có thuộc tính cơ học kém, nhưng khi kết hợp với các nguyên tố hoá học khác nó tạo nên hợp kim rất bền, nó có thể được cán, kéo đùn ép và đúc, và bởi vậy chúng có nhiều ứng dụng công nghiệp trong ngành công nghiệp kim loại nhẹ.', '*', '*    *', 'Các hợp kim Magie chủ yếu, có thể được phân loại trong chương này theo các điều khoản của Chú giải 5 Phần XV (Xem chú giải tổng quát của phần) gồm:', '(1) Các hợp kim Magie - Nhôm hoặc Magie-Nhôm-Kẽm thường thường chứa Mangan. Có một số hợp kim cơ bản là Magie thuộc thể loại "elektron" hoặc "Dow".', '(2) Các hợp kim Magie-Zicronium, thường có chứa thêm kẽm.', '(3) Hợp kim Magie-Mangan hoặc Magie-Cerium.', 'Tính nhẹ, bền và chống ăn mòn kim loại của các hợp kim tạo cho chúng phù hợp khi sử dụng trong công nghiệp máy bay. Ví dụ: Sản xuất vỏ động cơ, bánh xe, bộ phận chế hoà khí, các bệ đỡ Manhetô, các thùng chứa xăng hoặc dầu), trong công nghiệp ôtô, trong xây dựng nhà, trong sản xuất các bộ phận máy và các phụ tùng, đặc biệt là các máy dệt (thoi, suốt chỉ, máy cuốn chỉ) các máy công cụ, máy chữ, máy khâu, cưa xích, máy cắt cỏ, thang hoặc thiết bị gia công nguyên vật liệu hoặc như các loại khuôn in Litô...', '*', '*    *', 'Việc phân loại các sản phẩm Magie không bị ảnh hưởng bởi các phương pháp xử lý như đã được mô tả trong Chú giải chi tiết Phần tổng quát chung Chương 72, nhằm cải tiến thuộc tính, hình dáng... của kim loại.', 'Nhóm này bao gồm :', '(1) Magie chưa gia công ở dạng thỏi, các thanh có khía rãnh, phiến, que, bánh, khối lập phương và các dạng tương tự. Những hàng hoá đó nhìn chung dùng cho việc cán, kéo, đùn ép hoặc rèn, hoặc đúc thành sản phẩm đã định dạng.', '(2) Magie ở dạng phế liệu và mảnh vụn. Chú giải Chi tiết nhóm 72.04 với sửa đổi phù hợp cũng được áp dụng cho nhóm này.', 'Nhóm này bao gồm mạt giũa, phoi tiện và dạng hạt khi chúng chưa được phân loại hoặc lựa chọn theo kích thước. Mạt giũa, phoi tiện và hạt đã được phân loại hoặc lựa chọn theo kích cỡ được mô tả trong nhóm (3) phía dưới.', '(3) Các thanh, que, dạng hình, tấm, lá và dải, lá mỏng, dây các loại ống và ống dẫn, dạng hình rỗng, dạng bột và vảy, mạt giũa, phoi tiện và dạng hạt có kích cỡ đồng dạng.', 'Nhóm này bao gồm các loại Magie ở dạng thương mại như sau:', '(a) Các sản phẩm (các thanh đã gia công, que, dạng hình, dây, tấm, lá, dải và lá mỏng) thu được bởi việc cán kéo, đùn, ép, rèn... các sản phẩm của nhóm (1) ở trên, các loại ống và ống dẫn và dạng hình rỗng (Xem chú giải giải thích tương ứng các nhóm cho sản phẩm tương tự của các kim loại cơ bản khác).', 'Những hàng hoá này được tính đến khi nguyên tố kim loại cấu thành đòi hỏi phải vừa nhẹ vừa bền (Xem phía trên).', '(b) Mạt giũa, phoi tiện và hạt cùng kích cỡ và tất cả các loại ở dạng bột và vảy.', 'Các sản phẩm này được sử dụng trong sản xuất pháo hoa (các sản phẩm cháy, tín hiệu...) các tác nhân khử trong ngành hoá học hoặc luyện kim... Mạt giũa, phoi tiện và dạng hạt đặc biệt được tạo ra và phân loại để sử dụng riêng cho những mục đích này.', '(4) Các sản phẩm khác.', 'Nhóm này bao gồm tất cả các sản phẩm của Magie không được mô tả trong các nhóm trước hoặc tại Chú giải 1 Phần XV hoặc trong Chương 82 hoặc 83, hoặc được mô tả riêng biệt ở một nhóm trong Danh mục.', 'Do magie chủ yếu được sử dụng trong việc sản xuất máy bay, xe cộ và các bộ phận máy (xem ở trên) nên phần lớn các sản phẩm của magie được phân loại ở một nhóm khác (đặc biệt trong các Phần XVI và XVII)', 'Các sản phẩm được phân loại ở đây gồm:', '(a) Các kết cấu và các phần của kết cấu.', '(b) Các bể chứa, thùng chứa và các đồ chứa tương tự, không gắn với các thiết bị cơ khí hoặc thiết bị nhiệt và các thùng phuy, thùng hình trống và bình chứa.', '(c) Lưới kim loại.', '(d) Bulông, đai ốc, ốc vít...', 'Nhóm này không bao gồm xỉ, tro và phần còn lại của quá trình sản xuất của magie (nhóm 26.20).', '*', '*    *', 'Chú giải phân nhóm.', 'Phân nhóm 8104.11 và 8104.19', 'Các phân nhóm này cũng bao gồm các thỏi và các dạng chưa gia công tương tự được đúc từ phế liệu và mảnh vụn của magie nấu lại', '81.05 – Coban sten và các sản phẩm trung gian khác từ luyện coban; coban và các sản phẩm bằng coban, kể cả phế liệu và mảnh vụn.', '8105.20 - Coban sten và các sản phẩm trung gian khác thu được từ luyện coban; coban chưa gia công; bột', '8105.30 - Phế liệu và mảnh vụn', '8105.90 - Loại khác', 'Coban thu chủ yếu từ quặng Heterogenite (Hydrateldoxide coban) Linnalite (Sulffat coban và Niken) và Smaltite (Coban Asen). Khi được nấu chảy, quặng sunphat và Arsennide tạo ra các chất sten và các sản phẩm trung gian khác. Sau khi xử lý để loại trừ các kim loại khác, ôxit coban thu được và được khử bằng cacbon, Nhôm... Kim loại đó cũng thu được bằng quá trình điện phân và bằng quá trình xử lý các phần còn lại từ quá trình tinh luyện đồng, niken, bạc...', 'Coban có màu bạc, là kim loại chống lại sự ăn mòn, cứng hơn Niken và là kim loại có từ tính cao nhất trong các kim loại không chứa sắt.', 'Ở trạng thái tinh khiết, nó được sử dụng như một chất phủ các kim loại khác (bởi việc kết tủa điện phân) như một chất xúc tác, như một chất liên kết trong việc sản xuất các dụng cụ cắt gọt bằng cácbua kim loại, như một thành phần của nam châm Samaricoban hoặc của một số loại thép hợp kim...', 'Có nhiều hợp kim Coban, có thể nằm trong nhóm phù hợp với Chú giải 5 Phần XV bao gồm:', '(1) Nhóm coban-Crom-volfram "Stelit" (thường chiếm tỷ lệ nhỏ trong các nguyên tố khác). Nó được sử dụng trong sản xuất van và chân van, các dụng cụ,... do khả năng chống lại sự mài mòn và ăn mòn ở nhiệt độ cao.', '(2) Các hợp kim Coban-Sắt-Crôm. Ví dụ: loại dẫn nhiệt thấp và có khả năng từ tính lớn.', '(3) Hợp kim Coban - Crôm - Molybden, được sử dụng trong sản xuất động cơ phản lực.', 'Nhóm này bao gồm coban sten, các sản phẩm trung gian trong quá luyện kim coban và coban ở tất cả các dạng của nó, ví dụ: thỏi, catot, hạt nhỏ, bột, phế liệu và mảnh vụn và những sản phẩm chưa được chi tiết ở nơi khác', '81.06 – Bismut và các sản phẩm làm từ bismut, kể cả phế liệu và mảnh vụn.', '8106.10 – Chứa hàm lượng bismut trên 99,99%, tính theo khối lượng', '8106.90 – Loại khác', 'Kim loại này xuất hiện ở trạng thái tự nhiên, nhưng nó chủ yếu thu được từ việc tinh chế các phần còn lại của chì, đồng... hoặc bởi việc chiết tách từ các quặng Sulphat hoặc cacbonat (ví dụ: Bismuthini và Bismutite).', 'Bismut có màu trắng với sắc độ hồng, dễ gãy, rất khó để gia công và là chất dẫn (điện, nhiệt...) kém.', 'Nó được dùng trong thiết bị khoa học và điều chế các hỗn hợp hoá chất dùng cho dược học.', 'Nó hình thành Các hợp kim dễ nóng chảy (một số có độ nóng chảy dưới 100 °C) mà một số hợp kim sau đây có thể nằm trong nhóm phù hợp với Chú giải 5 Phần XV :', '(1) Các hợp kim Bismut-chì-thiếc (đôi khi có Cadmium...) Ví dụ: các hợp kim của Darcet, Lipowit, Newton hoặc Wood được sử dụng như các hợp kim hàn, các hợp kim đúc, các thành phần dễ nóng chảy cho các bình dập lửa, các nồi hơi.', '(2) Các hợp kim Bismut-Indium-chì-thiếc-Cadmium, làm các khuôn đúc.', '81.08 – Titan và các sản phẩm làm từ titan, kể cả phế liệu và mảnh vụn.', '8108.20 - Titan chưa gia công; bột', '8108.30 - Phế liệu và mảnh vụn', '8108.90 - Loại khác', 'Titan thu được bởi khử các quặng ôxit Rutile và Brookite và từ Ilmenite (Quặng sắt- Titanferousiron). Tuỳ thuộc theo cách sử dụng, kim loại này có thể được thu ở dạng khối đặc, như một loại bột cho việc thiêu kết (như trong trường hợp Volfram) hoặc ở dạng fero- titan (Chương 72) hoặc cacbua Titan.', 'Titan có màu trắng và sáng bóng khi ở dạng rắn chắc (đặc) và có màu đen xám khi ở dạng bột, nó có khả năng chống lại sự ăn mòn kim loại, cứng và dòn trừ khi ở dạng rất tinh khiết.', 'Fero-Titan có chứa sắt và Fero-Titan - Silic (Chương 72) được sử dụng trong sản xuất thép, kim loại này cũng tạo thành hợp kim với nhôm, đồng, niken...', 'Titan chủ yếu được sử dụng trong công nghiệp máy ay, đóng tàu, cho việc chế tạo, ví dụ : thùng chứa, máy khuấy, máy trao đổi nhiệt, van và bom cho ngành hoá học, cho việc khử mặn nước biển và cho việc xây dựng các nhà máy điện hạt nhân.', 'Nhóm này bao gồm titan ở tất cả các dạng: Đặc biệt ở dạng đá bọt, thỏi (đúc), bột, Anot, thanh và que, tấm và lá, phế liệu và mảnh vụn và các sản phẩm trừ các sản phẩm được mô tả tại các chương khác của Danh mục (nói chung Phần XVI hoặc XVII) như là các cánh quạt của máy bay trực thăng, cánh chân vịt tàu, các bom hoặc van.', 'Việc phân loại của cácbua tuân theo việc phân loại của cácbua volfram (xem chú giải chi tiết nhóm 81.01).', '81.09 – Zircon và các sản phẩm làm từ zircon, kể cả phế liệu và mảnh vụn.', '- Zircon chưa gia công; bột', '8109.21 - - Chứa hàm lượng hafini trong zircon dưới 1/500 tính theo khối lượng', '8109.29 - - Loại khác', '- Phế liệu và mảnh vụn', '8109.31 - - Chứa hàm lượng hafini trong zircon dưới 1/500 tính theo khối lượng', '8109.39 - - Loại khác', '- Loại khác', '8109.91 - - Chứa hàm lượng hafini trong zircon dưới 1/500 tính theo khối lượng', '8109.99 - - Loại khác', 'Zircon thu được quặng silicat, zircon, bằng việc khử oxit, chloride... hoặc bằng điện phân.', 'Nó có màu xám bạc, và là kim loại dẻo và dễ kéo sợi.', 'Nó được sử dụng trong các bóng đèn nháy chụp ảnh, sản xuất của bộ phận thu hút khí hoặc các bộ phận hấp thụ trong các đèn điện tử Radio. Fero-Zircon (Chương 72) được sử dụng trong sản xuất thép, và kim loại này cũng tạo hợp kim với Niken,...', 'Zircon, ở dạng đơn chất hoặc đã hợp kim với thiếc (Zircalloy), cũng được sử dụng trong việc sản xuất các lớp bảo vệ của các hộp đựng nhiên liệu hạt nhân và sản xuất các kết cấu kim loại cho nhà máy hạt nhân. Hợp kim Zircon-Plutonium và hợp kim Zircon-Uranium được sử dụng như nhiên liệu hạt nhân. Để đảm bảo yêu cầu về hạt nhân, các vết Hafnium phải được loại bỏ đầu tiên.', '81.10 – Antimon và các sản phẩm làm từ antimon, kể cả phế liệu và mảnh vụn.', '8110.10 - Antimoan chưa gia công; bột', '8110.20 - Phế liệu và mảnh vụn', '8110.90 - Loại khác', 'Antimon chủ yếu thu được từ quặng Sulphat Stibnite bởi:', '(1) Sự cô đặc và nấu chảy tinh chế kim loại tạo ra một cái gọi là "Antimon thô" mà thực ra nó là sunphat thô thuộc nhóm 26.17.', '(2) Sự nấu chảy tạo ra Antimoan không tinh khiết được biết như "thuần nhât" (Antimon không tinh khiết).', '(3) Sự nấu chảy kỹ hon để tạo ra "những chiếc bát hình sao" mà sau quá trình tinh chế sẽ tạo ra những dạng tinh khiết nhất, "Antimon sao" hoặc "Kim loại của Pháp".', 'Antimon là một kim loại có màu trắng bóng với một màu xanh nhạt, dòn và dễ nghiền thành bột', 'Rất ít khi sử dụng antimon ở dạng không hợp kim. Tuy nhiên nó là hợp kim, đặc biệt khi hợp kim với chì và thiếc, làm cho chúng cứng thêm, để tạo ra Các hợp kim làm ổ trục, các loại máy in và Các hợp kim làm khuôn đúc khác, hợp kim gốc thiếc, kim loại Britannia,...(xem Chương 78 và 80 nơi mà Các hợp kim đó được xếp vào bởi vì hàm lượng trội hơn của chì hoặc thiếc).', '81.11 – Mangan và các sản phẩm làm từ mangan, kể cả phế liệu và mảnh vụn.', 'Mangan được tách ra bởi việc khử của các quặng ôxit, Pyrolusite, Braunite và Manganite, nó cũng thu được bằng điện phân.', 'Là kim loại mà bản thân nó, có màu hồng xám, cứng và dòn, hiếm khi được sử dụng ở dạng như vậy.', 'Tuy nhiên nó là một thành phần của gang kính, Fero Mangan, Silico-Mangan, các loại gang hợp kim và các loại thép hợp kim, các sản phẩm này thường nằm trong Chương 72, nhưng Fero Mangan và Silico- Mangan đôi khi có thể xếp vào trong nhóm này nếu hàm lượng sắt là rất thấp (Xem Chú giải 1(c) Chương 72). Mangan cũng được hợp kim với đồng, niken, nhôm...', '81.12 – Beryli, crôm, hafini, reni, tali, cađimi, germani, vanadi, gali, indi và niobi (columbi), và các sản phẩm từ các kim loại này, kể cả phế liệu và mảnh vụn.', '- Beryli:', '8112.12 - - Chưa gia công; bột', '8112.13 - - Phế liệu và mảnh vụn', '8112.19 - - Loại khác', '- Crôm:', '8112.21- - Chưa gia công; bột', '8112.22- - Phế liệu và mảnh vụn', '8112.29 - -  Loại khác', '-Hafnium:', '8112.31- - Chưa gia công; phế liệu và mảnh vụn; bột', '8112.39 - - Loại khác', '- Reni', '8112.41 - - Chưa gia công; phế liệu và mảnh vụn; bột', '8112.49 - - Loại khác', '-Tali:', '8112.51  - -  Chưa gia công; bột', '8112.52  - -  Phế liệu và mảnh vụn', '8112.59  - -  Loại khác', '- Cađimi:', '8112.61 - - Phế liệu và mảnh vụn', '8112.69 - - Loại khác', '- Loại khác:', '8112.92  - -  Chưa gia công; phế liệu và mảnh vụn; bột', '81.12.99 - - Loại khác', '(A) BERILI', 'Berili thu được hầu như chỉ từ Beryl, một loại silicat kép của berili và nhôm, nó được phân loại theo nhóm 26.17 trừ khi nó ở dạng đá quý (ví dụ: ngọc xanh) (Chương 71).', 'Phương pháp tách xuất mang tính thương mại chủ yếu của kim loại này là:', '(1) Điện phân ở nhiệt độ cao hỗn hợp của ôxy + fluorua Berili được sản xuất từ quặng (BeO2F2) và Bari hoặc các loại Fluorua khác. Mỗi nồi nấu Graphite được sử dụng như Anôt và kim loại này được thu lại trên catôt sắt được làm mát bằng nước.', '(2) Khử Fluoride Berili bằng magie.', '*', '*    *', 'Berili là một kim loại màu xám thép, rất nhẹ và cứng nhưng cực giòn, nó chỉ có thể được cán hoặc kéo theo các điều kiện rất đặc biệt.', '*', '*    *', 'Berili không hợp kim được sử dụng trong sản xuất cửa sổ cho các loại ống dẫn tia X; các nguyên liệu cho các lò phản ứng hạt nhân; trong ngành công nghiệp hàng không và vũ trụ; trong ngành công nghiệp chế tạo vũ khí; đích ngắm cho máy gia tốc; trong các điện cực cho đèn nêông...; tác nhân khử ôxit trong công nghiệp luyện kim.', 'Nó cũng được dùng trong việc chế tạo nhiều hợp kim, ví dụ với thép (lò xo thép...) với đồng (ví dụ hợp kim đồng Berili được sử dụng cho sản xuất các lò xo, đồng hồ hoặc các bộ phận của đồng hồ, các dụng cụ...); với niken. Tuy nhiên, Các hợp kim này được phân loại tương ứng trong Chương 72, 74 hoặc 75 do chúng chỉ chứa các tỷ lệ rất nhỏ Berili.', 'Nhóm này bao gồm Berili ở tất cả các dạng của nó, kim loại chưa gia công (ở dạng khối, hạt, lập phương...) các sản phẩm (dạng thanh, que, dây, lá...) và các mặt hàng. Tuy nhiên, các hàng hoá tạo nên các mặt hàng đặc trưng dễ nhận dạng như các bộ phận máy, các bộ phận của các thiết bị... bị loại trừ khỏi nhóm này (xem các Chương 85 và 90).', '(B) CRÔM', 'Crôm chủ yếu thu được từ Chromrite (quặng sắt Crôm) nó được chuyển đổi thành dạng Sesquioxyde sau đó nó bị khử để tạo ra kim loại.', 'C</t>
+  </si>
+  <si>
+    <t>['TỔNG QUÁT', 'Chương này chỉ giới hạn bao gồm sau đây: các kim loại cơ bản, các hợp kim của chúng, và các sản phẩm của chúng mà không được đề cập riêng ở bất cứ phần nào trong Danh mục.', '(A) Vôn-fram (wolfram) (nhóm 81.01), Molybden (Mo) (nhóm 81.02), Tantan(Ta) nhóm 81.03), Magie(Mg) (nhóm 81.04), Coban(Co), bao gồm các phụ phẩm và các sản phẩm trung gian khác của Coban thu được trong quá trình luyện kim Coban (nhóm 81.05), Bitmut(Bi) (nhóm 81.06) Cađimi(Cd) (nhóm 81.07), Titan(Ti) (nhóm 81.08), Zirconi(Zr) (nhóm 81.09), Antimon(Sb) (nhóm 81.10) và Mangan(Mn) (nhóm 81.11).', '(B) Berili(Be), crôm(Cr), hafini (Hf), reni (Re), Tali(TI), cađimi (Cd), gecmani(Ge), vanadi(V), gali(Ga), indi(In) và niobi (Nb) (columbi) (nhóm 81.12)', 'Chương này cũng bao gồm gốm kim loại (nhóm 81.13).', 'Các kim loại cơ bản không được mô tả trong chương này hoặc trong các chương trước thuộc phần XV thì được phân loại vào Chương 28.', 'Hầu hết các kim loại được phân loại trong chương này được sử dụng chủ yếu dưới dạng hợp kim hoặc dạng carbid (cacbua hoá) hơn là ở dạng tinh khiết. Việc phân loại những hợp kim như vậy tuân theo các quy tắc được trình bày trong chú giải 5 phần XV, các hợp chất cacbua kim loại bị loại trừ khỏi chương này.', '*', '*     *', 'Việc phân loại các hàng hoá phức hợp, đặc biệt là các mặt hàng đã hoàn thiện, được giải thích trong Chú giải Tổng quát của Phần XV.', 'Chú giải 8 Phần XV đã định nghĩa "Chất phế liệu và mảnh vụn" và "bột".', '81.01 – Vonfram và các sản phẩm làm từ vonfram, kể cả phế liệu và mảnh vụn.', '8101.10 - Bột', '- Loại khác:', '8101.94 - - Vonfram chưa gia công, kể cả thanh và que thu được từ quá trình thiêu kết', '8101.96 - - Dây', '8101.97 - - Phế liệu và mảnh vụn', '8101.99 - - Loại khác', 'Volfram chủ yếu thu được từ các quặng Volframit (wonframat sắt-mangan) và Sêêlit (khoáng vật chứa Canxi Volfram). Các quặng được chuyển đổi thành dạng ôxit, sau đó khử bởi Hydro trong lò điện hoặc bằng nhôm hoặc cacbon trong nồi nấu kim loại ở nhiệt độ cao. Bột kim loại thu được sau đó được ép thành các dạng khối hoặc thanh, chúng được thiêu kết trong môi trường Hydro trong lò điện. Những thanh đã thiêu kết ở dạng bánh ép sau đó được đập rèn cơ học, và cuối cùng được cán hoặc kéo thành lá kim loại, thanh có tiết diện nhỏ hơn hoặc dây.', 'Volfram là một kim loại nặng (tỷ trọng lớn) có màu xám của thép, có điểm nóng chảy cao. Nó dễ gẫy, cứng và có tính chống lại sự ăn mòn kim loại cao (tính chịu mòn cao).', 'Volfram được sử dụng làm sợi dây tóc của các bóng đèn và các đèn điện tử; các thành phần dùng cho lò điện, đối Catôt cho các ống dẫn tia X, các công tắc điện, các lò xo không từ tính cho các thiết bị đo điện hoặc đồng hồ hiển thị, các thước ngắm cho thấu kính của kính viễn vọng, nó cũng được sử dụng làm điện cực cho việc hàn hồ quang Hydro...', 'Công dụng quan trọng nhất của volfram (thường sử dụng ở dạng ferro - volfram, xem Chương 72), là trong quá trình chế luyện các loại thép đặc biệt. Nó cũng được sử dụng trong việc điều chế cacbua volfram.', '*', '*     *', 'Các hợp kim chủ yếu của Volfram có thể được phân loại trong chương này nếu phù hợp với Chú giải 5 Phần XV, thì đều được chế luyện bởi phương pháp thiêu kết. Chúng bao gồm:', '(1) Các hợp kim Volfram-đồng (ví dụ, dùng cho các tiếp điểm điện).', '(2) Các hợp kim Volfram-Niken-đồng sử dụng trong sản xuất màn hình của tia X, một số bộ phận của máy bay...', '*', '*    *', 'Volfram nằm trong nhóm này có thể có ở các dạng sau:', '(A) Dạng bột;', '(B) Kim loại chưa gia công, ví dụ ở dạng khối, thỏi, các thanh và que được thiêu kết, hoặc như phế liệu và mảnh vụn (với loại tương tự xin xem ở chú giải giải thích nhóm 72.04);', '(C) Kim loại đã gia công, ví dụ các thanh đã được cán hoặc kéo, dạng hình, tấm và lá, dải hoặc dây.', '(D) Các sản phẩm công nghiệp không được bao hàm trong Chú giải 1 Phần XVII hoặc thuộc Chương 82 hoặc 83 hoặc được mô tả riêng ở bất cứ phần nào trong Danh mục. Hầu hết các sản phẩm Volfram, trừ lò xo, thực tế được phân loại trong Phần XVI hoặc XVII. Ví dụ, công tắc điện nằm trong Chương 85, trong khi đó một tấm Tungsten được sử dụng để chế tạo một tiếp điểm như vậy được xếp vào nhóm này.', 'Nhóm này không bao gồm cacbua Volfram, ví dụ được sử dụng trong việc sản xuất các đầu kim loại vận hành, lưỡi dao của các dụng cụ cắt hoặc khuôn dập. Cacbua này được phân loại như sau:', '(a) Bột chưa pha trộn trong nhóm 28.49.', '(b) Các hỗn hợp đã chuẩn bị nhưng chưa được thiêu kết (ví dụ: Pha trộn với cacbua của Molipden hoặc tantan, với hoặc không có tác nhân liên kết) trong nhóm 38.24.', '(c) Tấm, que, đầu (mũi) mút và những thứ tương tự cho các dụng cụ, đã thiêu kết nhưng chưa lắp ráp, trong nhóm 82.09 (Xem Chú giải chi tiết tương ứng).', '81.02 – Molypđen và các sản phẩm làm từ molypđen, kể cả phế liệu và mảnh vụn.', '8102.10 - Bột', '- Loại khác:', '8102.94 - - Molypđen chưa gia công, kể cả thanh và que thu được từ quá trình thiêu kết', '8102.95 - - Thanh và que, trừ các loại thu được từ quá trình thiêu kết, dạng hình, tấm, lá, dải và lá mỏng', '8102.96 - - Dây', '81.02.97 - - Phế liệu và mảnh vụn', '8102.99 - -  Loại khác', 'Molipden chủ yếu thu được từ quặng Molipden (Sunphít Molipden) và wulfenite (Molipdat chì) chúng được thu gom bởi quá trình thu gom nổi, được chuyển thành dạng oxit và sau đó được khử với kim loại', 'Kim loại thu được hoặc ở dạng bánh ép phù hợp cho quá trình cán kéo...hoặc ở dạng bột mà nó có thể được thiêu kết như Volfram (xem Chú giải Chi tiết nhóm 81.01).', 'Molipden ở dạng ép giống như chì về bề ngoài nhưng cực kỳ rắn và nóng chảy ở nhiệt độ cao. Nó có thể dát mỏng và chống lại sự ăn mòn ở nhiệt độ thường.', 'Molipđen được sử dụng (hoặc như kim loại hoặc dạng ferro-molipden, thuộc Chương 72) cho việc sản xuất thép hợp kim. Kim loại Molipđen cũng được sử dụng trong các cọc đỡ dây tóc bóng đèn điện, mạng lưới của đèn điện tử, nguyên tố hóa học dùng trong lò điện, các bộ nắn dòng điện và các công tắc điện. Nó cũng được sử dụng trong nha khoa, và như là một chất thay thế cho Platinum trong đồ trang sức bởi nó không bị xỉn.', 'Các hợp kim Molipđen trong sử dụng thông thường không chứa một hàm lượng vượt trội đối với Molipden và bởi vậy nó cũng bị loại trừ khỏi nhóm này theo Chú giải 5 Phần XV.', 'Do việc luyện kim của Molipden giống như của Volfram, phần thứ hai của chú giải chi tiết nhóm 81.01 (liên quan tới các dạng mà kim loại được bán trên thị trường, và việc phân loại của cacbua) với sửa đổi chi tiết phù hợp cũng được áp dụng cho nhóm này.', '81.03 – Tantan và các sản phẩm làm từ tantan, kể cả phế liệu và mảnh vụn.', '8103.20 - Tantan chưa gia công, kể cả thanh và que thu được từ quá trình thiêu kết; bột', '8103.30 - Phế liệu và mảnh vụn', '- Loại khác:', '8103.91 - - Chén nung (crucible)', '8103.99 - Loại khác', 'Tantan chủ yếu được tách từ các loại quặng Tantan và Niobite (columbite) (nhóm 26.15) bằng phương pháp khử oxit hoặc điện phân Fluoride Tantan-Potassium đã nóng chảy.', 'Nó có thể thu được dưới dạng kim loại bánh (ép), hoặc dạng bột dùng cho việc thiêu kết như Volfram hoặc Molupdenum.', 'Bột Tantan có màu đen, ở dạng khác nó có màu trắng khi được đánh bóng và có màu xanh thép khi không bị đánh bóng. Nó rất dẻo và dễ kéo sợi khi ở dạng tinh khiết. Nó đặc biệt chịu được sự ăn mòn kim loại, bao gồm cả tác động của hầu hết các axit.', 'Tantan được dùng trong việc sản xuất cacbua và (như ferro - tantan chứa sắt, xem Chương 72) trong việc điều chế các loại thép hợp kim. Nó cũng được sử dụng để chế tạo các cực lưới và Anôt cho các đèn điện tử, các bộ nắn dòng, các nồi nấu kim loại, bộ trao đổi nhiệt và các thiết bị hoá chất khác, các máy kéo sợi nhân tạo, các thiết bị nha khoa và các dụng cụ phẫu thuật. Nó cũng được sử dụng cho việc cố định xuong (nẹp xuong)... trong phẫu thuật, và trong quá trình sản xuất các bộ thu hút khí (hút hết không khí trong sản xuất các đèn điện tử).', 'Các hợp kim Tantan có thể được phân loại ở đây phù hợp với chú giải 5 phần XV bao gồm Các hợp kim Tantan-Volfram với hàm lượng Tantan cao được dùng, ví dụ: trong sản xuất đèn điện tử.', 'Nhóm này bao gồm Tantan ở tất cả các dạng của nó: dạng bột, khối, phế liệu và mảnh vụn, các thanh, dây, sợi, lá, dải, lá mỏng, dạng hình, các loại ống và các sản phẩm khác (ví dụ: các lò xo và vải kim loại (luới thép)) không được đề cập riêng biệt hơn ở bất cứ nơi nào khác.', 'Việc phân loại cacbua Tantan cũng theo sự phân loại cacbua Volfram (xem Chú giải Chi tiết nhóm 81.01).', '81.04- Magie và các sản phẩm của magie, kể cả phế liệu và mảnh vụn(+).', '- Magie chưa gia công:', '8104.11 - - Có chứa hàm lượng magie ít nhất 99,8% tính theo khối lượng', '8104.19 - - Loại khác', '8104.20 - Phế liệu và mảnh vụn', '8104.30 - Mạt giũa, phoi tiện và hạt, đã được phân loại theo kích cỡ; bột', '8104.90 - Loại khác', 'Magie được tách từ một số các nguyên liệu thô mà hầu như tất cả chúng không nằm ở trong chương 26 (các loại quặng), mà ở trong chương 25 hoặc 31, ví dụ Dolomite (nhóm 25.18), magiesite (hoặc Grobertite) nhóm 25.19 và Carmallite (nhóm 31.04). Nó cũng được tách từ nước biển hoặc nước mặn tự nhiên (nhóm 25.01) và từ dung dịch kiềm có chứa Clorua magie.', 'Ở giai đoạn đầu của công nghiệp sản xuất kim loại này, Clorua magie hoặc oxit Magie (Magiesia) được sản xuất bằng các phương pháp khác nhau tuỳ thuộc nguồn magie được sử dụng, việc chế luyện kim loại đó thường dựa trên cơ sở một trong 2 loại phản ứng sau:', '(A) Điện phân Clorua magie hoà tan được pha trộn với các chất trợ dụng như muối Clorua kim loại kiềm hoặc muối Florua magie đã được tách sẽ thu được trên bề mặt của catốt và clorine bị rút ra tại anôt.', '(B) Phương pháp khử nhiệt của oxit magie bằng cacbon, fero silic, cacbua silic cacbua calci, nhôm... Khi phản ứng trong nhiệt độ cao sẽ làm bốc hơi kim loại này rồi ngưng tụ ở dạng rất tinh khiết ngay khi nguội lạnh.', 'Kim loại thu được bằng phương pháp điện phân thông thường đòi hỏi phải tinh chế sâu, magie thu được bằng phương pháp khử nhiệt thường có độ tinh khiết đến mức mà nó có thể được nấu chảy và đúc thỏi mà không cần tinh chế hơn nữa.', '*', '*     *', 'Magie là kim loại có màu sáng bạc như nhôm nhưng nó thậm chí còn nhẹ hơn nhôm. Nó có thể đạt được mức độ bóng rất cao nhưng độ bóng đó mất đi khá nhanh khi để lộ ra ngoài không khí vì hình thành lớp oxit mỏng để bảo vệ kim loại chống lại ăn mòn. Magie ở dạng dây, dải, lá mỏng, và bột cháy dữ dội với ánh sáng chói loà và phải cẩn thận khi xử lý. Có khả năng gây nổ bột magie mịn nguyên chất khi hòa với không khí.', '*', '*    *', 'Magie không hợp kim được sử dụng trong điều chế các hợp chất hoá học, như tác nhân khử ôxi và sunfua trong quá trình luyện kim (Ví dụ: trong sản xuất sắt, đồng, niken và các hợp kim của chúng) trong sản xuất pháo hoa...', 'Kim loại tinh khiết có thuộc tính cơ học kém, nhưng khi kết hợp với các nguyên tố hoá học khác nó tạo nên hợp kim rất bền, nó có thể được cán, kéo đùn ép và đúc, và bởi vậy chúng có nhiều ứng dụng công nghiệp trong ngành công nghiệp kim loại nhẹ.', '*', '*    *', 'Các hợp kim Magie chủ yếu, có thể được phân loại trong chương này theo các điều khoản của Chú giải 5 Phần XV (Xem chú giải tổng quát của phần) gồm:', '(1) Các hợp kim Magie - Nhôm hoặc Magie-Nhôm-Kẽm thường thường chứa Mangan. Có một số hợp kim cơ bản là Magie thuộc thể loại "elektron" hoặc "Dow".', '(2) Các hợp kim Magie-Zicronium, thường có chứa thêm kẽm.', '(3) Hợp kim Magie-Mangan hoặc Magie-Cerium.', 'Tính nhẹ, bền và chống ăn mòn kim loại của các hợp kim tạo cho chúng phù hợp khi sử dụng trong công nghiệp máy bay. Ví dụ: Sản xuất vỏ động cơ, bánh xe, bộ phận chế hoà khí, các bệ đỡ Manhetô, các thùng chứa xăng hoặc dầu), trong công nghiệp ôtô, trong xây dựng nhà, trong sản xuất các bộ phận máy và các phụ tùng, đặc biệt là các máy dệt (thoi, suốt chỉ, máy cuốn chỉ) các máy công cụ, máy chữ, máy khâu, cưa xích, máy cắt cỏ, thang hoặc thiết bị gia công nguyên vật liệu hoặc như các loại khuôn in Litô...', '*', '*    *', 'Việc phân loại các sản phẩm Magie không bị ảnh hưởng bởi các phương pháp xử lý như đã được mô tả trong Chú giải chi tiết Phần tổng quát chung Chương 72, nhằm cải tiến thuộc tính, hình dáng... của kim loại.', 'Nhóm này bao gồm :', '(1) Magie chưa gia công ở dạng thỏi, các thanh có khía rãnh, phiến, que, bánh, khối lập phương và các dạng tương tự. Những hàng hoá đó nhìn chung dùng cho việc cán, kéo, đùn ép hoặc rèn, hoặc đúc thành sản phẩm đã định dạng.', '(2) Magie ở dạng phế liệu và mảnh vụn. Chú giải Chi tiết nhóm 72.04 với sửa đổi phù hợp cũng được áp dụng cho nhóm này.', 'Nhóm này bao gồm mạt giũa, phoi tiện và dạng hạt khi chúng chưa được phân loại hoặc lựa chọn theo kích thước. Mạt giũa, phoi tiện và hạt đã được phân loại hoặc lựa chọn theo kích cỡ được mô tả trong nhóm (3) phía dưới.', '(3) Các thanh, que, dạng hình, tấm, lá và dải, lá mỏng, dây các loại ống và ống dẫn, dạng hình rỗng, dạng bột và vảy, mạt giũa, phoi tiện và dạng hạt có kích cỡ đồng dạng.', 'Nhóm này bao gồm các loại Magie ở dạng thương mại như sau:', '(a) Các sản phẩm (các thanh đã gia công, que, dạng hình, dây, tấm, lá, dải và lá mỏng) thu được bởi việc cán kéo, đùn, ép, rèn... các sản phẩm của nhóm (1) ở trên, các loại ống và ống dẫn và dạng hình rỗng (Xem chú giải giải thích tương ứng các nhóm cho sản phẩm tương tự của các kim loại cơ bản khác).', 'Những hàng hoá này được tính đến khi nguyên tố kim loại cấu thành đòi hỏi phải vừa nhẹ vừa bền (Xem phía trên).', '(b) Mạt giũa, phoi tiện và hạt cùng kích cỡ và tất cả các loại ở dạng bột và vảy.', 'Các sản phẩm này được sử dụng trong sản xuất pháo hoa (các sản phẩm cháy, tín hiệu...) các tác nhân khử trong ngành hoá học hoặc luyện kim... Mạt giũa, phoi tiện và dạng hạt đặc biệt được tạo ra và phân loại để sử dụng riêng cho những mục đích này.', '(4) Các sản phẩm khác.', 'Nhóm này bao gồm tất cả các sản phẩm của Magie không được mô tả trong các nhóm trước hoặc tại Chú giải 1 Phần XV hoặc trong Chương 82 hoặc 83, hoặc được mô tả riêng biệt ở một nhóm trong Danh mục.', 'Do magie chủ yếu được sử dụng trong việc sản xuất máy bay, xe cộ và các bộ phận máy (xem ở trên) nên phần lớn các sản phẩm của magie được phân loại ở một nhóm khác (đặc biệt trong các Phần XVI và XVII)', 'Các sản phẩm được phân loại ở đây gồm:', '(a) Các kết cấu và các phần của kết cấu.', '(b) Các bể chứa, thùng chứa và các đồ chứa tương tự, không gắn với các thiết bị cơ khí hoặc thiết bị nhiệt và các thùng phuy, thùng hình trống và bình chứa.', '(c) Lưới kim loại.', '(d) Bulông, đai ốc, ốc vít...', 'Nhóm này không bao gồm xỉ, tro và phần còn lại của quá trình sản xuất của magie (nhóm 26.20).', '*', '*    *', 'Chú giải phân nhóm.', 'Phân nhóm 8104.11 và 8104.19', 'Các phân nhóm này cũng bao gồm các thỏi và các dạng chưa gia công tương tự được đúc từ phế liệu và mảnh vụn của magie nấu lại', '81.05 – Coban sten và các sản phẩm trung gian khác từ luyện coban; coban và các sản phẩm bằng coban, kể cả phế liệu và mảnh vụn.', '8105.20 - Coban sten và các sản phẩm trung gian khác thu được từ luyện coban; coban chưa gia công; bột', '8105.30 - Phế liệu và mảnh vụn', '8105.90 - Loại khác', 'Coban thu chủ yếu từ quặng Heterogenite (Hydrateldoxide coban) Linnalite (Sulffat coban và Niken) và Smaltite (Coban Asen). Khi được nấu chảy, quặng sunphat và Arsennide tạo ra các chất sten và các sản phẩm trung gian khác. Sau khi xử lý để loại trừ các kim loại khác, ôxit coban thu được và được khử bằng cacbon, Nhôm... Kim loại đó cũng thu được bằng quá trình điện phân và bằng quá trình xử lý các phần còn lại từ quá trình tinh luyện đồng, niken, bạc...', 'Coban có màu bạc, là kim loại chống lại sự ăn mòn, cứng hơn Niken và là kim loại có từ tính cao nhất trong các kim loại không chứa sắt.', 'Ở trạng thái tinh khiết, nó được sử dụng như một chất phủ các kim loại khác (bởi việc kết tủa điện phân) như một chất xúc tác, như một chất liên kết trong việc sản xuất các dụng cụ cắt gọt bằng cácbua kim loại, như một thành phần của nam châm Samaricoban hoặc của một số loại thép hợp kim...', 'Có nhiều hợp kim Coban, có thể nằm trong nhóm phù hợp với Chú giải 5 Phần XV bao gồm:', '(1) Nhóm coban-Crom-volfram "Stelit" (thường chiếm tỷ lệ nhỏ trong các nguyên tố khác). Nó được sử dụng trong sản xuất van và chân van, các dụng cụ,... do khả năng chống lại sự mài mòn và ăn mòn ở nhiệt độ cao.', '(2) Các hợp kim Coban-Sắt-Crôm. Ví dụ: loại dẫn nhiệt thấp và có khả năng từ tính lớn.', '(3) Hợp kim Coban - Crôm - Molybden, được sử dụng trong sản xuất động cơ phản lực.', 'Nhóm này bao gồm coban sten, các sản phẩm trung gian trong quá luyện kim coban và coban ở tất cả các dạng của nó, ví dụ: thỏi, catot, hạt nhỏ, bột, phế liệu và mảnh vụn và những sản phẩm chưa được chi tiết ở nơi khác', '81.06 – Bismut và các sản phẩm làm từ bismut, kể cả phế liệu và mảnh vụn.', '8106.10 – Chứa hàm lượng bismut trên 99,99%, tính theo khối lượng', '8106.90 – Loại khác', 'Kim loại này xuất hiện ở trạng thái tự nhiên, nhưng nó chủ yếu thu được từ việc tinh chế các phần còn lại của chì, đồng... hoặc bởi việc chiết tách từ các quặng Sulphat hoặc cacbonat (ví dụ: Bismuthini và Bismutite).', 'Bismut có màu trắng với sắc độ hồng, dễ gãy, rất khó để gia công và là chất dẫn (điện, nhiệt...) kém.', 'Nó được dùng trong thiết bị khoa học và điều chế các hỗn hợp hoá chất dùng cho dược học.', 'Nó hình thành Các hợp kim dễ nóng chảy (một số có độ nóng chảy dưới 100 °C) mà một số hợp kim sau đây có thể nằm trong nhóm phù hợp với Chú giải 5 Phần XV :', '(1) Các hợp kim Bismut-chì-thiếc (đôi khi có Cadmium...) Ví dụ: các hợp kim của Darcet, Lipowit, Newton hoặc Wood được sử dụng như các hợp kim hàn, các hợp kim đúc, các thành phần dễ nóng chảy cho các bình dập lửa, các nồi hơi.', '(2) Các hợp kim Bismut-Indium-chì-thiếc-Cadmium, làm các khuôn đúc.', '81.08 – Titan và các sản phẩm làm từ titan, kể cả phế liệu và mảnh vụn.', '8108.20 - Titan chưa gia công; bột', '8108.30 - Phế liệu và mảnh vụn', '8108.90 - Loại khác', 'Titan thu được bởi khử các quặng ôxit Rutile và Brookite và từ Ilmenite (Quặng sắt- Titanferousiron). Tuỳ thuộc theo cách sử dụng, kim loại này có thể được thu ở dạng khối đặc, như một loại bột cho việc thiêu kết (như trong trường hợp Volfram) hoặc ở dạng fero- titan (Chương 72) hoặc cacbua Titan.', 'Titan có màu trắng và sáng bóng khi ở dạng rắn chắc (đặc) và có màu đen xám khi ở dạng bột, nó có khả năng chống lại sự ăn mòn kim loại, cứng và dòn trừ khi ở dạng rất tinh khiết.', 'Fero-Titan có chứa sắt và Fero-Titan - Silic (Chương 72) được sử dụng trong sản xuất thép, kim loại này cũng tạo thành hợp kim với nhôm, đồng, niken...', 'Titan chủ yếu được sử dụng trong công nghiệp máy ay, đóng tàu, cho việc chế tạo, ví dụ : thùng chứa, máy khuấy, máy trao đổi nhiệt, van và bom cho ngành hoá học, cho việc khử mặn nước biển và cho việc xây dựng các nhà máy điện hạt nhân.', 'Nhóm này bao gồm titan ở tất cả các dạng: Đặc biệt ở dạng đá bọt, thỏi (đúc), bột, Anot, thanh và que, tấm và lá, phế liệu và mảnh vụn và các sản phẩm trừ các sản phẩm được mô tả tại các chương khác của Danh mục (nói chung Phần XVI hoặc XVII) như là các cánh quạt của máy bay trực thăng, cánh chân vịt tàu, các bom hoặc van.', 'Việc phân loại của cácbua tuân theo việc phân loại của cácbua volfram (xem chú giải chi tiết nhóm 81.01).', '81.09 – Zircon và các sản phẩm làm từ zircon, kể cả phế liệu và mảnh vụn.', '- Zircon chưa gia công; bột', '8109.21 - - Chứa hàm lượng hafini trong zircon dưới 1/500 tính theo khối lượng', '8109.29 - - Loại khác', '- Phế liệu và mảnh vụn', '8109.31 - - Chứa hàm lượng hafini trong zircon dưới 1/500 tính theo khối lượng', '8109.39 - - Loại khác', '- Loại khác', '8109.91 - - Chứa hàm lượng hafini trong zircon dưới 1/500 tính theo khối lượng', '8109.99 - - Loại khác', 'Zircon thu được quặng silicat, zircon, bằng việc khử oxit, chloride... hoặc bằng điện phân.', 'Nó có màu xám bạc, và là kim loại dẻo và dễ kéo sợi.', 'Nó được sử dụng trong các bóng đèn nháy chụp ảnh, sản xuất của bộ phận thu hút khí hoặc các bộ phận hấp thụ trong các đèn điện tử Radio. Fero-Zircon (Chương 72) được sử dụng trong sản xuất thép, và kim loại này cũng tạo hợp kim với Niken,...', 'Zircon, ở dạng đơn chất hoặc đã hợp kim với thiếc (Zircalloy), cũng được sử dụng trong việc sản xuất các lớp bảo vệ của các hộp đựng nhiên liệu hạt nhân và sản xuất các kết cấu kim loại cho nhà máy hạt nhân. Hợp kim Zircon-Plutonium và hợp kim Zircon-Uranium được sử dụng như nhiên liệu hạt nhân. Để đảm bảo yêu cầu về hạt nhân, các vết Hafnium phải được loại bỏ đầu tiên.', '81.10 – Antimon và các sản phẩm làm từ antimon, kể cả phế liệu và mảnh vụn.', '8110.10 - Antimoan chưa gia công; bột', '8110.20 - Phế liệu và mảnh vụn', '8110.90 - Loại khác', 'Antimon chủ yếu thu được từ quặng Sulphat Stibnite bởi:', '(1) Sự cô đặc và nấu chảy tinh chế kim loại tạo ra một cái gọi là "Antimon thô" mà thực ra nó là sunphat thô thuộc nhóm 26.17.', '(2) Sự nấu chảy tạo ra Antimoan không tinh khiết được biết như "thuần nhât" (Antimon không tinh khiết).', '(3) Sự nấu chảy kỹ hon để tạo ra "những chiếc bát hình sao" mà sau quá trình tinh chế sẽ tạo ra những dạng tinh khiết nhất, "Antimon sao" hoặc "Kim loại của Pháp".', 'Antimon là một kim loại có màu trắng bóng với một màu xanh nhạt, dòn và dễ nghiền thành bột', 'Rất ít khi sử dụng antimon ở dạng không hợp kim. Tuy nhiên nó là hợp kim, đặc biệt khi hợp kim với chì và thiếc, làm cho chúng cứng thêm, để tạo ra Các hợp kim làm ổ trục, các loại máy in và Các hợp kim làm khuôn đúc khác, hợp kim gốc thiếc, kim loại Britannia,...(xem Chương 78 và 80 nơi mà Các hợp kim đó được xếp vào bởi vì hàm lượng trội hơn của chì hoặc thiếc).', '81.11 – Mangan và các sản phẩm làm từ mangan, kể cả phế liệu và mảnh vụn.', 'Mangan được tách ra bởi việc khử của các quặng ôxit, Pyrolusite, Braunite và Manganite, nó cũng thu được bằng điện phân.', 'Là kim loại mà bản thân nó, có màu hồng xám, cứng và dòn, hiếm khi được sử dụng ở dạng như vậy.', 'Tuy nhiên nó là một thành phần của gang kính, Fero Mangan, Silico-Mangan, các loại gang hợp kim và các loại thép hợp kim, các sản phẩm này thường nằm trong Chương 72, nhưng Fero Mangan và Silico- Mangan đôi khi có thể xếp vào trong nhóm này nếu hàm lượng sắt là rất thấp (Xem Chú giải 1(c) Chương 72). Mangan cũng được hợp kim với đồng, niken, nhôm...', '81.12 – Beryli, crôm, hafini, reni, tali, cađimi, germani, vanadi, gali, indi và niobi (columbi), và các sản phẩm từ các kim loại này, kể cả phế liệu và mảnh vụn.', '- Beryli:', '8112.12 - - Chưa gia công; bột', '8112.13 - - Phế liệu và mảnh vụn', '8112.19 - - Loại khác', '- Crôm:', '8112.21- - Chưa gia công; bột', '8112.22- - Phế liệu và mảnh vụn', '8112.29 - -  Loại khác', '-Hafnium:', '8112.31- - Chưa gia công; phế liệu và mảnh vụn; bột', '8112.39 - - Loại khác', '- Reni', '8112.41 - - Chưa gia công; phế liệu và mảnh vụn; bột', '8112.49 - - Loại khác', '-Tali:', '8112.51  - -  Chưa gia công; bột', '8112.52  - -  Phế liệu và mảnh vụn', '8112.59  - -  Loại khác', '- Cađimi:', '8112.61 - - Phế liệu và mảnh vụn', '8112.69 - - Loại khác', '- Loại khác:', '8112.92  - -  Chưa gia công; phế liệu và mảnh vụn; bột', '81.12.99 - - Loại khác', '(A) BERILI', 'Berili thu được hầu như chỉ từ Beryl, một loại silicat kép của berili và nhôm, nó được phân loại theo nhóm 26.17 trừ khi nó ở dạng đá quý (ví dụ: ngọc xanh) (Chương 71).', 'Phương pháp tách xuất mang tính thương mại chủ yếu của kim loại này là:', '(1) Điện phân ở nhiệt độ cao hỗn hợp của ôxy + fluorua Berili được sản xuất từ quặng (BeO2F2) và Bari hoặc các loại Fluorua khác. Mỗi nồi nấu Graphite được sử dụng như Anôt và kim loại này được thu lại trên catôt sắt được làm mát bằng nước.', '(2) Khử Fluoride Berili bằng magie.', '*', '*    *', 'Berili là một kim loại màu xám thép, rất nhẹ và cứng nhưng cực giòn, nó chỉ có thể được cán hoặc kéo theo các điều kiện rất đặc biệt.', '*', '*    *', 'Berili không hợp kim được sử dụng trong sản xuất cửa sổ cho các loại ống dẫn tia X; các nguyên liệu cho các lò phản ứng hạt nhân; trong ngành công nghiệp hàng không và vũ trụ; trong ngành công nghiệp chế tạo vũ khí; đích ngắm cho máy gia tốc; trong các điện cực cho đèn nêông...; tác nhân khử ôxit trong công nghiệp luyện kim.', 'Nó cũng được dùng trong việc chế tạo nhiều hợp kim, ví dụ với thép (lò xo thép...) với đồng (ví dụ hợp kim đồng Berili được sử dụng cho sản xuất các lò xo, đồng hồ hoặc các bộ phận của đồng hồ, các dụng cụ...); với niken. Tuy nhiên, Các hợp kim này được phân loại tương ứng trong Chương 72, 74 hoặc 75 do chúng chỉ chứa các tỷ lệ rất nhỏ Berili.', 'Nhóm này bao gồm Berili ở tất cả các dạng của nó, kim loại chưa gia công (ở dạng khối, hạt, lập phương...) các sản phẩm (dạng thanh, que, dây, lá...) và các mặt hàng. Tuy nhiên, các hàng hoá tạo nên các mặt hàng đặc trưng dễ nhận dạng như các bộ phận máy, các bộ phận của các thiết bị... bị loại trừ khỏi nhóm này (xem các Chương 85 và 90).', '(B) CRÔM', 'Crôm chủ yếu thu được từ Chromrite (quặng sắt Crôm) nó được chuyển đổi thành dạng Sesquioxyde sau đó nó bị khử để tạo ra kim loại.', 'Có màu xám thép khi chưa đánh bóng, nhưng trắng sáng khi đánh bóng, rất cứng và chống lại ăn mòn kim loại, nhưng nó không dẻo hoặc không dễ kéo sợi.', 'Crôm tinh khiết cấu thành lớp phủ nhiều mặt hàng thuộc các kim loại khác (phủ Crôm bằng điện phân). Công dụng chủ yếu crôm (thường ở dạng fero-crôm, xem chương 72) là ở trong quá trình luyện thép không gỉ. Tuy nhiên, hầu hết Các hợp kim của kim loại này (ví dụ: với Niken hoặc Coban) bị loại trừ khỏi nhóm này theo Chú giải 5 Phần XV.', 'Một số hợp kim có thành phần cơ bản là Crôm được sử dụng trong động cơ phản lực, các loại ống bảo vệ cho các bộ phận sưởi nóng bằng điện,,..', '(C) GERMANI', 'Germani được tách từ các chất thải của quá trình sản xuất kẽm, từ quặng Gemanit (Sulphat Germani đồng) và từ bụi lò...', 'Germani là kim loại có màu trắng hơi xám với một số thuộc tính ion điện đặc biệt chúng có khả năng được sử dụng trong việc sản xuất các linh kiện điện tử (ví dụ: diôt, transitor, đèn). Nó cũng được sử dụng cho việc hợp kim với thiếc, nhôm và vàng.', '(D) VANADI', 'Vanadi chủ yếu được tách từ quặng Patronite hoặc Camotite, thường bởi việc khử các ôxit, hoặc từ các chất thải của quá trình sản xuất sắt, Radium hoặc uranium. Với tư cách là kim loại nguyên chất ít có công dụng, nó thường được tạo ra fero-vanadi chứa sắt (chương 72) hoặc như hợp kim mầu Vanadi đồng (chương 74), chúng còn được sử dụng trong hợp kim với thép, đồng, nhôm...', '(E) GALI', 'Gali thu được dưới dạng một sản phẩm phụ trong quá trình khai thác nhôm, kẽm, đồng và germani, hoặc từ bụi lò...', 'Gali là kim loại mềm, có màu trắng xám nhạt, điểm nóng chảy ở vào khoảng 30°C và có điểm bốc hơi cao. Do nó tồn tại ở trạng thái lỏng qua một khoảng rộng nhiệt độ, bởi vậy được sử dụng thay cho thuỷ ngân trong nhiệt kế và đèn hồ quang. Nó cũng được dùng trong Các hợp kim cho nha khoa và cho việc mạ bạc các loại gương đặc biệt.', '(F) HAFNI(UM)', 'Hafnium được tách từ cùng một loại quặng như khi tách Zirconium (zircon...) và có các tính chất rất tương tự với kim loại đó.', 'Do tỷ lệ hấp thụ các nơtron chậm của Hafnium cao nên đặc biệt được sử dụng cho sản xuất các bộ phận điều khiển và kim màn hình hiển thị kiểm tra các lò phản ứng hạt nhân.', '(G) INDI(UM)', 'Indium được tách từ các chất thải của kẽm.', 'Nó là kim loại mềm có màu ánh bạc và có khả năng chống lại ăn mòn kim loại.', 'Bởi vậy được sử dụng một mình hoặc với kẽm... để phủ lên kim loại khác. Nó cũng được hợp kim với bismut, chì hoặc thiếc (hợp kim được sử dụng làm khuôn đúc phẫu thuật) với đồng hoặc chì (Các hợp kim chịu lực ma sát) và với vàng (trong đồ trang sức, Các hợp kim dùng cho nha khoa...).', '(H) NIOBI(UM) (COLOMBIUM)', 'Niobium thu được từ các quặng niobite (columbite) và Tantante, chúng được xử lý để thu được Fluoride Niobium-Potasium. Kim loại này sau đó được tách bằng điện phân hoặc các phương pháp khác.', 'Niobium là một kim loại có màu xám bạc được sử dụng trong sản xuất các máy thu nhận khí (để làm mất đi dấu vết cuối cùng trong sản xuất đèn radio).', 'Niobium và hợp kim fero của nó (chương 72) cũng được sử dụng trong sản xuất thép và Các hợp kim khác.', '(IJ) RHENI(UM)', 'Rhenium thu được dưới dạng một sản phẩm phụ trong quá trình tách Molypden, đồng...', 'Hiện nay, nó không được sử dụng nhiều, nhưng rhenium được đề cập đến trong việc mạ sử dụng làm chất xúc tác.', '(K) THALLI(UM)', 'Thallium được tách từ các chất thải của quá trình xử lý quặng pyrit và các loại quặng khác. Nó là kim loại mềm, có màu trắng xám nhạt giống như chì.', 'Thalium được hợp kim với chì (để nâng cao điểm nóng chảy, và để tăng độ bền, khả năng chống ăn mòn kim loại...) và với bạc (để ngăn ngừa sự xỉn).', '(L) CAĐIMI', 'Cađimi thu được chủ yếu từ phần còn lại của quá trình tách kẽm, đồng hoặc chì, thường bằng các phương pháp chưng cất hoặc điện phân.', 'Cađimi tương tự như kẽm về hình dạng nhưng mềm hơn.', 'Nó được sử dụng chủ yếu để tráng phủ kim loại khác (bằng phương pháp phun hoặc mạ điện) như một chất khử ôxy trong sản xuất đồng, bạc, niken…', 'Do tỷ lệ hấp thụ các hạt Nơtron chậm rất cao, nó cũng được sử dụng cho việc sản xuất bộ phận điều khiển cơ động và các kim màn hình hiển thị cho lò phản ứng hạt nhân.', 'Các hợp kim Cađimi chính có thể phân loại vào trong nhóm này phù hợp với Chú giải 5 Phần XV là các hợp kim Cađimi –kẽm được sử dụng cho việc tráng phủ chất chống ăn mòn kim loại bằng phương pháp nhúng nóng, như hợp kim hàn và cho việc hàn bằng đồng.', 'Tuy nhiên các hợp kim khác có chứa các kim loại cùng loại (ví dụ: một số hợp kim làm ổ đỡ) có thể bị loại trừ.', '81.13 – Gốm kim loại và các sản phẩm làm từ gốm kim loại, kể cả phế liệu và mảnh vụn.', 'Gốm kim loại chứa cả hai cấu thành: một cấu thành là gốm (chịu nhiệt và có điểm nóng chảy cao) và một cấu thành là kim loại.Quá trình sản xuất các sản phẩm này, và cả các tính chất lý học và hoá học của chúng, có liên quan tới cả hai cấu thành gốm và kim loại, bởi vậy chúng có tên là Gốm kim loại.', 'Cấu thành gốm luôn luôn bao gồm oxit, cacbua, Borides,...', 'Cấu thành kim loại gồm: Sắt, Niken, Nhôm, Crôm hoặc Coban.', 'Gốm kim loại được chế tạo bởi việc thiêu kết, phân tán hoặc bởi các quá trình khác.', 'Gốm kim loại quan trọng nhất thu được từ:', '(1) Một kim loại và một ôxit, ví dụ: Oxit Magie-sắt, ôxit Magie-Niken, ôxit- nhôm-Crôm, ôxit nhôm-nhôm.', '(2) Zirconium hoặc Borua crôm, các sản phẩm đó được biết dưới cái tên Borolites.', '(3) Zirconium, crôm, tungsten... các cacbua với coban, niken hoặc niobium.', '(4) Cacbua Bo và nhôm: các sản phẩm mạ nhôm được biết dưới cái tên gốm kim loại boral.', 'Nhóm này bao gồm: các loại Gốm kim loại đã hoặc chưa qua gia công hoặc ở dạng của các mặt hàng không được phân loại ở một nơi khác trong Danh mục.', 'Gốm kim loại được sử dụng trong công nghiệp hàng không và công nghiệp hạt nhân và trong tên lửa, chúng cũng được sử dụng trong các lò đốt và các lò đúc kim loại (ví dụ: như các nồi rót, vòi phun, các ống) trong việc sản xuất các ổ trục, các lớp lót phanh...)', 'Nhóm này không bao gồm:', '(a) Gốm kim loại chứa các chất phân hạch hoặc phóng xạ (nhóm 28.44).', '(b) Các tấm, que, các đầu mẩu và những thứ tương tự để làm dụng cụ bằng Gốm kim loại với một nền tảng của cacbua kim loại được kết tụ bằng quá trình thiêu kết (nhóm 82.09).', 'Chương 82', 'Dụng cụ, đồ nghề, dao, kéo, bộ đồ ăn làm từ kim loại cơ bản; các bộ phận của chúng làm từ kim loại cơ bản', 'Chú giải.', '1. - Ngoài các mặt hàng như đèn khò, bộ bệ rèn di động, các loại đá mài có lắp gá đỡ, bộ sửa móng tay hoặc móng chân, và các mặt hàng thuộc nhóm 82.09, Chương này chỉ bao gồm các sản phẩm lưỡi dao, lưỡi cắt, bề mặt làm việc hoặc bộ phận làm việc khác bằng:', '(a) Kim loại cơ bản;', '(b) Cacbua kim loại hoặc gốm kim loại;', '(c) Đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo) gắn với nền kim loại cơ bản, cacbua kim loại hoặc gốm kim loại; hoặc', '(d) Vật liệu mài gắn với nền kim loại cơ bản, với điều kiện các sản phẩm đó có răng cắt, đường máng, đường rãnh soi hoặc tương tự, bằng kim loại cơ bản, các sản phẩm đó vẫn giữ được đặc tính và chức năng sau khi được gắn với vật liệu mài.', '2 - Các bộ phận bằng kim loại cơ bản của các sản phẩm thuộc Chương này được phân loại theo các sản phẩm đó, trừ các bộ phận được chi tiết riêng và tay cầm cho các loại dụng cụ cầm tay (nhóm 84.66).', 'Tuy nhiên, các bộ phận có công dụng chung nêu trong Chú giải 2 Phần XV được loại trừ khỏi Chương này trong mọi trường hợp.', 'Đầu, lưỡi dao và lưỡi cắt của máy cạo râu dùng điện hoặc tông đo cắt tóc dùng điện được xếp vào nhóm 85.10.', '3. - Bộ gồm 1 hoặc nhiều dao thuộc nhóm 82.11 và ít nhất là một số lượng tương đương các sản phẩm thuộc nhóm 82.15 được phân loại trong nhóm 82.15.', 'TỔNG QUÁT', 'Chương này bao gồm một số loại sản phẩm đặc biệt làm từ kim loại cơ bản, mang tính chất của các dụng cụ, đồ nghề, dao, kéo, bộ đồ ăn..., chúng được loại trừ khỏi các chương trước của phần XV và chúng không phải là máy móc hoặc trang thiết bị thuộ</t>
+  </si>
+  <si>
+    <t>['Chú giải.', '1. - Ngoài các mặt hàng như đèn khò, bộ bệ rèn di động, các loại đá mài có lắp gá đỡ, bộ sửa móng tay hoặc móng chân, và các mặt hàng thuộc nhóm 82.09, Chương này chỉ bao gồm các sản phẩm lưỡi dao, lưỡi cắt, bề mặt làm việc hoặc bộ phận làm việc khác bằng:', '(a) Kim loại cơ bản;', '(b) Cacbua kim loại hoặc gốm kim loại;', '(c) Đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo) gắn với nền kim loại cơ bản, cacbua kim loại hoặc gốm kim loại; hoặc', '(d) Vật liệu mài gắn với nền kim loại cơ bản, với điều kiện các sản phẩm đó có răng cắt, đường máng, đường rãnh soi hoặc tương tự, bằng kim loại cơ bản, các sản phẩm đó vẫn giữ được đặc tính và chức năng sau khi được gắn với vật liệu mài.', '2 - Các bộ phận bằng kim loại cơ bản của các sản phẩm thuộc Chương này được phân loại theo các sản phẩm đó, trừ các bộ phận được chi tiết riêng và tay cầm cho các loại dụng cụ cầm tay (nhóm 84.66).', 'Tuy nhiên, các bộ phận có công dụng chung nêu trong Chú giải 2 Phần XV được loại trừ khỏi Chương này trong mọi trường hợp.', 'Đầu, lưỡi dao và lưỡi cắt của máy cạo râu dùng điện hoặc tông đo cắt tóc dùng điện được xếp vào nhóm 85.10.', '3. - Bộ gồm 1 hoặc nhiều dao thuộc nhóm 82.11 và ít nhất là một số lượng tương đương các sản phẩm thuộc nhóm 82.15 được phân loại trong nhóm 82.15.', 'TỔNG QUÁT', 'Chương này bao gồm một số loại sản phẩm đặc biệt làm từ kim loại cơ bản, mang tính chất của các dụng cụ, đồ nghề, dao, kéo, bộ đồ ăn..., chúng được loại trừ khỏi các chương trước của phần XV và chúng không phải là máy móc hoặc trang thiết bị thuộc Phần XVI (xem ở dưới) cũng không phải là dụng cụ hoặc thiết bị thuộc Chương 90, không phải là các sản phẩm thuộc nhóm 96.03 hoặc 96.04.', 'Chương này bao gồm:', '(A) Các dụng cụ được sử dụng bằng tay, ngoài các ngoại lệ đã được chi tiết (ví dụ: lưỡi cưa máy) (các nhóm 82.01 tới 82.05).', '(B) Bộ dụng cụ từ hai nhóm trở lên thuộc các nhóm từ 82.02 đến 82.05, đã đóng bộ để bán lẻ (nhóm 82.06).', '(C) Các dụng cụ có thể tháo lắp thay thế được dùng cho các dụng cụ cầm tay, dùng cho các máy công cụ hoặc dùng cho các dụng cụ cầm tay hoạt động bằng điện (nhóm 82.07), dao và lưỡi cắt cho các máy móc hoặc các thiết bị cơ khí (nhóm 82.08) và các chi tiết hình đĩa, thanh cỡ nhỏ, mũi chóp và các chi tiết tương tự dùng cho dụng cụ (nhóm 82.09).', '(D) Các mặt hàng dao, kéo (mục đích chuyên dùng, cho cá nhân hoặc mục đích gia dụng) một số các thiết bị cơ khí gia dụng, thìa và nĩa và bộ đồ ăn tương tự và các dụng cụ dùng trong nhà bếp (nhóm 82.10 tới 82.15).', 'Nhìn chung, Chương này bao gồm các dụng cụ có thể được sử dụng độc lập bằng tay, có thể có hoặc không việc chúng kết hợp với một số cơ chế đơn giản khác như bánh răng, tay quay điều khiển, pit tông, cơ cấu ren vít hoặc cần bẫy. Tuy nhiên các thiết bị nhìn chung được phân loại trong Chương 84 nếu chúng được thiết kế cho việc cố định vào một chiếc ghế, vào tường... hoặc nếu chúng được gắn với các tấm bệ, giá đỡ, khung chịu lực... để đứng trên sàn, trên ghế... do lý do về khối lượng kích cỡ hoặc mức độ dùng lực được đòi hỏi cho sự sử dụng của chúng.', 'Bởi vậy một chiếc khoan tay mà người công nhân sử dụng nó một cách thoải mái bằng tay, không có hỗ trợ là một dụng cụ được xếp trong nhóm 82.05 mặc dù nó bao gồm một cơ chế bánh răng đơn giản; mặt khác, một chiếc khoan thiết kế gắn với một giá đỡ hoặc khung chịu lực sẽ được phân loại trong nhóm 84.59. Tương tự, các dụng cụ cắt kim loại kiểu kìm được phân loại trong nhóm 82.03, trái lại dụng cụ cắt kiểu máy chém gắn một giá đỡ hoặc bệ tựa lại được phân loại trong nhóm 84.62 thậm chí nếu nó được sử dụng bằng tay.', 'Tuy nhiên, có các ngoại lệ đối với quy luật này, về cả 2 phương diện, tuỳ thuộc bản chất của dụng cụ. Như vậy những mỏ cặp, bánh mài kèm theo khung và bộ bệ rèn có thể di chuyển được được đặc biệt xếp vào nhóm 82.05. Tương tự như vậy một số dụng cụ cơ khí (Cối xay cà phê, máy ép hoa quả, cối xay thịt...) được phân loại trong nhóm 82.10 có những tiêu chuẩn đặc biệt áp dụng cho chúng (Xem phần chú giải dưới). Mặt khác, Chương 84 bao gồm những dụng cụ nhất định được sử dụng bằng tay một cách độc lập như những dụng cụ dùng để phun chất lỏng và bọt (nhóm 84.24), những dụng cụ chạy bằng khí nén (nhóm 84.67), máy đóng ghim văn phòng không phải kiểu súng lục (nhóm 84.72), một vài dụng cụ thiết bị ngày nay là những dụng cụ rất nhỏ khó có thể diễn tả do chúng có những tấm đế hoặc có giá đỡ.', '*', '*    *', 'Các dụng cụ, dao, kéo... nhìn chung không xếp trong chương này, trừ khi những dụng cụ đó có lưỡi, bề mặt làm việc hoặc bộ phận làm việc khác cấu tạo từ kim loại cơ bản, từ cácbua kim loại (Xem phần chú giải nhóm 28.49) hoặc từ gốm kim loại (Xem phần chú giải nhóm 81.13) miễn là chúng đáp ứng được điều kiện này, những dụng cụ này vẫn nằm trong chương thậm chí chúng có gắn những cán tay, hoặc phần thân không phải là kim loại có khối lượng vượt quá khối lượng của bộ phận làm việc được làm từ kim loại (ví dụ một cái bào bằng gỗ với một lưỡi bào kim loại).', 'Tuy vậy Chương này cũng bao gồm những dụng cụ mà bộ phận làm việc được làm từ đá tự nhiên, đá tổng hợp hoặc đá quý được tái tạo hoặc đá bán quý (ví dụ kim cương đen) gắn với một giá (bệ) đỡ là kim loại cơ bản, cácbua kim loại hoặc gốm kim loại; hơn nữa, trong một vài trường hợp nhất định, bộ phận làm việc có thể là kim loại cơ bản được gắn hoặc được bọc bằng các chất liệu chịu mòn.', 'Đối với những quy tắc chung này cũng có những ngoại lệ trong trường hợp của các dụng cụ nhất định, đã được đề cập riêng trong các nhóm(Ví dụ: Bệ rèn có thể di chuyển được và bánh mài gắn kèm theo giá đỡ). Hơn thế nữa, rất ít các loại dụng cụ mài nằm trong phạm vi của chương (Xem các phần chú giải thuộc các nhóm 82.02 và 82.07) do nhóm 68.04 gồm có bánh mài, các dụng cụ tương tự (Kể cả các thiết bị mài, mài sắc, đánh bóng, điều chỉnh và cắt...) làm từ đá tự nhiên, từ các chất chịu mòn đã thiêu kết, hoặc từ gốm có hoặc không có lõi, chuỗi, lỗ cắm, trục hoặc các dụng cụ tương tự bằng các chất liệu khác nhưng không có giá đỡ.', 'Các dụng cụ có thể tháo lắp thay thế được, làm từ kim loại cơ bản, dùng cho các dụng cụ cầm tay, dùng cho các máy công cụ hoặc dùng cho các dụng cụ cầm tay hoạt động bằng điện bị loại khỏi chương này bởi vì bộ phận làm việc không được làm bằng một trong những chất liệu cụ thể trong chú giải 1, được xếp theo vật liệu cấu thành của bộ phận làm việc. Ví dụ: Những bộ phận làm bằng cao su (Chương 40), bằng da (Chương 42), bằng da lông thú (Chương 43), bằng lie (Chương 45), bằng vải dệt (Chương 59), bằng các vật liệu gốm (nhóm 69.09). Các loại bàn chải để sử dụng trong các loại máy được phân loại trong nhóm 96.03.', 'Các bộ phận là kim loại Cơ bản có thể xác định được của các dụng cụ, dao kéo... (Ví dụ: các khung cưa, lưỡi bào) thông thường được phân loại trong những nhóm tương tự như các mặt hàng hoàn thiện. Quy tắc này tuy nhiên không áp dụng đối với các bộ phận là đối tượng thuộc một nhóm đặc biệt. Các dây xích, đinh, bulông, đai ốc, vít, đinh tán, lò xo (Ví dụ: dùng trong: kéo cắt cành) và các bộ phận có công dụng chung khác như định nghĩa ở chú giải 2 phần XV bị loại trừ khỏi chương này và nằm trong các chương phù hợp (các Chương 73 tới 76 và 78 tới 81).', 'Bộ dao kéo và các mặt hàng khác được phân loại trong nhóm 82.08 tới 82.15 có thể gắn đầu tỉa nhỏ bằng kim loại quý hoặc kim loại dát bằng kim loại quý (ví dụ: chữ lồng hoặc giải nẹp) tuy nhiên nếu chúng bao gồm các bộ phận khác (ví dụ: cán hoặc lưỡi) bằng kim loại quý hoặc nếu chúng chứa đựng các hạt ngọc trai tự nhiên hoặc nhân tạo (nuôi), hoặc các loại đá quý, hoặc bán quý (tự nhiên, tổng hợp hoặc tái chế) (trừ các bộ phận làm việc miêu tả ở trên) chúng được phân loại trong Chương 71.', '*', '*    *', 'Chương này không bao gồm:', '(a) Các dụng cụ, kéo và các bộ dụng cụ cắt khác thuộc loại được sử dụng như các thiết bị hoặc dụng cụ dùng cho ngành y, nha khoa, phẫu thuật hoặc thú y (nhóm 90.18).', '(b) Các dụng cụ rõ ràng mang tính chất đồ chơi (Chương 95).', '82.01 – Dụng cụ cầm tay, gồm: mai xẻng, cuốc chim, cuốc, dụng cụ xới và làm tơi đất, chĩa và cào; rìu, câu liêm và các dụng cụ tương tự dùng để cắt chặt; kéo cắt cây và kéo cắt tỉa các loại; hái, liềm, dao cắt cỏ, kéo tỉa xén hàng rào, cái nêm gỗ và các dụng cụ khác dùng trong nông nghiệp, làm vường hoặc trong lâm nghiệp.', '8201.10- Mai và xẻng', '8201.30 - Cuốc chim, cuốc, dụng cụ xới và cào đất', '8201.40 - Rìu, câu liêm và các dụng cụ tương tự dùng để cắt chặt', '8201.50 - Kéo cắt cây và kéo cắt tỉa, kéo để tỉa loại lớn tương tự, loại sử dụng một tay (kể cả kéo cắt gia cầm)', '8201.60 - Kéo tỉa xén hàng rào, kéo tỉa xén sử dụng hai tay và các loại kéo tương tự loại sử dụng hai tay', '8201.90 - Dụng cụ cầm tay khác thuộc loại sử dụng trong nông nghiệp, làm vườn hoặc lâm nghiệp', 'Nhóm này bao gồm dụng cụ cầm tay chủ yếu sử dụng trong nông nghiệp làm vườn hoặc lâm nghiệp, mặc dầu một số loại cũng có thể được dùng cho mục đích khác (ví dụ: Làm đường, xúc đất, khai mỏ, khai thác đá, nghề mộc hoặc nghề nội trợ).', 'Nhóm này bao gồm:', '(1) Mai và xẻng bao gồm xẻng xúc than dùng trong gia đình và các loại đặc biệt (Ví dụ: dụng cụ đào rãnh cho người đi cắm trại, cho quân lính...)', '(2) Chĩa: Bao gồm cả chĩa cán dài (dễ xỉa rơm)', '(3) Cuốc chim, cuốc, dụng cụ xới, làm tơi đất và cào, bao gồm cả các loại cào cỏ, các loại cào và cuốc kết hợp, dụng cụ xới đất, dọn cỏ và xới.', '(4) Các loại rìu, câu liêm và các dụng cụ chặt đốn tương tự, kể cả rìu đốn gỗ, rìu tay, rìu nhỏ, dao pha, rìu cong, dao cắt, dao rựa.', '(5) Kéo tỉa cây và kéo cắt tỉa tương tự loại sử dụng một tay (kể cả kéo xén lông gia cầm) Những dụng cụ này thường bao gồm hai tay cầm được khớp với nhau bằng một chiếc chốt nằm ở 3/4 chiều dài của chúng. Một trong những tay cầm này thường giới hạn trong một mặt lõm và một tay cầm khác giới hạn trong một mặt cắt lồi (liềm vẹt). Những loại dụng cụ này khác xa với các loại kéo thuộc nhóm 82.13 vì chúng không có các vòng xỏ ngón tay vào.', 'Những loại dụng cụ này hầu như luôn có một cái lò xo, lò xo nén làm hai tay tầm tách ra sau khi cắt và một móc hoặc kẹp để cho chúng có thể được mở hoặc đóng một cách dễ dàng bằng một tay. Khi cắt, chúng được thao tác (thực hiện) bằng một tay và chúng có một tác dụng rất mạnh.', 'Nhóm này còn bao gồm các loại kéo cắt cây cho người làm vườn, các loại kéo cắt hoa hoặc quả, các loại kéo dùng để cắt nho có lưỡi hẹp nhỏ.', 'Tuy nhiên nhóm này không bao gồm các loại kéo cắt cành có lưỡi với vòng xỏ ngón tay (Xem phần ghi chú giải thích nhóm 82.13).', '(6) Các loại kéo cắt hàng rào, các loại kéo xén, tỉa cầm hai tay và các loại kéo có cầm hai tay tương tự, bao gồm cả kéo cắt cỏ và kéo xén cây cảnh.', '(7) Các dụng cụ gia công bằng tay khác thuộc loại được sử dụng trong nông nghiệp, nghề làm vườn và lâm nghiệp. Những dụng cụ này bao gồm những cái hái cắt cỏ, loại liềm (Kể cả móc đóng bao, gặt hái hoặc móc cỏ) các loại dao cắt cỏ khô hoặc cắt rơm thuộc tất cả các dạng, dụng cụ trồng, gieo hạt, đào hốc, máy cầy và các xẻng bứng cây, thu hoạch hoa quả, lược chải cho bò, bàn chải ngựa và bàn chải cọ lợn. Dao cạo vỏ cây và các loại dao bóc vỏ cây, nêm gỗ, các dụng cụ của người đốn gỗ (dao quắm, kìm, búa chèn gỗ, các lưỡi vát), các dụng cụ bằng sắt dùng để xén cỏ, kéo cắt lông cừu.', 'Tất cả những dụng cụ trên nằm trong nhóm này cho dù chúng có gắn tay cầm hoặc không', 'Nhóm này cũng bao gồm các bộ phận bằng kim loại cơ bản có thể dễ nhận biết của các dụng cụ đó.', 'Nhóm này cũng không bao gồm:', '(a) Kìm đánh dấu tai cừu và kìm đánh dấu động vật khác (nhóm 82.03).', '(b) Các dụng cụ hình nêm dùng che đá, các loại đe có lưỡi cắt (nhóm 82.05).', '(c) Dao tỉa (nhóm 82.11)', '(d) Các trục làm vườn, bừa, máy cắt cỏ và các dụng cụ tương tự, những dụng cụ này được đẩy hoặc kéo bằng tay (Chương 84).', '(e) Rìu phá băng dành cho người trượt tuyết (nhóm 95.06).', '82.02 – Cưa tay; lưỡi cưa các loại (kể cả các loại lưỡi rạch, lưỡi khía răng cưa hoặc lưỡi cưa không răng).', '8202.10 - Cưa tay', '8202.20 - Lưỡi cưa vòng', '- Lưỡi cưa đĩa (kể cả các loại lưỡi cưa đã rạch hoặc khía):', '8202.31 - - Có bộ phận làm việc làm bằng thép', '8202.39 - - Loại khác, kể cả các bộ phận', '8202.40 - Lưỡi cưa xích', '- Lưỡi cưa khác:', '8202.91 - - Lưỡi cưa thẳng, để gia công kim loại', '8202.99 - - Loại khác', 'Nhóm này bao gồm:', '(A) Cưa tay dùng để cưa gỗ, cưa kim loại, đá hoặc các chất liệu khác, hoặc dùng cho thương mại hoặc sử dụng trong nhà.', 'Các loại cưa này bao gồm cưa hình cung, cưa rìu, cưa lượn, và các loại cưa khác có khung gỗ hoặc kim loại (cưa rộng bản), cưa cắt mộng, cưa hình cung, cưa cắt ngang (Thường có một tay cầm ở mỗi đầu), cưa gấp có hình dạng giống như một cái dao (gấp được hoặc không) những người làm vườn và thợ mỏ sử dụng chúng, các loại cưa đặc biệt cho thợ sửa đồng hồ và những người làm đồ trang sức, các bộ cưa lồng vào nhau, cưa có khớp dùng cho việc cắm trại, dùng cho quân sự, cưa bóc, cưa đi kèm với hộp hỗ trợ cưa, giúp tạo ra sản phẩm hoàn chỉnh có những đặc điểm thiết yếu riêng.', '(B) Lưỡi cưa các loại, dùng cho cưa tay và cưa máy và cho tất cả chất liệu, chúng bao gồm:', '(1) Lưỡi cưa vòng hoặc lưỡi cưa đai vòng liền (ví dụ, dùng các loại cho máy cưa gỗ).', '(2) Lưỡi cưa đĩa (Kể cả lưỡi cưa đã rạch hoặc khía) dùng cho các máy fay) Loại sau này có thể phân biệt với máy cắt khía răng cưa qua tỷ lệ độ dày với đường kính, tỷ lệ này nhỏ hơn đối với máy cắt khí a răng cưa và qua khớp răng, khớp răng chỉ được cắt trên đường ngoại biên với cưa đĩa thường, trái lại máy cắt khía răng cưa thường có các răng trên bề mặt của chúng hoặc có các răng lõm hoặc răng lồi', '(3) Lưỡi cưa xích (dưới dạng xích) để đốn đổ cây, cưa thân cây... răng của các lưỡi cưa như vậy thường bao gồm các phần chế tạo bằng cácbua thuộc kim loại hoặc kim loại gốm', '(4) Lưỡi cưa thẳng đối với các loại cưa cắt mộng, cưa rìu, cưa tấm... kể cả các loại cưa được xem như là "cưa vàng bạc" (các lưỡi cưa tròn có răng giống như một cái giũa, nhưng chúng được sử dụng để cưa giống như một lưỡi cưa lượn).', '(5) Lưỡi cưa cắt đá thẳng không có răng (hoặc được đập bằng búa hoặc mài bằng máy làm sao cho phẳng hoặc lượn sóng) với điều kiện là các đầu cùng của lưỡi cưa được xoi lỗ răng cưa hoặc tạo hình để cố định.', '(6) Các đĩa cắt không có răng (đĩa ma sát) để cắt đứt kim loại', 'Nhóm này cũng bao gồm các lưỡi cưa lọng. Với điều kiện là chúng có răng, dải (hoặc cắt theo chiều dài hoặc không) và các đĩa (với 1 lỗ trung tâm để định vị đĩa vào trục quay). Những loại này thường bằng thép cacbon cao', 'Các lưỡi cưa đã tạo răng sẵn hoặc được gắn những răng ghép xen kẽ với nhau hoặc các đoạn rộng (chẳng hạn như một số cưa đĩa), các răng có thể toàn bộ được làm bằng kim loại cơ bản hoặc bằng kim loại cơ bản được ghép hoặc bọc bằng các lớp cacbua kim loại, kim cương (đặc biệt là kim cương đen) hoặc trong một vài trường hợp được bọc phủ bằng các chất bột chịu mài mòn. Trong một số cưa, các răng có thể được thay thế bằng kim cương hoặc bằng các miếng cacbua kim loại bao quanh chu vi đĩa.', 'Tuy nhiên các đĩa không có răng được phủ lớp rìa là chất chịu mài mòn (Ví dụ: Để cắt đá cẩm thạch, thạch anh hoặc kính) hoặc bằng một loạt chất chịu mài mòn bao quanh vành đĩa cũng bị loại khỏi nhóm này (xem phần Chú giải Chi tiết nhóm 68.04).', 'Nhóm này bao gồm các bộ phận bằng kim loại cơ bản của cưa tay được trình bày riêng lẻ (Ví dụ: Khung, cánh cung, cán và thanh kéo) và các răng bằng kim loại cơ bản, các đoạn có răng để ghép xen kẽ lồng vào lưỡi cưa.', 'Nhóm này cũng không bao gồm:', '(a) Dây cưa đá (thường là dây thép đặc biệt được chập 3) (nhóm 73.12).', '(b) Lưỡi cắt các chuỗi lỗ mộng (nhóm 82.07).', '(c) Cưa tay có gắn động cơ (nhóm 84.67).', '(d) Đàn kéo (nhóm 92.08).', '82.03 – Giũa, nạo, kìm (kể cả kìm cắt), panh, nhíp, kéo cắt kim loại, dụng cụ cắt ống, xén bu lông, mũi đột lỗ và các dụng cụ cầm tay tương tự.', '8203.10 - Giũa, nạo và các dụng cụ tương tự', '8203.20 - Kìm (kể cả kìm cắt), panh, nhíp và dụng cụ tương tự', '8203.30 - Lưỡi cắt kim loại và dụng cụ tương tự', '8203.40 - Dụng cụ cắt ống, xén bu lông, mũi đột lỗ và các dụng cụ tương tự', 'Nhóm này bao gồm các dụng cụ có tay cầm như sau:', '(A) Giũa, nạo và các dụng cụ tương tự (Kể cả giũa, nạo đã kết hợp) các kiểu hình dạng (phẳng, tròn, nửa tròn, vuông, hình tam giác, hình ovan...) tất cả các cỡ dùng cho các chất liệu kim loại, gỗ hoặc khác.', '(B) Kìm (Kể cả kìm cắt) panh (kẹp), nhíp và dụng cụ tương tự, bao gồm:', '(1) Kìm (ví dụ: kìm kẹp chì niêm phong, kìm đánh dấu tai cừu và đánh dấu các động vật khác, kìm kẹp ống ga, kìm lồng hoặc rút chốt hãm, kìm mắt nhỏ (lỗ sâu) và kìm lỗ xâu đóng, bộ cưa kiểu kìm).', '(2) Kẹp (panh) (Ví dụ: kẹp dùng cho thợ đóng móng ngựa và kẹp dùng cho thợ rèn).', '(3) Nhíp (Ví dụ: nhíp cho thợ sửa đồng hồ, người bán hoa, người sưu tầm tem, nhíp lông...)', '(4) Kìm nhổ đinh (kiểu hàn kẹp, làm việc theo nguyên tắc kẹp)', '(C) Kéo cắt kim loại và các dụng cụ tương tự, kể cả kéo cắt tôn của thợ thiếc và các kéo cắt tấm kim loại hoặc dây thép.', '(D) Dụng cụ cắt ống, xén bulông, đột (đục) lỗ và các dụng cụ tương tự, bao gồm:', '(1) Dụng cụ cắt ống với các bánh cắt, xén bulông và dụng cụ xén, xích cắt dạng kìm.', '(2) Dụng cụ đột (đục) lỗ, ví dụ đột (đục) lỗ khuy, đục lỗ vé (trừ các loại đóng trên vé có ngày hoặc các chữ khác - nhóm 96.11), dụng cụ đục lỗ dùng cho thợ đóng yên ngựa, đục lưới sắt... cho da, nỉ đục lỗ... hoặc theo kiểu kìm hoặc theo kiểu sử dụng búa (nhưng không có đinh rắn hoặc tương tự).', 'Nhóm này cũng không bao gồm:', '(a) Kìm đục lỗ và giũa (kể cả giũa tròn) cho máy công cụ (nhóm 82.07).', '(b) Giũa móng tay, kìm bấm khóe móng tay và kiềm cắt móng tay (nhóm 82.14).', '(c) Kẹp gắp đường (nhóm 82.15).', '(d) Máy cắt kim loại kiểu cơ khí (nhóm 84.62) và các dụng cụ đục lỗ trong văn phòng có một đế để cố định hoặc đặt gắn trên bàn... (nhóm 84.72).', '(e) Cái đột lỗ trên vé có ngày hoặc các chữ khác (nhóm 96.11).', '82.04 – Cờ lê và thanh vặn ốc (bu lông) và đai ốc loại vặn bằng tay (kể cả cờ lê định lực nhưng trừ thanh văn tarô); đầu cờ lê có thể thay đổi được, có hoặc không có tay vặn.', '- Cờ lê và thanh vặn ốc (bu lông) và đai ốc, loại vặn bằng tay:', '8204.11 - - Không điều chỉnh được', '8204.12 - - Điều chỉnh được', '8204.20 - Đầu cờ lê có thể thay đổi, có hoặc không có tay vặn Nhóm này bao gồm các dụng cụ cầm tay như sau:', '(1) Cờ lê và thanh vặn đai ốc bằng tay (Ví dụ: với các hàm kẹp cố định hoặc có thể điều chỉnh được, đầu clê (đui), hộp hoặc chìa vặn đai ốc, chìa vặn đai ốc có tay quay), thanh vặn đai ốc hoặc chìa vặn đai ốc cho các loại xe đạp, xe hơi, ốc vặn đinh vít, vòi máy nước hoặc ống (Kể cả loại chìa vặn đai ốc ống kiểu chuỗi), thanh vặn đai ốc có thước đo định lực (clê lực). Tuy vậy nhóm này không bao gồm thanh vặn tarô) (nhóm 82.05).', '(2) Đầu cờ lê (chìa) vặn đai ốc có thể thay đổi, có hoặc không có cán, kể cả bộ phận điều chỉnh và mở rộng (nới rộng).', '82.05 – Dụng cụ cầm tay (kể cả đầu nạm kim cương để cắt kính), chưa được ghi hoặc chi tiết ở nơi khác; đèn xì; mỏ cặp, bàn cặp và các đồ nghề tương tự, trừ các loại phụ kiện và các bộ phận phụ trợ của máy công cụ hoặc máy cắt bằng tia nước; đe; bộ bệ rèn xách tay; bàn mài quay hoạt động bằng tay hoặc chân.', '8205.10 - Dụng cụ để khoan, ren hoặc ta rô', '8205.20 - Búa và búa tạ', '8205.30 - Bào, đục, đục máng và dụng cụ cắt tương tự cho việc chế biến gỗ', '8205.40 - Tuốc nơ vít', '- Dụng cụ cầm tay khác (kể cả đầu nạm kim cương để cắt kính):', '8205.51 - - Dụng cụ dùng trong gia đình', '8205.59 - - Loại khác', '8205.60 - Đèn hàn', '8205.70 - Mỏ cặp, bàn cặp và các đồ nghề tương tự', '8205.90 - Loại khác, bao gồm bộ dụng cụ của hai phân nhóm trở lên thuộc nhóm này', 'Nhóm này bao gồm tất cả các dụng cụ cầm tay không bao hàm các dụng cụ trong các nhóm khác thuộc Chương này, cùng với các dụng cụ khác trong phần phụ lục (Xem phần ghi Chú giải thích chung của Chương này) cùng với một số dụng cụ khác hoặc các dụng cụ được đề cập một cách cụ thể trong đầu đề.', 'Nó bao gồm phần lớn các dụng cụ cầm tay (kể cả một số có co chế thao tác bằng tay đơn giản như tay quay, bánh cóc, hệ thống bánh răng).Cụm dụng cụ này gồm:', '(A) Dụng cụ để khoan, rèn hoặc Taro như dụng cụ soi lỗ, khoan lỗ (Kể cả các kiểu bánh cóc) khoan tỳ ngực và khoan tay; hộp khoan, tay vặn tarô và đĩa bàn ren. Các dụng cụ thay thế như khoan, mũi khoan, taro và khuôn để sử dụng với những dụng cụ cầm tay này bị loại khỏi nhóm (xem nhóm 82.07).', '(B) Búa và các loại búa tạ, như búa thợ rèn, thợ nồi hơi, thợ mộc, thợ đóng móng ngựa, công nhân khai thác đá, thợ khắc đá, thợ lắp kính, thợ nề, búa đập đá, phá đá hộc và các loại búa có gắn phụ tùng như đầu cuốc chim và nhổ đinh.', '(C) Bào, đục, đục lòng máng và dụng cụ cắt tương tự cho chế biến gỗ như bào, đục máy các loại (Bào phẳng, bào khía, bào đường rãnh, bào kích...) Cạo và nạo, dao chạm và dao vẽ dùng cho thợ mộc, thợ lắp đồ gỗ, thợ làm văn phòng, thợ đóng thùng, thợ trạm.', '(D) Tuốc nơ vit (Kể cả loại răng cóc).', '(E) Các dụng cụ cầm tay khác (Ke cả dao kim cương để cắt kính)', 'Nhóm này gồm có:', '(1) Một số dụng cụ gia đình, kể cả một vài dụng cụ có lưỡi cắt nhưng không kể đến các dụng cụ cơ khí (Xem phần ghi Chú giải thích nhóm 82.10) mang tính chất dụng cụ nhưng không thích hợp với nhóm 73.23) như:', 'Bàn là phẳng (kiểu dùng chất khí đốt, Parafin, dầu hoả, than củi... nhưng không phải là bàn là điện thuộc nhóm 85.16) kẹp uốn tóc, cái mở chai, nút bấc, cái dụng cụ mở hộp đơn giản (Kể cả chìa khoá) cái kẹp hạt dẻ, cái đập hột anh đào (loại lò xo) móc khuy áo, miếng sắt đóng vào đế giày, các dụng cụ mài dao bằng kim loại, máy cắt bột nhão, bàn nạo pho mát, máy lạng “chớp nhoáng” (với các bánh cắt), máy cắt pho mát thành lát mỏng, máy thái rau, khuôn bánh quế, dụng cụ đánh kem hoặc đánh trứng, máy cắt trứng thành lát mỏng, đồ dùng lấy kem, búa để đập đá ăn, máy nghiền rau; que xiên thịt, que cời than, kìm kẹp, cái cào than và cơ cấu nhấc trong các bếp lò và lò sưởi.', '(2) Các dụng cụ của thợ sửa đồng hồ như dụng cụ ép chân kính, dụng cụ làm thăng bằng, cộc ghép đinh tán, máy cuộn dây cót chính, dụng cụ đóng chốt, dụng cụ chèn bulông và dụng cụ điều chỉnh.', '(3) Dao kim cương cho các thợ cắt kính, kể cả dao cắt kính có hạt kim cương kiểu compa gắn trên một dụng cụ chia độ (để cắt vòng tròn) và mũi kim cương kẻ vạch để tạo mẫu trên kính. Các loại dao kim cương trình bày riêng rẽ không xếp vào đây (nhóm 71.02).', '(4) Dụng cụ cho thợ rèn như búa chẽ, bàn đột lỗ, dụng cụ chặt thếp, dụng cụ đột lỗ.', '(5) Các dụng cụ dùng trong hầm mỏ làm đường xá... Ví dụ như thanh choòng, đòn bẩy, đục cắt đá, đục lỗ và nêm.', '(6) Các dụng cụ của thợ nề, thợ làm khuôn, công nhân làm xi măng, thợ trát vữa, thợ sơn... như cái bay, bàn xoa, dụng cụ nạo vét, dao thép, kim chải và làm sạch, trục quay lăn, dụng cụ cắt kính với các bánh cắt, dao mỏng trộn sơn, mảng màu và dao quệt Matit.', '(7) Các dụng cụ cầm tay hỗn tạp như dao xẻ của thợ đóng móng ngựa, lưỡi dao cắt phía trước móng ngựa, búa đóng móng, máy đóng cắt móng, đục nguội và dụng cụ đục lỗ, khoan của dụng cụ tán đinh, đòn bẩy và dụng cụ tán đinh, đòn bẩy và đục, dụng cụ nhổ đinh kiểu không có kìm, dụng cụ mở hộp và đóng ghim, cái bảy vành lốp, dùi của thợ giày (không có lỗ sâu), dùi của thợ làm ghế đệm hoặc của thợ đóng sách, mỏ hàn và dụng cụ hàn của thợ thiếc, dụng cụ nạo vét bằng kim loại, bộ cưa không có kìm, hộp mộng ghép chéo góc, dụng cụ lấy mẫu pho mát và các dụng cụ tương tự, bùa lèn đất, dụng cụ sàng đất có bành, các dụng cụ có dây buộc để đóng vào thùng thưa... Trừ những dụng cụ thuộc nhóm 84.22 (Xem phần ghi chú giải thích), súng bắn lò xo để rập ghim các kiện hàng, cáctông..., dụng cụ đóng đinh rivê, nút tường..., các ống của người thổi thuỷ tinh, ống thổi ống be, bình dầu và vịt dầu (kể cả những dụng cụ có bơm hoặc cơ cấu vặn vít), ống bơm mỡ đặc.', '(F) Đèn xì (ví dụ: Để hàn hoặc hàn bằng vảy đồng, tẩy sơn, khởi động các máy có động cơ bán diezen) các loại đèn này thuộc 2 loại, cả hai loại đều có bình tụ chứa, nhưng khác nhau ở kiểu sử dụng nhiên liệu, hoặc có chứa bình chứa nhiên liệu là dầu mỏ hoặc nhiên liệu lỏng khác (thường kèm theo có một bơm nhỏ) hoặc một bình khí có thể thay thế được. Trong một vài trường hợp, một mỏ hàn hoặc vật gắn khác được gắn trên đỉnh của đèn. Nhóm này không gồm có các dụng cụ hàn dùng hơi ga (nhóm 84.68).', '(G) Mỏ kẹp, bàn kẹp và các loại tương tự, kể cả mỏ kẹp cầm tay, mỏ kẹp vào ghế hoặc bàn, cho người thợ ghép, thợ mộc, thợ khoá, thợ súng, thợ sản xuất đồng hồ,... loại trừ các loại mỏ kẹp tạo thành các bộ phận phụ hoặc các bộ phận của máy công cụ. Nhóm này cũng bao gồm cặp và kẹp những loại này giống như mỏ cặp là những dụng cụ cầm tay (ví dụ: Bàn kẹp của thợ làm đồ gỗ và bàn cặp của thợ làm dụng cụ).', 'Nhóm này cũng có mỏ kẹp kim loại phủ một lớp vỏ phi kim loại (Ví dụ: Gỗ, sợi...) để ngăn hư hại đối với các chi tiết cấu thành thuộc mỏ cặp.', 'Tuy nhiên, nhóm này không gồm có vòng kẹp chén chân không (kẹp hút), cái kẹp hút bao gồm một đế, một tay cầm và một đòn bay chân không làm bằng kim loại cơ bản và các đĩa cao su, được gắn tạm thời với một vật nhằm làm cho vật đó có thể chuyển được (ví dụ: nhóm 73.25, 73.26 hoặc 76.16)', '(H) Đe, bộ đồ rèn xách tay, bàn mài quay hoạt động bằng tay hoặc chân', 'Nhóm này gồm có :', '(1) Đe (kể cả đe có 2 mỏ) mọi cỡ và mọi ứng dụng. Ví dụ: đe thợ rèn, đe thợ đồng hồ hoặc của thợ kim hoàn, cho đến đe của người làm giày, thợ chữa giày, đe cầm tay để điều chỉnh lưỡi hái.', '(2) Bộ rèn xách tay, thường được trang bị với các ống bễ và đôi khi với một cái đe, thường được sử dụng trong các phân xưởng và xưởng đóng tàu nhỏ...', '(3) Bàn mài quay (quay-hoặc đạp, hoạt động bằng tay hoặc chân) với giá gỗ hoặc các loại giá đỡ khác. Máy mài cơ khí được phân loại trong Chương 84 hoặc 85. Đá mài và các sản phẩm tương tự trình bày riêng lẻ được phân loại trong nhóm 68.04.', 'Các dụng cụ làm bằng kim loại nhưng có bộ phận vận hành bằng cao su, da, nỉ... được phân loại theo như vật liệu cấu thành (Chương 40, 42, 59,...).', 'Trừ như đã nêu trên, những dụng cụ sau bị loại trừ trong nhóm này:', '(a) Kim khâu tay và các loại khác thuộc nhóm 73.19.', '(b) Các dụng cụ có thể tháo lắp thay thế, được thiết kế để sử dụng trong các dụng cụ cầm tay, dụng cụ cơ khí hoặc không, trong máy cắt gọt kim loại (máy công cụ) hoặc dụng cụ cầm tay có động cơ (ví dụ mũi văn vít, mũi khoan đá) (nhóm 82.07).', '(c) Các dụng cụ để phóng, phân tán hoặc phun chất lỏng hoặc bột (ngay cả thao tác bằng tay) (nhóm 84.24)', '(d) Đế đỡ dụng cụ cầm tay (nhóm 84.66).', '(e) Các dụng cụ vận hành bằng tay, bằng khí nén, thuỷ lực hoặc mô tơ điện độc lập hoặc động cơ không dùng điện (nhóm 84.67).', '(f) Các dụng cụ đánh dấu, đo lường kiểm tra hoặc định cỡ (Ví dụ: thước mẫu và đục lỗ đánh dấu, đục lỗ giữa và mũi kẻ vạch cưa, thước cặp và thước đo đánh dấu) thuộc Chương 90.', '82.06 – Bộ dụng cụ từ hai nhóm trở lên thuộc các nhóm từ 82.02 đến 82.05, đã đóng bộ để bán lẻ.', 'Nhóm này bao gồm các bộ dụng cụ thuộc từ 2 nhóm trở lên từ nhóm 82.02 đến 82.05 với điều kiện là những dụng cụ đó được ghép thành bộ để bán lẻ (Ví dụ: Trong hộp nhựa hoặc trong hộp dụng cụ bằng kim loại).', 'Ngoài những mặt hàng khác, nhóm này bao gồm:', '(1) Các bộ dụng cụ cơ khí dùng cho ô tô, ví dụ Bộ đầu chìa vặn, bộ chìa vặn đai ốc , bộ chìa khóa vặn 2 đầu, tuốc nơ vit, kìm.', '2) Cụm dụng cụ đơn giản như các bộ chìa vặn đai ốc và bộ tuốc nơ vít.', 'Các bộ dụng cụ gồm các dụng cụ thứ yêu thuộc các nhóm hoặc chương trong danh mục khác vẫn được phân loại trong nhóm này, với điều kiện là những bộ phận nhỏ như vậy không làm thay đổi đặc điểm cơ bản thuộc các bộ dụng cụ của hai mặt hàng hoặc nhiều hơn thuộc nhóm 82.02 đến 82.05.', '82.07 – Các dụng cụ có thể thay đổi được dùng cho các dụng cụ cầm tay, có hoặc không hoạt động bằng điện, hoặc dùng cho máy công cụ (ví dụ, để ép, dập, đục lỗ, ta rô, ren, khoan, chuốt, phay, cán, tiện hoặc bắt, đóng vít), kể cả khuôn kéo để kéo hoặc ép đùn kim loại, và các loại dụng cụ để khoan đã hoặc khoan đất.', '- Dụng cụ để khoan đá hay khoan đất:', '8207.13 - - Có bộ phận làm việc bằng gốm kim loại', '8207.19 - - Loại khác, kể cả bộ phận', '8207.20 - Khuôn dùng để kéo hoặc ép đùn kim loại', '8207.30 - Dụng cụ để ép, dập hoặc đục lỗ', '8207.40 - Dụng cụ để tarô hoặc ren', '8207.50 - Dụng cụ để khoan, trừ các loại để khoan đá', '8207.60 - Dụng cụ để doa hoặc chuốt', '8207.70 - Dụng cụ để cán', '8207.80 - Dụng cụ để tiện', '8207.90 - Các dụng cụ có thể thay đổi được khác', 'Trong khi (trừ một số ngoại lệ như lưỡi cưa máy) những nhóm trước thuộc Chương này áp dụng cho các dụng cụ bằng tay để sử dụng khi các dụng cụ này sẵn có hoặc sau khi gắn các tay nắm thì Chương này bao gồm một nhóm dụng cụ đặc biệt không phù hợp cho việc sử dụng chúng một cách độc lập mà chúng được thiết kế để gắn vào nhau trong những trường hợp khả dĩ như sau:', '(A) Các dụng cụ cầm tay, có hoặc không có động cơ (Ví dụ khoan tay, khoan tay, bàn ren),', '(B) Dụng cụ cơ khí thuộc từ nhóm 84.57 đến nhóm 84.65 hoặc thuộc nhóm 84.79 theo phần chú giải 7 thuộc Chương 84,', '(C) Các dụng cụ thuộc nhóm 84.67,', 'dùng để ép nghiền, dập, đục lỗ, tarô, ren, khoan, doa, chuốt, cán, gia công răng, cán, tiện hay kéo... kim loại, cacbua kim loại, gỗ, đá, Ebonit, một số nhựa hoặc các loại vật liệu rắn khác hoặc để vặn vít.', 'Nhóm này cũng có các dụng cụ sử dụng để khoan đá hoặc máy khoan đất nhóm 84.30.', 'Khuôn dập, đục lỗ, khoan và các dụng cụ thay thế được khác dùng cho các loại máy móc và cộng cụ trừ các dụng cụ riêng biệt ở trên được phân loại như là các bộ phận của máy móc hoặc công cụ được định danh.', 'Các dụng cụ thuộc nhóm này có thể hoặc ở dạng đơn nhất hoặc ở dạng dạng tổ hợp (phức hợp)', 'Dụng cụ đơn nhất được làm toàn từ một chất liệu, thường làm bằng hợp kim thép hoặc bằng thép các bon cao.', 'Dụng cụ phức hợp bao gồm một hoặc nhiều bộ phận làm việc làm bằng kim loại cơ bản, cacbua kim loại, hoặc bằng gốm kim loại, kim cương hoặc các loại đá quý, đá bán quý khác gắn vào một cán kim loại, thường ghép, hàn vĩnh viễn hoặc như các bộ phận rời. Trong trường hợp sau, dụng cụ gồm có một thân dao bằng kim loại cơ bản và một hoặc nhiều bộ phận vận hành (lưỡi, miếng, mũi dao) được khoá vào thân dao bằng một cơ cấu gồm chẳng hạn một má kẹp, một vít hoặc một chốt hãm lò xo với một mép sứt).', 'Nhóm này còn bao gồm các dụng cụ có bộ phận làm việc bằng kim loại cơ bản gắn hoặc bọc bằng vật liệu chịu mòn miễn là những dụng cụ này có răng cắt, có rãnh máng, có khía... vẫn giữ chức năng và dạng của chúng thậm chí sau khi xử dụng chất chịu mòn, có nghĩa là: các dụng cụ có thể được đưa vào sử dụng ngay cả khi chất bào mòn không được áp dụng. Tuy nhiên phần lớn các dụng cụ chịu mòn không được xếp vào nhóm này (xem Chú giải Chi tiết nhóm 68.04)', 'Các dụng cụ được phân loại trong nhóm này bao gồm:', '(1) Dụng cụ khoan đá hoặc khoan đào đất, kể cả các dụng cụ đào hầm mỏ, khoan giếng dầu hoặc các dụng cụ dò sâu (Ví dụ: máy khoan, mũi khoan và búa khoan).', '(2) Khuôn kéo hoặc ép đùn kim loại, kể cả đĩa kéo.', '(3) Các dụng cụ để ép, dập hoặc đục lỗ, kể cả các lỗ và khuôn để ép nguội hoặc dập các tấm kim loại, khuôn rèn hoặc khuôn cắt hình và các lỗ cho máy cắt gọt kim loại (máy công cụ).', '(4) Các dụng cụ để tarô hoặc ren như mũi tarô, bàn ren và hộp ren.', '(5) Các dụng cụ khoan trừ khoan đá, kể cả các mũi khoan (khoan xoắn hoặc trôn ốc, mũi khoan giữa,...) mũi khoan tay...', '(6) Dụng cụ để doa hoặc chuốt, kể cả việc xoáy rộng', '(7) Dụng cụ để phay. Ví dụ: lưỡi dao phay (cắt phẳng, cắt xoắy ốc, cắt xếp và cắt góc) dao phay lăn răng...', '(8) Dụng cụ để tiện.', '(9) Các dụng cụ có thể tháo lắp, thay thế được khác, ví dụ:', '(a) Các dụng cụ để dùng cho việc làm nhẵn bóng, dụng cụ máy bào phẳng, dụng cụ cắt rãnh, dụng cụ rà, dụng cụ điều chỉnh.', '(b) Các dụng cụ để đục lỗ mộng, làm khuôn hoặc xoi mộng gỗ, kể cả xích cắt để đục lỗ mộng gỗ.', '(c) Các dụng cụ để pha trộn, khuấy v.v.. các vật liệu như sơn, keo, vữa, matit và lớp phủ chống trượt', '(d) Các đầu lắp vào tuốc nơ vít.', 'Khuôn kéo thép dây, các dụng cụ tiện vẫn có trong nhóm này thậm chí cả khi chúng đã gây phóng xa.', 'Nhóm này cũng không bao gồm:', '(a) Đĩa đánh bóng, bánh xe và các dụng cụ khác có các bộ phận vận hành bằng cao su, da, nỉ... được phân loại theo các chất liệu cấu thành (Chương 40, 42, 59...).', '(b) Các loại lưỡi cưa (nhóm 82.02).', '(c) Lưỡi bào và các bộ phận tương tự của dụng cụ (nhóm 82.05).', '(d) Dao và lưỡi cắt dùng cho máy hoặc các dụng cụ cơ khí (nhóm 82.08).', '(e) Đĩa cán, chọp và các bộ phận tương tự của các dụng cụ chưa lắp ráp, làm bằng gốm kim loại (nhóm 82.09)', '(f) Máy đùn ép sợi để đùn ra sợi nhân tạo (nhóm 84.48).', '(g) Bộ phần kẹp dụng cụ của máy cơ khí hoặc dụng cụ cầm tay, bộ phận tự mở (nhóm 84.66).', '(h) Khuôn để kéo sợi thuỷ tinh (nhóm 84.75).', '(ij) Ban chải (kim loại hoặc không) được sử dụng như những bộ phận của máy) (nhóm 96.03).', '82.08 – Dao và lưỡi cắt, dùng</t>
   </si>
   <si>
     <t>['Chú giải.', '1. Theo mục đích của Chương này, các bộ phận của sản phẩm bằng kim loại cơ bản được phân loại theo sản phẩm gốc. Tuy nhiên, các sản phẩm bằng sắt hoặc thép thuộc nhóm 73.12, 73.15, 73.17, 73.18 hoặc 73.20, hoặc các sản phẩm tương tự bằng kim loại cơ bản khác (Chương 74 đến 76 và 78 đến 81) sẽ không được xem như các bộ phận của các sản phẩm thuộc Chương này.', '2. Theo mục đích của nhóm 83.02, thuật ngữ “bánh xe đẩy (castor)" có nghĩa là loại bánh xe có đường kính không quá 75 mm (kể cả lốp, tại các phân nhóm tương ứng) hoặc bánh xe có đường kính trên 75 mm (kể cả lốp, tại các phân nhóm tương ứng) với điều kiện là bánh xe hoặc lốp lắp vào đó có chiều rộng dưới 30 mm.']</t>
@@ -958,10 +961,7 @@
     <t>['TỔNG QUÁT', 'Lá thuốc lá thu được từ nhiều loại cây được trồng thuộc giống Nicotiana thuộc họ Solanaceae. Kích thước và hình dạng lá mỗi loại một khác.', 'Phương pháp thu hoạch và công đoạn sấy tùy thuộc vào loại thuốc lá khác nhau. Cây có thể được cắt toàn bộ, đến độ trưởng thành ở mức trung bình (cắt thân cây), hoặc có thể hái riêng lá, tùy theo mức độ trưởng thành (trưởng thành nhất). Vì vậy, lá thuốc lá có thể được sấy toàn bộ cây (trên thân cây) hoặc sấy lá riêng.', 'Các phương pháp sấy lá thuốc lá có thể là sấy mặt trời (để dưới ánh mặt trời), sấy tự nhiên (đặt trong buồng thông gió để làm khô tự nhiên), sấy bằng lò (sấy khí nóng) hoặc sấy lửa (sấy nhiệt).', 'Trước khi đóng gói để vận chuyển, lá thuốc lá khô được xử lý để bảo đảm quá trình bảo quản. Cách xử lý này có thể là cho lên men tự nhiên có kiểm soát (java, sumatra, havane, braxin, phương đông,...) hoặc tái làm khô nhân tạo. Cách thức xử lý và sấy khô này ảnh hưởng đến mùi thơm và hương vị của lá thuốc lá khi trải qua giai đoạn biến chất tự nhiên sau khi đóng gói.', 'Lá thuốc lá được xử lý như vậy được đóng gói thành bó, kiện (hình thù khác nhau), đóng vào thùng hoặc vào hòm. Khi được đóng gói như vậy, lá thuốc lá hoặc được xếp thành hàng (lá thuốc lá phương đông) hoặc được bó lại thành bó sẵn (bằng dây hoặc bằng một lá thuốc lá khác), hoặc để rời. Lá thuốc lá luôn được ép chặt để bảo quản được tốt.', 'Trong một số trường hợp, ngoài (hoặc thay vì) lên men, người ta cũng cho thêm một số hương liệu hoặc các chất tạo ẩm nhằm tăng hương thơm hoặc giữ chất lượng.', 'Chương này không chỉ bao gồm lá thuốc lá chưa được chế biến và đã được chế biến mà còn bao gồm các sản phẩm thay thế lá thuốc lá lá đã chế biến mà không chứa thuốc lá.']</t>
   </si>
   <si>
-    <t>['TỔNG QUÁT', 'Theo quy tắc chung, Chương này giới hạn vào các hợp chất đã được xác định về mặt hóa học riêng biệt như theo các điều khoản của Chú giải 1 của Chương này.', '(A) Những hợp chất đã được xác định về mặt hóa học', '(Chú giải 1 của Chương)', 'Một hợp chất đã được xác định về mặt hóa học riêng biệt là một chất có một trạng thái phân tử (ví dụ, liên kết cộng hoá trị hay ion) có cấu trúc xác định, thành phần của chất này được xác định bởi tỷ lệ không đổi của các nguyên tố và có thể được biểu thị bởi một biểu đồ cấu trúc xác định. Trong một mạng tinh thể, trạng thái phân tử phụ thuộc vào sự lặp lại của mỗi thành phần.', 'Những hợp chất đã được xác định về mặt hoá học riêng biệt chứa những chất khác có thể được cố ý thêm vào trong hoặc sau khi sản xuất chúng (kể cả quá trình tinh chế) bị loại trừ khỏi chương này. Theo đó, một sản phẩm, ví dụ, saccharin trộn với lactose để tạo nén một sản phẩm phù hợp với công dụng làm ngọt thì sẽ bị loại trừ (xem Chú giải Chi tiết nhóm 29.25)', 'Những hợp chất đã được xác định về mặt hoá học riêng biệt của Chương này có thể có tạp chất (Chú giải 1 (a)). Một ngoại lệ đối với qui tắc này là nhóm 29.40, là nhóm đề cập đến các loại đường, giới hạn phạm vi của nhóm là các loại đường tinh khiết về mặt hóa học.', 'Thuật ngữ "tạp chất" áp dụng riêng cho các chất mà sự có mặt của chúng trong một hợp chất hóa học đơn lẻ là kết quả duy nhất và trực tiếp từ quá trình sản xuất (kể cả quá trình tinh chế). Những chất này có thể là kết quả của bất kỳ nhân tố nào liên quan đến quá trình sản xuất và chủ yếu là những nhân tố sau:', '(a) Nguyên liệu ban đầu chưa chuyển đổi.', '(b) Tạp chất có mặt trong nguyên liệu ban đầu.', '(c) Thuốc thử được dùng trong quá trình sản xuất (kể cả quá trình tinh chế).', '(d) Những sản phẩm phụ.', 'Tuy nhiên, cần phải chú ý, trong mọi trường hợp, những chất này không được xem là "tạp chất" theo Chú giải 1(a). Khi những chất này được cố ý để lại trong sản phẩm với mục đích là làm cho sản phẩm phù hợp với công dụng riêng hơn là công dụng chung, chúng không được xem như là những tạp chất cho phép. Ví dụ, một sản phẩm gồm metyl acetat có methanol được cố ý để lại với mục đích nâng cao tính phù hợp của nó như một dung môi, sẽ bị loại trừ (nhóm 38.14). Với những hợp chất cụ thể (ví dụ, etan, benzen, phenol, pyridin), có nhiều tiêu chuẩn tinh khiết đặc biệt được trình bày ở Chú giải Chi tiết nhóm 29.01, 29,02. 29.07, và 29.33.', 'Những hợp chất đã được xác định về mặt hóa học riêng biệt của Chương này có thể tan trong nước. Theo những đặc tính tương tự được nêu trong Chú giải Chi tiết Tổng quát của Chương 28, Chương này cũng bao gồm những dung dịch không chứa nước và cả hợp chất (hoặc những dung dịch của chúng) có bổ sung thêm chất ổn định, chất chống bụi hoặc chất màu. Ví dụ, styren có thêm teriary butylcatechol vẫn được phân loại vào nhóm 29.02. Những điều khoản trong Chú giải Chi tiết Tổng quát của Chương 28 đề cập đến sự bổ sung các chất ổn định, chất màu và chất chống bụi, với những sửa đổi thích đáng, áp dụng cho những hợp chất hóa học của Chương này. Tương tự như việc thêm vào các chất màu, những chất này cũng có thể thêm các chất có mùi thơm (ví dụ, bromomethane trong nhóm 29.03 được thêm vào hàm lượng nhỏ chloropicrin) hoặc chất gây nôn.', 'Chương này còn bao gồm cả hỗn hợp đồng phân của cùng một hợp chất hữu cơ cho dù chúng có hay không chứa tạp chất. Điều khoản này chỉ áp dụng cho hỗn hợp của những chất có cùng chức hóa học (hoặc những chức hóa học) và những hỗn hợp này hoặc cùng tồn tại trong hình thái tự nhiên hoặc thu được đồng thời trong cùng quá trình tổng hợp. Tuy nhiên, hỗn hợp của đồng phân hydrocacbon mạch thẳng (trừ những đồng phân lập thể), đã hoặc chưa bão hòa, bị loại trừ (Chương 27).', '(B) Sự khác nhau giữa các hợp chất của Chương 28 và các hợp chất của Chương 29', 'Các hợp chất hữu cơ của kim loại quý, nguyên tố phóng xạ, đồng vị phóng xạ, kim loại đất hiếm, scandium và yttrium, và các hợp chất khác có chứa carbon được liệt kê trong Phần (B) của Chú giải Tổng quát của Chương 28 được loại trừ khỏi Chương 29 (xem Chú giải 1 Phần VI và Chú giải 2 của Chương 28).', 'Các hợp chất hữu cơ - vô cơ, trừ các hợp chất được liệt kê trong Chú giải 2 của Chương 28, được xếp vào Chương 29.', '(C) Các sản phẩm vẫn được phân loại vào Chương 29, thậm chí khi chúng không phải là những hợp chất đã được xác định về mặt hóa học riêng biệt', 'Có một số những ngoại lệ đối với Chương 29 được giới hạn cho các hợp chất đã được xác định về mặt hóa học riêng biệt. Những ngoại lệ này bao gồm những sản phẩm sau:', 'Nhóm 29.09 - Peroxit xeton.', 'Nhóm 29.12 - Polymer vòng của aldehyt; paraformialdehyt.', 'Nhóm 29.19 - Lactophosphat.', 'Nhóm 29.23 - Lecithins và những phosphoaminolipid khác.', 'Nhóm 29.34 - Các axit nucleic và các muối của chúng.', 'Nhóm 29.36 - Tiền vitamin và vitamin các loại (bao gồm cả dạng đậm đặc và pha trộn), có hoặc không có dung môi.', 'Nhóm 29.37 - Các hormon.', 'Nhóm 29.38 - Các glycosit và dẫn xuất của chúng.', 'Nhóm 29.39 - Alkaloid và các dẫn xuất của chúng.', 'Nhóm 29.40 - Các ete đường, acetal đường và những este đường, và muối của chúng.', 'Nhóm 29.41- Các kháng sinh.', 'Chương này cũng bao gồm những muối diazonium (xem Phần (A) của Chú giải Chi tiết nhóm 29.27), những cặp đôi dùng cho những muối này và các amin có khả năng diazo hóa và muối của chúng, đã được pha loãng với, ví dụ như muối trung hòa đến nồng độ chuẩn nào đó. Những chất này được tạo nên để dùng cho việc sản xuất thuốc nhuộm azo. Chúng có thể ở dạng rắn hoặc dạng lỏng.', 'Chương này còn bao gồm các dẫn xuất pegylated (polyme polyethylene glycol (hoặc PEGs)) của các sản phẩm thuộc các nhóm từ 29.36 đến 29.39 và 29.41. Đối với các sản phẩm này, một dẫn xuất pegylated vẫn được phân loại trong cùng nhóm như dạng non- pegylated của nó. Tuy nhiên, các dẫn xuất pegylated của các sản phẩm của tất cả các nhóm khác của Chương 29 bị loại trừ (thường thuộc nhóm 39.07).', '(D) Một số hợp chất hữu cơ đã được xác định về mặt hóa học riêng biệt được loại khỏi Chương 29', '(Chú giải 2 của Chương)', '(1) Một số hợp chất hữu cơ đã được xác định về mặt hóa học riêng biệt luôn bị loại trừ khỏi Chương 29, thậm chí ngay cả khi ở dạng tinh khiết. Ngoài các hợp chất thuộc Chương 28 (xem Phần (B) của Chú giải Chi tiết Tổng quát Chương 28), các ví dụ về các hợp chất của loại này là:', '(a) Sucroza (nhóm 17.01); lactose, maltose, glucoza và fructoza (nhóm 17.02).', '(b) Cồn ethylic (nhóm 22.07 hoặc 22.08).', '(c) Metan và propan (nhóm 27.11).', '(d) Các sản phẩm miễn dịch (nhóm 30.02).', '(e) Urê (nhóm 31.02 hoặc 31.05).', '(f) Chất màu có nguồn gốc từ động vật hoặc thực vật (ví dụ, chlorophyll) (nhóm 32.03).', '(g) Chất màu hữu cơ tổng hợp (bao gồm cả các thuốc màu), và những sản phẩm hữu cơ tổng hợp thuộc loại được sử dụng như các tác nhân tăng sáng huỳnh quang (ví dụ, các dẫn xuất stilbene nhất định) (nhóm 32.04).', '(2) Một số sản phẩm hữu cơ khác được xác định về mặt hóa học riêng biệt, đáng lẽ cũng có thể được phân loại vào Chương 29, có thể bị loại trừ khi chúng được tạo thành các dạng cụ thể, hoặc chúng đã trải qua một số quá trình xử lý nhất định mà thành phần hóa học của chúng không bị thay đổi. Ví dụ:', '(a) Những sản phẩm phòng bệnh hoặc trị bệnh, được đóng gói thành những liều xác định hoặc ở dạng nhất định hoặc đóng gói bán lẻ (nhóm 30.04).', '(b) Những sản phẩm thuộc loại phát quang (ví dụ, salicylaldazine) được xử lý để trở thành chất phát quang (nhóm 32.04).', '(c) Thuốc nhuộm và chất màu khác đã làm thành dạng nhất định hoặc đóng gói để bán lẻ (nhóm 32.12).', '(d) Nước thơm, mỹ phẩm hoặc các chế phẩm vệ sinh (ví dụ, axeton), được đóng gói để bán lẻ (những nhóm từ 33.03 đến 33.07).', '(e) Những sản phẩm phù hợp dùng như keo dán hoặc chất kết dính, đóng gói để bán lẻ như là keo dán hoặc chất kết dính, với trọng lượng tịnh không quá 1 kg (nhóm 35.06).', '(f) Những nhiên liệu rắn (như metaldehyde, hexamethylenetetamine) đã làm thành dạng nhất định dùng như nhiên liệu, và nhiên liệu lỏng hoặc hóa lỏng (ví dụ, butan lỏng) trong bình chứa với dạng dùng để nạp hoặc nạp lại các bật lửa hút thuốc hoặc tương tự và có dung tích không quá 300 cm3 (nhóm 36.06).', '(g) Hydroquinone và những sản phẩm không pha trộn khác dùng cho ngành ảnh, được đóng gói với các tỷ lệ xác định hoặc được đóng gói để bán lẻ sẵn sàng cho sử dụng cho tạo ảnh (nhóm 37.07).', '(h) Những chất khử trùng, những chất diệt côn trùng, v.v, được đóng gói như là miêu tả ở nhóm 38.08.', '(ij) Những sản phẩm (ví dụ, carbon tetrachlroride) được nạp cho bình chữa cháy hoặc lựu đạn chữa cháy (nhóm 38.13).', '(k) Những chất tẩy mực (ví dụ, chloramines của nhóm 29.35 tan trong nước) được đóng gói để bán lẻ (nhóm 38.24).', '(l) Các bộ phận quang học (ví dụ, ethylenediamine tartrate) (nhóm 90.01).', '(E) Các sản phẩm có khả năng được phân loại vào 2 hoặc nhiều nhóm của Chương 29 (Chú giải 3 của Chương)', 'Những sản phẩm này được phân loại vào nhóm có số thứ tự cuối cùng trong số những nhóm có thể được áp dụng. Ví dụ, axit ascobic có thể được coi như là một lactone (nhóm 29.32) hoặc được coi như là một vitamin (nhóm 29.36); vì vậy nó sẽ được phân loại vào nhóm 29.36. Cũng lý do tương tự như vậy, allylestrenol được coi như là một rượu vòng (nhóm 29.06) nhưng cũng là một steroid với cấu trúc gonane không đổi, được dùng chủ yếu vì chức năng hormon của nó (nhóm 29.37), sẽ được xếp vào nhóm 29.37.', 'Tuy nhiên, cần phải chú ý rằng, các chất được mô tả trong đoạn cuối của nhóm 29.40 đặc biệt loại trừ các sản phẩm của nhóm 29.37, 29.38 và 29.39.', '(F) Các dẫn xuất halogen hóa, sulphonat hóa, nitrat hóa hoặc nitroso hóa và những hợp chất kết hợp của chúng; “chức oxy” đề cập trong nhóm 29.11, 29.12, 29.14, 29.18 and 29.22', '(Chú giải 4 của Chương)', 'Một số nhóm của Chương 29 bao gồm các dẫn xuất halogen hóa, sulphonat hóa, nitrat hóa hoặc nitroso hóa. Các trường hợp như thế bao gồm các dẫn xuất kết hợp, ví dụ, các dẫn xuất sulphohalogenat hóa, nitrohalogenat hóa, nitrosullphonat hóa, nitrosulphohalogenat hóa,v.v.', 'Theo mục đích của nhóm 29.29 thì các nhóm nitro và nitroso không được coi là các chức nitrogen.', 'Các dẫn xuất halogen hóa, sulphonat hóa, nitrat hóa và nitroso hóa được hình thành bằng cách thay thế một hoặc nhiều nguyên tử hydro trong các hợp chất ban đầu bởi một hoặc nhiều nhóm halogen, sulfo (-SO3H), nitro (-NO2) hoặc nitroso (-NO) hoặc bằng bất kỳ sự kết hợp nào của chúng. Mỗi nhóm chức (ví dụ, aldehyde, axit cacboxylic, amin) được xem xét để phân loại sẽ được giữ nguyên trong các dẫn xuất này.', 'Theo mục đích của đoạn cuối của Chú giải 4 và các nhóm 29.11, 29.12, 29.14, 29.18 và 29.22, “chức oxy” được đề cập trong nội dung của các nhóm này phải là nhóm chứa oxy hữu cơ đặc trưng được đề cập trong các nhóm từ 29.05 đến 29.20. Liên quan đến vấn đề này, các nhóm chức oxy được xem xét để phân loại cho các sản phẩm thuộc các nhóm 29.11, 29.12, 29.14 và 29.18 phải được giữ nguyên', '(G) Phân loại các este, các muối, các hợp chất phối trí và một vài halogenua', '(Chú giải 5 của Chương)', '(1) Các este.', 'Các este của hợp chất hữu cơ có chức axít nêu trong các Phân Chương từ I đến VII với những hợp chất hữu cơ của các Phân Chương này sẽ được phân loại vào cùng với hợp chất được phân loại vào nhóm có số thứ tự cuối trong các Phân chương này.', 'Ví dụ:', '(a) Diethylene glycol axetat (este được tạo ra từ phản ứng của axit axetic thuộc nhóm 29.15 với diethylene glycol của nhóm 29.09) *.................................... Nhóm 29.15', '(b) Methyl benzenesulphonate (este được tạo ra từ phản ứng của axit benzensulphonic thuộc nhóm 29.04 với methyl alcohol của nhóm 29.05) *............................. Nhóm 29.05', '(c) Butyl hydrogenphthalate (este của axit polycarboxylic mà hydro thuộc nhóm (COOH) duy nhất được thay thế) *.........................Nhóm 29.17', '(d) Butyl phthalyl butylglycollate (este được hình thành từ phản ứng của axit phthalic thuộc nhóm 29.17 và axit glycollic của nhóm 29.18 với rượu butyl alcohol của nhóm 29.05)*……….Nhóm 29.18.', 'Quy tắc này không áp dụng cho các este của các hợp chất có chức axít với ethyl alcohol vì hợp chất này không được phân loại vào Chương 29. Những este như thế phải được phân loại cùng với các hợp chất có chức axít mà chúng tạo ra.*', 'Ví dụ:', 'Ethyl acetat (este được hình thành từ phản ứng của axit axetic thuộc nhóm 29.15 với ethyl alcohol)…….......……………...... Nhóm 29.15', 'Cần phải chú ý thêm rằng các este đường và muối của chúng được phân loại vào nhóm 29.40.', '(2) Muối.', 'Theo Chú giải 1 của Phần VI và Chú giải 2 của Chương 28:', '(a) Muối vô cơ của hợp chất hữu cơ như các hợp chất có chức axit-, phenol- hoặc enol- hoặc bazơ hữu cơ, của Phân Chương I đến X hoặc nhóm 29.42, phải được phân loại vào nhóm tương ứng với các hợp chất hữu cơ.', 'Những muối này có thể được tạo thành bởi phản ứng của:', '(i) Những hợp chất hữu cơ có chức axit-, phenol- hoặc enol- với các bazơ vô cơ.', 'Ví dụ:', 'Methoxybenzoate natri (muối được tạo thành từ phản ứng của axit methoxybenzoic thuộc nhóm 29.18 với hydroxide natri)* ................................ Nhóm 29.18', 'Những muối loại này cũng có thể được hình thành bởi phản ứng của các este axit của các loại nói trên với các bazơ vô cơ.', 'Ví dụ:', 'n-Butyl đồng phthalat (muối được tạo thành từ phản ứng butyl hydrogen phthalat thuộc nhóm 29.17 cùng với đồng hydroxide)*................................. Nhóm 29.17', 'hoặc (ii) Những bazơ hữu cơ với các axit vô cơ.', 'Ví dụ:', 'Diethylamine hydrochloride (muối được hình thành từ phản ứng diethylamine thuộc nhóm 29.21 với axit hydrochloric thuộc nhóm 28.06)*……Nhóm 29.21', '(b) Những muối được tạo thành giữa các hợp chất hữu cơ của các phân chương từ I tới X hoặc của nhóm 29.42 sẽ được xếp vào nhóm phù hợp với bazơ hoặc axit (kể cả hợp chất có chức phenol - hoặc enol -) tạo ra chúng, loại có số thứ tự sau cùng trong Chương.', 'Ví dụ:', '(i) Anilin axetat (muối được hình thành từ phản ứng của axit axetic thuộc nhóm 29.15 cùng với anilin thuộc nhóm 29.21)* ………………….. Nhóm 29.21', '(ii) Methylamine phonoxyacetate (muối được hình thành từ phản ứng của methylamine thuộc nhóm 29.21 với axit phenoxyacetic thuộc nhóm 29.18)* ………………….. Nhóm 29.21', '(3) Các hợp chất phối trí.', 'Các hợp chất phối trí của kim loại thường bao gồm tất cả các loại mang điện hoặc không, trong đó một kim loại liên kết với vài nguyên tử (thường là 2 đến 9 nguyên tử) bằng một hoặc nhiều chuỗi (ligands). Dạng hình học của bộ khung hình thành bởi kim loại và các nguyên tử được liên kết với nhau và số liên kết kim loại thường được quy định bởi kim loại.', 'Những hợp chất phối trí, trừ các sản phẩm có thể được phân loại trong phân Chương XI hoặc trong nhóm 29.41, phải được xem xét như các mảnh do “bẻ gãy” tất cả các liên kết kim loại, trừ các liên kết kim loại - cacbon, và phải được phân loại theo mảnh (xem như là một hợp chất thực cho mục đích phân loại) trong nhóm có thứ tự sau cùng của Chương 29.', 'Theo mục đích Chú giải 5 (C) (3) của Chương này, thuật ngữ “mảnh” bao gồm các chuỗi và các phần chứa liên kết cacbon - kim loại thu được từ quá trình bẻ gãy.', 'Ví dụ minh họa dưới đây:', 'Kali trioxalatoferrate (III) được phân loại vào trong cùng nhóm với axit oxalic (nhóm 29.17), tương ứng với mảnh thu được sau khi bẻ gãy liên kết kim loại.', 'Ferrocholinat (INN) được phân loại vào cùng nhóm với cholin (nhóm 29.23), được phân loại trong nhóm có thứ tự sau cùng của nhóm này, hơn là được phân loại vào nhóm của axit citric tương ứng với các mảnh còn lại, được xếp theo mục đích phân loại.', 'Budotitane (INN): Sau khi bẻ gãy các liên kết kim loại, hai mảnh thu được, một mảnh là etanol (Chương 22), mảnh còn lại là benzoylaceton (và chức enol- của nó) được phân loại vào nhóm 29.14. Do vậy, Budotitan (INN) được phân loại vào nhóm 29.14.', '(4) Halogenua của axit cacboxylic*.', 'Những halogenua được phân loại vào cùng nhóm với các axit tương ứng. Ví dụ, isobutyryl chloride được phân loại vào nhóm 29.15 (như isobutyric axit tương ứng).', '(H) Phân loại vào các nhóm 29.32, 29.33 và 29.34', '(Chú giải 7 của Chương)', 'Các nhóm 29.32, 29.33 và 29.34 không bao gồm epoxit có vòng ba, xeton peroxit, polyme mạch vòng của andehyt hoặc của thioaldehyt, anhydrit của các axit cacboxilic đa chức, este mạch vòng của rượu đa chức hoặc phenol đa chức với axit đa chức, hoặc imit của axit đa chức , nếu các dị tố trên vòng là kết quả duy nhất của chức năng đóng vòng hay các chức năng được liệt kê ở đây.', 'Nếu, ngoài chức năng được liệt kê trong câu đầu tiên của Chú giải 7 của Chương 29, có các dị tố trên vòng khác hiện diện trong cấu trúc, việc phân loại phải được thực hiện có sự tham khảo tất cả các chức năng đóng vòng hiện diện. Vì vậy, ví dụ, anaxirone (INN) và pradefovir (INN) nên được phân loại vào nhóm 29.34 như hợp chất dị vòng với hai hoặc nhiều dị tố khác nhau và không được phân loại vào nhóm 29.33 như hợp chất dị vòng chỉ với dị tố nitơ.', '(IJ) Phân loại các chất dẫn xuất', 'Việc phân loại các dẫn xuất của các hợp chất hoá học ở cấp độ nhóm sẽ được xác định khi áp dụng Quy tắc Chú giải tổng quát. Chú giải 3 của Chương này áp dụng khi một dẫn xuất chủ yếu có thể được phân loại trong hai hoặc nhiều nhóm.', 'Trong bất kỳ nhóm nào của Chương này, các dẫn xuất sẽ được phân loại khi áp dụng Chú giải Phân nhóm 1.', '(K) Hệ thống vòng ngưng tụ', 'Một hệ thống vòng ngưng tụ là một hệ thống có ít nhất hai vòng, trong đó chỉ có duy nhất một liên kết chung và chỉ có hai nguyên tử chung.', 'Các hệ vòng ngưng tụ xuất hiện trong các phân tử của các hợp chất đa vòng (ví dụ, các hydro cacbon đa vòng, hợp chất dị vòng) trong đó hai vòng được nối với nhau thông qua một cạnh chung kéo theo hai nguyên tử liền kề. Dưới đây là các ví dụ minh hoạ:', 'Trong hệ thống vòng phức, sự ngưng tụ có thể xảy ra ở nhiều cạnh của bất kỳ vòng nào. Hợp chất có nhiều vòng mà trong đó hai vòng chỉ có hai nguyên tử dùng chung được gọi là “ortho- ngưng tụ”. Nói một cách khác, hợp chất có nhiều vòng mà trong đó một vòng chỉ có hai nguyên tử chung với mỗi vòng hoặc nhiều hơn của một chuỗi vòng liên tục được gọi là “ortho- và peri- ngưng tụ”. Hai dạng nối khác nhau của các hệ thống vòng ngưng tụ được minh hoạ qua những ví dụ sau:', 'Nói cách khác, ví dụ dưới đây minh họa một quinoline cầu (không ngưng tụ):', 'Theo mục đích của nội dung của Chú giải Chi tiết của Chương này. dấu hoa thị “*” theo sau các công thức hóa học có nghĩa là cấu trúc hóa học của nó có thể được tham khảo trong Phụ lục của Chú giải Chi tiết Chương 29.']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm các sản phẩm pegylat hóa là những sản phẩm chứa polyme polyetylen glycol (hoặc PEGs) gắn với dược phẩm của Chương 30 (như là, protein chức năng và peptit chức năng, phân đoạn kháng thể) nhằm cải thiện hiệu quả của chúng khi sử dụng như thuốc. Các sản phẩm pegylat hóa của các nhóm thuộc Chương này vẫn được phân loại cùng nhóm như dạng các sản phẩm không được pegylat hóa (ví dụ, Peginterferon (INN) thuộc nhóm 30.02).', '30.01- Các tuyến và các bộ phận cơ thể khác dùng để chữa bệnh, ở dạng khô, đã hoặc chưa làm thành dạng bột; chiết xuất từ các tuyến hoặc các bộ phận cơ thể khác hoặc từ các dịch tiết của chúng dùng để chữa bệnh; heparin và các muối của nó; các chất khác từ người hoặc động vật được điều chế dùng cho phòng bệnh hoặc chữa bệnh, chưa được chi tiết hoặc ghi ở nơi khác.']</t>
+    <t>['TỔNG QUÁT', 'Theo quy tắc chung, Chương này giới hạn vào các hợp chất đã được xác định về mặt hóa học riêng biệt như theo các điều khoản của Chú giải 1 của Chương này.', '(A) Những hợp chất đã được xác định về mặt hóa học', '(Chú giải 1 của Chương)', 'Một hợp chất đã được xác định về mặt hóa học riêng biệt là một chất có một trạng thái phân tử (ví dụ, liên kết cộng hoá trị hay ion) có cấu trúc xác định, thành phần của chất này được xác định bởi tỷ lệ không đổi của các nguyên tố và có thể được biểu thị bởi một biểu đồ cấu trúc xác định. Trong một mạng tinh thể, trạng thái phân tử phụ thuộc vào sự lặp lại của mỗi thành phần.', 'Những hợp chất đã được xác định về mặt hoá học riêng biệt chứa những chất khác có thể được cố ý thêm vào trong hoặc sau khi sản xuất chúng (kể cả quá trình tinh chế) bị loại trừ khỏi chương này. Theo đó, một sản phẩm, ví dụ, saccharin trộn với lactose để tạo nén một sản phẩm phù hợp với công dụng làm ngọt thì sẽ bị loại trừ (xem Chú giải Chi tiết nhóm 29.25)', 'Những hợp chất đã được xác định về mặt hoá học riêng biệt của Chương này có thể có tạp chất (Chú giải 1 (a)). Một ngoại lệ đối với qui tắc này là nhóm 29.40, là nhóm đề cập đến các loại đường, giới hạn phạm vi của nhóm là các loại đường tinh khiết về mặt hóa học.', 'Thuật ngữ "tạp chất" áp dụng riêng cho các chất mà sự có mặt của chúng trong một hợp chất hóa học đơn lẻ là kết quả duy nhất và trực tiếp từ quá trình sản xuất (kể cả quá trình tinh chế). Những chất này có thể là kết quả của bất kỳ nhân tố nào liên quan đến quá trình sản xuất và chủ yếu là những nhân tố sau:', '(a) Nguyên liệu ban đầu chưa chuyển đổi.', '(b) Tạp chất có mặt trong nguyên liệu ban đầu.', '(c) Thuốc thử được dùng trong quá trình sản xuất (kể cả quá trình tinh chế).', '(d) Những sản phẩm phụ.', 'Tuy nhiên, cần phải chú ý, trong mọi trường hợp, những chất này không được xem là "tạp chất" theo Chú giải 1(a). Khi những chất này được cố ý để lại trong sản phẩm với mục đích là làm cho sản phẩm phù hợp với công dụng riêng hơn là công dụng chung, chúng không được xem như là những tạp chất cho phép. Ví dụ, một sản phẩm gồm metyl acetat có methanol được cố ý để lại với mục đích nâng cao tính phù hợp của nó như một dung môi, sẽ bị loại trừ (nhóm 38.14). Với những hợp chất cụ thể (ví dụ, etan, benzen, phenol, pyridin), có nhiều tiêu chuẩn tinh khiết đặc biệt được trình bày ở Chú giải Chi tiết nhóm 29.01, 29,02. 29.07, và 29.33.', 'Những hợp chất đã được xác định về mặt hóa học riêng biệt của Chương này có thể tan trong nước. Theo những đặc tính tương tự được nêu trong Chú giải Chi tiết Tổng quát của Chương 28, Chương này cũng bao gồm những dung dịch không chứa nước và cả hợp chất (hoặc những dung dịch của chúng) có bổ sung thêm chất ổn định, chất chống bụi hoặc chất màu. Ví dụ, styren có thêm teriary butylcatechol vẫn được phân loại vào nhóm 29.02. Những điều khoản trong Chú giải Chi tiết Tổng quát của Chương 28 đề cập đến sự bổ sung các chất ổn định, chất màu và chất chống bụi, với những sửa đổi thích đáng, áp dụng cho những hợp chất hóa học của Chương này. Tương tự như việc thêm vào các chất màu, những chất này cũng có thể thêm các chất có mùi thơm (ví dụ, bromomethane trong nhóm 29.03 được thêm vào hàm lượng nhỏ chloropicrin) hoặc chất gây nôn.', 'Chương này còn bao gồm cả hỗn hợp đồng phân của cùng một hợp chất hữu cơ cho dù chúng có hay không chứa tạp chất. Điều khoản này chỉ áp dụng cho hỗn hợp của những chất có cùng chức hóa học (hoặc những chức hóa học) và những hỗn hợp này hoặc cùng tồn tại trong hình thái tự nhiên hoặc thu được đồng thời trong cùng quá trình tổng hợp. Tuy nhiên, hỗn hợp của đồng phân hydrocacbon mạch thẳng (trừ những đồng phân lập thể), đã hoặc chưa bão hòa, bị loại trừ (Chương 27).', '(B) Sự khác nhau giữa các hợp chất của Chương 28 và các hợp chất của Chương 29', 'Các hợp chất hữu cơ của kim loại quý, nguyên tố phóng xạ, đồng vị phóng xạ, kim loại đất hiếm, scandium và yttrium, và các hợp chất khác có chứa carbon được liệt kê trong Phần (B) của Chú giải Tổng quát của Chương 28 được loại trừ khỏi Chương 29 (xem Chú giải 1 Phần VI và Chú giải 2 của Chương 28).', 'Các hợp chất hữu cơ - vô cơ, trừ các hợp chất được liệt kê trong Chú giải 2 của Chương 28, được xếp vào Chương 29.', '(C) Các sản phẩm vẫn được phân loại vào Chương 29, thậm chí khi chúng không phải là những hợp chất đã được xác định về mặt hóa học riêng biệt', 'Có một số những ngoại lệ đối với Chương 29 được giới hạn cho các hợp chất đã được xác định về mặt hóa học riêng biệt. Những ngoại lệ này bao gồm những sản phẩm sau:', 'Nhóm 29.09 - Peroxit xeton.', 'Nhóm 29.12 - Polymer vòng của aldehyt; paraformialdehyt.', 'Nhóm 29.19 - Lactophosphat.', 'Nhóm 29.23 - Lecithins và những phosphoaminolipid khác.', 'Nhóm 29.34 - Các axit nucleic và các muối của chúng.', 'Nhóm 29.36 - Tiền vitamin và vitamin các loại (bao gồm cả dạng đậm đặc và pha trộn), có hoặc không có dung môi.', 'Nhóm 29.37 - Các hormon.', 'Nhóm 29.38 - Các glycosit và dẫn xuất của chúng.', 'Nhóm 29.39 - Alkaloid và các dẫn xuất của chúng.', 'Nhóm 29.40 - Các ete đường, acetal đường và những este đường, và muối của chúng.', 'Nhóm 29.41- Các kháng sinh.', 'Chương này cũng bao gồm những muối diazonium (xem Phần (A) của Chú giải Chi tiết nhóm 29.27), những cặp đôi dùng cho những muối này và các amin có khả năng diazo hóa và muối của chúng, đã được pha loãng với, ví dụ như muối trung hòa đến nồng độ chuẩn nào đó. Những chất này được tạo nên để dùng cho việc sản xuất thuốc nhuộm azo. Chúng có thể ở dạng rắn hoặc dạng lỏng.', 'Chương này còn bao gồm các dẫn xuất pegylated (polyme polyethylene glycol (hoặc PEGs)) của các sản phẩm thuộc các nhóm từ 29.36 đến 29.39 và 29.41. Đối với các sản phẩm này, một dẫn xuất pegylated vẫn được phân loại trong cùng nhóm như dạng non- pegylated của nó. Tuy nhiên, các dẫn xuất pegylated của các sản phẩm của tất cả các nhóm khác của Chương 29 bị loại trừ (thường thuộc nhóm 39.07).', '(D) Một số hợp chất hữu cơ đã được xác định về mặt hóa học riêng biệt được loại khỏi Chương 29', '(Chú giải 2 của Chương)', '(1) Một số hợp chất hữu cơ đã được xác định về mặt hóa học riêng biệt luôn bị loại trừ khỏi Chương 29, thậm chí ngay cả khi ở dạng tinh khiết. Ngoài các hợp chất thuộc Chương 28 (xem Phần (B) của Chú giải Chi tiết Tổng quát Chương 28), các ví dụ về các hợp chất của loại này là:', '(a) Sucroza (nhóm 17.01); lactose, maltose, glucoza và fructoza (nhóm 17.02).', '(b) Cồn ethylic (nhóm 22.07 hoặc 22.08).', '(c) Metan và propan (nhóm 27.11).', '(d) Các sản phẩm miễn dịch (nhóm 30.02).', '(e) Urê (nhóm 31.02 hoặc 31.05).', '(f) Chất màu có nguồn gốc từ động vật hoặc thực vật (ví dụ, chlorophyll) (nhóm 32.03).', '(g) Chất màu hữu cơ tổng hợp (bao gồm cả các thuốc màu), và những sản phẩm hữu cơ tổng hợp thuộc loại được sử dụng như các tác nhân tăng sáng huỳnh quang (ví dụ, các dẫn xuất stilbene nhất định) (nhóm 32.04).', '(2) Một số sản phẩm hữu cơ khác được xác định về mặt hóa học riêng biệt, đáng lẽ cũng có thể được phân loại vào Chương 29, có thể bị loại trừ khi chúng được tạo thành các dạng cụ thể, hoặc chúng đã trải qua một số quá trình xử lý nhất định mà thành phần hóa học của chúng không bị thay đổi. Ví dụ:', '(a) Những sản phẩm phòng bệnh hoặc trị bệnh, được đóng gói thành những liều xác định hoặc ở dạng nhất định hoặc đóng gói bán lẻ (nhóm 30.04).', '(b) Những sản phẩm thuộc loại phát quang (ví dụ, salicylaldazine) được xử lý để trở thành chất phát quang (nhóm 32.04).', '(c) Thuốc nhuộm và chất màu khác đã làm thành dạng nhất định hoặc đóng gói để bán lẻ (nhóm 32.12).', '(d) Nước thơm, mỹ phẩm hoặc các chế phẩm vệ sinh (ví dụ, axeton), được đóng gói để bán lẻ (những nhóm từ 33.03 đến 33.07).', '(e) Những sản phẩm phù hợp dùng như keo dán hoặc chất kết dính, đóng gói để bán lẻ như là keo dán hoặc chất kết dính, với trọng lượng tịnh không quá 1 kg (nhóm 35.06).', '(f) Những nhiên liệu rắn (như metaldehyde, hexamethylenetetamine) đã làm thành dạng nhất định dùng như nhiên liệu, và nhiên liệu lỏng hoặc hóa lỏng (ví dụ, butan lỏng) trong bình chứa với dạng dùng để nạp hoặc nạp lại các bật lửa hút thuốc hoặc tương tự và có dung tích không quá 300 cm3 (nhóm 36.06).', '(g) Hydroquinone và những sản phẩm không pha trộn khác dùng cho ngành ảnh, được đóng gói với các tỷ lệ xác định hoặc được đóng gói để bán lẻ sẵn sàng cho sử dụng cho tạo ảnh (nhóm 37.07).', '(h) Những chất khử trùng, những chất diệt côn trùng, v.v, được đóng gói như là miêu tả ở nhóm 38.08.', '(ij) Những sản phẩm (ví dụ, carbon tetrachlroride) được nạp cho bình chữa cháy hoặc lựu đạn chữa cháy (nhóm 38.13).', '(k) Những chất tẩy mực (ví dụ, chloramines của nhóm 29.35 tan trong nước) được đóng gói để bán lẻ (nhóm 38.24).', '(l) Các bộ phận quang học (ví dụ, ethylenediamine tartrate) (nhóm 90.01).', '(E) Các sản phẩm có khả năng được phân loại vào 2 hoặc nhiều nhóm của Chương 29 (Chú giải 3 của Chương)', 'Những sản phẩm này được phân loại vào nhóm có số thứ tự cuối cùng trong số những nhóm có thể được áp dụng. Ví dụ, axit ascobic có thể được coi như là một lactone (nhóm 29.32) hoặc được coi như là một vitamin (nhóm 29.36); vì vậy nó sẽ được phân loại vào nhóm 29.36. Cũng lý do tương tự như vậy, allylestrenol được coi như là một rượu vòng (nhóm 29.06) nhưng cũng là một steroid với cấu trúc gonane không đổi, được dùng chủ yếu vì chức năng hormon của nó (nhóm 29.37), sẽ được xếp vào nhóm 29.37.', 'Tuy nhiên, cần phải chú ý rằng, các chất được mô tả trong đoạn cuối của nhóm 29.40 đặc biệt loại trừ các sản phẩm của nhóm 29.37, 29.38 và 29.39.', '(F) Các dẫn xuất halogen hóa, sulphonat hóa, nitrat hóa hoặc nitroso hóa và những hợp chất kết hợp của chúng; “chức oxy” đề cập trong nhóm 29.11, 29.12, 29.14, 29.18 and 29.22', '(Chú giải 4 của Chương)', 'Một số nhóm của Chương 29 bao gồm các dẫn xuất halogen hóa, sulphonat hóa, nitrat hóa hoặc nitroso hóa. Các trường hợp như thế bao gồm các dẫn xuất kết hợp, ví dụ, các dẫn xuất sulphohalogenat hóa, nitrohalogenat hóa, nitrosullphonat hóa, nitrosulphohalogenat hóa,v.v.', 'Theo mục đích của nhóm 29.29 thì các nhóm nitro và nitroso không được coi là các chức nitrogen.', 'Các dẫn xuất halogen hóa, sulphonat hóa, nitrat hóa và nitroso hóa được hình thành bằng cách thay thế một hoặc nhiều nguyên tử hydro trong các hợp chất ban đầu bởi một hoặc nhiều nhóm halogen, sulfo (-SO3H), nitro (-NO2) hoặc nitroso (-NO) hoặc bằng bất kỳ sự kết hợp nào của chúng. Mỗi nhóm chức (ví dụ, aldehyde, axit cacboxylic, amin) được xem xét để phân loại sẽ được giữ nguyên trong các dẫn xuất này.', 'Theo mục đích của đoạn cuối của Chú giải 4 và các nhóm 29.11, 29.12, 29.14, 29.18 và 29.22, “chức oxy” được đề cập trong nội dung của các nhóm này phải là nhóm chứa oxy hữu cơ đặc trưng được đề cập trong các nhóm từ 29.05 đến 29.20. Liên quan đến vấn đề này, các nhóm chức oxy được xem xét để phân loại cho các sản phẩm thuộc các nhóm 29.11, 29.12, 29.14 và 29.18 phải được giữ nguyên', '(G) Phân loại các este, các muối, các hợp chất phối trí và một vài halogenua', '(Chú giải 5 của Chương)', '(1) Các este.', 'Các este của hợp chất hữu cơ có chức axít nêu trong các Phân Chương từ I đến VII với những hợp chất hữu cơ của các Phân Chương này sẽ được phân loại vào cùng với hợp chất được phân loại vào nhóm có số thứ tự cuối trong các Phân chương này.', 'Ví dụ:', '(a) Diethylene glycol axetat (este được tạo ra từ phản ứng của axit axetic thuộc nhóm 29.15 với diethylene glycol của nhóm 29.09) *.................................... Nhóm 29.15', '(b) Methyl benzenesulphonate (este được tạo ra từ phản ứng của axit benzensulphonic thuộc nhóm 29.04 với methyl alcohol của nhóm 29.05) *............................. Nhóm 29.05', '(c) Butyl hydrogenphthalate (este của axit polycarboxylic mà hydro thuộc nhóm (COOH) duy nhất được thay thế) *.........................Nhóm 29.17', '(d) Butyl phthalyl butylglycollate (este được hình thành từ phản ứng của axit phthalic thuộc nhóm 29.17 và axit glycollic của nhóm 29.18 với rượu butyl alcohol của nhóm 29.05)*……….Nhóm 29.18.', 'Quy tắc này không áp dụng cho các este của các hợp chất có chức axít với ethyl alcohol vì hợp chất này không được phân loại vào Chương 29. Những este như thế phải được phân loại cùng với các hợp chất có chức axít mà chúng tạo ra.*', 'Ví dụ:', 'Ethyl acetat (este được hình thành từ phản ứng của axit axetic thuộc nhóm 29.15 với ethyl alcohol)…….......……………...... Nhóm 29.15', 'Cần phải chú ý thêm rằng các este đường và muối của chúng được phân loại vào nhóm 29.40.', '(2) Muối.', 'Theo Chú giải 1 của Phần VI và Chú giải 2 của Chương 28:', '(a) Muối vô cơ của hợp chất hữu cơ như các hợp chất có chức axit-, phenol- hoặc enol- hoặc bazơ hữu cơ, của Phân Chương I đến X hoặc nhóm 29.42, phải được phân loại vào nhóm tương ứng với các hợp chất hữu cơ.', 'Những muối này có thể được tạo thành bởi phản ứng của:', '(i) Những hợp chất hữu cơ có chức axit-, phenol- hoặc enol- với các bazơ vô cơ.', 'Ví dụ:', 'Methoxybenzoate natri (muối được tạo thành từ phản ứng của axit methoxybenzoic thuộc nhóm 29.18 với hydroxide natri)* ................................ Nhóm 29.18', 'Những muối loại này cũng có thể được hình thành bởi phản ứng của các este axit của các loại nói trên với các bazơ vô cơ.', 'Ví dụ:', 'n-Butyl đồng phthalat (muối được tạo thành từ phản ứng butyl hydrogen phthalat thuộc nhóm 29.17 cùng với đồng hydroxide)*................................. Nhóm 29.17', 'hoặc (ii) Những bazơ hữu cơ với các axit vô cơ.', 'Ví dụ:', 'Diethylamine hydrochloride (muối được hình thành từ phản ứng diethylamine thuộc nhóm 29.21 với axit hydrochloric thuộc nhóm 28.06)*……Nhóm 29.21', '(b) Những muối được tạo thành giữa các hợp chất hữu cơ của các phân chương từ I tới X hoặc của nhóm 29.42 sẽ được xếp vào nhóm phù hợp với bazơ hoặc axit (kể cả hợp chất có chức phenol - hoặc enol -) tạo ra chúng, loại có số thứ tự sau cùng trong Chương.', 'Ví dụ:', '(i) Anilin axetat (muối được hình thành từ phản ứng của axit axetic thuộc nhóm 29.15 cùng với anilin thuộc nhóm 29.21)* ………………….. Nhóm 29.21', '(ii) Methylamine phonoxyacetate (muối được hình thành từ phản ứng của methylamine thuộc nhóm 29.21 với axit phenoxyacetic thuộc nhóm 29.18)* ………………….. Nhóm 29.21', '(3) Các hợp chất phối trí.', 'Các hợp chất phối trí của kim loại thường bao gồm tất cả các loại mang điện hoặc không, trong đó một kim loại liên kết với vài nguyên tử (thường là 2 đến 9 nguyên tử) bằng một hoặc nhiều chuỗi (ligands). Dạng hình học của bộ khung hình thành bởi kim loại và các nguyên tử được liên kết với nhau và số liên kết kim loại thường được quy định bởi kim loại.', 'Những hợp chất phối trí, trừ các sản phẩm có thể được phân loại trong phân Chương XI hoặc trong nhóm 29.41, phải được xem xét như các mảnh do “bẻ gãy” tất cả các liên kết kim loại, trừ các liên kết kim loại - cacbon, và phải được phân loại theo mảnh (xem như là một hợp chất thực cho mục đích phân loại) trong nhóm có thứ tự sau cùng của Chương 29.', 'Theo mục đích Chú giải 5 (C) (3) của Chương này, thuật ngữ “mảnh” bao gồm các chuỗi và các phần chứa liên kết cacbon - kim loại thu được từ quá trình bẻ gãy.', 'Ví dụ minh họa dưới đây:', 'Kali trioxalatoferrate (III) được phân loại vào trong cùng nhóm với axit oxalic (nhóm 29.17), tương ứng với mảnh thu được sau khi bẻ gãy liên kết kim loại.', 'Ferrocholinat (INN) được phân loại vào cùng nhóm với cholin (nhóm 29.23), được phân loại trong nhóm có thứ tự sau cùng của nhóm này, hơn là được phân loại vào nhóm của axit citric tương ứng với các mảnh còn lại, được xếp theo mục đích phân loại.', 'Budotitane (INN): Sau khi bẻ gãy các liên kết kim loại, hai mảnh thu được, một mảnh là etanol (Chương 22), mảnh còn lại là benzoylaceton (và chức enol- của nó) được phân loại vào nhóm 29.14. Do vậy, Budotitan (INN) được phân loại vào nhóm 29.14.', '(4) Halogenua của axit cacboxylic*.', 'Những halogenua được phân loại vào cùng nhóm với các axit tương ứng. Ví dụ, isobutyryl chloride được phân loại vào nhóm 29.15 (như isobutyric axit tương ứng).', '(H) Phân loại vào các nhóm 29.32, 29.33 và 29.34', '(Chú giải 7 của Chương)', 'Các nhóm 29.32, 29.33 và 29.34 không bao gồm epoxit có vòng ba, xeton peroxit, polyme mạch vòng của andehyt hoặc của thioaldehyt, anhydrit của các axit cacboxilic đa chức, este mạch vòng của rượu đa chức hoặc phenol đa chức với axit đa chức, hoặc imit của axit đa chức , nếu các dị tố trên vòng là kết quả duy nhất của chức năng đóng vòng hay các chức năng được liệt kê ở đây.', 'Nếu, ngoài chức năng được liệt kê trong câu đầu tiên của Chú giải 7 của Chương 29, có các dị tố trên vòng khác hiện diện trong cấu trúc, việc phân loại phải được thực hiện có sự tham khảo tất cả các chức năng đóng vòng hiện diện. Vì vậy, ví dụ, anaxirone (INN) và pradefovir (INN) nên được phân loại vào nhóm 29.34 như hợp chất dị vòng với hai hoặc nhiều dị tố khác nhau và không được phân loại vào nhóm 29.33 như hợp chất dị vòng chỉ với dị tố nitơ.', '(IJ) Phân loại các chất dẫn xuất', 'Việc phân loại các dẫn xuất của các hợp chất hoá học ở cấp độ nhóm sẽ được xác định khi áp dụng Quy tắc Chú giải tổng quát. Chú giải 3 của Chương này áp dụng khi một dẫn xuất chủ yếu có thể được phân loại trong hai hoặc nhiều nhóm.', 'Trong bất kỳ nhóm nào của Chương này, các dẫn xuất sẽ được phân loại khi áp dụng Chú giải Phân nhóm 1.', '(K) Hệ thống vòng ngưng tụ', 'Một hệ thống vòng ngưng tụ là một hệ thống có ít nhất hai vòng, trong đó chỉ có duy nhất một liên kết chung và chỉ có hai nguyên tử chung.', 'Các hệ vòng ngưng tụ xuất hiện trong các phân tử của các hợp chất đa vòng (ví dụ, các hydro cacbon đa vòng, hợp chất dị vòng) trong đó hai vòng được nối với nhau thông qua một cạnh chung kéo theo hai nguyên tử liền kề. Dưới đây là các ví dụ minh hoạ:', 'Trong hệ thống vòng phức, sự ngưng tụ có thể xảy ra ở nhiều cạnh của bất kỳ vòng nào. Hợp chất có nhiều vòng mà trong đó hai vòng chỉ có hai nguyên tử dùng chung được gọi là “ortho- ngưng tụ”. Nói một cách khác, hợp chất có nhiều vòng mà trong đó một vòng chỉ có hai nguyên tử chung với mỗi vòng hoặc nhiều hơn của một chuỗi vòng liên tục được gọi là “ortho- và peri- ngưng tụ”. Hai dạng nối khác nhau của các hệ thống vòng ngưng tụ được minh hoạ qua những ví dụ sau:', 'Nói cách khác, ví dụ dưới đây minh họa một quinoline cầu (không ngưng tụ):', 'Theo mục đích của nội dung của Chú giải Chi tiết của Chương này. dấu hoa thị “*” theo sau các công thức hóa học có nghĩa là cấu trúc hóa học của nó có thể được tham khảo trong Phụ lục của Chú giải Chi tiết Chương 29.', 'Phân Chương I', 'HYDROCARBON VÀ CÁC DẪN XUẤT HALOGEN HOÁ, SUNPHONAT HOÁ, NITRO HOÁ HOẶC NITROSO HOÁ CỦA CHÚNG']</t>
   </si>
   <si>
     <t>['TỔNG QUÁT', 'Nhìn chung, chương này bao gồm hầu hết các sản phẩm sử dụng như phân bón tự nhiên hoặc phân bón nhân tạo.', 'Mặt khác, Chương này không bao gồm các sản phẩm nhằm cải thiện đất hơn là làm màu mỡ cho đất, như là:', '(a) Vôi (nhóm 25.22).', '(b) Đất maccơ (một loại đất sét và vôi) và đất mùn (có hoặc không có chứa một lượng nhỏ các nguyên tố làm màu mỡ là nitơ, phốt pho hoặc kali tự nhiên) (nhóm 25.30).', '(c) Than bùn (nhóm 27.03).', 'Chương này cũng không bao gồm các chế phẩm vi chất dinh dưỡng được áp dụng cho hạt giống, cho tán lá hoặc đất để hỗ trợ cho sự nảy mầm và phát triển của cây. Chúng có thể chứa lượng nhỏ các nguyên tố của phân bón là nitơ, phốt pho và kali, nhưng không phải là thành phần cần thiết (ví dụ, nhóm 38.24).', 'Nó cũng không bao gồm môi trường phát triển của thực vật như bầu đất, dựa trên than bùn, hoặc hỗn hợp than bùn và cát hoặc than bùn và đất sét (nhóm 27.03) và hỗn hợp của đất, cát, đất sét, v.v. (nhóm 38.24). Tất cả các sản phẩm này có thể chứa một lượng nhỏ các nguyên tố của phân bón là nitơ, phốt pho hoặc kali.', '31.01- Phân bón gốc thực vật hoặc động vật, đã hoặc chưa pha trộn với nhau hoặc qua xử lý hóa học; phân bón sản xuất bằng cách pha trộn hoặc xử lý hóa học các sản phẩm động vật hoặc thực vật.', 'Nhóm này gồm có:', '(a) Các loại phân bón có nguồn gốc từ động vật hoặc thực vật, đã hoặc chưa pha trộn với nhau hoặc qua xử lý hóa học;', '(b) Các loại phân bón sản xuất bằng cách pha trộn hoặc xử lý hóa học các sản phẩm có nguồn gốc từ động vật hoặc thực vật (trừ các loại superphotphat từ các loại xương thuộc nhóm 31.03).', 'Tuy nhiên, các sản phẩm này được phân loại vào nhóm 31.05 khi là các sản phẩm đã được tạo dạng nhất định hoặc đóng gói như mô tả tại nhóm đó.', 'Ngoài những đề cập khác, nhóm này bao gồm:', '(1) Phân chim, đó là sự tích tụ các loại phân và xác của các loại chim biển, được tìm thấy với số lượng lớn trên một số đảo và bờ biển. Nó là một loại phân đồng thời có cả nitơ và phốt pho và thường là dạng bột có màu vàng nhạt, có mùi amoniac mạnh.', '(2) Chất thải, phân động vật, phế thải lông cừu, và phân hữu cơ chỉ phù hợp cho sử dụng làm phân bón.', '(3) Những sản phẩm thực vật bị mục thối, chỉ phù hợp cho sử dụng làm phân bón.', '(4) Phân chim đã phân hủy.', '(5) Các sản phẩm thu được từ việc xử lý da thuộc với axit sulphuric.', '(6) Phân trộn thu được từ phế thải thực vật mục thối và các vật liệu khác mà sự phân hủy đã được đẩy nhanh hoặc được kiểm soát bằng việc xử lý với vôi,....', '(7) Các loại cặn của quá trình tẩy sạch len.', '(8) Các hỗn hợp của máu khô và bột xương.', '(9) Bùn cống đã ổn định từ những nhà máy xử lý nước đô thị. Bùn cống đã ổn định thu được bằng cách cho dòng nước cứng qua chấn song để tách các vật liệu lớn và để lắng sạn và những cắn vô cơ nặng. Bùn còn lại sau đó được phơi khô ngoài không khí hoặc được lọc. Bùn đã ổn định bằng cách như vậy có chứa một tỷ lệ cao các chất hữu cơ cũng như một số nguyên tố dùng làm phân bón (ví dụ, phôt pho và ni tơ). Tuy nhiên, loại bùn chứa những vật liệu khác (ví dụ, kim loại nặng) ở nồng độ cao, điều này làm cho bùn đã ổn định không phù hợp đối với việc sử dụng làm phân bón, bị loại trừ (nhóm 38.25).', 'Nhóm này cũng không bao gồm:', '(a) Máu của động vật, ở dạng lỏng hoặc khô (nhóm 05.11).', '(b) Bột xương, sừng hoặc móng, hoặc phế thải của cá (Chương 5).', '(c) Các loại bột mịn, bột thô và các viên từ thịt hoặc của các cơ quan nội tạng dạng thịt, của cá hoặc của động vật giáp xác, động vật thân mềm hoặc của động vật không xương sống khác sống dưới nước, không thích hợp để làm thức ăn cho người (nhóm 23.01), và các loại sản phẩm khác thuộc Chương 23 (như là bánh khô dầu, bã rượu bia, v.v...)', 'd) Tro của xương, gỗ, than bùn hoặc than đá (nhóm 26.21).', '(e) Hỗn hợp của phân bón tự nhiên của nhóm này với các chất hóa học làm phân bón (nhóm 31.05).', '(f) Hỗn hợp của bùn cống đã ổn định với nitrat kali hoặc amoni nitrat (nhóm 31.05).', '(g) Da vụn và các phế liệu khác của da; bụi da, bột mịn và bột thô của da (nhóm 41.15).']</t>
@@ -970,7 +970,7 @@
     <t>['TỔNG QUÁT', 'Chương này bao gồm các chế phẩm sử dụng trong thuộc da và ngâm mềm da (các chiết xuất để thuộc da có nguồn gốc thực vật, các chất thuộc da tổng hợp, đã hoặc chưa pha trộn với các vật liệu thuộc da tự nhiên, và nước ngâm mềm da nhân tạo).', 'Chương này cũng bao gồm chất màu có nguồn gốc từ thực vật, động vật hoặc có nguồn gốc từ khoáng và chất màu hữu cơ tổng hợp và hầu hết các chế phẩm thu được từ những chất màu này (sơn, màu gốm, mực các loại,...). Các chế phẩm khác như vecni, chất làm khô và chất gắn kết cũng được bao gồm.', 'Ngoại trừ các sản phẩm trong các nhóm 32.03 hay 32.04, các sản phẩm vô cơ sử dụng như chất phát quang (nhóm 32.06), thuỷ tinh thu từ thạch anh nung chảy hoặc silic nung chảy ở dạng đã ghi trong nhóm 32.07 và cả thuốc nhuộm hoặc chất màu khác đã làm thành dạng nhất định hoặc đóng gói để bán lẻ (nhóm 32.12), các sản phẩm có chứa các nguyên tố hoặc hợp chất đã được xác định về mặt hóa học bị loại trừ khỏi Chương này, và thông thường chúng nằm trong các Chương 28 hoặc Chương 29.', 'Trong trường hợp sơn và vecni nào đó thuộc các nhóm từ 32.08 đến 32.10 hoặc matít thuộc nhóm 32.14, hỗn hợp được trộn lẫn của nhiều thành phần khác nhau, hoặc bổ sung một vài thành phần nhất định (ví dụ chất đóng rắn) phải được thực hiện tại thời điểm sử dụng. Những sản phẩm đó vẫn được xếp trong nhóm này với điều kiện các thành phần là:', '(i) liên quan đến cách thức mà chúng được sắp xếp, xác định rõ ràng có mục đích sử dụng cùng nhau mà không cần phải đóng gói lại.', '(ii) đi kèm cùng nhau; và', '(iii) xác định được, thông qua bản chất hoặc tỷ lệ tương đối của từng chất, như là chất bổ sung cho nhau.', 'Tuy nhiên, trong trường hợp các sản phẩm có chất đóng rắn được thêm vào tại thời điểm sử dụng, các sản phẩm này vẫn thuộc nhóm này nếu không có chất đóng rắn, với điều kiện thành phần hoặc cách thức đóng gói của chúng, có thể xác định rõ ràng là có mục đích được sử dụng trong điều chế sơn, vecni, hoặc matít.']</t>
   </si>
   <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm các sản phẩm thu được chủ yếu từ quá trình xử lý công nghiệp các chất béo, dầu hoặc sáp (ví dụ, xà phòng, một số các chế phẩm bôi trơn, các loại sáp đã chế biến, một số các chế phẩm đánh bóng hoặc tẩy rửa, nến). Chương này cũng bao gồm một số các sản phẩm nhân tạo, ví dụ, các chất hoạt động bề mặt, các chế phẩm hoạt động bề mặt và sáp nhân tạo.', 'Chương này không bao gồm các hợp chất đã xác định về mặt hóa học riêng biệt, hoặc các sản phẩm tự nhiên không pha trộn hoặc chế biến.', '34.01- Xà phòng; các sản phẩm và các chế phẩm hữu cơ hoạt động bề mặt dùng như xà phòng, ở dạng thanh, bánh, được nén thành miếng hoặc hình dạng nhất định, có hoặc không chứa xà phòng; các sản phẩm và các chế phẩm hữu cơ hoạt động bề mặt dùng để làm sạch da, ở dạng lỏng hoặc ở dạng kem và đã được đóng gói để bán lẻ, có hoặc không chứa xà phòng; giấy, mền xơ, nỉ và sản phẩm không dệt, đã thấm tẩm, tráng hoặc phủ xà phòng hoặc chất tẩy.', '- Xà phòng và các sản phẩm và các chế phẩm hữu cơ hoạt động bề mặt, ở dạng thanh, miếng, bánh hoặc các hình dạng khác, và giấy, mền xơ, nỉ và sản phẩm không dệt, đã thấm tẩm, tráng hoặc phủ xà phòng hoặc chất tẩy:']</t>
+    <t>['TỔNG QUÁT', 'Chương này bao gồm các sản phẩm thu được chủ yếu từ quá trình xử lý công nghiệp các chất béo, dầu hoặc sáp (ví dụ, xà phòng, một số các chế phẩm bôi trơn, các loại sáp đã chế biến, một số các chế phẩm đánh bóng hoặc tẩy rửa, nến). Chương này cũng bao gồm một số các sản phẩm nhân tạo, ví dụ, các chất hoạt động bề mặt, các chế phẩm hoạt động bề mặt và sáp nhân tạo.', 'Chương này không bao gồm các hợp chất đã xác định về mặt hóa học riêng biệt, hoặc các sản phẩm tự nhiên không pha trộn hoặc chế biến.', '34.01- Xà phòng; các sản phẩm và các chế phẩm hữu cơ hoạt động bề mặt dùng như xà phòng, ở dạng thanh, bánh, được nén thành miếng hoặc hình dạng nhất định, có hoặc không chứa xà phòng; các sản phẩm và các chế phẩm hữu cơ hoạt động bề mặt dùng để làm sạch da, ở dạng lỏng hoặc ở dạng kem và đã được đóng gói để bán lẻ, có hoặc không chứa xà phòng; giấy, mền xơ, nỉ và sản phẩm không dệt, đã thấm tẩm, tráng hoặc phủ xà phòng hoặc chất tẩy.', '- Xà phòng và các sản phẩm và các chế phẩm hữu cơ hoạt động bề mặt, ở dạng thanh, miếng, bánh hoặc các hình dạng khác, và giấy, mền xơ, nỉ và sản phẩm không dệt, đã thấm tẩm, tráng hoặc phủ xà phòng hoặc chất tẩy:', '3401.11 - - Dùng cho vệ sinh (kể cả các sản phẩm đã tẩm thuốc):', '3401.19 - - Loại khác', '3401.20 - Xà phòng ở dạng khác', '3401.30 - Các sản phẩm và chế phẩm hữu cơ hoạt động bề mặt dùng để làm sạch da, ở dạng lỏng hoặc dạng kem và đã được đóng gói để bán lẻ, có hoặc không chứa xà phòng', '(I) XÀ PHÒNG', 'Xà phòng là một loại muối kiềm (vô cơ hoặc hữu cơ) được làm từ axít béo hoặc hỗn hợp của axít béo chứa ít nhất 8 nguyên tử cacbon. Trong thực tế, một phần của axít béo có thể được thay thế bằng axít rosin.', 'Nhóm này chỉ bao gồm xà phòng hòa tan trong nước, có thể nói đó chính là xà phòng. Xà phòng tạo ra một loại chất hoạt động bề mặt anion, với phản ứng kiềm, phản ứng này tạo nhiều bọt trong dung dịch nước.', 'Xà phòng có 3 loại:', 'Xà phòng cứng, thường được làm từ hydroxit natri hoặc cacbonat natri và bao gồm phần lớn là xà phòng thông thường. Loại xà phòng này có thể có màu trắng, được tạo màu hoặc có vằn.', 'Xà phòng kem, được làm từ hydroxit kali hoặc cacbonat kali. Loại xà phòng này thường sền sệt và thường có màu xanh, nâu hoặc vàng nhạt. Chúng có thể chứa một lượng nhỏ (thường không quá 5%) chất hoạt động bề mặt tổng hợp hữu cơ.', 'Xà phòng dạng lỏng, là loại dung dịch xà phòng trong nước, trong một vài trường hợp có một lượng nhỏ (thường là không quá 5%) cồn hoặc glyxêrin được thêm vào, nhưng không chứa chất hoạt động bề mặt tổng hợp hữu cơ.', 'Phần này đặc biệt bao gồm:', '(1) Xà phòng dùng cho vệ sinh: thường được tạo màu và tạo hương, loại này bao gồm: xà phòng bọt và xà phòng khử mùi, cũng như xà phòng glyxêrin, xà phòng dùng để cạo mặt, xà phòng đã tẩm thuốc và một vài loại xà phòng tẩy uế hoặc xà phòng nhám, như được mô tả dưới đây.', '(a) Xà phòng bọt và xà phòng khử mùi.', '(b) Xà phòng glyxêrin, là loại có mầu trong mờ và được làm bằng cách xử lý xà phòng trắng cùng với cồn, glycerol hoặc đường.', '(c) Xà phòng dùng để cạo (các loại kem cạo thuộc nhóm 33.07).', '(d) Xà phòng đã được tẩm thuốc có chứa axít boric, axít salicylic, lưu huỳnh, sulphonamit hoặc các chất thuốc khác.', '(e) Xà phòng dùng để tẩy uế, có chứa một lượng nhỏ phenol, cresol, naphthol, formaldehyt hoặc các chất diệt khuẩn khác, chất kìm hãm vi khuẩn (bacteriostatic), v.v. Những loại xà phòng này không được nhầm lẫn với các chế phẩm tẩy trùng thuộc nhóm 38.08 có chứa cùng thành phần, khác nhau về tỷ lệ của các thành phần (một phần là xà phòng, một phần là phênol, cresol, vv...). Các chế phẩm tẩy trùng của nhóm 38.08 có chứa một tỷ lệ đáng kể phenol, cresol, v.v., và ở thể lỏng trong khi xà phòng dùng để tẩy uế luôn luôn ở thể rắn.', '(f) Xà phòng nhám, bao gồm xà phòng đã được cho thêm vào cát, dioxit silíc, bột đá bọt, bột đá phiến, mùn cưa hoặc bất kỳ sản phẩm tương tự nào. Nhóm này chỉ bao gồm xà phòng nhám ở dạng thanh, miếng, bánh hoặc các hình dạng khác. Bột và bột nhão nhám dùng để cọ rửa, có hoặc không chứa xà phòng, sẽ thuộc nhóm 34.05.', '(2) Xà phòng dùng trong gia đình, là loại có thể được tạo màu hoặc được tạo hương, nhám hoặc tẩy uế.', '(3) Rosin, dầu tall hoặc xà phòng naphthenate không chỉ chứa muối kiềm của axit béo mà còn chứa resinat kiềm của nhóm 38.06 hoặc naphthenat kiềm của nhóm 34.02.', '(4) Xà phòng dùng trong công nghiệp, được sản xuất cho mục đích đặc biệt, như dùng để kéo dây điện, dùng để polyme hoá cao su tổng hợp, hoặc dùng để giặt là.', 'Theo như trường hợp ngoại lệ trong phần 1(f) ở trên, xà phòng thuộc nhóm này thường ở các dạng sau đây: thanh, miếng, bánh hoặc các hình dạng khác, phiến, bột, nhão hoặc dạng dung dịch nước.', '(II) CÁC SẢN PHẨM VÀ CÁC CHẾ PHẨM HỮU CƠ HOẠT ĐỘNG BỀ MẶT DÙNG NHƯ XÀ PHÒNG, Ở DẠNG THỎI, DẠNG BÁNH, DẠNG VIÊN HOẶC DẠNG KHUÔN ÉP, CÓ HOẶC KHÔNG CHỨA XÀ PHÒNG', 'Phần này bao gồm các sản phẩm và chế phẩm dùng để giặt hoặc dùng cho vệ sinh, trong đó thành phần hoạt tính bao gồm toàn bộ hay một phần chất hoạt động bề mặt tổng hợp (nó có thể chứa xà phòng theo một tỷ lệ bất kỳ), với điều kiện là chúng phải ở dạng thỏi, miếng, bánh hoặc hoặc hình dạng khác, điều đó có nghĩa là, các dạng thông thường của xà phòng được chủ định cho mục đích sử dụng như nhau.', 'Phần này cũng bao gồm các sản phẩm và các chế phẩm có đặc tính nhám tương tự bằng cách thêm cát, dioxit silíc, bột đá bọt, vv.., với điều kiện các chất này phải ở những dạng được mô tả ở trên.', '(III) CÁC SẢN PHẨM VÀ CÁC CHẾ PHẨM HỮU CƠ HOẠT ĐỘNG BỀ MẶT DÙNG ĐỂ LÀM SẠCH DA, Ở DẠNG LỎNG HOẶC DẠNG KEM VÀ ĐƯỢC ĐÓNG GÓI ĐỂ BÁN LẺ, CÓ HAY KHÔNG CHỨA XÀ PHÒNG.', 'Phần này bao gồm các chế phẩm dùng để làm sạch da, trong đó thành phần hoạt tính bao gồm toàn bộ hay một phần chất hữu cơ tổng hợp hoạt động bề mặt (mà có thể chứa xà phòng với một tỷ lệ bất kỳ), với điều kiện chúng ở dạng lỏng hoặc dạng kem và đóng gói để bán lẻ. Những chế phẩm như vậy chưa được đóng gói để bán lẻ được phân loại vào nhóm 34.02.', '(IV) GIẤY, MỀN XƠ, NỈ VÀ SẢN PHẨM KHÔNG DỆT, ĐÃ THẤM TẨM, TRÁNG HOẶC PHỦ XÀ PHÒNG HOẶC CHẤT TẨY.', 'Phần này bao gồm giấy, mền xơ, nỉ và sản phẩm không dệt, đã thấm tẩm, tráng hoặc phủ xà phòng hoặc chất làm sạch, có hoặc không tạo hương hoặc đóng gói để bán lẻ. Những sản phẩm này thường dùng để rửa tay hoặc mặt.', 'Ngoài những chất loại trừ ở trên, nhóm này không bao gồm:', '(a) Cặn xà phòng (nhóm 15.22).', '(b) Các sản phẩm và chế phẩm không tan trong nước, đó là “xà phòng” chỉ dùng trong mục đích hóa học, như "xà phòng" canxi hoặc “xà phòng” kim loại khác (Như là các trường hợp có thể thuộc Chương 29, 30, 38, vv... ).', '(c) Giấy, mền xơ, nỉ và sản phẩm không dệt, tạo hương đơn giản (Chương 33).', '(d) Dầu gội đầu và kem đánh răng (nhóm 33.05 và 33.06 tương ứng).', '(e) Chất hữu cơ hoạt động bề mặt (trừ xà phòng), các chế phẩm hoạt động bề mặt và các chế phẩm dùng để giặt (có hoặc không chứa xà phòng) và xà phòng hòa tan hoặc phân tán trong dung môi hữu cơ, thuộc nhóm 34.02.', '(f) Plastic bọt xốp, cao su bọt xốp, nguyên liệu dệt (trừ bông, nỉ và sản phẩm không dệt) và miếng đệm kim loại, đã thấm, tẩm hoặc tráng phủ xà phòng hoặc chất làm sạch (những mặt hàng này thường được phân loại trong các nhóm phù hợp với chất liệu nền).', '34.02- Chất hữu cơ hoạt động bề mặt (trừ xà phòng); các chế phẩm hoạt động bề mặt, các chế phẩm dùng để giặt, rửa (kể cả các chế phẩm dùng để giặt, rửa phụ trợ) và các chế phẩm làm sạch, có hoặc không chứa xà phòng, trừ các loại thuộc nhóm 34.01.', '- Các chất hữu cơ hoạt động bề mặt dạng anion, đã hoặc chưa đóng gói để bán lẻ:', '3402.31 - - Các axil alkylbenzen sulphonic cấu trúc thẳng và muối của chúng', '3402.39 - - Loại khác', '- Các chất hữu cơ hoạt động bề mặt khác, đã hoặc chưa đóng gói để bán lẻ:', '3402.41 - - Dạng cation', '3402.42 - - Dạng không phân ly (non - ionic)', '3402.49 - - Loại khác', '3402.50 - Chế phẩm đã đóng gói để bán lẻ', '3402.90 - Loại khác', '(I) CHẤT HỮU CƠ HOẠT ĐỘNG BỀ MẶT (TRỪ XÀ PHÒNG)', 'Chất hữu cơ hoạt động bề mặt của nhóm này là các hợp chất hóa học, chưa xác định về mặt hóa học, các chất này chứa một hay nhiều nhóm chức ưa nước hoặc kỵ nước với tỷ lệ là, khi trộn với nước ở nồng độ 0.5% ở nhiệt độ 20 ºC và để một giờ đồng hồ với cùng nhiệt độ, chúng tạo ra một chất lỏng trong hoặc sáng mờ hoặc nhũ tương bền vững không có sự phân chia của chất không tan (xem Chú giải 3 (a) của Chương này). Theo mục đích của nhóm này, nhũ tương không được coi như có tính chất bền vững nếu như sau khi để một giờ đồng hồ ở nhiệt độ 20 ºC, (1) những phần tử rắn có thể nhìn được bằng mắt thường, (2) nó phân tách thành các giai đoạn tách biệt có thể nhìn thấy được hoặc (3) nó phân tách thành một phần trong suốt và một phần sáng mờ, có thể nhìn thấy được bằng mắt thường.', 'Chất hữu cơ hoạt động bề mặt có thể hấp thụ ở bề mặt tiếp xúc; ở trạng thái này chúng thể hiện một số đặc tính vật lý - hóa học, đặc biệt là tính chất hoạt động bề mặt (ví dụ, giảm sức căng bề mặt, tạo bọt, nhũ hóa, thấm ướt), đó chính là lý do tại sao các chất đó thường được coi là "chất hoạt động bề mặt".', 'Tuy nhiên, các sản phẩm không có khả năng làm giảm sức căng bề mặt của nước cất xuống 4.5 x 10-2N/m (45dyne/cm) hoặc thấp hơn ở nồng độ 0.5% ở nhiệt độ 20 °C không được coi là chất hoạt động bề mặt và vì vậy không thuộc nhóm này.', 'Chất hữu cơ hoạt động bề mặt có thể là:', '(1) Anion, trong trường hợp chúng ion hóa trong dung dịch nước để tạo ra ion hữu cơ tích điện âm hoạt động bề mặt. Ví dụ như: sunphat và sulphonat của mỡ, dầu thực vật (triglyceride) hoặc axit resin; sunphat và sunphonat thu được từ cồn béo; sulphonat dầu mỏ, ví dụ, của kim loại kiềm (kể cả các chất có chứa một phần dầu khoáng), của amoni hoặc của ethanolamines; alkylpolyethersulphates; alkylsulphonates hoặc alkylphenylethersulphonates; alkylsulphates, alkyllarylsulphonates (ví dụ, dodecylbenzenesulphonates kỹ thuật).', 'Các chất hoạt động bề mặt này có thể chứa tạp chất từ quá trình sản xuất, số lượng nhỏ của cồn béo, alkylate hoặc các nguyên liệu thô kỵ nước khác được thoát ra từ quá trình sulphat và sulphonat. Các chất này cũng chứa sulphat natri hoặc muối vô cơ dư khác với tỷ lệ thường không quá 15%, khi là muối khan.', '(2) Cation, trong trường hợp chúng ion hoá trong dung dịch nước để tạo ra ion mang điện tích dương (+) hoạt động bề mặt. Ví dụ: muối của các amin béo và bazơ amoni bậc 4.', '(3) Non-ion, trong trường hợp chúng không tạo ra ion trong dung dịch nước. Khả năng hòa tan trong nước là do sự có mặt của các phân tử của nhóm chức có sức hút nước lớn. Ví dụ như: các sản phẩm ngưng tụ của cồn béo, axit béo hoặc alkylphenol với ethylen oxit; ethoxylate của axit amin béo.', '(4) Chất lưỡng tính, trong trường hợp phụ thuộc vào điều kiện của môi trường, chúng có thể được ion hoá trong dung dịch nước và tạo ra các hợp chất đặc trưng của chất hoạt động bề mặt anion hoặc cation.', 'Tính chất của ion này giống như tính chất của các hợp chất lưỡng tính với ý nghĩa khái quát nhất. Ví dụ, những chất như protein alkylbetaine hoặc protein sulphobetaine, các sản phẩm phân ly của nó và các hợp chất thay thế của amino-cacboxylic, amino-sulphuric và amino- photphoric axit.', '(II) CÁC CHẾ PHẨM HOẠT ĐỘNG BỀ MẶT, CÁC CHẾ PHẨM DÙNG ĐỂ GIẶT, RỬA (KỂ CẢ CÁC CHẾ PHẨM PHỤ TRỢ DÙNG ĐỂ GIẶT RỬA) VÀ CÁC CHẾ PHẨM LÀM SẠCH, CÓ HOẶC KHÔNG CHỨA XÀ PHÒNG, TRỪ CÁC LOẠI THUỘC NHÓM 34.01.', 'Nhóm này bao gồm 3 loại chế phẩm:', '(A) Các chế phẩm hoạt động bề mặt.', 'Bao gồm:', '(1) Sự trộn lẫn của các chất hoạt động bề mặt thuộc Phần (I) ở trên (ví dụ, sulphoricinoleates trộn lẫn với alkylnaphthalenes đã được sulphonat hóa hoặc cồn béo đã được sulphat hóa).', '(2) Chất hoạt động bề mặt dạng dung dịch hoặc dạng phân tán thuộc Phần (I) ở trên trong một dung môi hữu cơ (ví dụ, một dung dịch của cồn béo được sunphat hóa trong cyclohexanol hoặc trong tetrahydronaphthalene).', '(3) Các hỗn hợp khác từ chất hoạt động bề mặt thuộc Phần (I) ở trên (ví dụ, các chế phẩm hoạt động bề mặt có chứa một tỷ lệ xà phòng, như alkylbenzenesulphonate với stearate natri).', '(4) Xà phòng dạng dung dịch hoặc dạng phân tán trong một dung môi hữu cơ như cyclohexanol. (Dung dịch của xà phòng trong nước, có thể có một lượng nhỏ thêm vào là rượu hoặc glycerol (thường không quá 5%), là xà phòng dạng lỏng thuộc nhóm 34.01).', 'Các chế phẩm hoạt động bề mặt được dùng trong nhiều ứng dụng công nghiệp vì tính chất làm sạch, thấm ướt, nhũ hoá hoặc phân tán của chúng, ví dụ như:', '(i) Chất làm sạch dùng cho ngành dệt, để loại chất béo và chất bẩn trên vải dệt trong suốt quá trình sản xuất và hoàn thiện.', '(ii) Chất thấm ướt, chất nhũ hoá, chất làm sáng và chất trợ tẩy màu, dùng cho công nghiệp dệt.', '(iii) Chất dùng để ngâm (dùng cho da sống), chất làm giảm mỡ, chất làm ướt (dùng để nhuộm), chất làm phẳng hoặc dưỡng da, dùng cho công nghiệp da thuộc hoặc công nghiệp lông.', '(iv) Những nguyên liệu chính dùng để sản xuất các chế phẩm dùng giặt rửa của Phần B dưới đây (ví dụ, các chế phẩm hoạt động bề mặt anion có thể chứa một lượng đáng kể sulphat natri hoặc muối vô cơ khác phát sinh trong quá trình sản xuất chất hoạt động bề mặt, hoặc như một chất lắng hoặc như là một chất thêm vào có chủ ý).', '(v) Chất phân tán dùng cho công nghiệp giấy và công nghiệp cao su tổng hợp.', '(vi) Chất tuyển nổi dùng cho công nghiệp mỏ.', '(vii) Chất nhũ hoá dùng trong sản xuất các sản phẩm dược phẩm hoặc mỹ phẩm.', 'Nhóm này không bao gồm các sản phẩm hoặc chế phẩm hữu cơ hoạt động bề mặt để làm sạch da, trong đó thành phần hoạt tính bao gồm 1 phần hoặc toàn bộ chất hoạt động bề mặt hữu cơ tổng hợp (trong đó có thể chứa xà phòng theo tỷ lệ bất kỳ), ở dạng lỏng hoặc kem và được đóng gói để bán lẻ (nhóm 34.01).', '(B) Các chế phẩm giặt, rửa (kể cả các chế phẩm phụ trợ dùng để giặt rửa) và các chế phẩm làm sạch, có thành phần cơ bản là xà phòng hoặc các chất hữu cơ hoạt động bề mặt khác.', 'Loại này bao gồm các chế phẩm giặt rửa, chế phẩm phụ trợ dùng để giặt rửa và một số chế phẩm làm sạch. Các chế phẩm đa dạng này thường chứa các thành phần thiết yếu và một hoặc nhiều thành phần phụ trợ. Đặc biệt, sự có mặt của các thành sau này chỉ ra sự khác biệt của các chế phẩm này so với các chế phẩm được mô tả trong phần A ở trên.', 'Các thành phần chủ yếu là các chất hữu cơ hoạt động bề mặt tổng hợp hoặc xà phòng hoặc hỗn hợp của chúng.', 'Các thành phần phụ trợ là:', '(1) Các chất nền (ví dụ, polyphosphat natri, cacbonat, silicat hoặc borat, muối của axit nitrilotriacetic (NTA)).', '(2) Các chất tăng tốc (ví dụ, alkanolamides, amin axit béo, oxit amin béo).', '(3) Chất độn (ví dụ, sulphat natri hoặc clorua).', '(4) Chất phụ trợ (ví dụ, chất tẩy hóa học hoặc quang học, chất chống lắng đọng, chất chống ăn mòn, chất chống tĩnh điện, chất tạo mầu, chất tạo hương, chất diệt vi khuẩn, enzim).', 'Các chế phẩm này hoạt động trên bề mặt bằng việc chuyển chất bẩn trên bề mặt thành dạng hòa tan hoặc dạng phân tán.', 'Các chế phẩm giặt rửa từ các chất hoạt động bề mặt cũng được biết như là chất làm sạch. Loại chế phẩm này được dùng để giặt quần áo và cũng dùng để rửa bát đĩa hoặc các dụng cụ nhà bếp.', 'Các chất này có thể ở dạng lỏng, bột hoặc dạng nhão và được sử dụng trong gia đình và trong công nghiệp. Các sản phẩm vệ sinh và giặt rửa ở dạng thỏi, miếng, bánh hoặc các hình dạng khác xếp ở nhóm 34.01.', 'Các chế phẩm phụ trợ dùng để giặt rửa được dùng để ngâm (trước khi giặt), giũ hoặc tẩy quần áo, đồ lanh nội trợ, vv...', 'Các chế phẩm làm sạch dùng để làm sạch nền nhà, cửa sổ hoặc các bề mặt khác. Chúng cũng có thể chứa một lượng nhỏ chất có mùi thơm.', '(C) Các chế phẩm làm sạch hoặc tẩy mỡ, có thành phần cơ bản không phải là xà phòng hoặc các chất hữu cơ hoạt động bề mặt khác.', 'Các chế phẩm này gồm:', '(i) Chất làm sạch axit hoặc kiềm có công thức đặc biệt dùng để làm sạch các đồ vệ sinh, chảo rán, ..., ví dụ, những chất có chứa sulphat hydro natri hoặc hỗn hợp của hypochlorite natri và orthophosphat trinatri.', '(ii) Các chế phẩm dùng để tẩy mỡ hoặc làm sạch, ví dụ, sử dụng trong việc sản xuất bơ sữa hoặc làm bia, và một thành phần cơ bản của:', '- chất kiềm như là cacbonat natri hoặc hydroxit natri, hoặc', '- các dung môi và các chất nhũ hóa.', 'Sản phẩm của nhóm này có thể bao gồm một lượng nhỏ xà phòng hoặc các chất hoạt động bề mặt khác.', 'Nhóm này không bao gồm:', '(a) Dầu gội hoặc các chế phẩm dùng để tắm, có hoặc không chứa xà phòng hoặc các chất hoạt động bề mặt khác (Chương 33).', '(b) Giấy, mền xơ, nỉ và sản phẩm không dệt, đã thấm tẩm, tráng hoặc phủ chất làm sạch (nhóm 34.01).', '(c) Các chế phẩm, có chứa chất hoạt động bề mặt mà chức năng hoạt động bề mặt hoặc không được yêu cầu hoặc chỉ là phần phụ đối với chức năng chính của chế phẩm (có thể ở các nhóm 34.03, 34.05, 38.08, 38.09, 38.24, vv...).', '(d) Các chế phẩm có tính chất mài mòn có chứa các chất hoạt động bề mặt (dạng nhão và bột tẩy rửa) (nhóm 34.05).', '(e) Các naphthenates không tan trong nước, sulphonat dầu mỏ và các sản phẩm và chế phẩm hoạt động bề mặt không tan trong nước khác. Các chất này thuộc nhóm 38.24, với điều kiện là các chất này không nằm trong nhóm cụ thể hơn.', '34.03- Các chế phẩm bôi trơn (kể cả các chế phẩm dầu cắt, các chế phẩm dùng cho việc tháo bu lông hoặc đai ốc, các chế phẩm chống gỉ hoặc chống mài mòn và các chế phẩm dùng cho việc tách khuôn đúc, có thành phần cơ bản là dầu bôi trơn) và các chế phẩm dùng để xử lý bằng dầu hoặc mỡ cho các vật liệu dệt, da thuộc, da lông hoặc các vật liệu khác, nhưng trừ các chế phẩm có thành phần cơ bản chứa từ 70% trở lên tính theo trọng lượng là dầu có nguồn gốc từ dầu mỏ hoặc các loại dầu thu được từ khoáng bi-tum.', '- Có chứa các loại dầu có nguồn gốc từ dầu mỏ hoặc dầu thu được từ khoáng bi-tum:', '3403.11 - - Chế phẩm dùng để xử lý các vật liệu dệt, da thuộc, da lông hoặc các vật liệu khác:', '3403.19 - - Loại khác', '- Loại khác:', '3403.91 - - Chế phẩm dùng để xử lý các vật liệu dệt, da thuộc, da lông hay các vật liệu khác', '3403.99 - - Loại khác', 'Với điều kiện là các chất này không chứa từ 70% dầu có nguồn gốc từ dầu mỏ hoặc dầu từ khoáng chất bitum như thành phần cơ bản (xem nhóm 27.10), ngoài những đề cập khác, nhóm này bao gồm hỗn hợp đã điều chế của các loại dưới đây:', '(A) Các chế phẩm bôi trơn được chế tạo để giảm ma sát giữa các bộ phận chuyển động trong máy móc, xe cộ, máy bay hoặc các thiết bị, dụng cụ hoặc công cụ. Các loại dầu nhờn này thường bao gồm, hoặc thành phần cơ bản là hỗn hợp của dầu, chất béo hoặc mỡ động vật, thực vật hoặc dầu khoáng, cùng với các chất phụ gia (ví dụ, than chì, disulphit molipden, talc, mồ hóng cacbon, xà phòng canxi hoặc xà phòng kim loại khác, hắc ín, hoặc gỉ sắt, chất oxi hoá, ..., chất ức chế). Tuy nhiên, nhóm này cũng bao gồm các chế phẩm bôi trơn tổng hợp với thành phần cơ bản, ví dụ như dioctyl hoặc dinonyl sebacates, este phosphoric, polychlorobiphenyls, poly(oxyethylene) (polyethylene glycol) hoặc poly(oxypropylene) (polypropylene glycols). Dầu bôi trơn tổng hợp này bao gồm "mỡ" với thành phần cơ bản là silicon hoặc dầu máy bay (hoặc dầu bôi trơn este tổng hợp), được chế tạo để hoạt động trong những điều kiện đặc biệt chính xác (ví dụ, dầu bôi trơn chống lửa, dầu bôi trơn dùng cho các công cụ chính xác hoặc động cơ phản lực).', '(B) Chế phẩm bôi trơn dùng cho việc kéo dây để đảm bảo cho dây chuyển động dễ dàng qua khuôn. Các chế phẩm này bao gồm: một vài nhũ tương nước của mỡ động vật và axit sulphuric; hỗn hợp của xà phòng natri, stearat nhôm, nước và dầu khoáng; hỗn hợp của dầu, chất béo và sulpho - oleates; hỗn hợp của xà phòng canxi và vôi, ở dạng bột.', '(C) Các chế phẩm dầu cắt: Các chế phẩm này thường có thành phần cơ bản là dầu động vật, dầu thực vật hoặc dầu khoáng, thường pha trộn thêm chất hoạt động bề mặt.', 'Các chế phẩm (ví dụ, các chế phẩm với thành phần cơ bản là sulphonat dầu mỏ hoặc các sản phẩm hoạt động bề mặt khác) dùng để làm dầu cắt, nhưng thường không thích hợp với việc sử dụng trực tiếp như dầu cắt thì không bao gồm trong phần này (nhóm 34.02).', '(D) Các chế phẩm dùng để tháo bulông hoặc đai ốc. Đây là các chế phẩm dùng để tháo bulông, ốc hoặc các bộ phận khác. Các chất này thường bao gồm chủ yếu là dầu bôi trơn và cũng có thể chứa dầu nhờn dạng rắn, dung môi, chất hoạt động bề mặt, chất đánh gỉ, vv...', '(E) Chế phẩm chống gỉ hoặc chống mài mòn bao gồm thành phần chủ yếu là dầu nhờn.', '(F) Chế phẩm tách khuôn đúc có thành phần cơ bản là dầu nhờn, được sử dụng trong nhiều ngành công nghiệp khác nhau (ví dụ, plastic, cao su, xây dựng, khuôn đúc), như:', '(1) Dầu khoáng, dầu thực vật hoặc dầu động vật hoặc các chất béo khác (kể cả các chất đó đã sulphonat hóa, ôxi hóa hoặc hyđro hóa) được trộn lẫn hoặc nhũ hóa với sáp, lecithin hoặc chất chống ôxy hóa.', '(2) Hỗn hợp có chứa mỡ hoặc dầu silicon.', '3) Hỗn hợp bột graphite, talc, mica, bentonite hoặc nhôm với dầu, chất béo, sáp, vv...', '(Tuy nhiên, nhóm này loại trừ các hỗn hợp hoặc chế phẩm ăn được của mỡ hoặc dầu động vật hoặc thực vật thuộc loại dùng như các chế phẩm dùng để tách khuôn (ví dụ, dầu tách khuôn dùng trong hiệu bánh mỳ) (nhóm 15.17).', '(G) Các chế phẩm dùng để bôi trơn, bôi dầu hoặc bôi mỡ của cho nguyên liệu dệt, da thuộc, da sống, da lông, vv.... Các chất này có thể dùng để bôi trơn hoặc làm mềm sợi dệt trong quá trình xe sợi, dùng để nhồi da thuộc, vv.... Các chất này bao gồm, ví dụ như: hỗn hợp của dầu khoáng hoặc chất béo với chất hoạt động bề mặt (ví dụ, sulphoricinoleates); các chế phẩm bôi trơn nguyên liệu dệt phân tán trong nước có chứa tỷ lệ cao các chất hoạt động bề mặt cùng với dầu khoáng chất và các hóa chất khác.', 'Nhóm này cũng bao gồm:', '(1) Chất nhũ hóa ổn định disulphide molypden trong dầu khoáng, có chứa dầu khoáng từ 70% trở lên tính theo trọng lượng, có cho thêm một lượng nhỏ disulphide molypden sẽ trở thành thành phần cơ bản, chỉ vì đặc tính bôi trơn đặc biệt của chúng, để làm dầu bôi trơn cho động cơ, v.v,...', '(2) Các chế phẩm chống gỉ với thành phần cơ bản là mỡ lông cừu và hòa tan trong xăng trắng, thậm chí với tỷ lệ thành phần xăng trắng là 70% trở lên tính theo trọng lượng.', '(3) Chế phẩm dạng nhão không đóng rắn bao gồm petroleum jelly và xà phòng canxi, và được dùng để bôi trơn và đấu nối làm kín các khớp nối và mạch khi lắp ráp các bộ phận phanh lực chân không.', 'Nhóm này cũng không bao gồm:', '(a) Chất nhờn nhân tạo (nhóm 15.22).', '(b) Chế phẩm gel dùng làm dược phẩm cho người hoặc thú y như là chất bôi trơn cho các bộ phận cơ thể khi phẫu thuật hoặc khám bệnh hoặc tác nhân kết hợp giữa người bệnh với dụng cụ y tế (nhóm 30.06).', '(c) Than chì dạng keo hoặc dạng bán keo hoặc than chì dạng nhão, thuộc nhóm 38.01.', '(d) Các chế phẩm chống trượt dây curoa truyền động (nhóm 38.24) và chế phẩm chống rỉ của nhóm 38.24.', '34.04- Sáp nhân tạo và sáp đã được chế biến', '3404.20 - Từ poly(oxyetylen) (polyetylen glycol)', '3404.90 - Loại khác', 'Nhóm này bao gồm sáp nhân tạo (đôi khi trong công nghiệp gọi là "sáp tổng hợp") và sáp đã được chế biến, như được định nghĩa ở Chú giải 5 của Chương này, chứa hoặc bao gồm chất hữu cơ với trọng lượng phân tử tương đối cao và không phải là các hợp chất được xác định về mặt hóa học riêng biệt. Những sáp này là:', '(A) Các sản phẩm hữu cơ thu được bằng phương pháp hóa học có đặc tính như sáp, có hoặc không tan trong nước. Tuy nhiên, sáp thuộc nhóm 27.12, được tạo ra bằng cách tổng hợp hoặc cách khác (ví dụ, sáp Fischer - Tropsch chứa phần lớn là hydrocacbon) thì bị loại trừ. Các sản phẩm sáp tan trong nước có đặc tính hoạt động bề mặt cũng bị loại trừ (nhóm 34.02).', '(B) Các sản phẩm thu được bằng cách trộn lẫn hai hay nhiều sáp động vật khác nhau, sáp thực vật khác nhau hoặc các sáp khác nhau của các loại sáp khác hoặc thu được từ quá trình trộn lẫn sáp của các loại khác (động vật, thực vật hoặc loại khác) (ví dụ, hỗn hợp của các loại sáp thực vật khác nhau và hỗn hợp của một loại sáp khoáng với một loại sáp thực vật). Tuy nhiên, hỗn hợp của sáp khoáng bị loại trừ (nhóm 27.12).', '(C) Các sản phẩm có đặc tính sáp với thành phần là một hoặc nhiều loại sáp và có chứa chất béo, nhựa, chất khoáng hoặc chất khác. Tuy nhiên, sáp thực vật hoặc động vật không pha trộn, đã hoặc chưa tinh chế hoặc tạo màu thì bị loại trừ (nhóm 15.21). Sáp khoáng không pha trộn hoặc hỗn hợp của sáp khoáng, đã hoặc chưa tạo mầu, cũng bị loại trừ (nhóm 27.12).', 'Tuy nhiên, các chất được mô tả ở phần (A), (B) và (C) ở trên, khi trộn lẫn với nhau, phân tán (lơ lửng hoặc nhũ tương) hoặc hòa tan trong môi trường lỏng, không thuộc nhóm này (nhóm 34.05, 38.09, vv...).', 'Các loại sáp thuộc phần (A) và (C) ở trên phải có:', '(1) điểm nhỏ giọt trên 40°C; và', '(2) độ nhớt, khi đo bằng phương pháp roto quay, không quá 10 Pa.s (hoặc 10,000 cP) tại nhiệt độ trên điểm nhỏ giọt của chúng 10 °C.', 'Thêm vào đó, các sản phẩm này thường biểu hiện các đặc tính sau:', '(a) chúng có tác dụng đánh bóng khi lau chùi nhẹ nhàng;', '(b) Tính bền vững và khả năng hòa tan của chúng phụ thuộc chủ yếu vào nhiệt độ;', '(c) ở nhiệt độ 20 °C:', '(i) một số loại ở mềm và có thể nhào trộn được (nhưng không dính hoặc lỏng) (sáp mềm), những loại khác giòn, dễ gẫy (sáp cứng);', '(ii) chúng không trong suốt nhưng có thể trong mờ;', '(d) ở nhiệt độ trên 40 °C, chúng tan chảy nhưng không phân hủy;', '(e) ngay trên điểm nóng chảy chúng không thể dễ dàng kéo thành sợi;', '(f) chúng là chất dẫn điện và nhiệt kém.', 'Sáp của nhóm này rất đa dạng về thành phần hóa học. Sáp này bao gồm:', '(1) Các loại sáp polyalkylene (ví dụ, sáp polyetylene). Các loại sáp này được sử dụng trong đóng gói nguyên liệu, bôi trơn và đánh bóng sợi dệt, vv...', '(2) Sáp thu được từ quá trình ô xi hóa từng phần của sáp hydrocacbon (như sáp parafin tổng hợp hoặc tự nhiên). Chúng được sử dụng rộng rãi trong việc đánh bóng, phủ, bôi trơn, vv....', '(3) Các loại sáp có chứa hỗn hợp của chloroparaffins, polychlorobiphenyls hoặc polychloronaphthalenes. Các chất này được dùng trong việc chống lửa, như chất cách điện, chất chống thấm cho tụ điện, bôi trơn, bảo quản gỗ, vv...', '(4) Các loại sáp glycol polyethylene (Poly(oxyethylene)). Các loại sáp này có thể tan trong nước và được sử dụng trong mỹ phẩm hoặc dược phẩm, như chất kết dính, chất làm mềm, chất bảo quản và keo dính cho vật liệu dệt hoặc giấy, trong thành phần của mực hoặc cao su, vv...', '(5) Các loại sáp bao gồm hỗn hợp của keton béo, este béo (như là monostearate glycol propylene đã biến tính với một lượng nhỏ xà phòng, và được trộn với mono glycerol và distearate đã được este hóa bằng axit tartaric và axit acetic), amin béo hoặc amid béo. Các loại sáp này được dùng trong mỹ phẩm, đánh bóng, sơn, vv...', '(6) Sáp thu được từ quá trình biến tính hóa học một phần hoặc toàn bộ của sáp tự nhiên như là sáp than nâu.', '(7) Các loại sáp có chứa hai hoặc nhiều loại sáp khác (trừ hỗn hợp của sáp khoáng nằm trong nhóm 27.12) hoặc một hoặc nhiều sáp với vật liệu khác, ví dụ, sáp có chứa sáp paraffin và polyethylene, được dùng như vật liệu phủ, sáp chứa sáp paraffin và axít stearic, được dùng như nguyên liệu thô để làm nến, sáp có chứa sáp hydrocacbon đã được oxi hóa và nhũ hóa; sáp gắn và các loại sáp có thành phần tương tự, tuy nhiên các loại sáp này được đóng gói, trừ các sản phẩm thuộc nhóm 32.14.', 'Các loại sáp trên, nếu được tạo màu cũng được phân loại ở đây.', 'Ngoài những trường hợp loại trừ đề cập ở trên, nhóm này không bao gồm:', '(a) Cồn mỡ lông cừu, thậm chí nếu có đặc tính của sáp (nhóm 15.05).', '(b) Dầu đã được hydro hóa, thậm chí nếu có đặc tính của sáp (nhóm 15.16).', '(c) Các hợp chất hữu cơ đã xác định về mặt hóa học riêng biệt (Chương 29).', '(d) "Sáp dùng trong nha khoa" và "các hợp chất làm mẫu răng", đã đóng gói thành bộ, thành gói để bán lẻ hoặc ở dạng phiến, dạng móng ngựa, dạng thanh hoặc các dạng tương tự (nhóm 34.07).', '(e) Axít béo monocarboxylic công nghiệp và cồn béo công nghiệp, thậm chí nếu có đặc tính của sáp (nhóm 38.23).', '(f) Hỗn hợp của mono-, di- và tri-, este axit béo của glycerol, không có đặc tính của các loại sáp (nhóm 38.24).', '(g) Polychlorobiphenyls đã pha trộn và chloroparaffin đã pha trộn, không có đặc tính của sáp (nhóm 38.24).', '(h) Glycol polyethylene (Poly(oxyethylene)), không có đặc tính của sáp (ví dụ, nhóm 38.24 hoặc 39.07).', '(ij) Polyethylene không có đặc tính của sáp (ví dụ, nhóm 39.01).']</t>
   </si>
   <si>
     <t>['TỔNG QUÁT', 'Chương này bao gồm bột nổ đẩy và các chất nổ đã điều chế, như hỗn hợp được đặc trưng bởi việc chúng chứa lượng oxy cần thiết để tạo ra sự cháy và trong quá trình cháy các hỗn hợp này tạo ra một lượng lớn khí ở nhiệt độ cao.', 'Chương này cũng bao gồm các chất phụ trợ cần thiết cho sự bắt cháy của chúng (nụ xòe hoặc mồi nổ, kíp nổ...).', 'Các vật phẩm được điều chế từ các chất nổ, chất dẫn lửa, chất dễ cháy hoặc chất dễ bắt lửa để tạo ra ánh sáng, âm thanh, khói, lửa hoặc tia lửa (ví dụ, sản phẩm pháo, diêm, xeri sắt và một vài chế phẩm dễ cháy) cũng được phân loại ở Chương này.', 'Chương này không bao gồm các hợp chất đã được xác định riêng về mặt hóa học (thường được phân loại ở Chương 28 hoặc 29), trừ một vài nhiên liệu được mô tả trong Phần (II) (A), (II) (B) (1) và (II) (B) (2) của Chú giải Chi tiết nhóm 36.06. Chương này cũng không bao gồm đạn dược của Chương 93.']</t>
@@ -979,7 +979,7 @@
     <t>['TỔNG QUÁT', 'Các tấm, phim, giấy, bìa và vật liệu dệt để tạo ảnh thuộc Chương 37 là những thứ có một hay nhiều lớp nhũ nhạy đối với ánh sáng hoặc các dạng phóng xạ khác có đủ năng lượng để gây ra phản ứng cần thiết đối với nguyên liệu nhạy sóng photon (hoặc photo), như phóng xạ của bước sóng dài tối đa là khoảng 1.300 nanometer trong quang phổ điện từ (kể cả tia gamma, tia X quang, tia cực tím và bức xạ hồng ngoại gần), cũng như phóng xạ từng phần (hay hạt nhân), được dùng cho phiên bản đơn sắc hoặc cho phiên bản mầu. Tuy nhiên, một số loại tấm kính ảnh/tấm kẽm chụp ảnh chưa được tráng lớp nhũ nhưng chúng lại bao gồm toàn bộ hay về cơ bản là chất nhựa cảm quang có thể được thêm vào để làm tăng hiệu quả hỗ trợ. Các tấm nhạy với tia laser hồng ngoại thường được gọi là tấm cảm ứng nhiệt/tấm nhiệt hoặc tấm nhạy nhiệt.', 'Lớp nhũ cơ bản nhất có thành phần chủ yếu là bạc halogen (như bạc brômua, bạc iôt - brômua, vv..) hoặc muối của các kim loại quý khác, nhưng các nguyên liệu khác có thể được sử dụng, như kali ferricyanide hoặc hợp chất sắt dùng cho bản in phơi, kali hoặc amoni dicromat dùng cho bản khắc ảnh, muối diazonium dùng cho nhũ diazo vv....', '(A) Các tấm kính ảnh và phim ảnh xếp vào Chương này khi:', '(1) Chưa phơi sáng, như chưa chịu sự tác động ánh sáng hoặc các dạng phóng xạ khác; hoặc', '(2) Đã phơi sáng, đã hoặc chưa được tráng (như là xử lý hóa học để tạo ra hình ảnh rõ nét).', 'Các tấm kính ảnh và phim vẫn được phân loại trong Chương này hoặc âm bản (có nghĩa là với ánh sáng và bóng ánh sáng chiếu trở lại), dương bản (bao gồm cả dương bản tía dùng cho việc sao chép nhiều dương bản hơn), hoặc ngược lại (có nghĩa là với lớp nhũ đặc biệt cho phép tạo ra dương bản trực tiếp).', '(B) Giấy, bìa và vật liệu dệt ảnh bao gồm trong Chương này chỉ khi chúng chưa được phơi sáng hoặc đã phơi sáng (âm bản hoặc dương bản) nhưng chưa được tráng; sau khi tráng, chúng được xếp vào Chương 49 hoặc Phần XI.', 'Theo các điều kiện đặc biệt được giải thích trong Chú giải nhóm 37.07, Chương này cũng bao gồm sản phẩm hóa chất và vật liệu đèn nháy dùng trong nhiếp ảnh.', 'Chương này không bao gồm phế liệu hoặc phế thải. Phế liệu và phế thải của tạo ảnh hoặc điện ảnh chứa kim loại quý hoặc hợp chất kim loại quý, được dùng chủ yếu trong thu hồi lại kim loại quý, được phân loại vào nhóm 71.12. Các phế liệu hoặc phế thải của tạo ảnh hoặc điện ảnh khác được phân loại dựa trên nguyên liệu cấu thành (ví dụ, nếu bằng plastics, thì xếp vào nhóm 39.15, nếu bằng giấy thì xếp vào nhóm 47.07).']</t>
   </si>
   <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm một số lượng lớn các sản phẩm hóa học và các sản phẩm có liên quan.', 'Chương này không bao gồm các nguyên tố hoặc các hợp chất đã được xác định về mặt hóa học riêng biệt (thường được phân loại trong Chương 28 hoặc 29), trừ những trường hợp sau đây:', '(1) Graphit nhân tạo (nhóm 38.01).', '(2) Thuốc trừ côn trùng, thuốc diệt loại gặm nhấm, thuốc diệt nấm, thuốc diệt cỏ, thuốc chống nảy mầm và thuốc điều hòa sinh trưởng cây trồng, thuốc khử trùng và các sản phẩm tương tự, đã đóng gói theo cách thức được mô tả ở nhóm 38.08.', '(3) Các sản phẩm được sử dụng như chất liệu nạp cho bình dập lửa hoặc lựu đạn dập lửa (nhóm 38.13).', '(4) Các tinh thể nuôi cấy (trừ các bộ phận quang học) có trọng lượng mỗi tinh thể không dưới 2,5g oxit magiê hay halogenua của kim loại kiềm hoặc kiềm thổ (nhóm 38.24).', '(5) Chất tẩy mực đã đóng gói để bán lẻ (nhóm 38.24).', 'Theo mục đích của Chú giải 1(b) của Chương này, thuật ngữ "thực phẩm hoặc các chất có giá trị dinh dưỡng khác" chủ yếu bao gồm các sản phẩm có thể ăn được thuộc các Phần từ I đến IV.', 'Thuật ngữ "thực phẩm hoặc các chất có giá trị dinh dưỡng khác" cũng bao gồm một số sản phẩm khác, ví dụ, các sản phẩm thuộc Chương 28 được sử dụng như các chất bổ sung khoáng chất trong chế biến thực phẩm, rượu đường thuộc nhóm 29.05, các axit amin chủ yếu thuộc nhóm 29.22, lecithin thuộc nhóm 29.23, các tiền vitamin và vitamin các loại thuộc nhóm 29.36, các loại đường thuộc nhóm 29.40, các sản phẩm của máu động vật thuộc nhóm 30.02 sử dụng trong chế biến thực phẩm, casein và các muối của casein thuộc nhóm 35.01, các albumin thuộc nhóm 35.02, gelatin ăn được thuộc nhóm 35.03, các chất protein ăn được của nhóm 35.04, dextrin và các loại tinh bột biến tính ăn được khác thuộc nhóm 35.05, sobitol thuộc nhóm 38.24, các sản phẩm ăn được thuộc Chương 39 (như amylopectin và amylose thuộc nhóm 39.13). Chú ý danh mục các sản phẩm này chỉ có tính chất minh họa và không được coi là đầy đủ.', 'Thành phần không đáng kể của "thực phẩm hoặc các chất có giá trị dinh dưỡng khác" trong một hỗn hợp sẽ không đủ để đáp ứng việc loại trừ hỗn hợp này khỏi Chương 38, khi áp dụng Chú giải 1 (b). Các chất có giá trị dinh dưỡng mà giá trị dinh dưỡng chỉ là phụ so với chức năng sử dụng như sản phẩm hóa chất của chúng, ví dụ, như chất phụ gia thực phẩm hoặc chất hỗ trợ chế biến, không được coi là "thực phẩm hoặc các chất có giá trị dinh dưỡng" theo mục đích của Chú giải này. Hỗn hợp được loại trừ khỏi Chương 38 theo Chú giải 1 (b) là những loại được sử dụng cho chế biến thực phẩm cho người và được đánh giá dựa trên chất lượng dinh dưỡng của chúng.', '38.01 – Graphit nhân tạo; graphit dạng keo hoặc dạng bán keo; các chế phẩm làm từ graphit hoặc carbon khác ở dạng bột nhão, khối, tấm hoặc ở dạng bán thành phẩm khác.', '3801.10- Graphit nhân tạo']</t>
+    <t>['TỔNG QUÁT', 'Chương này bao gồm một số lượng lớn các sản phẩm hóa học và các sản phẩm có liên quan.', 'Chương này không bao gồm các nguyên tố hoặc các hợp chất đã được xác định về mặt hóa học riêng biệt (thường được phân loại trong Chương 28 hoặc 29), trừ những trường hợp sau đây:', '(1) Graphit nhân tạo (nhóm 38.01).', '(2) Thuốc trừ côn trùng, thuốc diệt loại gặm nhấm, thuốc diệt nấm, thuốc diệt cỏ, thuốc chống nảy mầm và thuốc điều hòa sinh trưởng cây trồng, thuốc khử trùng và các sản phẩm tương tự, đã đóng gói theo cách thức được mô tả ở nhóm 38.08.', '(3) Các sản phẩm được sử dụng như chất liệu nạp cho bình dập lửa hoặc lựu đạn dập lửa (nhóm 38.13).', '(4) Các tinh thể nuôi cấy (trừ các bộ phận quang học) có trọng lượng mỗi tinh thể không dưới 2,5g oxit magiê hay halogenua của kim loại kiềm hoặc kiềm thổ (nhóm 38.24).', '(5) Chất tẩy mực đã đóng gói để bán lẻ (nhóm 38.24).', 'Theo mục đích của Chú giải 1(b) của Chương này, thuật ngữ "thực phẩm hoặc các chất có giá trị dinh dưỡng khác" chủ yếu bao gồm các sản phẩm có thể ăn được thuộc các Phần từ I đến IV.', 'Thuật ngữ "thực phẩm hoặc các chất có giá trị dinh dưỡng khác" cũng bao gồm một số sản phẩm khác, ví dụ, các sản phẩm thuộc Chương 28 được sử dụng như các chất bổ sung khoáng chất trong chế biến thực phẩm, rượu đường thuộc nhóm 29.05, các axit amin chủ yếu thuộc nhóm 29.22, lecithin thuộc nhóm 29.23, các tiền vitamin và vitamin các loại thuộc nhóm 29.36, các loại đường thuộc nhóm 29.40, các sản phẩm của máu động vật thuộc nhóm 30.02 sử dụng trong chế biến thực phẩm, casein và các muối của casein thuộc nhóm 35.01, các albumin thuộc nhóm 35.02, gelatin ăn được thuộc nhóm 35.03, các chất protein ăn được của nhóm 35.04, dextrin và các loại tinh bột biến tính ăn được khác thuộc nhóm 35.05, sobitol thuộc nhóm 38.24, các sản phẩm ăn được thuộc Chương 39 (như amylopectin và amylose thuộc nhóm 39.13). Chú ý danh mục các sản phẩm này chỉ có tính chất minh họa và không được coi là đầy đủ.', 'Thành phần không đáng kể của "thực phẩm hoặc các chất có giá trị dinh dưỡng khác" trong một hỗn hợp sẽ không đủ để đáp ứng việc loại trừ hỗn hợp này khỏi Chương 38, khi áp dụng Chú giải 1 (b). Các chất có giá trị dinh dưỡng mà giá trị dinh dưỡng chỉ là phụ so với chức năng sử dụng như sản phẩm hóa chất của chúng, ví dụ, như chất phụ gia thực phẩm hoặc chất hỗ trợ chế biến, không được coi là "thực phẩm hoặc các chất có giá trị dinh dưỡng" theo mục đích của Chú giải này. Hỗn hợp được loại trừ khỏi Chương 38 theo Chú giải 1 (b) là những loại được sử dụng cho chế biến thực phẩm cho người và được đánh giá dựa trên chất lượng dinh dưỡng của chúng.', '38.01 – Graphit nhân tạo; graphit dạng keo hoặc dạng bán keo; các chế phẩm làm từ graphit hoặc carbon khác ở dạng bột nhão, khối, tấm hoặc ở dạng bán thành phẩm khác.', '3801.10- Graphit nhân tạo', '3801.20 - Graphit dạng keo hoặc dạng bán keo', '3801.30- Bột nhão carbon làm điện cực và các dạng bột nhão tương tự dùng để lót lò nung', '3801.90- Loại khác', '(1) Graphite nhân tạo (điện cực Graphite) là một dạng của carbon, thường được chế tạo trong lò nung điện bằng cách đốt nóng một hỗn hợp của than cốc đã được nghiền mịn (thường là than cốc dầu mỏ, song đôi khi có than cốc anthracite, than cốc retort, than cốc hắc ín...) và chất kết dính carbon (ví dụ, hắc ín hoặc nhựa đường), tới một nhiệt độ đủ cao (2500 °c đến 3000 °C) để đảm bảo "sự graphit hóa" dưới tác động của các chất xúc tác có mặt trong hỗn hợp (ví dụ, silica hoặc oxit sắt). Trước tiên hỗn hợp được ép đùn hoặc đóng đúc khuôn dưới áp suất thành các khối "màu xanh" có mặt cắt ngang hình tròn hoặc hình vuông; các khối này có thể hoặc được đốt cháy sơ bộ (được nung) ở khoảng 1000 °C và sau đó được graphit hóa, hoặc chúng có thể được tham gia trực tiếp vào quá trình graphit hóa.', 'Bằng phương pháp này, một sản phẩm thu được với trọng lượng riêng biểu kiến nằm trong khoảng 1,5 đến 1,6 và có cấu trúc vi tinh thể đồng nhất mà quá trình kiểm tra bằng tia X chỉ ra rằng đó là graphite. Phân tích hóa học khẳng định rằng chất này là graphit (quá trình làm kết tủa của axit graphitic).', 'Ngoài các cấp độ thông thường của graphit nhân tạo, nhóm này bao gồm :', '(a) Dạng graphit nhân tạo cấp hạt nhân, đó là, graphite nhân tạo được chế tạo đặc biệt nó chứa lượng nguyên tố Bo không lớn hơn 1/1.000.000 (1 phần triệu), và tổng tiết diện Natron hấp thụ nhiệt nóng cực nhỏ không lớn han 5 miliban trên 1 nguyên tử. Dạng graphite này có hàm lượng tro rất thấp (không vượt quá 20/1.000.000 (20 phần triệu)), và được sử dụng như chất điều tiết hoặc chất phản xạ trong các lò phản ứng hạt nhân.', '(b) Graphit nhân tạo đã được ngâm tẩm hoặc graphite nhân tạo không thấm, đó là, graphite nhân tạo, mà để tăng trọng lượng riêng biểu kiến hoặc tính không thấm của nó đối với khí, thì đầu tiên phải được ngâm tẩm trong chân không với nhựa hoặc hắc ín hoặc với dung dịch đường hoặc dung dịch các sản phẩm hữu cơ khác, và được đốt cháy lại để graphit hóa các cặn carbon của các chất phụ gia này.', 'Quá trình ngâm tẩm có thể được lặp lại vài lần để đạt được trọng lượng riêng biểu kiến cao hơn (1,9 hoặc lớn hơn) hoặc độ chống thấm cao. Graphite đã qua ngâm tẩm cũng có thể thuộc cấp hạt nhân.', 'Graphite nhân tạo ở nhóm này thường ở dạng bột, vảy, khối, tấm, thanh, que,... Sau khi cắt và gia công cơ khí hoàn thiện cao (độ dung sai cho phép và hoàn thiện bề mặt phù hợp), các graphite dạng khối và tấm được sử dụng để làm bàn chổi hoặc các sản phẩm carbon kỹ thuật điện khác thuộc nhóm 85.45 hoặc các bộ phận của lò phản ứng hạt nhân.', 'Nhóm này cũng bao gồm mảnh vụn, phế liệu và vật phẩm đã mài mòn, chỉ thích hợp cho việc thu hồi graphite nhân tạo.', 'Nhóm này không bao gồm :', '(a) Graphite tự nhiên (nhóm 25.04).', '(b) Muội bình chưng than đá (hoặc carbon dạng khí), đôi khi bị gọi lầm là “graphite nhân tạo” (nhóm 27.04).', '(c) Graphite nhân tạo đã được xử lý bề mặt, hoàn thiện bề mặt, cắt thành các hình dạng đặc biệt, tiện, khoan, nghiền,..., hoặc để tạo thành các vật phẩm. Nếu là loại được sử dụng không cho mục đích kỹ thuật điện thì thường thuộc nhóm 68.15 (ví dụ, bộ lọc, đĩa, vòng bi, khuôn đúc, gạch chịu axit,...); một số loại được sử dụng cho các mục đích kỹ thuật điện thuộc nhóm 85.45.', '(d) Các sản phẩm chịu lửa, đã qua lửa như các loại đồ gốm, với thành phần cơ bản là graphite nhân tạo (nhóm 69.02 hoặc 69.03).', '(e) Các khối, tấm, thanh và các bán thành phẩm tương tự, từ graphite nhân tạo mà cũng chứa các bột của bạc (nhóm 71.06).', '(2) Graphite dạng keo hoặc graphite dạng bán keo.', '(a) Graphite dạng keo bao gồm các graphite tự nhiên hoặc nhân tạo mịn ở dạng keo huyền phù trong nước hoặc trong môi trường khác (ví dụ, cồn, dầu khoáng), đối với các graphite loại này có thể được thêm một lượng nhỏ các sản phẩm khác như tanin hoặc amoniac cho mục đích duy trì trạng thái huyền phù. Graphite dạng keo thường là ở thể sền sệt, và được sử dụng chủ yếu cho sản xuất chế phẩm bôi trơn hoặc làm cho nó có tính dẫn điện cao.', '(b) Graphite dạng bán keo (tức là, graphite ở trạng thái bán keo huyền phù trong nước hoặc môi trường khác). Graphite dạng bán keo có thể được sử dụng cho việc điều chế dầu graphite hoặc cho sự tạo thành bề mặt graphite.', 'Loại graphite này chỉ bao gồm graphite dạng huyền phù keo hoặc bán keo trong bất kỳ môi trường nào, mà graphite là thành phần cơ bản.', '(3) Các chế phẩm dựa trên graphite hoặc carbon khác ở dạng bột nhão, khối, tấm, hoặc các bán thành phẩm khác.', '(a) Khối, tấm, thanh và các bán thành phẩm "Carbon" tương tự của Graphite kim loại hoặc các cấp độ khác.', 'Các thuật ngữ này bao gồm một nhóm các bán thành phẩm dạng khối, tấm,..., loại được sử dụng để làm các chổi “than” cho các máy móc hoặc thiết bị điện hoặc kỹ thuật điện, và chúng được dựa trên các vật liệu carbon (riêng chúng hoặc kết hợp với các chất khác). Chúng thường ở một số dạng sau :', '(i) “Carbons” thu được do quá trình đốt cháy hỗn hợp của than cốc nghiền mịn hoặc muội đèn và graphit tự nhiên hoặc nhân tạo đã nghiền thành bột với các chất kết dính carbon như nhựa đường hoặc hắc ín ở nhiệt độ (1000°C - 1200°C) chưa đủ để thực hiện quá trình "graphit hóa" thực sự.', 'Cấu trúc của các sản phẩm này do đó thu được không đồng nhất; khi sử dụng kính hiển vi kiểm tra xem xét cho thấy một hỗn hợp các hạt graphit với các hạt carbon vô định hình và, trên cơ sở của các phép phân tích hóa học cho thấy rằng kết tủa của axit graphitic là yếu hơn so với các kết tủa thu được từ graphit nhân tạo.', '(ii) Các thành phần của cấp độ graphit kim loại thu được từ một quá trình giống quá trình nung kết (sự kết tụ, đúc và sự đốt cháy), từ các hỗn hợp của graphit đã nghiền thành bột với bột của các kim loại cơ bản (đồng, cađimi hoặc các hợp kim của chúng). Hàm lượng kim loại này trong chúng khoảng từ 10 đến 95%.', '(iii) Các loại thu được do quá trình đúc bột graphit tự nhiên hoặc nhân tạo trộn với plastic', 'Đặc biệt, các khối và tấm, thu được từ các vật liệu như đã mô tả ở trên thường có các kích thước khoảng 200x100x35mm hoặc 150x70x30mm. Sau khi cắt và gia công cơ khí hoàn thiện cao (độ dung sai cho phép và gia công bề mặt phù hợp) chúng được sử dụng chủ yếu để làm các chổi điện thuộc nhóm 85.45.', 'Các bán thành phẩm đã đề cập ở trên khi chúng chứa đựng bạc đã nghiền thành bột, được phân loại trong nhóm 71.06. Nhóm này cũng loại trừ các dạng khối mà đã cắt thành các hình dạng đặc biệt, được gia công bề mặt, đã được hoàn thiện bề mặt,... (thường thuộc nhóm 68.15 hoặc 85.45) và các sản phẩm chịu lửa, đã nung nhu gốm sứ, dựa trên carbon vô định hình hoặc graphit tự nhiên (nhóm 69.02 hoặc 69.03).', '(b) Bột nhão carbon cho các điện cực.Các sản phẩm này bao gồm chủ yếu hỗn hợp than anthracite và nhựa đường hắc ín than đá (đóng vai trò như chất kết dính). Chúng thường được đóng thành dạng các khối nhỏ, được chèn vào phần trên của các vật chứa đựng bằng kim loại, ở vị trí đó chúng sẽ mềm đi khi phơi ra trước nhiệt. Vì vậy, chúng được đúc bên trong thùng chứa để tạo thành một điện cực liên tục sử dụng trong lò nung không cần phải dừng lại để thay thế các điện cực đúc sẵn đã bị mòn. Hỗn hợp phổ biến nhất của loại này là "bột nhão Soderberg".', 'Các bột nhão tương tự được dùng làm lớp lót cho lò nung, bột nhão sau đó sẽ rắn lên tại chỗ.', 'Loại này cũng bao gồm graphit ở dạng nhão, gồm một hỗn hợp của graphit ở dạng hạt (phần lớn trên 5 micrometres (microns)) với dầu khoáng, và phù hợp với việc xử lý bề mặt của máy móc hạng nặng hoặc cho sản xuất dầu nhờn đã được graphit hóa.']</t>
   </si>
   <si>
     <t>['TỔNG QUÁT', 'Nhìn chung, Chương này bao gồm các chất được gọi là polyme và bán thành phẩm và các thành phẩm của chúng, với điều kiện chúng không bị loại trừ bởi Chú giải 2 thuộc Chương này.', 'Các polymer', 'Các polyme bao gồm các phân tử được đặc trưng bởi sự lặp lại của một hoặc nhiều loại đơn vị monome.', 'Các polyme có thể được tạo thành bằng phản ứng giữa một số phần tử giống nhau hoặc khác nhau về cấu tạo hóa học. Quá trình tạo nên các polyme đó được gọi là sự polyme hóa. Theo nghĩa rộng, thuật ngữ này bao gồm một số kiểu phản ứng cơ bản sau đây:', '(1) Quá trình polyme hóa trùng hợp, trong đó các phân tử đơn có liên kết ethylene chưa bão hòa, phản ứng với nhau bằng quá trình trùng hợp đơn giản, quá trình đó không tạo ra nước hoặc các sản phẩm phụ khác, để tạo thành một mạch polyme chỉ chứa liên kết carbon- carbon, ví dụ, quá trình sản xuất polyethylene từ ethylene hoặc copolymer ethylene-vinyl acetate từ ethylene và vinyl acetate. Kiểu polyme hóa này đôi khi được gọi là quá trình polyme hóa đơn giản hoặc copolyme hóa đơn giản, tức là, polyme hóa hoặc copolyme hóa theo đúng nghĩa.', '(2) Sự polyme hóa chuyển vị, trong đó các phân tử có các nhóm chức chứa các nguyên tử như oxy, nitơ hoặc lưu huỳnh phản ứng với nhau bởi trùng hợp và chuyển vị nội phân tử, mà không tạo thành nước và sản phẩm phụ, để tạo thành một mạch polymer trong đó các đơn vị monomer được nối liên tục với nhau bởi các liên kết ete (ROR), liên kết amide, liên kết urethan hoặc các liên kết khác, ví dụ, quá trình sản xuất poly(oxymethylene) (polyfomandehyde) từ fomaldehyde, sản xuất polyamit-6 từ caprolactam, hoặc sản xuất polyuretan từ polyol và di-isocyanate. Kiểu polyme hóa này cũng được gọi đa trùng hợp.', '(3) Sự polyme hoá ngưng tụ, trong đó các phân tử có các nhóm chức chứa các nguyên tử như oxy, nitơ hoặc lưu huỳnh, phản ứng với nhau bởi phản ứng ngưng tụ, có sự tạo thành nước hoặc các sản phẩm phụ khác, để tạo thành mạch polyme trong đó các đơn vị monome liên kết liên tục được với nhau bởi liên kết ete, liên kết este amide hoặc các liên kết khác..., ví dụ, sản xuất poly(etylen terephthalate) từ ethylen glycol và axit terephthalic hoặc sản xuất polyamit-6, 6 từ hexametylendiamine và axit adipic. Kiểu polyme hóa này cũng được gọi là polyme hóa ngưng tụ hoặc đa ngưng tụ.', 'Các polyme có thể bị biến đổi về mặt hóa học, ví dụ, trong quá trình clo hóa polyetylen hoặc poly(vinyl cloride), quá trình chlorosulphonate hóa polyetylen, quá trình acetyl hoá hoặc nitrat hóa cellulose, hoặc sự thuỷ phân poly(vinyl acetate).', 'Cụm từ viết tắt cho một số polyme', 'Nhiều polyme được mô tả trong Chương này cũng được biết đến ở dạng viết tắt. Dưới đây là một số cụm từ viết tắt thường sử dụng:', 'ABS', 'Acrylonitrile-butadiene-styrene copolymer', 'CA', 'Cellulose acetate', 'CAB', 'Cellulose acetate butyrate', 'CP', 'Cellulose propionate', 'CMC', 'Carboxymethyl cellulose', 'CPE', 'Chlorinated polyethylene', 'EVA', 'Ethylene-vinyl acetate copolymer', 'HDPE', 'Polyethylene tỷ trọng cao', 'LDPE', 'Polyethylene tỷ trọng thấp', 'LLDPE', 'Polyethylene cấu trúc thẳng có nhánh ngắn tỷ trọng thấp', 'PBT', 'Poly(butylene terephthalate)', 'PDMS', 'Polydimethylsiloxane', 'PE', 'Polyethylene', 'PEOX', 'Poly(ethylene oxide) (polyoxyethylene)', 'PET Poly', '(ethylene terephthalate) PIB Polyisobutylene', 'PMMA Poly', '(methyl methacrylate)', 'PP', 'Polypropylene', 'PPO Poly', '(phenylene oxide)', 'PPOX', 'Polypropylene oxide (polyoxypropylene)', 'PPS Poly', '(phenylene sulphide)', 'PS', 'Polystyrene', 'PTFE', 'Polytetrafluoroethylene', 'PVAC', 'Poly(vinyl acetate)', 'PVAL', 'Poly(vinyl alcohol)', 'PVB', 'Poly(vinyl butyral)', 'PVC', 'Poly(vinyl chloride)', 'PVDF', 'Poly(vinylidene fluoride)', 'PVP', 'Poly(vinyl pyrrolidone)', 'SAN', 'Styrene-acrylonitrile copolymer', 'Cần lưu ý rằng các polymer dạng thương phẩm đôi khi chứa nhiều đơn vị monomer hơn các polymer theo tên viết tắt của chúng (ví dụ, polyethylene cấu trúc thẳng có nhánh ngắn tỷ trọng thấp (LLDPE), chủ yếu là một polymer của etylen, chứa một lượng nhỏ (thường là lớn hơn 5%) các đơn vị monomer alpha-olefin). Hơn nữa, lượng các đơn vị monomer tương ứng trong một polymer không cần thiết có trật tự giống như nó tồn tại ở dạng viết tắt của nó (ví dụ, copolymer acrylonitril - butadien - styren (ABS) chứa styrene như loại đơn vị monomer chiếm đa phần).', 'Do đó, cụm từ viết tắt của polyme chỉ nên được sử dụng như một chỉ dẫn. Trong tất cả các trường hợp, việc phân loại cần áp dụng Chú giải Chương và Chú giải phân nhóm liên quan và trên cơ sở của thành phần tương ứng của các đơn vị mononer trong một polyme (xem Chú giải 4 và Chú giải phân nhóm 1 thuộc Chương này).', 'Plastic', 'Thuật ngữ "plastic" được định nghĩa trong chú giải 1 thuộc Chương này có nghĩa là các vật liệu thuộc các nhóm từ 39.01 đến 39.14, dù đang ở hoặc có thể đã được tạo thành dưới tác động bên ngoài tại thời điểm polyme hóa hoặc tại một giai đoạn tiếp sau (thông thường tác động bên ngoài là nhiệt độ và áp suất, nếu cần thiết thì sử dụng một dung môi hoặc chất hóa dẻo) bằng phương pháp đúc, đổ khuôn, đùn, cán hay các quy trình tạo thành hình khác mà giữ nguyên hình dạng khi không còn tác động bên ngoài. Trong toàn bộ Danh mục, thuật ngữ "plastic" cũng bao gồm sợi lưu hóa.', 'Tuy nhiên, thuật ngữ này không ứng dụng đối với các vật liệu liên quan đến các vật liệu dệt thuộc Phần XI. Nên lưu ý rằng, định nghĩa "plastic" này được áp dụng trong toàn bộ Danh mục này.', 'Thuật ngữ "polymer hóa" được sử dụng trong định nghĩa này là theo nghĩa rộng và dùng để chỉ bất kỳ phương pháp nào tạo thành polymer, bao gồm sự polyme hóa trùng hợp, sự polyme hóa chuyển vị (đa trùng hợp) và sự polyme hóa ngưng tụ (đa ngưng tụ)', 'Nếu vật liệu thuộc Chương này có thể bị mềm hóa nhiều lần bởi quá trình xử lý nhiệt và tạo hình thành các sản phẩm, ví dụ, bằng các quá trình đúc và sau đó được làm cứng bằng cách làm lạnh, nó được đặt tên là "plastic nhiệt dẻo" (thermoplastic). Nếu nó có thể hoặc đã bị làm biến đổi thành một sản phẩm không nóng chảy bởi các biện pháp hóa học hoặc vật lý (ví dụ, bằng nhiệt) thì nó được đặt tên là "nhựa phản ứng nhiệt".', 'Plastic hầu như được ứng dụng vô cùng rộng rãi nhưng nhiều sản phẩm tạo thành từ chúng được phân loại ở nơi khác (xem Chú giải 2 thuộc Chương này).', 'Sự sắp xếp chung của Chương này', 'Chương này được chia thành hai Phân chương. Phân chương I bao gồm các polymer ở dạng nguyên sinh và Phân chương II bao gồm phế liệu, phế thải và mẩu vụn, và bán thành phẩm và thành phẩm.', 'Trong Phân chương I, liên quan tới các dạng nguyên sinh, các sản phẩm thuộc các nhóm từ 39.01 đến 39.11 thu được bằng quá trình tổng hợp hóa học và các sản phẩm thuộc các nhóm 39.12 và 39.13 hoặc là các polyme tự nhiên hoặc thu được từ đó nhờ xử lý hóa học. Nhóm 39.14 bao gồm các nhựa trao đổi ion làm từ các polymer thuộc các nhóm từ 39.01 đến 39.13.', 'Trong Phân chương II, nhóm 39.15 liên quan tới các phế liệu, phế thải và mẩu vụn từ plastic. Các nhóm từ 39.16 đến 39.25 bao gồm các bán thành phẩm hoặc các thành phẩm cụ thể bằng plastic. Nhóm 39.26 là một nhóm còn lại bao gồm các sản phẩm chưa được chi tiết hoặc ghi ở nơi khác, bằng plastic hoặc bằng các vật liệu khác thuộc các nhóm từ 39.01 đến 39.14.', 'Phạm vi của các nhóm từ 39.01 đến 39.11', 'Phạm vi của các nhóm này được thực hiện theo Chú giải 3 thuộc Chương này. Các nhóm này chỉ áp dụng đối với các loại hàng hóa loại được sản xuất bởi quá trình tổng hợp hóa học, thuộc các loại sau:', '(a) Các polyolefin tổng hợp dạng lỏng, chúng là các polymer thu được từ ethylene, propene, butene hoặc các olefin khác. Chúng được phân loại trong nhóm 39.01 hoặc 39.02 với điều kiện có hàm lượng dưới 60% tính theo thể tích cất thu được bằng phương pháp chưng cất giảm áp ở 300 ºC, áp suất 1.013 milibar.', '(b) Các loại nhựa, chưa được polyme hoá ở mức độ cao, thuộc loại coumarone-indene thu được nhờ quá trình copolyme hóa hỗn hợp monomer (kể cả coumarome hoặc indene) có nguồn gốc từ hắc ín than (nhóm 39.11).', '(c) Các loại polyme tổng hợp khác trung bình có tối thiểu 5 đơn vị monome trong mạch được cấu thành chuỗi liên tục. Các sản phẩm này bao gồm các plastic như đã định nghĩa trong Chú giải 1 thuộc Chương này.', 'Với mục đích tính toán số lượng trung bình của các đơn vị monome theo Chú giải Chương 3(c), các polyme của quá trình polyme hóa đa ngưng tụ và một số polymer chuyển vị nhất định có thể có nhiều hơn một đơn vị monome trở lên và mỗi một đơn vị monome đó có cấu tạo hóa học khác nhau. Một đơn vị monome là đơn vị cấu thành lớn nhất được tạo nên bởi một phân tử monome đơn trong quá trình polyme hóa. Không nên nhầm lẫn với đơn vị cấu thành lặp lại, đó là đơn vị cấu thành nhỏ nhất, mà bằng sự lặp lại, mô tả polymer đó, hoặc nhầm lẫn với thuật ngữ monomer, đó là một phân tử đơn lẻ mà từ đó có thể hình thành nên các polyme.', 'Ví dụ:', '(a) Poly(vinyl chloride)', 'Mạch polyme sau tồn tại 3 đơn vị monome:', '(Trong trường hợp này đơn vị monomer và đơn vị cấu thành lặp lại là như nhau).', '(b) Polyamide -6,6', 'Mạch polyme Mạch polyme sau tồn tại 4 đơn vị monomer:', 'đơn vị cấu thành lặp lại', '(Trong trường hợp này có 2 đơn vị monome khác nhau và đơn vị cấu thành lặp lại được sinh ra từ một trong mỗi monomer đó).', '(c) Copolyme etylen-vinyl acetat', 'Mạch polyme tồn tại 6 đơn vị như sau:', '(*) Trong trường hợp này, các đơn vị monome được định vị ngẫu nhiên và không áp dụng khái niệm các đơn vị cấu thành lặp lại.', '(d) Các silicon là các sản phẩm chưa được xác định về mặt hóa học trong phân tử chứa hơn một liên kết silic-oxy-silic, và chứa các nhóm hữu cơ liên kết với các nguyên tử silic bởi các liên kết trực tiếp silic-carbon (nhóm 39.10).', '(e) Các resol (nhóm 39.09) và các tiền polyme khác. Các tiền polyme là các sản phẩm được đặc trưng bởi một số quá trình lặp lại của các đơn vị monome mặc dù chúng có thể chứa các monomer không phản ứng. Các tiền polyme thường không được sử dụng như các polyme thông thường nhưng chúng được dùng để biến đổi thành các polyme có trọng lựng phân tử cao hơn bởi quá trình polymer hóa tiếp theo. Vì vậy thuật ngữ này không bao gồm những sản phẩm hoàn chỉnh, như là di-isobutylene (nhóm 27.10) hoặc poly(oxyethylene) (polyetylen glycol) có trọng lượng phân tử thấp (nhóm 38.24). Các ví dụ về các tiền polyme là các epoxit dựa trên bisphenol - A hoặc phenol-formaldehyde, được epoxit hóa bằng epiclorohydrin, và các polymeric isocyanate.', 'Các copolyme và các polyme pha trộn', 'Thuật ngữ “copolyme” được định nghĩa ở Chú giải 4 thuộc Chương này, chúng là các loại polyme trong thành phần của nó không chứa loại monome đơn nào chiếm từ 95% trở lên tính theo trọng lượng của tổng hàm lượng polyme.', 'Do vậy, ví dụ, một polymer chứa 96% đơn vị monome propylene và 4% các đơn vị monome olefin khác không được xem như một copolyme.', 'Các copolyme bao gồm sản phẩm copolyme đa ngưng tụ, các sản phẩm copolyme đa trùng hợp, các copolyme khối và các copolyme ghép.', 'Các polyme khối là các copolyme được cấu tạo nên từ ít nhất 2 nhánh polyme được liên kết với nhau, có sự hợp lại của đơn vị monome khác nhau (ví dụ, copolyme của etylen và propylen chứa các phân đoạn xen kẽ của polyethylen và polypropylene).', 'Các copolyme ghép là các copolyme cấu thành từ những mạch polyme chính có các mạch polyme phụ với sự hợp lại của đơn vị monome khác nhau. Các ví dụ là styrene-butadiene copolymer-graft-polystyrene (một polystyren ghép với một copolyme styren - butadien) và polybutadiene-graft-styrene-acrylonitrile copolymer.', 'Việc phân loại các copolyme (bao gồm copolyme đa ngưng tụ, các sản phẩm copolyme đa trùng hợp, các copolyme khối và các copolyme ghép) và các hỗn hợp polyme pha trộn được thực hiện theo Chú giải 4 thuộc Chương này. Trừ khi có yêu cầu khác, các sản phẩm này phải được phân loại vào nhóm bao gồm các polymer của đơn vị comonome trội hơn mỗi đơn vị comonome đơn khác tính theo trọng lượng. Với mục đích này, các đơn vị comonome cấu thành của các polyme nằm cùng một nhóm được cùng xem xét, như thể chúng là một đơn vị comonome đơn.', 'Nếu không có loại comonome đơn nào (hoặc nhóm các đơn vị comonome cấu thành mà các polyme chúng thuộc cùng một nhóm) chiếm tỷ trọng cao hơn, các copolyme hay hỗn hợp polyme pha trộn trong trường hợp này sẽ được xếp vào nhóm cuối cùng theo số thứ tự trong các nhóm tương đương được xem xét.', 'Như vậy, ví dụ, một copolyme vinyl chloride-vinyl acetate chứa 55% đơn vị monome vinyl chloride thuộc nhóm 39.04, nhưng một copolyme chứa 55% đơn vị monome vinyl acetate thì thuộc nhóm 39.05.', 'Tương tự, một copolyme gồm các đơn vị monomer 45% etylen, 35% propylene và 20% isobutylene được phân loại vào nhóm 39.02 bởi vì các đơn vị monome propylen và isobutylen, mà các polyme của chúng thuộc nhóm 39.02, cấu thành nên 55% copolyme trên và, khi được xem xét cùng nhau, vượt trội hơn đơn vị monome ethylen.', 'Một polyme pha trộn hợp thành từ 55% polyurethane dựa trên toluen diisocyanate và một polyete polyol, và 45% poly(oxyxylylene) được phân loại và nhóm 39.09 bởi vì các đơn vị monome của polyurethan vượt trội hơn các đơn vị monome của polyete poly(oxyxylylene). Theo định nghĩa của polyurethan, tất cả các đơn vị monome của một polyurethan, kể cả các đơn vị monomer của polyete polyol mà tạo thành hợp phần của polyurethan, được cùng xem xét như các đơn vị monomer thuộc nhóm 39.09.', 'Các polyme đã bị biến đổi về mặt hóa học', 'Các loại polyme đã biến đổi về mặt hóa học, đó là những polyme mà chỉ có phần thêm vào trong mạch chính polyme bị biến đổi do phản ứng hóa học, chúng được xếp vào nhóm cùng với các loại polyme chưa biến đổi (xem Chú giải 5 của Chương này). Quy định này không áp dụng đối với các copolyme ghép.', 'Vì vậy, ví dụ, polyetylene đã bị clo hóa và polyetylene đã bị clorosulphonat hóa được phân loại vào nhóm 39.01.', 'Các poly me đã bị biến đổi về mặt hóa học để tạo ra các nhóm epoxy hoạt động, chúng trở thành nhựa epoxy (xem Chú giải chi tiết nhóm 39.07) thì được phân loại vào nhóm 39.07. Ví dụ, các nhựa phenol đã bị biến đổi về mặt hóa học bởi epichlorohydrin được phân loại như nhựa epoxy và không được phân loại như nhựa phenol đã bị biến đổi về mặt hóa học thuộc nhóm 39.09.', 'Một polyme pha trộn trong đó bất kỳ một trong các polyme cấu thành nào đã bị biến đổi về mặt hóa học thì được coi như đã bị biến đổi về mặt hóa học hoàn toàn.', 'Dạng nguyên sinh', 'Các nhóm 39.01 đến 39.14 chỉ gồm những hàng hóa ở dạng nguyên sinh. Thuật ngữ “dạng nguyên sinh” được định nghĩa trong Chú giải 6 của Chương này. Nó chỉ áp dụng đối với các dạng sau:', '(1) Dạng lỏng và bột nhão. Chúng có thể là một polyme cơ sở được “xử lý” bằng nhiệt hoặc bằng phương pháp khác để tạo ra vật liệu cuối cùng, hoặc có thể ở dạng phân tán (nhũ tương và huyền phù) hoặc ở dạng hòa tan của những vật liệu chưa được xử lý hoặc đã xử lý một phần. Ngoài những chất cần thiết để “xử lý” (như là các chất làm cứng (các tác nhân có liên kết ngang) hoặc là những chất cùng phản ứng khác và những chất xúc tiến), những chất lỏng hoặc bột nhão này có thể chứa các vật liệu khác như là chất hóa dẻo, chất làm ổn định, chất làm đầy (chất độn) và chất màu, chủ yếu nhằm làm cho sản phẩm cuối cùng có những tính chất vật lý đặc biệt hoặc các đặc tính mong muốn khác. Các chất lỏng và bột nhão này được sử dụng để đúc, ép đùn..., và cũng được dùng như các vật liệu thấm, chất phủ bề mặt, các thành phần cơ bản cho vecni và sơn, hoặc như keo, hồ, chất làm tăng độ dày, chất tạo bông...', 'Khi thêm vào một vài chất thì những sản phẩm tạo ra phải đáp ứng sự mô tả ở một nhóm cụ thể hơn ở nơi khác trong Danh mục, chúng bị loại trừ khỏi chương 39; ví dụ, đó là trường hợp với:', '(a) Keo đã điều chế- xem loại trừ (b) ở phần cuối của Chú giải tổng quát này.', '(b) Các phụ gia đã điều chế cho dầu khoáng (nhóm 38.11).', 'Cần phải lưu ý rằng các dung dịch (trừ các chất keo) bao gồm bất kỳ các sản phẩm được chi tiết trong các nhóm 39.01 đến 39.13 trong các dung môi hữu cơ dễ bay hơi, khi trọng lượng của dung môi vượt quá 50% so với trọng lượng của dung dịch thì bị loại trừ khỏi Chương này và thuộc nhóm 32.08 (xem Chú giải 2(e) của Chương này).', 'Các polyme dạng lỏng không có dung môi, được nhận biết một cách rõ ràng nhằm sử dụng một cách độc lập như vecni, (trong đó sự tạo ra một lớp màng phụ thuộc vào nhiệt độ, độ ẩm không khí hoặc oxy trong không khí và không phụ thuộc vào việc thêm chất làm cứng), thì được phân loại vào nhóm 32.10. Khi không thể nhận biết như trên thì được xếp vào Chương này.', 'Các polyme ở dạng nguyên sinh được bổ sung thêm các chất phụ gia, làm cho sản phẩm phù hợp để sử dụng như ma tít, được phân loại vào nhóm 32.14.', '(2) Dạng bột, hạt và mảnh. Trong những dạng này, chúng được dùng để đúc, để sản xuất vecni, keo, hồ,... và cũng được sử dụng như chất làm tăng độ dày, chất tạo bông... Chúng có thể gồm các vật liệu chưa được plastic hóa, mà trở thành plastic trong quá trình xử lý và đúc, hoặc gồm các vật liệu đã được thêm các chất hóa dẻo; những vật liệu này có thể kết hợp với chất độn (ví dụ, bột gỗ, cellulose, sợi vải, các chất khoáng, tinh bột), chất màu hoặc những chất khác đã trích dẫn tại Điểm (1) ở trên. Các loại bột có thể được sử dụng, ví dụ, để phủ những đối tượng bằng cách sử dụng nhiệt có hoặc không có tĩnh điện.', '(3) Các khối (block) hình dạng không đều, cục và các dạng khối tương tự, có hoặc không chứa chất độn, chất màu hoặc những chất khác được trích dẫn tại Điểm (1) ở trên. Các khối có hình dạng hình học đều nhau thì không phải ở dạng nguyên sinh và được bao gồm trong các thuật ngữ “tấm, phiến, màng, lá và dải” (xem Chú giải 10 của Chương này).', 'Phế liệu, phế thải và mảnh vụn từ vật liệu plastic dẻo nhiệt đơn đã được chuyển thành các dạng nguyên sinh thì được phân loại vào các nhóm 39.01 đến 39.14 (theo vật liệu) và không thuộc nhóm 39.15 (xem Chú giải 7 của Chương này).', 'Ống, ống dẫn và ống vòi', 'Thuật ngữ “ống, ống dẫn, và ống vòi”, được sử dụng trong nhóm 39.17, được định nghĩa ở Chú giải 8 của Chương này', 'Tấm, phiến, màng, lá và dải của nhóm 39.20 hoặc 39.21.', 'Thuật ngữ “tấm, phiến, mảng, lá và dải” sử dụng trong các nhóm 39.20 và 39.21, được định nghĩa ở Chú giải 10 của Chương này.', 'Những tấm, phiến,... này, đã hay chưa được gia công bề mặt (kể cả hình vuông và các hình chữ nhật khác được cắt ra từ chúng), có các cạnh được mài, được khoan, khắc cạnh, tạo viền, xoắn, tạo khung hay được gia công cách khác hoặc cắt thành hình dạng trừ hình chữ nhật (kể cả hình vuông), thì thường được phân loại vào các nhóm 39.18, 39.19 hoặc 39.22 đến 39.26.', 'Plastic loại xốp', 'Plastic loại xốp là các plastic có nhiều lỗ (hoặc hở, hoặc kín hoặc cả hai), rải rác trong cả khối. Chúng bao gồm plastic bọt, plastic đàn hồi và plastic xốp mịn hoặc vỉ xốp. Chúng cũng có thể mềm hoặc cứng.', 'Plastic loại xốp được sản xuất bởi nhiều phương pháp khác nhau. Chúng bao gồm việc kết hợp một chất khí vào plastic (ví dụ, bằng cách trộn cơ học, làm bay hơi một dung môi có điểm sôi thấp, phân hủy vật liệu tạo ra khí), trộn các plastic với các quả cầu cực nhỏ có lỗ (ví dụ, bằng thủy tinh hoặc bằng nhựa phenol), thiêu kết các hạt plastic và trộn plastic với nước hoặc vật liệu có thể hòa tan trong dung môi mà được lọc khỏi plastic để lại các lỗ rỗng.', 'Các sản phẩm kết hợp của plastic với vật liệu dệt', 'Các tấm phủ tường hoặc trần tuân theo Chú giải 9 thuộc Chương này thì được phân loại trong nhóm 39.18. Mặt khác, việc phân loại các sản phẩm kết hợp của plastics với vật liệu dệt về cơ bản được thực hiện theo Chú giải 1(h) thuộc Phần XI, Chú giải 3 thuộc Chương 56 và Chú giải 2 thuộc Chương 59. Các sản phẩm dưới đây cũng nằm trong Chương này:', '(a) Nỉ, phớt được ngâm tẩm, tráng, phủ hoặc ép plastic, chiếm 50% hoặc ít hơn tính theo trọng lượng của vật liệu dệt hoặc nỉ, phớt được bọc hoàn toàn bằng plastic;', '(b) Vải dệt và vải không dệt, được bọc hoàn toàn bằng plastic hoặc tráng hoặc phủ trọn vẹn cả hai mặt với vật liệu đó, với điều kiện sự tráng và phủ đó có thể nhìn thấy bằng mắt thường mà không cần quan tâm đến sự thay đổi về màu sắc;', '(c) Vải dệt, đã được ngâm tẩm, tráng, phủ hoặc ép bằng plastic, mà không thể bị bẻ cong bằng tay xung quanh một hình trụ có đường kính 7 mm, ở nhiệt độ giữa 15º C và 30 º C mà không bị nứt;', '(d) Những tấm, phiến và dải bằng plastic xốp kết hợp với vải dệt (như đã định nghĩa tại Chú giải 1 của Chương 59), phớt, nỉ hoặc vải không dệt, trong trường hợp vật liệu dệt chỉ đơn thuần là vật liệu để gia cố.', 'Trong phương diện này, vải dệt, phớt, nỉ hoặc vải không dệt không có hoa văn, chưa tẩy trắng, đã tẩy trắng hoặc đã nhuộm đồng nhất, khi gắn vào chỉ một mặt của những tấm, phiến và dải này thì được coi như chỉ đơn thuần nhằm mục đích gia cố. Các vật liệu dệt đã có hoa văn, đã in hoặc gia công kỹ lưỡng (ví dụ, làm nhung) và các sản phẩm đặc biệt, như vải lông mịn, vải tuyn, dải ăngten và các sản phẩm dệt thuộc nhóm 58.11, được coi là có chức năng vượt quá chức năng chỉ đơn thuần gia cố.', 'Những tấm, phiến và dải bằng plastic xốp được kết hợp với vải dệt ở cả hai mặt, bất kể bản chất vải, bị loại trừ khỏi Chương này (thường thuộc nhóm 56.02, 56.03 hoặc 59.03).', 'Các sản phẩm kết hợp của plastic và các loại vật liệu trừ vật liệu dệt', 'Chương này cũng bao gồm các sản phẩm sau, dù chúng thu được từ một công đoạn đơn lẻ hoặc bởi nhiều công đoạn nối tiếp nhau, với điều kiện chúng vẫn giữ được các đặc tính cơ bản của các mặt hàng bằng plastic:', '(a) Các tấm, phiến,..., kết hợp với lớp gia cố, tăng cường hoặc lưới đỡ bằng một vật liệu khác (sợi kim loại, sợi thuỷ tinh,…) được bọc plastic.', '(b) Các tấm, phiến,... bằng plastic, được phân cách bởi một lớp làm từ một vật liệu khác như lá kim loại, giấy, bìa.', 'Các sản phẩm gồm giấy hoặc bìa giấy được bao phủ bởi một tấm bảo vệ mỏng bằng plastics ở cả hai mặt bị loại trừ khỏi Chương này với điều kiện chúng vẫn giữ được những đặc trưng cơ bản của giấy hoặc bìa giấy (thường thuộc nhóm 48.11).', '(c) Tấm plastic phân tầng được gia cố bằng giấy, và các sản phẩm gồm một lớp giấy hoặc bìa được tráng hoặc phủ một lớp plastic, lớp plastic này dày hơn 1/2 tổng bề dày, trừ các tấm phủ tường thuộc nhóm 48.14.', '(d) Các sản phẩm bao gồm các sợi thủy tinh hoặc các tấm giấy, được tẩm plastic và nén chặt với nhau, với điều kiện chúng có tính chất cứng, bền. (Nếu có đặc trưng của giấy nhiều hơn hoặc đặc trưng của sợi thủy tinh nhiều hơn thì chúng được phân loại ở Chương 48 hoặc 70, tùy theo trường hợp cụ thể).', 'Các quy định của đoạn trước cũng được áp dụng, với những sửa đổi thích đáng về chi tiết, đối với các sợi monofilament, các sản phẩm dạng roi, que, các sản phẩm dạng hình, các loại ống, ống dẫn và ống vòi và các thành phẩm.', 'Lưu ý rằng lưới thép mịn và lưới kim loại cơ bản được nhúng một cách đơn giản trong plastic thì bị loại trừ (Phần XV), ngay cả khi các mắt lưới bị làm đầy trong quá trình nhúng.', 'Trong trường hợp các tấm hoặc phiến được tạo thành từ các lớp gỗ và plastic, trong đó các lớp gỗ chỉ đóng vai trò gia cố hoặc tăng cường cho lớp plastic, thì chúng được phân loại trong Chương này; trong trường hợp plastic chỉ có chức năng phụ (ví dụ, khi làm nền cho lớp gỗ bề mặt) thì bị loại trừ (Chương 44). Lưu ý rằng về mặt này các tấm panel xây dựng tạo ra từ các lớp gỗ và các lớp plastic được phân loại, như quy tắc chung, vào Chương 44 (xem Chú giải tổng quát thuộc Chương đó).', 'Ngoài các trường hợp được loại trừ như đã đề cập ở Chú giải 2, Chương này không bao gồm:', '(a) Dạng phân tán cô đặc của chất màu trong các plastic có các tính chất của các sản phẩm thuộc Chương 32; ví dụ, xem các Chú giải của nhóm 32.04 (đoạn (I)(C) liên quan tới dạng phân tán cô đặc của chất màu trong plastic, và đoạn (II)(2) liên quan đến các chất phát quang hữu cơ, ví dụ, chất rhodamine B trong plastic), nhóm 32.05 (đoạn thứ 7 đề cập đến các chất màu (colour lakes) phân tán cao trong plastic) và nhóm 32.06 (Phần (A), đoạn thứ 6, phân đoạn (I) liên quan đến các chất màu khác phân tán cao trong plastic).', '(b) Các chế phẩm được chế tạo một cách đặc biệt để sử dụng như các chất dính, bao gồm các polyme hoặc hỗn hợp của nó thuộc các nhóm từ 39.01 đến 39.13 mà, ngoài các chất phụ gia được phép thêm vào các sản phẩm thuộc Chương này (các chất độn, các chất hóa dẻo, các dung môi, các thuốc màu...), chứa các chất phụ gia được thêm vào khác không thuộc Chương này (ví dụ, các sáp) và các sản phẩm thuộc các nhóm 39.01 đến 39.13 được đóng gói để bán lẻ như các chất keo hoặc các chất dính, trọng lượng tịnh không quá 1 kg (nhóm 35.06).', '(c) Plastic và các sản phẩm khác của plastic (loại trừ các hàng hóa thuộc nhóm 39.18 hoặc 39.19), được in motip, ký tự hoặc các biểu tượng tranh ảnh, không chỉ đơn thuần phục vụ cho công dụng chính của sản phẩm (Chương 49).', 'Chú giải phân nhóm.', 'Chú giải phân nhóm 1', 'Chú giải này điều chỉnh việc phân loại các polyme (kể cả các cololyme), các polyme đã bị biến đổi về mặt hóa học và các polyme pha trộn ở cấp độ phân nhóm. Tuy nhiên, trước khi các sản phẩm này có thể được phân loại ở cấp độ phân nhóm, đầu tiên chúng phải được phân loại vào nhóm thích hợp theo các qui định của các Chú giải 4 và 5 thuộc Chương này (xem Chú giải tổng quát thuộc Chương này).', 'Sự phân loại các polyme (kể cả các copolyme) và các polyme đã bị biến đổi về mặt hóa học', 'Theo Chú giải phân nhóm 1, các polyme (kể các các copolyme) và các polyme đã bị biến đổi về mặt hóa học được phân loại phù hợp với các qui định của phân đoạn (a) của Chú giải này hoặc phân đoạn (b) của Chú giải này, tùy theo trường hợp có hay không có phân nhóm gọi tên là "Loại khác" trong các phân nhóm cùng cấp.', 'Một phân nhóm tên gọi là "Loại khác" không bao gồm các phân nhóm chẳng hạn như "Các polyeste khác" và "Từ các plastic khác“.', 'Thuật ngữ "cùng cấp" áp dụng đối với các phân nhóm cùng cấp, cụ thể, các phân nhóm một gạch (cấp 1) hoặc các phân nhóm hai gạch (cấp 2) (xem Chú giải chi tiết của Quy tắc tổng quát 6).', 'Lưu ý rằng một số nhóm (ví dụ, nhóm 39.07) bao gồm cả hai loại cấp phân nhóm.', '(A) Việc phân loại khi có phân nhóm “Loại khác” trong các phân nhóm cùng cấp', '(1) Phân đoạn (a) (1) thuộc Chú giải phân nhóm 1 định nghĩa các polyme với tiếp đầu ngữ "poly" (ví dụ, polyetylen và polyamide -6,6) là những loại mà trong đó đơn vị monome cấu thành hoặc các đơn vị monome của polyme được gọi tên cộng lại chiếm từ 95% trở lên tính theo trọng lượng trong tổng hàm lượng polyme. Trong trường hợp các loại polyme được gọi tên với tiếp đầu ngữ "poly" (ví dụ, các polyterpene thuộc phân nhóm 3911.10), tất cả các đơn vị monome thuộc cùng một loại (ví dụ, những đơn vị monome của terpene khác nhau trong trường hợp polyterpene) phải chiếm từ 95% trở lên tính theo trọng lượng của polyme.', 'Cần nhấn mạnh rằng định nghĩa này chỉ áp dụng đối với các polyme thuộc các phân nhóm mà chúng có một phân nhóm gọi là "Loại khác" trong cùng cấp.', 'Do đó, ví dụ, một polyme gồm 96% đơn vị monome etylen và 4% đơn vị monome propylen và có trọng lượng riêng từ 0,94 trở lên (là một polyme thuộc nhóm 39.01 theo Chú giải 4 thuộc Chương này) thì nên được phân loại như polyetylen trong phân nhóm 3901.20 bởi vì đơn vị monome etylen chiếm trên 95% tổng hàm lượng của polyme và có một phân nhóm tên là "Loại khác" cùng cấp.', 'Định nghĩa trên về các polyme có tiếp đầu ngữ "poly", khi áp dụng đối với poly(vinyl alcohol), không đòi hỏi là chúng phải chứa từ 95% trở lên tính theo trọng lượng là các đơn vị monome được gọi tên là "vinyl alcohol”. Tuy nhiên, nó đòi hỏi là các đơn vị monome của vinyl acetate và của vinyl alcohol cộng lại chiếm từ 95% trở lên trọng lượng của polyme.', '(2) Phân đoạn (a)(2) của Chú giải phân nhóm 1 đề cập đến việc phân loại các sản phẩm của các phân nhóm 3901.30, 3903.20, 3903.30 và 3904.30.', 'Các copolyme được phân loại trong bốn phân nhóm này phải có các đơn vị monome cấu thành chiếm từ 95% trở lên tính theo trọng lượng của các polyme được gọi tên trong phân nhóm này.', 'Do đó, ví dụ, một copolyme gồm các đơn vị monome 61% vinyl chloride, 35% vinyl acetate và 4% maleic anhydride (là một polyme thuộc nhóm 39.04) cần được phân loại như một copolyme vinyl chloride-vinyl acetate thuộc nhóm 3904.30 bởi vì các đơn vị monome vinyl chloride and vinyl acetate cộng lại chiếm 96% tổng hàm lượng của polyme.', 'Mặt khác, một copolyme bao gồm các đơn vị monome 60% styren, 30% acrylonitrile và 10% của vinyl toluen (là một polyme của nhóm 39.03) cần được phân loại trong phân nhóm 3903.90 (tên là "Loại khác") và không thuộc phân nhóm 3903.20 bởi vì các đơn vị monome styrene và acrylonitrile cộng lại chỉ chiếm 90% tổng hàm lượng polyme.', '(3) Phân đoạn (a) (3) của Chú giải phân nhóm 1 đề cập đến việc phân loại các polyme đã biến đổi về mặt hóa học. Các polyme này được phân loại trong phân nhóm được gọi tên là "Loại khác", với điều kiện là các polyme đã bị biến đổi về mặt hóa học chưa được chi tiết hơn ở một phân nhóm khác. Hệ quả của Chú giải này là các polyme đã bị biến đổi về mặt hóa học không được phân loại trong cùng phân nhóm như các polyme chưa biến đổi, trừ khi polyme chưa biến đổi này chính nó có thể được phân loại trong một phân nhóm được gọi là "Loại khác".', 'Do vậy, ví dụ, polyetylen đã bị clorua hóa hoặc clorosulphonat hóa, là polyetylen đã bị biến đổi về mặt hóa học thuộc nhóm 39.01, cần được phân loại vào phân nhóm 3901.90 ("Loại khác").', 'Mặt khác, poly(vinyl alcohol), thu được từ sự thủy phân poly(vinyl acetate), cần được phân loại vào phân nhóm 3905.30 là phân nhóm chi tiết cụ thể nó.', '(4) Phân đoạn (a) (4): Các polyme không thể phân loại theo các quy định của các đoạn (a) (1), (a) (2) hoặc (a) (3) thì được phân loại trong phân nhóm được gọi là "Loại khác", trừ khi có một phân nhóm chi tiết hơn trong cấp đang xem xét, mà bao gồm các polyme của đơn vị monome đó có trọng lượng vượt trội so với mỗi đơn vị monome khác. Với mục đích này, các đơn vị monome cấu thành của các polyme thuộc cùng phân nhóm sẽ được cộng lại. Chỉ các đơn vị monome cấu thành các polyme trong các phân nhóm cùng cấp đang xem xét mới được so sánh.', 'Phần mô tả của các phân nhóm chi tiết đó có dạng "các polyme từ x" "các copolyme x" hoặc "các polyme x" (ví dụ, các copolyme propylen (phân nhóm 3902.30), các fluoro-polymer (các phân nhóm 3904.61 và 3904.69).', 'Để được phân loại trong các phân nhóm này đơn vị monome được đặt tên trong phân nhóm chỉ cần vượt trội hơn mỗi đơn vị monome đơn lẻ khác trong cùng cấp đang xem xét. Đó là, đơn vị monome được đặt tên trong phân nhóm không chiếm hơn 50% tổng hàm lượng của polyme của cấp đang xem xét.', 'Do đó, ví dụ, một copolyme etylene -propylen gồm các đơn vị monome 40% etylen và 60% prolylen (là một polyme thuộc nhóm 39.02) cần được phân loại trong phân nhóm 3902.30 như một copolyme propylen bởi vì propylen là đơn vị monome cấu thành duy nhất được xem xét.', 'Cũng như vậy, một copolyme chứa các đơn vị monome gồm 45% etylen, 35% propylen và 20% isobutylen (là một polyme thuộc nhóm 39.02) thì được phân loại trong phân nhóm 3902.30 bởi vì chỉ có các đơn vị monome của propylen và isobutylen là cần phải so sánh (không xem xét đơn vị monome etylen) và đơn vị monomer propylene vượt trội hơn đơn vị monomer isobutylene.', 'Mặt khác, một copolyme gồm các đơn vị monome 45% etylen, 35% isobutylen và 20% propylen (là một polyme thuộc nhóm 39.02) được phân loại trong phân nhóm 3902.90 bởi vì chỉ có các đơn vị monome isobutylen và propylen là cần được so sánh và đơn vị monome isobutylen trội hơn đơn vị monome propylen.', '(B) Việc phân loại khi không có phân nhóm nào tên là "Loại khác" cùng cấp', '(1) Phân đoạn (b) (1) thuộc Chú giải phân nhóm 1 hướng dẫn việc phân loại các polyme vào phân nhóm chi tiết các polyme của đơn vị monome mà trội hơn mỗi đơn vị monome đơn lẻ khác về mặt trọng lượng, khi không có phân nhóm tên là "Loại khác" cùng cấp. Với mục đích này, thì các đơn vị monome cấu thành các polyme thuộc cùng phân nhóm được cùng xem xét.', 'Phương pháp này tương tự như phương pháp phân loại được ghi trong Chú giải 4 thuộc Chương này đối với việc phân loại các polyme ở cấp độ nhóm.', 'Khái niệm về tính vượt trội của một đơn vị monome áp dụng, trừ khi các polyme chứa các đơn vị monome không thuộc các phân nhóm đang xem xét. Trong các trường hợp đó, chỉ các đơn vị monome có liên quan đến các polyme trong cấp phân nhóm đang xem xét mới được so sánh.', 'Do đó, ví dụ, các polyme đa ngưng tụ của ure và phenol với formaldehyde (là các polyme thuộc nhóm 39.09) thì được phân loại trong phân nhóm 3909.10 nếu đơn vị monome của ure trội hơn đơn vị monome phenol, và thuộc phân nhóm 3909.40 nếu đơn vị monome phenol vượt trội, bởi vì không có phân nhóm tên là "Loại khác" trong các phân nhóm cùng cấp.', 'Nên nhớ rằng định nghĩa về các polyme với tiếp đầu ngữ "poly" theo đoạn (a) (1) thuộc Chú giải phân nhóm 1 không áp dụng đối với các phân nhóm thuộc loại này.', 'Do đó, ví dụ, các copolyme có các đơn vị monome cấu thành từ cả polycarbonate và poly(ethylene terephthalate), được phân loại vào phân nhóm 3907.40 nếu đơn vị monomer polycarbon</t>
@@ -997,13 +997,7 @@
     <t>['TỔNG QUÁT', 'Chương này bao gồm:', '(1) Da lông trừ da sống thuộc nhóm 41.01, 41.02 hoặc 41.03.', '(2) Da đã thuộc hoặc chuội còn lông, đã hoặc chưa ghép nối.', '(3) Hàng may mặc, đồ phụ trợ quần áo và các mặt hàng khác bằng da lông (tuân theo những loại trừ được chỉ rõ trong Chú giải chi tiết nhóm 43.03).', '(4) Da lông nhân tạo và các vật phẩm của nó.', 'Cần chú ý rằng da chim, gia cầm và các phần da chim, gia cầm, có lông vũ hoặc lông tơ, không được coi như da lông; chúng thuộc nhóm 05.05 hoặc 67.01.', 'Cần chú ý rằng các nhóm 43.01 đến 43.03 bao gồm da lông và các sản phẩm bằng da lông của một số loài động vật hoang dã mà hiện nay bị đe dọa bởi nạn diệt chủng hoặc có thể sẽ bị như vậy trừ khi việc mua bán các mẫu vật của các loài như vậy được quy định nghiêm ngặt. Những loài như vậy được liệt kê trong bảng Phụ lục của Công ước 1973 về Thương mại quốc tế đối với các giống, loài có nguy cơ tuyệt chủng thuộc hệ động vật và thực vật hoang dã (Công ước Washington).']</t>
   </si>
   <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm gỗ chưa chế biến, các bán thành phẩm từ gỗ và các mặt hàng bằng gỗ nói chung.', 'Các sản phẩm này có thể được nhóm lại nói chung như sau:', '(1) Gỗ cây dạng thô (như đã đốn, chẻ, đẽo vuông thô, đã bóc vỏ...) và gỗ nhiên liệu, phế liệu và mẩu thừa gỗ, mùn cưa, vỏ tiện hoặc vỏ bào; gỗ đai thùng, sào, cọc, trụ chống...; gỗ than củi; sợi gỗ và bột gỗ; tà vẹt đường sắt hoặc đường xe điện (nói chung trong các nhóm từ 44.01 đến 44.06). Tuy nhiên, Chương này loại trừ các loại gỗ, dưới dạng mảnh vụn, dạng vỏ bào, được nghiền hoặc tán nhỏ thành bột, loại dùng chủ yếu trong công nghệ làm nước hoa, dược phẩm hay thuốc trừ côn trùng, trừ nấm hay các mục đích tương tự (nhóm 12.11) và gỗ dưới dạng bào, tiện, nghiền hoặc tán thành bột, loại dùng chủ yếu trong công nghệ nhuộm hay thuộc (nhóm 14.04).', '(2) Gỗ đã được cưa, bào, lạng, tách lớp, chà nhám, nối đầu, ví dụ, ghép mộng (tức là, được nối bằng quá trình mà các mẩu gỗ ngắn hơn được dán keo với nhau, với các đầu nối tương tự như các ngón tay đan vào nhau để làm cho gỗ có chiều dài lớn hơn) và gỗ được tạo hình liên tục (từ nhóm 44.07 đến 44.09).', '(3) Ván dăm và các loại ván tương tự, ván sợi, gỗ ghép và gỗ đã được làm tăng độ rắn (các nhóm 44.10 đến 44.13).', '(4) Các mặt hàng bằng gỗ (trừ một số loại đã được nêu tại Chú giải 1 Chương này, nó cùng với các mặt hàng khác còn được đề cập đến trong các Chú giải chi tiết cho từng nhóm riêng ở dưới) (các nhóm 44.14 đến 44.21).', 'Theo nguyên tắc chung, các panel xây dựng được tạo bởi các lớp gỗ và các lớp plastic cũng được phân loại vào Chương này. Việc phân loại các panel này phụ thuộc vào bề mặt ngoài hoặc các bề mặt mà thường tạo cho panel những đặc trưng cơ bản theo công dụng dự kiến của chúng. Do đó, ví dụ, một panel xây dựng, dùng làm mái nhà, tường hay sàn và gồm một lớp mặt ngoài là ván dăm và một lớp lớp cách bằng plastic sẽ được phân loại vào nhóm 44.10, bất kể độ dày của lớp plastic đó, bởi vì đó là phần gỗ rắn, chắc cho phép panel được sử dụng như yếu tố cấu trúc và phần plastic có chức năng cách (insulating) là phụ. Mặt khác, tấm panel có phần gỗ bồi chỉ đóng vai trò bổ trợ cho mặt ngoài của plastic thì, trong hầu hết các trường hợp, được phân loại vào Chương 39.', 'Các mặt hàng gỗ chưa lắp ráp hay bị tháo rời được phân loại với các mặt hàng hoàn chỉnh tương ứng, với điều kiện là các phần đó đi cùng nhau. Tương tự, các phụ kiện hoặc các phần bằng thuỷ tinh, đá hoa (marble), kim loại và các chất liệu khác đi cùng với các sản phẩm gỗ mà chúng thuộc về vẫn được phân loại theo các sản phẩm này dù được lắp ráp với sản phẩm đó hay chưa.', 'Các nhóm 44.14 đến 44.21 gồm những mặt hàng gỗ đã chế biến, áp dụng đối với các sản phẩm này dù được làm từ gỗ thường hay từ ván dăm hoặc ván tương tự, ván sợi, gỗ ghép hoặc gỗ đã được làm tăng độ rắn (xem Chú giải 3 trong Chương này).', 'Nói chung, trong toàn bộ Danh mục, việc phân loại gỗ không bị ảnh hưởng bởi cách xử lý cần thiết để bảo quản chúng, như phơi nắng, đốt bề ngoài, quét sơn lót, trám hoặc tẩm creosote hoặc các chất bảo quản gỗ khác (ví dụ, hắc ín than, pentachlophenol (ISO), chromated copper arsenate hoặc ammoniacal copper arsenate); cũng không bị phụ thuộc vào nguyên nhân được sơn, nhuộm hay đánh vecni. Tuy nhiên, cách xem xét chung này không áp dụng cho các trường hợp của các phân nhóm trong các nhóm 44.03 và 44.06, trường hợp mà quy định phân loại cụ thể đối với các loại gỗ được sơn, nhuộm hoặc xử lý bảo quản.', 'Một số vật liệu có tính chất gỗ, ví dụ, tre và liễu, được dùng chủ yếu trong sản xuất các mặt hàng từ song mây. Ở trạng thái chưa chế biến những vật liệu như vậy được phân loại vào nhóm 14.01, và ở dạng các sản phẩm từ song mây thì thuộc Chương 46. Tuy nhiên, các sản phẩm như tre dưới dạng vỏ bào hay dăm (dùng để chế tạo ván dăm, ván sợi hay bột giấy xenlulo) và các mặt hàng bằng tre hay các vật liệu có tính chất gỗ khác, trừ giỏ tết bện, đồ nội thất hoặc các mặt hàng khác được chi tiết cụ thể ở những Chương khác, thì được phân loại vào Chương này cùng với các sản phẩm hay các mặt hàng bằng gỗ thật tương ứng, trừ trường hợp có yêu cầu khác (ví dụ, trong các trường hợp của nhóm 44.10 và 44.11) (xem Chú giải 6 Chương này).', 'Chú giải chi tiết phân nhóm.', 'Tên của một vài loại gỗ nhiệt đới', 'Theo mục đích của những phân nhóm liên quan của các nhóm 44.03, 44.07, 44.08, 44.09 và 44.12 thì tên gọi của gỗ nhiệt đới được định rõ theo “pilot name” khuyến nghị bởi Hội công nghệ gỗ nhiệt đới quốc tế (ATIBT), Trung tâm Nghiên cứu Phát triển Quốc tế Nông nghiệp Pháp (CIRAD) và Tổ chức Gỗ nhiệt đới Quốc tế (ITTO). “Pilot name” được dựa trên cơ sở của tên phổ biến được dùng trong những nước sản xuất hoặc tiêu thụ gỗ chủ yếu.', 'Các “Pilot name” có liên quan, cùng với những tên khoa học và tên địa phương tương ứng, được liệt kê trong Phụ lục của Chú giải chi tiết thuộc Chương này.', '44.01- Gỗ nhiên liệu, dạng khúc, thanh nhỏ, cành, bó hoặc các dạng tương tự; vỏ bào hoặc dăm gỗ; mùn cưa và phế liệu gỗ, đã hoặc chưa đóng thành khối, bánh (briquettes), viên hoặc các dạng tương tự.', '- Gỗ nhiên liệu, dạng khúc, thanh nhỏ, cành, bó hoặc các dạng tương tự:']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Lie thu được hầu như chỉ từ vỏ ngoài của cây sồi- lie (sồi bần) (Quercus suber), là loại mọc ở Nam Âu và Bắc Phi.', 'Lần bóc vỏ đầu tiên được gọi là lie “nguyên thủy” (virgin) và nó rắn, dễ vỡ gẫy, ít đàn hồi, chất lượng thấp và giá trị thấp. Nó có mặt ngoài phồng rộp và nứt rạn, trong khi mặt trong có màu vàng nhạt điểm các chấm đỏ.', 'Các lần thu hoạch tiếp theo quan trọng hơn về phương diện thương mại. Chúng rắn chắc và đồng nhất, và bề mặt ngoài, mặc dù trong chừng mực nào đó nứt rạn, nhưng ít xù xì hơn bề mặt ngoài của lie nguyên thủy.', 'Lie nhẹ, đàn hồi, có thể nén được, mềm, không thấm nước, không mục rữa, và là chất kém dẫn nhiệt và kém dẫn truyền âm.', 'Chương này bao gồm lie tự nhiên và lie kết dính ở mọi dạng (kể cả các mặt hàng từ lie và lie kết dính), trừ các loại đã bị loại trừ ở phần cuối Chú giải chi tiết nhóm 45.03.', '45.01- Lie tự nhiên, thô hoặc đã sơ chế; lie phế liệu; lie đã ép, nghiền thành hạt hoặc thành bột.', '4501.10- Lie tự nhiên, thô hoặc đã sơ chế', '4501.90- Loại khác', 'Nhóm này bao gồm:', '(1) Lie tự nhiên, thô hoặc đã sơ chế. Lie thô có trong vỏ bóc hình vòng cung khi được bóc từ cây lie. Lie tự nhiên, sơ chế, gồm lie được bỏ bề mặt hoặc làm sạch cách khác (ví dụ, bằng việc đốt bề mặt ngoài), lớp ngoài bị gẫy nứt vẫn còn lại, hoặc các bờ rìa được làm sạch để loại bỏ những phần không thích hợp sử dụng (lie đã tỉa). Lie đã được xử lý bằng thuốc diệt nấm hoặc được làm phẳng bằng cách ép sau khi xử lý trong nước sôi hoặc hơi nước nóng cũng vẫn ở nhóm này; tuy nhiên, lie được bóc vỏ (lấy đi lớp vỏ ngoài cùng), hoặc đẽo thô thành hình vuông bị loại trừ (nhóm 45.02).', '(2) Các phế liệu của lie tự nhiên hoặc lie kết dính (ví dụ, vỏ bào, mảnh phế liệu và các mảnh vụn) thường được dùng trong sản xuất lie đã ép, nghiền thành hạt hoặc thành bột. Nó bao gồm phôi tiện phế liệu,.., từ lie ở dạng “sợi lie” (“cork wool”), đôi khi được dùng như vật liệu chèn hoặc lót.', '(3) Lie đã ép, nghiền thành hạt hoặc thành bột, thông thường là sản phẩm được làm từ lie nguyên thủy hoặc lie phế liệu, và được sử dụng chủ yếu cho việc sản xuất lie kết dính, vải sơn lót sàn hoặc sản xuất lincrusta. Lie dạng hạt cũng được sử dụng như vật liệu cách nhiệt hoặc cách âm và trong mức cho phép dùng để đóng gói trái cây. Lie đã ép, nghiền thành hạt hoặc thành bột cũng được phân loại nhóm này nếu được tạo màu, ngâm tẩm, hun nóng hoặc làm giãn nở bằng cách xử lý nhiệt; tuy vậy, lie kết kính bị loại trừ (nhóm 45.04).', '45.02- Lie tự nhiên, đã bóc vỏ hoặc đã đẽo thô thành hình vuông, hoặc ở dạng khối, tấm, lá, hình chữ nhật (kể cả hình vuông) hoặc dải (kể cả dạng phôi lie đã cắt cạnh dùng làm nút hoặc nắp đậy).', 'Nhóm này bao gồm vỏ bóc của lie tự nhiên:', '(1) Với toàn bộ vỏ ngoài được cưa hoặc được lấy ra theo cách khác từ bề mặt bên ngoài (lie bị bóc vỏ); hoặc', '(2) Với các bề mặt bên ngoài (vỏ) và bên trong (cây) đã cưa hoặc cắt theo cách khác để tạo thành các cạnh tương đối song song (lie đã đẽo thô thành hình vuông).', 'Nhóm này cũng bao gồm các sản phẩm đã được gia công thêm thành khối, tấm, phiến hình chữ nhật (kể cả hình vuông) hoặc dải lie thu được từ các loại lie của nhóm 45.01, bằng cách lạng cả hai mặt và cắt các cạnh vuông góc. Các sản phẩm này vẫn được xếp vào nhóm này dù chúng có hay không gồm các lớp lie được xếp chồng lên nhau và dán dính vào nhau.', 'Các khối, phiến, tấm và các dải được cắt thành hình trừ hình chữ nhật (kể cả hình vuông) được coi như các mặt hàng lie (nhóm 45.03).', 'Những tấm lie được gia cố bằng giấy hoặc vải, kể cả những dải lie rất mỏng dạng cuộn để làm đầu thuốc lá, cũng phân loại ở nhóm này. (Thuật ngữ “giấy lie” đôi khi được áp dụng đối với tấm và dải lie rất mỏng thậm chí không được bồi giấy).', 'Nhóm này cũng bao gồm phôi để làm nút bần hoặc nắp đậy, ở dạng khối hoặc miếng vuông đã cắt cạnh, kể cả những sản phẩm được cắt từ các miếng có từ hai hoặc nhiều lớp dán dính vào nhau. Tuy nhiên, những sản phẩm tương tự có các cạnh đã cắt gọt tròn bị loại trừ (nhóm 45.03).', '45.03- Các sản phẩm bằng lie tự nhiên (+).']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Ngoài các sản phẩm từ cây mướp (loofah), Chương này bao gồm các mặt hàng bán thành phẩm (nhóm 46.01) và một số mặt hàng (các nhóm 46.01 và 46.02) thu được từ việc bện, dệt hoặc bằng các phương pháp lắp ghép các vật liệu không se tương tự, cụ thể là:', '(1) Rơm, liễu gai, tre, sậy, song mây, bấc, nan gỗ (tức là, gỗ ở dạng dải mỏng), sợi dây gỗ, các dải bằng vật liệu thực vật khác (ví dụ, dải vỏ gỗ, lá hẹp và cọ sợi hoặc các dải khác từ lá to chẳng hạn như của lá cây chuối hoặc của cây cọ), với điều kiện chúng ở trạng thái hoặc hình thức phù hợp để tết, bện, hoặc quá trình tương tự.', '(2) Các sợi dệt tự nhiên không se.', '(3) Sợi monofilament và dải và các dạng tương tự bằng plastic thuộc Chương 39 (nhưng không phải sợi monofilament mà có kích thước mặt cắt ngang nhỏ hơn hoặc bằng 1mm và cũng không phải là dải hoặc các dạng tương tự có độ rộng biểu kiến nhỏ hơn hoặc bằng 5mm, bằng vật liệu dệt nhân tạo, thuộc Chương 54).', '(4) Các dải giấy (kể cả giấy được bọc bằng plastic).', '(5) Một số vật liệu bao gồm một lõi bằng chất liệu dệt (sợi không se, dải bện...) được bọc hoặc phủ bằng dải plastic, hoặc được tráng dày bằng plastic để sản phẩm không còn mang đặc tính của sợi, của dải bện... tạo thành lõi.', 'Một số các sản phẩm từ các nguyên liệu này, đặc biệt là các sản phẩm từ thực vật, có thể được chế biến (ví dụ, bằng cách chẻ, kéo dài ra, bóc vỏ v.v... hoặc đã được ngâm tẩm bằng sáp, glycerol v.v...) để phù hợp hơn cho việc tết, bện hoặc quá trình tương tự.', 'Theo mục đích của Chương này, các vật liệu sau đây không được xem như các chất liệu để tết bện và các mặt hàng hoặc sản phẩm được làm từ các vật liệu này bị loại trừ khỏi Chương này:', '(i) Lông bờm ngựa, lông đuôi ngựa (nhóm 05.11 hoặc phần XI).', '(ii) Sợi monofilament mà không có kích thước mặt cắt ngang trên 1mm, hoặc dải hoặc ống dẹt (kể cả dải và ống dẹt được gấp dọc theo chiều dài), đã hoặc chưa được ép, nén hoặc xoắn (rơm nhân tạo và các loại tương tự), bằng vật liệu dệt nhân tạo, với điều kiện là chiều rộng biểu kiến (tức là, ở dạng gấp nếp, làm dẹt, ép hoặc xoắn) không vượt quá 5mm (phần XI).', '(iii) Sợi dệt thô (ngoại trừ khi được bao bọc hoàn toàn bằng plastic như được mô tả ở đoạn (5) nêu trên) (Phần XI).', '(iv) Sợi dệt được ngâm tẩm, tráng, bao phủ hoặc viền quanh bằng plastic (Phần XI).', '(v) Dải bằng da thuộc hoặc da thuộc tổng hợp (thường thuộc Chương 41 hoặc 42) hoặc bằng nỉ hoặc vải không dệt (Phần XI) hoặc tóc người (Chương 5, 59, 65 hoặc 67).', 'Ngoài ra, Chương này không bao gồm:', '(a) Yên cương và bộ yên cương (nhóm 42.01).', '(b) Các sản phẩm hoặc mặt hàng bằng tre, thuộc Chương 44.', '(c) Giấy dán tường thuộc nhóm 48.14.', '(d) Dây xe, chão bện (cordage), thừng hoặc cáp, ngay cả khi đã tết bện hoặc bằng sợi chưa se (nhóm 56.07).', '(e) Vải khổ hẹp chỉ có sợi dọc không có sợi ngang liên kết với nhau bằng chất kết dính (bolduc) (nhóm 58.06).', '(f) Giày dép và các bộ phận của chúng thuộc Chương 64.', '(g) Đồ đội đầu và các bộ phận của chúng, kể cả các dạng hình mũ, thuộc Chương 65.', '(h) Roi (nhóm 66.02)', '(ij) Hoa nhân tạo (nhóm 67.02)', '(k) Xe hoặc thân xe bằng song mây (Chương 87)', '(l) Các mặt hàng của Chương 94 (ví dụ, đồ nội thất, đèn và bộ đèn).', '(m) Các mặt hàng của Chương 95 (chẳng hạn đồ chơi, thiết bị trò chơi, dụng cụ, thiết bị thể thao).', '(n) Chổi quét và bàn chải (nhóm 96.03) hoặc manacanh dùng trong ngành may, ...(nhóm 96.18).', '46.01- Dây tết bện và các sản phẩm tương tự làm bằng vật liệu tết bện, đã hoặc chưa ghép thành dải; các vật liệu tết bện, các dây bện và các sản phẩm tương tự bằng vật liệu tết bện, đã kết lại với nhau trong các tao dây song song hoặc đã được dệt, ở dạng tấm, có hay không ở dạng thành phẩm (ví dụ, chiếu, thảm, mành).', '- Chiếu, thảm và mành bằng vật liệu thực vật:']</t>
+    <t>['TỔNG QUÁT', 'Chương này bao gồm gỗ chưa chế biến, các bán thành phẩm từ gỗ và các mặt hàng bằng gỗ nói chung.', 'Các sản phẩm này có thể được nhóm lại nói chung như sau:', '(1) Gỗ cây dạng thô (như đã đốn, chẻ, đẽo vuông thô, đã bóc vỏ...) và gỗ nhiên liệu, phế liệu và mẩu thừa gỗ, mùn cưa, vỏ tiện hoặc vỏ bào; gỗ đai thùng, sào, cọc, trụ chống...; gỗ than củi; sợi gỗ và bột gỗ; tà vẹt đường sắt hoặc đường xe điện (nói chung trong các nhóm từ 44.01 đến 44.06). Tuy nhiên, Chương này loại trừ các loại gỗ, dưới dạng mảnh vụn, dạng vỏ bào, được nghiền hoặc tán nhỏ thành bột, loại dùng chủ yếu trong công nghệ làm nước hoa, dược phẩm hay thuốc trừ côn trùng, trừ nấm hay các mục đích tương tự (nhóm 12.11) và gỗ dưới dạng bào, tiện, nghiền hoặc tán thành bột, loại dùng chủ yếu trong công nghệ nhuộm hay thuộc (nhóm 14.04).', '(2) Gỗ đã được cưa, bào, lạng, tách lớp, chà nhám, nối đầu, ví dụ, ghép mộng (tức là, được nối bằng quá trình mà các mẩu gỗ ngắn hơn được dán keo với nhau, với các đầu nối tương tự như các ngón tay đan vào nhau để làm cho gỗ có chiều dài lớn hơn) và gỗ được tạo hình liên tục (từ nhóm 44.07 đến 44.09).', '(3) Ván dăm và các loại ván tương tự, ván sợi, gỗ ghép và gỗ đã được làm tăng độ rắn (các nhóm 44.10 đến 44.13).', '(4) Các mặt hàng bằng gỗ (trừ một số loại đã được nêu tại Chú giải 1 Chương này, nó cùng với các mặt hàng khác còn được đề cập đến trong các Chú giải chi tiết cho từng nhóm riêng ở dưới) (các nhóm 44.14 đến 44.21).', 'Theo nguyên tắc chung, các panel xây dựng được tạo bởi các lớp gỗ và các lớp plastic cũng được phân loại vào Chương này. Việc phân loại các panel này phụ thuộc vào bề mặt ngoài hoặc các bề mặt mà thường tạo cho panel những đặc trưng cơ bản theo công dụng dự kiến của chúng. Do đó, ví dụ, một panel xây dựng, dùng làm mái nhà, tường hay sàn và gồm một lớp mặt ngoài là ván dăm và một lớp lớp cách bằng plastic sẽ được phân loại vào nhóm 44.10, bất kể độ dày của lớp plastic đó, bởi vì đó là phần gỗ rắn, chắc cho phép panel được sử dụng như yếu tố cấu trúc và phần plastic có chức năng cách (insulating) là phụ. Mặt khác, tấm panel có phần gỗ bồi chỉ đóng vai trò bổ trợ cho mặt ngoài của plastic thì, trong hầu hết các trường hợp, được phân loại vào Chương 39.', 'Các mặt hàng gỗ chưa lắp ráp hay bị tháo rời được phân loại với các mặt hàng hoàn chỉnh tương ứng, với điều kiện là các phần đó đi cùng nhau. Tương tự, các phụ kiện hoặc các phần bằng thuỷ tinh, đá hoa (marble), kim loại và các chất liệu khác đi cùng với các sản phẩm gỗ mà chúng thuộc về vẫn được phân loại theo các sản phẩm này dù được lắp ráp với sản phẩm đó hay chưa.', 'Các nhóm 44.14 đến 44.21 gồm những mặt hàng gỗ đã chế biến, áp dụng đối với các sản phẩm này dù được làm từ gỗ thường hay từ ván dăm hoặc ván tương tự, ván sợi, gỗ ghép hoặc gỗ đã được làm tăng độ rắn (xem Chú giải 3 trong Chương này).', 'Nói chung, trong toàn bộ Danh mục, việc phân loại gỗ không bị ảnh hưởng bởi cách xử lý cần thiết để bảo quản chúng, như phơi nắng, đốt bề ngoài, quét sơn lót, trám hoặc tẩm creosote hoặc các chất bảo quản gỗ khác (ví dụ, hắc ín than, pentachlophenol (ISO), chromated copper arsenate hoặc ammoniacal copper arsenate); cũng không bị phụ thuộc vào nguyên nhân được sơn, nhuộm hay đánh vecni. Tuy nhiên, cách xem xét chung này không áp dụng cho các trường hợp của các phân nhóm trong các nhóm 44.03 và 44.06, trường hợp mà quy định phân loại cụ thể đối với các loại gỗ được sơn, nhuộm hoặc xử lý bảo quản.', 'Một số vật liệu có tính chất gỗ, ví dụ, tre và liễu, được dùng chủ yếu trong sản xuất các mặt hàng từ song mây. Ở trạng thái chưa chế biến những vật liệu như vậy được phân loại vào nhóm 14.01, và ở dạng các sản phẩm từ song mây thì thuộc Chương 46. Tuy nhiên, các sản phẩm như tre dưới dạng vỏ bào hay dăm (dùng để chế tạo ván dăm, ván sợi hay bột giấy xenlulo) và các mặt hàng bằng tre hay các vật liệu có tính chất gỗ khác, trừ giỏ tết bện, đồ nội thất hoặc các mặt hàng khác được chi tiết cụ thể ở những Chương khác, thì được phân loại vào Chương này cùng với các sản phẩm hay các mặt hàng bằng gỗ thật tương ứng, trừ trường hợp có yêu cầu khác (ví dụ, trong các trường hợp của nhóm 44.10 và 44.11) (xem Chú giải 6 Chương này).', 'Chú giải chi tiết phân nhóm.', 'Tên của một vài loại gỗ nhiệt đới', 'Theo mục đích của những phân nhóm liên quan của các nhóm 44.03, 44.07, 44.08, 44.09 và 44.12 thì tên gọi của gỗ nhiệt đới được định rõ theo “pilot name” khuyến nghị bởi Hội công nghệ gỗ nhiệt đới quốc tế (ATIBT), Trung tâm Nghiên cứu Phát triển Quốc tế Nông nghiệp Pháp (CIRAD) và Tổ chức Gỗ nhiệt đới Quốc tế (ITTO). “Pilot name” được dựa trên cơ sở của tên phổ biến được dùng trong những nước sản xuất hoặc tiêu thụ gỗ chủ yếu.', 'Các “Pilot name” có liên quan, cùng với những tên khoa học và tên địa phương tương ứng, được liệt kê trong Phụ lục của Chú giải chi tiết thuộc Chương này.', '44.01- Gỗ nhiên liệu, dạng khúc, thanh nhỏ, cành, bó hoặc các dạng tương tự; vỏ bào hoặc dăm gỗ; mùn cưa và phế liệu gỗ, đã hoặc chưa đóng thành khối, bánh (briquettes), viên hoặc các dạng tương tự.', '- Gỗ nhiên liệu, dạng khúc, thanh nhỏ, cành, bó hoặc các dạng tương tự:', '4401.11 - - Từ cây lá kim', '4401.12 - - Từ cây không thuộc loài lá kim', '- Vỏ bào hoặc dăm gỗ:', '4401.21 - - Từ cây lá kim', '4401.22 - - Từ cây không thuộc loài lá kim', '- Mùn cưa, phế liệu và mảnh vụn gỗ, đã đóng thành dạng khúc, bánh (briquettes), viên hoặc các dạng tương tự:', '4401.31 - - Viên gỗ', '4401.32 - - Đóng thành bánh (briquettes)', '4401.39 - - Loại khác', '- Mùn cưa, phế liệu và mảnh vụn gỗ, chưa đóng thành khối:', '4401.41 - - Mùn cưa', '4401.49 - - Loại khác', 'Nhóm này bao gồm:', '(A) Gỗ nhiên liệu, thường ở dạng:', '(1) Các khúc ngắn, thường còn vỏ.', '(2) Gỗ chẻ hay thanh củi.', '(3) Cành con, bó, que thô, thân dây leo, gốc và rễ cây.', '(B) Gỗ dưới dạng vỏ bào hay dăm gỗ, tức là, gỗ được làm nhỏ cơ học thành vỏ bào nhỏ (dẹt, cứng và hình vuông thô) hay dăm gỗ (mỏng và mềm) dùng để sản xuất bột giấy xenlulo bằng các phương pháp cơ học, hóa học hay kết hợp cả hai phương pháp cơ học và hoá học hoặc để sản xuất ván sợi hay ván dăm. Theo Chú giải 6 của Chương này, nhóm này cũng gồm các sản phẩm tương tự thu được, ví dụ, từ tre.', 'Gỗ làm bột giấy dưới dạng tròn hay chẻ làm tư bị loại trừ (nhóm 44.03).', '(C) Mùn cưa, đã hoặc chưa đóng thành khối, bánh (briquettes), viên hay các dạng tương tương tự.', '(D) Phế liệu và mảnh vụn gỗ, không thể sử dụng như gỗ. Những vật liệu này được sử dụng đặc biệt để làm bột giấy (để chế tạo giấy) và để sản xuất ván dăm và ván sợi hay làm nhiên liệu. Các phế liệu và mảnh vụn như vậy bao gồm, đồ thải ra của xưởng cưa hoặc xưởng bào; sản phẩm hỏng; ván gẫy; thùng gỗ không thể tiếp tục sử dụng; vỏ cây và dăm bào (đã hoặc chưa đóng thành khối, bánh, viên hay các dạng tương tự); phế liệu và mảnh vụn khác trong quá trình làm đồ mộc; gỗ hoặc vỏ cây dùng để nhuộm và để thuộc đã qua sử dụng. Nhóm này cũng bao gồm phế liệu và mảnh vụn gỗ thải ra của công trình xây dựng và phế thải bị hỏng và không thể sử dụng như gỗ. Tuy nhiên, các mặt hàng gỗ bị tách riêng như vậy và phù hợp cho việc sử dụng lại (ví dụ, xà, dầm, tấm ván, cửa ra vào) thì được phân loại trong các nhóm thích hợp của chúng.', 'Nhóm này cũng không bao gồm:', '(a) Gỗ và gỗ phế liệu phủ nhựa cây hoặc làm cách khác cho gỗ trở thành vật mồi lửa (nhóm 36.06).', '(b) Khúc gỗ loại được dùng làm bột giấy hay chế tạo que diêm (nhóm 44.03); không giống gỗ nhiên liệu, chúng được xếp hạng một cách kỹ lưỡng, có thể được lột vỏ hoặc tách lớp và thường không bị gãy, chẻ, uốn cong, chia nhánh hay không có mắt gỗ.', '(c) Nan gỗ loại dùng để tết bện hay làm sàng, hộp làm bằng vỏ tiện, hộp thuốc..., và dăm bào dùng trong việc chế tạo dấm hay gạn lọc chất lỏng (nhóm 44.04).', '(d) Sợi gỗ và bột gỗ (nhóm 44.05).', '44.02- Than củi (kể cả than đốt từ vỏ quả hoặc hạt), đã hoặc chưa đóng thành khối.', '4402.10 - Của tre', '4402.20 - Của vỏ quả hoặc hạt', '4402.90 - Loại khác', 'Than củi thu được khi gỗ bị carbon hoá và không có tiếp xúc với không khí. Nó được phân loại vào nhóm này dù ở dạng khối, que hay ở dạng hạt hay bột, hoặc được đóng thành khối cùng với nhựa đường hay các chất liệu khác ở dạng bánh, viên hay khối cầu...', 'Than củi, không giống carbon động vật hoặc carbon khoáng, nó nhẹ hơn nước và trong mẩu than nhìn thấy thớ gỗ.', 'Các sản phẩm tương tự thu được bởi sự carbon hoá vỏ dừa hay các loại vỏ khác cũng được phân loại vào nhóm này.', 'Nhóm này không bao gồm:', '(a) Than củi ở dạng dược phẩm được định nghĩa trong Chương 30.', '(b) Than củi trộn với hương trầm, dưới dạng viên hoặc các dạng khác (nhóm 33.07).', '(c) Than hoạt tính (nhóm 38.02).', '(d) Than vẽ (bút chì than) (nhóm 96.09).', '44.03- Gỗ cây dạng thô, đã hoặc chưa bóc vỏ hoặc dác gỗ hoặc đẽo vuông thô.', '- Đã xử lý bằng sơn, chất màu, chất creozot hoặc các chất bảo quản khác:', '4403.11 - - Từ cây lá kim', '4403.12 - - Từ cây không thuộc loài lá kim', '- Loại khác, từ cây lá kim:', '4403.21 - - Từ cây thông (Pinus spp.), có kích thước mặt cắt ngang bất kỳ từ 15 cm trở lên', '4403.22 - - Từ cây thông (Pinus spp.), loại khác', '4403.23 - - Cây linh sam (Abies spp.) và cây vân sam (Picea spp.), có kích thước mặt cắt ngang bất kỳ từ 15 cm trở lên', '4403.24 - - Từ cây linh sam (Abies spp.) và cây vân sam (Picea spp.), loại khác', '4403.25 - - Loại khác, có kích thước mặt cắt ngang bất kỳ từ 15 cm trở lên', '4403.26 - - Loại khác', '- Loại khác, từ gỗ nhiệt đới:', '4403.41 - - Meranti đỏ sẫm, gỗ Meranti đỏ nhạt và gỗ Meranti Bakau', '4403.42 - - Gỗ Tếch (Teak)', '4403.49 - - Loại khác', '- Loại khác:', '4403.91 - - Gỗ sồi (Quercus spp.)', '4403.93 - - Từ cây dẻ gai (Fagus spp.), có kích thước mặt cắt ngang bất kỳ từ 15 cm trở lên', '4403.94 - - Từ cây dẻ gai (Fagus spp.), loại khác', '4403.95 - - Từ cây bạch dương (Betula spp.), có kích thước mặt cắt ngang bất kỳ từ 15 cm trở lên', '4403.96 - - Từ cây bạch dương (Betula spp.), loại khác', '4403.97 - - Từ cây dương (poplar and aspen) (Populus spp.):', '4403.98 - - Từ bạch đàn (Eucalyptus spp.)', '4403.99 - - Loại khác', 'Nhóm này bao gồm vật liệu gỗ trong trạng thái tự nhiên như khi bị đốn, thường đã được tỉa hết cành và gỗ này cũng được tước vỏ ngoài hay cả vỏ ngoài và vỏ trong hoặc từ đó chỉ các chỗ lồi xù xì bị loại bỏ. Nhóm này cũng bao gồm gỗ mà từ đó lớp ngoài không giá trị, gồm phần gỗ non (dác gỗ (sapwood)), bị loại bỏ để tiết kiệm cho vận chuyển và chống hư hỏng gỗ.', 'Các sản phẩm chủ yếu được phân loại vào đây, theo sự mô tả ở trên, bao gồm: cột gỗ để cưa; cột điện thoại, điện tín hoặc cột điện; trục tù đầu và không chẻ, cọc nhọn, cọc sào và cột chống; cột tròn trong hầm mỏ; thân gỗ, đã hoặc chưa chẻ vuông, để nghiền; thân gỗ tròn để chế tạo tấm gỗ làm lớp mặt,...; thân gỗ cho việc sản xuất que diêm, đồ gỗ...', 'Cột điện thoại, điện tín hoặc cột điện cũng được phân loại trong nhóm này khi được tỉa thêm bằng dao kéo hay lột vỏ bằng máy lột vỏ cơ học để có được một bề mặt nhẵn tiện cho sử dụng. Những cột này thường được sơn, nhuộm, đánh véc ni hoặc tẩm dầu creosote hay các chất khác.', 'Rễ và gốc của loài gỗ đặc biệt, và một số lớp gỗ non như loại dùng để làm lớp mặt hay tẩu hút thuốc, cũng thuộc nhóm này.', 'Nhóm này cũng gồm gỗ đẽo vuông thô gồm có thân cây hay các phần của thân cây, bề mặt tròn đã được làm phẳng bởi rìu hay rìu lưỡi vòm, hoặc cưa thô, để tạo thành một mặt cắt ngang chữ nhật (kể cả hình vuông); gỗ đẽo vuông thô được đặc trưng bởi bề ngoài thô hay còn dấu vết của vỏ cây. Gỗ nửa vuông, là gỗ được chế biến theo cách này chỉ trên hai mặt đối diện, cũng được phân loại vào đây. Gỗ được chế biến ở các dạng này dùng cho nhà máy cưa hoặc được sử dụng theo cách, ví dụ, gỗ làm vật liệu lợp mái.', 'Một vài loại gỗ (ví dụ, gỗ tếch) được tách bằng cách nêm hoặc đẽo dọc theo thớ gỗ thành xà; những xà như vậy cũng được xem như thuộc nhóm này.', 'Nhóm này không bao gồm:', '(a) Gỗ đã được cắt, tỉa thô để làm ba-toong, ô, cán dụng cụ hoặc loại tương tự (nhóm 44.04).', '(b) Gỗ được xẻ thành tà vẹt đường sắt hay đường xe điện (thanh ngang) (nhóm 44.06).', '(c) Gỗ được xẻ thành ván lát, rầm... (nhóm 44.07 hay 44.18).', 'Chú giải chi tiết phân nhóm.', 'Các phân nhóm 4403.11 và 4403.12', 'Các phân nhóm 4403.11 và 4403.12 bao gồm những sản phẩm được xử lý bằng sơn, nhuộm, tẩm creosote hay chất bảo quản khác như hắc ín than, pentachlorophenol (ISO), chromated copper arsenate hoặc ammoniacal copper arsenate, để bảo quản lâu dài.', 'Các phân nhóm này không bao gồm những sản phẩm được xử lý bằng các chất liệu chỉ để bảo quản chúng trong khi vận chuyển hay lưu trữ.', 'Các phân nhóm 4403.21, 4403.23, 4403.25, 4403.93 và 4403.95', 'Theo mục đích của các phân nhóm này, kích thước mặt cắt ngang nhỏ nhất được đo ở đầu trên của thân cây (trên cùng).', '44.04- Gỗ đai thùng; cọc chẻ; sào, cột và cọc bằng gỗ, vót nhọn, nhưng không xẻ dọc; gậy gỗ, đã cắt thô nhưng chưa tiện, uốn cong hoặc gia công cách khác, phù hợp cho sản xuất ba toong, cán ô, chuôi, tay cầm dụng cụ hoặc tương tự; nan gỗ (chipwood) và các dạng tương tự.', '4404.10 - Từ cây lá kim', '4404.20 - Từ cây không thuộc loài lá kim', 'Nhóm này bao gồm:', '(1) Gỗ đai thùng, gồm gỗ chẻ cây liễu, phi, bạch dương... Có thể có vỏ hoặc bào thô, và được sử dụng để sản xuất đai thùng tròn, rào chắn... Gỗ đai thùng thường được cuộn hoặc bó lại.', 'Gỗ đai thùng được cắt thành từng đoạn và khía thành hình chữ V ở các đầu để gài nối vào nhau khi ghép thành thùng thuộc nhóm 44.16.', '(2) Cọc chẻ, bao gồm thân hay cành cây của gỗ chẻ dọc. Chúng phần lón được sử dụng làm vật đỡ trong làm vườn và nông nghiệp, làm hàng rào hoặc trong một số trường hợp làm làm trần nhà hay làm nền.', '(3) Sào nhọn, cột và cọc (kể cả cột rào), gồm cọc tròn hay chẻ, vót nhọn ở các đầu, đã hay chưa lột vỏ hay tẩm chất bảo quản, nhưng chưa cưa dọc.', '(4) Gậy gỗ, đã cắt nhưng chưa tiện, uốn cong hay gia công cách khác, với chiều dài và độ dày thích hợp rõ ràng để làm ba toong, roi, cán gậy gôn, ô, tay cầm của dụng cụ, tay cầm của chổi sể..., gỗ dạng thanh đã nhuộm và các loại tương tự.', 'Gỗ tương tự đã được bào, tiện (trên máy tiện thông thường hoặc máy tiện cọc), đã uốn cong, hoặc gia công cách khác và có thể nhận biết được như cán ô, ba toong, tay cầm của dụng cụ,... được phân loại vào những nhóm đối với các mặt hàng tương ứng.', '(5) Nan gỗ (chipwood), tức là, gỗ được xẻ lát, tước hay đôi khi được cưa thành các dải dễ uốn, hẹp, mỏng và phẳng loại sử dụng để tết bện và làm sàng, hộp gỗ đan, rổ, hộp thuốc, bao diêm... Nó cũng gồm những dải gỗ tương tự để làm diêm và móc giày hoặc ủng.', 'Nhóm này cũng bao gồm vỏ bào, thường là của gỗ dẻ gai hay gỗ phỉ, tương tự nan gỗ (chipwood) cuộn dùng trong kỹ nghệ làm dấm hay gạn lọc chất lỏng; chúng cũng có thể được phân biệt với vỏ bào phế liệu trong nhóm 44.01 bởi vì chúng có độ dày, rộng và dài đồng nhất và thậm chí được cuộn tròn lại.', 'Phôi thô để làm thân bàn chải hay làm cốt giày hoặc ủng thuộc nhóm 44.17.']</t>
   </si>
   <si>
     <t>['TỔNG QUÁT', 'Bột giấy thuộc Chương này chứa chủ yếu xơ sợi xenlulo thu được từ các vật liệu thực vật khác nhau, hoặc từ phế liệu dệt có nguồn gốc thực vật.', 'Loại bột giấy quan trọng nhất trong thương mại quốc tế là bột giấy gỗ, được gọi là “bột giấy cơ học từ gỗ”, “bột giấy hóa học từ gỗ”, “bột giấy bán hóa từ gỗ” hoặc “bột giấy hóa cơ từ gỗ”, tuỳ theo phương pháp chế biến. Loại gỗ dùng nhiều nhất là gỗ thông, vân sam, cây dương và cây dương lá rung, nhưng người ta còn sử dụng gỗ rắn hơn chẳng hạn như cây dẻ gai, cây hạt dẻ, cây bạch đàn và một số gỗ nhiệt đới.', 'Các nguyên liệu khác được sử dụng để sản xuất bột giấy bao gồm:', '(1) Xơ bông.', '(2) Giấy loại và bìa loại (phế liệu và vụn thừa).', '(3) Giẻ lau (chủ yếu bằng bông, lanh hoặc bằng gai dầu) và các phế liệu dệt khác như dây thừng cũ.', '(4) Rơm rạ, cỏ giấy, lanh, gai, đay, gai dầu, cây xidan, bã mía, tre và cỏ sậy khác.', 'Bột giấy từ gỗ có thể màu nâu hoặc trắng. Nó có thể bán tẩy trắng hoặc tẩy trắng nhờ các hóa chất hoặc có thể chưa tẩy trắng. Một loại bột giấy được xem như bán tẩy trắng hoặc tẩy trắng nếu, sau khi sản xuất, nó được xử lý nhằm tăng thêm độ trắng (độ sáng).', 'Ngoài việc sử dụng trong công nghiệp giấy, một số loại bột giấy (nhất là bột giấy tẩy trắng) là nguồn xenlulo để sản xuất các sản phẩm khác nhau như vật liệu dệt nhân tạo, plastic, vec-ni và thuốc nổ; chúng cũng được sử dụng trong cỏ khô cho gia súc.', 'Bột giấy thường được trình bày ở dạng tờ đóng thành bành (có đục lỗ hay không), khô hoặc ướt, song đôi khi chúng có thể được trình bày dưới dạng tấm, cuộn tròn, dạng bột hay dạng mảnh.', 'Chương này không bao gồm:', '(a) Xơ bông (nhóm 14.04)', '(b) Bột giấy tổng hợp gồm những tấm sợi (sợi nhỏ-fibril) polyetylen hoặc polypropylen không dính với nhau (nhóm 39.20).', '(c) Ván sợi (nhóm 44.11).', '(d) Các khối, tấm hoặc miếng lọc, bằng bột giấy (nhóm 48.12).', '(e) Các sản phẩm khác bằng bột giấy (Chương 48).', '47.01 – Bột giấy cơ học từ gỗ', 'Bột giấy cơ học từ gỗ thu được duy nhất bằng quá trình cơ học, tức là, bằng cách nghiền hoặc mài gỗ, được tước vỏ và đôi khi bỏ mắt gỗ, thành xơ sợi bằng máy nghiền cơ khí dưới dòng chảy của nước.', 'Việc nghiền mà không cần xử lý trước bằng hơi nước sản xuất ra bột giấy được gọi là bột giấy cơ học từ gỗ “màu sáng” trong đó các xơ sợi bị gãy hoặc bị làm yếu. Gỗ có thể được xử lý bằng hơi nước trước khi mài, sản xuất ra xơ sợi dai hơn có màu nâu (bột giấy cơ học từ gỗ màu nâu).', 'Phương pháp tiến bộ hơn so với các phương pháp nghiền truyền thống là bột giấy gọi là bột giấy cơ học tinh chế ở phương pháp này các dăm mảnh bị xé thành miếng nhỏ trong một máy tinh chế dạng đĩa bằng cách đẩy các dăm mảnh qua giữa hai đĩa có rãnh răng được đặt sát nhau, một trong hai đĩa hoặc cả hai đĩa này có thể quay. Một trong những loại cao cấp của bột giấy này được sản xuất bằng cách tinh chế các dăm gỗ sau khi chúng được xử lý nhiệt sơ bộ để làm mềm và cho phép tách các sợi gỗ dễ dàng hơn với hao hụt sợi ít hơn. Chất lượng bột giấy thu được là cao cấp hơn bột giấy cơ học từ gỗ theo phương pháp truyền thống.', 'Do đó, các loại chính của bột giấy cơ học từ gỗ là:', 'Bột gỗ mài đá (SGW) thu được từ gỗ tròn hoặc các khối gỗ trong máy nghiền đá (đĩa mài bằng đá) ở áp suất khí quyển.', 'Bột gỗ mài đá áp lực (PGW) thu được từ gỗ tròn hoặc khối gỗ trong các máy nghiền đá có bánh mài áp lực.', 'Bột giấy cơ học tinh chế (RMP) thu được từ các dăm mảnh hoặc miếng vụn trong máy tinh chế thoát ra ở áp suất khí quyển.', 'Bột giấy cơ học nhiệt (TMP) thu được từ dăm mảnh hoặc miếng vụn trong các máy tinh chế sau khi xử lý gỗ bằng hơi nước dưới áp suất cao.', 'Cần lưu ý rằng một số bột giấy thu được trong các máy tinh chế có thể đã qua xử lý hoá học. Các bột giấy này được xếp vào nhóm 47.05.', 'Nhìn chung, bột giấy cơ học từ gỗ thường không được dùng riêng bởi vì sợi của chúng tương đối ngắn và sẽ tạo ra các sản phẩm có độ bền thấp. Trong sản xuất giấy, nó thường được trộn với bột giấy hóa học. Giấy in báo thường được làm từ một hỗn hợp như vậy (xem Chú giải 4 của Chương 48).', '47.02 – Bột giấy hóa học từ gỗ, loại hòa tan', 'Nhóm này chỉ bao gồm bột giấy hóa học từ gỗ, loại hoà tan, như đã được định nghĩa trong Chú giải 1 của Chương này. Bột giấy này được tinh chế hoặc thanh lọc đặc biệt, để đáp ứng các yêu cầu sử dụng đã định. Nó được sử dụng để sản xuất xenlulo tái sinh, các ete và este của xenlulo và các sản phẩm bằng các vật liệu này, như tấm, phiến, màng, lá và dải, xơ sợi dệt và một số loại giấy (ví dụ, giấy thuộc loại sử dụng làm nền cho giấy cảm quang, giấy lọc và giấy giả da gốc thực vật). Theo mục đích sử dụng cuối cùng hoặc theo sản phẩm cuối cùng, nó cũng được gọi là bột giấy viscose, bột giấy acetate,…', 'Bột giấy hóa học từ gỗ thu được bằng cách đầu tiên làm nhỏ gỗ thành dăm hoặc các mảnh nhỏ mà sau đó được xử lý bằng hóa chất. Kết quả của việc xử lý này là phần lớn hơn của ligin và các vật liệu không phải xenlulo khác được loại bỏ.', 'Các hoá chất thường dùng là natri hydroxide (quá trình “kiềm”), một hỗn hợp của natri hydroxide và natri sulphate, mà một phần bị chuyển thành natri sulphite (quá trình “sulphate”), canxi bisulphite hoặc magiê bisulphite, cũng được biết lần lượt dưới tên gọi canxi hydrogen sulphite hoặc magiê hydrogen bisulphite (quá trình “sulphite”).', 'Sản phẩm thu được có chất lượng cao hơn về chiều dài của sợi và nhiều xenlulo hơn so với bột giấy cơ học được làm từ cùng một loại nguyên liệu thô.', 'Việc sản xuất bột giấy hóa học từ gỗ, loại hoà tan, được thực hiện thông qua các phản ứng hoá học và hóa lý mở rộng. Ngoài việc làm trắng, việc sản xuất có thể cần các bước lọc hoá học, loại bỏ nhựa, khử polyme hoá, giảm hàm lượng tro hoặc điều chỉnh khả năng phản ứng, hầu hết các thao tác này được kết hợp trong một quá trình lọc và tẩy trắng phức hợp.']</t>
@@ -1051,7 +1045,7 @@
     <t>['TỔNG QUÁT', 'Chương này bao gồm các loại quần áo của nam và nữ hoặc của trẻ em, hàng may mặc phụ trợ và các chi tiết của quần áo hoặc các chi tiết của hàng may mặc phụ trợ, làm từ các loại vải (trừ mền xơ nhưng kể cả phớt hoặc các sản phẩm không dệt) của các Chương từ 50 đến 56, 58 và 59). Trừ các sản phẩm thuộc nhóm 62.12, áo quần, hàng may mặc phụ trợ và các chi tiết được làm từ vật liệu dệt kim hoặc móc bị loại trừ khỏi Chương này.', 'Việc phân loại hàng hóa trong chương này không bị ảnh hưởng do sự hiện diện của các chi tiết hoặc phụ kiện làm từ làm các loại chất liệu khác nhau ví dụ như: vải dệt kim hoặc móc, da lông, lông vũ, da thuộc, plastic hoặc kim loại. Tuy nhiên, khi sự hiện diện của các vật liệu cấu thành này không chỉ nhằm mục đích trang trí mà còn có các mục đích khác, thì các sản phẩm đó được phân loại theo các Chú giải Chương liên quan (đặc biệt là Chú giải 4 của Chương 43 và Chú giải 2 (b) của Chương 67, liên quan đến sự hiện diện của da lông (thuộc Chương 43) và lông vũ (thuộc Chương 67), nếu không được thì theo các Quy tắc phân loại (GIR)', 'Các sản phẩm được làm được nóng bằng điện vẫn được phân loại trong Chương này.', 'Bằng cách áp dụng các quy định của Chú giải 9 của Chương này, quần áo có các thân trước mở, được cài hoặc gối lên nhau từ trái sang phải được xem là quần áo của nam giới hay trẻ em trai. Khi quần áo có thân trước mở, được cài hoặc gối lên nhau theo chiều từ phải sang trái được coi là quần áo của phụ nữ hoặc trẻ em gái.', 'Các quy định này không áp dụng cho những quần áo mà cách cắt may của chúng thể hiện rõ ràng là dùng cho nam hoặc nữ. Quần áo mà không thể phân biệt được là dùng cho nam hoặc nữ thì được xếp vào nhóm dùng cho phụ nữ hoặc trẻ em gái.', 'Bằng cách áp dụng Chú giải 14 của Phần XI, quần áo thuộc các nhóm khác nhau sẽ được phân loại theo các nhóm phù hợp của từng loại ngay cả khi đóng thành bộ để bán lẻ. Tuy nhiên, Chú giải này không áp dụng cho áo quần các loại được đóng bộ đã được đề cập một cách chi tiết trong phần mô tả của nội dung nhóm, ví dụ như: bộ complê, bộ quần áo ngủ, bộ đồ bơi. Chúng ta nên lưu ý ràng, đối việc áp dụng Chú giải 14 của Phần XI, khái niệm “quần áo dệt" nghĩa là các hàng hóa của các nhóm từ 62.01 đến 62.11.', 'Chương này cũng bao gồm các sản phẩm được mô tả trong Chương dưới dạng chưa hoàn thiện hoặc chưa hoàn chỉnh, kể cả vải dệt đã được định hình để làm ra sản phẩm đó và vải dệt kim hoặc móc đã định hình để tạo thành các sản phẩm hoặc các chi tiết của các sản phẩm thuộc nhóm 62.12. Nếu vải đã được định hình này có đặc trưng cơ bản của các thành phẩm liên quan, thì chúng được phân loại vào cùng nhóm của các thành phẩm. Tuy nhiên, các chi tiết của áo quần hoặc của hàng may mặc phụ trợ, không dệt kim hoặc móc (trừ các chi tiết như vậy của nhóm 62.12) được phân loại trong nhóm 62.17.', 'Chương này không bao gồm:', '(a) Các loại quần áo và hàng may mặc phụ trợ thuộc các nhóm 39.26, 40.15,42.03 hoặc 68.12.', '(b) Các miếng vải dệt đã qua một vài công đoạn gia công (như làm viền hoặc tạo đường viền cổ áo) dùng để sản xuất áo quần nhưng chưa được hoàn thiện đầy đủ và được xem như quần áo hoặc các chi tiết của quần áo (nhóm 63.07).', '(c) Quần áo và các sản phẩm đã qua sử dụng khác thuộc nhóm 63.09.', '(d) Quần áo cho búp bê (nhóm 95.03).', 'o', 'o   o', 'Chú giải phân nhóm.', 'Việc phân loại các sản phẩm làm từ các sản phẩm dệt đã chần dạng chiếc thuộc nhóm 58.11.', 'Các hàng hóa làm từ các sản phẩm dệt đã chần dạng chiếc thuộc nhóm 58.11 được phân loại trong các phân nhóm của các nhóm thuộc Chương này theo Chú giải phân nhóm 2 của Phần XI.', 'Theo mục đích phân loại các sản phẩm này, các vật liệu dệt của phần vải bọc ngoài tạo nên những đặc trưng cơ bản cho các sản phẩm. Ví dụ như áo ngoài có mũ trùm đầu may chần của đàn ông có vải ngoài làm từ 60% bông và 40% polyeste được phân loại vào phân nhóm 6201.30. Lưu ý, mặc dù vải ngoài bản thân nó được phân vào nhóm 59.03, 59.06 hoặc 59.07 thì chiếc áo quần này không thuộc nhóm 62.10.']</t>
   </si>
   <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm:', '(1) Theo các nhóm từ 63.01 đến 63.07 (phân Chương I) các sản phẩm dệt làm thành từ bất kỳ loại vải dệt nào (vải dệt hoặc vải móc, phớt, sản phẩm không dệt,...) và các sản phẩm này không được mô tả chi tiết hơn ở các Chương khác của Phần XI hoặc nơi khác trong Danh mục này. (Thuật ngữ "các sản phẩm dệt may đã hoàn thiện" được hiểu là các sản phẩm làm thành phẩm như đã định nghĩa trong Chú giải 7 của Phần XI (cũng xem Phần (II) của Chú giải tổng quát của Phần XI).', 'Phân chương này bao gồm các sản phẩm làm bằng vải tuyn hoặc các loại vải lưới khác, ren hoặc đồ thêu, được tạo hình trực tiếp hoặc được làm thành từ vải tuyn hoặc vải lưới khác, ren hoặc vải đã được thêu thuộc nhóm 58.04 hoặc 58.10.', 'Việc phân loại các sản phẩm thuộc phân chương này không bị ảnh hưởng bởi sự có mặt của đồ trang trí có kích thước nhỏ hoặc các bộ phận phụ trợ làm bằng da lông, kim loại (kể cả kim loại quý), da thuộc, plastic,...', 'Tuy nhiên, nếu sự có mặt của các vật liệu khác trong thành phẩm không chỉ đóng vai trò trang trí hoặc phụ kiện mà còn đóng vai trò cao hơn, các sản phẩm được phân loại theo các phần liên quan hoặc theo các Chú giải chương (GIR 1) hoặc theo các Quy tắc diễn giải chung (GIR) khác nếu có thể.', 'Đặc biệt, phân chương này không bao gồm:', '(a) Các sản phẩm mềm xơ thuộc nhóm 56.01.', '(b) Các sản phẩm không dệt chỉ được cắt thành hình vuông hoặc hình chữ nhật (ví dụ, tấm trải giường dùng một lần) (nhóm 56.03)', '(c) Các loại lưới hoàn chỉnh thuộc nhóm 56.08.', '(d) Mẫu hoa văn bằng ren hoặc đồ thêu thuộc nhóm 58.04 hoặc nhóm 58.10.', '(e) Các sản phẩm áo quần và các phụ kiện hàng may mặc thuộc Chương 61 hoặc 62.', '(2) Theo nhóm 63.08 (phân chương II) các bộ sản phẩm gồm vải dệt và sợi chỉ có hoặc không có các phụ kiện, dùng để làm chăn, tấm thảm trang trí, các loại vải trải bàn được thêu hoặc khăn ăn hoặc các vật liệu dệt tương tự, được đóng gói để bán lẻ.', '(3) Theo nhóm 63.09 hoặc 63.10 (phân chương III) áo quần cũ các loại và các mặt hàng cũ khác như đã được định nghĩa trong Chú giải 3 của chương, vải vụn và mẫu dây xe đã sử dụng hoặc còn mới,...']</t>
+    <t>['TỔNG QUÁT', 'Chương này bao gồm:', '(1) Theo các nhóm từ 63.01 đến 63.07 (phân Chương I) các sản phẩm dệt làm thành từ bất kỳ loại vải dệt nào (vải dệt hoặc vải móc, phớt, sản phẩm không dệt,...) và các sản phẩm này không được mô tả chi tiết hơn ở các Chương khác của Phần XI hoặc nơi khác trong Danh mục này. (Thuật ngữ "các sản phẩm dệt may đã hoàn thiện" được hiểu là các sản phẩm làm thành phẩm như đã định nghĩa trong Chú giải 7 của Phần XI (cũng xem Phần (II) của Chú giải tổng quát của Phần XI).', 'Phân chương này bao gồm các sản phẩm làm bằng vải tuyn hoặc các loại vải lưới khác, ren hoặc đồ thêu, được tạo hình trực tiếp hoặc được làm thành từ vải tuyn hoặc vải lưới khác, ren hoặc vải đã được thêu thuộc nhóm 58.04 hoặc 58.10.', 'Việc phân loại các sản phẩm thuộc phân chương này không bị ảnh hưởng bởi sự có mặt của đồ trang trí có kích thước nhỏ hoặc các bộ phận phụ trợ làm bằng da lông, kim loại (kể cả kim loại quý), da thuộc, plastic,...', 'Tuy nhiên, nếu sự có mặt của các vật liệu khác trong thành phẩm không chỉ đóng vai trò trang trí hoặc phụ kiện mà còn đóng vai trò cao hơn, các sản phẩm được phân loại theo các phần liên quan hoặc theo các Chú giải chương (GIR 1) hoặc theo các Quy tắc diễn giải chung (GIR) khác nếu có thể.', 'Đặc biệt, phân chương này không bao gồm:', '(a) Các sản phẩm mềm xơ thuộc nhóm 56.01.', '(b) Các sản phẩm không dệt chỉ được cắt thành hình vuông hoặc hình chữ nhật (ví dụ, tấm trải giường dùng một lần) (nhóm 56.03)', '(c) Các loại lưới hoàn chỉnh thuộc nhóm 56.08.', '(d) Mẫu hoa văn bằng ren hoặc đồ thêu thuộc nhóm 58.04 hoặc nhóm 58.10.', '(e) Các sản phẩm áo quần và các phụ kiện hàng may mặc thuộc Chương 61 hoặc 62.', '(2) Theo nhóm 63.08 (phân chương II) các bộ sản phẩm gồm vải dệt và sợi chỉ có hoặc không có các phụ kiện, dùng để làm chăn, tấm thảm trang trí, các loại vải trải bàn được thêu hoặc khăn ăn hoặc các vật liệu dệt tương tự, được đóng gói để bán lẻ.', '(3) Theo nhóm 63.09 hoặc 63.10 (phân chương III) áo quần cũ các loại và các mặt hàng cũ khác như đã được định nghĩa trong Chú giải 3 của chương, vải vụn và mẫu dây xe đã sử dụng hoặc còn mới,...', 'Phân chương 1', 'CÁC MẶT HÀNG DỆT ĐÃ HOÀN THIỆN KHÁC']</t>
   </si>
   <si>
     <t>['TỔNG QUÁT', 'Ngoài các trường hợp loại trừ nhất định (xem cụ thể những loại trừ được đề cập ở phần cuối của Chú giải tổng quát), chương này bao gồm các loại giày, dép khác nhau (kể cả các loại giày đi bên ngoài phủ lên các giày, dép khác) được phân loại vào các nhóm từ 64.01 đến 64.05 không phân biệt kiểu dáng và kích cỡ, không phân biệt chúng được thiết kế cho mục đích sử dụng nào, không phân biệt phương thức sản xuất hoặc nguyên liệu được sử dụng để làm ra chúng.', 'Tuy nhiên, theo mục đích của chương này, thuật ngữ "giày, dép" không bao gồm giày, dép đi một lần bằng vật liệu mỏng (như giấy, tấm plastic.v.v), không gắn đế. Các sản phẩm này được phân loại theo vật liệu làm ra chúng.', '(A) Giày, dép có thể là dép xăng- đan với mũ dép được cấu tạo đơn giản bằng các dây buộc hoặc những dải ruy băng có thể điều chỉnh được cho đến các loại giày ống cao quá đùi (là loại mà mũ giày che phủ phần chân và đùi, và có thể có cả quai buộc,.v.v, để thắt chặt mũ giày vào thắt lưng để giữ chắc hơn). Chương này bao gồm:', '(1) Giày gót phẳng hoặc cao gót thông thường để đi trong nhà hoặc ngoài trời.', '(2) Các loại giày có cổ, giày ống ngắn, giày ống cao đến đầu gối, giày ống cao quá đùi.', '(3) Các loại dép Sandal “espadrilles” (loại dép có mũ dép bằng vải bạt, đế dép được bện bằng loại vật liệu thực vật), các loại giày dùng để chơi tenis, giày để chạy bộ tập thể dục, các loại dép mềm dùng khi tắm và các loại giày, dép thông thường khác.', '(4) Giày, dép thể thao chuyên dùng là các loại giày, dép được thiết kế dùng cho các hoạt động thể thao và đã có, hoặc chuẩn bị sẵn, để gắn các loại đóng đinh, bịt đầu, ghim kẹp, chốt hoặc các loại tương tự và các loại-giày ống trượt băng, giày ống trượt tuyết và giày trượt tuyết băng đồng, giày ống gắn ván trượt, giày ống đấu vật, giày ống đấu quyền anh và giày đua xe đạp (xem Chú giải Phân nhóm 1 của Chương này).', 'Tuy nhiên, giày ống có gắn lưỡi trượt patanh hoặc giày ống có gắn lưỡi trượt băng với phần lưỡi trượt được gắn cố định vào đế giày bị loại trừ khỏi nhóm này (nhóm 95.06)', '(5) Các loại giày dép mềm để khiêu vũ', '(6) Các loại giày, dép đi trong nhà (ví dụ, như dép mềm dùng để đi trong phòng ngủ)', '(7) Các loại giày, dép được làm một mảnh, chủ yếu được làm bằng cách đúc cao su hoặc các chất liệu nhựa hoặc được làm bằng cách đẽo từ một miếng gỗ cứng.', '(8) Các loại giày, dép được thiết kế đặc biệt để chống dầu, mỡ, các chất hóa học hoặc chống lạnh.', '(9) Các loại giày được đi bên ngoài phủ lên các giày, dép khác; trong một số trường hợp, chúng không có gót giày.', '(10) Các loại giày, dép dùng một lần, có gắn đế, thường được thiết kế sử dụng chỉ một lần.', '(B) Giày, dép được phân loại trong chương này có thể được làm bằng mọi chất liệu (cao su, da, nhựa, gỗ, li-e, các vật liệu dệt bao gồm cả các loại nỉ và sản phẩm không dệt, da lông, các chất vật liệu tết bện v.v...), ngoại trừ bằng amiăng, và có thể chứa, theo tỷ lệ bất kỳ, các chất liệu thuộc chương 71.', 'Tuy nhiên, trong giới hạn của chương này, nguyên liệu cấu thành đế ngoài và mũ của giày, dép sẽ quyết định giày, dép được phân loại vào các nhóm từ 64.01 đến 64.05.', '(C) Khái niệm “đế ngoài” được sử dụng trong các nhóm 64.01 đến 64.05 được hiểu là bộ phận của giày, dép (trừ gót giày đã được gắn) mà bộ phận này tiếp xúc trực tiếp với đất khi sử dụng. Nguyên liệu cấu thành đế giày, dép với mục đích để phân loại hàng hóa sẽ là phần nguyên liệu có bề mặt tiếp xúc với đất lớn nhất.. Để xác định nguyên liệu cấu thành của đế ngoài, chúng ta sẽ không tính đến các phụ kiện hay đồ phụ trợ mà một phần phủ lên đế giày, dép (xem Chú giải 4 (b) của Chương này). Các phụ kiện hoặc đồ phụ trợ bao gồm: đinh đóng đế, đinh, que, các vật bảo vệ hoặc các vật gắn lắp tương tự (bao gồm cả một lớp mỏng bông len dệt (ví dụ như để tạo ra một họa tiết) hoặc vật liệu dệt có thể tháo rời, được gắn vào nhưng không bọc đế giày.', 'Trong trường hợp giày, dép được làm một mảnh (ví dụ như: guốc), không gắn đế, không cần có đế ngoài riêng biệt; các loại giày, dép này sẽ được phân loại theo vật liệu cấu thành lên bề mặt bên dưới của giày dép.', '(D) Với mục đích phân loại giày, dép vào Chương này, vật liệu cấu thành mũ giày cũng phải được tính đến. Mũ giày là bộ phận của giày hoặc giày ống nằm ở phía trên đế giày. Tuy nhiên, ở một số loại giày nhất định có đế giày được đúc bằng nhựa hoặc ở loại giày kiểu da mềm (moccasin) của người thổ dân Châu Mỹ, một mảnh nguyên liệu được sử dụng để làm đế giày và đồng thời làm toàn bộ hoặc một phần mũ giày, như vậy sẽ khó phân định được đế ngoài của giày và mũ giày. Trong những trường hợp như vậy, mũ giày sẽ được xem là một phần của giày để bao phủ các bên và phần trên của bàn chân. Kích cỡ của mũ giày thay đổi tùy theo kiểu cách của từng loại giày dép, từ những loại bao trùm bàn chân và toàn bộ chân, kể cả lên tới đùi (ví dụ như: giày ống của người đi câu), cho tới những loại đơn giản chỉ gồm có đai hoặc dây da (ví dụ như dép sandal).', 'Nếu mũ giày được làm từ hai hay nhiều vật liệu, việc phân loại sản phẩm sẽ được xác định theo vật liệu cấu thành có diện tích bề mặt phủ ngoài lớn nhất, không tính đến các phụ kiện hoặc đồ phụ trợ như những mảng ở mắt cá chân, những dải bảo vệ hoặc trang trí hoặc mép viền, các bộ phận trang trí khác (ví dụ như tuarua, búp cài hoặc dải viền...), khóa cài, mác nhãn, khoen xỏ dây, dây buộc hoặc khoá kéo. Vật liệu cấu thành của bất kỳ lớp lót nào đều không ảnh hưởng tới việc phân loại.', '(E) Cần lưu ý rằng theo mục đích của chương này, các khái niệm "cao su" và "plastic" bao gồm cả vải dệt thoi hoặc các sản phẩm dệt khác có lớp ngoài bằng cao su hoặc plastic có thể nhìn thấy được bằng mắt thường, không tính tới sự thay đổi về màu sắc.', '(F) Theo quy định của phần (E) nêu trên, theo mục đích của chương này, khái niệm "vật liệu dệt" bao gồm các loại xơ, sợi, vải, phớt (nỉ), các sản phẩm không dệt, sợi xe, chão bện (cordage), thừng, cáp.v.v.thuộc Chương từ 50 đến 60.', '(G) Theo mục đích của chương này, khái niệm "da thuộc" liên quan đến các sản phẩm của các nhóm từ 41.07 và 41.12 tới 41.14.', '(H) Các phần dưới cùng của giày ống hoặc của các loại giày dép khác, bao gồm một đế ngoài được gắn với mũ chưa hoàn chỉnh hoặc chưa hoàn thiện, mà phần mu này không che phủ quá mắt cá chân cũng được xem như giày dép (và không xem như các bộ phận của giày dép). Những sản phẩm này có thể được hoàn chỉnh đơn giản bằng cách trang trí mép trên cùng bằng một đường diềm và thêm bộ phận chốt cài.', 'Chương này không bao gồm:', '(a) Các loại giày, dép bằng vật liệu dệt, không có đế được dán, khâu hoặc gắn bằng cách khác vào phần mũ giày (Phần XI).', '(b) Các loại giày, dép đã qua sử dụng có dấu hiệu còn sử dụng được hoặc chúng phải được thể hiện ở dạng đóng gói cỡ lớn hoặc kiện, bao hoặc các kiểu bao gói tương tự (nhóm 63.09).', '(c) Các loại giày, dép bằng amiăng (nhóm 68.12).', '(d) Các loại giày, dép chỉnh hình (nhóm 90.21).', '(e) Các loại giày, dép đồ chơi và giày ống có gắn lưỡi trượt băng hoặc trượt patanh; tấm ốp bảo vệ ống chân và các đề bảo vệ tương tự dùng trong thể thao (Chương 95).']</t>
@@ -1063,46 +1057,22 @@
     <t>['TỔNG QUÁT', 'Chương này bao gồm:', '(A) Các loại sản phẩm thuộc Chương 25 đã được gia công vượt qua mức độ được cho phép theo chú giải 1 của Chương đó', '(B) Các sản phẩm không được đưa vào Chương 25 theo Chú giải 2 (f) của Chương đó.', '(C) Một số sản phẩm nhất định được làm bằng các nguyên liệu khoáng thuộc Phần V.', '(D) Các sản phẩm được làm từ một số các nguyên vật liệu thuộc Chương 28 (ví dụ, vật liệu mài nhân tạo).', 'Một số sản phẩm ở mục (C) hoặc (D) có thể được gắn kết bằng cách sử dụng các chất kết dính, có chứa các chất độn, có thể được gia cố, hoặc trong trường hợp các sản phẩm như vật liệu mài hoặc mica có thể được gắn/dính vào mặt sau hoặc mặt nền của chất liệu vải, giấy, bìa các tổng; hoặc các nguyên vật liệu khác.', 'Phần lớn các sản phẩm này và các thành phẩm thu được bằng các công đoạn (như tạo hình, tạo khuôn), mà sẽ làm thay đổi hình dạng hơn là bản chất của các nguyên vật liệu cấu thành. Một số sản phẩm thu được bằng sự kết tụ (ví dụ các sản phẩm hắc ín, hoặc một số sản phẩm nhất định như các bánh mài mà được kết tụ bằng phương pháp thủy tinh hóa các vật liệu kết dính); các sản phẩm khác có thể được tôi cứng trong các nồi hấp (các loại gạch làm bằng vôi - cát). Chương này cũng bao gồm một số sản phẩm nhất định thu được nhờ các công đoạn liên quan đến sự biến đổi cơ bản các nguyên liệu thô ban đầu (ví dụ nấu chảy để tạo ra sợi xỉ, bazan nung chảy, v.v...).', 'Các sản phẩm thu được trong quá trình nung đất đã được tạo hình từ trước, (ví dụ các sản phẩm gốm) nhìn chung đều được xếp vào Chương 69, trừ trường hợp các vật liệu mài ceramic thuộc nhóm 68.04. Thủy tinh và đồ thủy tinh, bao gồm các sản phẩm bằng gốm - thủy tinh, thạch anh nung chảy hoặc silic nung chảy khác, đều được xếp vào Chương 70.', 'Ngoài một số sản phẩm nhất định được đề cập riêng tại phần loại trừ của Chú giải Chương này còn không bao gồm:', '(a) Kim cương, các loại đá quý và bán quý khác (đá tự nhiên, tổng hợp hoặc tái tạo), các sản phẩm được tạo ra từ các loại đá này và các mặt hàng khác thuộc Chương 71.', '(b) Các loại đá in ly tô thuộc nhóm 84.42.', '(c) Các tấm (bằng đá phiến, đá cẩm thạch, amiăng- ximăng) được khoan hoặc được làm bằng cách khác để làm bảng điều khiển (nhóm 85.38); vật liệu cách điện và các phụ kiện bằng vật liệu cách điện, thuộc các nhóm 85.46 hoặc 85.47.', '(d) Các mặt hàng thuộc Chương 94 (ví dụ: đồ nội thất, đèn (luminaires) và các bộ đèn, nhà lắp ghép).', '(e) Đồ chơi, thiết bị trò chơi và dụng cụ, thiết bị thể thao (Chương 95).', '(f) Các vật liệu chạm khắc có nguồn gốc khoáng chất được nêu trong Chú giải 2 (b) của Chương 96, đã được gia công hoặc ở dạng sản phẩm hoàn chỉnh (nhóm 96.02).', '(g) Nguyên bản tác phẩm điêu khắc và tượng tạc, các vật phẩm sun tập và đồ cổ của Chương 97.']</t>
   </si>
   <si>
-    <t>['TỔNG QUÁT', 'Thuật ngữ “các sản phẩm gốm” áp dụng cho các sản phẩm thu được:', '(A) Bằng cách nung các vật liệu phi kim loại, vô cơ đã được chuẩn bị và tạo hình trước đó, thường ở mức nhiệt độ trong phòng. Các nguyên liệu thô bao gồm đất sét, vật liệu silic kể cả silica nung chảy, các vật liệu có điểm nóng chẩy cao như ô xít, cacbua, nitrua, graphit hoặc cacbon khác và trong một số trường hợp, các chất kết dính như đất sét chịu lửa hoặc phốt phát.', '(B) Từ đá (ví dụ, steatit), được nung sau khi tạo hình.', 'Quá trình sản xuất các sản phẩm gốm được đề cập ở phần (A) - nêu trên (mọi vật liệu cấu thành của chúng) đều bao gồm các công đoạn chính sau:', '(i) Chuẩn bị bột nhão (hay phần xương).', 'Trong một số trường hợp (ví dụ, sản xuất các sản phẩm nhôm được thiêu kết), vật liệu cấu thành được sử dụng trực tiếp ở dạng bột có thêm một lượng nhỏ chất bôi trơn. Tuy nhiên, trong hầu hết các trường hợp, nguyên liệu trước tiên phải được làm thành bột nhão. Điều này liên quan đến việc định lượng và trộn các thành phần khác nhau và, nếu cần, phải nghiền, sàng, ép-lọc, nhào, đánh nhuyễn và khử không khí. Một số sản phẩm chịu lửa cũng được làm từ hỗn hợp các cốt liệu mịn đã được phân loại, có bổ sung thêm một lượng nhỏ chất kết dính lỏng, mà có thể ở dạng nước (ví dụ, hắc ín, vật liệu nhựa, axít phôtphoric, dung dịch chất gỗ (linh-in)).', '(ii) Tạo hình.', 'Bột hoặc bột nhão đã chuẩn bị sau đó được tạo hình gần giống với hình mong muốn.', 'Công đoạn này được thực hiện bằng cách đùn (thông qua khuôn đùn), ép, đổ khuôn, đúc hoặc tạo hình bằng tay, trong một số trường hợp được thực hiện theo mức độ của máy.', '(iii) Sấy khô sản phẩm thu được.', '(iv) Nung.', 'Ở công đoạn này, “sản phẩm màu lục” được nung ở mức nhiệt độ 800 °C hoặc cao hơn tùy thuộc vào bản chất của sản phẩm. Sau khi nung, các hạt kết dính chặt lại với nhau như là kết quả của sự khuếch tán, sự chuyển đổi hoá học hoặc sự nóng chảy từng phần.', 'Các sản phẩm được nung ở mức nhiệt độ dưới 800 °C cho các mục đích như đóng rắn nhựa, làm tăng nhanh phản ứng hydrat hoá, hoặc dùng để loại bỏ nước hoặc các thành phần dễ bay hơi khác, sẽ không được coi là được nung cho các mục đích sử dụng của Chú giải 1 của Chương này. Các sản phẩm này bị loại trừ khỏi Chương 69.', '(v) Hoàn thiện.', 'Các công đoạn hoàn thiện phụ thuộc vào mục đích sử dụng của sản phẩm gốm. Đôi khi cần phải có máy hoàn thiện có độ chính xác cao. Công đoạn hoàn thiện cũng có thể bao gồm việc đánh dấu hàng, mạ kim loại hoặc thấm tẩm.', 'Các sản phẩm gốm cũng thường được nhuộm màu (ở phần xương hoặc bề mặt), được trang trí hoặc tráng men bằng cách sử dụng thích hợp các chất màu hoặc chất ở cản quang được pha chế đặc biệt, men kính hoặc men sứ, men sành, chất láng bóng, v.v.', 'Sau khi tạo hình, công đoạn nung là cơ sở phân biệt chủ yếu giữa các sản phẩm của chương này với các sản phẩm khoáng hoặc đá được phân loại ở Chương 68 mà nhìn chung không được nung, và các sản phẩm thủy tinh của Chương 70 trong đó hỗn hợp có thể thủy tinh hoá đã được nấu chảy hoàn toàn.', 'Tùy theo thành phần và qui trình nung được áp dụng, có thể thu được các sản phẩm sau:', 'I. Hàng hóa bằng bột hóa thạch silic hoặc bằng đất silic tương tự và các sản phẩm chịu lửa thuộc phân Chương I (từ nhóm 69.01 đến nhóm 69.03)', 'II. Các sản phẩm gốm khác, chủ yếu gồm đồ gốm, đồ đá, đồ đất, đồ sứ thông thường, v.v, thuộc phân Chương II (từ nhóm 69.04 đến 69.14).', 'Chương này không bao gồm:', '(a) Gốm vỡ và các mảnh gạch xây vỡ (nhóm 25.30)', '(b) Các sản phẩm thuộc nhóm 28.44', '(c) Các khối, tấm, thanh và bán sản phẩm tương tự bằng graphít hoặc bằng các loại cac-bon khác, hoặc hợp chất graphit-kim loại hoặc bằng hợp chất khác được dùng, ví dụ, để cắt thành chổi điện (nhóm 38.01) (xem Chú giải chi tiết tương ứng).', '(d) Các phần cắt rời, chưa được lắp ráp, bằng vật liệu gốm áp điện từ, ví dụ bằng titanat bari hoặc bằng zircotitanat chì (nhóm 38.24)', '(e) Các sản phẩm thuộc nhóm 68.04.', '(f) Các sản phẩm gốm - thủy tinh (Chương 70)', '(g) Các hỗn hợp thiêu kết bằng bột kim loại cơ bản và hỗn hợp kim loại dị thể trộn kỹ cơ bản thu được bằng cách nấu chảy (Phần XV).', '(h) Gốm kim loại thuộc nhóm 81.13', '(ij) Chi tiết hình đĩa, thanh cỡ nhỏ, mũi chóp và các chi tiết tương tự cho dụng cụ, chưa được gắn vào dụng cụ, làm bằng gốm kim loại (nhóm 82.09) và sản phẩm khác của Chương 82.']</t>
+    <t>['TỔNG QUÁT', 'Phân chương này bao gồm, có hoặc không chứa đất sét:', '(A) Trong nhóm 69.01 các sản phẩm ceramic (gốm) thu được bằng cách nung sau khi tạo hình bột hoá thạch silic hoặc đất silic tương tự như kiezingur (đất tảo cát), tripolit (đá tảo silic) hoặc diatomit (đá tảo silic) (hầu hết được xếp vào nhóm 25.12) hoặc silica thu được bằng cách nung một số các sản phẩm thực vật (ví dụ tro quả nang gạo). Các vật liệu này thường được trộn với các chất kết dính (như đất sét hoặc magie) và đôi khi được trộn với các chất khác (ví dụ amiăng, lông (tóc), mùn cưa, bụi than).', 'Các sản phẩm này thường có trọng lượng rất nhẹ, và kết cấu xốp của chúng khiến chúng trở thành vật liệu cách nhiệt rất tốt dùng trong xây dựng, lớp cách ống hơi nước và khí gas. Một số các sản phẩm này cũng được dùng như vật liệu chịu lửa trong việc xây dựng lò, lò luyện, nung công nghiệp, nồi tạo hơi, hoặc các nhà máy công nghiệp khác và cho các ứng dụng khác mà cần đến vật liệu nhẹ, độ dẫn nhiệt thấp, cũng như độ bền chịu nhiệt, Các sản phẩm khác được dùng như các vật liệu cách nhiệt để gia công ở mức nhiệt độ dưới 1.000°C.', '(B) Trong nhóm 69.02 và 69.03 các sản phẩm chịu lửa, nghĩa là các sản phẩm đã nung có đặc tính đặc biệt chịu được nhiệt độ cao phù hợp với các ngành công nghiệp thủy tinh, luyện kim, v.v (ví dụ ở mức 1.500°C hoặc cao hơn). Tùy theo mục đích sử dụng cụ thể mà chúng được dự kiến sử dụng, các sản phẩm chịu lửa cũng có thể cần chịu được các thay đổi nhanh về nhiệt độ, cần phải là các vật liệu dẫn nhiệt hoặc cách nhiệt tốt, cần phải có hệ số giãn nở nhiệt thấp, phải xốp và không thấm, chịu được các tác động mài mòn của các sản phẩm mà chúng tiếp xúc, phải có độ bền cơ khí và sức chịu mài mòn cao, v.v.', 'Tuy nhiên, để xếp vào nhóm 69.02 hoặc 69.03 như các sản phẩm chịu lửa, các sản phẩm không chỉ có khả năng phải chịu được nhiệt độ cao, mà chúng còn phải được thiết kế phù hợp khi làm việc ở mức nhiệt độ cao. Do vậy nhóm 69.03 sẽ bao gồm các nồi nấu kim loại bằng nhôm thiêu kết, tuy nhiên các gạt dẫn chỉ máy dệt bằng vật liệu tương tự sẽ được xếp vào nhóm 69,09 vì chúng được thiết kế rõ ràng dành cho các mục đích sử dụng không chịu lửa.', 'Các loại sản phẩm chịu lửa chính là:', '(1) Vật liệu chịu lửa cao bằng nhôm được làm từ bauxit, mulit hoặc corundum (đôi khi được trộn với đất sét) hoặc từ kialit, silimanit hoặc andalisit (nhôm silicat) trộn với đất sét hoặc nhôm thiêu kết.', '(2) Vật liệu chịu lửa nhôm silicat (ví dụ được làm từ đất sét nung với samot hoặc grog (sét nung chịu lửa).', '(3) Vật liệu chịu lửa silic điôxit hoặc bán silic đioxit (được làm từ cát, thạch anh nghiền, đá lửa tự nhiên, v.v, và được kết dính bằng đất sét hoặc vôi).', '(4) Vật liệu chịu lửa magie được làm từ magie, magie nước biển hoặc đôlômit; các loại vật liệu chịu lửa được làm từ crom hoặc oxit crom; các loại vật liệu chịu lửa magie-crom.', '(5) Vật liệu chịu lửa làm từ cacbua silic.', '(6) Vật liệu chịu lửa oxit kẽm hoặc silicat kẽm, thường được kết khối với đất sét; các vật liệu chịu lửa được làm từ ôxit beryli, ôxit thori, oxit xeri, v.v.', '(7) Vật liệu chịu lửa làm từ graphit hoặc cacbon khác, thường được kết khối bằng nhựa, hắc ín hoặc đất sét. (Các sản phẩm làm từ graphit hoặc cácbon khác loại được dùng cho các mục đích sử dụng điện được xếp vào nhóm 85.45).', '(8) Vật liệu chịu lửa làm từ các vật liệu khác, ví dụ nitrua silic, nitrua bo, titanat nhôm và các hợp chất liên quan.', 'Các vật liệu chịu lửa được dùng chủ yếu để lót lò thổi, lò than, các thiết bị cracking xăng dầu, các lò nấu thủy tinh, lò nung gốm và các lò công nghiệp khác, và trong việc sản xuất các loại bình, nồi nấu kim loại và các thiết bị khác trong ngành công nghiệp hoá chất, thủy tinh, ximăng, nhôm và luyện kim khác.', 'Tuy nhiên các nhóm 69.02 và 69.03 không bao gồm các sản phẩm mặc dù đôi khi được mô tả như là vật liệu chịu lửa hoặc bán chịu lửa, không có khả năng chịu được các mức nhiệt độ công nghiệp như đã mô tả ở trên. Các sản phẩm này sẽ được xếp vào nhóm thích hợp của Phân chương II.']</t>
   </si>
   <si>
     <t>['TỔNG QUÁT', 'Chương này bao gồm thủy tinh ở tất cả các dạng và các sản phẩm bằng thủy tinh (trừ các sản phẩm được loại trừ tại chú giải 1 của chương này hoặc những sản phẩm được đề cập một cách cụ thể hơn bởi các nhóm khác của danh mục).', 'Thủy tinh (Trừ thạch anh thạch anh nung chảy và dioxit silic nung chảy khác được đề cập dưới đây) là một hỗn hợp nấu chảy đồng nhất, theo những tỷ lệ thay đổi, của silicat kiềm (natri hoặc kali) với một hay nhiều silicat của canxi và chì, và các chất phụ trợ các silicate của bari, nhôm, mangan, magiê,...', 'Căn cứ vào thành phần của thủy tinh thi có rất nhiều loại thủy tinh (ví dụ: thủy tinh Bohem, thủy tinh cron, thủy tinh pha lê chì, thủy tinh quang học, thủy tinh giả kim cương strass). Những loại thủy tinh này không kết tinh (vô định hình) và hoàn toàn trong suốt.', 'Các nhóm khác nhau của chương này bao gồm các sản phẩm tương ứng không phụ thuộc vào các dạng thủy tinh mà chúng bao gồm.', 'Các phương pháp sản xuất thay đổi đáng kể bao gồm:', '(A) Phương pháp đúc (ví dụ: để sản xuất kính tấm).', '(B) Phương pháp cán (ví dụ để sản xuất kính tấm hoặc kính có cốt lưới).', '(C) Phương pháp làm nổi (để sản xuất kính nổi).', '(D) Phương pháp đổ khuôn, có hoặc không kết hợp với các phương pháp ép, thổi hoặc kéo (ví dụ: để sản xuất chai lọ, cốc vại, một số loại kính quang học, gạt tàn thuốc lá).', '(E) Phương pháp thổi, cơ khí hoặc phi cơ khí, có hoặc không có khuôn (ví dụ, để sản xuất chai, ống dạng ampoule, đồ trang trí và đôi khi để sản xuất kính tấm).', '(F) Phương pháp kéo hoặc đùn (đặc biệt dùng cho sản xuất kính tấm, thanh, ống và ống dẫn, và thủy tinh sợi).', '(G) Phương pháp ép, dùng với khuôn, thường được sử dụng như quá trình sản xuất gạt tàn thuốc lá, và cững kết hợp với phương pháp cán (ví dụ đối với kính cán hoa văn) hoặc phương pháp thổi (ví dụ, để sản xuất chai).', '(H) Phương pháp gia công đèn xì, với sự trợ giúp của một đèn xì (để sản xuất ống dạng ampoule, các sản phẩm trang trí,... từ thanh hoặc ống thủy tinh).', '(IJ) Phương pháp cắt các sản phẩm theo yêu cầu từ các phôi, khối cầu,... thu được bởi bất kỳ quá trình nào (đặc biệt là các sản phẩm từ thạch anh nung chảy hoặc dioxit silic nung chảy khác thu được từ các phôi có tiết diện đặc hoặc rỗng).', 'Đối với thủy tinh đa bào, xem Chú giải Chi tiết của nhóm 70.16.', 'Trong một số trường hợp, phương pháp sản xuất các sản phẩm quyết định việc phân loại của chúng trong chương này. Ví dụ, nhóm 70.03 chỉ áp dụng đối với thủy tinh đúc hoặc cán, và nhóm 70.04 chỉ áp dụng đối với thủy tinh kéo và thổi.', 'Chú giải 5 Chương này quy định rằng khái niệm "thủy tinh" bao gồm cả thạch anh nung chảy và dioxit silic nung chảy khác.', 'Chương này cũng bao gồm:', '(1) Thủy tinh trắng đục hoặc mờ đục: là những thủy tinh trong mờ và thu được bằng cách bổ sung thêm các nguyên liệu như canxi florua hoặc tro xương (theo tỷ lệ khoảng 5%) vào cả khối thủy tinh; vật liệu được bổ sung thêm này làm tăng sự kết tinh từng phần của khối nấu chảy trong quá trình làm nguội hay làm nóng lại.', '(2) Các vật liệu đặc biệt được biết đến như gốm-thủy tinh, là loại mà trong đó thủy tinh được chuyển thành vật liệu gần như hoàn toàn kết tinh bởi một quá trình kết tinh được kiểm soát. Chúng được tạo ra bằng cách thêm vào phối liệu thủy tinh các chất tạo mầm kết tinh thường là ôxit kim loại (ví dụ như titan điôxit và ôxit ziriconi) hoặc các kim loại (như bột đồng). Sau khi sản phẩm được tạo hình bằng các phương pháp kỹ thuật làm thủy tinh thông thường, nó được duy trì ở mức nhiệt độ đủ để đảm bảo sự kết tinh của khối thủy tinh xung quanh các tinh thể tạo mầm (sự hoá mờ). Gốm thủy tinh có thể mờ đục hoặc đôi khi trong suốt. Chúng có các đặc tính bền cơ học, đặc  tính điện và chịu nhiệt tốt hơn nhiều so với thủy tinh thông thường.', '(3) Thủy tinh có hệ số giãn nở thấp, ví dụ như thủy tinh borosilicat.']</t>
   </si>
   <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm:', '(1) Trong các nhóm từ 71.01 đến 71.04, ngọc trai tự nhiên hoặc nhân tạo, kim cương, các loại đá quý hoặc đá bán quý khác (tự nhiên, tổng hợp hoặc tái tạo), ngọc trai thô hoặc ngọc trai thô, nhưng chưa được gắn, nạm dát hoặc xâu chuỗi; trong nhóm 71.05, phế liệu từ quá trình gia công các loại đá cũng nằm trong nhóm này.', '(2) Trong các nhóm từ 71.06 đến 71.11, các kim loại quý và kim loại được phủ kim loại quý, chưa được gia công, bán thành phẩm, hoặc ở dạng bột, nhưng chưa đạt tới mức của các sản phẩm được phân loại trong phân Chương III, và trong nhóm 71.12, phế liệu và phế thải của kim loại quý hoặc kim loại được phủ kim loại quý, và phế liệu và phế thải chứa kim loại quý hoặc các hợp chất kim loại quý, của một loại chủ yếu được sử dụng để thu lại kim loại quý.', 'Theo Chú giải 4 của Chương này, khái niệm "kim loại quý" có nghĩa là bạc, vàng và bạch kim. cần chú ý rằng thuật ngữ "platinum" cũng bao gồm iridi (Ir), osmi (Os), paladi (Pd), rodi (Rh) và ruteni (Ru).', 'Theo Chú giải 5 của chương này, các hợp kim (trừ các hỗn hợp - nhóm 28.43) có chứa các kim loại quý thì được phân loại như sau:', '(A) Là hợp kim bạch kim - nếu chứa 2% trọng lượng trở lên là bạch kim.', '(B) Là hợp kim vàng, nếu chứa 2% trọng lượng trở lên là vàng, nhưng không có bạch kim hoặc dưới 2% trọng lượng là bạch kim.', '(C) Là hợp kim bạc, nếu các hợp kim khác có chứa 2% trọng lượng trở lên là bạc.', '(D) Là hợp kim kim loại cơ bản (phần XV) - tất cả các hợp kim có chứa dưới 2% trọng lượng là bạch kim và dưới 2% trọng lượng là vàng và dưới 2% trọng lượng là bạc.', 'Theo Chú giải 6 của Chương này, trừ khi có các yêu cầu khác, khi tham chiếu tới kim loại quý thì cũng phải tham chiếu cả các hợp kim của nó như được nhắc đến ở mục (A), (B) và (C) trên đây, nhưng không áp dụng với kim loại được phủ kim loại quý, và cũng không tham chiếu đến các kim loại cơ bản hoặc phi kim loại có mạ bạc, vàng hoặc bạch kim.', 'Theo Chú giải 7 của Chương này, khái niệm "kim loại được phủ kim loại quý" có nghĩa là các vật liệu được làm từ kim loại cơ bản. Trên một hoặc nhiều mặt của kim loại đó được phủ một lớp kim loại quý có độ dày tùy ý bằng cách hàn thiếc, hàn đồng thau, hàn hơi, hàn điện, cán nóng hoặc các phương pháp cơ khí tương tự.', 'Các tấm và tấm mỏng, các thanh,... bằng kim loại mạ kim loại quý thường được chế tạo bằng cách phủ kim loại quý lên một hoặc cả hai mặt kim loại nền, "hàn" hai kim loại với nhau và sau đó cán chúng.', 'Dây thép mạ kim loại quý thu được bằng cách lồng một lõi kim loại cơ bản vào trong một ống kim loại quý, sau đó "hàn" hai kim loại đó với nhau và sau đó kéo chúng qua một khuôn kéo dây.', 'Trừ khi có yêu cầu khác, các sản phẩm kim loại cơ bản được dát khảm kim loại quý cũng được phân loại như các sản phẩm kim loại mạ kim loại quý (ví dụ: các tấm đồng được dát khảm các dải bạc để sử dụng trong công nghiệp điện, và sản phẩm được gọi là gia công kiểu Damas thép dát các dải hoặc các sợi đã được rèn)', 'Kim loại được phủ kim loại quý, như được định nghĩa trong chương này, không được nhầm lẫn với các kim loại cơ bản được mạ kim loại quý bằng cách điện phân, làm lắng đọng hơi, phun hoặc nhúng chìm trong một dung dịch muối của kim loại quý,.... Những kim loại cơ bản được mạ như vậy được phân loại trong các chương dành cho chúng bất kể chiều dày của lớp mạ.', 'Chương này cũng không bao gồm:', '(a) Các kim loại quý ở dạng keo hoặc các hỗn hợp của kim loại quý (nhóm 28.43).', '(b) Các đồng vị phóng xạ (ví dụ: iridi 192) bao gồm các kim loại quý ở dạng kim, sợi chỉ hoặc tấm mỏng có chứa các đồng vị phóng xạ (nhóm 28.44).', '(c) Các hợp kim chế tạo đặc biệt cho các chất hàn răng (nhóm 30.06).', '(3) Thông thường, các sản phẩm được làm toàn bộ hoặc từng phần bằng ngọc trai tự nhiên hoặc nhân tạo, kim cương hoặc đá quý hoặc đá bán quý khác (tự nhiên, tổng hợp hoặc tái tạo), các kim loại quý hoặc kim loại phủ kim loại quý (thuộc các nhóm 71.13 đến 71.16). Đặc biệt, nhóm này bao gồm đồ trang sức và đồ trang sức bằng vàng hoặc bạc (xem Chú giải của các nhóm 71.13 và 71.14) nhưng nhóm này không bao gồm:', '(a) Các sản phẩm được nêu trong Chú giải 3 của Chương này.', '(b) Các sản phẩm khác mà trong đó các bộ phận bằng kim loại quý hoặc kim loại mạ kim loại quý chỉ là các thành phần phụ, chẳng hạn như các đồ lắp ráp phụ (ví dụ: các chữ lồng, vòng sắt đệm, măng sông và vành viền), với điều kiện các hàng hóa này không chứa ngọc trai tự nhiên hoặc nhân tạo, kim cương, hoặc đá quý hoặc đá bán quý khác (tự nhiên, tổng hợp hoặc tái tạo).', 'Dao, dao nhíp, bộ dụng cụ dao chạm trổ, dao cạo và các mặt hàng dao kéo khác với các cán bằng kim loại cơ bản hoặc phi kim loại, vì vậy được phân loại trong Chương 82, ngay cả khi chúng có các chữ viết tắt, các chữ lồng, đai chuôi,... bằng kim loại quý hoặc bằng kim loại mạ kim loại quý; (đồ dao kéo tương tự với cán cầm bằng kim loại quý hoặc bằng kim loại mạ kim loại quý được phân loại trong chương này).', 'Theo cách tương tự, bát, bình và các đồ sứ khác, bộ đồ ăn bằng sứ hoặc thủy tinh được phân loại trong Chương 69 hoặc Chương 70, ngay cả khi chúng có các đồ lắp ráp phụ hoặc trang trí (ví dụ: vành, viền) bằng kim loại quý hoặc kim loại mạ kim loại quý.', 'Nhóm này cũng không bao gồm các sản phẩm bằng kim loại cơ bản hoặc phi kim loại được mạ kim loại quý (trừ các sản phẩm bằng kim loại được phủ kim loại quý).', '(4) Đồ trang sức làm bằng chất liệu khác (nhóm 71.17) như đã được định nghĩa trong Chú giải 11 của Chương này (xem Chú giải tương ứng), trừ các mặt hàng được xác định trong Chú giải 3 của Chương này.', '(5) Tiền kim loại (thuộc nhóm 71.18), trừ các đồ sưu tập quý hiếm của các nhà sưu tập (thuộc nhóm 97.05).']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm các kim loại đen, có nghĩa là gang thỏi, gang kính, hợp kim fero và các vật liệu thô khác (phân Chương I), cũng như một số các sản phẩm của ngành công nghiệp sắt và thép (dạng thỏi và các dạng thô khác, bán thành phẩm và các sản phẩm chính thu được trực tiếp từ đó) bằng sắt hoặc thép không hợp kim (phân Chương II), bằng thép không gỉ (phân Chương III) và bằng thép hợp kim khác (phân Chương IV).', 'Các sản phẩm được gia công tiếp theo, như đúc, rèn, ... và cọc cừ, thép góc, khuôn và hình được hàn, các đường ống và nguyên vật liệu xây dựng đường ray xe lửa và đường tàu điện được phân loại ở Chương 73 hoặc, trong một số trường hợp được phân loại trong các chương khác.', 'Công nghiệp sắt và thép sử dụng nhiều quặng sắt tự nhiên khác nhau làm nguyên liệu thô (quặng ôxít sắt, hydroxit, cacbonat sắt) được liệt kê trong Chú giải cho nhóm 26.01, bã pirit thiêu (ôxit sắt được thiêu kết còn lại sau khi thiêu hết lưu huỳnh từ pyrit, mackazit, pyrôtit, ..., ) và phế thải và phế liệu sắt hoặc thép.', '(I) Sự biến đổi (sự khử) quặng sắt', 'Quặng sắt được biến đổi bằng sự khử hoặc là thành gang thỏi, trong các lò cao hoặc lò điện, hoặc là thành dạng xốp (sắt xốp) hoặc thành nhiều cục bằng nhiều quá trình khử oxi trực tiếp khác nhau; chỉ khi cần sắt có độ nguyên chất ngoại lệ được đòi hỏi cho công dụng đặc biệt (ví dụ, trong công nghiệp hoá chất) thì nó thu được bằng sự điện phân hoặc bằng các quá trình hoá học khác.', '(A) Sự biến đổi quặng sắt bằng công nghệ lò cao', 'Đa số sắt thu được từ quặng sắt là được nấu luyện theo phương pháp lò cao. Quá trình này chủ yếu sử dụng quặng như nguyên vật liệu thô, nhưng kim loại phế thải và các mảnh nhỏ, quặng sắt được biến đổi sơ bộ và phế thải có chứa sắt khác có thể cũng được sử dụng.', 'Chất khử oxi trong lò cao cần chủ yếu là than cốc cứng, đôi khi được kết hợp với những lượng nhỏ than hoặc Hydrocacbon ở dạng lỏng hoặc khí.', 'Sắt được thu như vậy là ở dạng gang thỏi nóng chảy. Sản phẩm phụ là xỉ, khí lò cao và bụi lò cao.', 'Phần lớn gang thỏi nóng chảy sản xuất theo cách này được biến đổi trực tiếp thành thép trong nhà máy luyện thép.', 'Một số có thể được sử dụng trong các xưởng đúc (các nhà máy sắt thép), cho sản xuất các khuôn đúc thép thỏi, đúc các đường ống và ống gang đúc ....', 'Phần còn lại có thể được đúc thành dạng thỏi hoặc khối, trong các máy đúc hoặc trong các khuôn cát; hoặc nó có thể được sản xuất ở dạng các cục được tạo dáng không đều, đôi khi được biết như "gang tấm", hoặc được kết tinh bằng cách rót vào nước.', 'Gang thỏi đặc hoặc được nấu luyện lại trong các nhà máy luyện thép với phế liệu chứa sắt, để sản xuất ra thép, hoặc được nấu luyện trong các xưởng đúc gang, trong các lò đứng hoặc lò điện, cũng với phế liệu chứa sắt, và biến đổi thành sản phẩm đúc.', '(B) Hoàn nguyên quặng sắt trong các thiết bị khử trực tiếp', 'Trái ngược với quá trình công nghệ đã được mô tả ở trên, ở đây các chất khử thường là Hydrocacbon ở dạng khí hoặc lỏng hoặc là than đá, như vậy loại trừ được sự cần thiết về than cốc cứng.', 'Trong các quá trình này, nhiệt độ khử thấp hơn cho nên sản phẩm thu được (thường được biết như là sắt xốp) ở dạng các viên quặng hoặc các cục được biến đổi sơ bộ, xốp mà không cần phải qua trạng thái lỏng. Vì nguyên nhân này, mà hàm lượng Cacbon của chúng thường thấp hơn so với gang thỏi thu được từ lò cao (nơi mà kim loại nấu chảy được tiếp xúc chặt chẽ với Cacbon). Phần lớn các sản phẩm thô này được nấu chảy trong các nhà máy luyện thép và biến đổi thành thép.', '(II) Sản xuất thép.', 'Gang thỏi hoặc gang đúc ở dạng nóng chảy hoặc rắn và các sản phẩm chứa sắt thu được bằng việc khử trực tiếp (sắt xốp) tạo thành, với thép phế thải và mảnh vụn thép là các vật liệu ban đầu của luyện thép. Một số các chất được thêm vào những vật liệu này là các chất tạo xỉ như vôi sống, Canxi - Florua, chất khử ôxy (ví dụ như Feromangan, Ferosilic, Nhôm) và một số các nguyên tố hợp kim khác nhau.', 'Có hai loại phương pháp nấu thép chính, tức là: phương pháp "thổi khí" trong đó gang thỏi nóng chảy được tinh luyện trong lò thổi hoặc bằng khí thổi, và phương pháp lò nung, như lò Martin hoặc lò điện.', 'Phương pháp thổi khí không đòi hỏi nguồn nhiệt bên ngoài. Các phương pháp này được sử dụng khi mẻ liệu chủ yếu gồm gang thỏi nóng chảy. Sự ôxy hoá một số các thành phần có mặt trong gang thỏi (ví dụ như Cacbon, Phốt pho, Silic và Mangan) sẽ sinh đủ nhiệt để giữ thép ở thể lỏng và thậm chí còn nấu chảy bất kỳ thép phế liệu thêm nào. Những phương pháp này gồm cả phương pháp thổi ôxy nguyên chất vào kim loại nóng chảy (phương pháp Linz - Donawitz: phương pháp LD hoặc LDAC, OBM, OLP, Kaldo và các phương pháp khác) và cả những phương pháp, mà nay đã trở nên lỗi thời, trong đó có sử dụng không khí, đôi khi đã được làm giàu ôxy (phương pháp Thomas và Bessemer).', 'Tuy nhiên các phương pháp tinh luyện lò Martin đòi hỏi một nguồn nhiệt bên ngoài. Những phương pháp này được sử dụng khi vật liệu thô nạp vào lò ở trạng thái đặc (ví dụ sắt phế thải và phế liệu, sắt xốp và gang thỏi đặc).', 'Hai phương pháp chính trong loại này là phương pháp lò Martin, trong đó nhiệt được cung cấp bởi dầu nặng hoặc khí đốt, và phương pháp lò hồ quang hoặc lò cảm ứng, nhiệt được cung cấp bằng điện.', 'Để sản xuất một số loại thép, hai phương pháp khác nhau có thể được ứng dụng liên tiếp (phương pháp kép). Ví dụ, sự tinh luyện có thể bắt đầu ở một lò Martin và kết thúc ở một lò điện; hoặc thép được nấu chảy trong lò điện có thể được chuyển sang một lò thổi đặc biệt nơi mà sự khử Cacbon được hoàn thành bằng việc thổi ôxy và Argon vào mẻ liệu (ví dụ phương pháp được sử dụng trong việc sản xuất thép không gỉ).', 'Nhiều phương pháp mới đã được sử dụng để sản xuất thép có thành phần đặc biệt hoặc với các đặc tính đặc biệt. Những phương pháp này gồm nấu luyện bằng lò điện hồ quang trong chân không, nấu chảy bởi sự bắn phá bằng điện tử và phương pháp xỉ điện phân. Trong tất cả các phương pháp này thép được sản xuất từ một điện cực tự tiêu thụ, điện cực mà trong khi nấu chảy nó chảy nhỏ giọt vào trong một khuôn đúc thép thỏi được làm lạnh bằng nước. Khuôn này được làm trong một chi tiết, hoặc đáy có thể tháo mở được để vật đúc đông đặc có thể được kéo ra ở phía dưới.', 'Thép lỏng thu được bằng các phương pháp đề cập ở trên, có hoặc không được tinh luyện tiếp theo, thường được rót vào một nồi chứa. Ở giai đoạn này các thành phần hợp kim hoặc các chất khử ôxy, ở dạng rắn hoặc lỏng, có thể được thêm vào. Quá trình này có thể được thực hiện trong chân không để đảm bảo tránh khỏi các tạp chất khí.', 'Thép thu được bằng tất cả các phương pháp này tùy theo hàm lượng các thành phần hợp kim của chúng mà được phân chia thành "thép không hợp kim" và "thép hợp kim" (không gỉ hoặc các loại khác). Tùy theo các tính chất đặc biệt của chúng mà chúng được phân chia tiếp, ví dụ thành thép dễ cắt gọt, thép Silic kỹ thuật điện, thép gió hoặc thép Silic - Mangan.', '(III) Sản xuất thép ở dạng thỏi hoặc các dạng thô khác, và các bán (III) thành phẩm.', 'Mặc dầu thép nóng chảy có thể được đúc (ở các xưởng đúc) thành hình dạng cuối cùng của nó trong các khuôn (các vật đúc thép), hầu hết thép được đúc thành các thỏi trong các khuôn đúc thép thỏi.', 'Ở giai đoạn đúc hoặc rót và ở giai đoạn trạng thái đông đặc, thép được chia thành ba nhóm chính: thép sôi (sủi bọt mạnh), thép lặng (hoặc không sủi bọt mạnh) và thép nửa lặng (hoặc thép được cân bằng). Thép được đúc hoặc được rót trong trạng thái sôi được gọi như vậy vì trong và sau quá trình rót có một phản ứng giữa ôxit sắt và Cacbon hoà tan dẫn đến tách khí mạnh (sủi bọt). Trong giai đoạn làm nguội, các tạp chất tập trung trong lối trung tâm và nửa trên của các thỏi. Lớp ngoài cùng, lớp mà không bị nhiễm các tạp chất này sẽ tiếp tục cung cấp một hình dạng bề mặt tốt hơn cho những sản phẩm cán thu được từ những thỏi này. Dạng thép kinh tế hơn này cũng được sử dụng cho việc dập lòng đĩa nguội.', 'Trong nhiều trường hợp, thép không thỏa mãn được đúc trong trạng thái “sủi bọt mạnh”. Áp dụng điều này, trong thực tế, cho các thép hợp kim và thép cacbon hàm lượng cao. Trong những trường hợp này, thép phải ở trạng thái lặng, có nghĩa là được khử ôxy. Sự khử ôxy có thể được thực hiện một phần bằng việc xử lý trong chân không, nhưng phổ biến hơn bằng việc thêm các nguyên tố như silic, nhôm, canxi hoặc mangan. Bằng cách này, những tạp chất còn lại sẽ được phân bố đều hơn khắp thỏi, đưa đến một đảm bảo tốt hơn, cho những mục đích sử dụng nhất định, mà các đặc tính của thép sẽ như nhau trong khắp khối lượng của nó.', 'Một số thép có thể được khử ôxy từng phần và thép này được biết đến như thép nửa lặng (hoặc thép cân bằng).', 'Sau khi thỏi được đông đặc và nhiệt độ của chúng được cân bằng, các thỏi sẽ được cán thành các bán thành phẩm (thép cán thô, phôi thanh, thép tròn, tấm, phôi tấm) trong máy cán thô hoặc máy cán phá (máy cán phôi, máy cán phôi tấm ...) hoặc được biến dạng bằng bứa thả hoặc trong máy rèn dập tạo thành bán thành phẩm rèn.', 'Số lượng thép được đúc trực tiếp thành dạng bán thành phẩm trong các máy đúc liên tục ngày càng tăng. Hình dạng mặt cắt ngang của chúng trong một số trường hợp có thể tương tự như hình dạng mặt cắt ngang của các thành phẩm. Các bán thành phẩm thu được bằng quá trình đúc liên tục được đặc trưng bởi hình dạng bề mặt bên ngoài của chúng, hình dạng mà thường cho thấy các vành chông ngang có các màu khác nhau tại các khoảng cách đều hơn hay ít đều hơn, cũng như được đặc trưng bởi bề mặt cắt ngang của chúng thường với sự kết tinh hướng tâm do kết quả của sự làm nguội nhanh; Thép đúc liên tục là loại thép lắng,', '(IV) Sản xuất thành phẩm', 'Các bán thành phẩm và, trong một số trường hợp, là các thỏi được biến đổi tiếp theo thành thành phẩm.', 'Những sản phẩm này thường được chia nhỏ thêm thành các sản phẩm cán phẳng ("mặt phẳng rộng", gồm cả "thép tấm phổ dụng", "cuộn rộng", tấm mỏng, tấm và dải) và các sản phẩm dài (thanh và que, được cán nóng, ở dạng cuộn không đều, các thanh và que khác, góc, khuôn, hình và dây).', 'Các sản phẩm này thu được bằng sự biến dạng dẻo, hoặc nóng trực tiếp từ các thỏi hoặc bán thành phẩm (bằng việc cán nóng, rèn hoặc kéo nóng), hoặc nguội - không trực tiếp từ các thành phẩm nóng (bằng cán nguội, đúc ép, kéo dây, chuốt dây), một số trường hợp bằng gia công hoàn thiện tiếp (ví dụ như các thanh hoàn thiện nguội thu được băng mài không tâm hoặc bằng sự tiện chính xác).', 'Theo Chú giải 3 của Chương này, các sản phẩm sắt và thép thu được bằng sự kết tủa điện phân, bằng quá trình đúc dưới áp lực hoặc bằng sự thiêu kết sẽ được phân loại theo hình dạng, thành phần và dạng ngoài của chúng, trong các nhóm của Chương này thích hợp với các sản phẩm cán nóng tương tự.', 'Đối với mục đích của Chú giải này, có quy định một số định nghĩa sau:', '(1) Đúc dưới áp lực (đúc bằng khuôn kim loại):', 'Phương pháp này gồm việc phun một hợp kim ở dạng lỏng hoặc nhão vào một khuôn dưới một áp lực cao mức độ nào đó. Đó là một phương pháp để sản xuất số lượng lớn được dễ dàng và đảm bảo sự chính xác về kích thước.', '(2) Sự thiêu kết', 'Đây là một quy trình thao tác của ngành luyện kim bột, nhờ vào quy trình này tạo sản phẩm bột đặc sít chặt, thu được theo hình dạng khuôn và thường đi kèm với ép dập, sau đó được tiếp tục gia nhiệt trong một lò nung đặc biệt.', 'Quy trình hoạt động tạo nên những tính chất cuối cùng cho các vật liệu thiêu kết, sẽ được thực hiện dưới các điều kiện đặc biệt về nhiệt độ, thời gian và áp suất. Quy trình này tạo ra một sự kết tụ ở dạng rắn ở dạng rắn. Sự thiêu kết cũng có thể được thực hiện trong chân không.', '(A) Sự biến dạng dẻo nóng', '(1) Cán nóng có nghĩa là cán ở một nhiệt độ nằm giữa khoảng từ điểm tái kết tinh nhanh và điểm bắt đầu nóng chảy. Khoảng nhiệt độ phụ thuộc vào các yếu tố khác nhau như thành phần của thép. Như một nguyên tắc, nhiệt độ cuối cùng của phôi gia công trong cán nóng là khoảng 900°C.', '(2) Rèn có nghĩa là sự biến dạng nóng của kim loại chủ yếu nhờ búa thả hoặc trên các máy rèn, để thu được các phôi theo hình dạng bất kỳ.', '(3) Trong quá trình kéo nóng, thép được nung nóng và cho lọt qua một khuôn kéo dây để sản xuất các thanh, ống hoặc các mặt cắt có các hình dạng khác nhau.', '(4) Sự rèn khuôn và dập khuôn nóng có nghĩa là tạo ra các phôi hình và các đoạn cắt (thường trên đường băng chuyền) bằng cách tạo hình nóng các phôi cắt trong các khuôn dập (đóng kín hoặc với các mối nối rìa) nhờ các dụng cụ đặc biệt. Quá trình gia công, được thực hiện giai đoạn liên tục bằng sự va đập hoặc áp lực, thường được thực hiện trong các giai đoạn trình tự tiếp theo các quy trình cán thô, rèn dập, rèn tay hoặc uốn cong.', '(B) Sự biến dạng dẻo nguội', '(1) Cán nguội được thực hiện trong nhiệt độ môi trường, có nghĩa là thấp hơn nhiệt độ kết tinh lại.', '(2) Sự rèn khuôn và sự dập khuôn nguội có nghĩa là tạo ra các hình dạng và mặt cắt bằng các phương pháp nguội tương tự với những phương pháp được mô tả ở Mục A(4) ở trên.', '(3) Sự ép đùn là một quá trình công nghệ, thường là nguội, nhằm làm biến dạng thép đa số dưới áp lực cao giữa một khuôn kim loại và một dụng cụ ép, các khoảng trống bị bịt kín từ mọi phía ngoại trừ phía mà qua đó vật ép đi qua, để tạo ra hình dạng mong muốn.', '(4) Kéo dây là một quá trình gia công nguội mà trong đó các thanh hoặc que trong các cuộn dây được cuốn không đều được kéo qua một hoặc nhiều khuôn kéo dây ở tốc độ cao nhằm thu được đây có đường kính nhỏ hơn ở dạng cuộn.', '(5) Chuốt dây là một quá trình gia công nguội mà trong đó các thanh hoặc các que có hoặc không ở dạng cuộn không đều, được kéo (với tốc độ tương đối thấp), qua một hoặc nhiều khuôn nhằm thu được các sản phẩm có mặt cắt được tạo hình khác nhau hoặc nhỏ hơn.', 'Các sản phẩm gia công nguội có thể được phân biệt với số sản phẩm cán nóng hoặc kéo nóng bởi các tiêu chuẩn sau:', '- bề mặt của các sản phẩm gia công nguội có một hình dạng ngoài tốt hơn so với hình dạng ngoài của các sản phẩm thu được bởi một quá trình nóng và không bao giờ có lớp vảy bong;', '- đối với các sản phẩm gia công nguội, dung sai về kích thước nhỏ hơn;', '- các sản phẩm phẳng mỏng ("cuộn rộng" mỏng, tấm mỏng, tấm bản và dải) thường được sản xuất bởi sự biến dạng nguội;', '- sự kiểm tra bằng kính hiển vi các sản phẩm gia công nguội cho thấy một sự biến dạng đáng kể của các hạt tinh thể và sự định hướng các hạt tinh thể song song với phương gia công. Ngược lại, các sản phẩm thu được bằng các quá trình nóng biểu hiện hầu như các hạt tinh thể đều là nhờ sự kết tinh lại.', 'Ngoài ra, các sản phẩm gia công nguội có các đặc tính có thể giống một số sản phẩm cán nóng hoặc kéo nóng:', '(a) vì có sự biến dạng hoặc biến cứng khi gia công nguội mà chúng đã chịu, các sản phẩm gia công nguội rất cứng và có độ bền kéo lớn, mặc dù những đặc tính này có thể giảm đáng kể nhờ sự nhiệt luyện;', '(b) Độ giãn dài ở mặt gãy rất thấp trong các sản phẩm gia công nguội; độ giãn này sẽ cao hơn trong các sản phẩm đã qua nhiệt luyện thích hợp.', 'Quá trình cán nguội rất nhẹ (được biết như quá trình gia công là lớp bề mặt hoặc gia công ép) được áp dụng cho một số sản phẩm cán nóng phẳng không làm giảm đáng kể độ dày của chứng, sẽ không làm thay đổi tính chất của các thành phẩm cán nóng đã hoàn chỉnh. Quá trình gia công nguội dưới áp lực thấp thực chất sẽ chỉ tác động lên bề mặt của các sản phẩm, nhưng trái lại quá trình cán nguội (được biết như sự biến dạng nguội) theo ý nghĩa chính xác sẽ làm thay đổi cấu trúc tinh thể của các phôi gia công bởi sự giảm đáng kể mặt cắt ngang của nó.', '(C) Sự gia công tiếp theo và sự gia công hoàn thiện', 'Các thành phẩm có thể chịu thêm các xử lý hoàn thiện hoặc biến đổi thành các mặt hàng khác bởi một loạt các quá trình như:', '(1) Gia công cơ khí, có nghĩa là tiện, phay, mài, đục lỗ hoặc dập, tạo nếp, định cỡ, bóc vỏ,...; tuy nhiên cũng cần phải chú ý răng quá trình tiện thô đơn thuần để loại bỏ lớp vảy ôxy hoá và vảy cứng, và sự sửa ba vía thô không được coi như là các quy trình gia công tinh (gia công hoàn thiện) dẫn đến một sự thay đổi trong phân loại.', '(2) Sự xử lý bề mặt hoặc các quy trình khác, gồm cả sự mạ, nhằm cải thiện các đặc tính hoặc hình dạng bề ngoài của kim loại, bảo vệ nó chống lại sự gỉ và sự ăn mòn, .... Trừ những yêu cầu khác được quy định trong một số nhóm, việc xử lý không làm ảnh hưởng đến nhóm mà trong đó hàng hóa được phân loại. Chúng bao gồm:', '(a) Sự ủ, sự tôi cứng, sự ram, sự tôi cứng bề mặt, nitrua hoá và các sự nhiệt luyện tương tự nhằm cải thiện các đặc tính của kim loại.', '(b) Sự làm sạch gỉ, tẩy gỉ bằng axít, cạo và các quá trình khác nhằm bóc vẩy ôxít và vẩy cứng hình thành trong quá trình nung kim loại.', '(c) Sự tráng thô chỉ để nhằm bảo vệ sản phẩm khỏi gỉ hoặc sự ôxy hoá khác, ngăn ngừa sự trượt trong quá trình vận chuyển và làm cho thuận lợi quá trình xử lý ..., sơn có chứa một chất màu hoạt tính chống gỉ (bột chì đỏ, bột kẽm, ôxít kẽm, kẽm cromat, ôxít sắt, sắt minium, bột đỏ của hiệu kim hoàn), và các lớp phủ ngoài không nhuộm màu với nền bằng dầu, mỡ bôi trơn, sáp, sáp parafin, graphit, hắc ín hoặc bitum.', '(d) Xử lý hoàn thiện (gia công tinh) bề mặt, bao gồm:', '(i) đánh bóng và miết bóng hoặc sự xử lý tương tự;', '(ii) sự ôxy hoá nhân tạo (bằng các quá trình hoá học khác nhau, ví dụ, như sự nhúng chìm trong một dung dịch ôxy hoá), tráng nước bóng, nhuộm xanh (sự ủ xanh), nhuộm nâu hoặc tạo màu xám đồng (bằng các kỹ thuật khác nhau), những quá trình mà cũng tạo thành một màng mỏng ôxít trên bề mặt của sản phẩm, nhằm làm tốt hơn hình dạng bề ngoài của nó. Những quy trình này sẽ làm tăng tính chống gỉ;', '(iii) xử lý bề mặt bằng phương pháp hoá học, như là:', '- sự phốt phát hoá, quá trình này gồm sự nhúng chìm sản phẩm trong một dung dịch các phốt phát axít kim loại, đặc biệt là những phốt phát axít của mangan, sắt và kẽm; quá trình này được biết như là sự tráng phốt phát chống gỉ hoặc sự phốt phát hoá, phụ thuộc vào khoảng thời gian của quy trình và nhiệt độ dung dịch của bể nhúng;', '- oxalat hoá, borat hoá,... sử dụng như các phương pháp tương tự các phương pháp đối với sự phốt phát hoá, với các muối hoặc axít thích hợp;', '- cromat hoá là quá trình bao gồm sự nhúng chìm sản phẩm trong một dung dịch mà thành phần chính của dung dịch là axit cromic hoặc các cromat; quá trình này để xử lý bề mặt, ví dụ như tấm thép được mạ hoặc bọc kẽm.', 'Những phương pháp xử lý bề mặt bằng phương pháp hoá học có lợi thế là bảo vệ được bề mặt của kim loại, làm thuận lợi hơn cho bất kỳ sự biến dạng nguội tiếp theo nào của sản phẩm được xử lý và sử dụng các loại sơn hoặc các lớp phủ phi kim loại bảo vệ khác.', '(iv) lớp phủ với kim loại (sự mạ kim loại), các quá trình chính là:', '- nhúng trong một bể của kim loại hoặc hợp kim nóng chảy, ví dụ như mạ kẽm nhúng nóng, mạ thiếc, phủ nóng bằng chì và lớp phủ nhôm;', '- mạ điện (sự kết tủa ở catốt của một kim loại phủ trên sản phẩm được phủ, bằng điện phân một dung dịch các muối kim loại thích hợp) ví dụ như kẽm, cađimi, thiếc, chi, crôm, crôm/cromat, đồng, niken, vàng hoặc bạc;', '- sự tẩm hoặc khuếch tán (bằng cách nung sản phẩm sẽ được phủ với kim loại phủ yêu cầu ở dạng bột, ví dụ như tráng kẽm (sự xementit hoá với kẽm) và sự thấm nhôm (xementit hoá với nhôm) và sự thấm crôm (với sự khuếch tán crôm);', '- sự phun (sự phun mù kim loại nóng chảy và hướng bụi nước phun vào phía sản phẩm sẽ được phủ) ví dụ như quá trình Schoop (phun bột kim loại qua lửa) và súng bắn khí, hồ quang, plasma và các quá trình phun tĩnh điện;', '- sự mạ kim loại bằng việc làm bay hơi kim loại dùng để mạ trong chân không,..;', '- sự mạ kim loại bằng cách bắn phá kim loại dùng để mạ với các ion trong sự phóng điện phát sáng (mạ ion);', '- phủ bằng sự bay hơi ở catốt (sự sôi lên);', '(v) phủ bằng các chất không kim loại, ví dụ sự tráng men, sự sơn bóng (đánh véc ni), sơn mài, quét sơn, sơn in bề mặt, phủ gốm hoặc chất dẻo, bao gồm cả các quá trình đặc biệt như phóng điện phát sáng, hiện tượng điện chuyển, phóng tĩnh điện và nhúng chìm trong một dung dịch hoá lỏng tĩnh điện sau đó đốt bằng bức xạ,…', '(e) mạ (cladding), có nghĩa là sự liên kết các lớp kim loại có màu hoặc bản chất khác nhau bằng sự thâm nhập phân tử vào nhau của các bề mặt tiếp xúc. Sự khuếch tán có giới hạn này là đặc trưng của các sản phẩm mạ và cũng để phân biệt chúng với những sản phẩm được tráng kim loại theo cách được nêu ở trước (ví dụ bằng sự mạ điện thông thường).', 'Nhiều quá trình mạ (cladding) còn bao gồm cả việc rót kim loại mạ nóng chảy vào kim loại nền, tiếp theo là cán, việc cán nóng đơn giản kim loại mạ để đảm bảo việc hàn có hiệu quả vào kim loại nền, bất kỳ phương pháp kết tủa nào khác hoặc sự chông kim loại mạ tiếp theo bất kỳ quá trình cơ khí hoặc nhiệt nào nhằm đảm bảo cho sự hàn (ví dụ mạ điện), mà trong đó kim loại mạ (niken, crôm, ...) được đặt vào kim loại nền bằng phương pháp mạ điện, sự thâm nhập phân tử vào nhau của các bề mặt tiếp xúc sau đó sẽ nhiệt luyện ở nhiệt độ thích hợp và cán nguội tiếp theo.', 'Các sản phẩm có chứa sắt mạ kim loại màu vẫn trong các nhóm tương ứng của chúng trong Chương 72 với điều kiện rằng sắt hoặc thép là kim loại trội về trọng lượng (xem Chú giải 5 của Phần XV). Các sản phẩm sắt và thép mạ kim loại đen khác, tùy theo thành phần của sản phẩm gốc hoặc của kim loại mạ có thể thuộc phân Chương (II, III hoặc IV), tương tự phải được phân loại phù hợp với kim loại trội về trọng lượng (Xem Chú giải 2 của Chương này); ví dụ, một thanh thép không hợp kim thông thường mạ thép không gỉ được phân loại trong phân Chương II nếu kim loại nói trên trội hơn về mặt trọng lượng, hoặc nếu không thì sẽ được phân loại trong phân Chương III.', '(f) Sự lấy đi những phần nhỏ của kim loại nhằm mục đích thử nghiệm.', '(g) Sự cán dát mỏng, ví dụ, để chồng các lớp kim loại lên một lớp ở giữa của vật liệu vitcô đàn hồi, lớp này sẽ tạo âm thanh.v.v.., chất cách điện.', '*', '*   *', 'Sự phân loại các hợp kim của kim loại đen và của các sản phẩm hợp chất được nêu trong Chú giải chung của phần XV.']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm số lượng nhất định các sản phẩm đặc trưng trong các nhóm 73.01 đến 73.24 và trong các nhóm 73.25 và 73.26 một nhóm các sản phẩm không được định rõ hoặc không thuộc Chương 82 hoặc 83 và không thuộc các Chương khác của Danh mục, bằng sắt (gồm cả gang đúc như được định nghĩa trong Chú giải 1 cho Chương này) hoặc bằng thép.', 'Với các mục đích của Chương này, các định nghĩa "ống và ống dẫn" và "thanh dạng rỗng" có các nghĩa sau:', '(1) Ống và ống dẫn', 'Là những sản phẩm rỗng đồng tâm, có mặt cắt ngang đồng nhất với chỉ một khoảng trống chứa đựng dọc theo toàn bộ chiều dài của chúng, có các bề mặt ở trong và ở phía ngoài có cùng dạng. Các ống thép chủ yếu có các mặt cắt ngang hình tròn, ôvan, chữ nhật (kể cả hình vuông) nhưng ngoài ra có thể bao gồm cả các mặt cắt ngang hình tam giác đều và các hình đa giác lồi đều khác. Các sản phẩm có mặt cắt ngang trừ hình tròn, với các góc lượn tròn dọc theo cả chiều dài của nó, và các ống với các đầu chồn cũng sẽ được xem như là các ống. Chúng có thể được đánh bóng, phủ, uốn cong (gồm cả ống cuộn), có ren và được nối hoặc không có ren hoặc không được nối, được khoan lỗ, thắt hẹp, mở rộng, có hình nón hoặc được gắn với các mặt bích, vòng đai hoặc vành ống.', '(2) Thanh hình rỗng', 'Là những sản phẩm rỗng không theo định nghĩa ở trên và chủ yếu những sản phẩm này không có bề mặt ở phía trong và phía ngoài cùng dạng.', 'Chú giải Tổng quát Chương 72, với những sửa đổi thích hợp, áp dụng cho Chương này.', '73.01 – Cọc cừ (sheet pilling) bằng sắt hoặc thép, đã hoặc chưa khoan lỗ, đục lỗ hoặc ghép từ các bộ phận lắp ráp; sắt hoặc thép, ở dạng góc, khuôn và dạng hình, đã được hàn.']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm đồng và hợp kim của nó và các sản phẩm chủ yếu bằng đồng.', 'Đồng được chiết tách từ nhiều loại quặng khác nhau (xem chú giải cho nhóm 26.03) và cũng được làm từ kim loại ở trạng thái ban đầu, hoặc được tái chế từ phế liệu và mảnh vụn.', 'Đồng được sản xuất từ quặng sunphua của nó bằng quá trình tách khô mà trong đó quặng đã được nghiền thành dạng bột và tuyển chọn được thiêu kết tới độ cần thiết để loại lưu huỳnh và nấu chảy trong lò nung để tạo ra đồng thô (đồng sten) hoặc đồng chưa luyện.', 'Trong một vài trường hợp, quặng đã tuyển làm đậm đặc được nấu chảy trong lò nung chảy có thổi không khí hoặc ôxy ("Chảy đốt cháy") không có sự thiêu kết nung ban đầu.', 'Hỗn hợp kim loại này được xử lý trong một lò chuyển để loại hầu hết sắt, lưu huỳnh và thu được các sản phẩm "đồng rỗ" (được gọi như vậy vì nó có bề mặt xù xì, rỗ). Đồng rỗ được tái tinh luyện trong lò lửa quặt để thu được đồng tinh luyện bằng lửa và tuỳ theo yêu cầu, có thể được tái tinh luyện hơn nữa bằng điện phân.', 'Người ta thường sử dụng qui trình ướt (lọc) cho các quặng oxit và cũng cho các quặng khác và xỉ (xem Chú giải nhóm 74.01).', '*', '*    *', 'Đồng rất mềm dẻo và dễ uốn; đồng là kim loại sau bạc, có độ dẫn nhiệt và dẫn điện tốt nhất. Đồng được sử dụng ở trạng thái tinh khiết, đặc biệt ở dạng dây để sử dụng làm dây điện hoặc ở dạng cuộn hoặc dạng tấm như một bộ phận làm lạnh, nhưng nó chủ yếu được sử dụng ở dạng hợp kim cho các mục đích thông dụng.', '*', '* *', 'Theo điều khoản của Chú giải 5 của Phần XV (xem Chú giải tổng quát cho Phần đó) các hợp kim đồng và các kim loại cơ bản có thể được phân loại theo đồng, bao gồm:', '(1)  Hợp kim trên cơ sở đồng-kẽm (đồng thau) (xem Chú giải phân nhóm 1 (a)) với các phần khác nhau của đồng và kẽm, ví dụ: đồng thau thông thường được sử dụng cho nhiều mục đích; kim loại dát vàng (đồng tombac) được sử dụng đặc biệt trong sản xuất đồ kim hoàn giả và các hàng hoá trang hoàng.', 'Hợp kim đồng-kẽm có chứa lượng nhỏ các nguyên tố khác tạo thành dạng đồng thau đặc biệt với các đặc tính đặc trưng. Đồng thau đặc biệt bao gồm đồng thau có độ bền cao (thường hiểu là đồng mangan), được sử dụng trong đóng tầu, và cả đồng thau chì, đồng thau sắt, đồng thau nhôm, và đồng thau silic.', '(2) Hợp kim trên cơ sở đồng-thiếc (đồng thanh), (xem Chú giải Phân nhóm 1 (b)), đôi khi có chứa các nguyên tố khác mà chúng tạo ra các đặc tính đặc biệt. Đồng thanh bao gồm đồng thanh dùng cho đúc tiền, đồng thanh cứng cho bánh răng hộp số, ổ trục hoặc các bộ phận máy móc khác; kim loại đúc chương; đồng thanh cho điêu khắc; đồng thanh mạ chì sử dụng làm ổ trục, đồng thanh phospho (hoặc đồng thanh đã khử ôxy) được sử dụng trong sản xuất lò xo, luới dây đan cho lọc, sàng...', '(3) Hợp kim trên cơ sở kẽm đồng-niken (bạc niken) (xem Chú giải Phân nhóm 1 (c) ) có tính chống ăn mòn tốt và bền. Hợp kim này thường được sử dụng chủ yếu trong thiết bị viễn thông (trong công nghiệp điện thoại ngoài các mặt hàng khác); các ứng dụng khác bao gồm để chế phụ kiện máy trong thiết bị, vòi nuớc và phụ kiện cho hệ thống ống cao cấp, làm khoá kéo, ứng dụng đa dạng trong công nghiệp điện như cái kẹp đầu dây, lò xo, đầu nối, phích điện..., kết cấu kim loại trong trang trí và kiến trúc, thiết bị chế biến hoá chất và thực phẩm. Một số loại nhất định của hợp kim này cũng được sử dụng trong sản xuất bộ đồ ăn ...', '(4) Hợp kim trên cơ sở đồng-niken (đồng-kền), xem Chú giải Phân nhóm 1 (d) ), chúng thường có chứa lượng nhỏ của nhôm hoặc sắt. Hợp kim này đại diện cho loại hợp kim có đặc tính chống ăn mòn của nuớc biển, vì lý do như vậy nó được sử dụng rộng rãi trong các ứng dụng đa dạng của ngành hàng hải và đóng tầu, đặc biệt cho các bộ phận ngưng tụ hoặc đường ống và trong sản xuất tiền kim loại hoặc điện trở.', '(5) Đồng thanh nhôm bao gồm chủ yếu đồng pha thêm với nhôm và được sử dụng trong kỹ thuật mà ở đó độ bền cao, độ chống ăn mòn và độ cứng là yếu tố quan trọng.', '(6) Đồng beryli (đôi khi được gọi là đồng thanh beryli) bao gồm chủ yếu đồng pha với beryli và do có độ cứng, độ bền cao và tính chống ăn mòn nên được sử dụng làm nhiều dạng lò xo, cũng như làm khuôn đúc plastic, điện cực hàn bấm và cho dụng cụ không gây tia lửa.', '(7) Đồng - Silic bao gồm cơ bản đồng và pha thêm silic và có độ bền cao và chống ăn mòn. Nó được sử dụng, ví dụ: cho sản xuất bồn chứa, bulông và móc.', '(8) Đồng crom chủ yếu sử dụng làm điện cục hàn bấm.', '*', '*    *', 'Chương này bao gồm:', '(A) Sten và các sản phẩm trung gian của luyện đồng, đồng chưa gia công, đồng phế liệu và mảnh vụn (nhóm 74.01 đến 74.05).', '(B) Bột và vảy đồng (nhóm 74.06).', '(C) Các sản phẩm thường thu được bởi cán, ép, kéo hoặc rèn đồng của nhóm 74.03 (nhóm 74.07 đến 74.10).', '(D) Các mặt hàng khác đã chi tiết hoá ở nhóm 74.11 đến 71.18 và các mặt hàng khác xếp vào nhóm 74.19 bao gồm tất cả các mặt hàng bằng đồng khác trừ loại đã bao gồm bởi Chú giải 1 Phần XV hoặc các loại thuộc Chương 82 hoặc 83, hoặc đã chi tiết hoá hơn ở nơi khác trong Danh mục.', 'Các sản phẩm và các mặt hàng đồng thường phải trải qua nhiều cách xử lý khác nhau để cải thiện đặc tính hoặc bề mặt của kim loại v.v. Những xử lý này, thông thường được tham khảo ở chú giải chung cho Chương 72 và không ảnh hưởng đến việc phân loại hàng hoá.', '*', '*    *', 'Sự phân loại của hàng hoá phức hợp, đặc biệt hàng hoá lắp ghép được giải thích ở Chú giải tổng quát phần XV.', '74.01 – Sten đồng, đồng xi măng hóa (đồng kết tủa).', '(A) Sten đồng.', 'Thu được bằng cách nung chảy quặng đồng sunphua đã thiêu kết để phân tách đồng sunphua từ quặng nghèo và các kim loại khác để hình thành một loại xỉ, nổi trên bề mặt của sten. Sten bao gồm phần chính là đồng và sắt sunphua và thông thường ở dạng hạt màu đen hoặc nâu (thu được bằng cách bởi rót sten nóng chảy vào nước) hoặc ở dạng khối thô với bề ngoài ánh kim, xỉn.', '(B) Đồng xi măng hóa (Đồng kết tủa).', 'Đồng xi măng hóa (đồng kết tủa) là một sản phẩm thu được bởi sự kết tủa (sự xi măng hóa), ví dụ bằng cách thêm sắt vào dung dịch nước thu được từ ngâm chiết quặng nung hoặc cặn lắng. Sản phẩm này là bột màu đen phần mịn có chứa oxit và tạp chất không hoà tan. Sản phẩm này đôi khi được sử dụng trong sơn chống bẩn, và thuốc diệt nấm trong nông nghiệp, nhưng nó thường được thêm vào mẻ liệu trong lò nung chảy để sản xuất sten đồng.', 'Đồng kết tủa không được nhầm lẫn với bột đồng của nhóm 74.06, là loại không chứa tạp chất.', '74.02 – Đồng chưa tinh luyện; cực dương đồng dùng cho điện phân tinh luyện.', 'Nhóm này bao gồm:', '(1)  Đồng đen. Sản phẩm này bao gồm dạng không tinh khiết của đồng tạo ra bằng cách nấu chảy quặng đồng đã ô xy hoá hoặc mảnh vụn đồng không tinh khiết trong lò cao. Hàm lượng đồng thay đổi đáng kể, thường ở khoảng xấp xỉ 60 đến 85% tính theo khối lượng.', '(2) Đồng xốp. Sản phẩm này bao gồm dạng không tinh khiết của đồng sản xuất bằng cách thổi luồng không khí qua sten đồng nung chảy. Trong quá trình đảo, lưu huỳnh, sắt và tạp chất khác bị ô xy hoá. Hàm lượng đồng thường ở khoảng 98% tính theo khối lượng.', '(3) Anod đồng (đồng cực dương) dùng cho điện phân tinh luyện.', 'Đồng tinh luyện từng phần bằng cách nung chảy hoàn toàn được đổ khuôn thành Anod để tinh luyện tiếp bằng điện phân. Các anod này thường ở dạng khuôn hình tấm, phiến với hai phần gò (mấu) để treo chúng trong bể điện phân tinh luyện. Chúng không được nhầm lẫn với Anod để mạ đồng điện phân (nhóm 74.19).', '74.03- Đồng tinh luyện và hợp kim đồng, chưa gia công.', '- Đồng tinh luyện:']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Chương này gồm niken, Các hợp kim của niken và các hàng hóa từ niken.', 'Niken là một kim loại tương đối cứng, màu trắng xám (nóng chảy ở 1453°C). Nó có tính sắt từ, dễ uốn dẻo, dễ kéo sợi, bền và chống được ăn mòn và ô xy hoá.', '*', '*    *', 'Niken được sử dụng chủ yếu trong sản xuất một số hợp kim đặc biệt là thép hợp kim, dùng để phủ lên kim loại khác bằng mạ điện âm cực và làm chất xúc tác trong nhiều phản ứng hoá học. Niken không hợp kim cũng được sử dụng để chế tạo các thiết bị hoá học. Mặt khác niken và Các hợp kim của niken được sử dụng cho đúc tiền.', '*', '*    *', 'Các hợp kim niken cơ bản thuộc chương này tuân thủ quy định của chú giải 5 phần XV bao gồm như sau:', '(1)  Hợp kim niken-sắt. Gồm vật liệu sử dụng trong cáp ngầm dưới biển, lõi cuộn cảm, do độ nhiễm từ lớn và độ từ trễ thấp.', '(2) Hợp kim niken-crom hoặc hợp kim niken-crom-sắt. Chúng gồm các loại vật liệu có giá trị thương mại có độ bền tốt, chống ô xy hoá rất tốt ở nhiệt độ cao và một số môi trường gây ăn mòn. Các vật liệu này được dùng để sản xuất bộ phận đốt nóng trong các thiết bị đốt nóng bằng điện trở và cũng được sử dụng làm bộ phận cấu thành như lò múp (lò nhiệt luyện) và lò buồng để nhiệt luyện thép hoặc kim loại khác, hoặc làm ống dẫn và ống cho xử lý hoá chất hoặc hoá dầu ở nhiệt độ cao. Cũng thuộc vào nhóm này là các hợp kim đặc biệt được gọi là “siêu hợp kim” có độ bền cao nhằm để chịu ở nhiệt độ cao, chúng được dùng phổ biến trong việc chế tạo tuốc bin máy bay như ở bộ phận cánh tuốc bin, đường dẫn chất đốt, các bộ phận chuyển tiếp... Các hợp kim này thường chứa molyđen, vonfram, niobi, nhôm, titan... chúng làm tăng đáng kể độ bền của hợp kim có cơ sở là niken.', '(3) Các hợp kim niken-đồng. Các hợp kim này, ngoài khả năng chống ăn mòn còn có độ bền tốt, chúng được sử dụng trong một số ứng dụng như trục cánh quạt hoặc các thiết bị kẹp và chúng cũng được sử dụng trong các máy bơm, van, hệ thống ống hoặc các thiết bị khác tiếp xúc với môi trường axit vô cơ hoặc hữu cơ, các chất kiềm và muối.', '*', '*     *', 'Chương này bao gồm:', '(A) Sten Niken, niken oxit thiêu kết và các sản phẩm trung gian khác của luyện niken và niken chưa gia công, niken phế liệu và mảnh vụn (nhóm 75.01 đến 75.03).', '(B) Niken bột và vảy (nhóm 75.04).', '(C) Các sản phẩm thông thường thu được bằng cán, rèn, kéo dãn, ép đùn phôi niken chưa gia công của nhóm 75.02 (nhóm 75.05 và 75.06).', '(D) Ống, ống dẫn và ống nối (nhóm 75.07), các bản cực anod mạ điện và hàng hóa khác thuộc nhóm 75.08, trừ các loại này được nêu ở Chú giải 1 Phần XV hoặc thuộc Chương 82 hoặc 83 hoặc được mô tả chi tiết hơn ở các phần khác trong danh mục.', '*', '*     *', 'Các sản phẩm và hàng hoá bằng niken thường được xử lý khác nhau để cải thiện đặc tính riêng hoặc bề mặt của kim loại... Các cách xử lý này được nêu trong phần cuối chú giải tổng quát Chương 72 và không ảnh hưởng tới việc phân loại của các hàng hoá này. (Tuy nhiên, xem trường hợp đặc biệt của bản cực anod mạ điện (nhóm 75.08)).', '*', '*    *', 'Việc phân loại của các hàng hoá phức hợp được giải thích tại chú giải tổng quát ở Phần XV.', '75.01 – Sten niken, oxit niken thiêu kết và các sản phẩm trung gian khác của quá trình luyện niken.']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm nhôm và hợp kim nhôm và các sản phẩm bằng nhôm. Nhôm được điều chế chủ yếu từ Bô-xít, một loại nhôm Hydrat thô (xem chú giải nhóm 26.06). Giai đoạn chiết xuất đầu tiên là nhằm chuyển Bô-xít sang oxit nhôm tinh khiết. Để làm được điều này, quặng thô được nung và sau đó được xử lý bằng Natri Hydroxit để tạo ra một dung dịch Natri nhôm. Sau đó nó được lọc để loại bỏ các tạp chất không có khả năng hoà tan (Oxit sắt, Silicat...). Nhôm sau đó được làm kết tủa thành hydroxit nhôm. Hydroxit nhôm được nung để tạo ra loại nhôm tinh khiết dưới dạng bột màu trắng. Tuy nhiên hydroxit nhôm và oxit nhôm được phân loại vào Chương 28.', 'Ở giai đoạn thứ hai, kim loại được tách bằng phương pháp điện phân oxit nhôm đã được hoà tan trong Criolit nấu chảy (chất sau này là florua natri nhôm, nhưng nó chỉ đóng vai trò như một chất dung môi). Phương pháp điện phân này được tiến hành trong các bể lót than chì có tác dụng như một cực âm Catôt, những thanh than được sử dụng như anôt. Nhôm được kết tủa ở đáy bể từ đó nhôm được hút đi bằng xifông. Thông thường sau khi tinh chế, nhôm được đúc thành dạng khối, thỏi, phôi, tấm, thanh phôi để kéo dây.... Bằng cách điện phân lặp lại, nhôm thu được gần như hoàn toàn tinh khiết', 'Nhôm cũng có thể được điều chế từ một số loại quặng khác như quặng leuxit (là muối kép của silicat nhôm và kali), bằng cách nấu chảy lại các phế liệu và mảnh vụn của nhôm hoặc bằng quá trình xử lý các chất cặn còn sót lại (xỉ, cặn, bã).', '*', '*     *', 'Nhôm là một loại kim loại có màu trắng hơi xanh được nhận dạng bởi màu sáng của nó. Nhôm rất dẻo và dễ cán, kéo, rèn, dập và có thể đúc. Giống như các loại kim loại mềm khác, nhôm cũng là chất rất phù hợp cho việc đúc ép và đúc áp lực (đúc trong khuôn kim loại). Trong ứng dụng hiện đại nó có thể được làm hợp kim hàn. Nhôm là một chất dẫn nhiệt và điện rất tốt và là một chất phản quang tốt. Lớp mỏng của oxit nhôm trên bề mặt bảo vệ nhôm kim loại hình thành một cách tự nhiên, người ta đã chế tạo ra lớp màng bảo vệ dày hơn bằng cách anot hóa hoặc bằng phản ứng hóa học; đôi khi cũng nhuộm màu bề mặt kim loại trong các quá trình phản ứng này.', '*', '*    *', 'Độ cứng, độ bền ... của nhôm có thể được cải thiện rất đáng kể bởi việc hợp kim hoá với các nguyên tố khác như: Đồng, magiê, silicon, kẽm hoặc mangan. Khi được gia công cơ - nhiệt, các hợp kim nhôm này có các thuộc tính cơ học tăng lên đáng kể.', 'Các hợp kim nhôm chính có thể được phân loại trong chương này theo nội dung chú giải 5 của phần XV (chú giải chung của phần) là:', '(1) Các hợp kim nhôm đồng. Là hợp kim nhôm cơ bản với hàm lượng đồng thấp.', '(2) Các hợp kim nhôm-đồng-kẽm', '(3) Các hợp kim nhôm- silicon (ví dụ “Alpax”, “silumin”)', '(4) Các hợp kim nhôm- magie - mangan', '(5) Các hợp kim nhôm-silicon - magie (ví dụ “Almelec”, “Aldrey”)', '(6) Các hợp kim nhôm mangan - magie - đồng (ví dụ “Duralumin”)', '(7) Các hợp kim nhôm - magie (ví dụ “magnalium”)', '(8) Các hợp kim nhôm - mangan', '(9) Các hợp kim nhôm - magiê - thiếc.', 'Hầu hết các hợp kim này cũng có thể chứa các hàm lượng nhỏ của sắt, niken, crom... chúng thường được mua bán dưới các tên thương mại khác nhau tuỳ theo nước xuất xứ.', '*', '*    *', 'Do các thuộc tính đặc biệt của nhôm và các hợp kim của nhôm, nó được sử dụng rộng rãi: trong công nghiệp chế tạo máy bay, ô tô hoặc công nghiệp đóng tàu; trong công nghiệp xây dựng, trong việc đóng toa xe lửa hoặc xe điện, trong công nghiệp điện (ví dụ: như dây cáp), cho tất cả các loại thùng chứa (bể chứa và chum vại các cỡ, thùng vận chuyển, thùng trống...), cho đồ dùng gia đình hoặc nhà bếp, cho việc sản xuất lá nhôm mỏng v.v...', '*', '*    *', 'Chương này bao gồm:', '(A) Nhôm chưa gia công, nhôm phế liệu và nhôm mảnh vụn (nhóm 76.01 và 76.02).', '(B) Bột nhôm và vảy nhôm (nhóm 76.03).', '(C) Các sản phẩm nhìn chung thu được bởi việc cán, ép đùn, kéo, rèn nhôm chưa gia công thuộc nhóm 76.01 (các nhóm 76.04 tới 76.07)', '(D) Các hàng hóa khác nhau được liệt kê nhóm 76.08 đến 76.15 và các hàng hóa khác thuộc phần còn lại của nhóm 76.16, bao gồm tất cả các mặt hàng nhôm khác ngoại trừ các mặt hàng được xếp trong chương 82 hoặc 83, hoặc được đề cập cụ thể hơn ở phần nào khác trong danh mục.', 'Các sản phẩm thu được bằng việc thiêu kết nhôm và oxit nhôm hay còn gọi là gốm kim loại và được loại trừ khỏi chương này (nhóm 81.13).', '*', '*    *', 'Các sản phẩm và hàng hóa làm bằng nhôm thường được xử lý bằng cách khác nhau nhằm cải thiện thuộc tính hoặc vẻ ngoài của kim loại, để tăng khả năng chống ăn mòn... Những quá trình xử lý này thông thường được đề cập ở phần cuối của chú giải chung tại chương 72 và không làm ảnh hưởng tới việc phân loại hàng hoá.', '*', '*     *', 'Việc phân loại các hàng hoá phức hợp, đặc biệt các sản phẩm hoàn thiện, được giải thích trong Chú giải Tổng quát của Phần XV.', '76.01 – Nhôm chưa gia công']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Chương này gồm chì, Các hợp kim của chì và các hàng hóa từ chì.', 'Chì chủ yếu thu được từ Galena, là một loại quặng chì sunfua tự nhiên thường có chứa bạc. Sau khi làm giàu bằng phương pháp tuyển nổi, quặng nghiền vụn thường được nung hoặc thiêu kết và sau đó được khử bằng nấu chảy. Trong quá trình nung hoặc thiêu kết, muối sunphua phần lớn được chuyển thành dạng ôxit; trong quá trình nấu chảy, ôxit được khử thành chì bằng than cốc và một chất trợ dung. Theo cách này thu được "chì dạng thỏi" hoặc "chì gia công"; loại này có chứa một số tạp chất, thường bao gồm bạc. Bởi vậy nhìn chung chì phải được tinh luyện thêm để tạo ra chì hoàn toàn tinh khiết.', 'Chì cũng thu được bởi việc nấu lại phế thải và các mảnh chì vụn.', '*', '*     *', 'Chì là kim loại nặng có màu xanh xám, nó rất dễ dát mỏng, dễ nấu chảy và rất mềm (có thể dễ dàng dùng móng tay vạch nét trên mặt kim loại này). Chì chống lại tác dụng của hầu hết các axit (ví dụ: axit sunfuaric hoặc axit clohydric) và bởi vì vậy nó được sử dụng trong việc xây dựng nhà máy hoá chất.', '*', '*     *', 'Do điểm nóng chảy của chì thấp nên nó dễ dàng tạo thành hợp kim với các nguyên tố khác. Các hợp kim chì chủ yếu có thể nằm trong chương này theo qui định của chú giải 5 Phần XV (xem chú giải chi tiết tổng quát của phần đó), bao gồm:', '(1) Hợp kim chì-thiếc được dùng, ví dụ vật liệu hàn trên cơ sở chì, trong các tấm mỏng tráng chì và trong giấy bạc để gói chè.', '(2) Hợp kim chì-antimon-thiếc được dùng trong các loại máy in và trong các vòng bi chống ma sát.', '(3) Hợp kim chì-asen sử dụng làm đạn chì.', '(4) Hợp kim chì-antimoan (chì cứng) được sử dụng trong sản xuất đạn, các bản cực ắc quy...', '(5) Hợp kim chì-can xi, chì-canxi-antimon, chì-telu:', '*', '*     *', 'Chương này bao gồm:', '(A) Chì chưa gia công, phế liệu và các mảnh chì vụn (các nhóm 78.01 và 78.02).', '(B) Các sản phẩm thu được bởi việc cán hoặc ép đùn chì chưa gia công của nhóm 78.01 (nhóm 78.04 và 78.06), bột và vảy chì (nhóm 78.04)', '(C) Các ống, ống dẫn và phụ kiện và các sản phẩm còn lại của nhóm 78.06 mà nó bao gồm tất cả các sản phẩm chì khác trừ các sản phẩm được mô tả trong Chú giải 1 Phần XV hoặc nằm trong Chương 82 hoặc Chương 83 hoặc được mô tả chi tiết hơn ở các phần khác trong danh mục.', '*', '*     *', 'Các sản phẩm và hàng hóa bằng chì có thể được đưa qua nhiều quá trình xử lý để nâng cao thuộc tính và hình dáng bên ngoài của kim loại... Nhìn chung những quá trình gia công đó được đề cập tại phần cuối chú giải tổng quát của Chương 72 và không ảnh hưởng tới việc phân loại hàng hoá.', '*', '*     *', 'Việc phân loại các sản phẩm phức hợp được giải thích trong Chú giải Tổng quát Phần XV.', '78.01 – Chì chưa gia công']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm kẽm và các hợp kim của kẽm, và một số sản phẩm của nó.', 'Kẽm chủ yếu thu được từ quặng sunfua (hỗn hợp kẽm hoặc các Sphalerit) mặc dù nó cũng được chiết xuất từ quặng Cacbonat và Silicat (Smithsonite, Hemimorphite...) (xem chú giải giải thích nhóm 26.08).', 'Trong cả hai trường hợp, đầu tiên quặng được tuyển và sau đó được nung hoặc nung khô để tạo ra oxit kẽm (trong trường hợp của quặng Sulphat và cacbonat) hoặc Silicat Kẽm đã được khử nuớc (trong trường hợp là quặng Silicate). Kẽm thu được từ quá trình này bằng phương pháp khử nhiệt hoặc bằng phương pháp điện phân (trừ trong trường hợp là quặng Silicat).', '(I) Phương pháp khử nhiệt: được tiến hành bằng cách nung nóng ôxit hoặc Silicate với than cốc trong nồi chưng cất kín. Kẽm tại nhiệt độ đủ cao sẽ bốc hơi sau đó được chưng cất qua máy ngưng tụ. Phần lớn kim loại được thu lại là "Kẽm tạp chất". Kẽm không tinh khiết này có thể được sử dụng trực tiếp cho công nghệ mạ kẽm, hoặc có thể được tinh chế bằng các phương pháp khác.', 'Một số kim loại không tinh khiết cũng được kết tủa (trầm tích) trong những phần nối của nồi chưng cất dưới dạng bột mịn được biết như là bụi kẽm hoặc bột xanh.', 'Sự cải tiến của quá trình này dựa trên cơ sở liên tục khử ôxit kẽm và chưng cất kẽm trong các lò thẳng đứng. Quá trình này tạo ra kim loại rất tinh khiết phù hợp với việc tạo ra Các hợp kim đúc áp lực.', '(II) Phương pháp điện phân: Ôxit kẽm được hoà tan trong dung dịch Axit Sunphuric pha loãng. Dung dịch Sunphat kẽm này được tinh lọc cẩn thận để loại ra Cadi, sắt, Đồng... và sau đó nó được điện phân để tạo ra một loại kẽm rất tinh khiết.', 'Kẽm cũng thu được từ việc nấu luyện lại chất phế liệu và mảnh vụn của kẽm.', '*', '*     *', 'Kẽm là một kim loại có màu trắng xanh có thể được cán, kéo, dập, ép... ở những nhiệt độ thích hợp, và nó có thể dùng trong công nghệ đúc. Kẽm là chất có khả năng chống lại sự ăn mòn trong bầu khí quyển và bởi vậy nó được sử dụng trong công trình xây dựng (ví dụ: sử dụng cho việc lợp mái) và để tạo nên các lớp vỏ bọc bảo vệ những kim loại khác, đặc biệt là sắt và thép (ví dụ: bằng việc mạ nhúng nóng, mạ điện âm cực, mạ kẽm, sơn hoặc phun).', '*', '*    *', 'Kẽm cũng được áp dụng trong việc sản xuất các loại hợp kim, nhiều loại (ví dụ: đồng thau) chứa một lượng nhiều hơn của các kim loại khác, nhưng dưới đây là Các hợp kim kẽm chính mà có thể nằm trong chương này theo các điều khoản của Chú giải 5 Phần XV.', '(1) Hợp kim kẽm-nhôm, thông thường có bổ sung đồng hoặc magiê dùng cho quá trình đúc áp lực, đặc biệt dùng cho các bộ phận ô tô (thân của bộ chế hoà khí, lưới của bộ tản nhiệt, bảng đồng hồ...) các bộ phận của xe đạp (bàn đạp, các hộp Dynamo...) các bộ phận của Radio, các bộ phận của tủ lạnh... Các hợp kim của các kim loại cùng loại được dùng để sản xuất, các tấm cứng hơn kẽm bình thường, các dụng cụ ép, và như là Anốt bảo vệ Ca- tôt (A-nôt tự tiêu) để bảo vệ các đường ống, các tụ điện... chống lại ăn mòn kim loại.', '(2) Hợp kim kẽm- đồng (hợp kim kim loại núm) sử dụng để đúc dập... Xem chú giải phân nhóm 1 (a) và 1 (b) liên quan đến việc phân biệt giữa kẽm và hợp kim của kẽm.', '*', '*     *', 'Chương này bao gồm:', '(A) Kẽm thương phẩm và kẽm chưa qua gia công, phế liệu và các mảnh vụn (nhóm 79.01 và 79.02).', '(B) Bụi, bột và vẩy kẽm (nhóm 79.03).', '(C) Các sản phẩm nói chung thu được, bởi các phương pháp cán, kéo, ép. Kẽm chưa qua gia công thuộc nhóm 79.01 (các nhóm 79.04 và 79.05).', '(D) Các ống, ống dẫn và các phụ kiện, các sản phẩm khác của nhóm 79.07, bao gồm tất cả các sản phẩm kẽm khác trừ các sản phẩm nằm trong Chú giải 1 của Phần XV hoặc thuộc Chương 82 hoặc Chương 83 hoặc các sản phẩm được mô tả chi tiết hơn thuộc nơi khác của Danh mục..', '*', '*     *', 'Các sản phẩm và mặt hàng bằng kẽm có thể qua nhiều quá trình xử lý để nâng cao thuộc tính hoặc hình dáng bên ngoài của kim loại... Các phương pháp xử lý đó nói chung được đề cập tại phần cuối của chú giải chi tiết Chương 72 và không ảnh hưởng đến việc phân loại hàng hoá.', '*', '*     *', 'Việc phân loại các sản phẩm phức hợp được giải thích trong chú giải Tổng quát phần XV.', '79.01 – Kẽm chưa gia công', '- Kẽm, không hợp kim:']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm thiếc và các hợp kim của thiếc, và một số sản phẩm làm bằng thiếc.', 'Về mặt thương mại, thiếc chiết xuất từ các quặng ôxit Cassiterite (hoặc đá thiếc) được phân loại trong nhóm 26.09, quặng này có thể xuất hiện hoặc trong mạch quặng hoặc trong những lớp lắng của đất bồi.', 'Các giai đoạn chính trong quá trình chiết xuất diễn ra như sau:', '(I) Quá trình tuyển quặng bằng phương pháp rửa, nghiền và tuyển nổi', '(II) Quá trình xử lý ôxit bằng việc nung, tách bằng từ tính, hoặc với các loại axit hoặc các dung môi khác để loại bỏ các tạp chất như Sulphur Asen, đồng, chì, sắt và tungsten.', '(III) Quá trình khử của các ôxit tinh khiết bằng than cốc để sản xuất thiếc thô.', '(IV) Tinh luyện thiếc thô bằng nhiều phương pháp có thể tạo ra được kim loại trong trạng thái hầu như hoàn toàn tinh khiết.', 'Thiếc cũng được thu hồi từ các mảnh vụn tráng thiếc bằng phương pháp xử lý Clo hoá hoặc điện phân, hoặc bằng phương pháp nấu chảy lại phế liệu và mảnh vụn thiếc. Quá trình thu hồi lại đó cũng có thể tạo ra thiếc rất tinh khiết.', '*', '*    *', 'Thiếc tinh khiết có màu trắng bạc và rất bóng, nó không thật dẻo, nhưng có thể rèn được, dễ dàng bị nấu chảy và mềm (mặc dù cứng hơn chì). Thiếc có thể dễ dàng được tạo hình qua đúc khuôn dập, cán hoặc ép đùn.', 'Thiếc là chất chống lại được sự ăn mòn khí quyển nhưng lại bị ăn mòn bởi các loại axit đậm đặc.', '*', '*    *', 'Thiếc chủ yếu được dùng trong quá trình mạ thiếc cho các kim loại cơ bản khác đặc biệt là sắt và thép (ví dụ: quá trình sản xuất tôn tráng thiếc, đặc biệt cho ngành công nghiệp đồ hộp) và trong việc tạo ra các hợp kim (đồng thanh...). Ở trạng thái tinh khiết hoặc hợp kim, thiếc cũng được sử dụng trong sản xuất các thiết bị, đường ống và hệ thống ống dẫn cho ngành công nghiệp thực phẩm, phần vòi của các thùng cất, các bộ phận của tủ lạnh, các bể chứa công nghiệp, các bình chứa... Hợp kim thành hình que, dây..., các sản phẩm trang trí và bộ đồ ăn (ví dụ: trong đồ dùng bằng thiếc), đồ chơi, các ống của đàn hộp... Nó cũng được dùng dạng lá mỏng hoặc các ống có thể bóp được.', '*', '*    *', 'Các hợp kim chính của thiếc có thể được phân loại trong chương này theo các điều khoản của chú giải 5 phần XV (Xem chú giải tổng quát phần đó) bao gồm:', '(1) Các hợp kim thiếc - chì được sử dụng, ví dụ: thiếc được sử dụng như các kim loại hàn mềm, nền chủ yếu là thiếc, trong các vật dụng làm bằng thiếc, trong sản xuất đồ chơi, cho một số thước đo dung lượng.', '(2) Các hợp kim thiếc-antimon, thường có đồng (ví dụ: kim loại Britannia) được sử dụng cho các bộ đồ ăn, sản xuất các vòng bạc đỡ...', '(3) Các hợp kim thiếc-chì-antimon, đôi khi có đồng (ví dụ: các kim loại chống ma sát thành phần cơ bản là thiếc) sử dụng để làm khuôn đúc (đặc biệt là bạc đỡ) sử dụng làm bao bì.', '(4) Các hợp kim thiếc-Cadimi, đôi khi cũng có kẽm, được dùng như các kim loại chống ma sát.', '*', '*    *', 'Chương này bao gồm:', '(A) Thiếc chưa qua gia công và thiếc phế liệu và mảnh vụn (nhóm 80.01 và 80.02).', '(B) Các sản phẩm thường thu được từ phương pháp cán hoặc ép thiếc chưa gia công thuộc nhóm 80.01 (nhóm 80.03 và nhóm 80.07), thiếc ở dạng bột và vảy (nhóm 80.07).', '(C) Các ống, ống dẫn và các phụ kiện, các sản phẩm khác thuộc nhóm 80.07 bao gồm tất cả các sản phẩm bằng thiếc khác trừ các sản phẩm đã nêu trong Chú giải 1 phần XV hoặc thuộc Chương 82 hoặc 83, hoặc các sản phẩm được mô tả chi tiết hơn thuộc nơi khác của danh mục.', '*', '*    *', 'Các sản phẩm và mặt hàng bằng thiếc có thể được đưa qua các phương pháp xử lý đa dạng để nâng cao tính chất hoặc hình dạng của kim loại. Các phương pháp xử lý đó nói chung được đề cập tới tại phần cuối của chú giải chi tiết Chương 72 và không ảnh hưởng tới việc phân loại hàng hoá.', '*', '*    *', 'Việc phân loại hàng hoá các sản phẩm phức hợp được giải thích chung trong Chú giải Tổng quát Phần XV.', '80.01 – Thiếc chưa gia công']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Chương này chỉ giới hạn bao gồm sau đây: các kim loại cơ bản, các hợp kim của chúng, và các sản phẩm của chúng mà không được đề cập riêng ở bất cứ phần nào trong Danh mục.', '(A) Vôn-fram (wolfram) (nhóm 81.01), Molybden (Mo) (nhóm 81.02), Tantan(Ta) nhóm 81.03), Magie(Mg) (nhóm 81.04), Coban(Co), bao gồm các phụ phẩm và các sản phẩm trung gian khác của Coban thu được trong quá trình luyện kim Coban (nhóm 81.05), Bitmut(Bi) (nhóm 81.06) Cađimi(Cd) (nhóm 81.07), Titan(Ti) (nhóm 81.08), Zirconi(Zr) (nhóm 81.09), Antimon(Sb) (nhóm 81.10) và Mangan(Mn) (nhóm 81.11).', '(B) Berili(Be), crôm(Cr), hafini (Hf), reni (Re), Tali(TI), cađimi (Cd), gecmani(Ge), vanadi(V), gali(Ga), indi(In) và niobi (Nb) (columbi) (nhóm 81.12)', 'Chương này cũng bao gồm gốm kim loại (nhóm 81.13).', 'Các kim loại cơ bản không được mô tả trong chương này hoặc trong các chương trước thuộc phần XV thì được phân loại vào Chương 28.', 'Hầu hết các kim loại được phân loại trong chương này được sử dụng chủ yếu dưới dạng hợp kim hoặc dạng carbid (cacbua hoá) hơn là ở dạng tinh khiết. Việc phân loại những hợp kim như vậy tuân theo các quy tắc được trình bày trong chú giải 5 phần XV, các hợp chất cacbua kim loại bị loại trừ khỏi chương này.', '*', '*     *', 'Việc phân loại các hàng hoá phức hợp, đặc biệt là các mặt hàng đã hoàn thiện, được giải thích trong Chú giải Tổng quát của Phần XV.', 'Chú giải 8 Phần XV đã định nghĩa "Chất phế liệu và mảnh vụn" và "bột".', '81.01 – Vonfram và các sản phẩm làm từ vonfram, kể cả phế liệu và mảnh vụn.']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm một số loại sản phẩm đặc biệt làm từ kim loại cơ bản, mang tính chất của các dụng cụ, đồ nghề, dao, kéo, bộ đồ ăn..., chúng được loại trừ khỏi các chương trước của phần XV và chúng không phải là máy móc hoặc trang thiết bị thuộc Phần XVI (xem ở dưới) cũng không phải là dụng cụ hoặc thiết bị thuộc Chương 90, không phải là các sản phẩm thuộc nhóm 96.03 hoặc 96.04.', 'Chương này bao gồm:', '(A) Các dụng cụ được sử dụng bằng tay, ngoài các ngoại lệ đã được chi tiết (ví dụ: lưỡi cưa máy) (các nhóm 82.01 tới 82.05).', '(B) Bộ dụng cụ từ hai nhóm trở lên thuộc các nhóm từ 82.02 đến 82.05, đã đóng bộ để bán lẻ (nhóm 82.06).', '(C) Các dụng cụ có thể tháo lắp thay thế được dùng cho các dụng cụ cầm tay, dùng cho các máy công cụ hoặc dùng cho các dụng cụ cầm tay hoạt động bằng điện (nhóm 82.07), dao và lưỡi cắt cho các máy móc hoặc các thiết bị cơ khí (nhóm 82.08) và các chi tiết hình đĩa, thanh cỡ nhỏ, mũi chóp và các chi tiết tương tự dùng cho dụng cụ (nhóm 82.09).', '(D) Các mặt hàng dao, kéo (mục đích chuyên dùng, cho cá nhân hoặc mục đích gia dụng) một số các thiết bị cơ khí gia dụng, thìa và nĩa và bộ đồ ăn tương tự và các dụng cụ dùng trong nhà bếp (nhóm 82.10 tới 82.15).', 'Nhìn chung, Chương này bao gồm các dụng cụ có thể được sử dụng độc lập bằng tay, có thể có hoặc không việc chúng kết hợp với một số cơ chế đơn giản khác như bánh răng, tay quay điều khiển, pit tông, cơ cấu ren vít hoặc cần bẫy. Tuy nhiên các thiết bị nhìn chung được phân loại trong Chương 84 nếu chúng được thiết kế cho việc cố định vào một chiếc ghế, vào tường... hoặc nếu chúng được gắn với các tấm bệ, giá đỡ, khung chịu lực... để đứng trên sàn, trên ghế... do lý do về khối lượng kích cỡ hoặc mức độ dùng lực được đòi hỏi cho sự sử dụng của chúng.', 'Bởi vậy một chiếc khoan tay mà người công nhân sử dụng nó một cách thoải mái bằng tay, không có hỗ trợ là một dụng cụ được xếp trong nhóm 82.05 mặc dù nó bao gồm một cơ chế bánh răng đơn giản; mặt khác, một chiếc khoan thiết kế gắn với một giá đỡ hoặc khung chịu lực sẽ được phân loại trong nhóm 84.59. Tương tự, các dụng cụ cắt kim loại kiểu kìm được phân loại trong nhóm 82.03, trái lại dụng cụ cắt kiểu máy chém gắn một giá đỡ hoặc bệ tựa lại được phân loại trong nhóm 84.62 thậm chí nếu nó được sử dụng bằng tay.', 'Tuy nhiên, có các ngoại lệ đối với quy luật này, về cả 2 phương diện, tuỳ thuộc bản chất của dụng cụ. Như vậy những mỏ cặp, bánh mài kèm theo khung và bộ bệ rèn có thể di chuyển được được đặc biệt xếp vào nhóm 82.05. Tương tự như vậy một số dụng cụ cơ khí (Cối xay cà phê, máy ép hoa quả, cối xay thịt...) được phân loại trong nhóm 82.10 có những tiêu chuẩn đặc biệt áp dụng cho chúng (Xem phần chú giải dưới). Mặt khác, Chương 84 bao gồm những dụng cụ nhất định được sử dụng bằng tay một cách độc lập như những dụng cụ dùng để phun chất lỏng và bọt (nhóm 84.24), những dụng cụ chạy bằng khí nén (nhóm 84.67), máy đóng ghim văn phòng không phải kiểu súng lục (nhóm 84.72), một vài dụng cụ thiết bị ngày nay là những dụng cụ rất nhỏ khó có thể diễn tả do chúng có những tấm đế hoặc có giá đỡ.', '*', '*    *', 'Các dụng cụ, dao, kéo... nhìn chung không xếp trong chương này, trừ khi những dụng cụ đó có lưỡi, bề mặt làm việc hoặc bộ phận làm việc khác cấu tạo từ kim loại cơ bản, từ cácbua kim loại (Xem phần chú giải nhóm 28.49) hoặc từ gốm kim loại (Xem phần chú giải nhóm 81.13) miễn là chúng đáp ứng được điều kiện này, những dụng cụ này vẫn nằm trong chương thậm chí chúng có gắn những cán tay, hoặc phần thân không phải là kim loại có khối lượng vượt quá khối lượng của bộ phận làm việc được làm từ kim loại (ví dụ một cái bào bằng gỗ với một lưỡi bào kim loại).', 'Tuy vậy Chương này cũng bao gồm những dụng cụ mà bộ phận làm việc được làm từ đá tự nhiên, đá tổng hợp hoặc đá quý được tái tạo hoặc đá bán quý (ví dụ kim cương đen) gắn với một giá (bệ) đỡ là kim loại cơ bản, cácbua kim loại hoặc gốm kim loại; hơn nữa, trong một vài trường hợp nhất định, bộ phận làm việc có thể là kim loại cơ bản được gắn hoặc được bọc bằng các chất liệu chịu mòn.', 'Đối với những quy tắc chung này cũng có những ngoại lệ trong trường hợp của các dụng cụ nhất định, đã được đề cập riêng trong các nhóm(Ví dụ: Bệ rèn có thể di chuyển được và bánh mài gắn kèm theo giá đỡ). Hơn thế nữa, rất ít các loại dụng cụ mài nằm trong phạm vi của chương (Xem các phần chú giải thuộc các nhóm 82.02 và 82.07) do nhóm 68.04 gồm có bánh mài, các dụng cụ tương tự (Kể cả các thiết bị mài, mài sắc, đánh bóng, điều chỉnh và cắt...) làm từ đá tự nhiên, từ các chất chịu mòn đã thiêu kết, hoặc từ gốm có hoặc không có lõi, chuỗi, lỗ cắm, trục hoặc các dụng cụ tương tự bằng các chất liệu khác nhưng không có giá đỡ.', 'Các dụng cụ có thể tháo lắp thay thế được, làm từ kim loại cơ bản, dùng cho các dụng cụ cầm tay, dùng cho các máy công cụ hoặc dùng cho các dụng cụ cầm tay hoạt động bằng điện bị loại khỏi chương này bởi vì bộ phận làm việc không được làm bằng một trong những chất liệu cụ thể trong chú giải 1, được xếp theo vật liệu cấu thành của bộ phận làm việc. Ví dụ: Những bộ phận làm bằng cao su (Chương 40), bằng da (Chương 42), bằng da lông thú (Chương 43), bằng lie (Chương 45), bằng vải dệt (Chương 59), bằng các vật liệu gốm (nhóm 69.09). Các loại bàn chải để sử dụng trong các loại máy được phân loại trong nhóm 96.03.', 'Các bộ phận là kim loại Cơ bản có thể xác định được của các dụng cụ, dao kéo... (Ví dụ: các khung cưa, lưỡi bào) thông thường được phân loại trong những nhóm tương tự như các mặt hàng hoàn thiện. Quy tắc này tuy nhiên không áp dụng đối với các bộ phận là đối tượng thuộc một nhóm đặc biệt. Các dây xích, đinh, bulông, đai ốc, vít, đinh tán, lò xo (Ví dụ: dùng trong: kéo cắt cành) và các bộ phận có công dụng chung khác như định nghĩa ở chú giải 2 phần XV bị loại trừ khỏi chương này và nằm trong các chương phù hợp (các Chương 73 tới 76 và 78 tới 81).', 'Bộ dao kéo và các mặt hàng khác được phân loại trong nhóm 82.08 tới 82.15 có thể gắn đầu tỉa nhỏ bằng kim loại quý hoặc kim loại dát bằng kim loại quý (ví dụ: chữ lồng hoặc giải nẹp) tuy nhiên nếu chúng bao gồm các bộ phận khác (ví dụ: cán hoặc lưỡi) bằng kim loại quý hoặc nếu chúng chứa đựng các hạt ngọc trai tự nhiên hoặc nhân tạo (nuôi), hoặc các loại đá quý, hoặc bán quý (tự nhiên, tổng hợp hoặc tái chế) (trừ các bộ phận làm việc miêu tả ở trên) chúng được phân loại trong Chương 71.', '*', '*    *', 'Chương này không bao gồm:', '(a) Các dụng cụ, kéo và các bộ dụng cụ cắt khác thuộc loại được sử dụng như các thiết bị hoặc dụng cụ dùng cho ngành y, nha khoa, phẫu thuật hoặc thú y (nhóm 90.18).', '(b) Các dụng cụ rõ ràng mang tính chất đồ chơi (Chương 95).', '82.01 – Dụng cụ cầm tay, gồm: mai xẻng, cuốc chim, cuốc, dụng cụ xới và làm tơi đất, chĩa và cào; rìu, câu liêm và các dụng cụ tương tự dùng để cắt chặt; kéo cắt cây và kéo cắt tỉa các loại; hái, liềm, dao cắt cỏ, kéo tỉa xén hàng rào, cái nêm gỗ và các dụng cụ khác dùng trong nông nghiệp, làm vường hoặc trong lâm nghiệp.', '8201.10- Mai và xẻng']</t>
-  </si>
-  <si>
-    <t>['TỔNG QUÁT', 'Trong khi từ các Chương 73 đến 76 và 78 đến 81 là các sản phẩm được phân loại theo một kim loại cụ thể, thì Chương này tương tự như chương 82, bao gồm các mặt hàng cụ thể bất kể loại kim loại cơ bản mà chúng cấu thành.', 'Nhìn chung, các bộ phận bằng kim loại cơ bản được phân loại theo sản phẩm gốc (xem Chú giải 1 của Chương). Tuy nhiên, chương này không bao gồm các loại lò xo (kể cả loại chuyên dụng để làm khóa), xích, dây cáp, đai ốc, bu lông, vít và các loại đinh; các mặt hàng này được phân loại trong nhóm tương ứng ở các Chương 73 đến 76 và từ 78 đến 81 (xem Chú giải 2 của Phần XV và Chú giải 1 của Chương này).', '83.01- Khóa móc và ổ khóa (loại mở bằng chìa, số hoặc điện), bằng kim loại cơ bản; móc cài và khung có móc cài, đi cùng ổ khóa, bằng kim loại cơ bản; chìa của các loại khóa trên, bằng kim loại cơ bản (+).']</t>
+    <t>['TỔNG QUÁT', 'Chương này bao gồm:', '(1) Trong các nhóm từ 71.01 đến 71.04, ngọc trai tự nhiên hoặc nhân tạo, kim cương, các loại đá quý hoặc đá bán quý khác (tự nhiên, tổng hợp hoặc tái tạo), ngọc trai thô hoặc ngọc trai thô, nhưng chưa được gắn, nạm dát hoặc xâu chuỗi; trong nhóm 71.05, phế liệu từ quá trình gia công các loại đá cũng nằm trong nhóm này.', '(2) Trong các nhóm từ 71.06 đến 71.11, các kim loại quý và kim loại được phủ kim loại quý, chưa được gia công, bán thành phẩm, hoặc ở dạng bột, nhưng chưa đạt tới mức của các sản phẩm được phân loại trong phân Chương III, và trong nhóm 71.12, phế liệu và phế thải của kim loại quý hoặc kim loại được phủ kim loại quý, và phế liệu và phế thải chứa kim loại quý hoặc các hợp chất kim loại quý, của một loại chủ yếu được sử dụng để thu lại kim loại quý.', 'Theo Chú giải 4 của Chương này, khái niệm "kim loại quý" có nghĩa là bạc, vàng và bạch kim. cần chú ý rằng thuật ngữ "platinum" cũng bao gồm iridi (Ir), osmi (Os), paladi (Pd), rodi (Rh) và ruteni (Ru).', 'Theo Chú giải 5 của chương này, các hợp kim (trừ các hỗn hợp - nhóm 28.43) có chứa các kim loại quý thì được phân loại như sau:', '(A) Là hợp kim bạch kim - nếu chứa 2% trọng lượng trở lên là bạch kim.', '(B) Là hợp kim vàng, nếu chứa 2% trọng lượng trở lên là vàng, nhưng không có bạch kim hoặc dưới 2% trọng lượng là bạch kim.', '(C) Là hợp kim bạc, nếu các hợp kim khác có chứa 2% trọng lượng trở lên là bạc.', '(D) Là hợp kim kim loại cơ bản (phần XV) - tất cả các hợp kim có chứa dưới 2% trọng lượng là bạch kim và dưới 2% trọng lượng là vàng và dưới 2% trọng lượng là bạc.', 'Theo Chú giải 6 của Chương này, trừ khi có các yêu cầu khác, khi tham chiếu tới kim loại quý thì cũng phải tham chiếu cả các hợp kim của nó như được nhắc đến ở mục (A), (B) và (C) trên đây, nhưng không áp dụng với kim loại được phủ kim loại quý, và cũng không tham chiếu đến các kim loại cơ bản hoặc phi kim loại có mạ bạc, vàng hoặc bạch kim.', 'Theo Chú giải 7 của Chương này, khái niệm "kim loại được phủ kim loại quý" có nghĩa là các vật liệu được làm từ kim loại cơ bản. Trên một hoặc nhiều mặt của kim loại đó được phủ một lớp kim loại quý có độ dày tùy ý bằng cách hàn thiếc, hàn đồng thau, hàn hơi, hàn điện, cán nóng hoặc các phương pháp cơ khí tương tự.', 'Các tấm và tấm mỏng, các thanh,... bằng kim loại mạ kim loại quý thường được chế tạo bằng cách phủ kim loại quý lên một hoặc cả hai mặt kim loại nền, "hàn" hai kim loại với nhau và sau đó cán chúng.', 'Dây thép mạ kim loại quý thu được bằng cách lồng một lõi kim loại cơ bản vào trong một ống kim loại quý, sau đó "hàn" hai kim loại đó với nhau và sau đó kéo chúng qua một khuôn kéo dây.', 'Trừ khi có yêu cầu khác, các sản phẩm kim loại cơ bản được dát khảm kim loại quý cũng được phân loại như các sản phẩm kim loại mạ kim loại quý (ví dụ: các tấm đồng được dát khảm các dải bạc để sử dụng trong công nghiệp điện, và sản phẩm được gọi là gia công kiểu Damas thép dát các dải hoặc các sợi đã được rèn)', 'Kim loại được phủ kim loại quý, như được định nghĩa trong chương này, không được nhầm lẫn với các kim loại cơ bản được mạ kim loại quý bằng cách điện phân, làm lắng đọng hơi, phun hoặc nhúng chìm trong một dung dịch muối của kim loại quý,.... Những kim loại cơ bản được mạ như vậy được phân loại trong các chương dành cho chúng bất kể chiều dày của lớp mạ.', 'Chương này cũng không bao gồm:', '(a) Các kim loại quý ở dạng keo hoặc các hỗn hợp của kim loại quý (nhóm 28.43).', '(b) Các đồng vị phóng xạ (ví dụ: iridi 192) bao gồm các kim loại quý ở dạng kim, sợi chỉ hoặc tấm mỏng có chứa các đồng vị phóng xạ (nhóm 28.44).', '(c) Các hợp kim chế tạo đặc biệt cho các chất hàn răng (nhóm 30.06).', '(3) Thông thường, các sản phẩm được làm toàn bộ hoặc từng phần bằng ngọc trai tự nhiên hoặc nhân tạo, kim cương hoặc đá quý hoặc đá bán quý khác (tự nhiên, tổng hợp hoặc tái tạo), các kim loại quý hoặc kim loại phủ kim loại quý (thuộc các nhóm 71.13 đến 71.16). Đặc biệt, nhóm này bao gồm đồ trang sức và đồ trang sức bằng vàng hoặc bạc (xem Chú giải của các nhóm 71.13 và 71.14) nhưng nhóm này không bao gồm:', '(a) Các sản phẩm được nêu trong Chú giải 3 của Chương này.', '(b) Các sản phẩm khác mà trong đó các bộ phận bằng kim loại quý hoặc kim loại mạ kim loại quý chỉ là các thành phần phụ, chẳng hạn như các đồ lắp ráp phụ (ví dụ: các chữ lồng, vòng sắt đệm, măng sông và vành viền), với điều kiện các hàng hóa này không chứa ngọc trai tự nhiên hoặc nhân tạo, kim cương, hoặc đá quý hoặc đá bán quý khác (tự nhiên, tổng hợp hoặc tái tạo).', 'Dao, dao nhíp, bộ dụng cụ dao chạm trổ, dao cạo và các mặt hàng dao kéo khác với các cán bằng kim loại cơ bản hoặc phi kim loại, vì vậy được phân loại trong Chương 82, ngay cả khi chúng có các chữ viết tắt, các chữ lồng, đai chuôi,... bằng kim loại quý hoặc bằng kim loại mạ kim loại quý; (đồ dao kéo tương tự với cán cầm bằng kim loại quý hoặc bằng kim loại mạ kim loại quý được phân loại trong chương này).', 'Theo cách tương tự, bát, bình và các đồ sứ khác, bộ đồ ăn bằng sứ hoặc thủy tinh được phân loại trong Chương 69 hoặc Chương 70, ngay cả khi chúng có các đồ lắp ráp phụ hoặc trang trí (ví dụ: vành, viền) bằng kim loại quý hoặc kim loại mạ kim loại quý.', 'Nhóm này cũng không bao gồm các sản phẩm bằng kim loại cơ bản hoặc phi kim loại được mạ kim loại quý (trừ các sản phẩm bằng kim loại được phủ kim loại quý).', '(4) Đồ trang sức làm bằng chất liệu khác (nhóm 71.17) như đã được định nghĩa trong Chú giải 11 của Chương này (xem Chú giải tương ứng), trừ các mặt hàng được xác định trong Chú giải 3 của Chương này.', '(5) Tiền kim loại (thuộc nhóm 71.18), trừ các đồ sưu tập quý hiếm của các nhà sưu tập (thuộc nhóm 97.05).', 'PHÂN CHƯƠNG I', 'NGỌC TRAI TỰ NHIÊN HOẶC NUÔI CẤY VÀ ĐÁ QUÝ HOẶC ĐÁ BÁN QUÝ']</t>
+  </si>
+  <si>
+    <t>['TỔNG QUÁT', 'Phân chương bao gồm:', '(1) Các vật liệu thô của luyện kim sắt và gang (gang thỏi, gang kính, hợp kim fero, các sản phẩm chứa sắt được hoàn nguyên trực tiếp từ quặng sắt và các sản phẩm sắt xốp khác, phế liệu và mảnh vụn và thỏi đúc phế liệu nấu lại) và sắt có hàm lượng nguyên chất tối thiểu 99.94 % (nhóm 72.01 tơi 72.04).', '(2) Hạt và bột của gang thỏi, gang kính, sắt hoặc thép (nhóm 72.05).']</t>
+  </si>
+  <si>
+    <t>['TỔNG QUÁT', 'Chương này bao gồm đồng và hợp kim của nó và các sản phẩm chủ yếu bằng đồng.', 'Đồng được chiết tách từ nhiều loại quặng khác nhau (xem chú giải cho nhóm 26.03) và cũng được làm từ kim loại ở trạng thái ban đầu, hoặc được tái chế từ phế liệu và mảnh vụn.', 'Đồng được sản xuất từ quặng sunphua của nó bằng quá trình tách khô mà trong đó quặng đã được nghiền thành dạng bột và tuyển chọn được thiêu kết tới độ cần thiết để loại lưu huỳnh và nấu chảy trong lò nung để tạo ra đồng thô (đồng sten) hoặc đồng chưa luyện.', 'Trong một vài trường hợp, quặng đã tuyển làm đậm đặc được nấu chảy trong lò nung chảy có thổi không khí hoặc ôxy ("Chảy đốt cháy") không có sự thiêu kết nung ban đầu.', 'Hỗn hợp kim loại này được xử lý trong một lò chuyển để loại hầu hết sắt, lưu huỳnh và thu được các sản phẩm "đồng rỗ" (được gọi như vậy vì nó có bề mặt xù xì, rỗ). Đồng rỗ được tái tinh luyện trong lò lửa quặt để thu được đồng tinh luyện bằng lửa và tuỳ theo yêu cầu, có thể được tái tinh luyện hơn nữa bằng điện phân.', 'Người ta thường sử dụng qui trình ướt (lọc) cho các quặng oxit và cũng cho các quặng khác và xỉ (xem Chú giải nhóm 74.01).', '*', '*    *', 'Đồng rất mềm dẻo và dễ uốn; đồng là kim loại sau bạc, có độ dẫn nhiệt và dẫn điện tốt nhất. Đồng được sử dụng ở trạng thái tinh khiết, đặc biệt ở dạng dây để sử dụng làm dây điện hoặc ở dạng cuộn hoặc dạng tấm như một bộ phận làm lạnh, nhưng nó chủ yếu được sử dụng ở dạng hợp kim cho các mục đích thông dụng.', '*', '* *', 'Theo điều khoản của Chú giải 5 của Phần XV (xem Chú giải tổng quát cho Phần đó) các hợp kim đồng và các kim loại cơ bản có thể được phân loại theo đồng, bao gồm:', '(1)  Hợp kim trên cơ sở đồng-kẽm (đồng thau) (xem Chú giải phân nhóm 1 (a)) với các phần khác nhau của đồng và kẽm, ví dụ: đồng thau thông thường được sử dụng cho nhiều mục đích; kim loại dát vàng (đồng tombac) được sử dụng đặc biệt trong sản xuất đồ kim hoàn giả và các hàng hoá trang hoàng.', 'Hợp kim đồng-kẽm có chứa lượng nhỏ các nguyên tố khác tạo thành dạng đồng thau đặc biệt với các đặc tính đặc trưng. Đồng thau đặc biệt bao gồm đồng thau có độ bền cao (thường hiểu là đồng mangan), được sử dụng trong đóng tầu, và cả đồng thau chì, đồng thau sắt, đồng thau nhôm, và đồng thau silic.', '(2) Hợp kim trên cơ sở đồng-thiếc (đồng thanh), (xem Chú giải Phân nhóm 1 (b)), đôi khi có chứa các nguyên tố khác mà chúng tạo ra các đặc tính đặc biệt. Đồng thanh bao gồm đồng thanh dùng cho đúc tiền, đồng thanh cứng cho bánh răng hộp số, ổ trục hoặc các bộ phận máy móc khác; kim loại đúc chương; đồng thanh cho điêu khắc; đồng thanh mạ chì sử dụng làm ổ trục, đồng thanh phospho (hoặc đồng thanh đã khử ôxy) được sử dụng trong sản xuất lò xo, luới dây đan cho lọc, sàng...', '(3) Hợp kim trên cơ sở kẽm đồng-niken (bạc niken) (xem Chú giải Phân nhóm 1 (c) ) có tính chống ăn mòn tốt và bền. Hợp kim này thường được sử dụng chủ yếu trong thiết bị viễn thông (trong công nghiệp điện thoại ngoài các mặt hàng khác); các ứng dụng khác bao gồm để chế phụ kiện máy trong thiết bị, vòi nuớc và phụ kiện cho hệ thống ống cao cấp, làm khoá kéo, ứng dụng đa dạng trong công nghiệp điện như cái kẹp đầu dây, lò xo, đầu nối, phích điện..., kết cấu kim loại trong trang trí và kiến trúc, thiết bị chế biến hoá chất và thực phẩm. Một số loại nhất định của hợp kim này cũng được sử dụng trong sản xuất bộ đồ ăn ...', '(4) Hợp kim trên cơ sở đồng-niken (đồng-kền), xem Chú giải Phân nhóm 1 (d) ), chúng thường có chứa lượng nhỏ của nhôm hoặc sắt. Hợp kim này đại diện cho loại hợp kim có đặc tính chống ăn mòn của nuớc biển, vì lý do như vậy nó được sử dụng rộng rãi trong các ứng dụng đa dạng của ngành hàng hải và đóng tầu, đặc biệt cho các bộ phận ngưng tụ hoặc đường ống và trong sản xuất tiền kim loại hoặc điện trở.', '(5) Đồng thanh nhôm bao gồm chủ yếu đồng pha thêm với nhôm và được sử dụng trong kỹ thuật mà ở đó độ bền cao, độ chống ăn mòn và độ cứng là yếu tố quan trọng.', '(6) Đồng beryli (đôi khi được gọi là đồng thanh beryli) bao gồm chủ yếu đồng pha với beryli và do có độ cứng, độ bền cao và tính chống ăn mòn nên được sử dụng làm nhiều dạng lò xo, cũng như làm khuôn đúc plastic, điện cực hàn bấm và cho dụng cụ không gây tia lửa.', '(7) Đồng - Silic bao gồm cơ bản đồng và pha thêm silic và có độ bền cao và chống ăn mòn. Nó được sử dụng, ví dụ: cho sản xuất bồn chứa, bulông và móc.', '(8) Đồng crom chủ yếu sử dụng làm điện cục hàn bấm.', '*', '*    *', 'Chương này bao gồm:', '(A) Sten và các sản phẩm trung gian của luyện đồng, đồng chưa gia công, đồng phế liệu và mảnh vụn (nhóm 74.01 đến 74.05).', '(B) Bột và vảy đồng (nhóm 74.06).', '(C) Các sản phẩm thường thu được bởi cán, ép, kéo hoặc rèn đồng của nhóm 74.03 (nhóm 74.07 đến 74.10).', '(D) Các mặt hàng khác đã chi tiết hoá ở nhóm 74.11 đến 71.18 và các mặt hàng khác xếp vào nhóm 74.19 bao gồm tất cả các mặt hàng bằng đồng khác trừ loại đã bao gồm bởi Chú giải 1 Phần XV hoặc các loại thuộc Chương 82 hoặc 83, hoặc đã chi tiết hoá hơn ở nơi khác trong Danh mục.', 'Các sản phẩm và các mặt hàng đồng thường phải trải qua nhiều cách xử lý khác nhau để cải thiện đặc tính hoặc bề mặt của kim loại v.v. Những xử lý này, thông thường được tham khảo ở chú giải chung cho Chương 72 và không ảnh hưởng đến việc phân loại hàng hoá.', '*', '*    *', 'Sự phân loại của hàng hoá phức hợp, đặc biệt hàng hoá lắp ghép được giải thích ở Chú giải tổng quát phần XV.', '74.01 – Sten đồng, đồng xi măng hóa (đồng kết tủa).', '(A) Sten đồng.', 'Thu được bằng cách nung chảy quặng đồng sunphua đã thiêu kết để phân tách đồng sunphua từ quặng nghèo và các kim loại khác để hình thành một loại xỉ, nổi trên bề mặt của sten. Sten bao gồm phần chính là đồng và sắt sunphua và thông thường ở dạng hạt màu đen hoặc nâu (thu được bằng cách bởi rót sten nóng chảy vào nước) hoặc ở dạng khối thô với bề ngoài ánh kim, xỉn.', '(B) Đồng xi măng hóa (Đồng kết tủa).', 'Đồng xi măng hóa (đồng kết tủa) là một sản phẩm thu được bởi sự kết tủa (sự xi măng hóa), ví dụ bằng cách thêm sắt vào dung dịch nước thu được từ ngâm chiết quặng nung hoặc cặn lắng. Sản phẩm này là bột màu đen phần mịn có chứa oxit và tạp chất không hoà tan. Sản phẩm này đôi khi được sử dụng trong sơn chống bẩn, và thuốc diệt nấm trong nông nghiệp, nhưng nó thường được thêm vào mẻ liệu trong lò nung chảy để sản xuất sten đồng.', 'Đồng kết tủa không được nhầm lẫn với bột đồng của nhóm 74.06, là loại không chứa tạp chất.', '74.02 – Đồng chưa tinh luyện; cực dương đồng dùng cho điện phân tinh luyện.', 'Nhóm này bao gồm:', '(1)  Đồng đen. Sản phẩm này bao gồm dạng không tinh khiết của đồng tạo ra bằng cách nấu chảy quặng đồng đã ô xy hoá hoặc mảnh vụn đồng không tinh khiết trong lò cao. Hàm lượng đồng thay đổi đáng kể, thường ở khoảng xấp xỉ 60 đến 85% tính theo khối lượng.', '(2) Đồng xốp. Sản phẩm này bao gồm dạng không tinh khiết của đồng sản xuất bằng cách thổi luồng không khí qua sten đồng nung chảy. Trong quá trình đảo, lưu huỳnh, sắt và tạp chất khác bị ô xy hoá. Hàm lượng đồng thường ở khoảng 98% tính theo khối lượng.', '(3) Anod đồng (đồng cực dương) dùng cho điện phân tinh luyện.', 'Đồng tinh luyện từng phần bằng cách nung chảy hoàn toàn được đổ khuôn thành Anod để tinh luyện tiếp bằng điện phân. Các anod này thường ở dạng khuôn hình tấm, phiến với hai phần gò (mấu) để treo chúng trong bể điện phân tinh luyện. Chúng không được nhầm lẫn với Anod để mạ đồng điện phân (nhóm 74.19).', '74.03- Đồng tinh luyện và hợp kim đồng, chưa gia công.', '- Đồng tinh luyện:', '7403.11 - - Ca-tốt và các phần của ca- tốt', '7403.12 - - Thanh để kéo dây', '7403.13 - - Que', '7403.19 - - Loại khác', '- Hợp kim đồng:', '7403.21 - - Hợp kim đồng-kẽm (đồng thau)', '7403.22 - - Hợp kim đồng-thiếc (đồng thanh)', '7403.29 - - Hợp kim đồng khác (trừ hợp kim đồng chủ thuộc nhóm 74.05)', 'Nhóm này bao gồm đồng đã tinh luyện và hợp kim đồng chưa gia công như định nghĩa tương ứng ở Chú giải 1 (a) và 1 (b) của Chương.', 'Đồng tinh luyện có chứa ít nhất 99,85% tính theo khối lượng đồng thu được bởi điện phân tinh luyện, chiết điện phân, tinh luyện hoá học hoặc tinh luyện bằng ngọn lửa. Dạng đồng tinh luyện khác (có chứa ít nhất 97,5% tính theo khối lượng đồng) thường được tạo ra bằng cách hợp kim hóa đồng tinh luyện đã nêu ở trên với một hoặc nhiều nguyên tố tới hàm lượng giới hạn cực đại đã chỉ ra ở bảng trong Chú giải 1 (a) của Chương.', 'Đồng tinh luyện là dạng đúc thành thỏi hoặc thỏi thanh để tái nung chảy (ví dụ để tạo hợp kim), hoặc ở dạng thanh dây, tấm để cán, que (bao gồm cả loại có mặt cắt ngang hình tròn) và dạng tương tự để cán, ép đùn, kéo hoặc rèn thành dạng tấm, lá, dải, dây, ống hoặc các sản phẩm khác.', 'Đồng tinh luyện điện phân đôi khi ở dạng cathod, gồm các tấm, bản lá với hai cái móc, bằng những móc này mà các phiến, tấm trên được treo trong bể tinh luyện điện phân, hoặc dạng không có móc, hoặc cắt thành hình.', 'Đồng tinh luyện cũng có thể ở dạng viên được sử dụng chủ yếu cho mục đích tạo hợp kim và đôi khi cho nghiền thành bột. Tuy nhiên, bột đồng và vảy đồng được phân loại ở nhóm 74.06.', 'Nhóm này còn bao gồm dạng thỏi, thanh, que, được đúc và thiêu kết ... với điều kiện chúng không được gia công sau khi sản xuất ngoài việc cắt sửa đơn giản hoặc cạo gỉ (loại bỏ phần hoặc bề mặt phía trên chứa phần lớn đồng oxit) hoặc bằng cách cạo, đục, nghiền,... để loại bỏ các khuyết tật đúc hoặc các khuyết tật khi đông rắn lại hoặc được gia công một mặt nhằm mục đích kiểm tra (kiểm tra chất lượng).', 'Các sản phẩm thiêu kết thu được từ bột đồng hoặc bột hợp kim đồng hoặc từ bột đồng trộn với các loại bột kim loại khác, bởi nén ép (khối) và thiêu kết (đốt nóng tới nhiệt độ thích hợp dưới điểm chảy của kim loại). Ở trạng thái thiêu kết, các sản phẩm ở dạng xốp, độ bền thấp và thường được cán, ép đùn, rèn v.v... để đạt được độ xếp chặt cần thiết. Các sản phẩm này được cán v.v..., bị loại trừ (ví dụ các nhóm 74.07, 74.09).', 'Nhóm này cũng bao gồm thanh dây, que với các đầu mút được vuốt thon hoặc gia công đơn giản khác làm cho thuận tiện đưa vào máy móc để biến đổi chúng thành dạng khác, ví dụ: dạng dây nguyên liệu (dây cuộn) hoặc ống.', 'Tuỳ theo các điều kiện đã chỉ ra ở trên liên quan đến gia công sau khi chế tạo, các thanh và que đúc của nhóm này có thể bao gồm, đặc biệt là:', '(1) Các sản phẩm (thông thường được hiểu là “jets”) đúc chính xác trong khuôn đúc đặc biệt sản phẩm có mặt cắt hình tròn, hình vuông hoặc hình lục giác và thông thường có chiều dài không quá 1m.', '(2) Các sản phẩm dài hơn thu được bởi quá trình đúc liên tục, ở quá trình này kim loại nóng chảy được đổ liên tục vào khuôn được làm mát bằng nước, ở đó nó nhanh chóng kết rắn lại.', 'Cả "Jets" và các thanh đúc liên tục thường được sử dụng cho mục đích tương tự như cán, kéo hoặc đùn các thanh.', '74.04 Phế liệu và mảnh vụn của đồng.', 'Nội dung chú giải nhóm 72.04 quy định phế liệu và mảnh vụn của sắt được áp dụng, với những sửa đổi phù hợp, cho nhóm này, ngoại trừ tro và xỉ đồng thuộc nhóm 26.20. Đồng phế liệu của nhóm này bao gồm cặn kéo chuốt, thu được từ kéo chuốt đồng và chứa chủ yếu là bột đồng trộn với dầu nhờn sử dụng cho quá trình kéo chuốt.', 'Nhóm này không bao gồm các loại thỏi thô hoặc các dạng chưa gia công tương tự đúc từ phế liệu đồng và mảnh vụn đồng nấu chảy lại (nhóm 74.03).', '74.05 Hợp kim đồng chủ.', 'Hợp kim chủ này được định nghĩa ở Chú giải Chương 1(c).', 'Hợp kim chủ của nhóm này là những hợp kim có chứa hơn 10% tính theo khối lượng là đồng với các nguyên tố khác, do thành phần của chúng như vậy nên chúng quá giòn cho việc gia công kim loại thông thường. Bởi vậy chúng được sử dụng đưa vào thành đồng thau, đồng thanh hoặc đồng nhôm hoặc với các nguyên tố khác có điểm nóng chảy cao hơn hợp kim này hoặc các nguyên tố có tính ô xy hoá cao (ví dụ: nhôm, catmi, asen, magie) hoặc các nguyên tố dễ cháy hao ở nhiệt độ nóng chảy hoặc đặc tính khác nữa để tiện lợi cho việc chế biến hợp kim nào đó bằng cách thêm chất khử ô xy, khử lưu huỳnh hoặc các nguyên tố tương tự (ví dụ: canxi).', 'Đồng đóng vai trò như dung môi hoặc chất pha loãng các nguyên tố khác và phải có hàm lượng đủ để làm giảm độ nóng chảy hoặc tác dụng ô xy hoá hoặc cháy hao của hợp kim chủ. Tuy nhiên nếu hàm lượng đồng quá cao, kim loại này hoà tan quá nhiều những nguyên tố khác vào hợp kim. Trong vật liệu này hàm lượng đồng thường từ 30 đến 90%, nhưng trong trường hợp đặc biệt, có thể vượt quá giới hạn này.', 'Vì vậy nhóm này loại trừ hợp kim niken đồng, ngay cả khi được sử dụng như một hợp kim đồng chủ, do hợp kim đồng- niken dễ cán và rèn ở bất kỳ hàm lượng nào. Trong khi các hợp kim như hợp kim đồng - mangan và đồng silic, có dễ cán và rèn không là tuỳ thuộc vào hàm lượng của các kim loại cấu thành; chỉ xếp ở đây những hợp kim hầu như không thể cán hoặc rèn.', 'Những hợp kim đồng chủ của nhóm này bao gồm đồng nhôm, đồng beryli, đồng bo, đồng catmi, đồng crom, đồng sắt, đồng magie, đồng mangan, đồng molybđen, đồng silic, đồng titan hoặc đồng vanađi.', 'Hợp kim chủ thường ở dạng khối nhỏ hoặc dạng bánh đã phân chia-để dễ gẫy, que dòn hoặc dạng viên và có hình dáng bề ngoài của các sản phẩm đúc thô.', 'Đồng photphua (phosphor copper) có chứa trên 15% tính theo khối lượng của phospho được xếp vào nhóm 28.53.', '74.06 – Bột và vảy đồng', '7406.10 – Bột không có cấu trúc lớp', '7406.20 – Bột có cấu trúc lớp; vảy đồng', 'Nhóm này bao gồm các loại bột đồng như định nghĩa ở Chú giải 8 (b) Phần XV và vảy đồng, trừ đồng xi măng hoá (đồng kết tủa), chúng là loại bột màu đen thuộc nhóm 74.01. Theo các điều khoản của Chú giải 7 Phần XV, nhóm này cũng bao gồm bột đồng trộn với các bột kim loại cơ bản khác (ví dụ "bột đồng thanh" bao gồm hỗn hợp đơn giản của bột đồng và bột thiếc).', 'Bột đồng thu được chủ yếu bằng phương pháp mạ lắng âm cực hoặc bằng cách phun (ví dụ bằng cách phun một dòng tia nhỏ kim loại nóng chảy vào vùng có nước, hơi nước, không khí hoặc khí khác đang phun ngang với vận tốc cao).', 'Thêm vào 2 quá trình chính ở trên, bột đồng cũng có thể được sản xuất ở quy mô nhỏ hơn bằng khử khí của oxit đã phân chia mịn, bởi kết tủa của một số dung dịch hoặc thể rắn đã nghiền nhỏ. Bột có cấu trúc lớp và vảy thường được tạo ra bằng nghiền phiến lá mỏng. Hình dạng của cấu trúc lớp có thể nhìn bằng mắt thường hoặc qua kính lúp trong trường hợp là vảy và phải sử dụng kính hiển vi để quan sát cho loại bột thực sự.', 'Phương pháp sản xuất quyết định các đặc tính như kích thước hạt và hình dạng (chúng có thể ít hoặc nhiều không đồng đều, dạng hình cầu hoặc cấu trúc lớp). Bột có cấu trúc lớp và vảy thường được tạo ra bằng nghiền phiến lá mỏng thường bóng và có thể có dấu vết của các chất mỡ hoặc sáp (ví dụ: axit stearic hoặc sáp paraphin) sử dụng trong qui trình sản xuất của chúng.', 'Bột được sử dụng cho nén ép và thiêu kết để sản xuất ổ trục, bạc ổ trục và nhiều chi tiết kỹ thuật khác. Chúng cũng được sử dụng như thuốc thử hoá học hoặc thuốc thử luyện kim, cho hàn chảy và hàn đồng, trong sản xuất xi măng đặc biệt, cho phủ bề mặt các chất phi kim loại làm cơ sở cho mạ điện v.v. Bột dạng vảy được sử dụng chủ yếu như chất màu kim loại trong sản xuất mực và sơn. Dạng vảy được sử dụng trực tiếp như màu kim loại bằng cách thổi, ví dụ thổi lên trên bề mặt đã đánh vécni để chúng bám chặt ở đó.', 'Nhóm này không bao gồm:', '(a) Một sản phẩm đôi khi được gọi là "đồng thanh" hoặc "vàng", chúng thường ở dạng vảy hoặc bột và được dùng trong sản xuất sơn, nhưng thực tế chúng là Các hợp chất hoá học, như muối antimon, thiếc disunphua... (Chương 28, hoặc Chương 32) nếu ở dạng sơn đã điều chế).', '(b) Bột hoặc vảy điều chế làm chất màu, sơn hoặc dạng tương tự (ví dụ được tạo thành với chất màu khác hoặc được đóng dưới dạng nhũ tương, dạng phân tán hoặc dạng bột nhão với chất kết dính hoặc dung môi) (Chương 32).', '(c) Đồng dạng hạt của nhóm 74.03.', '(d) Hoa văn cắt từ đồng lá (nhóm 83.08).', '74.07 – Đồng ở dạng thanh, que và dạng hình.', '7407.10 - Bằng đồng tinh luyện', '- Bằng hợp kim đồng:', '7407.21 - - Bằng hợp kim đồng kẽm (đồng thau)', '7407.29 - - Loại khác', 'Thanh và que đã được định nghĩa ở Chú giải 9 (a) Phần XV và dạng hình ở Chú giải 9 (b) Phần XV.', 'Sản phẩm của nhóm này thường thu được bằng cách cán, ép đùn hoặc kéo, nhưng cũng có thể thu được bằng rèn (với máy ép hoặc búa). Rồi sau đó chúng có thể được hoàn thiện nguội (nếu cần sau khi ủ) bằng cách kéo nguội, duỗi thẳng hoặc cách khác để sản phẩm có độ chính xác cao hơn. Chúng cũng có thể được gia công (ví dụ: khoan, đột, xoắn đôi hoặc gấp nếp, miễn là chúng không làm cho hàng hoá hoặc của sản phẩm có đặc tính của các nhóm khác. Nhóm này cũng bao gồm hình rỗng gồm ống và ống dẫn có gờ hoặc rãnh được tạo bởi ép đùn. Tuy nhiên, ống và ống dẫn có gờ hoặc rãnh được ghép nối vào, ví dụ bằng cách hàn, bị loại trừ - thông thường ở nhóm 74.19.', 'Thanh và que thu được bằng cách đúc (bao gồm cả loại gọi là "Jets" và các thanh đúc liên tục) hoặc bằng thiêu kết thì xếp vào nhóm 74.03 với điều kiện chúng không được gia công sau khi chế tạo ngoại trừ cắt sửa đơn giản hoặc cạo gỉ. Tuy nhiên, nếu được gia công vượt quá trạng thái này thì chúng vẫn được phân loại ở nhóm này, miễn là chúng không có đặc tính của hàng hoá hoặc sản phẩm của các nhóm khác.', 'Thanh dây và cây với các đầu của chúng đã được chuốt nhọn hoặc gia công khác đơn giản để thuận tiện khi đưa chúng vào máy móc để chuyển đổi chúng thành dạng khác, ví dụ: dạng dây nguyên liệu (dây cuộn) hoặc ống thì được phân loại ở nhóm 74.03.', '74.08 – Dây đồng.', '- Bằng đồng tinh luyện:', '7408.11 - - Có kích thước mặt cắt ngang tối đa trên 6 mm', '7408.19 - - Loại khác', '- Bằng hợp kim đồng:', '7408.21 - - Bằng hợp kim đồng kẽm (đồng thau)', '7408.22 - - Bằng hợp kim đồng niken (đồng kền) hoặc hợp kim đồng-niken-kẽm (bạc niken)', '7408.29 - - Loại khác', 'Chú giải 9(c) Phần XV định nghĩa dây.', 'Dây thu được bởi cán, ép đùn nén hoặc kéo chuốt và ở dạng cuộn. Phần thứ 2 của chú giải nhóm 74.07 được áp dụng, với những sửa đổi phù hợp.', 'Nhóm này không bao gồm:', '(a) Dây đồng đã tiệt trùng rất mảnh được sử dụng cho phẫu thuật khâu vết thương (nhóm 30.06).', '(b) Sợi trộn kim loại của nhóm 56.05.', '(c) Dây xe hoặc sợi bện được gia cố với dây (nhóm 56.07).', '(d) Dây bện tao, cáp và hàng hoá khác của nhóm 74.13.', '(e) Điện cực hàn được phủ... (nhóm 83.11)', '(f) Dây cách điện và cáp (bao gồm cả dây tráng men) (nhóm 85.44).', '(g) Dây nhạc cụ (nhóm 92.09).', '74.09 – Đồng ở dạng tấm, lá và dải, có chiều dày trên 0,15 mm.', '- Bằng đồng tinh luyện:', '7409.11 - - Dạng cuộn', '7409.19 - - Loại khác', '- Bằng hợp kim đồng-kẽm (đồng thau):', '7409.21 - - Dạng cuộn', '7409.29 - - Loại khác', '- Bằng hợp kim đồng-thiếc (đồng thanh):', '7409.31 - - Dạng cuộn', '7409.39 - - Loại khác', '7409.40 - Bằng hợp kim đồng-niken (đồng kền) hoặc hợp kim đồng-kẽm-niken (bạc- niken)', '7409.90 – Bằng hợp kim đồng khác', 'Nhóm này bao gồm các sản phẩm đã định nghĩa ở Chú giải 9 (d) Phần XV khi chiều dầy của nó quá 0,15 mm.', 'Dạng tấm và dạng phiến thường thu được bằng cách cán nóng hoặc cán nguội một số sản phẩm của nhóm 74.03; dải đồng có thể được cán hoặc thu được bằng cách xẻ dọc các tấm.', 'Tất cả hàng hoá vẫn được xếp trong nhóm nếu đã gia công (ví dụ cắt thành mẫu hình, đục lỗ, làm thành gọn sóng, tạo gò, tạo rãnh, đánh bóng, phủ, đắp nổi hoặc làm tròn ở các cạnh) miễn là chúng không có đặc tính của hàng hoá và sản phẩm của nhóm khác (xem chú giải chương 1(g) ).', 'Độ dày giới hạn 0,15 mm bao gồm cả lớp phủ vécni ...', 'Nhóm này không bao gồm:', '(a) Lá mỏng có độ dày không quá 0,15 mm (nhóm 74.10).', '(b) Sản phẩm dạng lưới bằng đồng được tạo hình bằng phương pháp đột dập và kéo dãn thành lưới (nhóm 74.19).', '(c) Dải cách điện (nhóm 85.44).']</t>
+  </si>
+  <si>
+    <t>['TỔNG QUÁT', 'Trong khi từ các Chương 73 đến 76 và 78 đến 81 là các sản phẩm được phân loại theo một kim loại cụ thể, thì Chương này tương tự như chương 82, bao gồm các mặt hàng cụ thể bất kể loại kim loại cơ bản mà chúng cấu thành.', 'Nhìn chung, các bộ phận bằng kim loại cơ bản được phân loại theo sản phẩm gốc (xem Chú giải 1 của Chương). Tuy nhiên, chương này không bao gồm các loại lò xo (kể cả loại chuyên dụng để làm khóa), xích, dây cáp, đai ốc, bu lông, vít và các loại đinh; các mặt hàng này được phân loại trong nhóm tương ứng ở các Chương 73 đến 76 và từ 78 đến 81 (xem Chú giải 2 của Phần XV và Chú giải 1 của Chương này).', '83.01- Khóa móc và ổ khóa (loại mở bằng chìa, số hoặc điện), bằng kim loại cơ bản; móc cài và khung có móc cài, đi cùng ổ khóa, bằng kim loại cơ bản; chìa của các loại khóa trên, bằng kim loại cơ bản (+).', '8301.10 - Khóa móc', '8301.20 - Ổ khoá thuộc loại sử dụng cho xe có động cơ', '8301.30 - Ổ khoá thuộc loại sử dụng cho đồ nội thất', '8301.40 - Khóa loại khác', '8301.50 - Móc cài và khung có móc cài, đi cùng với ổ khóa', '8301.60 - Bộ phận', '8301.70 - Chìa rời', 'Nhóm này bao gồm các khóa sử dụng bằng chìa khóa (ví dụ loại ổ khoá của xi lanh, đòn bẩy, lẫy khoá hoặc ổ khóa kiểu Bramah) hoặc được điểu khiển bằng một tổ hợp các chữ cái hoặc con số (ổ khoá số).', 'Nhóm này bao gồm các ổ khoá hoạt động bằng điện (ví dụ, dùng cho các loại cửa ra vào của các tòa nhà cao tầng hoặc các cửa thang máy). Những loại khóa này có thể hoạt động được bằng cách, ví dụ gài vào đó một tấm thẻ từ, hay nhập tổ hợp dữ liệu trên bảng khoá điện tử hoặc bằng tín hiệu sóng radiô.', 'Do đó, ngoài những mặt hàng khác, nhóm này bao gồm :', '(A) Khóa móc các loại dùng cho cửa ra vào, rương, hòm, tủ, túi xách, xe đạp, v.v... bao gồm cả các loại then cửa có ổ khoá mở bằng chìa.', '(B) Ổ khóa cho các loại cửa và cổng, các hộp đựng thư, két sắt, thùng hoặc hộp, đồ nội thất, đàn piano, hòm, vali, túi xách, cặp tài liệu, ..., khóa cho xe ô tô, các toa tàu hỏa, các loại xe điện, v.v..., khóa cho cầu thang máy, cửa chớp, cửa trượt v.v...', '(C) Móc cài và khung có móc cài, đi cùng với ổ khóa.', 'Nhóm này cũng bao gồm :', '(1) Các phụ tùng bằng kim loại cơ bản của những mặt hàng được đề cập ở phía trên có thể nhận biết một cách rõ ràng (ví dụ: nắp che bao quanh ổ khóa, chốt khóa, bát khóa và cò khóa, nắp lỗ khóa, thân khóa, khe răng chìa khóa, cơ cấu truyền động và ổ lõi để tra chìa).', '(2) Các loại chìa bằng kim loại cơ bản được dùng cho các loại khóa đề cập ở trên, đã được hoặc chưa hoàn thiện (kể cả ở dạng đúc thô, được rèn hoặc rập theo khuôn).', 'Nhóm này cũng bao gồm các loại chìa khóa đặc biệt dùng để đóng các toa tầu hỏa, chìa khóa vạn năng (có thể mở rất nhiều loại ổ khóa...)', 'Tuy nhiên, nhóm này không bao gồm cả chốt cửa và then nhỏ đơn giản ... (nhóm 83.02) và các loại móc kéo và khóa móc cài (không vận hành bằng chìa khóa hoặc khóa số) dùng cho các loại túi xách, cặp sách, valy nhỏ... (nhóm 83.08).', '⁰', '⁰     ⁰', 'Chú giải phân nhóm.', 'Phân nhóm 8301.30', 'Phân nhóm này bao gồm không chỉ các ổ khóa thuộc loại sử dụng cho đồ nội thất gia đình mà còn bao gồm cả ổ khóa được sử dụng cho đồ nội thất văn phòng.', '83.02- Giá, khung, phụ kiện và các sản phẩm tương tự bằng kim loại cơ bản dùng cho đồ nội thất, cho cửa ra vào, cầu thang, cửa sổ, mảnh che, than xe (coachwork), yên cương, rương, hòm hoặc các loại tương tự; giá để mũ, mắc mũ, chân giá đỡ và các loại giá cố định tương tự bằng kim loại cơ bản; bánh xe đẩy (castor có giá đỡ bằng kim loại cơ bản; cơ cấu đóng cửa tự động bằng kim loại cơ bản.', '8302.10 - Bản lề (Hinges)', '8302.20 - Bánh xe đẩy (castor)', '8302.30 - Giá, khung, phụ kiện và các sản phẩm tương tự khác dùng cho xe có động cơ', '- Giá, khung, phụ kiện và các sản phẩm tương tự khác:', '8302.41 - - Phù hợp cho xây dựng', '8302.42 - - Loại khác, phù hợp cho đồ nội thất:', '8302.49 - - Loại khác', '8302.50 - Giá để mũ, mắc mũ, chân giá đỡ và các loại giá cố định tương tự', '8302.60 - Cơ cấu đóng cửa tự động', 'Nhóm này gồm các loại giá, khung, phụ kiện thông dụng bằng kim loại cơ bản được sử dụng rộng rãi cho đồ nội thất gia đình, cửa ra vào, cửa sổ, thân xe, ... Các sản phẩm thông dụng vẫn được phân loại trong nhóm này ngay cả khi chúng được thiết kế cho những mục đích đặc biệt (ví dụ, các loại tay nắm cửa và bản lề dùng cho các loại cửa xe ô tô con). Tuy nhiên, nhóm này không mở rộng cho những mặt hàng là bộ phận chủ yếu trong kết cấu của một sản phẩm, như khung cửa sổ hay các khớp xoay dùng cho ghế xoay tròn.', 'Nhóm này bao gồm:', '(A) Bản lề các loại (ví dụ: bản lề cối, bản lề nâng thẳng đứng, bản lề góc, bản lề quai và bản lề ganets).', '(B) Bánh xe đẩy, như đã được định nghĩa tại Chú giải 2 của Chương.', 'Để được phân loại trong nhóm này, các loại bánh xe đẩy phải có khung bằng kim loại cơ bản, nhưng các loại bánh xe có thể được làm bằng vật liệu bất kỳ (trừ kim loại quý).', 'Trường hợp các loại bánh xe đẩy có lốp hơi, đường kính của bánh xe đẩy phải được đo khi lốp đã được bơm căng ở mức bình thường.', 'Trong trường hợp có gắn kèm với nan hoa cũng không ảnh hưởng đến việc phân loại các bánh xe đẩy trong nhóm này.', 'Các loại bánh xe đẩy không đáp ứng đầy đủ những điều kiện của nội dung nhóm hoặc theo chú giải 2 của chương, bị loại trừ khỏi nhóm này (ví dụ: Chương 87).', '(C) Giá, khung, phụ kiện và các sản phẩm tương tự dùng cho các kiểu xe có động cơ (ví dụ: xe ô tô, xe tải và xe ca), không phải là bộ phận hay phụ tùng của Phần XVII Ví dụ: các thanh nẹp dùng để trang trí, các tấm dùng để gác chân, thanh để bám tay, tay vịn hoặc tay nắm; các loại phụ kiện rèm (ví dụ như thanh treo rèm, giá đỡ, các loại phụ kiện để xiết, bắt, cơ cấu lò xo...); các loại giá để hành lý; các cơ cấu mở cửa sổ; các loại gạt tàn đặc biệt; bộ phận đóng cửa sau của xe.', '(D) Giá, khung, phụ kiện và các sản phẩm tương tự khác phù hợp cho xây dựng', 'Nhóm này bao gồm:', '(1) Các loại khóa móc cửa có xích, chốt cửa, ... ; các loại then ngang hay chốt dọc cửa sổ và các phụ kiện; chốt cài và chốt chặn cửa sổ; Cơ cấu mở hoặc chốt chặn cho cửa hãm hay cửa mái và phụ kiện; móc và khoen cài cửa phòng; móc và phụ kiện cho cửa sổ đôi; các loại móc, chốt cài, chặn cửa và các đầu móc để cuộn (roller end) dùng cho cửa chớp hoặc rèm; khe nhận thư lắp ở cửa; vòng/búa để gõ cửa; lỗ quan sát lắp trên cánh cửa... (trừ loại đã được lắp với bộ phận quang học).', '(2) Các loại chốt (bao gồm cả loại chốt có lò xo bi), các loại khóa chốt, then cài cửa, chốt cửa, ... (ngoài các loại khóa chốt có chìa thuộc nhóm 83.01) dùng cho cửa.', '(3) Các loại khung cửa trượt theo rãnh của các loại cửa kính trong các cửa hiệu, nhà để xe, nhà kho, nhà để máy bay... (ví dụ: các thiết bị để làm rãnh trượt, làm bánh xe và con lăn).', '(4) Các tấm mặt lỗ khóa và những tấm biển hiệu nhỏ gắn trên các cánh cửa của các tòa nhà.', '(5) Các loại phụ kiện để treo rèm hay mành cửa (ví dụ: các loại thanh treo rèm, ống, nơ trang trí hình hoa hồng, giá đỡ, dải vén màn, kẹp, vòng chạy hoặc trượt, thanh chặn); móc đỡ, móc để buộc hoặc giữ dây kéo rèm...; phụ kiện cầu thang, như rìa bảo vệ bậc cầu thang, các loại kẹp giữ tấm thảm cầu thang, thanh chặn để giữ tấm thảm cầu thang, và các đầu của tay vịn cầu thang.', 'Các loại thanh treo rèm, ống phù hợp để treo rèm hoặc giữ thảm chỉ đơn thuần được cắt theo chiều dài và khoan được phân loại theo kim loại cấu thành.', '(6) Các loại miếng bịt góc, tấm hoặc ke gia cố cho cửa đi, cửa sổ hoặc cửa chớp.', '(7) Các loại khóa nắp (nắp móc) dùng cho cửa ra vào; tay cầm và nắm đấm của cửa ra vào, trong đó bao gồm các loại phụ kiện trên cho ổ khóa và chốt.', '(8) Những miếng kê chặn cửa ra vào và những bộ phận đóng cửa (trừ những sản phẩm thuộc phần (H), ghi dưới đây).', '(E) Giá, khung, phụ kiện và các sản phẩm tương tự khác phù hợp cho đồ nội thất', 'Nhóm này bao gồm :', '(1) Các loại đinh mũ (có 1 hoặc nhiều đầu nhọn) dùng để bảo vệ chân các đồ vật trong nhà...; phụ kiện trang trí bằng kim loại; bộ phận tự điều chỉnh độ cao của giá sách...; phụ kiện để lắp ráp (ghép) các loại tủ hoặc giường ngủ bằng gỗ...; các tấm mặt lỗ khóa.', '(2) Các loại miếng bịt góc, tấm hoặc ke gia cố.', '(3) Các loại khóa (bao gồm cả loại khóa có lò xo bi), các loại khóa chốt,then cài cửa, chốt cửa ... (trừ các loại khóa chốt có chìa thuộc nhóm 83.01).', '(4) Các loại khóa nắp (nắp móc) dùng cho tủ, hòm v.v', '(5) Các loại tay cầm và nắm đấm, trong đó bao gồm cả tay cầm và nắm đấm của ổ khóa và chốt.', '(F) (1) Các loại phụ kiện và các sản phẩm tương tự của hòm, tủ, túi đồ đạc và các đồ du lịch, ví dụ: các loại móc sắt dùng để khóa (nhưng không bao gồm chốt móc cửa); tay nắm cửa, những miếng bảo vệ góc, thanh chống và các thanh trượt; phụ kiện cho các đồ chứa có thể mở rộng được; tuy nhiên những đồ phụ trợ trang trí cho các loại túi xách được phân loại vào nhóm 71.17).', '(2) Các loại miếng bịt góc, tấm hoặc ke gia cố cho các loại rương, hòm, tủ, hộp nữ trang, vali...', '(3) Các phụ kiện và các mặt hàng tương tự dùng cho yên cương, như là hàm thiếc, dây hàm thiếc ngựa, vai yên ngựa, bàn đạp, dây kéo ngựa, bộ yên cương, vòng dây cương, đồ trang sức bằng đồng đeo cho ngựa và các phụ kiện của yên cương.', '(4) Các phụ kiện và các mặt hàng tương tự dùng cho việc đóng các hộp trang sức và áo quan.', '(5) Các phụ kiện và các mặt hàng tương tự dùng cho tàu thuyền.', '(G) Các loại giá để mũ, mắc mũ (cố định, có bản lề hoặc móc treo) và các đồ đạc tương tự như là giá treo áo măng tô, giá treo khăn, giá treo khăn rửa bát, giá để bàn chải, giá treo chìa khóa.', 'Các loại giá treo áo măng tô... có tính chất là các đồ nội thất, tuy nhiên nếu kết hợp với một giá để sách thì được phân loại vào Chương 94.', '(H) Bộ phận đóng cửa tự động, loại lò xo hoặc thủy lực, dùng cho các loại cửa, cổng...', '83.03- Két an toàn đã được bọc thép hoặc gia cố, két bạc và cửa bọc thép và két để đồ an toàn có khóa dùng cho phòng bọc thép, hòm để tiền hoặc tủ đựng chứng từ tài liệu và các loại tương tự, bằng kim loại cơ bản.', 'Nhóm này bao gồm những vật dụng để chứa đồ và cửa phòng bọc thép được thiết kế để giữ an toàn đồ quý giá, đồ nữ trang, tài liệu... với mục đích để phòng ngừa mất trộm và hỏa hoạn.', 'Các loại tủ và két an toàn của nhóm này là các tủ bằng thép mà thân được bọc thép (ví dụ: làm bằng thép hợp kim có độ bền cao) hoặc làm bằng thép tấm được gia cố, ví dụ với với bê tông cốt thép. Chúng thường được sử dụng trong các ngân hàng, văn phòng, khách sạn ... Thông thường chúng được trang bị khóa an toàn cao và thường có cửa kín và vách/vỏ 2 lớp, bên trong khoảng cách giữa hai lớp vách thường được đổ đầy chất liệu chịu nhiệt. Nhóm này bao gồm các loại cửa phòng bọc thép (có hoặc không có khung cửa) và các két để đồ an toàn có khóa dùng cho phòng bọc thép được sử dụng trong ngân hàng, nhà cho thuê có phòng an toàn và két sắt, nhà máy... là các nơi yêu cầu không gian lưu trữ lớn.', 'Ngoài ra, nhóm này bao gồm cả các loại hộp để đựng tiền hay văn kiện bằng kim loại (có hoặc không có ngăn kéo). Đây là loại hộp di động (được lắp khóa vận hành bằng chìa hay khóa số), đôi khi có vách/vỏ bọc 2 lớp, tùy theo thiết kế và vật liệu cấu thành... nên chúng có khả năng bảo vệ chống trộm và hỏa hoạn. Các loại hòm quyên tiền và các hộp đựng tiền tiết kiệm ... cũng được phân loại vào nhóm này miễn là chúng được trang bị tương tự để đảm bảo an toàn; khi không đáp ứng điều kiện này thì chúng được phân loại theo kim loại cấu thành hoặc đồ chơi.', 'Nhóm này không bao gồm:', '(a) Các loại cửa an toàn làm bằng thép, loại sử dụng tại các căn hộ hoặc nhà riêng (nhóm 73.08).', '(b) Các loại tủ được thiết kế đặc biệt để chống lửa, chống và chạm hoặc chống sập đổ và những vách đặc biệt nhưng không có khả năng chống lại những nỗ lực phá vỡ chúng bằng việc khoan hoặc cắt (nhóm 94.03).', '83.04- Tủ đựng hồ sơ, tủ đựng bộ phiếu thư mục, khay để giấy tờ, giá kẹp giấy, khay để bút, giá để con dấu văn phòng và các loại đồ dùng văn phòng hoặc các đồ dùng để bàn tương tự, bằng kim loại cơ bản, trừ đồ nội thất văn phòng thuộc nhóm 94.03.', 'Nhóm này bao gồm tủ đựng hồ sơ, tủ đựng bộ phiếu thư mục, các loại hộp phân loại và đồ dùng văn phòng tương tự dùng để lưu giữ, phân loại, sắp xếp thư từ, phiếu thư mục và các giấy tờ khác, với điều kiện loại đồ dùng này không được thiết kế để đặt đứng, kê trên sàn hoặc không thuộc các mặt hàng đã nêu trong chú giải 2 của chương 94 (nhóm 94.03) (xem chú giải tổng quát Chương 94). Nhóm này cũng bao gồm các khay giấy để phân loại tài liệu, các loại giá giữ giấy để đánh máy dùng cho những người đánh máy chữ, các loại giá hoặc kệ để bàn, đồ dùng để bàn (như là ke (hay cọc) giữ sách, cái chặn giấy, khay đựng lọ mực hoặc lọ mực, hộp bút, hộp đóng dấu và giá để con dấu, các loại bàn thấm).', 'Tuy nhiên nhóm này không bao gồm các loại giỏ dùng để đựng giấy loại, nó được phân loại theo kim loại cấu thành (ví dụ thuộc nhóm 73.26).', '83.05- Các chi tiết ghép nối dùng cho cặp giữ tờ rơi hoặc hồ sơ tài liệu rời, cái kẹp thư, để thư, kẹp giấy, kẹp phiếu mục lục và các vật phẩm văn phòng tương tự, bằng kim loại cơ bản; ghim dập dạng băng (ví dụ, dùng cho văn phòng, dùng cho công nghệ làm đệm, đóng gói), bằng kim loại cơ bản.', '8305.10 - Các chi tiết ghép nối dùng cho cặp giữ tờ rời hoặc hồ sơ tài liệu rờ', '8305.20 - Ghim dập dạng băng', '8305.90 - Loại khác, kể cả bộ phận', 'Nhóm này bao gồm những chi tiết ghép nối bằng kim loại cơ bản (ví dụ như cặp kẹp, dây nối, lò xo đẩy, vòng, vít...) để ghép nối dùng cho cặp giữ tờ rời hoặc hộp giữ hồ sơ tài liệu. Nhóm này còn bao gồm các vòng bảo vệ, dải đóng gáy, nẹp góc dùng cho các loại sổ, sách văn phòng; tương tự như vậy là những đồ dùng văn phòng bằng kim loại được sử dụng để đóng thành tập, ghim lại hoặc đánh dấu các loại giấy tờ tài liệu rời (ví dụ: các loại kẹp ghim, kẹp giấy, nẹp giấy, để thư, kẹp phiếu mục lục, kẹp đánh dấu hồ so, cây ghim giấy); ghim dập dạng băng loại được dùng trong máy dập ghim, trong văn phòng, để bọc đệm, đóng gói...', 'Nhóm này không bao gồm:', '(a) Đinh ấn (đinh rệp) (ví dụ: nhóm 73.17 hoặc 74.15).', '(b) Các loại khóa và chốt cho sách, sổ... (nhóm 83.01 hoặc 83.08).', '83.06- Chuông, chuông đĩa và các loại tương tự, không dùng điện, bằng kim loại cơ bản; khung ảnh, khung tranh hoặc các loại khung tương tự, bằng kim loại cơ bản; gương bằng kim loại cơ bản.', '8306.10 - Chương, chương đĩa và các loại tương tự', '- Tượng nhỏ và đồ trang trí khác:', '8306.21 - - Được mạ bằng kim loại quý', '8306.29 - - Loại khác', '8306.30 - Khung ảnh, khung tranh hoặc các loại khung tương tự; gương', '(A) CHUÔNG, CHUÔNG ĐĨA VÀ CÁC LOẠI TƯƠNG TỰ, KHÔNG DÙNG ĐIỆN', 'Trong nhóm này bao gồm chuông, chuông đĩa bằng kim loại cơ bản không dùng điện. Nhóm bao gồm cả chuông ở nơi thờ cúng, trường học, các tòa nhà công cộng, nhà máy, tàu biển, xe cứu hỏa,... ; chuông báo hiệu gắn ở cửa ra vào; chuông bàn, chuông lắc tay, các loại chuông cho gia súc hoặc động vật khác; chuông cho xe đạp, xe đẩy trẻ em (scooter) hoặc xe nôi; chuông báo cá cắn câu (không có kẹp bên ngoài hoặc thiết bị lắp giữ/đỡ khác); chuông chùm ở cửa, chuông đĩa để bàn...; chuông có trang trí hoa văn làm những đồ vật lưu niệm du lịch.', 'Nhóm này cũng bao gồm có các bộ phận bằng kim loại như quả lắc chuông, tay cầm để kéo chuông, chỏm chuông (kể cả các bộ phận này phù hợp cho cả loại chuông dùng bằng điện hoặc loại chuông khác). Nhóm cũng bao gồm nút bấm và núm xoay bằng kim loại dùng cho các loại chuông cửa hoặc chuông bàn không sử dụng điện.', 'Nhóm này không bao gồm:', '(a) Khung/giá dùng cho các loại chuông nhà thờ, được làm bằng sắt hoặc thép (nhóm 73.08).', '(b) Các loại dây kéo, đòn bẩy và phụ kiện cho loại chuông cửa vận hành bằng cơ học (ví dụ: nhóm 73.25 hoặc 73.26)', '(c) Chuông điện và các thiết bị báo hiệu khác thuộc nhóm 85.31.', '(d) Bộ chuông hoà âm và chuông đĩa của đồng hồ (nhóm 91.14).', '(e) Chuông chùm và chuông đĩa là các bộ phận của nhạc cụ thuộc nhóm 92.06 hoặc 92.07.', '(f) Các sản phẩm được gắn kèm chuông,... ví dụ như là các loại vòng dùng buộc cổ chó (nhóm 42.01), nhạc cụ (ví dụ: trống lục lạc) (Chương 92), các loại đồ chơi (nhóm 95.03), chuông cần câu được gắn trên kẹp bên ngoài hoặc thiết bị lắp giữ/đỡ khác (nhóm 95.07).', '(B) TƯỢNG NHỎ VÀ CÁC ĐỒ TRANG TRÍ KHÁC', 'Trong nhóm nhỏ này bao gồm nhiều loại đồ trang trí bằng kim loại cơ bản (có hoặc không kết hợp với các phụ kiện bằng chất liệu không phải là kim loại) được thiết kế phù hợp cho việc trang trí, ví dụ trong nhà, văn phòng, phòng họp, nhà thờ cúng, vườn.', 'Cần lưu ý là nhóm nhỏ này không bao gồm các mặt hàng đã được nêu trong nhóm riêng biệt thuộc Danh mục, kể cả khi các mặt hàng này có bản chất hoặc được hoàn thiện phù hợp như đồ trang trí.', 'Nhóm nhỏ này bao gồm mặt hàng không có công năng sử dụng mà hoàn toàn mang tính trang trí và các mặt hàng mà công dụng duy nhất của chúng là để chứa đựng hay để hỗ trợ cho những đồ vật trang trí khác hoặc để bổ sung hiệu ứng trang trí của chúng, ví dụ:', '(1) Những bức tượng bán thân, tượng nhỏ và tượng trang trí khác; những đồ trang trí (bao gồm cả những bộ phận cấu tạo nên bộ đồng hồ) cho mặt lò sưởi, giá sách... (các bản sao hình các loài động vật, những biểu tượng, những bức phóng dụ...); vật kỷ niệm chiến thắng trong thể thao hoặc nghệ thuật (các kiểu cúp...); những đồ vật trang trí trên tường kết hợp với các phụ kiện để treo (ví dụ như là các tấm biển, khay, đĩa, huy chuông lớn ngoại trừ các đồ vật này dùng cho trang sức cá nhân); các loại hoa giả, các hình hoa hồng và các hàng hóa trang trí tương tự làm bằng kim loại được đúc hoặc rèn (thông thường làm bằng sắt đã gia công); các loại đồ trang trí nhỏ dùng đặt trên giá sách hay trong tủ trưng bày gia đình.', '(2) Các đồ vật được dùng để hành lễ trong các buổi lễ thờ cúng như là hòm thánh tích, cốc rượu lễ, bình đựng nước thánh, mặt nhật hay thánh giá.', '(3) Các loại bình, lọ, chậu trồng hoa (kể cả đồ tráng men cloisonné).', '*', '*     *', 'Trong một số trường hợp cụ thể giải thích dưới đây, nhóm này còn bao gồm một số hàng hoá thuộc hai loại sau đây mặc dù chúng có giá trị sử dụng:', '(A) Đồ dùng trong nhà hoặc các đồ dùng nội trợ, dù có khả năng được xếp vào các nhóm riêng (ví dụ nhóm 73.23, 74.18 và 76.16) hoặc xếp vào nhóm “các mặt hàng khác” (ví dụ: trường hợp hàng hoá làm bằng ni-ken và thiếc nói riêng). Các mặt hàng gia dụng và đồ dùng nội trợ thường được thiết kế chủ yếu để đáp ứng mục đích sử dụng và bất kỳ sự trang trí nào đều có ý nghĩa thứ yếu để không làm giảm mức hữu dụng của đồ vật. Do vậy, nếu các mặt hàng được trang trí và đáp ứng được tính hữu dụng không kém so với các mặt hàng tương ứng nhưng ở dạng đơn giản hon thì chúng được phân loại là hàng hoá dùng cho công việc nội trợ hơn là xếp vào nhóm này. Trái lại, nếu sự hữu dụng rõ ràng kém hơn so với tính chất làm đồ trang trí hoặc để làm cảnh thì mặt hàng đó được phân loại vào nhóm này, ví dụ: khay trạm nổi cầu kỳ thì hoàn toàn mất tính hữu dụng của cái khay; đồ trang trí tích hợp hoàn toàn ngẫu ngiên với khay hoặc đồ đựng có thể được sử dụng làm đĩa trang trí hay cái gạt tàn thuốc; các mô hình thu nhỏ không có giá trị thực sự (đồ dùng nhà bếp thu nhỏ).', '(B) Các mặt hàng, trừ mặt hàng gia dụng và đồ dùng cho việc nội trợ, loại thường rơi vào các nhóm cuối cùng của mỗi chuông kim loại (ví dụ: bộ đồ dùng hút thuốc, hộp đựng nữ trang, hộp thuốc lá, bát hương, bình đốt hương trầm, hộp đựng diêm). Những mặt hàng đó được phân loại trong nhóm nhỏ này nếu được thiết kế rõ ràng ngay từ ban đầu là cho mục đích làm đồ trang trí.', '(C) KHUNG ẢNH, KHUNG TRANH HAY CÁC LOẠI KHUNG TƯƠNG TỰ, BẰNG KIM LOẠI CƠ BẢN; GƯƠNG BẰNG KIM LOẠI CƠ BẢN', 'Nhóm nhỏ này bao gồm khung ảnh, khung tranh, khung gương... bằng kim loại cơ bản với tất cả các loại hình thù, kích thước. Các khung này nếu được ghép với giá đỡ hoặc có tấm ốp lưng bằng bìa, gỗ hay vật liệu khác, cũng vẫn được phân loại trong nhóm này. Nhóm nhỏ này bao gồm cả khung ghép với kính phẳng, nhưng nếu khung bằng kim loại đã lắp gương thì bị loại trừ (nhóm 70.09)', 'Tranh in và ảnh chụp có khung bằng kim loại cũng được xếp vào nhóm này nếu những đặc trưng nổi trội so với tổng thể thuộc về khung tranh tạo ra; trong trường hợp khác thì các mặt hàng này xếp vào nhóm 49.11.', 'Trong trường hợp các mặt hàng tranh vẽ, tranh phác họa và tranh bột màu, tranh ghép và các tranh trang trí tương tự, bản in khắc, chữ in hoặc bản in thạch bản đã được đóng khung, để xác định việc phân loại phần khung theo tổng thể hay phân loại riêng theo phần khung, xem chú giải 5 Chương 97 và chú giải chi tiết nhóm 97.01 và 97.02.', 'Nhóm này còn bao gồm cả gương kim loại (không kể các phần tử quang học, xem chú giải chi tiết nhóm 90.01 và 90.02), ví dụ: gương treo tường hoặc gương bỏ túi và gương chiếu hậu, thường chế tạo bằng thép, hoặc crom, ni-ken hoặc thép mạ bạc, hoặc làm bằng đồng thau. Các gương này có thể được đóng khung, có tấm ốp lưng hoặc lắp với giá đỡ, hoặc được trình bày hoàn chỉnh với hộp, có đai bằng da, vải hoặc vật liệu khác.', '*', '*    *', 'Nhóm này cũng không bao gồm:', '(a) Chấn song, lan can được làm bằng sắt hoặc bằng kim loại khác đã gia công (ví dụ: nhóm 73.08).', '(b) Dao, thìa, dĩa (nĩa) (Chương 82).', '(c) Khóa và các bộ phận của chúng (nhóm 83.01).', '(d) Giá, khung, đồ dùng để lắp ráp, ghép, nối dùng cho các đồ đạc trong nhà, cửa ra vào, cầu thang và cửa sổ (nhóm 83.02).', '(e) Các dụng cụ và máy móc thiết bị thuộc Chương 90 (ví dụ: khí áp kế và nhiệt kế ngay cả nếu những sản phẩm này có một tính chất rõ ràng là để trang trí.', '(f) Đồng hồ và vỏ đồng hồ, dù là vỏ này được trang trí hoặc bao gồm cả các tượng nhỏ hay các sản phẩm tương tự được thiết kế một cách rõ ràng để dùng làm vỏ đồng hồ (Chương 91)', '(g) Các sản phẩm thuộc Chương 94.', '(h) Các loại đồ chơi, thiết bị trò chơi (Chương 95).', '(ij) Các loại bật lửa để bàn (nhóm 96.13) và các loại bình xịt nước hoa, dầu thơm (nhóm 96.16)', '(k) Các tác phẩm nghệ thuật, đồ sưu tầm và đồ cổ (Chương 97).', '83.07- Ống dễ uốn bằng kim loại cơ bản, có hoặc không có phụ kiện để ghép nối.', '8307.10 - Bằng sắt hoặc thép', '8307.90 - Bằng kim loại cơ bản khác', 'Dựa theo quy trình sản xuất, các loại ống dễ uốn bằng kim loại thường được phân thành hai loại chủ yếu như sau:', '(1) Ống dễ uốn làm từ dải hình được cuốn theo chiều xoắn, có hoặc không được bắt chặt các cạnh. Loại ống này có thể được làm kín nuớc hoặc khí bằng cách bọc cao su, amiăng hoặc vải sợi v.v...Sau đó, nó thích hợp để sử dụng như vật liệu chống thấm nuớc cho cáp điện hay hệ thống truyền dẫn mềm; ống hút bụi; đường dẫn khí nén, hoi nuớc, ga, nuớc, xăng, dầu hoặc các chất lỏng khác trong động cơ, máy công cụ, bom, máy biến thế, thiết bị thuỷ lực, thiết bị khí nén, lò cao v.v... Loại ống tuông tự không có tính chất chống thấm nuớc dùng để làm đường dẫn cát, hạt, bụi, vỏ bào v.v....và trong một số trường hợp dùng làm ống bảo vệ dây cáp điện, các ống truyền dẫn khác, ống cao su v.v', '(2) Ống mềm dạng xếp nếp được chế tạo, ví dụ bằng cách gia công biến dạng một ống tron. Bản chất loại ống này đã kín nuớc và khí, vì thế không cần gia công thêm để dùng cho các mục đích được mô tả ở phần (1) ở trên.', 'Để tăng độ bền chịu áp suất, cả hai loại ống mềm có thể gia cường hoặc trang bị với một hoặc nhiều ống bọc ngoài bện bằng dây hoặc dải kim loại. Ông bọc ngoài đôi khi được bảo vệ bằng dây xoắn ốc và có thể được phủ nhựa, cao su hay vật liệu dệt.', 'Nhóm này cũng bao gồm ống mềm làm từ dây được xoắn chặt (ví dụ như làm vỏ bọc ngoài cho cáp “Bowden” hoặc cáp phanh xe đạp). Nhóm này loại trừ các sản phẩm tuông tự nhưng không sử dụng làm ống hoặc ống dẫn (ví dụ: dây rèm kéo) (thường phân loại vào nhóm 73.26).', 'Ông mềm có độ dài ngắn dùng trong kỹ thuật nhiệt và chống rung (ống ổn nhiệt hoặc vòng đệm dãn nở) vẫn được phân loại vào nhóm này.', 'Nhóm này cũng bao gồm ống đã ghép goăng, đệm...', 'Nhóm này không bao gồm:', '(a) Loại ống bằng cao su kết hợp hoặc gắn với vỏ ngoài gia cố bằng kim loại (nhóm 40.09).', '(b) Ông dễ uốn được chế tạo thành dạng các bộ phận của máy móc hoặc xe cộ v.v ví dụ đã lắp ráp với vật liệu khác (Phần XVI và XVII).', '83.08- Móc cào, khóa móc cài, khóa thắt lưng, cài thắt lưng, khóa có chốt, mắt cài khóa, khoen và các loại tương tự, bằng kim loại cơ bản, dùng cho quần áo hoặc phụ kiện quần áo, giày dép, trang sức, đồng hồ đeo tay, sách, bạt che, đồ da, hàng du lịch hoặc yên cương hoặc cho các sản phẩm hoàn thiện khác; đinh tán hình ống hoặc đinh tán có chân xòe, bằng kim loại cơ bản; hạt trang trí và trang kim, bằng kim loại cơ bản.', '8308.10 - Khóa có chốt, mắt cài khóa và khoen', '8308.20 - Đinh tán hình ống hoặc đinh tán có chân xòe.', '8308.90 - Loại khác, kể cả bộ phận', 'Nhóm này bao gồm :', '(A) Khóa có chốt, mắt cài khóa và khoen dùng cho quần áo, giày dép, vải bạt, lều hoặc vải buồm.', '(B) Đinh tán hình ống hoặc đinh tán có chân xòe các loại. Chúng được sử dụng trong quần áo, giày dép, vải bạt, lều, đồ dùng du lịch, đồ da, thắt lung v.v; chúng cũng được dùng trong kỹ thuật (ví dụ: chế tạo máy bay). Nhóm này cũng bao gồm cả các loại đinh rút, khi sử dụng phần lõi đinh rút được kéo vào hoặc ép vào thân đinh rút và gãy ở ngay hoặc gần điểm tiếp xúc của mũ đinh và đầu đinh bị chôn.', '(C) Móc cài, khoá cài, quai có móc cài dùng cho túi xách, ví tiền, cặp tài liệu, cặp hộp hoặc các đồ dùng du lịch khác, hoặc cho sách hoặc đồng hồ đeo tay; nhưng nhóm này loại trừ ổ khoá (kể cả ổ khoá cài) và quai có móc cài đã lắp khoá ổ (nhóm 83.01).', '(D) Khoá thắt lưng (có kim gài hoặc không) và móc cài khóa thắt lưng, có hay không được trang trí, dùng cho quần áo, dây thắt lưng, dây đeo quần, găng tay, giày dép, ghệt, đồng hồ đeo tay, túi dết, đồ dùng cho du lịch và hàng hoá bằng da.', '(E) Chuỗi hạt kim loại và đồ trang kim còn được sử dụng làm đồ trang sức mỹ kim hoặc để trang trí vải vóc, đồ thêu, quần áo v.v... Chúng thường được làm bằng đồng, đồng hợp kim hoặc nhôm (thường được mạ vàng hoặc bạc) và được thiết kế thích hợp để gắn vào vị trí cố định bằng keo hoặc khâu chỉ v.v Các chuỗi hạt thường có hạt hình cầu hoặc trụ rỗng, đôi khi được vát cạnh; đồ trang kim thường ở dạng hình học (tròn, lục giác v.v....) được cắt từ lá kim loại và thường tạo lỗ để xâu.', 'Các hàng hoá nêu ở phần (A) , (C) , (D) trên đây có thể có các bộ phận bằng da, vải, nhựa, gỗ, sừng, nhựa ebonit, xà cừ, ngà, đá quý giả v.v... miễn là hàng hoá đó vẫn giữ nguyên tính chất cần thiết của mặt hàng bằng kim loại cơ bản. Các mặt hàng này còn được trang trí bằng cách chế tác kim loại.', 'Nhóm này cũng loại trừ:', '(a) Đồ trang trí, trừ khoá thắt lưng, dùng cho mũ, túi xách, giày, dây lưng v.v... (nhóm 71.17).', '(b) Vảy kim loại (đặc biệt thuộc Chương 74 đến 76).', '(c) Đinh tán, trừ đinh tán hình ống hoặc đinh tán có chân xoè; vòng hãm lò xo (thường thuộc Chương 73 đến 76)', '(d) Khuy tán bấm và nút bấm (nhóm 96.06).', '(e) Khoá kéo và các bộ phận của chúng (nhóm 96.07).', '83.09- Nút chai lọ, nút bịt và nắ đậy (kể cả nắp hình vương miện, nút xoáy và nút một chiều), bao thiếc bịt nút chai, nút thùng có ren, tấm đậy lỗ thoát của thùng, dụng cụ niêm phong và bộ phận đóng gói khác, bằng kim loại cơ bản.', '8309.10 - Nắp hình vương miện', '8309.20 - Loại khác', 'Nhóm này bao gồm một tập hợp các sản phẩm bằng kim loại cơ bản (thường có vòng đệm hoặc bộ phận ghép nối khác bằng nhựa, cao su, lie,...) dùng để đóng nút chai lọ và bọc miệng thùng phuy, thùng tônô, chai lọ ... hay để làm kín các hòm, thùng hoặc các loại bao bì khác.', 'Những sản phẩm này gồm :', '(1) Nút chai lọ, nút bịt và nắp đậy, ví dụ: nút hình vương miện, nút bịt hình vương miện, niêm phong hình vương miện; mũ và nắp chụp của đinh ốc, ghim, đòn bẩy, lò xo..loại dùng để đóng nút chai bia, chai nước khoáng, lọ bảo quản, tuýp chứa hay các đồ chứa tương tự.', 'Nhóm này không bao gồm những nút cơ học phần lớn làm bằng nhựa, sứ...', '(2) Nút ren ở các thùng kim loại.', '(3) Nút để rót, nút định lượng, nút nhỏ giọt dùng cho chai rượu, dầu, dược phẩm...', '(4) Miếng bọc miệng cho chai sữa..., miếng bọc nút chai làm bằng lá chì hoặc thiếc và để bọc trùm nút chai, dùng cho chai Champagne hoặc chai rượu.', '(5) Tấm bao nút thùng, ở dạng đĩa..., được cắt từ tấm kim loại và đặt gắn cố định phía trên nút thùng để bảo vệ.', '(6) Dây buộc bằng kim loại để buộc chặt nút bần của chai rượu champagne...', '(7) Băng niêm phong các loại, thường bằng lá chì hoặc thiếc, để đảm bảo cho các sọt, kiện hàng, tòa nhà, toa tầu xe cộ..., bao gồm cả nhãn bảo hiểm.', '(8) Cái chêm bảo vệ góc của hòm.', '(9) Khóa cài để đóng kín túi, xắc, hay các đồ chứa tương tự, bao gồm một hoặc hai sợi dây thép lồng giữa hai dải nhựa hoặc hai dải giấy.', '(10) Nắp đậy có nắp được vạch sẵn và vòng kéo làm bằng kim loại cơ bản, thường dùng cho lon đồ uống và đồ hộp.', '83.10- Biển chỉ dẫn, ghi tên, ghi địa chỉ và các loại biển báo tương tự, chữ số, chữ và các loại biểu tượng khác, bằng kim loại cơ bản, trừ các loại thuộc nhóm 94.05.', 'Trừ các biển báo, biển tên được chiếu sáng và các loại tương tự được lắp một nguồn chiếu sáng cố định, cũng như các bộ phận của nó chưa được chi tiết hoặc bao gồm ở nhóm khác (nhóm 94.05), nhóm này bao gồm các bảng bằng kim loại cơ bản có các từ, chữ cái, con số hay hình vẽ (bằng cách tráng men, phủ vecni, in, khắc, đục lỗ, in dấu, đúc, rập nổi, tạo hình hoặc bất cứ quá trình gia công khác) mang lại tất cả các thông tin cần thiết của một bản chỉ dẫn, biển tên, biển quảng cáo, biển địa chỉ hoặc các biển tương tự. Đặc điểm của các tấm biển này là thường được thiết kế để cố định lâu dài (ví dụ: biển chỉ đường, biển quảng cáo, biển hiệu máy móc) hoặc được sử dụng nhiều lần (ví dụ: các loại thẻ và tấm ghi số đồ gửi trông giữ).', 'Một số biển này có thể được thiết kế để gài các thông tin chi tiết vào sau để bổ sung cho thông tin có sẵn trên biển (ví dụ: gài thêm số seri riêng trên một biển chỉ dẫn các đặc điểm chính của một chiếc máy). Tuy nhiên, nhóm này không bao gồm các biển, “nhãn”, thẻ và các loại khác tương tự với nội dung được in v.v..., chúng chỉ ngẫu nhiên có thông tin cần thiết được bổ sung sau vào biển ban đầu hoặc bằng cách khác.', 'Nhóm này bao gồm:', '(1) Biển tên địa phương, đường...; biển tên hoặc biển số cho các nhà cao tầng, mộ chí...; biển chỉ dẫn cho dịch vụ công (cảnh sát, cứu hoả...), biển cấm (“Cấm hút thuốc”, “Cấm săn bắn”...); cột tín hiệu hoặc biển chỉ dẫn giao thông v.v.', '(2) Ký hiệu tượng trưng của quán trọ, cửa hiệu, nhà máy.', '(3) Biển quảng cáo.', '(4) Bảng số dùng cho nhà, cửa ra vào, hộp thư, xe cộ, vòng đeo cổ cho chó...; thẻ chú thích cho cây cối trong vườn; thẻ chìa khóa, thẻ và giấy ghi số đồ gửi trông giữ.', '(5) Biển, biểu tượng tương tự dùng cho máy móc, đồng hồ đo, xe ô tô (ví dụ: biển số)...', 'Nhóm này cũng bao gồm cả các con số, chữ cái và các họa tiết riêng biệt (hoặc bộ của chúng) để tạo thành biển báo như nêu ở phần trên, được dùng để trang trí cửa sổ cửa hàng, bảng chỉ dẫn giờ tàu hỏa...', 'Tuy nhiên, các khuôn tô sẽ được phân loại theo kim loại cấu thành.', 'Nhóm này không bao gồm:', '(a) Những biển không có chữ, số hay hình vẽ, hoặc chỉ ngẫu nhiên có thông tin cần thiết được bổ sung vào sau (ví dụ: nhóm 73.25, 73.26, 76.16, 79.07).', '(b) Các chữ in của máy in (nhóm 84.42); chữ in của máy đánh chữ và bản dùng cho máy in địa chỉ (nhóm 84.73).', '(c) Các biển báo, tấm, và cột tín hiệu để chỉ đường giao thông thuộc nhóm 86.08.', '83.11- Dây, que, ống, tấm, điện cực và các sản phẩm tương tự, bằng kim loại cơ bản hoặc carbu kim loại, được bọc, phủ hoặc có lõi bằng chất trợ dung, loại dùng để hàn xì, hàn hơi, hàn điện hoặc bằng cách ngưng tụ kim loại hoặc carbua kim loại; dây và que, từ bột kim loại cơ bản được kết tụ, sử dụng trong phun kim loại.', '8311.10 - Điện cực bằng kim loại cơ bản, đã được phủ chất trợ dung, để hàn hồ quang điện', '8311.20 - Dây hàn bằng kim loại cơ bản, có lõi là chất trợ dung, dùng để hàn hồ quang điện', '8311.30 - Que hàn được phủ, bọc và dây hàn có lõi, bằng kim loại cơ bản, dùng để hàn chảy, hàn hơi hoặc hàn bằng ngọn lửa', '8311.90 - Loại khác', 'Nhóm này bao gồm các loại dây, que, ống, tấm, điện cực và các sản phẩm tương tự, bằng kim loại cơ bản hoặc cacbua kim loại, để sử dụng trong hàn xì, hàn hoi, hàn điện hoặc ngưng tụ kim loại hoặc carbide kim loại, với điều kiện chúng được bọc, phủ hoặc có lõi bằng chất trợ dung. Trong trường hợp có lõi bằng chất trợ dung, phần vỏ ngoài thường là ống hoặc đôi khi là dạng dải được quấn hình xoắn ốc. Các dây, que, ống, tấm, điện cực... bằng kim loại thường không được bọc hoặc không có lõi bằng chất trợ dung bị loại trừ (Chương 72 đến 76 và 78 đến 81)', 'Các vật liệu dùng để bọc hoặc làm lõi là chất trợ dung (ví dụ: clorua kẽm, clorua amoni, borac, thạch anh, nhựa hoặc mỡ lông cừu) để tránh phải thêm những chất này kèm khi hàn hơi, hàn xì, hàn điện. Điện cực cũng có thể kim loại phụ gia ở dạng bột. Trong hàn điện, lớp phủ ngoài có thể còn chứa một chất liệu chịu nhiệt (amiang...), hướng hồ quang điện lên phần được hàn.', 'Để hàn hồ quang điện người ta sử dụn</t>
   </si>
   <si>
     <t>['TỔNG QUÁT', '(A) PHẠM VI VÀ CẤU TRÚC CỦA CHƯƠNG', 'Chương này bao gồm tất cả các máy móc và thiết bị điện, ngoại trừ:', '(a) Các loại máy móc và thiết bị được mô tả ở Chương 84, chúng vẫn được xếp ở chương 84 mặc dù chúng chạy bằng điện (xem chú giải chi tiết tổng quát cúa chương 84).', 'và (b) Một số máy móc và thiết bị cụ thể được loại trừ khỏi Phần này (xem chú giải chi tiết tổng quát phần XVI).', 'Trái với các quy tắc trong chương 84, các hàng hóa vẫn được phân loại ở chương này dù nó được làm từ chất liệu bằng sứ hoặc bằng thủy tinh, ngoại trừ các phần vỏ bóng đèn thủy tinh (kể cả bóng dạng bầu và dạng ống) thuộc nhóm 70.11.', 'Chương này bao gồm:', '(1) Máy móc và thiết bị để sản xuất, biến đổi hoặc lưu trữ điện năng, ví dụ như máy phát điện, máy biến áp, v.v... (từ nhóm 85.01 đến 85.04) và các pin (nhóm 85.06) và ắc-quy (nhóm 85.07).', '(2) Một số thiết bị gia dụng cụ thể (nhóm 85.09) và máy cạo, tông đơ và dụng cụ loại bỏ râu, lông, tóc (nhóm 85.10).', '(3) Các máy móc và thiết bị cụ thể có hoạt động phụ thuộc vào đặc tính và hiệu ứng của điện, như các hiệu ứng điện-từ, đặc tính nhiệt, v.v... (nhóm 85.05, 85.11 đến 85.18, 85.25 đến 85.31 và 85.43).', '(4) Các thiết bị ghi hoặc tái tạo âm thanh; các thiết bị ghi hoặc tái tạo hình ảnh; bộ phận và phụ kiện của các thiết bị này (từ nhóm 85.19 đến 85.22).', '(5) Các phương tiện ghi âm hoặc các phương tiện tương tự để ghi các hiện tượng khác (bao gồm cả các phương tiện ghi hình ảnh, nhưng ngoại trừ phim để tạo ảnh hoặc phim dùng trong điện ảnh của Chương 37) (nhóm 85.23).', '(6) Mô-đun màn hình dẹt (nhóm 85.24).', '(7) Các mặt hàng điện loại thường không được sử dụng độc lập, nhưng được thiết kế như những thành phần có chức năng cụ thể trong các thiết bị điện,... ví dụ như tụ điện (nhóm 85.32), công tắc điện, cầu chì, hộp đấu nối, v.v... (nhóm 85.35 hoặc 85.36), bóng đèn (nhóm 85.39), đèn điện tử và ống điện tử dùng nhiệt điện tử, v.v... (nhóm 85.40), các điốt, tranzito và các thiết bị bán dẫn tương tự (nhóm 85.41), điện cực than (nhóm 85.45).', '(8) Một số sản phẩm và vật liệu dùng trong các dụng cụ và thiết bị điện nhờ tính dẫn điện hoặc cách điện, chẳng hạn như dây điện cách điện và phụ kiện của chúng (nhóm 85.44), vật liệu cách điện (nhóm 85.46), phụ kiện cách điện và các ống dẫn dây điện bằng kim loại đã được lót vật liệu cách điện bên trong (nhóm 85.47).', 'Ngoài các thiết bị được nêu ở trên, Chương này cũng bao gồm các nam châm vĩnh cửu, kể cả loại chưa được từ hóa và các nam châm vĩnh cửu dùng làm dụng cụ giữ (nhóm 85.05).', 'Tuy nhiên, cũng phải chú ý rằng, Chương này chỉ bao gồm một số thiết bị nhiệt điện nhất định như lò nung v.v... (nhóm 85.14), và các thiết bị làm nóng không gian, và các thiết bị nhiệt gia dụng v.v... (nhóm 85.16).', 'Cũng phải chú ý thêm rằng một số mô đun nhớ điện tử (ví dụ SIMMs và DIMMs), nó không thể được xem như sản phẩm của nhóm 85.23 hoặc mạch tích hợp đa thành phần (MCOs) của nhóm 85.42 (xem Chú giải 12 (b) (iv) của Chương này), và không có chức năng riêng biệt khác sẽ được phân loại bằng cách áp dụng Chú giải 2 Phần XVI như sau:', '(a) mô đun thích hợp để chỉ dùng hoặc chủ yếu dùng với các máy xử lý dữ liệu tự động được phân loại vào nhóm 84.73 như bộ phận của các máy này,', '(b) mô đun thích hợp để chỉ dùng hoặc chủ yếu dùng với các máy cụ thể khác hoặc với một số các máy móc trong cùng nhóm thì được phân loại như bộ phận của máy hoặc nhóm máy đó, và', '(c) trường hợp không thể xác định được công dụng chính thì các mô đun này phân loại vào nhóm 85.48.', 'Tuy nhiên, nhìn chung các thiết bị nhiệt điện rơi vào chương khác (chủ yếu ở Chương 84), ví dụ: nồi hơi tạo ra hơi nước và nồi hơi nước quá nhiệt (nhóm 84.02), máy điều hòa không khí (nhóm 84.15), thiết bị rang, chưng cất hay thiết bị khác của nhóm 84.19, các loại máy cán là hay máy cán ép phẳng kiểu trục con lăn khác và các loại trục cán của chúng (nhóm 84.20), máy ấp trứng gia cầm và thiết bị sưởi ấm gia cầm mới nở (nhóm 84.36), các loại máy in nhãn có mục đích dùng chung cho gỗ, lie, da... (nhóm 84.79) và thiết bị y khoa (nhóm 90.18).', '(B) CÁC BỘ PHẬN', 'Liên quan đến các bộ phận nói chung, xem chú giải chi tiết tổng quát Phần XVI', 'Các bộ phận không dùng điện của máy móc hoặc thiết bị trong Chương này được phân loại như sau:', '(i) Trên thực tế, rất nhiều bộ phận thuộc các sản phẩm của chương này được phân loại vào chương khác (đặc biệt là Chương 84), ví dụ như máy bơm và quạt (nhóm 84.13 hoặc 84.14), van, vòi v.v... (nhóm 84.81), vòng bi (nhóm 84.82), trục truyền động, bánh răng v.v... (nhóm 84.83).', '(ii) Các bộ phận không dùng điện khác thích hợp để chỉ dùng hoặc chủ yếu dùng cho các máy hoặc thiết bị điện cụ thể... của Chương này (hoặc với một số máy của cùng nhóm) thì được phân loại cùng với máy đó (hoặc các máy đó), hoặc nếu phù hợp thì được xếp vào nhóm 85.03, 85.22, 85.29 hoặc 85.38.', '(iii) Các bộ phận không dùng điện khác xếp vào nhóm 84.87.']</t>
@@ -1114,7 +1084,7 @@
     <t>['TỔNG QUÁT', 'Chương này bao gồm khí cầu và khinh khí cầu điều khiển được và phương tiện bay không dùng động cơ (nhóm 88.01), phương tiện bay khác (các nhóm 88.02 hoặc 88.06), tàu vũ trụ (kể cả vệ tinh) và phương tiện đẩy để phóng tầu vũ trụ (nhóm 88.02), một số thiết bị tương tự khác như dù (nhóm 88.04), thiết bị phóng dùng cho phương tiện bay, dàn hãm tốc độ đùng cho tàu sân bay và thiết bị huấn luyện bay mặt đất (nhóm 88.05).', 'Các phương tiện bay chưa hoàn chỉnh hoặc chưa hoàn thiện (ví dụ phương tiện bay không trang bị động cơ hoặc thiết bị bên trong) được phân loại như là các phương tiện bay hoàn chỉnh hoặc hoàn thiện, với điều kiện chúng mang những đặc điểm chủ yếu của phương tiện bay đã hoàn chỉnh hoặc hoàn thiện.', '88.01- Khí cầu và khinh khí cầu điều khiển được; tàu lượn, tàu lượn treo và các phương tiện bay khác không dùng động cơ.', '(I) KHÍ CẦU VÀ KHINH KHÍ CẦU ĐIỀU KHIỂN ĐƯỢC', 'Nhóm này bao gồm các phương tiện bay nhẹ hơn không khí, không phân biệt mục đích sử dụng (quân sự, thể thao, khoa học, quảng cáo...). Loại này gồm những khí cầu tự do và khí cầu có dây giữ (ví dụ, giữ chặt vào mặt đất bằng cáp), và những khinh khí cầu có thể điều khiển cơ khí được.', 'Nhóm này cũng bao gồm các loại khí cầu được sử dụng trong ngành hàng không hoặc khí tượng:', '(1) Các khí cầu thăm dò. Những khí cầu này được sử dụng để đưa các máy móc thăm dò vô tuyến lên cao. Chúng có thể nặng đến 4.500g, nhưng trọng lượng thông thường của chúng giao động từ 350g đến 1.500g.', '(2) Các khí cầu hoa tiêu. Những khí cầu này được phóng lên để xác định tốc độ và hướng gió. Chúng thường nặng từ 50g đến 100g.', '(3) Các khí cầu đo độ cao mây. Loại này thường nhỏ hơn các loại được nêu tại các điểm (1) và (2) ở trên và thường có trọng lượng từ 4g đến 30g. Chúng được sử dụng để xác định độ cao của mây.', 'Trong hầu hết các trường hợp, các khí cầu được sử dụng trong ngành khí tượng thường được chế tạo bằng cao su rất mỏng, chất lượng cao cho phép có mức độ giãn lớn. Các loại khí cầu đồ chơi của trẻ em bị loại trừ (nhóm 95.03). Chúng có thể được phân biệt bởi chất lượng thấp hơn, có cổ ngắn để bơm hơi và thường được trang trí hoặc quảng cáo bên ngoài.', '(II) TÀU LƯỢN VÀ TÀU LƯỢN TREO', 'Tàu lượn là những phương tiện bay nặng hơn không khí, hoạt động dựa theo các dòng khí quyển. Tuy nhiên, các tàu lượn trang bị hoặc được thiết kế có gắn động cơ được phân loại vào nhóm 88.02.', 'Tàu lượn treo, đặc biệt, bao gồm cánh hình tam giác vuốt về sau (cánh đen ta), cho phép cố định một hoặc hai người vào tàu lượn bởi bộ dây treo để thực hiện một số thao tác bay. Những cánh bay này được làm từ các vật liệu (thường là vải dệt) được trùm lên một khung cứng, thường là hình ống và bằng kim loại, được gắn một thanh nằm ngang ở giữa khung để lái. Các dạng khác của tàu lượn treo có thể mang các hình dáng khác, nhưng tương tự như loại cánh đen ta về cấu trúc và cách vận hành khí động lực.', '(III) CÁC PHƯƠNG TIỆN BAY KHÁC KHÔNG DÙNG ĐỘNG CƠ', 'Nhóm này bao gồm diều, là những phương tiện bay nặng hơn không khí, không có máy đẩy. Diều được đề cập ở đây là loại được nối giữ với mặt đất bằng một loại dây tương tự như những khí cầu có dây giữ và có thể được sử dụng, ví dụ, để mang các dụng cụ đo đạc khí tượng.', 'Nhóm này không bao gồm diều được thiết kế làm đồ chơi (nhóm 95.03)', 'Nhóm này không bao gồm các mô hình, cho dù có được chế tạo chính xác theo tỷ lệ hay không, để trang trí (ví dụ, nhóm 44.20 hoặc 83.06), để trưng bầy (nhóm 90.23), hoặc các đồ chơi hoặc nhằm mục đích giải trí (nhóm 95.03)']</t>
   </si>
   <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm tàu thuyền các loại (tự hành hoặc không) và cả các kết cấu nổi như giếng chìm hơi ép để làm việc dưới nước, các thùng nổi buộc tàu thuyền, bến tàu thủy, phao tiêu. Chương này cũng bao gồm các xe đệm không khí (tàu đệm khí) được thiết kế để di chuyển trên mặt nước (biển, cửa sông, hồ), có thể hoặc không thể đỗ trên bãi biển hoặc bến tàu hoặc có thể di chuyển trên bề băng (xem Chú giải 5 Phần XVII)', 'Chương này cũng bao gồm:', '(A) Tàu thuyền chưa hoàn chỉnh hoặc chưa hoàn thiện (ví dụ tàu chưa lắp động cơ đẩy, khí cụ hàng hải, máy nâng hàng hoặc máy xếp dỡ hàng hoặc đồ nội thất)', '(B) Thân tàu làm bằng bất cứ chất liệu gì.', 'Tàu thuyền hoàn chỉnh ở dạng chưa lắp ráp hoặc tháo rời và thân tàu, tàu thuyền chưa hoàn chỉnh hoặc chưa hoàn thiện (đã hoặc chưa lắp ráp), được phân loại vào một loại tầu thuyền cụ thể, nếu chúng có đặc trưng cơ bản của tàu thuyền đó. Trong các trường hợp khác, chúng được phân loại vào nhóm 89.06.', 'Ngược với quy định liên quan đến thiết bị chuyên chở của những Chương khác thuộc Phần XVII, Chương này loại trừ các bộ phận ở dạng riêng lẻ (trừ thân tàu) và phụ kiện của tàu thuyền hoặc kết cấu nổi, mặc dù chúng có thể được xác định rõ ràng là bộ phận của tàu thuyền. Những bộ phận và phụ kiện như trên được phân loại vào nhóm phù hợp quy định tại mục khác thuộc Danh mục, ví dụ:', '(1) Các bộ phận và đồ phụ trợ đã được định rõ tại Chú giải 2 Phần XVII.', '(2) Các mái chèo và giầm chèo bằng gỗ (nhóm 44.21).', '(3) Cáp và thừng chão bằng vật liệu dệt (nhóm 56.07).', '(4) Buồm (nhóm 63.06).', '(5) Cột buồm, cửa boong, cầu tàu, đường ray và vách ngăn của tàu hoặc thuyền và bộ phận của thân tàu, có đặc tính kết cấu bằng kim loại thuộc nhóm 73.08.', '(6) Cáp bằng sắt hoặc thép (nhóm 73.12).', '(7) Các neo bằng sắt hoặc thép (nhóm 73.16).', '(8) Chân vịt và bánh guồng nước tàu thủy (nhóm 84.87).', '(9) Bánh lái (các nhóm 44.21, 73.25, 73.26…) và các thiết bị lái hoặc thiết bị bánh lái khác của tàu hoặc thuyền (nhóm 84.79).', 'Chương này không bao gồm:', '(a) Các mô hình tàu thuyền dùng để trang trí (ví dụ như thuyền buồm và các thuyền chạy bằng sức gió khác) (nhóm 44.20, 83.06, ...).', '(b) Các mẫu trưng bày và các mô hình thuộc nhóm 90.23.', '(c) Ngư lôi, mìn và các loại đạn dược tương tự (nhóm 93.06).', '(d) Đồ chơi lắp bánh xe hình thuyền thiết kế cho trẻ em chơi và các đồ chơi khác (nhóm 95.03).', '(e) Các ván lướt trên mặt nước và các dụng cụ tương tự (nhóm 95.06)', '(f) Các thuyền bé được thiết kế đặc biệt dùng trong trò chơi di chuyển trong công viên giải trí (amusement park rides), trò chơi công viên nước (water park amusements) hoặc trò chơi hội chợ (fairground amusements) (nhóm 95.08).', '(g) Các cổ vật trên 100 tuổi (nhóm 97.06)', 'Các xe cơ giới lội nước và các xe chạy bằng đệm khí được thiết kế để di chuyển cả trên đất liền và trên một số mặt nước (đầm, v.v...) đều được phân loại như xe có động cơ của Chương 87, và thuỷ phi cơ và thuyền bay thuộc nhóm 88.02.', '89.01 -Tàu thủy chở khách, thuyền, xuồng du lịch, phà, tàu thủy chở hàng, xà lan và các tàu thuyền tương tự để vận chuyển người hoặc hàng hóa']</t>
+    <t>['TỔNG QUÁT', 'Chương này bao gồm tàu thuyền các loại (tự hành hoặc không) và cả các kết cấu nổi như giếng chìm hơi ép để làm việc dưới nước, các thùng nổi buộc tàu thuyền, bến tàu thủy, phao tiêu. Chương này cũng bao gồm các xe đệm không khí (tàu đệm khí) được thiết kế để di chuyển trên mặt nước (biển, cửa sông, hồ), có thể hoặc không thể đỗ trên bãi biển hoặc bến tàu hoặc có thể di chuyển trên bề băng (xem Chú giải 5 Phần XVII)', 'Chương này cũng bao gồm:', '(A) Tàu thuyền chưa hoàn chỉnh hoặc chưa hoàn thiện (ví dụ tàu chưa lắp động cơ đẩy, khí cụ hàng hải, máy nâng hàng hoặc máy xếp dỡ hàng hoặc đồ nội thất)', '(B) Thân tàu làm bằng bất cứ chất liệu gì.', 'Tàu thuyền hoàn chỉnh ở dạng chưa lắp ráp hoặc tháo rời và thân tàu, tàu thuyền chưa hoàn chỉnh hoặc chưa hoàn thiện (đã hoặc chưa lắp ráp), được phân loại vào một loại tầu thuyền cụ thể, nếu chúng có đặc trưng cơ bản của tàu thuyền đó. Trong các trường hợp khác, chúng được phân loại vào nhóm 89.06.', 'Ngược với quy định liên quan đến thiết bị chuyên chở của những Chương khác thuộc Phần XVII, Chương này loại trừ các bộ phận ở dạng riêng lẻ (trừ thân tàu) và phụ kiện của tàu thuyền hoặc kết cấu nổi, mặc dù chúng có thể được xác định rõ ràng là bộ phận của tàu thuyền. Những bộ phận và phụ kiện như trên được phân loại vào nhóm phù hợp quy định tại mục khác thuộc Danh mục, ví dụ:', '(1) Các bộ phận và đồ phụ trợ đã được định rõ tại Chú giải 2 Phần XVII.', '(2) Các mái chèo và giầm chèo bằng gỗ (nhóm 44.21).', '(3) Cáp và thừng chão bằng vật liệu dệt (nhóm 56.07).', '(4) Buồm (nhóm 63.06).', '(5) Cột buồm, cửa boong, cầu tàu, đường ray và vách ngăn của tàu hoặc thuyền và bộ phận của thân tàu, có đặc tính kết cấu bằng kim loại thuộc nhóm 73.08.', '(6) Cáp bằng sắt hoặc thép (nhóm 73.12).', '(7) Các neo bằng sắt hoặc thép (nhóm 73.16).', '(8) Chân vịt và bánh guồng nước tàu thủy (nhóm 84.87).', '(9) Bánh lái (các nhóm 44.21, 73.25, 73.26…) và các thiết bị lái hoặc thiết bị bánh lái khác của tàu hoặc thuyền (nhóm 84.79).', 'Chương này không bao gồm:', '(a) Các mô hình tàu thuyền dùng để trang trí (ví dụ như thuyền buồm và các thuyền chạy bằng sức gió khác) (nhóm 44.20, 83.06, ...).', '(b) Các mẫu trưng bày và các mô hình thuộc nhóm 90.23.', '(c) Ngư lôi, mìn và các loại đạn dược tương tự (nhóm 93.06).', '(d) Đồ chơi lắp bánh xe hình thuyền thiết kế cho trẻ em chơi và các đồ chơi khác (nhóm 95.03).', '(e) Các ván lướt trên mặt nước và các dụng cụ tương tự (nhóm 95.06)', '(f) Các thuyền bé được thiết kế đặc biệt dùng trong trò chơi di chuyển trong công viên giải trí (amusement park rides), trò chơi công viên nước (water park amusements) hoặc trò chơi hội chợ (fairground amusements) (nhóm 95.08).', '(g) Các cổ vật trên 100 tuổi (nhóm 97.06)', 'Các xe cơ giới lội nước và các xe chạy bằng đệm khí được thiết kế để di chuyển cả trên đất liền và trên một số mặt nước (đầm, v.v...) đều được phân loại như xe có động cơ của Chương 87, và thuỷ phi cơ và thuyền bay thuộc nhóm 88.02.', '89.01 -Tàu thủy chở khách, thuyền, xuồng du lịch, phà, tàu thủy chở hàng, xà lan và các tàu thuyền tương tự để vận chuyển người hoặc hàng hóa', '8901.10 - Tàu thủy chở khách, thuyền, xuồng du lịch và các tàu thuyền tương tự được thiết kế chủ yếu để vận chuyển người; phà các loại.', '8901.20 - Tàu chở chất lỏng hoặc khí hoá lỏng.', '8901.30 - Tàu thuyền đông lạnh, trừ loại thuộc phân nhóm 8901.20', '8901.90 - Tàu thuyền khác để vận chuyển hàng hóa và tàu thuyền khác để vận chuyển cả người và hàng hóa', 'Nhóm này bao gồm tất cả tàu thuyền dùng để vận chuyển người hoặc hàng hóa, trừ tàu thuyền thuộc nhóm 89.03 và xuồng cứu hộ (trừ loại thuyền dùng mái chèo), các tàu chở quân và tầu bệnh viện (nhóm 89.06); các loại tàu thuyền này có thể sử dụng để đi biển hoặc đường thủy nội địa (ví dụ trên hồ, kênh, sông, cửa sông).', 'Nhóm này bao gồm:', '(1) Các tàu thuỷ chở khách và du thuyền.', '(2) Các loại phà, bao gồm cả phà chở tàu hoả, chở ôtô và phà chạy ở sông nhỏ.', '(3) Các tàu chở chất lỏng hoặc khí hoá lỏng (chở dầu, chở khí đốt lỏng, chở rượu, v.v...)', '(4) Các tàu đông lạnh để chở thịt, hoa quả, v.v...', '(5) Các loại tàu chở hàng (trừ tàu chở dầu và tàu đông lạnh) chuyên hoặc không chuyên dùng để vận chuyển một số hàng nhất định. Các loại tàu này bao gồm tàu chở quặng và tàu chở hàng rời (để chở ngũ cốc, than), các tàu chở côngtennơ, các tàu ro-ro (roll on roll off) và tàu LASH.', '6) Các loại sà lan, sà lan sàn phẳng và cấu trúc nổi (ponttoon) có sàn phẳng dùng để vận chuyển hàng hoá, và đôi khi vận chuyển người.', '(7) Tàu lướt, tàu cánh ngầm và tàu đệm khí.']</t>
   </si>
   <si>
     <t>['TỔNG QUÁT', '(I) NỘI DUNG VÀ BỐ CỤC CỦA CHƯƠNG', 'Chương này bao gồm các loại dụng cụ và thiết bị, theo nguyên tắc, được đặc trưng bởi mức độ hoàn thiện và chính xác cao. Hầu hết chúng được sử dụng chủ yếu cho mục đích khoa học (nghiên cứu trong phòng thí nghiệm, phân tích, thiên văn học...), cho công nghiệp hoặc kỹ thuật chuyên ngành (đo lường hoặc kiểm tra, quan sát...) hoặc cho các mục đích y học.', 'Chương này bao gồm, cụ thể:', '(A) Một nhóm có phạm vi lớn, không chỉ gồm các bộ phận quang học đơn giản thuộc các nhóm 90.01 và 90.02, mà còn bao gồm các dụng cụ và thiết bị quang học, từ kính đeo mắt nhóm 90.04 đến các dụng cụ phức tạp hơn sử dụng trong thiên văn, nhiếp ảnh, điện ảnh hoặc quan sát hiển vi.', '(B) Những dụng cụ và thiết bị được thiết kế cho một số mục đích sử dụng nhất định (trắc địa học, khí tượng, đồ hoạ, tính toán, ...).', '(C) Các dụng cụ và thiết bị dùng trong y học, phẫu thuật, nha khoa hoặc thú y hoặc cho các mục đích liên quan (chụp X quang, liệu pháp vận động, liệu pháp oxy, khoa chỉnh hình, lắp bộ phận giả, ...)', '(D) Những máy móc, dụng cụ và thiết bị dùng để kiểm tra vật liệu.', '(E) Dụng cụ và thiết bị phòng thí nghiệm.', '(F) Một nhóm có phạm vi lớn bao gồm những dụng cụ và máy móc đo lường, kiểm tra hoặc điều chỉnh tự động, sử dụng hoặc không sử dụng các phương pháp quang học hoặc điện và đặc biệt cả những máy móc, dụng cụ thuộc nhóm 90.32 như định nghĩa ở Chú giải 7 của Chương này.', 'Một số dụng cụ và thiết bị này được nêu rõ trong một số nhóm như các kính hiển vi quang học phức hợp (nhóm 90.11), kính hiển vi điện tử (nhóm 90.12), các dụng cụ và thiết bị khác thuộc loại này do những mô tả chưng tại các nhóm có liên quan đến một ngành khoa học, ngành công nghiệp đặc thù,... (ví dụ, các dụng cụ thiên văn thuộc nhóm 90.05, các dụng cụ và thiết bị dùng để quan trắc thuộc nhóm 90.15, các máy tia X,..., các thiết bị thuộc nhóm 90.22). Chương này cũng bao gồm thiết bị chân không sử dụng trong y học, phẫu thuật, nha khoa hoặc thú y (nhóm 90.18).', 'Có một số ngoại lệ đối với nguyên tắc chung là các dụng cụ và thiết bị thuộc Chương này là những loại có độ chính xác cao. Ví dụ, Chương này cũng bao gồm những kính bảo hộ thông thường (nhóm 90.04), các kính lúp và các kính tiềm vọng không phóng to (nhóm 90.13), các thước chia độ và thước học sinh (nhóm 90.17), các ẩm kế có tính chất trang trí không kể đến độ chính xác của chúng (nhóm 90.25).', 'Ngoại trừ những loại trừ tại Chú giải 1 Chương này (như vòng đệm và miếng đệm bằng cao su hoặc bằng da, và các màng bằng da dùng trong đồng hồ đo), thiết bị, dụng cụ và các bộ phận của chúng thuộc Chương này có thể bằng bất kỳ vật liệu nào (kể cả kim loại quý hoặc kim loại bọc dát kim loại quý, các đá quý hoặc đá bán quý (đá tự nhiên, tổng hợp hoặc tái tạo)).', '(II) MÁY MÓC, THIẾT BỊ CHƯA HOÀN CHỈNH HOẶC CHƯA HOÀN THIỆN...', '(Xem Quy tắc 2(a))', 'Với điều kiện máy móc, thiết bị đã có đặc trưng cơ bản của sản phẩm hoàn chỉnh hoặc hoàn thiện, khi đó máy móc, thiết bị hoặc dụng cụ chưa hoàn chỉnh hoặc chưa hoàn thiện được phân loại cùng với những sản phẩm đã hoàn chỉnh hoặc hoàn thiện (ví dụ, một máy ảnh hoặc một kính hiển vi không có bộ phận quang học của nó hoặc một thiết bị đo lượng điện được cung cấp không có thiết bị đếm tổng của nó).', '(III) BỘ PHẬN VÀ PHỤ KIỆN', '(Chú giải 2 của Chương)', 'Theo Chú giải 1 của Chương này, các bộ phận hoặc phụ tùng được xác định là chỉ sử dụng hoặc sử dụng chủ yếu cho máy móc, thiết bị hoặc dụng cụ của Chương này được phân loại cùng với máy móc, thiết bị đó,...', 'Tuy nhiên, quy tắc này không áp dụng với:', '(1) Các bộ phận hoặc phụ tùng mà bản thân chúng tạo thành những mặt hàng thuộc nhóm cụ thể của Chương này hay các Chương 84, Chương 85 hoặc Chương 91 (trừ các nhóm 84.87, 85.48 hoặc 90.33). Ví dụ, bơm chân không cho kính hiển vi điện tử vẫn được phân loại là bơm thuộc nhóm 84.14; máy biến điện, nam châm điện, tụ điện, điện trở, rơle, đèn hoặc van đèn điện... vẫn được phân loại vào Chương 85; những bộ phận quang học thuộc nhóm 90.01 hoặc 90.02 vẫn thuộc các nhóm đã nêu bất kể chúng được sử dụng cho dụng cụ hoặc thiết bị nào; máy đồng hồ thời gian và đồng hồ cá nhân luôn được phân loại vào Chương 91; máy ảnh thuộc nhóm 90.06 dù chúng thuộc loại được thiết kế để sử dụng với một dụng cụ khác (hiển vi, stroboscope (tần kế, máy hoạt nghiệm)...).', '(2) Các bộ phận hoặc phụ tùng có thể sử dụng cho nhiều loại máy móc, dụng cụ hoặc thiết bị ở các nhóm khác nhau thuộc Chương này đều được phân loại vào nhóm 90.33, trừ khi đó là những dụng cụ hoàn chỉnh được nêu trong một nhóm khác (xem đoạn (1) ở trên).', '(IV) MÁY MÓC, THIẾT BỊ ĐA CHỨC NĂNG HOẶC TỔ HỢP MÁY MÓC, THIẾT BỊ,..; BỘ PHẬN CHỨC NĂNG', '(Chú giải 3 của Chương)', 'Chú giải 3 nêu rõ các quy định của Chú giải 3 và 4 Phần XVI cũng áp dụng cho Chương này (xem các Phần (VI) và (VII) của Chú giải tổng quát Phần XVI).', 'Thông thường, máy móc đa chức năng được phân loại theo chức năng chính của máy đó.', 'Máy móc đa chức năng có thể thực hiện nhiều thao tác khác nhau.', 'Theo Chú giải 3 Phần XVI khi không thể xác định chức năng chính, và khi không có yêu cầu khác, thì phải áp dụng Quy tắc 3 (c).', 'Tổ hợp máy móc hoặc thiết bị gồm từ 2 máy móc hoặc thiết bị khác nhau trở lên, được lắp ráp cùng với nhau để tạo thành một tổng thể, lần lượt hoặc đồng thời thực hiện chức năng riêng lẻ mà chức năng này bổ trợ và được mô tả ở các nhóm khác nhau của Chương này, thì được phân loại theo chức năng chính của tả hợp máy móc hoặc thiết bị.', 'Theo mục đích của các nội dung trên, máy móc hoặc thiết bị khác nhau được lắp ráp cùng nhau để thành một tổ hợp khi lắp ráp một máy này vào máy móc khác hoặc gắn một máy này vào một máy khác hoặc gắn trên cùng một nền chung hoặc một khung chung hoặc trong một buồng chứa chung.', 'Bộ phận lắp ráp của máy móc hoặc thiết bị không được lắp cùng nhau để tạo thành một tổ hợp trừ khi máy móc hoặc thiết bị được thiết kế để gắn cố định với nhau hoặc gắn với một đế, khung, buồng chung.', 'Điều này loại trừ bộ phận lắp ráp mang tính chất tạm thời hoặc không được thường xuyên lắp ráp thành máy móc, thiết bị tổ hợp,...', 'Đế, khung hoặc buồng chứa có thể được kèm theo bánh để tổ hợp máy móc hoặc thiết bị có thể di chuyển theo yêu cầu khi sử dụng, với điều kiện chúng không mang đặc trưng của một sản phẩm (ví dụ, xe cộ) được mô tả cụ thể hơn tại một nhóm khác của Danh mục.', 'Sàn, đế cứng, tường, vách ngăn, trần,... thậm chí được lắp ghép đặc biệt để chứa máy móc hoặc thiết bị thì không được xem xét như một đế chung kết nối những máy móc hoặc thiết bị đó để tạo thành một tổng thể.', 'Chú giải 3, Phần XVI không áp dụng đối với tổ hợp máy móc hoặc thiết bị thuộc một nhóm cụ thể nào đó.', 'Chương này bao gồm, như các bộ phận chức năng, dụng cụ hoặc thiết bị điện (bao gồm cả điện tử) tạo thành một hệ thống đo từ xa bằng kỹ thuật tương tự hay bằng kỹ thuật số. Những thiết bị chủ yếu đó bao gồm:', '(I) Các thiết bị ở đầu truyền:', '(i) Một máy dò chính (bộ chuyển đổi, máy phát, máy biến đổi điện liên biến số, v.v...) biến đổi một đại lượng nào đó cần phải đo, không phụ thuộc tính chất, thành một tín hiệu số, điện áp hoặc thành một dòng điện.', '(ii) Một thiết bị khuếch đại đo lường, phát và thu tín hiệu cơ bản mà (nếu cần) có thể nâng dòng điện, điện áp hoặc tín hiệu số lên mức yêu cầu nhờ thiết bị phát bằng xung động hoặc bộ điều biến tần số.', '(iii) Một thiết bị phát xung động hoặc bộ điều biến tần số truyền tín hiệu tương tự hoặc tín hiệu số đến trạm khác.', '(II) Các thiết bị ở đầu nhận:', '(i) Một thiết bị nhận xung động, điều biến tần số hoặc tín hiệu số: biến đổi thông tin truyền đến thành tín hiệu tương tự hoặc tín hiệu số.', '(ii) Một thiết bị khuếch đại hoặc biến đổi đo lường để, nếu cần, thì khuyếch đại tín hiệu tương tự hoặc tín hiệu số.', '(iii) Những thiết bị báo hoặc thiết bị ghi đã định cỡ tùy theo đại lượng ban đầu và được gắn thiết bị báo cơ học hoặc biểu thị quang điện tử.', 'Những hệ thống đo từ xa được ứng dụng chủ yếu trong các đường ống sản xuất dầu, khí đốt, nước và các hệ thống xử lý chất thải và trong các hệ thống quản lý môi trường.', 'Các thiết bị truyền và thu nhận có dây hoặc vụ tuyến để đo từ xa vẫn được phân loại trong các nhóm tương ứng của chúng (nhóm 85.17, 85.25 hoặc 85.27 tùy trường hợp) trừ khi chúng được kết hợp như một thiết bị đơn lẻ với những thiết bị nêu ở mục (I) và (II) trên hoặc nếu cả tổ hợp tạo thành một bộ phận chức năng theo nội dung Chú giải 3 của Chương 90; thiết bị hoàn chỉnh được phân loại trong Chương này.', '*', '*   *', 'Ngoài các loại trừ được nêu trong nội dung của Chú giải Chi tiết, Chương này không bao gồm các sản phẩm sau đây:', '(a) Các loại sản phẩm sử dụng trong các máy móc, thiết bị hoặc các ứng dụng kỹ thuật khác làm bằng cao su lưu hoá trừ cao su cứng (nhóm 40.16), bằng da thuộc hay da thuộc tổng hợp (nhóm 42.05) hoặc bằng vật liệu dệt (nhóm 59.11).', '(b) Các bộ phận có công dụng chung, được định nghĩa trong Chú giải 2 của Phần XV, bằng kim loại cơ bản (Phần XV) hoặc các mặt hàng tương tự bằng plastic (Chương 39).', 'c) Các máy nâng hạ (từ nhóm 84.25 đến 84.28 và 84.86); phụ kiện để điều chỉnh thao tác hoặc các công cụ ở các máy công cụ hoặc máy cắt bằng tia nước, thuộc nhóm 84.66, gồm cả các phụ kiện có đầu đọc quang học dùng để đọc chỉ số cân (ví dụ các đầu phân chia “quang học”) nhưng không gồm các bộ phận mà bản thân đã là các thiết bị quang học (ví dụ như các kính thiên văn thẳng); các thiết bị ra đa, các máy liên lạc vô tuyến trợ giúp trong hàng hải hoặc các máy vô tuyến điều khiển từ xa (nhóm 85.26).', '(d) Tàu vũ trụ có trang bị các dụng cụ hoặc thiết bị thuộc Chương này (nhóm 88.02).', '(e) Đồ chơi, thiết bị trò chơi, dụng cụ thể thao và các sản phẩm khác của Chương 95, và các bộ phận, phụ tùng của chúng.', '(f) Các dụng cụ đo công suất được phân loại theo vật liệu cấu thành.', '(g) Các cuộn, lõi hoặc các lõi cuốn tương tự (được phân loại theo vật liệu cấu thành, ví dụ trong nhóm 39.23 hoặc Phần XV).']</t>
@@ -1123,7 +1093,7 @@
     <t>['TỔNG QUÁT', 'Chương này bao gồm những thiết bị nhất định được thiết kế chủ yếu để đo thời gian hoặc để tác động vào một số hoạt động liên quan đến thời gian. Chúng bao gồm các loại đồng hồ phù hợp để mang theo người (các loại đồng hồ đeo tay và đồng hồ bấm thời gian), các loại đồng hồ khác (các loại đồng hồ thời gian thông thường, đồng hồ với bộ phận máy đồng hồ, đồng hồ báo thức, đồng hồ hàng hải, đồng hồ thời gian dùng cho các xe có động cơ, vv...); và cả các loại thiết bị ghi nhận thời gian, các dụng cụ đo quãng thời gian và dụng cụ hẹn giờ; nói chung, chương này bao gồm cả các bộ phận của những mặt hàng nêu trên.', 'Các mặt hàng được nêu trong Chương này có thể được làm bằng bất kỳ vật liệu gì (kể cả kim loại quý) và chúng cũng có thể được trang trí hay tô điểm bằng ngọc trai thiên nhiên hoặc nuôi cấy, hoặc bằng đá quý hay bán quý tự nhiên, tổng hợp hoặc tái tạo (xem phần Chú giải Chi tiết nhóm 91.11 và 91.12).', 'Việc phân loại các loại đồng hồ thời gian và đồng hồ cá nhân được gắn vào đồ vật khác (một món đồ của đồ nội thất, đèn, giá cài bút, chặn giấy, tập giấy viết, hộp đựng thuốc lá sợi, bật lửa, túi xách tay, hộp phấn trang điểm, hộp đựng thuốc lá, bút chì bấm, gậy ba-toong, v.v...) được quy định bởi các Quy tắc giải thích thuật ngữ của Danh mục. Ngay cả đồng hồ thời gian hoặc đồng hồ cá nhân chỉ thêm bộ phận chiếu sáng bên trong vẫn thuộc Chương này.', 'Bên cạnh những loại trừ được nêu tại Chú giải chi tiết mỗi nhóm, Chương này không bao gồm:', '(a) Đồng hồ mặt trời và đồng hồ cát (được phân loại theo vật liệu cấu thành).', '(b) Thiết bị âm nhạc tự động (các loại nhạc cụ cơ khí tạo tiếng chim hót và những thứ tương tự) và các hộp phát nhạc không có mặt đồng hồ (nhóm 92.08).', '(c) Đồng hồ đồ chơi hay phụ kiện đính lên cây Giáng sinh dưới dạng đồng hồ thời gian hay đồng hồ cá nhân, không có máy đồng hồ (nhóm 95.03 hay 95.05).', '(d) Các mô hình tự động và các vật trưng bày cử động được khác của loại dùng trong cửa hàng may mặc (nhóm 96.18).', '(e) Các tác phẩm nghệ thuật, đồ sưu tầm, và đồ cổ (Chương 97).', 'Một chiếc đồng hồ thời gian hay đồng hồ cá nhân bao gồm hai phần chính: phần máy và phần vỏ chứa máy (hộp, vỏ, v.v...).', 'Máy của đồng hồ thời gian hoặc đồng hồ cá nhân loại cơ khí gồm có các bộ phận sau:', '(1) Phần thân máy hoặc khung máy thường bao gồm phần mâm và các cầu nối. Mâm là vật đỡ cơ bản của bộ máy, trên đó lắp các cầu nối được cố định bằng ốc vít và chốt. Một số thân hoặc khung máy, ngoài các cầu nối và cái mâm phù hợp, còn có một hay nhiều mâm phụ (được gọi, ví dụ: mâm bao dưới, mâm mặt số) để giữ một số bộ phận nhất định của máy vào đúng vị trí (cơ cấu chuyển động, cơ cấu báo thức...).', '(2) Thiết bị truyền động cho máy, thường gồm có quả lắc hay lò xo; nguồn năng lượng cũng có thể là điện, hoặc là những thay đổi về nhiệt độ hay áp suất khí quyển.', '(3) Bộ truyền động, tức là chuỗi bánh răng nối thiết bị truyền động với bộ phận điều hòa chuyển động (cái hồi) để đo lường thời gian.', '(4) Cơ cấu chuyển động, tức là hàng loạt các bộ phận nó liên kết chuyển động của kim phút với chuyển động của kim giờ. Trong những bộ máy có đĩa mặt số, cơ cấu chuyển động thường được đặt giữa đĩa mặt số và đĩa máy.', '(5) Bộ phận điều hòa chuyển động (cái hồi); cung cấp cho bánh lắc và dây tóc năng lượng cần thiết và bảo đảm chuyển động của bộ truyền động được kiểm soát.', '(6) Các loại điều hòa chuyển động (cái hồi) thông thường nhất là mỏ neo hay đòn bẩy, tấm nâng (pin-pallet), xi lanh và chốt hãm.', '(7) Bộ điều tốc; có chức năng điều chỉnh chuyển động tạo nên bởi cơ cấu truyền động. Bộ điều tốc gồm có quả lắc, bánh xe cân bằng và vành tóc, âm thoa, một mặt kính thạch anh áp điện hay bất kỳ hệ thống nào khác có thể xác định các khoảng thời gian.', '(8) Cơ cấu lên dây cót và đặt giờ bằng tay (được thực hiện bằng một nút nhấn, núm kéo hoặc thanh gạt, v.v...).', 'Máy đã lắp ráp cùng với mặt số và các kim được đặt gọn trong vỏ hoặc hộp máy.', 'Bánh xe cân bằng, bộ phận điều chỉnh chuyển động và các bộ phận truyền động đều được quay một cách hài hòa. Đối với đồng hồ thời gian và đồng hồ cá nhân thuộc loại rẻ tiền, các bộ phận này quay trực tiếp trên mâm và các cầu nối kim loại, nhưng trong những loại đắt tiền thì các ổ quay thường được làm bằng đá quý để chống mài mòn.', 'Đồng hồ thời gian và đồng hồ cá nhân có thể được lắp thêm bộ phận chuông báo giờ, chuông báo thức hay chuông ngân. Mỗi thiết bị này đều đòi hỏi một bộ chuyển động đặc biệt.', 'Đồng hồ thời gian và đồng hồ cá nhân cơ học được lên dây bằng tay, bằng điện hoặc tự động.', '*', '*    *', 'Các loại máy thuộc Chương này có thể là máy điện (bao gồm cả điện tử), ví dụ:', '(A) Các đồng hồ thời gian dùng pin khô hay ắc quy dự trữ yếu (khoảng vài phút). Những đồng hồ này có một tổ hợp bánh xe cân bằng và dây tóc hoặc quả lắc thông thường, dây cót được lên dây định kỳ nhờ một nam châm điện.', '(B) Các đồng hồ thời gian nối với lưới điện có dự trữ mạnh (vài giờ). Những đồng hồ này cũng trang bị một tổ hợp bánh xe cân bằng và dây tóc hoặc quả lắc thông thường hoặc quả lắc, dây cót được lên dây định kỳ nhờ một động cơ điện (đồng bộ, cảm ứng, v.v...)', '(C) Các đồng hồ quả lắc chạy bằng pin khô, ắc quy hoặc nối với lưới điện; quả lắc được giữ cho giao động bởi một thiết bị điện từ.', '(D) Các đồng hồ thời gian và đồng hồ cá nhân được cấp nguồn bằng pin khô hay ắc quy, với bộ điều tốc (âm thoa, mặt kính thạch anh áp điện, v.v...) được duy trì dao động bằng một mạch điện tử.', '(E) Các đồng hồ thời gian động cư (mô tơ) đồng bộ. Những đồng hồ này được nối vào một dòng điện được điều chỉnh tần số, do đó chỉ gồm có mô tơ và hệ thống truyền động, không cần bộ điều tốc.', 'Hệ thống đồng hồ thời gian chạy điện được đề cập cụ thể hơn trong Chú giải Chi tiết của nhóm 91.05.', 'Một số loại đồng hồ thời gian chạy điện được lắp thêm thiết bị điều chỉnh giờ bằng điều khiển từ xa.', '*', '*    *', 'Phục vụ cho mục đích định nghĩa các loại máy đồng hồ cá nhân theo Chú giải 3 của Chương này, các phương pháp đo lường kích thước sau đây được áp dụng:', '(a) Đo độ dày', 'Độ dày của máy là khoảng cách từ mặt ngoài của chỗ đỡ mặt số (hay mặt nhìn thấy được của mặt số nếu mặt kia gắn chặt với máy) đến mặt ngoài đối diện xa nhất, không kể ốc, đai ốc hoặc các linh kiện cố định khác nhô lên trên bề mặt này.', '(b) Đo chiều rộng, chiều dài hay đường kính', 'Tùy theo trường hợp, chiều rộng, chiều dài hay đường kính (được xác định bằng các trục đối xứng) được đo mà không tính đến núm lên dây hay núm xoay.']</t>
   </si>
   <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm:', '(A) Những nhạc cụ (từ nhóm 92.01 đến 92.08).', '(B) Các bộ phận và phụ kiện của chúng (nhóm 92.09).', 'Một số nhạc cụ ( đàn pianô, ghita...) có thể có các thiết bị điện để đọc và khuếch đại âm thanh, vẫn được phân loại vào các nhóm tương ứng của Chương này trong trường hợp nếu không có các thiết bị điện nói trên chúng vẫn sử dụng được như những nhạc cụ thông thường tương tự. Những thiết bị điện trên trừ khi tạo nên một bộ phận không tách rời của nhạc cụ hoặc lắp vào cùng một vỏ với nhạc cụ đều không thuộc Chương này (thuộc 85.18).', 'Các nhạc cụ điện hay điện tử (trừ đàn piano tự động thuộc nhóm 92.01) mà không sử dụng được nếu thiếu các thiết bị điện hoặc điện tử, thuộc nhóm 92.07 (xem phần Chú giải Chi tiết tương ứng). Nhóm 92.07 sẽ bao gồm, ví dụ như, những nhạc cụ điện, điện tử hay những loại tương tự như ghita, đàn óc, piano, đàn accordion, chuông chùm.', 'Những nhạc cụ và thiết bị Chương này có thể được làm bằng mọi chất liệu, kể cả kim loại quý hay kim loại được dát phủ bằng kim loại quý, và có thể đính kèm đá quý hoặc đá bán quý (tự nhiên, tổng hợp hay tái tạo).', 'Theo Chú giải 2 của Chương này, cần kéo và miếng gảy cho các loại nhạc cụ có dây thuộc nhóm 92.02, và que gõ (bao gồm cả que gõ có đầu mềm) và dùi cho những nhạc cụ thuộc bộ gõ của nhóm 92.06, khi đi kèm với những nhạc cụ này với số lượng kèm theo thông thường, và được xác định rõ là sử dụng cùng với nhạc cụ, sẽ được phân loại vào cùng nhóm nhạc cụ liên quan và không thuộc vào nhóm 92.09. Tuy nhiên, thẻ, đĩa và trục quay thuộc nhóm 92.09 đi kèm với nhạc cụ được xem là mặt hàng riêng biệt và không phải là bộ phận cấu thành nhạc cụ đó.', 'Bên cạnh những loại trừ đề cập cụ thể trong phần Chú giải Chi tiết dưới đây, Chương này còn loại trừ:', '(a) Các mô đun điện tử âm nhạc (nhóm 85.43)', '(b) Những nhạc cụ mà có thể xác định rõ ràng là đồ chơi dựa trên đặc tính của vật liệu chế tạo, độ trau chuốt không cao, không có chất lượng âm thanh hoặc bằng bất cứ đặc tính nào khác (Chương 95). Ví dụ như một số loại đàn organ thổi, đàn viôlông, đàn accordion, kèn trompet, trống, hộp nhạc.', '(c) Các vật phẩm sưu tập (nhóm 97.05) (ví dụ những nhạc cụ có ý nghĩa lịch sử hay dân tộc học), hoặc đồ cổ có tuổi trên 100 năm (nhóm 97.06).', '(d)', '92.01- Đàn piano, kể cả piano tự động; đàn clavecin (hapsichords) và các loại đàn đây có phím bấm khác (+).']</t>
+    <t>['TỔNG QUÁT', 'Chương này bao gồm:', '(A) Những nhạc cụ (từ nhóm 92.01 đến 92.08).', '(B) Các bộ phận và phụ kiện của chúng (nhóm 92.09).', 'Một số nhạc cụ ( đàn pianô, ghita...) có thể có các thiết bị điện để đọc và khuếch đại âm thanh, vẫn được phân loại vào các nhóm tương ứng của Chương này trong trường hợp nếu không có các thiết bị điện nói trên chúng vẫn sử dụng được như những nhạc cụ thông thường tương tự. Những thiết bị điện trên trừ khi tạo nên một bộ phận không tách rời của nhạc cụ hoặc lắp vào cùng một vỏ với nhạc cụ đều không thuộc Chương này (thuộc 85.18).', 'Các nhạc cụ điện hay điện tử (trừ đàn piano tự động thuộc nhóm 92.01) mà không sử dụng được nếu thiếu các thiết bị điện hoặc điện tử, thuộc nhóm 92.07 (xem phần Chú giải Chi tiết tương ứng). Nhóm 92.07 sẽ bao gồm, ví dụ như, những nhạc cụ điện, điện tử hay những loại tương tự như ghita, đàn óc, piano, đàn accordion, chuông chùm.', 'Những nhạc cụ và thiết bị Chương này có thể được làm bằng mọi chất liệu, kể cả kim loại quý hay kim loại được dát phủ bằng kim loại quý, và có thể đính kèm đá quý hoặc đá bán quý (tự nhiên, tổng hợp hay tái tạo).', 'Theo Chú giải 2 của Chương này, cần kéo và miếng gảy cho các loại nhạc cụ có dây thuộc nhóm 92.02, và que gõ (bao gồm cả que gõ có đầu mềm) và dùi cho những nhạc cụ thuộc bộ gõ của nhóm 92.06, khi đi kèm với những nhạc cụ này với số lượng kèm theo thông thường, và được xác định rõ là sử dụng cùng với nhạc cụ, sẽ được phân loại vào cùng nhóm nhạc cụ liên quan và không thuộc vào nhóm 92.09. Tuy nhiên, thẻ, đĩa và trục quay thuộc nhóm 92.09 đi kèm với nhạc cụ được xem là mặt hàng riêng biệt và không phải là bộ phận cấu thành nhạc cụ đó.', 'Bên cạnh những loại trừ đề cập cụ thể trong phần Chú giải Chi tiết dưới đây, Chương này còn loại trừ:', '(a) Các mô đun điện tử âm nhạc (nhóm 85.43)', '(b) Những nhạc cụ mà có thể xác định rõ ràng là đồ chơi dựa trên đặc tính của vật liệu chế tạo, độ trau chuốt không cao, không có chất lượng âm thanh hoặc bằng bất cứ đặc tính nào khác (Chương 95). Ví dụ như một số loại đàn organ thổi, đàn viôlông, đàn accordion, kèn trompet, trống, hộp nhạc.', '(c) Các vật phẩm sưu tập (nhóm 97.05) (ví dụ những nhạc cụ có ý nghĩa lịch sử hay dân tộc học), hoặc đồ cổ có tuổi trên 100 năm (nhóm 97.06).', '(d)', '92.01- Đàn piano, kể cả piano tự động; đàn clavecin (hapsichords) và các loại đàn đây có phím bấm khác (+).', '9201.10 - Đàn piano loại đứng', '9201.20 - Đại dương cầm (grand piano)', '9201.90 - Loại khác', 'Nhóm này bao gồm:', '(1) Đàn piano, với bàn phím và dây đàn được gõ bằng những chiếc búa gõ, dù có hoặc không gắn với một thiết bị điện để đọc và khuếch đại âm thanh, nghĩa là:', '(a) Đàn piano loại đứng, có miếng gỗ tăng âm trên đó các dây đàn được căng theo chiều thẳng đứng, và khi chéo nhau thì những dây trầm bắt qua các dây còn lại.', '(b) Đại dương cầm (đàn piano cánh lớn và cánh nhỏ) có dây được căng ngang suốt chiều dài hộp đàn tạo thành một dạng đuôi (cánh).', 'Nhóm này bao gồm đàn piano tự động dù có bàn phím hay không được vận hành bởi những phương tiện như những băng giấy hay bìa đục lỗ; những đàn này có thể chạy bằng cơ, khí động hay điện.', 'Tuy nhiên, “đàn piano điện tử” cũng như những nhạc cụ điện tử, có thể hòa với piano để tạo hiệu ứng âm thanh của những nhạc cụ khác trong khi đàn piano đang chơi, thuộc nhóm 92.07 (xem Chú giải Tổng quát của Chương này)', '(2) Đàn clavecin và các loại đàn dây có phím bấm khác như đàn xpinet (spinet) và đàn clavichord.', 'o', 'o   o', 'Chú giải Phân nhóm.', 'Các Phân nhóm 9201.10 và 9201.20', 'Các phân nhóm này cũng bao gồm đàn piano tự động.']</t>
   </si>
   <si>
     <t>['TỔNG QUÁT', 'Chương này bao gồm:', '(1) Các loại vũ khí dùng cho tác chiến trên bộ, biển hay trên không do quân đội, cảnh sát hay các lực lượng khác (hải quan, biên phòng, vv...) sử dụng.', '(2) Các loại vũ khí được sử dụng bởi cá nhân với mục đích tự vệ, săn bắn, bắn bia (ví dụ: ở trường bắn, phòng tập bắn hoặc ở hội chợ), .v.v.', '(3) Những khí cụ khác sử dụng sức nổ của thuốc súng (ví dụ: súng phóng dây, súng ngắn).', '(4) Đạn và tên lửa (trừ những mặt hàng thuộc Chương 36).', 'Trừ một vài trường hợp ngoại lệ (xem Chú giải của nhóm 93.05 và 93.06) Chương này cũng bao gồm bộ phận và phụ kiện của các vũ khí và các bộ phận của đạn.', 'Kính ngắm và các thiết bị quang học khác sử dụng với vũ khí và đã được lắp trên chúng (vũ khí), hay đi kèm với súng cầm tay được thiết kế để lắp chúng được phân loại cùng với loại vũ khí tương ứng. Các trường hợp còn lại, như những thiết bị quang học này bị loại trừ (Chương 90).', 'Các phương tiện vận tải bị loại trừ khỏi Chương này cho dù chúng được thiết kế chỉ sử dụng cho mục đích quân sự và cho dù có được lắp vũ khí hay không. Do vậy, Chương này cũng loại trừ các phương tiện ví dụ: các phương tiện bọc thép được dùng trên đường sắt (Chương 86), xe tăng và xe thiết giáp (nhóm 87.10), máy bay quân sự (nhóm 88.01, 88.02 hoặc 88.06), và chiến hạm (nhóm 89.06). Tuy nhiên, những vũ khí được trình bày riêng của các phương tiện này,... (như súng, súng máy, v.v.) vẫn thuộc Chương này (xem Chú giải nhóm 93.01 về một số loại vũ khí gắn trên những phương tiện đường sắt hay đường bộ).', 'Những mặt hàng sau cũng bị loại trừ khỏi Chương này:', '(a) Mũ sắt và các loại mũ quân sự khác (Chương 65).', '(b) Áo giáp cá nhân ví dụ: áo giáp, áo giáp kim loại kiểu choàng, áo chống đạn, vv... (được phân loại theo vật liệu cấu thành).', '(c) Nỏ, cung và tên, cũng như những vũ khí khác mang tính chất đồ chơi (Chương 95).', '(d) Bộ sưu tập hay đồ cổ (nhóm 97.05 hay 97.06).', 'Vũ khí và các bộ phận của chúng trong Chương này có thể có phần bằng kim loại quý, kim loại dát phủ bằng kim loại quý, dát ngọc trai tự nhiên hay nuôi cấy, đá quý hay đá bán quý (tự nhiên, tổng hợp, hoặc tái tạo), đồi mồi, xà cừ, ngà và những chất liệu tương tự.']</t>
@@ -1135,7 +1105,7 @@
     <t>['TỔNG QUÁT', 'Chương này bao gồm đồ chơi các loại được thiết kế để giải trí cho trẻ em hoặc người lớn. Nó cũng bao gồm thiết bị trò chơi trong nhà hoặc ngoài trời, các thiết bị và dụng cụ dùng cho các môn thể thao, thể dục thể hình hoặc điền kinh, một số vật dụng cần thiết cho săn bắn hoặc câu cá, và các sàn quay và những trò giải trí khác tại các hội chợ.', 'Mỗi nhóm của Chương này cũng bao gồm các bộ phận và các đồ phụ trợ có thể xác định được là của các mặt hàng trong Chương này mà chỉ phù hợp hay chủ yếu sử dụng cho mặt hàng đó, và chúng không bị loại trừ bởi Chú giải 1 của Chương này.', 'Nói chung, các mặt hàng của Chương này có thể được làm bằng bất kỳ vật liệu nào, loại trừ ngọc trai nuôi cấy hoặc ngọc trai tự nhiên, đá quý hoặc đá bán quý (tự nhiên, nhân tạo hoặc tái chế), kim loại quý, kim loại dát phủ kim loại quý. Tuy nhiên chúng có thể bao gồm các bộ phận cấu thành rất nhỏ được làm từ các vật liệu này.', 'Ngoài các mặt hàng bị loại trừ bởi các Chú giải chi tiết dưới đây, chương này cũng loại trừ:', '(a) Pháo hoa hoặc các sản phẩm pháo khác thuộc nhóm 36.04', '(b) Lốp cao su và các mặt hàng khác của nhóm 40.11, 40.12 hoặc 40.13.', '(c) Lều và các dụng cụ cắm trại (nói chung thuộc nhóm 63.06).', '(d) Bơm chất lỏng (nhóm 84.13), thiết bị lọc hay tinh chế chất lỏng hoặc chất khí (nhóm 84.21), các động cơ điện (nhóm 85.01), máy biến điện (nhóm 85.04), đĩa, băng, các thiết bị lưu trữ bền vững, thể rắn (các thiết bị bán dẫn không mất dữ liệu khi không có nguồn điện cung cấp), “thẻ thông minh” và các phương tiện lưu trữ thông tin khác để ghi âm thanh hoặc các nội dung, hình thức thể hiện khác, đã hoặc chưa ghi (nhóm 85.23), thiết bị điều khiển từ xa bằng sóng vô tuyến (nhóm 85.26) hoặc thiết bị điều khiển từ xa không dây bằng tia hồng ngoại (nhóm 85.43).', '(e) Vũ khí và các mặt hàng khác của Chương 93.', '[95.01]', '[95.02]']</t>
   </si>
   <si>
-    <t>['TỔNG QUÁT', 'Chương này bao gồm các vật liệu để chạm trổ và để đúc và các sản phẩm làm từ chúng, một số mặt hàng chổi, bàn chải và rây sàng, đồ may vá, văn phòng phẩm, dụng cụ cho người hút thuốc, đồ dùng nhà vệ sinh, một số sản phẩm vệ sinh thấm nước (băng (miếng) và nút bông vệ sinh, tã lót và khăn lót vệ sinh cho trẻ và các mặt hàng tương tự làm bằng bất cứ chất liệu gì) và các vật dụng khác chưa được chi tiết tại các nhóm khác trong Danh mục.', 'Các mặt hàng được mô tả trong các nhóm 96.07 đến 96.14 và 96.16 đến 96.18 có thể làm bằng toàn bộ hoặc một phần ngọc trai thiên nhiên hoặc nuôi cấy, đá quý, hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo), kim loại quý, kim loại mạ kim loại quý. Tuy nhiên, các mặt hàng mô tả trong nhóm 96.01 đến 96.06 và 96.15 có thể chứa các chất liệu này chỉ với hàm lượng rất nhỏ.', '96.01- Ngà, xương, đồi mồi, sừng, nhánh gạc, san hô, xà cừ và các vật liệu chạm khắc có nguồn gốc động vật khác đã gia công, và các mặt hàng làm từ các vật liệu này (kể cả các sản phẩm đúc).']</t>
+    <t>['TỔNG QUÁT', 'Chương này bao gồm các vật liệu để chạm trổ và để đúc và các sản phẩm làm từ chúng, một số mặt hàng chổi, bàn chải và rây sàng, đồ may vá, văn phòng phẩm, dụng cụ cho người hút thuốc, đồ dùng nhà vệ sinh, một số sản phẩm vệ sinh thấm nước (băng (miếng) và nút bông vệ sinh, tã lót và khăn lót vệ sinh cho trẻ và các mặt hàng tương tự làm bằng bất cứ chất liệu gì) và các vật dụng khác chưa được chi tiết tại các nhóm khác trong Danh mục.', 'Các mặt hàng được mô tả trong các nhóm 96.07 đến 96.14 và 96.16 đến 96.18 có thể làm bằng toàn bộ hoặc một phần ngọc trai thiên nhiên hoặc nuôi cấy, đá quý, hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo), kim loại quý, kim loại mạ kim loại quý. Tuy nhiên, các mặt hàng mô tả trong nhóm 96.01 đến 96.06 và 96.15 có thể chứa các chất liệu này chỉ với hàm lượng rất nhỏ.', '96.01- Ngà, xương, đồi mồi, sừng, nhánh gạc, san hô, xà cừ và các vật liệu chạm khắc có nguồn gốc động vật khác đã gia công, và các mặt hàng làm từ các vật liệu này (kể cả các sản phẩm đúc).', '9601.10 - Ngà đã gia công và các vật phẩm bằng ngà', '9601.90 - Loại khác', 'Nhóm này liên quan đến các chất liệu có nguồn gốc động vật (trừ chất liệu nêu trong nhóm 96.02) đã gia công chủ yếu bằng chạm trổ hoặc cắt gọt. Phần lớn trong số này cũng có thể được tạo hình.', 'Theo mục đích của nhóm này, khái niệm "đã gia công" dùng để chỉ các vật liệu đã được xử lý trên mức sơ chế so với nguyên vật liệu thô của nhóm liên quan (xem Chú giải chi tiết nhóm 05.05 đến 05.08). Bởi vậy, nhóm này bao gồm các mảnh ngà voi, xương, mai rùa, sừng, gạc, san hô, xà cừ... dưới dạng tấm, phiến, que,… đã cắt gọt thành hình (kể cả hình vuông hoặc chữ nhật), hoặc đánh bóng hoặc gia công bằng cách mài, khoan, phay, tiện...', 'Tuy nhiên, các mảnh có thể xác định là các bộ phận của vật phẩm thuộc một nhóm khác của Danh mục thì bị loại khỏi nhóm này. Vì vậy, các phím đàn pianô và các mảnh gắn vào báng súng được xếp lần lượt vào nhóm 92.09 và 93.05. Tuy nhiên, các chất liệu đã gia công nhưng không thể xác định là các bộ phận của vật phẩm thì vẫn xếp vào nhóm này (ví dụ các đĩa, tấm, dải hoặc các sợi đơn giản dùng để khảm,…, hoặc dùng để sản xuất các phím pianô).', 'Đặc biệt người ta xếp ở nhóm này, miễn là khi chúng đã được gia công chế tác hoặc dưới dạng vật phẩm:', '(I) Ngà. Trong suốt Danh mục, ngà voi, răng của con hà mã, hải cẩu, kỳ lân biển, lợn lòi, sừng của tê giác và răng của mọi loài động vật đều được xem là ngà (xem Chú giải 3 của Chương 5).', '(tiếng anh thiếu mất con moóc, cần tìm hiểu)', '(II) Xương, là phần đặc, cứng của cơ thể của nhiều động vật và hầu như được gia công bằng cách cắt gọt.', '(III) Đồi mồi hầu như chỉ lấy từ rùa biển. Mai rùa có màu vàng, màu nâu hoặc màu đen, khi được xử lý nhiệt, nó rất dẻo và dễ uốn, khi nguội nó giữ lại hình dạng đã định.', '(IV) Sừng, gạc lấy từ trán của động vật nhai lại. Lõi sừng không dùng làm vật liệu cho chạm hoặc khắc mà chủ yếu chỉ dùng để nấu cao (gelatin).', '(V) San hô tự nhiên (xương can xi hoá của loài pô líp biển) và san hô tái tạo.', '(VI) Xà cừ, lớp vỏ của một số loại trai có màu trắng đục, bóng láng, óng ánh nhiều màu sắc; mặc dù bề mặt của nó có vẻ như hình gợn sóng, nhưng thực tế nó hoàn toàn nhẵn.', '(VII) Guốc, móng, vuốt và mỏ.', '(VIII) Xương và các chất liệu tương tự lấy từ động vật biển có vú.', '(IX) Ống lông vũ.', '(X) Vỏ, mai của động vật giáp sát và động vật không xương sống.', 'Nhóm này bao gồm :', '(A) Các vật liệu có nguồn gốc động vật dùng để chạm trổ đã được gia công', 'Các vật liệu chạm trổ nêu trong nhóm này được xếp ở đây miễn là chúng đã được gia công ở mức cao hơn là làm sạch hoặc cạo sạch, cắt gọt đơn giản để loại bỏ các phần không dùng được, xẻ (đôi khi tiếp theo là bào thô) và trong một số trường hợp, tẩy trắng, mài nhẵn, gọt rũa hoặc chẻ nhỏ.', 'Như vậy, đồi mồi bị loại khỏi nhóm nếu nó chưa trải qua các chế tác vượt quá mức nắn thẳng và làm phẳng bề mặt (thao tác cuối cùng này ngoại lệ vì mai rùa chưa gia công hầu như dưới dạng miếng có độ dày không đều và bề mặt cong) (xem Chú giải chi tiết của nhóm 05.07, Phần (B)). Tương tự, nhóm này cũng loại trừ san hô chỉ bị loại bỏ lớp vỏ phía ngoài (nhóm 05.08).', 'Nhóm này cũng bao gồm các vật phẩm được tạo hình dưới bất kỳ hình dạng nào được làm từ mai rùa, vẩy hoặc móng, hoặc từ các chất liệu tái tạo lấy từ bột hoặc phế liệu của bất kỳ vật liệu chạm khảm của nhóm này.', 'Một trong những thuộc tính của mai rùa là tự nó có thể dính lại với nhau dưới ảnh hưởng của sức nóng mà không cần đến chất kết dính nào. Người ta lợi dụng thuộc tính này để tạo ra các miếng tương đối dầy bằng cách chồng các lớp mỏng lên nhau. Sừng có đặc tính là khi làm nóng nó trở nên mềm ra và sau đó có thể làm phẳng hoặc biến thành bột nhão. Bởi vậy nó có thể gia công bằng cách ép khuôn như mai rùa.', 'Các đĩa đã hoặc chưa được đánh bóng không có đặc điểm của khuy chưa hoàn chỉnh (về mặt hàng này xem Chú giải chi tiết của nhóm 96.06) và ngọc trai Jerusalem (bao gồm các viên ngọc trai không đều, mới chỉ đục lỗ nhưng chưa đánh bóng, chưa phân loại hoặc chưa gia công thêm) vẫn được xếp vào trong nhóm này ngay khi chúng mới tạm xâu thành dây.', '(B) Các vật phẩm làm bằng nguyên vật liệu chạm khắc có nguồn gốc động vật thuộc nhóm này:', 'Nhóm này bao gồm:', '(1) Hộp đựng thuốc lá hoặc xì gà, hộp đựng thuốc lá hít, hộp phấn, khoá vòng, cặp gài, hộp đựng son môi.', '(2) Tay cầm và thân (giá) bàn chải, để riêng rẽ.', '(3) Các loại hộp khác nhau, hộp đựng kẹo cachou, hộp bảo vệ đồng hồ.', '(4) Cán (tay cầm) của các dụng cụ, dao, nĩa, dao cạo râu,…, thuộc Chương 82, được trình bày riêng', '(5) Dao rọc giấy, mở thư, cái đánh dấu sách.', '(6) Khung ảnh, khung tranh, v.v.', '(7) Bọc sách.', '(8) Các vật phẩm dùng cho tôn giáo.', '(9) Kim móc, kim đan.', '(10) Các vật trang sức nhỏ, chẳng hạn đồ nữ trang rẻ tiền, các mặt hàng điêu khắc trừ những mặt hàng của nhóm 97.03.', '(11) Xỏ giầy.', '(12) Các vật phẩm phục vụ bàn ăn như giá để dao, vòng để thìa nhỏ và khăn ăn.', '(13) Sừng và gạc treo để trang trí (vật kỷ niệm thành tích, v.v.).', '(14) Đá màu chạm nổi và đá màu chạm chìm, trừ loại dùng làm đồ trang sức.', 'Nhóm này cũng bao gồm các vật phẩm làm từ các loại vỏ đặc biệt và các vật phẩm (chẳng hạn như tăm xỉa răng, đầu ngậm xì gà) làm bằng lông ống. Tuy nhiên, nhóm này loại trừ lông ống mới cắt thành đoạn và chưa gia công thêm (nhóm 05.05), và lông ống đã xử lý để làm phao câu (nhóm 95.07).', 'Các vật phẩm được khảm nổi hoặc khảm chìm bằng các nguyên liệu chạm khảm có nguồn gốc động vật được xếp vào nhóm này nếu yếu tố khảm tạo nên đặc tính chính của thành phẩm. Đó là trường hợp các hộp, hòm bằng gỗ,... được khảm ngà voi, xương, mai rùa hoặc sừng.', 'Nhóm này cũng không bao gồm:', '(a) Các vật phẩm của Chương 66, (ví dụ như các bộ phận của ô, dù, can (gậy chống),..., tay cầm, thân và đầu).', '(b) Gương thuỷ tinh có khung (nhóm 70.09)', '(c) Các vật phẩm làm bằng vật liệu chạm khắc có nguồn gốc từ động vật, bao gồm một phần là kim loại quý, kim loại mạ kim loại quý, hoặc bao gồm các hạt trai tự nhiên hoặc nuôi cấy, hoặc bằng đá quý, hoặc bán quý (tự nhiên, tổng hợp hay tái tạo) (Chương 71). Tuy nhiên các vật phẩm loại này vẫn được xếp trong nhóm này khi các hạt trai tự nhiên hoặc nuôi cấy, đá quý hoặc đá bán quý (tự nhiên, tổng hợp hay tái tạo), các kim loại quý, hoặc kim loại mạ kim loại quý chỉ chiếm tỷ lệ rất nhỏ (ví dụ kí tự đầu, dấu hiệu viết tắt, vành, rìa...)', '(d) Các vật phẩm là đồ trang sức giả quý (nhóm 71.17).', '(e) Bộ dao/muỗng/nĩa và những vật phẩm khác của Chương 82 có cán, tay cầm, quai, móc hoặc các bộ phận khác bằng vật liệu chạm khắc hoặc tạo hình.Tuy nhiên, khi để riêng thì cán, tay cầm, quai, móc, hoặc các bộ phận trên được xếp vào nhóm này.', '(f) Các vật phẩm của Chương 90 (ví dụ ống nhòm, gọng kính mắt và các bộ phận của gọng kính mắt, kính cặp mũi không gọng, kính cầm tay, kính bảo hộ và các vật phẩm tương tự).', '(g) Các vật phẩm của Chương 91 (ví dụ vỏ đồng hồ). Tuy nhiên, nắp bảo vệ cho đồng hồ đeo tay vẫn được xếp vào nhóm này.', '(h) Các vật phẩm của Chương 92, ví dụ các nhạc cụ và các bộ phận của chúng (kèn tù và, phím pianô hoặc ácoocđiông, chốt của đàn, cầu đàn).', '(ij) Các vật phẩm của Chương 93, (ví dụ, các bộ phận vũ khí).', '(k) Các vật phẩm của Chương 94 (ví dụ, đồ nội thất, đèn (luminaires) và bộ đèn).', '(l) Các vật phẩm của Chương 95 (đồ chơi, trò chơi, dụng cụ thể thao).', '(m) Các vật phẩm của nhóm 96.03 (ví dụ, chổi và bàn chải) và của nhóm 96.04. Tuy nhiên các cán hoặc bàn cắm lông bàn chải nếu để riêng thì vẫn được xếp vào nhóm này.', '(n) Các vật phẩm của nhóm 96.05, 96.06, 96.08, 96.11 hoặc 96.13 đến 96.16, (ví dụ khuy và khuy chưa thành phẩm; bút mực, quản bút,...; tẩu hút thuốc, bát và ống điếu và các bộ phận của điếu; xì gà và ống hút thuốc và các bộ phận của chúng, lược).', '(o) Các vật phẩm của Chương 97 (ví dụ các nguyên bản điêu khắc hoặc tượng tạc, các mẫu vật sưu tập về động thực vật).', '96.02- Vật liệu khảm có nguồn gốc thực vật hoặc khoáng đã được gia công và các sản phẩm làm từ các loại vật liệu này; các vật liệu đúc hay chạm khắc bằng sáp, bằng stearin, bằng gôm tự nhiên hay nhựa tự nhiên hoặc bằng bột nhão làm mô hình, và sản phẩm được đúc hay chạm khắc khác, chưa được chi tiết hay ghi ở nơi khác; gelatin đã chế biến nhưng chưa đóng cứng (trừ gelatin thuộc nhóm 35.03) và các sản phẩm làm bằng gelatin chưa đóng cứng.', 'Từ carving cần dịch là chạm trổ, khảm trong tiếng anh là “mosaic” hoặc “inlay” nghĩa là đưa thêm vật liệu trang trí khác dính vào bề mặt một vật. Về định nghĩa của thuật ngữ "đã gia công", đoạn 2 của Chú giải chi tiết cho nhóm 96.01 được áp dụng cho nhóm này với những điều chỉnh cần thiết (ví dụ cũng xem Chú giải chi tiết nhóm 14.04, 15.21, 25.30, 27.14, 34.04, 34.07, 35.03).', '(I) VẬT LIỆU CHẠM TRỔ CÓ NGUỒN GỐC THỰC VẬT HOẶC KHOÁNG ĐÃ ĐƯỢC GIA CÔNG VÀ CÁC SẢN PHẨM LÀM TỪ CÁC LOẠI VẬT LIỆU NÀY', '(A) Vật liệu chạm trổ nguồn gốc thực vật được gia công.', 'Nhóm này bao gồm các vật liệu chạm trổ có nguồn gốc thực vật, đã được gia công thuộc loại nêu tại Chú giải 2(a) của Chương này. Chúng bao gồm corozo (còn được gọi là ngà thực vật), hạt của cọ đum và hạt tương tự của các cây cọ khác (Tahiti, Palmira,v.v.), vỏ dừa, hạt của nhiều loại sậy, hạt của Abrrus (hoặc cây tràng hạt) hạt của chà là và ô liu, hạt cọ Piassa và hạt minh quyết.', 'Nhóm này cũng bao gồm các sản phẩm được làm bằng cách đúc khuôn bột của vật liệu chạm khảm có nguồn gốc thực vật.', '(B) Vật liệu chạm trổ từ nguồn khoáng, được gia công.', 'Nhóm này bao gồm các vật liệu chạm trổ có nguồn gốc từ khoáng đã được gia công thuộc loại nêu tại Chú giải 2(b) của Chương này.', 'Nhóm này không bao gồm các sản phẩm sau đây (xếp vào nhóm 25.30):', '(i) Các khối, các miếng bọt biển hoặc hổ phách thô;', '(ii) Bọt biển tái tạo và hổ phách tái tạo thu được từ phế thải của bọt biển tự nhiên và vụn hổ phách được tái tạo hoặc đúc khuôn, dưới dạng các mảnh, tấm nhỏ, que, gậy và các hình tương tự, chưa qua gia công sau khi đúc khuôn.', '(C) Các vật phẩm chạm trổ có nguồn gốc thực vật hoặc khoáng.', 'Theo các quy định loại trừ nêu dưới đây, nhóm này bao gồm các vật phẩm làm bằng vật liệu chạm trổ có nguồn gốc thực vật hoặc khoáng như:', '(i) Các đồ trang trí nhỏ (ví dụ tượng).', '(ii) Các vật phẩm nhỏ như hộp, bao, túi.', '(iii) Các đĩa đã hoặc chưa đánh bóng (trừ khuy chưa hoàn chỉnh, xem Chú giải chi tiết nhóm 96.06).', '(II) CÁC VẬT LIỆU ĐÚC BẰNG KHUÔN HOẶC CHẠM KHẮC BẰNG SÁP, BẰNG STEARIN, BẰNG GÔM TỰ NHIÊN HAY NHỰA TỰ NHIÊN, BẰNG BỘT NHÃO ĐỂ LÀM MÔ HÌNH VÀ CÁC VẬT PHẨM ĐƯỢC ĐÚC HAY CHẠM KHẮC KHÁC, CHƯA ĐƯỢC CHI TIẾT HAY GHI Ở NƠI KHÁC, KEO ĐỘNG VẬT CHƯA ĐÓNG CỨNG ĐƯỢC GIA CÔNG VÀ CÁC VẬT PHẨM BẰNG KEO ĐỘNG VẬT CHƯA ĐÓNG CỨNG', 'Một mặt nhóm này bao gồm các vật phẩm được đúc khuôn hoặc chạm khắc làm bằng nhiều vật liệu khác nhau, miễn là chúng chưa được chi tiết hoặc nêu tại các nhóm khác của Danh mục (chẳng hạn các sản phẩm nhựa của Chương 39, hoặc sản phẩm làm bằng êbônit của Chương 40,...). Nhóm này cũng bao gồm gelatin chưa đóng cứng được gia công và các vật phẩm bằng vật liệu này (trừ các vật phẩm của nhóm 35.03 hoặc của Chương 49).', 'Theo mục đích sử dụng của các vật liệu này, khái niệm "các vật phẩm được đúc khuôn" có nghĩa là các vật phẩm được đúc theo hình dạng phù hợp với mục đích sử dụng. Trái lại, không xếp vào nhóm này các vật liệu được đúc khuôn dưới dạng hình khối, hình lập phương, tấm, thanh, thỏi, ... cho dù chúng đã hoặc chưa ép hình trong quá trình đúc.', 'Theo các loại trừ nêu ở dưới đây, nhóm này bao gồm:', '(1) Các vật phẩm đúc khuôn hoặc chạm trổ làm bằng sáp:', '(i) Tàng ong nhân tạo.', '(ii) Các hình đúc dùng cho mạ điện.', '(iii) Hoa, cành, lá hoặc quả giả được đúc khuôn thành một chỉnh thể hoặc được lắp ráp lại với nhau theo cách khác với cách xử lý (như buộc, gắn hồ hoặc phương pháp tương tự) khiến cho chúng có thể phân vào nhóm 67.02.', '(iv) Tượng bán thân, đầu, tượng nhân vật hoặc tượng nhỏ (trừ các vật phẩm thuộc loại dùng như manơcanh xem Chú giải chi tiết của nhóm 96.18 và các nguyên bản điêu khắc và tạc tượng (xem nhóm 97.03).', '(v) Các hạt trai bằng sáp.', '(vi) Các ống hình chữ T làm từ chế phẩm gốc sáp và được dùng trong một số loại phẫu thuật thẩm mỹ.', '(vii) Kẹo giả, thanh sô cô la giả và các vật phẩm mô phỏng khác bằng sáp dùng để trưng bày trong tủ kính của cửa hiệu.', '(viii) Bịt tai bằng sáp có vành bằng len pha bông.', '(ix) Dải băng bằng sáp bọc ngoài bằng vật liệu dệt dùng để bịt các lỗ hổng trong các hình đúc làm bằng gỗ.', '(2) Các sản phẩm đúc hoặc chạm khắc bằng paraphin (đặc biệt là bình chứa axit fluo hydric).', '(3) Các sản phẩm đúc hoặc chạm khắc bằng stearin.', '(4) Các sản phẩm đúc hoặc chạm khắc bằng rôsin là nhựa cây thông hay một số cây khác (ví dụ rôsin dùng xát vào vĩ đàn viôlông).', '(5) Các sản phẩm đúc hoặc chạm khắc bằng côpan (thường là các đồ giả hổ phách).', '(6) Các sản phẩm đúc hoặc chạm khắc làm bằng sáp làm mô hình (ví dụ hoa hoặc cây đúc thành một mẩu vật, tượng nhân vật, tượng nhỏ và các đồ vật trang trí khác tương tự).', '(7) Các sản phẩm đúc hoặc chạm khắc làm từ gốc bột hoặc tinh bột, trộn với gôm, rồi phủ sơn (hoa hoặc quả giả, đúc thành một mẩu vật, các tượng nhỏ,v.v.).', '(8) Các phiến keo động vật chưa đóng cứng cắt thành hình không phải hình vuông hay hình chữ nhật. Những phiến cắt thành hình chữ nhật (kể cả hình vuông) đã hoặc chưa gia công bề mặt được xếp vào nhóm 35.03 hoặc Chương 49 (ví dụ bưu thiếp) (xem Chú giải chi tiết của nhóm 35.03). Các vật phẩm bằng gelatin chưa đóng cứng, ví dụ:', '(i) Đĩa nhỏ dùng để dính đầu gậy bi-a.', '(ii) Vỏ nhộng cho sản phẩm dược và đựng nhiên liệu cho bật lửa cơ.', '*', '*   *', 'Các vật phẩm được phủ hoặc khảm bằng vật liệu chạm khắc nguồn gốc thực vật hoặc khoáng vật hoặc bằng vật liệu đúc được xếp trong nhóm này, nếu yếu tố phủ hoặc khảm tạo nên đặc tính chính của sản phẩm hoàn thiện. Điều này cũng có thể áp dụng trong trường hợp các hộp, hòm bằng gỗ, được phủ hoặc khảm bằng vật liệu mô tả trong nhóm này.', 'Các qui định của Chú giải chi tiết cho nhóm 96.01 đối với các sản phẩm bị loại trừ khỏi nhóm đó cũng có thể áp dụng cho nhóm này.', 'Nhóm này cũng không bao gồm:', '(a) Sáp để niêm phong, kể cả loại gắn nút chai (nhóm 32.14 hoặc 34.04).', '(b) Nến, nến cây và các loại tương tự bằng parafin hoặc bằng sáp, stearin,... khác (nhóm 34.06).', '(c) Chất dẻo dùng để làm mô hình (kể cả chất dẻo đóng hộp cho trẻ em chơi) và các chế phẩm như “sáp nha khoa” hay “sáp lấy khuôn răng” đóng thành bộ, trong các túi bán lẻ hoặc thành tấm, hình móng ngựa, thỏi hoặc dưới các dạng tương tự (nhóm 34.07).', '(d) Các chất dẻo dùng để sao chép gốc keo động vật (nhóm 38.24).', '(e) Các vật phẩm đúc khuôn bằng than bùn (nhóm 68.15).', '(f) Các mô hình để minh họa (nhóm 90.23).']</t>
   </si>
   <si>
     <t>['TỔNG QUÁT', 'Chương này bao gồm:', '(A) Một số loại tác phẩm nghệ thuật nhất định: tranh vẽ, bản vẽ và tranh phấn màu, thể hiện hoàn toàn bằng tay, và các tác phẩm ghép nghệ thuật và bức phù điêu trang trí tương tự (nhóm 97.01); các nguyên bản khắc, bản in, bản in li tô (nhóm 97.02); các nguyên bản tác phẩm điêu khắc và tượng tạc (nhóm 97.03).', '(B) Tem bưu điện, tem thuế và các loại tem tương tự, dấu tem bưu điện, phong bì có tem đóng dấu ngày phát hành đầu tiên, các ấn phẩm bưu chính (ấn phẩm đóng dấu tem) và các vật phẩm tương tự đã sử dụng hoặc chưa, ngoại trừ những loại thuộc nhóm 49.07 (nhóm 97.04).', '(C) Bộ sưu tập và đồ sưu tầm về động vật học, thực vật học, khoáng vật học, giải phẫu học, lịch sử, khảo cổ học, cổ sinh vật học, dân tộc học, bộ sưu tập tiền cổ (nhóm 97.05).', '(D) Đồ cổ có tuổi hơn 100 năm (nhóm 97.06).', 'Các mặt hàng của Chương này có thể bao gồm các mặt hàng có ý nghĩa văn hóa bị hạn chế xuất khẩu hoặc nhập khẩu.', 'Tuy nhiên, cần lưu ý, các vật phẩm này sẽ được xếp vào các Chương khác của Danh mục, nếu chúng không phù hợp với các điều kiện nêu tại Chú giải hoặc nhóm của Chương này.', 'Các vật phẩm thuộc các nhóm từ 97.01 đến 97.05 vẫn được xếp vào các nhóm đó mặc dù chúng có trên 100 năm tuổi.']</t>
@@ -1509,14 +1479,10 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1543,7 +1509,7 @@
         <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,7 +1523,7 @@
         <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,7 +1537,7 @@
         <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,7 +1551,7 @@
         <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1599,7 +1565,7 @@
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1613,7 +1579,7 @@
         <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1627,7 +1593,7 @@
         <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,7 +1607,7 @@
         <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1655,7 +1621,7 @@
         <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1669,7 +1635,7 @@
         <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,7 +1649,7 @@
         <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1697,7 +1663,7 @@
         <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1725,7 +1691,7 @@
         <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,7 +1705,7 @@
         <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1753,7 +1719,7 @@
         <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,7 +1733,7 @@
         <v>212</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1781,7 +1747,7 @@
         <v>213</v>
       </c>
       <c r="D19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,7 +1761,7 @@
         <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,7 +1775,7 @@
         <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1837,7 +1803,7 @@
         <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1851,7 +1817,7 @@
         <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1865,7 +1831,7 @@
         <v>219</v>
       </c>
       <c r="D25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1935,7 +1901,7 @@
         <v>224</v>
       </c>
       <c r="D30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1949,7 +1915,7 @@
         <v>225</v>
       </c>
       <c r="D31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2019,7 +1985,7 @@
         <v>230</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2173,7 +2139,7 @@
         <v>241</v>
       </c>
       <c r="D47" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2187,7 +2153,7 @@
         <v>242</v>
       </c>
       <c r="D48" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,7 +2167,7 @@
         <v>243</v>
       </c>
       <c r="D49" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2215,7 +2181,7 @@
         <v>244</v>
       </c>
       <c r="D50" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2229,7 +2195,7 @@
         <v>245</v>
       </c>
       <c r="D51" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,7 +2209,7 @@
         <v>246</v>
       </c>
       <c r="D52" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2257,7 +2223,7 @@
         <v>247</v>
       </c>
       <c r="D53" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2271,7 +2237,7 @@
         <v>245</v>
       </c>
       <c r="D54" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2285,7 +2251,7 @@
         <v>248</v>
       </c>
       <c r="D55" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2299,7 +2265,7 @@
         <v>249</v>
       </c>
       <c r="D56" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,7 +2279,7 @@
         <v>250</v>
       </c>
       <c r="D57" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2327,7 +2293,7 @@
         <v>251</v>
       </c>
       <c r="D58" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2341,7 +2307,7 @@
         <v>252</v>
       </c>
       <c r="D59" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2369,7 +2335,7 @@
         <v>254</v>
       </c>
       <c r="D61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2383,7 +2349,7 @@
         <v>255</v>
       </c>
       <c r="D62" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2397,7 +2363,7 @@
         <v>256</v>
       </c>
       <c r="D63" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,7 +2377,7 @@
         <v>257</v>
       </c>
       <c r="D64" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,7 +2391,7 @@
         <v>258</v>
       </c>
       <c r="D65" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2439,7 +2405,7 @@
         <v>259</v>
       </c>
       <c r="D66" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2481,7 +2447,7 @@
         <v>262</v>
       </c>
       <c r="D69" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2495,7 +2461,7 @@
         <v>263</v>
       </c>
       <c r="D70" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2509,7 +2475,7 @@
         <v>264</v>
       </c>
       <c r="D71" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2523,7 +2489,7 @@
         <v>265</v>
       </c>
       <c r="D72" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2537,7 +2503,7 @@
         <v>266</v>
       </c>
       <c r="D73" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2551,7 +2517,7 @@
         <v>267</v>
       </c>
       <c r="D74" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2565,7 +2531,7 @@
         <v>268</v>
       </c>
       <c r="D75" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2579,7 +2545,7 @@
         <v>269</v>
       </c>
       <c r="D76" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2593,7 +2559,7 @@
         <v>270</v>
       </c>
       <c r="D77" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2607,7 +2573,7 @@
         <v>271</v>
       </c>
       <c r="D78" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,7 +2587,7 @@
         <v>272</v>
       </c>
       <c r="D79" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,7 +2601,7 @@
         <v>273</v>
       </c>
       <c r="D80" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2646,10 +2612,10 @@
         <v>179</v>
       </c>
       <c r="C81" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="D81" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2660,10 +2626,10 @@
         <v>180</v>
       </c>
       <c r="C82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D82" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2674,10 +2640,10 @@
         <v>181</v>
       </c>
       <c r="C83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2688,7 +2654,7 @@
         <v>182</v>
       </c>
       <c r="C84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D84" t="s">
         <v>245</v>
@@ -2702,10 +2668,10 @@
         <v>183</v>
       </c>
       <c r="C85" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D85" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2716,10 +2682,10 @@
         <v>184</v>
       </c>
       <c r="C86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2730,7 +2696,7 @@
         <v>185</v>
       </c>
       <c r="C87" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D87" t="s">
         <v>245</v>
@@ -2744,10 +2710,10 @@
         <v>186</v>
       </c>
       <c r="C88" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D88" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2758,10 +2724,10 @@
         <v>187</v>
       </c>
       <c r="C89" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D89" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2772,10 +2738,10 @@
         <v>188</v>
       </c>
       <c r="C90" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D90" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2786,10 +2752,10 @@
         <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D91" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2800,10 +2766,10 @@
         <v>190</v>
       </c>
       <c r="C92" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D92" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2814,10 +2780,10 @@
         <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D93" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2828,10 +2794,10 @@
         <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D94" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2842,10 +2808,10 @@
         <v>193</v>
       </c>
       <c r="C95" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D95" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2856,10 +2822,10 @@
         <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D96" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2870,10 +2836,10 @@
         <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D97" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
